--- a/RP/Esterni/Piano di Progetto/Ripartizione ruoli e ore.xlsx
+++ b/RP/Esterni/Piano di Progetto/Ripartizione ruoli e ore.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="300" windowWidth="18735" windowHeight="11700" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="300" windowWidth="18735" windowHeight="11700" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Prospetto orario (CON AN)" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
     <sheet name="4_VV" sheetId="5" r:id="rId6"/>
     <sheet name="Grafici" sheetId="8" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -439,11 +439,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;€&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1480,10 +1480,48 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1498,48 +1536,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1769,18 +1769,35 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1795,6 +1812,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Grafici!$A$2:$A$8</c:f>
@@ -1828,7 +1846,7 @@
             <c:numRef>
               <c:f>Grafici!$B$2:$B$8</c:f>
               <c:numCache>
-                <c:formatCode>Standard</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>4</c:v>
@@ -1869,6 +1887,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Grafici!$A$2:$A$8</c:f>
@@ -1902,7 +1921,7 @@
             <c:numRef>
               <c:f>Grafici!$C$2:$C$8</c:f>
               <c:numCache>
-                <c:formatCode>Standard</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
@@ -1943,6 +1962,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Grafici!$A$2:$A$8</c:f>
@@ -1976,7 +1996,7 @@
             <c:numRef>
               <c:f>Grafici!$D$2:$D$8</c:f>
               <c:numCache>
-                <c:formatCode>Standard</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>12</c:v>
@@ -2017,6 +2037,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Grafici!$A$2:$A$8</c:f>
@@ -2050,7 +2071,7 @@
             <c:numRef>
               <c:f>Grafici!$E$2:$E$8</c:f>
               <c:numCache>
-                <c:formatCode>Standard</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
@@ -2091,6 +2112,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Grafici!$A$2:$A$8</c:f>
@@ -2124,7 +2146,7 @@
             <c:numRef>
               <c:f>Grafici!$F$2:$F$8</c:f>
               <c:numCache>
-                <c:formatCode>Standard</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>57</c:v>
@@ -2165,6 +2187,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Grafici!$A$2:$A$8</c:f>
@@ -2198,7 +2221,7 @@
             <c:numRef>
               <c:f>Grafici!$G$2:$G$8</c:f>
               <c:numCache>
-                <c:formatCode>Standard</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>4</c:v>
@@ -2225,33 +2248,49 @@
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="119752960"/>
-        <c:axId val="119762944"/>
+        <c:axId val="59533184"/>
+        <c:axId val="59534720"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="119752960"/>
+        <c:axId val="59533184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="119762944"/>
+        <c:crossAx val="59534720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="119762944"/>
+        <c:axId val="59534720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="Standard" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="119752960"/>
+        <c:crossAx val="59533184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2259,8 +2298,11 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -2272,8 +2314,19 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:pieChart>
@@ -2282,7 +2335,12 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
             <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
           </c:dLbls>
           <c:cat>
@@ -2315,7 +2373,7 @@
             <c:numRef>
               <c:f>Grafici!$F$40:$F$45</c:f>
               <c:numCache>
-                <c:formatCode>Standard</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>59</c:v>
@@ -2339,14 +2397,26 @@
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
         <c:firstSliceAng val="0"/>
       </c:pieChart>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -2358,8 +2428,19 @@
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:pieChart>
@@ -2368,7 +2449,12 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
             <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
           </c:dLbls>
           <c:cat>
@@ -2401,7 +2487,7 @@
             <c:numRef>
               <c:f>Grafici!$G$40:$G$45</c:f>
               <c:numCache>
-                <c:formatCode>Standard</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>1770</c:v>
@@ -2425,14 +2511,25 @@
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
         <c:firstSliceAng val="0"/>
       </c:pieChart>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -2612,6 +2709,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -2646,6 +2744,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2821,14 +2920,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BH61"/>
   <sheetViews>
     <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="P43" sqref="P43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.85546875" customWidth="1"/>
     <col min="2" max="3" width="3.42578125" customWidth="1"/>
@@ -2850,7 +2949,7 @@
     <col min="41" max="58" width="3.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60" ht="15.75" thickBot="1">
+    <row r="1" spans="1:60" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="147" t="s">
         <v>0</v>
       </c>
@@ -2890,7 +2989,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:60">
+    <row r="2" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A2" s="147" t="s">
         <v>7</v>
       </c>
@@ -2943,19 +3042,19 @@
         <f>'1_AN'!O2</f>
         <v>Membro</v>
       </c>
-      <c r="AC2" s="173" t="str">
+      <c r="AC2" s="170" t="str">
         <f>'1_AN'!P2</f>
         <v>I Periodo</v>
       </c>
-      <c r="AD2" s="174"/>
-      <c r="AE2" s="175"/>
-      <c r="AF2" s="173" t="str">
+      <c r="AD2" s="171"/>
+      <c r="AE2" s="172"/>
+      <c r="AF2" s="170" t="str">
         <f>'1_AN'!S2</f>
         <v>II Periodo</v>
       </c>
-      <c r="AG2" s="174"/>
-      <c r="AH2" s="174"/>
-      <c r="AI2" s="167" t="str">
+      <c r="AG2" s="171"/>
+      <c r="AH2" s="171"/>
+      <c r="AI2" s="173" t="str">
         <f>'1_AN'!V2</f>
         <v>Totale</v>
       </c>
@@ -3018,7 +3117,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:60" ht="15.75" thickBot="1">
+    <row r="3" spans="1:60" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="147" t="s">
         <v>8</v>
       </c>
@@ -3089,9 +3188,9 @@
         <f>'1_AN'!U3</f>
         <v>Fase</v>
       </c>
-      <c r="AI3" s="168"/>
-    </row>
-    <row r="4" spans="1:60">
+      <c r="AI3" s="174"/>
+    </row>
+    <row r="4" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A4" s="147" t="s">
         <v>10</v>
       </c>
@@ -3223,7 +3322,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:60">
+    <row r="5" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A5" s="147" t="s">
         <v>9</v>
       </c>
@@ -3355,7 +3454,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:60">
+    <row r="6" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A6" s="147" t="s">
         <v>11</v>
       </c>
@@ -3487,7 +3586,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:60">
+    <row r="7" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A7" s="147" t="s">
         <v>12</v>
       </c>
@@ -3619,7 +3718,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:60">
+    <row r="8" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A8" s="147" t="s">
         <v>13</v>
       </c>
@@ -3751,7 +3850,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:60">
+    <row r="9" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A9" s="147" t="s">
         <v>14</v>
       </c>
@@ -3865,7 +3964,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:60" ht="15.75" thickBot="1">
+    <row r="10" spans="1:60" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AB10" s="122" t="str">
         <f>'1_AN'!O10</f>
         <v>Maggiolo Giorgio</v>
@@ -3959,38 +4058,38 @@
         <v>138</v>
       </c>
     </row>
-    <row r="11" spans="1:60" ht="15.75" thickBot="1">
+    <row r="11" spans="1:60" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="BG11" s="158">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:60">
+    <row r="12" spans="1:60" x14ac:dyDescent="0.25">
       <c r="AA12" t="s">
         <v>123</v>
       </c>
       <c r="AB12" s="149" t="s">
         <v>126</v>
       </c>
-      <c r="AC12" s="173" t="str">
+      <c r="AC12" s="170" t="str">
         <f>'2_PA'!V9</f>
         <v>I Periodo</v>
       </c>
-      <c r="AD12" s="176"/>
-      <c r="AE12" s="177"/>
-      <c r="AF12" s="163" t="str">
+      <c r="AD12" s="175"/>
+      <c r="AE12" s="176"/>
+      <c r="AF12" s="177" t="str">
         <f>'2_PA'!Y9</f>
         <v>II Periodo</v>
       </c>
-      <c r="AG12" s="164"/>
-      <c r="AH12" s="165"/>
-      <c r="AI12" s="163" t="str">
+      <c r="AG12" s="178"/>
+      <c r="AH12" s="179"/>
+      <c r="AI12" s="177" t="str">
         <f>'2_PA'!AB9</f>
         <v>III Periodo</v>
       </c>
-      <c r="AJ12" s="164"/>
-      <c r="AK12" s="166"/>
-      <c r="AL12" s="167" t="str">
+      <c r="AJ12" s="178"/>
+      <c r="AK12" s="180"/>
+      <c r="AL12" s="173" t="str">
         <f>'2_PA'!AE9</f>
         <v>Totale</v>
       </c>
@@ -3999,7 +4098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:60" ht="15.75" thickBot="1">
+    <row r="13" spans="1:60" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E13" t="e">
         <f>VALUE(AB14)</f>
         <v>#VALUE!</v>
@@ -4041,7 +4140,7 @@
         <f>'2_PA'!AD10</f>
         <v>Fase</v>
       </c>
-      <c r="AL13" s="168"/>
+      <c r="AL13" s="174"/>
       <c r="AM13">
         <f>SUM(AL14:AL27)</f>
         <v>193</v>
@@ -4051,7 +4150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:60">
+    <row r="14" spans="1:60" x14ac:dyDescent="0.25">
       <c r="F14" t="str">
         <f>IF(AB8=AB4&amp;AB7=AB10,"fghj","lllllllll")</f>
         <v>lllllllll</v>
@@ -4096,7 +4195,7 @@
         <f>'2_PA'!AD11</f>
         <v>PA 3.2</v>
       </c>
-      <c r="AL14" s="169">
+      <c r="AL14" s="181">
         <f>'2_PA'!AE11</f>
         <v>27</v>
       </c>
@@ -4181,7 +4280,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="15" spans="1:60">
+    <row r="15" spans="1:60" x14ac:dyDescent="0.25">
       <c r="B15">
         <f>IF(AB10=A2,AA12,0)</f>
         <v>0</v>
@@ -4226,7 +4325,7 @@
         <f>'2_PA'!AD12</f>
         <v>0</v>
       </c>
-      <c r="AL15" s="161"/>
+      <c r="AL15" s="169"/>
       <c r="AO15">
         <f>IF($AC15=AO$2,$AD15,0)</f>
         <v>0</v>
@@ -4304,7 +4403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:60">
+    <row r="16" spans="1:60" x14ac:dyDescent="0.25">
       <c r="AB16" s="31" t="str">
         <f>'2_PA'!U13</f>
         <v>Facchin Gabriele</v>
@@ -4345,7 +4444,7 @@
         <f>'2_PA'!AD13</f>
         <v>PA 3.2</v>
       </c>
-      <c r="AL16" s="161">
+      <c r="AL16" s="169">
         <f>'2_PA'!AE13</f>
         <v>27</v>
       </c>
@@ -4426,7 +4525,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:60">
+    <row r="17" spans="1:60" x14ac:dyDescent="0.25">
       <c r="AB17" s="31">
         <f>'2_PA'!U14</f>
         <v>0</v>
@@ -4467,7 +4566,7 @@
         <f>'2_PA'!AD14</f>
         <v>0</v>
       </c>
-      <c r="AL17" s="161"/>
+      <c r="AL17" s="169"/>
       <c r="AO17">
         <f t="shared" si="35"/>
         <v>0</v>
@@ -4545,7 +4644,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:60">
+    <row r="18" spans="1:60" x14ac:dyDescent="0.25">
       <c r="AB18" s="47" t="str">
         <f>'2_PA'!U15</f>
         <v>Cornaglia Alessando</v>
@@ -4586,7 +4685,7 @@
         <f>'2_PA'!AD15</f>
         <v>PA 3.3</v>
       </c>
-      <c r="AL18" s="161">
+      <c r="AL18" s="169">
         <f>'2_PA'!AE15</f>
         <v>29</v>
       </c>
@@ -4667,7 +4766,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:60">
+    <row r="19" spans="1:60" x14ac:dyDescent="0.25">
       <c r="AB19" s="35">
         <f>'2_PA'!U16</f>
         <v>0</v>
@@ -4708,7 +4807,7 @@
         <f>'2_PA'!AD16</f>
         <v>PA 6.1</v>
       </c>
-      <c r="AL19" s="161"/>
+      <c r="AL19" s="169"/>
       <c r="AO19">
         <f t="shared" si="35"/>
         <v>0</v>
@@ -4786,7 +4885,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:60">
+    <row r="20" spans="1:60" x14ac:dyDescent="0.25">
       <c r="AB20" s="31" t="str">
         <f>'2_PA'!U17</f>
         <v>Dalla Pietà Massimo</v>
@@ -4827,7 +4926,7 @@
         <f>'2_PA'!AD17</f>
         <v>PA 3.3</v>
       </c>
-      <c r="AL20" s="161">
+      <c r="AL20" s="169">
         <f>'2_PA'!AE17</f>
         <v>27</v>
       </c>
@@ -4908,7 +5007,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:60">
+    <row r="21" spans="1:60" x14ac:dyDescent="0.25">
       <c r="AB21" s="31">
         <f>'2_PA'!U18</f>
         <v>0</v>
@@ -4949,7 +5048,7 @@
         <f>'2_PA'!AD18</f>
         <v>PA 6.2</v>
       </c>
-      <c r="AL21" s="161"/>
+      <c r="AL21" s="169"/>
       <c r="AO21">
         <f t="shared" si="35"/>
         <v>0</v>
@@ -5027,7 +5126,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:60">
+    <row r="22" spans="1:60" x14ac:dyDescent="0.25">
       <c r="AB22" s="47" t="str">
         <f>'2_PA'!U19</f>
         <v>Braghetto Lorenzo</v>
@@ -5068,7 +5167,7 @@
         <f>'2_PA'!AD19</f>
         <v>PA 5.1</v>
       </c>
-      <c r="AL22" s="161">
+      <c r="AL22" s="169">
         <f>'2_PA'!AE19</f>
         <v>27</v>
       </c>
@@ -5149,40 +5248,40 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:60">
+    <row r="23" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A23" s="153" t="s">
         <v>0</v>
       </c>
-      <c r="B23" s="178" t="s">
+      <c r="B23" s="168" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="178"/>
-      <c r="D23" s="178"/>
-      <c r="E23" s="178" t="s">
+      <c r="C23" s="168"/>
+      <c r="D23" s="168"/>
+      <c r="E23" s="168" t="s">
         <v>2</v>
       </c>
-      <c r="F23" s="178"/>
-      <c r="G23" s="178"/>
-      <c r="H23" s="178" t="s">
+      <c r="F23" s="168"/>
+      <c r="G23" s="168"/>
+      <c r="H23" s="168" t="s">
         <v>3</v>
       </c>
-      <c r="I23" s="178"/>
-      <c r="J23" s="178"/>
-      <c r="K23" s="178" t="s">
+      <c r="I23" s="168"/>
+      <c r="J23" s="168"/>
+      <c r="K23" s="168" t="s">
         <v>4</v>
       </c>
-      <c r="L23" s="178"/>
-      <c r="M23" s="178"/>
-      <c r="N23" s="178" t="s">
+      <c r="L23" s="168"/>
+      <c r="M23" s="168"/>
+      <c r="N23" s="168" t="s">
         <v>5</v>
       </c>
-      <c r="O23" s="178"/>
-      <c r="P23" s="178"/>
-      <c r="Q23" s="178" t="s">
+      <c r="O23" s="168"/>
+      <c r="P23" s="168"/>
+      <c r="Q23" s="168" t="s">
         <v>6</v>
       </c>
-      <c r="R23" s="178"/>
-      <c r="S23" s="178"/>
+      <c r="R23" s="168"/>
+      <c r="S23" s="168"/>
       <c r="T23" s="159" t="s">
         <v>14</v>
       </c>
@@ -5227,7 +5326,7 @@
         <f>'2_PA'!AD20</f>
         <v>0</v>
       </c>
-      <c r="AL23" s="161"/>
+      <c r="AL23" s="169"/>
       <c r="AO23">
         <f t="shared" si="35"/>
         <v>0</v>
@@ -5305,51 +5404,51 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:60">
-      <c r="A24" s="171" t="s">
+    <row r="24" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A24" s="164" t="s">
         <v>7</v>
       </c>
-      <c r="B24" s="170">
+      <c r="B24" s="165">
         <f>SUM(AO4:AQ4,AO14:AQ15,AO31:AQ32,AO48:AQ49)</f>
         <v>17</v>
       </c>
-      <c r="C24" s="170"/>
-      <c r="D24" s="170"/>
-      <c r="E24" s="170">
+      <c r="C24" s="165"/>
+      <c r="D24" s="165"/>
+      <c r="E24" s="165">
         <f>SUM(AR4:AT4,AR14:AT15,AR31:AT32,AR48:AT49)</f>
         <v>10</v>
       </c>
-      <c r="F24" s="170"/>
-      <c r="G24" s="170"/>
-      <c r="H24" s="172">
+      <c r="F24" s="165"/>
+      <c r="G24" s="165"/>
+      <c r="H24" s="166">
         <f>SUM(AU4:AW4,AU14:AW15,AU31:AW32,AU48:AW49)</f>
         <v>18</v>
       </c>
-      <c r="I24" s="172"/>
-      <c r="J24" s="172"/>
-      <c r="K24" s="170">
+      <c r="I24" s="166"/>
+      <c r="J24" s="166"/>
+      <c r="K24" s="165">
         <f>SUM(AX4:AZ4,AX14:AZ15,AX31:AZ32,AX48:AZ49)</f>
         <v>10</v>
       </c>
-      <c r="L24" s="170"/>
-      <c r="M24" s="170"/>
-      <c r="N24" s="172">
+      <c r="L24" s="165"/>
+      <c r="M24" s="165"/>
+      <c r="N24" s="166">
         <f>SUM(BA4:BC4,BA14:BC15,BA31:BC32,BA48:BC49)</f>
         <v>57</v>
       </c>
-      <c r="O24" s="172"/>
-      <c r="P24" s="172"/>
-      <c r="Q24" s="170">
+      <c r="O24" s="166"/>
+      <c r="P24" s="166"/>
+      <c r="Q24" s="165">
         <f t="shared" ref="Q24" si="38">SUM(BD4:BF4,BD14:BF15,BD31:BF32,BD48:BF49)</f>
         <v>4</v>
       </c>
-      <c r="R24" s="170"/>
-      <c r="S24" s="170"/>
-      <c r="T24" s="181">
+      <c r="R24" s="165"/>
+      <c r="S24" s="165"/>
+      <c r="T24" s="162">
         <f t="shared" ref="T24" si="39">SUM(B24:S25)</f>
         <v>116</v>
       </c>
-      <c r="U24" s="182"/>
+      <c r="U24" s="161"/>
       <c r="AB24" s="31" t="str">
         <f>'2_PA'!U21</f>
         <v>Quadrio Giacomo</v>
@@ -5390,7 +5489,7 @@
         <f>'2_PA'!AD21</f>
         <v>PA 5.1, 6.2</v>
       </c>
-      <c r="AL24" s="161">
+      <c r="AL24" s="169">
         <f>'2_PA'!AE21</f>
         <v>27</v>
       </c>
@@ -5471,28 +5570,28 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:60">
-      <c r="A25" s="171"/>
-      <c r="B25" s="170"/>
-      <c r="C25" s="170"/>
-      <c r="D25" s="170"/>
-      <c r="E25" s="170"/>
-      <c r="F25" s="170"/>
-      <c r="G25" s="170"/>
-      <c r="H25" s="172"/>
-      <c r="I25" s="172"/>
-      <c r="J25" s="172"/>
-      <c r="K25" s="170"/>
-      <c r="L25" s="170"/>
-      <c r="M25" s="170"/>
-      <c r="N25" s="172"/>
-      <c r="O25" s="172"/>
-      <c r="P25" s="172"/>
-      <c r="Q25" s="170"/>
-      <c r="R25" s="170"/>
-      <c r="S25" s="170"/>
-      <c r="T25" s="181"/>
-      <c r="U25" s="182"/>
+    <row r="25" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A25" s="164"/>
+      <c r="B25" s="165"/>
+      <c r="C25" s="165"/>
+      <c r="D25" s="165"/>
+      <c r="E25" s="165"/>
+      <c r="F25" s="165"/>
+      <c r="G25" s="165"/>
+      <c r="H25" s="166"/>
+      <c r="I25" s="166"/>
+      <c r="J25" s="166"/>
+      <c r="K25" s="165"/>
+      <c r="L25" s="165"/>
+      <c r="M25" s="165"/>
+      <c r="N25" s="166"/>
+      <c r="O25" s="166"/>
+      <c r="P25" s="166"/>
+      <c r="Q25" s="165"/>
+      <c r="R25" s="165"/>
+      <c r="S25" s="165"/>
+      <c r="T25" s="162"/>
+      <c r="U25" s="161"/>
       <c r="AB25" s="31">
         <f>'2_PA'!U22</f>
         <v>0</v>
@@ -5533,7 +5632,7 @@
         <f>'2_PA'!AD22</f>
         <v>0</v>
       </c>
-      <c r="AL25" s="161"/>
+      <c r="AL25" s="169"/>
       <c r="AO25">
         <f t="shared" si="35"/>
         <v>0</v>
@@ -5611,51 +5710,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:60">
-      <c r="A26" s="171" t="s">
+    <row r="26" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A26" s="164" t="s">
         <v>11</v>
       </c>
-      <c r="B26" s="170">
+      <c r="B26" s="165">
         <f>SUM(AO5:AQ5,AO16:AQ17,AO33:AQ34,AO50:AQ51)</f>
         <v>13</v>
       </c>
-      <c r="C26" s="170"/>
-      <c r="D26" s="170"/>
-      <c r="E26" s="170">
+      <c r="C26" s="165"/>
+      <c r="D26" s="165"/>
+      <c r="E26" s="165">
         <f>SUM(AR5:AT5,AR16:AT17,AR33:AT34,AR50:AT51)</f>
         <v>10</v>
       </c>
-      <c r="F26" s="170"/>
-      <c r="G26" s="170"/>
-      <c r="H26" s="170">
+      <c r="F26" s="165"/>
+      <c r="G26" s="165"/>
+      <c r="H26" s="165">
         <f>SUM(AU5:AW5,AU16:AW17,AU33:AW34,AU50:AW51)</f>
         <v>11</v>
       </c>
-      <c r="I26" s="170"/>
-      <c r="J26" s="170"/>
-      <c r="K26" s="172">
+      <c r="I26" s="165"/>
+      <c r="J26" s="165"/>
+      <c r="K26" s="166">
         <f>SUM(AX5:AZ5,AX16:AZ17,AX33:AZ34,AX50:AZ51)</f>
         <v>41</v>
       </c>
-      <c r="L26" s="172"/>
-      <c r="M26" s="172"/>
-      <c r="N26" s="170">
+      <c r="L26" s="166"/>
+      <c r="M26" s="166"/>
+      <c r="N26" s="165">
         <f>SUM(BA5:BC5,BA16:BC17,BA33:BC34,BA50:BC51)</f>
         <v>29</v>
       </c>
-      <c r="O26" s="170"/>
-      <c r="P26" s="170"/>
-      <c r="Q26" s="170">
+      <c r="O26" s="165"/>
+      <c r="P26" s="165"/>
+      <c r="Q26" s="165">
         <f>SUM(BD5:BF5,BD16:BF17,BD33:BF34,BD50:BF51)</f>
         <v>12</v>
       </c>
-      <c r="R26" s="170"/>
-      <c r="S26" s="170"/>
-      <c r="T26" s="181">
+      <c r="R26" s="165"/>
+      <c r="S26" s="165"/>
+      <c r="T26" s="162">
         <f t="shared" ref="T26" si="40">SUM(B26:S27)</f>
         <v>116</v>
       </c>
-      <c r="U26" s="182"/>
+      <c r="U26" s="161"/>
       <c r="AB26" s="47" t="str">
         <f>'2_PA'!U23</f>
         <v>Maggiolo Giorgio</v>
@@ -5696,7 +5795,7 @@
         <f>'2_PA'!AD23</f>
         <v>PA 3.3</v>
       </c>
-      <c r="AL26" s="161">
+      <c r="AL26" s="169">
         <f>'2_PA'!AE23</f>
         <v>29</v>
       </c>
@@ -5777,28 +5876,28 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:60" ht="15.75" thickBot="1">
-      <c r="A27" s="171"/>
-      <c r="B27" s="170"/>
-      <c r="C27" s="170"/>
-      <c r="D27" s="170"/>
-      <c r="E27" s="170"/>
-      <c r="F27" s="170"/>
-      <c r="G27" s="170"/>
-      <c r="H27" s="170"/>
-      <c r="I27" s="170"/>
-      <c r="J27" s="170"/>
-      <c r="K27" s="172"/>
-      <c r="L27" s="172"/>
-      <c r="M27" s="172"/>
-      <c r="N27" s="170"/>
-      <c r="O27" s="170"/>
-      <c r="P27" s="170"/>
-      <c r="Q27" s="170"/>
-      <c r="R27" s="170"/>
-      <c r="S27" s="170"/>
-      <c r="T27" s="181"/>
-      <c r="U27" s="182"/>
+    <row r="27" spans="1:60" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="164"/>
+      <c r="B27" s="165"/>
+      <c r="C27" s="165"/>
+      <c r="D27" s="165"/>
+      <c r="E27" s="165"/>
+      <c r="F27" s="165"/>
+      <c r="G27" s="165"/>
+      <c r="H27" s="165"/>
+      <c r="I27" s="165"/>
+      <c r="J27" s="165"/>
+      <c r="K27" s="166"/>
+      <c r="L27" s="166"/>
+      <c r="M27" s="166"/>
+      <c r="N27" s="165"/>
+      <c r="O27" s="165"/>
+      <c r="P27" s="165"/>
+      <c r="Q27" s="165"/>
+      <c r="R27" s="165"/>
+      <c r="S27" s="165"/>
+      <c r="T27" s="162"/>
+      <c r="U27" s="161"/>
       <c r="AB27" s="63">
         <f>'2_PA'!U24</f>
         <v>0</v>
@@ -5839,7 +5938,7 @@
         <f>'2_PA'!AD24</f>
         <v>PA 5.1</v>
       </c>
-      <c r="AL27" s="162"/>
+      <c r="AL27" s="182"/>
       <c r="AO27">
         <f t="shared" si="35"/>
         <v>0</v>
@@ -5917,97 +6016,97 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:60" ht="15.75" thickBot="1">
-      <c r="A28" s="171" t="s">
+    <row r="28" spans="1:60" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="164" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="170">
+      <c r="B28" s="165">
         <f>SUM(AO6:AQ6,AO18:AQ19,AO35:AQ36,AO52:AQ53)</f>
         <v>10</v>
       </c>
-      <c r="C28" s="170"/>
-      <c r="D28" s="170"/>
-      <c r="E28" s="170">
+      <c r="C28" s="165"/>
+      <c r="D28" s="165"/>
+      <c r="E28" s="165">
         <f>SUM(AR6:AT6,AR18:AT19,AR35:AT36,AR52:AT53)</f>
         <v>14</v>
       </c>
-      <c r="F28" s="170"/>
-      <c r="G28" s="170"/>
-      <c r="H28" s="170">
+      <c r="F28" s="165"/>
+      <c r="G28" s="165"/>
+      <c r="H28" s="165">
         <f>SUM(AU6:AW6,AU18:AW19,AU35:AW36,AU52:AW53)</f>
         <v>17</v>
       </c>
-      <c r="I28" s="170"/>
-      <c r="J28" s="170"/>
-      <c r="K28" s="170">
+      <c r="I28" s="165"/>
+      <c r="J28" s="165"/>
+      <c r="K28" s="165">
         <f>SUM(AX6:AZ6,AX18:AZ19,AX35:AZ36,AX52:AZ53)</f>
         <v>27</v>
       </c>
-      <c r="L28" s="170"/>
-      <c r="M28" s="170"/>
-      <c r="N28" s="170">
+      <c r="L28" s="165"/>
+      <c r="M28" s="165"/>
+      <c r="N28" s="165">
         <f>SUM(BA6:BC6,BA18:BC19,BA35:BC36,BA52:BC53)</f>
         <v>32</v>
       </c>
-      <c r="O28" s="170"/>
-      <c r="P28" s="170"/>
-      <c r="Q28" s="172">
+      <c r="O28" s="165"/>
+      <c r="P28" s="165"/>
+      <c r="Q28" s="166">
         <f>SUM(BD6:BF6,BD18:BF19,BD35:BF36,BD52:BF53)</f>
         <v>20</v>
       </c>
-      <c r="R28" s="172"/>
-      <c r="S28" s="172"/>
-      <c r="T28" s="181">
+      <c r="R28" s="166"/>
+      <c r="S28" s="166"/>
+      <c r="T28" s="162">
         <f t="shared" ref="T28" si="41">SUM(B28:S29)</f>
         <v>120</v>
       </c>
-      <c r="U28" s="182"/>
+      <c r="U28" s="161"/>
       <c r="BG28" s="158">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:60">
-      <c r="A29" s="171"/>
-      <c r="B29" s="170"/>
-      <c r="C29" s="170"/>
-      <c r="D29" s="170"/>
-      <c r="E29" s="170"/>
-      <c r="F29" s="170"/>
-      <c r="G29" s="170"/>
-      <c r="H29" s="170"/>
-      <c r="I29" s="170"/>
-      <c r="J29" s="170"/>
-      <c r="K29" s="170"/>
-      <c r="L29" s="170"/>
-      <c r="M29" s="170"/>
-      <c r="N29" s="170"/>
-      <c r="O29" s="170"/>
-      <c r="P29" s="170"/>
-      <c r="Q29" s="172"/>
-      <c r="R29" s="172"/>
-      <c r="S29" s="172"/>
-      <c r="T29" s="181"/>
-      <c r="U29" s="182"/>
+    <row r="29" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A29" s="164"/>
+      <c r="B29" s="165"/>
+      <c r="C29" s="165"/>
+      <c r="D29" s="165"/>
+      <c r="E29" s="165"/>
+      <c r="F29" s="165"/>
+      <c r="G29" s="165"/>
+      <c r="H29" s="165"/>
+      <c r="I29" s="165"/>
+      <c r="J29" s="165"/>
+      <c r="K29" s="165"/>
+      <c r="L29" s="165"/>
+      <c r="M29" s="165"/>
+      <c r="N29" s="165"/>
+      <c r="O29" s="165"/>
+      <c r="P29" s="165"/>
+      <c r="Q29" s="166"/>
+      <c r="R29" s="166"/>
+      <c r="S29" s="166"/>
+      <c r="T29" s="162"/>
+      <c r="U29" s="161"/>
       <c r="AA29" t="s">
         <v>124</v>
       </c>
       <c r="AB29" s="149" t="s">
         <v>127</v>
       </c>
-      <c r="AC29" s="163" t="str">
+      <c r="AC29" s="177" t="str">
         <f>'3_PDC'!U6</f>
         <v>I Periodo</v>
       </c>
-      <c r="AD29" s="164"/>
-      <c r="AE29" s="165"/>
-      <c r="AF29" s="163" t="str">
+      <c r="AD29" s="178"/>
+      <c r="AE29" s="179"/>
+      <c r="AF29" s="177" t="str">
         <f>'3_PDC'!X6</f>
         <v>II Periodo</v>
       </c>
-      <c r="AG29" s="164"/>
-      <c r="AH29" s="166"/>
-      <c r="AI29" s="167" t="str">
+      <c r="AG29" s="178"/>
+      <c r="AH29" s="180"/>
+      <c r="AI29" s="173" t="str">
         <f>'3_PDC'!AA6</f>
         <v>Totale</v>
       </c>
@@ -6016,51 +6115,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:60" ht="15.75" thickBot="1">
-      <c r="A30" s="171" t="s">
+    <row r="30" spans="1:60" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="164" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="170">
+      <c r="B30" s="165">
         <f>SUM(AO7:AQ7,AO20:AQ21,AO37:AQ38,AO54:AQ55)</f>
         <v>15</v>
       </c>
-      <c r="C30" s="170"/>
-      <c r="D30" s="170"/>
-      <c r="E30" s="170">
+      <c r="C30" s="165"/>
+      <c r="D30" s="165"/>
+      <c r="E30" s="165">
         <f>SUM(AR7:AT7,AR20:AT21,AR37:AT38,AR54:AT55)</f>
         <v>4</v>
       </c>
-      <c r="F30" s="170"/>
-      <c r="G30" s="170"/>
-      <c r="H30" s="170">
+      <c r="F30" s="165"/>
+      <c r="G30" s="165"/>
+      <c r="H30" s="165">
         <f>SUM(AU7:AW7,AU20:AW21,AU37:AW38,AU54:AW55)</f>
         <v>11</v>
       </c>
-      <c r="I30" s="170"/>
-      <c r="J30" s="170"/>
-      <c r="K30" s="172">
+      <c r="I30" s="165"/>
+      <c r="J30" s="165"/>
+      <c r="K30" s="166">
         <f>SUM(AX7:AZ7,AX20:AZ21,AX37:AZ38,AX54:AZ55)</f>
         <v>39</v>
       </c>
-      <c r="L30" s="172"/>
-      <c r="M30" s="172"/>
-      <c r="N30" s="172">
+      <c r="L30" s="166"/>
+      <c r="M30" s="166"/>
+      <c r="N30" s="166">
         <f>SUM(BA7:BC7,BA20:BC21,BA37:BC38,BA54:BC55)</f>
         <v>34</v>
       </c>
-      <c r="O30" s="172"/>
-      <c r="P30" s="172"/>
-      <c r="Q30" s="170">
+      <c r="O30" s="166"/>
+      <c r="P30" s="166"/>
+      <c r="Q30" s="165">
         <f>SUM(BD7:BF7,BD20:BF21,BD37:BF38,BD54:BF55)</f>
         <v>18</v>
       </c>
-      <c r="R30" s="170"/>
-      <c r="S30" s="170"/>
-      <c r="T30" s="181">
+      <c r="R30" s="165"/>
+      <c r="S30" s="165"/>
+      <c r="T30" s="162">
         <f t="shared" ref="T30" si="42">SUM(B30:S31)</f>
         <v>121</v>
       </c>
-      <c r="U30" s="182"/>
+      <c r="U30" s="161"/>
       <c r="AB30" s="150"/>
       <c r="AC30" s="26" t="str">
         <f>'3_PDC'!U7</f>
@@ -6086,7 +6185,7 @@
         <f>'3_PDC'!Z7</f>
         <v>Fase</v>
       </c>
-      <c r="AI30" s="168"/>
+      <c r="AI30" s="174"/>
       <c r="AK30">
         <f>SUM(AI31:AI44)</f>
         <v>373</v>
@@ -6096,28 +6195,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:60">
-      <c r="A31" s="171"/>
-      <c r="B31" s="170"/>
-      <c r="C31" s="170"/>
-      <c r="D31" s="170"/>
-      <c r="E31" s="170"/>
-      <c r="F31" s="170"/>
-      <c r="G31" s="170"/>
-      <c r="H31" s="170"/>
-      <c r="I31" s="170"/>
-      <c r="J31" s="170"/>
-      <c r="K31" s="172"/>
-      <c r="L31" s="172"/>
-      <c r="M31" s="172"/>
-      <c r="N31" s="172"/>
-      <c r="O31" s="172"/>
-      <c r="P31" s="172"/>
-      <c r="Q31" s="170"/>
-      <c r="R31" s="170"/>
-      <c r="S31" s="170"/>
-      <c r="T31" s="181"/>
-      <c r="U31" s="182"/>
+    <row r="31" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A31" s="164"/>
+      <c r="B31" s="165"/>
+      <c r="C31" s="165"/>
+      <c r="D31" s="165"/>
+      <c r="E31" s="165"/>
+      <c r="F31" s="165"/>
+      <c r="G31" s="165"/>
+      <c r="H31" s="165"/>
+      <c r="I31" s="165"/>
+      <c r="J31" s="165"/>
+      <c r="K31" s="166"/>
+      <c r="L31" s="166"/>
+      <c r="M31" s="166"/>
+      <c r="N31" s="166"/>
+      <c r="O31" s="166"/>
+      <c r="P31" s="166"/>
+      <c r="Q31" s="165"/>
+      <c r="R31" s="165"/>
+      <c r="S31" s="165"/>
+      <c r="T31" s="162"/>
+      <c r="U31" s="161"/>
       <c r="AB31" s="31" t="str">
         <f>'3_PDC'!T8</f>
         <v>Begolo Marco</v>
@@ -6146,7 +6245,7 @@
         <f>'3_PDC'!Z8</f>
         <v>PDC 4.4</v>
       </c>
-      <c r="AI31" s="169">
+      <c r="AI31" s="181">
         <f>'3_PDC'!AA8</f>
         <v>52</v>
       </c>
@@ -6231,51 +6330,51 @@
         <v>373</v>
       </c>
     </row>
-    <row r="32" spans="1:60">
-      <c r="A32" s="171" t="s">
+    <row r="32" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A32" s="164" t="s">
         <v>8</v>
       </c>
-      <c r="B32" s="170">
+      <c r="B32" s="165">
         <f>SUM(AO8:AQ8,AO22:AQ23,AO39:AQ40,AO56:AQ57)</f>
         <v>9</v>
       </c>
-      <c r="C32" s="170"/>
-      <c r="D32" s="170"/>
-      <c r="E32" s="170">
+      <c r="C32" s="165"/>
+      <c r="D32" s="165"/>
+      <c r="E32" s="165">
         <f>SUM(AR8:AT8,AR22:AT23,AR39:AT40,AR56:AT57)</f>
         <v>11</v>
       </c>
-      <c r="F32" s="170"/>
-      <c r="G32" s="170"/>
-      <c r="H32" s="170">
+      <c r="F32" s="165"/>
+      <c r="G32" s="165"/>
+      <c r="H32" s="165">
         <f>SUM(AU8:AW8,AU22:AW23,AU39:AW40,AU56:AW57)</f>
         <v>10</v>
       </c>
-      <c r="I32" s="170"/>
-      <c r="J32" s="170"/>
-      <c r="K32" s="170">
+      <c r="I32" s="165"/>
+      <c r="J32" s="165"/>
+      <c r="K32" s="165">
         <f>SUM(AX8:AZ8,AX22:AZ23,AX39:AZ40,AX56:AZ57)</f>
         <v>30</v>
       </c>
-      <c r="L32" s="170"/>
-      <c r="M32" s="170"/>
-      <c r="N32" s="172">
+      <c r="L32" s="165"/>
+      <c r="M32" s="165"/>
+      <c r="N32" s="166">
         <f>SUM(BA8:BC8,BA22:BC23,BA39:BC40,BA56:BC57)</f>
         <v>36</v>
       </c>
-      <c r="O32" s="172"/>
-      <c r="P32" s="172"/>
-      <c r="Q32" s="170">
+      <c r="O32" s="166"/>
+      <c r="P32" s="166"/>
+      <c r="Q32" s="165">
         <f>SUM(BD8:BF8,BD22:BF23,BD39:BF40,BD56:BF57)</f>
         <v>23</v>
       </c>
-      <c r="R32" s="170"/>
-      <c r="S32" s="170"/>
-      <c r="T32" s="181">
+      <c r="R32" s="165"/>
+      <c r="S32" s="165"/>
+      <c r="T32" s="162">
         <f t="shared" ref="T32" si="58">SUM(B32:S33)</f>
         <v>119</v>
       </c>
-      <c r="U32" s="182"/>
+      <c r="U32" s="161"/>
       <c r="AB32" s="35">
         <f>'3_PDC'!T9</f>
         <v>0</v>
@@ -6304,7 +6403,7 @@
         <f>'3_PDC'!Z9</f>
         <v>PDC 7</v>
       </c>
-      <c r="AI32" s="161"/>
+      <c r="AI32" s="169"/>
       <c r="AO32">
         <f>IF($AC32=AO$2,$AD32,0)</f>
         <v>0</v>
@@ -6382,28 +6481,28 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:60">
-      <c r="A33" s="171"/>
-      <c r="B33" s="170"/>
-      <c r="C33" s="170"/>
-      <c r="D33" s="170"/>
-      <c r="E33" s="170"/>
-      <c r="F33" s="170"/>
-      <c r="G33" s="170"/>
-      <c r="H33" s="170"/>
-      <c r="I33" s="170"/>
-      <c r="J33" s="170"/>
-      <c r="K33" s="170"/>
-      <c r="L33" s="170"/>
-      <c r="M33" s="170"/>
-      <c r="N33" s="172"/>
-      <c r="O33" s="172"/>
-      <c r="P33" s="172"/>
-      <c r="Q33" s="170"/>
-      <c r="R33" s="170"/>
-      <c r="S33" s="170"/>
-      <c r="T33" s="181"/>
-      <c r="U33" s="182"/>
+    <row r="33" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A33" s="164"/>
+      <c r="B33" s="165"/>
+      <c r="C33" s="165"/>
+      <c r="D33" s="165"/>
+      <c r="E33" s="165"/>
+      <c r="F33" s="165"/>
+      <c r="G33" s="165"/>
+      <c r="H33" s="165"/>
+      <c r="I33" s="165"/>
+      <c r="J33" s="165"/>
+      <c r="K33" s="165"/>
+      <c r="L33" s="165"/>
+      <c r="M33" s="165"/>
+      <c r="N33" s="166"/>
+      <c r="O33" s="166"/>
+      <c r="P33" s="166"/>
+      <c r="Q33" s="165"/>
+      <c r="R33" s="165"/>
+      <c r="S33" s="165"/>
+      <c r="T33" s="162"/>
+      <c r="U33" s="161"/>
       <c r="AB33" s="31" t="str">
         <f>'3_PDC'!T10</f>
         <v>Facchin Gabriele</v>
@@ -6432,7 +6531,7 @@
         <f>'3_PDC'!Z10</f>
         <v>PDC 3.1</v>
       </c>
-      <c r="AI33" s="161">
+      <c r="AI33" s="169">
         <f>'3_PDC'!AA10</f>
         <v>52</v>
       </c>
@@ -6513,51 +6612,51 @@
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:60">
-      <c r="A34" s="171" t="s">
+    <row r="34" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A34" s="164" t="s">
         <v>13</v>
       </c>
-      <c r="B34" s="170">
+      <c r="B34" s="165">
         <f>SUM(AO9:AQ9,AO24:AQ25,AO41:AQ42,AO58:AQ59)</f>
         <v>6</v>
       </c>
-      <c r="C34" s="170"/>
-      <c r="D34" s="170"/>
-      <c r="E34" s="170">
+      <c r="C34" s="165"/>
+      <c r="D34" s="165"/>
+      <c r="E34" s="165">
         <f>SUM(AR9:AT9,AR24:AT25,AR41:AT42,AR58:AT59)</f>
         <v>2</v>
       </c>
-      <c r="F34" s="170"/>
-      <c r="G34" s="170"/>
-      <c r="H34" s="170">
+      <c r="F34" s="165"/>
+      <c r="G34" s="165"/>
+      <c r="H34" s="165">
         <f>SUM(AU9:AW9,AU24:AW25,AU41:AW42,AU58:AW59)</f>
         <v>10</v>
       </c>
-      <c r="I34" s="170"/>
-      <c r="J34" s="170"/>
-      <c r="K34" s="172">
+      <c r="I34" s="165"/>
+      <c r="J34" s="165"/>
+      <c r="K34" s="166">
         <f>SUM(AX9:AZ9,AX24:AZ25,AX41:AZ42,AX58:AZ59)</f>
         <v>37</v>
       </c>
-      <c r="L34" s="172"/>
-      <c r="M34" s="172"/>
-      <c r="N34" s="172">
+      <c r="L34" s="166"/>
+      <c r="M34" s="166"/>
+      <c r="N34" s="166">
         <f>SUM(BA9:BC9,BA24:BC25,BA41:BC42,BA58:BC59)</f>
         <v>39</v>
       </c>
-      <c r="O34" s="172"/>
-      <c r="P34" s="172"/>
-      <c r="Q34" s="172">
+      <c r="O34" s="166"/>
+      <c r="P34" s="166"/>
+      <c r="Q34" s="166">
         <f>SUM(BD9:BF9,BD24:BF25,BD41:BF42,BD58:BF59)</f>
         <v>25</v>
       </c>
-      <c r="R34" s="172"/>
-      <c r="S34" s="172"/>
-      <c r="T34" s="181">
+      <c r="R34" s="166"/>
+      <c r="S34" s="166"/>
+      <c r="T34" s="162">
         <f t="shared" ref="T34" si="62">SUM(B34:S35)</f>
         <v>119</v>
       </c>
-      <c r="U34" s="182"/>
+      <c r="U34" s="161"/>
       <c r="AB34" s="31">
         <f>'3_PDC'!T11</f>
         <v>0</v>
@@ -6586,7 +6685,7 @@
         <f>'3_PDC'!Z11</f>
         <v>PDC 4.3</v>
       </c>
-      <c r="AI34" s="161"/>
+      <c r="AI34" s="169"/>
       <c r="AO34">
         <f t="shared" si="59"/>
         <v>0</v>
@@ -6664,28 +6763,28 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:60">
-      <c r="A35" s="171"/>
-      <c r="B35" s="170"/>
-      <c r="C35" s="170"/>
-      <c r="D35" s="170"/>
-      <c r="E35" s="170"/>
-      <c r="F35" s="170"/>
-      <c r="G35" s="170"/>
-      <c r="H35" s="170"/>
-      <c r="I35" s="170"/>
-      <c r="J35" s="170"/>
-      <c r="K35" s="172"/>
-      <c r="L35" s="172"/>
-      <c r="M35" s="172"/>
-      <c r="N35" s="172"/>
-      <c r="O35" s="172"/>
-      <c r="P35" s="172"/>
-      <c r="Q35" s="172"/>
-      <c r="R35" s="172"/>
-      <c r="S35" s="172"/>
-      <c r="T35" s="181"/>
-      <c r="U35" s="182"/>
+    <row r="35" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A35" s="164"/>
+      <c r="B35" s="165"/>
+      <c r="C35" s="165"/>
+      <c r="D35" s="165"/>
+      <c r="E35" s="165"/>
+      <c r="F35" s="165"/>
+      <c r="G35" s="165"/>
+      <c r="H35" s="165"/>
+      <c r="I35" s="165"/>
+      <c r="J35" s="165"/>
+      <c r="K35" s="166"/>
+      <c r="L35" s="166"/>
+      <c r="M35" s="166"/>
+      <c r="N35" s="166"/>
+      <c r="O35" s="166"/>
+      <c r="P35" s="166"/>
+      <c r="Q35" s="166"/>
+      <c r="R35" s="166"/>
+      <c r="S35" s="166"/>
+      <c r="T35" s="162"/>
+      <c r="U35" s="161"/>
       <c r="AB35" s="47" t="str">
         <f>'3_PDC'!T12</f>
         <v>Cornaglia Alessando</v>
@@ -6714,7 +6813,7 @@
         <f>'3_PDC'!Z12</f>
         <v>PDC 4.4 e 5</v>
       </c>
-      <c r="AI35" s="161">
+      <c r="AI35" s="169">
         <f>'3_PDC'!AA12</f>
         <v>52</v>
       </c>
@@ -6795,51 +6894,51 @@
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="1:60">
-      <c r="A36" s="171" t="s">
+    <row r="36" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A36" s="164" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="170">
+      <c r="B36" s="165">
         <f>SUM(AO10:AQ10,AO26:AQ27,AO43:AQ44,AO60:AQ61)</f>
         <v>12</v>
       </c>
-      <c r="C36" s="170"/>
-      <c r="D36" s="170"/>
-      <c r="E36" s="170">
+      <c r="C36" s="165"/>
+      <c r="D36" s="165"/>
+      <c r="E36" s="165">
         <f>SUM(AR10:AT10,AR26:AT27,AR43:AT44,AR60:AT61)</f>
         <v>18</v>
       </c>
-      <c r="F36" s="170"/>
-      <c r="G36" s="170"/>
-      <c r="H36" s="170">
+      <c r="F36" s="165"/>
+      <c r="G36" s="165"/>
+      <c r="H36" s="165">
         <f>SUM(AU10:AW10,AU26:AW27,AU43:AW44,AU60:AW61)</f>
         <v>12</v>
       </c>
-      <c r="I36" s="170"/>
-      <c r="J36" s="170"/>
-      <c r="K36" s="172">
+      <c r="I36" s="165"/>
+      <c r="J36" s="165"/>
+      <c r="K36" s="166">
         <f>SUM(AX10:AZ10,AX26:AZ27,AX43:AZ44,AX60:AZ61)</f>
         <v>51</v>
       </c>
-      <c r="L36" s="172"/>
-      <c r="M36" s="172"/>
-      <c r="N36" s="170">
+      <c r="L36" s="166"/>
+      <c r="M36" s="166"/>
+      <c r="N36" s="165">
         <f>SUM(BA10:BC10,BA26:BC27,BA43:BC44,BA60:BC61)</f>
         <v>6</v>
       </c>
-      <c r="O36" s="170"/>
-      <c r="P36" s="170"/>
-      <c r="Q36" s="170">
+      <c r="O36" s="165"/>
+      <c r="P36" s="165"/>
+      <c r="Q36" s="165">
         <f>SUM(BD10:BF10,BD26:BF27,BD43:BF44,BD60:BF61)</f>
         <v>18</v>
       </c>
-      <c r="R36" s="170"/>
-      <c r="S36" s="170"/>
-      <c r="T36" s="181">
+      <c r="R36" s="165"/>
+      <c r="S36" s="165"/>
+      <c r="T36" s="162">
         <f t="shared" ref="T36" si="63">SUM(B36:S37)</f>
         <v>117</v>
       </c>
-      <c r="U36" s="182"/>
+      <c r="U36" s="161"/>
       <c r="AB36" s="35">
         <f>'3_PDC'!T13</f>
         <v>0</v>
@@ -6868,7 +6967,7 @@
         <f>'3_PDC'!Z13</f>
         <v>PDC 7</v>
       </c>
-      <c r="AI36" s="161"/>
+      <c r="AI36" s="169"/>
       <c r="AO36">
         <f t="shared" si="59"/>
         <v>0</v>
@@ -6946,28 +7045,28 @@
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="1:60">
-      <c r="A37" s="171"/>
-      <c r="B37" s="170"/>
-      <c r="C37" s="170"/>
-      <c r="D37" s="170"/>
-      <c r="E37" s="170"/>
-      <c r="F37" s="170"/>
-      <c r="G37" s="170"/>
-      <c r="H37" s="170"/>
-      <c r="I37" s="170"/>
-      <c r="J37" s="170"/>
-      <c r="K37" s="172"/>
-      <c r="L37" s="172"/>
-      <c r="M37" s="172"/>
-      <c r="N37" s="170"/>
-      <c r="O37" s="170"/>
-      <c r="P37" s="170"/>
-      <c r="Q37" s="170"/>
-      <c r="R37" s="170"/>
-      <c r="S37" s="170"/>
-      <c r="T37" s="181"/>
-      <c r="U37" s="182"/>
+    <row r="37" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A37" s="164"/>
+      <c r="B37" s="165"/>
+      <c r="C37" s="165"/>
+      <c r="D37" s="165"/>
+      <c r="E37" s="165"/>
+      <c r="F37" s="165"/>
+      <c r="G37" s="165"/>
+      <c r="H37" s="165"/>
+      <c r="I37" s="165"/>
+      <c r="J37" s="165"/>
+      <c r="K37" s="166"/>
+      <c r="L37" s="166"/>
+      <c r="M37" s="166"/>
+      <c r="N37" s="165"/>
+      <c r="O37" s="165"/>
+      <c r="P37" s="165"/>
+      <c r="Q37" s="165"/>
+      <c r="R37" s="165"/>
+      <c r="S37" s="165"/>
+      <c r="T37" s="162"/>
+      <c r="U37" s="161"/>
       <c r="AB37" s="31" t="str">
         <f>'3_PDC'!T14</f>
         <v>Dalla Pietà Massimo</v>
@@ -6996,7 +7095,7 @@
         <f>'3_PDC'!Z14</f>
         <v>PDC 4.3</v>
       </c>
-      <c r="AI37" s="161">
+      <c r="AI37" s="169">
         <f>'3_PDC'!AA14</f>
         <v>57</v>
       </c>
@@ -7077,51 +7176,51 @@
         <v>29</v>
       </c>
     </row>
-    <row r="38" spans="1:60">
-      <c r="A38" s="179" t="s">
+    <row r="38" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A38" s="167" t="s">
         <v>14</v>
       </c>
-      <c r="B38" s="170">
+      <c r="B38" s="165">
         <f>SUM(B24:D37)</f>
         <v>82</v>
       </c>
-      <c r="C38" s="170"/>
-      <c r="D38" s="170"/>
-      <c r="E38" s="170">
+      <c r="C38" s="165"/>
+      <c r="D38" s="165"/>
+      <c r="E38" s="165">
         <f t="shared" ref="E38" si="64">SUM(E24:G37)</f>
         <v>69</v>
       </c>
-      <c r="F38" s="170"/>
-      <c r="G38" s="170"/>
-      <c r="H38" s="170">
+      <c r="F38" s="165"/>
+      <c r="G38" s="165"/>
+      <c r="H38" s="165">
         <f>SUM(H24:J37)</f>
         <v>89</v>
       </c>
-      <c r="I38" s="170"/>
-      <c r="J38" s="170"/>
-      <c r="K38" s="170">
+      <c r="I38" s="165"/>
+      <c r="J38" s="165"/>
+      <c r="K38" s="165">
         <f t="shared" ref="K38" si="65">SUM(K24:M37)</f>
         <v>235</v>
       </c>
-      <c r="L38" s="170"/>
-      <c r="M38" s="170"/>
-      <c r="N38" s="170">
+      <c r="L38" s="165"/>
+      <c r="M38" s="165"/>
+      <c r="N38" s="165">
         <f t="shared" ref="N38" si="66">SUM(N24:P37)</f>
         <v>233</v>
       </c>
-      <c r="O38" s="170"/>
-      <c r="P38" s="170"/>
-      <c r="Q38" s="170">
+      <c r="O38" s="165"/>
+      <c r="P38" s="165"/>
+      <c r="Q38" s="165">
         <f>SUM(Q24:S37)</f>
         <v>120</v>
       </c>
-      <c r="R38" s="170"/>
-      <c r="S38" s="170"/>
-      <c r="T38" s="180">
+      <c r="R38" s="165"/>
+      <c r="S38" s="165"/>
+      <c r="T38" s="163">
         <f>SUM(B38:S39)</f>
         <v>828</v>
       </c>
-      <c r="U38" s="182"/>
+      <c r="U38" s="161"/>
       <c r="AB38" s="31">
         <f>'3_PDC'!T15</f>
         <v>0</v>
@@ -7150,7 +7249,7 @@
         <f>'3_PDC'!Z15</f>
         <v>PDC 7</v>
       </c>
-      <c r="AI38" s="161"/>
+      <c r="AI38" s="169"/>
       <c r="AO38">
         <f t="shared" si="59"/>
         <v>0</v>
@@ -7228,28 +7327,28 @@
         <v>28</v>
       </c>
     </row>
-    <row r="39" spans="1:60">
-      <c r="A39" s="179"/>
-      <c r="B39" s="170"/>
-      <c r="C39" s="170"/>
-      <c r="D39" s="170"/>
-      <c r="E39" s="170"/>
-      <c r="F39" s="170"/>
-      <c r="G39" s="170"/>
-      <c r="H39" s="170"/>
-      <c r="I39" s="170"/>
-      <c r="J39" s="170"/>
-      <c r="K39" s="170"/>
-      <c r="L39" s="170"/>
-      <c r="M39" s="170"/>
-      <c r="N39" s="170"/>
-      <c r="O39" s="170"/>
-      <c r="P39" s="170"/>
-      <c r="Q39" s="170"/>
-      <c r="R39" s="170"/>
-      <c r="S39" s="170"/>
-      <c r="T39" s="180"/>
-      <c r="U39" s="182"/>
+    <row r="39" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A39" s="167"/>
+      <c r="B39" s="165"/>
+      <c r="C39" s="165"/>
+      <c r="D39" s="165"/>
+      <c r="E39" s="165"/>
+      <c r="F39" s="165"/>
+      <c r="G39" s="165"/>
+      <c r="H39" s="165"/>
+      <c r="I39" s="165"/>
+      <c r="J39" s="165"/>
+      <c r="K39" s="165"/>
+      <c r="L39" s="165"/>
+      <c r="M39" s="165"/>
+      <c r="N39" s="165"/>
+      <c r="O39" s="165"/>
+      <c r="P39" s="165"/>
+      <c r="Q39" s="165"/>
+      <c r="R39" s="165"/>
+      <c r="S39" s="165"/>
+      <c r="T39" s="163"/>
+      <c r="U39" s="161"/>
       <c r="AB39" s="47" t="str">
         <f>'3_PDC'!T16</f>
         <v>Braghetto Lorenzo</v>
@@ -7278,7 +7377,7 @@
         <f>'3_PDC'!Z16</f>
         <v>PDC 4.4</v>
       </c>
-      <c r="AI39" s="161">
+      <c r="AI39" s="169">
         <f>'3_PDC'!AA16</f>
         <v>54</v>
       </c>
@@ -7359,7 +7458,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="1:60">
+    <row r="40" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A40" s="147"/>
       <c r="AB40" s="35">
         <f>'3_PDC'!T17</f>
@@ -7389,7 +7488,7 @@
         <f>'3_PDC'!Z17</f>
         <v>PDC 7</v>
       </c>
-      <c r="AI40" s="161"/>
+      <c r="AI40" s="169"/>
       <c r="AO40">
         <f t="shared" si="59"/>
         <v>0</v>
@@ -7467,7 +7566,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="1:60">
+    <row r="41" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A41" s="147"/>
       <c r="AB41" s="31" t="str">
         <f>'3_PDC'!T18</f>
@@ -7497,7 +7596,7 @@
         <f>'3_PDC'!Z18</f>
         <v>PDC 6</v>
       </c>
-      <c r="AI41" s="161">
+      <c r="AI41" s="169">
         <f>'3_PDC'!AA18</f>
         <v>54</v>
       </c>
@@ -7578,7 +7677,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="1:60">
+    <row r="42" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A42" s="147"/>
       <c r="AB42" s="31">
         <f>'3_PDC'!T19</f>
@@ -7608,7 +7707,7 @@
         <f>'3_PDC'!Z19</f>
         <v>PDC 3.2, 5 e 7</v>
       </c>
-      <c r="AI42" s="161"/>
+      <c r="AI42" s="169"/>
       <c r="AO42">
         <f t="shared" si="59"/>
         <v>0</v>
@@ -7686,7 +7785,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="1:60">
+    <row r="43" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A43" s="147"/>
       <c r="AB43" s="47" t="str">
         <f>'3_PDC'!T20</f>
@@ -7716,7 +7815,7 @@
         <f>'3_PDC'!Z20</f>
         <v>PDC 4.3</v>
       </c>
-      <c r="AI43" s="161">
+      <c r="AI43" s="169">
         <f>'3_PDC'!AA20</f>
         <v>52</v>
       </c>
@@ -7797,7 +7896,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="44" spans="1:60" ht="15.75" thickBot="1">
+    <row r="44" spans="1:60" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="147"/>
       <c r="AB44" s="63">
         <f>'3_PDC'!T21</f>
@@ -7827,7 +7926,7 @@
         <f>'3_PDC'!Z21</f>
         <v>PDC 7</v>
       </c>
-      <c r="AI44" s="162"/>
+      <c r="AI44" s="182"/>
       <c r="AO44">
         <f t="shared" si="59"/>
         <v>0</v>
@@ -7905,14 +8004,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:60" ht="15.75" thickBot="1">
+    <row r="45" spans="1:60" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="147"/>
       <c r="BG45" s="158">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:60">
+    <row r="46" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A46" s="147"/>
       <c r="AA46" t="s">
         <v>125</v>
@@ -7920,19 +8019,19 @@
       <c r="AB46" s="149" t="s">
         <v>128</v>
       </c>
-      <c r="AC46" s="163" t="str">
+      <c r="AC46" s="177" t="str">
         <f>'4_VV'!U3</f>
         <v>I Periodo</v>
       </c>
-      <c r="AD46" s="164"/>
-      <c r="AE46" s="165"/>
-      <c r="AF46" s="163" t="str">
+      <c r="AD46" s="178"/>
+      <c r="AE46" s="179"/>
+      <c r="AF46" s="177" t="str">
         <f>'4_VV'!X3</f>
         <v>II Periodo</v>
       </c>
-      <c r="AG46" s="164"/>
-      <c r="AH46" s="166"/>
-      <c r="AI46" s="167" t="str">
+      <c r="AG46" s="178"/>
+      <c r="AH46" s="180"/>
+      <c r="AI46" s="173" t="str">
         <f>'4_VV'!AA3</f>
         <v>Totale</v>
       </c>
@@ -7945,7 +8044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:60" ht="15.75" thickBot="1">
+    <row r="47" spans="1:60" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="147"/>
       <c r="AB47" s="150"/>
       <c r="AC47" s="26" t="str">
@@ -7972,13 +8071,13 @@
         <f>'4_VV'!Z4</f>
         <v>Fase</v>
       </c>
-      <c r="AI47" s="168"/>
+      <c r="AI47" s="174"/>
       <c r="BG47" s="158">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:60">
+    <row r="48" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A48" s="147"/>
       <c r="AB48" s="31" t="str">
         <f>'4_VV'!T5</f>
@@ -8008,7 +8107,7 @@
         <f>'4_VV'!Z5</f>
         <v>VV 3.2</v>
       </c>
-      <c r="AI48" s="169">
+      <c r="AI48" s="181">
         <f>'4_VV'!AA5</f>
         <v>18</v>
       </c>
@@ -8093,7 +8192,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="49" spans="20:59">
+    <row r="49" spans="20:59" x14ac:dyDescent="0.25">
       <c r="AB49" s="35">
         <f>'4_VV'!T6</f>
         <v>0</v>
@@ -8122,7 +8221,7 @@
         <f>'4_VV'!Z6</f>
         <v>0</v>
       </c>
-      <c r="AI49" s="161"/>
+      <c r="AI49" s="169"/>
       <c r="AO49">
         <f>IF($AC49=AO$2,$AD49,0)</f>
         <v>0</v>
@@ -8200,7 +8299,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="20:59" ht="15.75" thickBot="1">
+    <row r="50" spans="20:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AB50" s="31" t="str">
         <f>'4_VV'!T7</f>
         <v>Facchin Gabriele</v>
@@ -8229,7 +8328,7 @@
         <f>'4_VV'!Z7</f>
         <v>VV 3.2</v>
       </c>
-      <c r="AI50" s="161">
+      <c r="AI50" s="169">
         <f>'4_VV'!AA7</f>
         <v>18</v>
       </c>
@@ -8310,7 +8409,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="51" spans="20:59" ht="15.75" thickBot="1">
+    <row r="51" spans="20:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="T51" s="1" t="s">
         <v>26</v>
       </c>
@@ -8351,7 +8450,7 @@
         <f>'4_VV'!Z8</f>
         <v>VV 3.2</v>
       </c>
-      <c r="AI51" s="161"/>
+      <c r="AI51" s="169"/>
       <c r="AO51">
         <f t="shared" si="82"/>
         <v>0</v>
@@ -8429,7 +8528,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="20:59">
+    <row r="52" spans="20:59" x14ac:dyDescent="0.25">
       <c r="T52" s="12" t="s">
         <v>1</v>
       </c>
@@ -8472,7 +8571,7 @@
         <f>'4_VV'!Z9</f>
         <v>VV 3.1</v>
       </c>
-      <c r="AI52" s="161">
+      <c r="AI52" s="169">
         <f>'4_VV'!AA9</f>
         <v>18</v>
       </c>
@@ -8553,7 +8652,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="53" spans="20:59">
+    <row r="53" spans="20:59" x14ac:dyDescent="0.25">
       <c r="T53" s="15" t="s">
         <v>2</v>
       </c>
@@ -8596,7 +8695,7 @@
         <f>'4_VV'!Z10</f>
         <v>0</v>
       </c>
-      <c r="AI53" s="161"/>
+      <c r="AI53" s="169"/>
       <c r="AO53">
         <f t="shared" si="82"/>
         <v>0</v>
@@ -8674,7 +8773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="20:59">
+    <row r="54" spans="20:59" x14ac:dyDescent="0.25">
       <c r="T54" s="15" t="s">
         <v>3</v>
       </c>
@@ -8717,7 +8816,7 @@
         <f>'4_VV'!Z11</f>
         <v>VV 3.1</v>
       </c>
-      <c r="AI54" s="161">
+      <c r="AI54" s="169">
         <f>'4_VV'!AA11</f>
         <v>18</v>
       </c>
@@ -8798,7 +8897,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="55" spans="20:59">
+    <row r="55" spans="20:59" x14ac:dyDescent="0.25">
       <c r="T55" s="15" t="s">
         <v>4</v>
       </c>
@@ -8841,7 +8940,7 @@
         <f>'4_VV'!Z12</f>
         <v>0</v>
       </c>
-      <c r="AI55" s="161"/>
+      <c r="AI55" s="169"/>
       <c r="AO55">
         <f t="shared" si="82"/>
         <v>0</v>
@@ -8919,7 +9018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="20:59">
+    <row r="56" spans="20:59" x14ac:dyDescent="0.25">
       <c r="T56" s="15" t="s">
         <v>5</v>
       </c>
@@ -8962,7 +9061,7 @@
         <f>'4_VV'!Z13</f>
         <v>VV 3.1</v>
       </c>
-      <c r="AI56" s="161">
+      <c r="AI56" s="169">
         <f>'4_VV'!AA13</f>
         <v>18</v>
       </c>
@@ -9043,7 +9142,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="57" spans="20:59" ht="15.75" thickBot="1">
+    <row r="57" spans="20:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="T57" s="22" t="s">
         <v>6</v>
       </c>
@@ -9086,7 +9185,7 @@
         <f>'4_VV'!Z14</f>
         <v>0</v>
       </c>
-      <c r="AI57" s="161"/>
+      <c r="AI57" s="169"/>
       <c r="AO57">
         <f t="shared" si="82"/>
         <v>0</v>
@@ -9164,7 +9263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="20:59" ht="15.75" thickBot="1">
+    <row r="58" spans="20:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="T58" s="1" t="s">
         <v>14</v>
       </c>
@@ -9204,7 +9303,7 @@
         <f>'4_VV'!Z15</f>
         <v>VV 3.1</v>
       </c>
-      <c r="AI58" s="161">
+      <c r="AI58" s="169">
         <f>'4_VV'!AA15</f>
         <v>18</v>
       </c>
@@ -9285,7 +9384,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="59" spans="20:59">
+    <row r="59" spans="20:59" x14ac:dyDescent="0.25">
       <c r="AB59" s="31">
         <f>'4_VV'!T16</f>
         <v>0</v>
@@ -9314,7 +9413,7 @@
         <f>'4_VV'!Z16</f>
         <v>0</v>
       </c>
-      <c r="AI59" s="161"/>
+      <c r="AI59" s="169"/>
       <c r="AO59">
         <f t="shared" si="82"/>
         <v>0</v>
@@ -9392,7 +9491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="20:59">
+    <row r="60" spans="20:59" x14ac:dyDescent="0.25">
       <c r="AB60" s="47" t="str">
         <f>'4_VV'!T17</f>
         <v>Maggiolo Giorgio</v>
@@ -9421,7 +9520,7 @@
         <f>'4_VV'!Z17</f>
         <v>VV 3.1</v>
       </c>
-      <c r="AI60" s="161">
+      <c r="AI60" s="169">
         <f>'4_VV'!AA17</f>
         <v>16</v>
       </c>
@@ -9502,7 +9601,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="61" spans="20:59" ht="15.75" thickBot="1">
+    <row r="61" spans="20:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AB61" s="63">
         <f>'4_VV'!T18</f>
         <v>0</v>
@@ -9531,7 +9630,7 @@
         <f>'4_VV'!Z18</f>
         <v>0</v>
       </c>
-      <c r="AI61" s="162"/>
+      <c r="AI61" s="182"/>
       <c r="AO61">
         <f t="shared" si="82"/>
         <v>0</v>
@@ -9611,6 +9710,102 @@
     </row>
   </sheetData>
   <mergeCells count="112">
+    <mergeCell ref="AI43:AI44"/>
+    <mergeCell ref="AC46:AE46"/>
+    <mergeCell ref="AF46:AH46"/>
+    <mergeCell ref="AI46:AI47"/>
+    <mergeCell ref="AI60:AI61"/>
+    <mergeCell ref="AI48:AI49"/>
+    <mergeCell ref="AI50:AI51"/>
+    <mergeCell ref="AI52:AI53"/>
+    <mergeCell ref="AI54:AI55"/>
+    <mergeCell ref="AI56:AI57"/>
+    <mergeCell ref="AI58:AI59"/>
+    <mergeCell ref="AI41:AI42"/>
+    <mergeCell ref="AL24:AL25"/>
+    <mergeCell ref="AL26:AL27"/>
+    <mergeCell ref="AC29:AE29"/>
+    <mergeCell ref="AF29:AH29"/>
+    <mergeCell ref="AI29:AI30"/>
+    <mergeCell ref="AI31:AI32"/>
+    <mergeCell ref="AI33:AI34"/>
+    <mergeCell ref="AI35:AI36"/>
+    <mergeCell ref="AI37:AI38"/>
+    <mergeCell ref="AI39:AI40"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="H24:J25"/>
+    <mergeCell ref="E24:G25"/>
+    <mergeCell ref="B24:D25"/>
+    <mergeCell ref="AL22:AL23"/>
+    <mergeCell ref="AC2:AE2"/>
+    <mergeCell ref="AF2:AH2"/>
+    <mergeCell ref="AI2:AI3"/>
+    <mergeCell ref="AC12:AE12"/>
+    <mergeCell ref="AF12:AH12"/>
+    <mergeCell ref="AI12:AK12"/>
+    <mergeCell ref="AL12:AL13"/>
+    <mergeCell ref="AL14:AL15"/>
+    <mergeCell ref="AL16:AL17"/>
+    <mergeCell ref="AL18:AL19"/>
+    <mergeCell ref="AL20:AL21"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:D27"/>
+    <mergeCell ref="E26:G27"/>
+    <mergeCell ref="H26:J27"/>
+    <mergeCell ref="K26:M27"/>
+    <mergeCell ref="E30:G31"/>
+    <mergeCell ref="H30:J31"/>
+    <mergeCell ref="K30:M31"/>
+    <mergeCell ref="N26:P27"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="Q23:S23"/>
+    <mergeCell ref="N23:P23"/>
+    <mergeCell ref="K23:M23"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="K32:M33"/>
+    <mergeCell ref="N32:P33"/>
+    <mergeCell ref="Q32:S33"/>
+    <mergeCell ref="Q24:S25"/>
+    <mergeCell ref="N24:P25"/>
+    <mergeCell ref="K24:M25"/>
+    <mergeCell ref="B32:D33"/>
+    <mergeCell ref="E32:G33"/>
+    <mergeCell ref="H32:J33"/>
+    <mergeCell ref="Q26:S27"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:D39"/>
+    <mergeCell ref="E38:G39"/>
+    <mergeCell ref="H38:J39"/>
+    <mergeCell ref="K38:M39"/>
+    <mergeCell ref="N38:P39"/>
+    <mergeCell ref="Q38:S39"/>
+    <mergeCell ref="N30:P31"/>
+    <mergeCell ref="Q30:S31"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:D35"/>
+    <mergeCell ref="E34:G35"/>
+    <mergeCell ref="H34:J35"/>
+    <mergeCell ref="K34:M35"/>
+    <mergeCell ref="N34:P35"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:D37"/>
+    <mergeCell ref="E36:G37"/>
+    <mergeCell ref="H36:J37"/>
+    <mergeCell ref="K36:M37"/>
+    <mergeCell ref="N36:P37"/>
+    <mergeCell ref="Q36:S37"/>
+    <mergeCell ref="Q34:S35"/>
+    <mergeCell ref="K28:M29"/>
+    <mergeCell ref="N28:P29"/>
+    <mergeCell ref="Q28:S29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:D31"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:D29"/>
+    <mergeCell ref="E28:G29"/>
+    <mergeCell ref="H28:J29"/>
     <mergeCell ref="U38:U39"/>
     <mergeCell ref="U34:U35"/>
     <mergeCell ref="U32:U33"/>
@@ -9627,102 +9822,6 @@
     <mergeCell ref="T28:T29"/>
     <mergeCell ref="T38:T39"/>
     <mergeCell ref="T36:T37"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:D37"/>
-    <mergeCell ref="E36:G37"/>
-    <mergeCell ref="H36:J37"/>
-    <mergeCell ref="K36:M37"/>
-    <mergeCell ref="N36:P37"/>
-    <mergeCell ref="Q36:S37"/>
-    <mergeCell ref="Q34:S35"/>
-    <mergeCell ref="K28:M29"/>
-    <mergeCell ref="N28:P29"/>
-    <mergeCell ref="Q28:S29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:D31"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B38:D39"/>
-    <mergeCell ref="E38:G39"/>
-    <mergeCell ref="H38:J39"/>
-    <mergeCell ref="K38:M39"/>
-    <mergeCell ref="N38:P39"/>
-    <mergeCell ref="Q38:S39"/>
-    <mergeCell ref="N30:P31"/>
-    <mergeCell ref="Q30:S31"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:D29"/>
-    <mergeCell ref="E28:G29"/>
-    <mergeCell ref="H28:J29"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:D35"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="Q23:S23"/>
-    <mergeCell ref="N23:P23"/>
-    <mergeCell ref="K23:M23"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="K32:M33"/>
-    <mergeCell ref="N32:P33"/>
-    <mergeCell ref="Q32:S33"/>
-    <mergeCell ref="Q24:S25"/>
-    <mergeCell ref="N24:P25"/>
-    <mergeCell ref="K24:M25"/>
-    <mergeCell ref="E34:G35"/>
-    <mergeCell ref="H34:J35"/>
-    <mergeCell ref="K34:M35"/>
-    <mergeCell ref="N34:P35"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:D33"/>
-    <mergeCell ref="E32:G33"/>
-    <mergeCell ref="H32:J33"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:D27"/>
-    <mergeCell ref="E26:G27"/>
-    <mergeCell ref="H26:J27"/>
-    <mergeCell ref="K26:M27"/>
-    <mergeCell ref="E30:G31"/>
-    <mergeCell ref="H30:J31"/>
-    <mergeCell ref="K30:M31"/>
-    <mergeCell ref="N26:P27"/>
-    <mergeCell ref="Q26:S27"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="H24:J25"/>
-    <mergeCell ref="E24:G25"/>
-    <mergeCell ref="B24:D25"/>
-    <mergeCell ref="AL22:AL23"/>
-    <mergeCell ref="AC2:AE2"/>
-    <mergeCell ref="AF2:AH2"/>
-    <mergeCell ref="AI2:AI3"/>
-    <mergeCell ref="AC12:AE12"/>
-    <mergeCell ref="AF12:AH12"/>
-    <mergeCell ref="AI12:AK12"/>
-    <mergeCell ref="AL12:AL13"/>
-    <mergeCell ref="AL14:AL15"/>
-    <mergeCell ref="AL16:AL17"/>
-    <mergeCell ref="AL18:AL19"/>
-    <mergeCell ref="AL20:AL21"/>
-    <mergeCell ref="AI41:AI42"/>
-    <mergeCell ref="AL24:AL25"/>
-    <mergeCell ref="AL26:AL27"/>
-    <mergeCell ref="AC29:AE29"/>
-    <mergeCell ref="AF29:AH29"/>
-    <mergeCell ref="AI29:AI30"/>
-    <mergeCell ref="AI31:AI32"/>
-    <mergeCell ref="AI33:AI34"/>
-    <mergeCell ref="AI35:AI36"/>
-    <mergeCell ref="AI37:AI38"/>
-    <mergeCell ref="AI39:AI40"/>
-    <mergeCell ref="AI43:AI44"/>
-    <mergeCell ref="AC46:AE46"/>
-    <mergeCell ref="AF46:AH46"/>
-    <mergeCell ref="AI46:AI47"/>
-    <mergeCell ref="AI60:AI61"/>
-    <mergeCell ref="AI48:AI49"/>
-    <mergeCell ref="AI50:AI51"/>
-    <mergeCell ref="AI52:AI53"/>
-    <mergeCell ref="AI54:AI55"/>
-    <mergeCell ref="AI56:AI57"/>
-    <mergeCell ref="AI58:AI59"/>
   </mergeCells>
   <conditionalFormatting sqref="AB14:AL27">
     <cfRule type="cellIs" dxfId="23" priority="5" operator="equal">
@@ -9753,14 +9852,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BH61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N28" sqref="N28:P29"/>
+    <sheetView topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28:D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.85546875" customWidth="1"/>
     <col min="2" max="3" width="3.42578125" customWidth="1"/>
@@ -9782,7 +9881,7 @@
     <col min="41" max="58" width="3.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60" ht="15.75" thickBot="1">
+    <row r="1" spans="1:60" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="147"/>
       <c r="B1" s="148"/>
       <c r="C1" s="148"/>
@@ -9806,7 +9905,7 @@
       <c r="U1" s="148"/>
       <c r="V1" s="147"/>
     </row>
-    <row r="2" spans="1:60">
+    <row r="2" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A2" s="147"/>
       <c r="B2" s="148"/>
       <c r="C2" s="148"/>
@@ -9833,13 +9932,13 @@
         <v>74</v>
       </c>
       <c r="AB2" s="149"/>
-      <c r="AC2" s="173"/>
-      <c r="AD2" s="174"/>
-      <c r="AE2" s="175"/>
-      <c r="AF2" s="173"/>
-      <c r="AG2" s="174"/>
-      <c r="AH2" s="174"/>
-      <c r="AI2" s="167"/>
+      <c r="AC2" s="170"/>
+      <c r="AD2" s="171"/>
+      <c r="AE2" s="172"/>
+      <c r="AF2" s="170"/>
+      <c r="AG2" s="171"/>
+      <c r="AH2" s="171"/>
+      <c r="AI2" s="173"/>
       <c r="AJ2">
         <f>SUM(AI4:AI10)</f>
         <v>0</v>
@@ -9899,7 +9998,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:60" ht="15.75" thickBot="1">
+    <row r="3" spans="1:60" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="147"/>
       <c r="B3" s="148"/>
       <c r="C3" s="148"/>
@@ -9929,9 +10028,9 @@
       <c r="AF3" s="104"/>
       <c r="AG3" s="105"/>
       <c r="AH3" s="107"/>
-      <c r="AI3" s="168"/>
-    </row>
-    <row r="4" spans="1:60">
+      <c r="AI3" s="174"/>
+    </row>
+    <row r="4" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A4" s="147"/>
       <c r="B4" s="148"/>
       <c r="C4" s="148"/>
@@ -10019,7 +10118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:60">
+    <row r="5" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A5" s="147"/>
       <c r="B5" s="148"/>
       <c r="C5" s="148"/>
@@ -10107,7 +10206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:60">
+    <row r="6" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A6" s="147"/>
       <c r="B6" s="148"/>
       <c r="C6" s="148"/>
@@ -10195,7 +10294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:60">
+    <row r="7" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A7" s="147"/>
       <c r="B7" s="148"/>
       <c r="C7" s="148"/>
@@ -10283,7 +10382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:60">
+    <row r="8" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A8" s="147"/>
       <c r="B8" s="148"/>
       <c r="C8" s="148"/>
@@ -10371,7 +10470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:60">
+    <row r="9" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A9" s="147"/>
       <c r="B9" s="148"/>
       <c r="C9" s="148"/>
@@ -10459,7 +10558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:60" ht="15.75" thickBot="1">
+    <row r="10" spans="1:60" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AB10" s="122"/>
       <c r="AC10" s="123"/>
       <c r="AD10" s="124"/>
@@ -10529,38 +10628,38 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:60" ht="15.75" thickBot="1">
+    <row r="11" spans="1:60" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="BG11" s="158">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:60">
+    <row r="12" spans="1:60" x14ac:dyDescent="0.25">
       <c r="AA12" t="s">
         <v>123</v>
       </c>
       <c r="AB12" s="149" t="s">
         <v>126</v>
       </c>
-      <c r="AC12" s="173" t="str">
+      <c r="AC12" s="170" t="str">
         <f>'2_PA'!V9</f>
         <v>I Periodo</v>
       </c>
-      <c r="AD12" s="176"/>
-      <c r="AE12" s="177"/>
-      <c r="AF12" s="163" t="str">
+      <c r="AD12" s="175"/>
+      <c r="AE12" s="176"/>
+      <c r="AF12" s="177" t="str">
         <f>'2_PA'!Y9</f>
         <v>II Periodo</v>
       </c>
-      <c r="AG12" s="164"/>
-      <c r="AH12" s="165"/>
-      <c r="AI12" s="163" t="str">
+      <c r="AG12" s="178"/>
+      <c r="AH12" s="179"/>
+      <c r="AI12" s="177" t="str">
         <f>'2_PA'!AB9</f>
         <v>III Periodo</v>
       </c>
-      <c r="AJ12" s="164"/>
-      <c r="AK12" s="166"/>
-      <c r="AL12" s="167" t="str">
+      <c r="AJ12" s="178"/>
+      <c r="AK12" s="180"/>
+      <c r="AL12" s="173" t="str">
         <f>'2_PA'!AE9</f>
         <v>Totale</v>
       </c>
@@ -10569,7 +10668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:60" ht="15.75" thickBot="1">
+    <row r="13" spans="1:60" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AB13" s="150"/>
       <c r="AC13" s="26" t="str">
         <f>'2_PA'!V10</f>
@@ -10607,7 +10706,7 @@
         <f>'2_PA'!AD10</f>
         <v>Fase</v>
       </c>
-      <c r="AL13" s="168"/>
+      <c r="AL13" s="174"/>
       <c r="AM13">
         <f>SUM(AL14:AL27)</f>
         <v>193</v>
@@ -10617,7 +10716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:60">
+    <row r="14" spans="1:60" x14ac:dyDescent="0.25">
       <c r="AB14" s="31" t="str">
         <f>'2_PA'!U11</f>
         <v>Begolo Marco</v>
@@ -10658,7 +10757,7 @@
         <f>'2_PA'!AD11</f>
         <v>PA 3.2</v>
       </c>
-      <c r="AL14" s="169">
+      <c r="AL14" s="181">
         <f>'2_PA'!AE11</f>
         <v>27</v>
       </c>
@@ -10743,7 +10842,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="15" spans="1:60">
+    <row r="15" spans="1:60" x14ac:dyDescent="0.25">
       <c r="AB15" s="35">
         <f>'2_PA'!U12</f>
         <v>0</v>
@@ -10784,7 +10883,7 @@
         <f>'2_PA'!AD12</f>
         <v>0</v>
       </c>
-      <c r="AL15" s="161"/>
+      <c r="AL15" s="169"/>
       <c r="AO15">
         <f>IF($AC15=AO$2,$AD15,0)</f>
         <v>0</v>
@@ -10862,7 +10961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:60">
+    <row r="16" spans="1:60" x14ac:dyDescent="0.25">
       <c r="AB16" s="31" t="str">
         <f>'2_PA'!U13</f>
         <v>Facchin Gabriele</v>
@@ -10903,7 +11002,7 @@
         <f>'2_PA'!AD13</f>
         <v>PA 3.2</v>
       </c>
-      <c r="AL16" s="161">
+      <c r="AL16" s="169">
         <f>'2_PA'!AE13</f>
         <v>27</v>
       </c>
@@ -10984,7 +11083,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:60">
+    <row r="17" spans="1:60" x14ac:dyDescent="0.25">
       <c r="AB17" s="31">
         <f>'2_PA'!U14</f>
         <v>0</v>
@@ -11025,7 +11124,7 @@
         <f>'2_PA'!AD14</f>
         <v>0</v>
       </c>
-      <c r="AL17" s="161"/>
+      <c r="AL17" s="169"/>
       <c r="AO17">
         <f t="shared" si="29"/>
         <v>0</v>
@@ -11103,7 +11202,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:60">
+    <row r="18" spans="1:60" x14ac:dyDescent="0.25">
       <c r="AB18" s="47" t="str">
         <f>'2_PA'!U15</f>
         <v>Cornaglia Alessando</v>
@@ -11144,7 +11243,7 @@
         <f>'2_PA'!AD15</f>
         <v>PA 3.3</v>
       </c>
-      <c r="AL18" s="161">
+      <c r="AL18" s="169">
         <f>'2_PA'!AE15</f>
         <v>29</v>
       </c>
@@ -11225,7 +11324,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:60">
+    <row r="19" spans="1:60" x14ac:dyDescent="0.25">
       <c r="AB19" s="35">
         <f>'2_PA'!U16</f>
         <v>0</v>
@@ -11266,7 +11365,7 @@
         <f>'2_PA'!AD16</f>
         <v>PA 6.1</v>
       </c>
-      <c r="AL19" s="161"/>
+      <c r="AL19" s="169"/>
       <c r="AO19">
         <f t="shared" si="29"/>
         <v>0</v>
@@ -11344,7 +11443,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:60">
+    <row r="20" spans="1:60" x14ac:dyDescent="0.25">
       <c r="AB20" s="31" t="str">
         <f>'2_PA'!U17</f>
         <v>Dalla Pietà Massimo</v>
@@ -11385,7 +11484,7 @@
         <f>'2_PA'!AD17</f>
         <v>PA 3.3</v>
       </c>
-      <c r="AL20" s="161">
+      <c r="AL20" s="169">
         <f>'2_PA'!AE17</f>
         <v>27</v>
       </c>
@@ -11466,7 +11565,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:60">
+    <row r="21" spans="1:60" x14ac:dyDescent="0.25">
       <c r="AB21" s="31">
         <f>'2_PA'!U18</f>
         <v>0</v>
@@ -11507,7 +11606,7 @@
         <f>'2_PA'!AD18</f>
         <v>PA 6.2</v>
       </c>
-      <c r="AL21" s="161"/>
+      <c r="AL21" s="169"/>
       <c r="AO21">
         <f t="shared" si="29"/>
         <v>0</v>
@@ -11585,7 +11684,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:60">
+    <row r="22" spans="1:60" x14ac:dyDescent="0.25">
       <c r="AB22" s="47" t="str">
         <f>'2_PA'!U19</f>
         <v>Braghetto Lorenzo</v>
@@ -11626,7 +11725,7 @@
         <f>'2_PA'!AD19</f>
         <v>PA 5.1</v>
       </c>
-      <c r="AL22" s="161">
+      <c r="AL22" s="169">
         <f>'2_PA'!AE19</f>
         <v>27</v>
       </c>
@@ -11707,40 +11806,40 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:60">
+    <row r="23" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A23" s="156" t="s">
         <v>0</v>
       </c>
-      <c r="B23" s="178" t="s">
+      <c r="B23" s="168" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="178"/>
-      <c r="D23" s="178"/>
-      <c r="E23" s="178" t="s">
+      <c r="C23" s="168"/>
+      <c r="D23" s="168"/>
+      <c r="E23" s="168" t="s">
         <v>2</v>
       </c>
-      <c r="F23" s="178"/>
-      <c r="G23" s="178"/>
-      <c r="H23" s="178" t="s">
+      <c r="F23" s="168"/>
+      <c r="G23" s="168"/>
+      <c r="H23" s="168" t="s">
         <v>3</v>
       </c>
-      <c r="I23" s="178"/>
-      <c r="J23" s="178"/>
-      <c r="K23" s="178" t="s">
+      <c r="I23" s="168"/>
+      <c r="J23" s="168"/>
+      <c r="K23" s="168" t="s">
         <v>4</v>
       </c>
-      <c r="L23" s="178"/>
-      <c r="M23" s="178"/>
-      <c r="N23" s="178" t="s">
+      <c r="L23" s="168"/>
+      <c r="M23" s="168"/>
+      <c r="N23" s="168" t="s">
         <v>5</v>
       </c>
-      <c r="O23" s="178"/>
-      <c r="P23" s="178"/>
-      <c r="Q23" s="178" t="s">
+      <c r="O23" s="168"/>
+      <c r="P23" s="168"/>
+      <c r="Q23" s="168" t="s">
         <v>6</v>
       </c>
-      <c r="R23" s="178"/>
-      <c r="S23" s="178"/>
+      <c r="R23" s="168"/>
+      <c r="S23" s="168"/>
       <c r="T23" s="156" t="s">
         <v>14</v>
       </c>
@@ -11785,7 +11884,7 @@
         <f>'2_PA'!AD20</f>
         <v>0</v>
       </c>
-      <c r="AL23" s="161"/>
+      <c r="AL23" s="169"/>
       <c r="AO23">
         <f t="shared" si="29"/>
         <v>0</v>
@@ -11863,51 +11962,51 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:60">
-      <c r="A24" s="171" t="s">
+    <row r="24" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A24" s="164" t="s">
         <v>7</v>
       </c>
-      <c r="B24" s="170">
+      <c r="B24" s="165">
         <f>SUM(AO4:AQ4,AO14:AQ15,AO31:AQ32,AO48:AQ49)</f>
         <v>4</v>
       </c>
-      <c r="C24" s="170"/>
-      <c r="D24" s="170"/>
-      <c r="E24" s="170">
+      <c r="C24" s="165"/>
+      <c r="D24" s="165"/>
+      <c r="E24" s="165">
         <f>SUM(AR4:AT4,AR14:AT15,AR31:AT32,AR48:AT49)</f>
         <v>10</v>
       </c>
-      <c r="F24" s="170"/>
-      <c r="G24" s="170"/>
-      <c r="H24" s="172">
+      <c r="F24" s="165"/>
+      <c r="G24" s="165"/>
+      <c r="H24" s="166">
         <f>SUM(AU4:AW4,AU14:AW15,AU31:AW32,AU48:AW49)</f>
         <v>12</v>
       </c>
-      <c r="I24" s="172"/>
-      <c r="J24" s="172"/>
-      <c r="K24" s="170">
+      <c r="I24" s="166"/>
+      <c r="J24" s="166"/>
+      <c r="K24" s="165">
         <f>SUM(AX4:AZ4,AX14:AZ15,AX31:AZ32,AX48:AZ49)</f>
         <v>10</v>
       </c>
-      <c r="L24" s="170"/>
-      <c r="M24" s="170"/>
-      <c r="N24" s="172">
+      <c r="L24" s="165"/>
+      <c r="M24" s="165"/>
+      <c r="N24" s="166">
         <f>SUM(BA4:BC4,BA14:BC15,BA31:BC32,BA48:BC49)</f>
         <v>57</v>
       </c>
-      <c r="O24" s="172"/>
-      <c r="P24" s="172"/>
-      <c r="Q24" s="170">
+      <c r="O24" s="166"/>
+      <c r="P24" s="166"/>
+      <c r="Q24" s="165">
         <f>SUM(BD4:BF4,BD14:BF15,BD31:BF32,BD48:BF49)</f>
         <v>4</v>
       </c>
-      <c r="R24" s="170"/>
-      <c r="S24" s="170"/>
-      <c r="T24" s="170">
+      <c r="R24" s="165"/>
+      <c r="S24" s="165"/>
+      <c r="T24" s="165">
         <f t="shared" ref="T24" si="32">SUM(B24:S25)</f>
         <v>97</v>
       </c>
-      <c r="U24" s="182"/>
+      <c r="U24" s="161"/>
       <c r="AB24" s="31" t="str">
         <f>'2_PA'!U21</f>
         <v>Quadrio Giacomo</v>
@@ -11948,7 +12047,7 @@
         <f>'2_PA'!AD21</f>
         <v>PA 5.1, 6.2</v>
       </c>
-      <c r="AL24" s="161">
+      <c r="AL24" s="169">
         <f>'2_PA'!AE21</f>
         <v>27</v>
       </c>
@@ -12029,28 +12128,28 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:60">
-      <c r="A25" s="171"/>
-      <c r="B25" s="170"/>
-      <c r="C25" s="170"/>
-      <c r="D25" s="170"/>
-      <c r="E25" s="170"/>
-      <c r="F25" s="170"/>
-      <c r="G25" s="170"/>
-      <c r="H25" s="172"/>
-      <c r="I25" s="172"/>
-      <c r="J25" s="172"/>
-      <c r="K25" s="170"/>
-      <c r="L25" s="170"/>
-      <c r="M25" s="170"/>
-      <c r="N25" s="172"/>
-      <c r="O25" s="172"/>
-      <c r="P25" s="172"/>
-      <c r="Q25" s="170"/>
-      <c r="R25" s="170"/>
-      <c r="S25" s="170"/>
-      <c r="T25" s="170"/>
-      <c r="U25" s="182"/>
+    <row r="25" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A25" s="164"/>
+      <c r="B25" s="165"/>
+      <c r="C25" s="165"/>
+      <c r="D25" s="165"/>
+      <c r="E25" s="165"/>
+      <c r="F25" s="165"/>
+      <c r="G25" s="165"/>
+      <c r="H25" s="166"/>
+      <c r="I25" s="166"/>
+      <c r="J25" s="166"/>
+      <c r="K25" s="165"/>
+      <c r="L25" s="165"/>
+      <c r="M25" s="165"/>
+      <c r="N25" s="166"/>
+      <c r="O25" s="166"/>
+      <c r="P25" s="166"/>
+      <c r="Q25" s="165"/>
+      <c r="R25" s="165"/>
+      <c r="S25" s="165"/>
+      <c r="T25" s="165"/>
+      <c r="U25" s="161"/>
       <c r="AB25" s="31">
         <f>'2_PA'!U22</f>
         <v>0</v>
@@ -12091,7 +12190,7 @@
         <f>'2_PA'!AD22</f>
         <v>0</v>
       </c>
-      <c r="AL25" s="161"/>
+      <c r="AL25" s="169"/>
       <c r="AO25">
         <f t="shared" si="29"/>
         <v>0</v>
@@ -12169,51 +12268,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:60">
-      <c r="A26" s="171" t="s">
+    <row r="26" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A26" s="164" t="s">
         <v>11</v>
       </c>
-      <c r="B26" s="170">
+      <c r="B26" s="165">
         <f>SUM(AO5:AQ5,AO16:AQ17,AO33:AQ34,AO50:AQ51)</f>
         <v>13</v>
       </c>
-      <c r="C26" s="170"/>
-      <c r="D26" s="170"/>
-      <c r="E26" s="170">
+      <c r="C26" s="165"/>
+      <c r="D26" s="165"/>
+      <c r="E26" s="165">
         <f>SUM(AR5:AT5,AR16:AT17,AR33:AT34,AR50:AT51)</f>
         <v>10</v>
       </c>
-      <c r="F26" s="170"/>
-      <c r="G26" s="170"/>
-      <c r="H26" s="170">
+      <c r="F26" s="165"/>
+      <c r="G26" s="165"/>
+      <c r="H26" s="165">
         <f>SUM(AU5:AW5,AU16:AW17,AU33:AW34,AU50:AW51)</f>
         <v>0</v>
       </c>
-      <c r="I26" s="170"/>
-      <c r="J26" s="170"/>
-      <c r="K26" s="172">
+      <c r="I26" s="165"/>
+      <c r="J26" s="165"/>
+      <c r="K26" s="166">
         <f>SUM(AX5:AZ5,AX16:AZ17,AX33:AZ34,AX50:AZ51)</f>
         <v>33</v>
       </c>
-      <c r="L26" s="172"/>
-      <c r="M26" s="172"/>
-      <c r="N26" s="170">
+      <c r="L26" s="166"/>
+      <c r="M26" s="166"/>
+      <c r="N26" s="165">
         <f>SUM(BA5:BC5,BA16:BC17,BA33:BC34,BA50:BC51)</f>
         <v>29</v>
       </c>
-      <c r="O26" s="170"/>
-      <c r="P26" s="170"/>
-      <c r="Q26" s="170">
+      <c r="O26" s="165"/>
+      <c r="P26" s="165"/>
+      <c r="Q26" s="165">
         <f>SUM(BD5:BF5,BD16:BF17,BD33:BF34,BD50:BF51)</f>
         <v>12</v>
       </c>
-      <c r="R26" s="170"/>
-      <c r="S26" s="170"/>
-      <c r="T26" s="170">
+      <c r="R26" s="165"/>
+      <c r="S26" s="165"/>
+      <c r="T26" s="165">
         <f t="shared" ref="T26" si="33">SUM(B26:S27)</f>
         <v>97</v>
       </c>
-      <c r="U26" s="182"/>
+      <c r="U26" s="161"/>
       <c r="AB26" s="47" t="str">
         <f>'2_PA'!U23</f>
         <v>Maggiolo Giorgio</v>
@@ -12254,7 +12353,7 @@
         <f>'2_PA'!AD23</f>
         <v>PA 3.3</v>
       </c>
-      <c r="AL26" s="161">
+      <c r="AL26" s="169">
         <f>'2_PA'!AE23</f>
         <v>29</v>
       </c>
@@ -12335,28 +12434,28 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:60" ht="15.75" thickBot="1">
-      <c r="A27" s="171"/>
-      <c r="B27" s="170"/>
-      <c r="C27" s="170"/>
-      <c r="D27" s="170"/>
-      <c r="E27" s="170"/>
-      <c r="F27" s="170"/>
-      <c r="G27" s="170"/>
-      <c r="H27" s="170"/>
-      <c r="I27" s="170"/>
-      <c r="J27" s="170"/>
-      <c r="K27" s="172"/>
-      <c r="L27" s="172"/>
-      <c r="M27" s="172"/>
-      <c r="N27" s="170"/>
-      <c r="O27" s="170"/>
-      <c r="P27" s="170"/>
-      <c r="Q27" s="170"/>
-      <c r="R27" s="170"/>
-      <c r="S27" s="170"/>
-      <c r="T27" s="170"/>
-      <c r="U27" s="182"/>
+    <row r="27" spans="1:60" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="164"/>
+      <c r="B27" s="165"/>
+      <c r="C27" s="165"/>
+      <c r="D27" s="165"/>
+      <c r="E27" s="165"/>
+      <c r="F27" s="165"/>
+      <c r="G27" s="165"/>
+      <c r="H27" s="165"/>
+      <c r="I27" s="165"/>
+      <c r="J27" s="165"/>
+      <c r="K27" s="166"/>
+      <c r="L27" s="166"/>
+      <c r="M27" s="166"/>
+      <c r="N27" s="165"/>
+      <c r="O27" s="165"/>
+      <c r="P27" s="165"/>
+      <c r="Q27" s="165"/>
+      <c r="R27" s="165"/>
+      <c r="S27" s="165"/>
+      <c r="T27" s="165"/>
+      <c r="U27" s="161"/>
       <c r="AB27" s="63">
         <f>'2_PA'!U24</f>
         <v>0</v>
@@ -12397,7 +12496,7 @@
         <f>'2_PA'!AD24</f>
         <v>PA 5.1</v>
       </c>
-      <c r="AL27" s="162"/>
+      <c r="AL27" s="182"/>
       <c r="AO27">
         <f t="shared" si="29"/>
         <v>0</v>
@@ -12475,97 +12574,97 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:60" ht="15.75" thickBot="1">
-      <c r="A28" s="171" t="s">
+    <row r="28" spans="1:60" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="164" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="170">
+      <c r="B28" s="165">
         <f>SUM(AO6:AQ6,AO18:AQ19,AO35:AQ36,AO52:AQ53)</f>
         <v>10</v>
       </c>
-      <c r="C28" s="170"/>
-      <c r="D28" s="170"/>
-      <c r="E28" s="170">
+      <c r="C28" s="165"/>
+      <c r="D28" s="165"/>
+      <c r="E28" s="165">
         <f>SUM(AR6:AT6,AR18:AT19,AR35:AT36,AR52:AT53)</f>
         <v>4</v>
       </c>
-      <c r="F28" s="170"/>
-      <c r="G28" s="170"/>
-      <c r="H28" s="170">
+      <c r="F28" s="165"/>
+      <c r="G28" s="165"/>
+      <c r="H28" s="165">
         <f>SUM(AU6:AW6,AU18:AW19,AU35:AW36,AU52:AW53)</f>
         <v>6</v>
       </c>
-      <c r="I28" s="170"/>
-      <c r="J28" s="170"/>
-      <c r="K28" s="170">
+      <c r="I28" s="165"/>
+      <c r="J28" s="165"/>
+      <c r="K28" s="165">
         <f>SUM(AX6:AZ6,AX18:AZ19,AX35:AZ36,AX52:AZ53)</f>
         <v>27</v>
       </c>
-      <c r="L28" s="170"/>
-      <c r="M28" s="170"/>
-      <c r="N28" s="170">
+      <c r="L28" s="165"/>
+      <c r="M28" s="165"/>
+      <c r="N28" s="165">
         <f>SUM(BA6:BC6,BA18:BC19,BA35:BC36,BA52:BC53)</f>
         <v>32</v>
       </c>
-      <c r="O28" s="170"/>
-      <c r="P28" s="170"/>
-      <c r="Q28" s="172">
+      <c r="O28" s="165"/>
+      <c r="P28" s="165"/>
+      <c r="Q28" s="166">
         <f>SUM(BD6:BF6,BD18:BF19,BD35:BF36,BD52:BF53)</f>
         <v>20</v>
       </c>
-      <c r="R28" s="172"/>
-      <c r="S28" s="172"/>
-      <c r="T28" s="170">
+      <c r="R28" s="166"/>
+      <c r="S28" s="166"/>
+      <c r="T28" s="165">
         <f t="shared" ref="T28" si="34">SUM(B28:S29)</f>
         <v>99</v>
       </c>
-      <c r="U28" s="182"/>
+      <c r="U28" s="161"/>
       <c r="BG28" s="158">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:60">
-      <c r="A29" s="171"/>
-      <c r="B29" s="170"/>
-      <c r="C29" s="170"/>
-      <c r="D29" s="170"/>
-      <c r="E29" s="170"/>
-      <c r="F29" s="170"/>
-      <c r="G29" s="170"/>
-      <c r="H29" s="170"/>
-      <c r="I29" s="170"/>
-      <c r="J29" s="170"/>
-      <c r="K29" s="170"/>
-      <c r="L29" s="170"/>
-      <c r="M29" s="170"/>
-      <c r="N29" s="170"/>
-      <c r="O29" s="170"/>
-      <c r="P29" s="170"/>
-      <c r="Q29" s="172"/>
-      <c r="R29" s="172"/>
-      <c r="S29" s="172"/>
-      <c r="T29" s="170"/>
-      <c r="U29" s="182"/>
+    <row r="29" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A29" s="164"/>
+      <c r="B29" s="165"/>
+      <c r="C29" s="165"/>
+      <c r="D29" s="165"/>
+      <c r="E29" s="165"/>
+      <c r="F29" s="165"/>
+      <c r="G29" s="165"/>
+      <c r="H29" s="165"/>
+      <c r="I29" s="165"/>
+      <c r="J29" s="165"/>
+      <c r="K29" s="165"/>
+      <c r="L29" s="165"/>
+      <c r="M29" s="165"/>
+      <c r="N29" s="165"/>
+      <c r="O29" s="165"/>
+      <c r="P29" s="165"/>
+      <c r="Q29" s="166"/>
+      <c r="R29" s="166"/>
+      <c r="S29" s="166"/>
+      <c r="T29" s="165"/>
+      <c r="U29" s="161"/>
       <c r="AA29" t="s">
         <v>124</v>
       </c>
       <c r="AB29" s="149" t="s">
         <v>127</v>
       </c>
-      <c r="AC29" s="163" t="str">
+      <c r="AC29" s="177" t="str">
         <f>'3_PDC'!U6</f>
         <v>I Periodo</v>
       </c>
-      <c r="AD29" s="164"/>
-      <c r="AE29" s="165"/>
-      <c r="AF29" s="163" t="str">
+      <c r="AD29" s="178"/>
+      <c r="AE29" s="179"/>
+      <c r="AF29" s="177" t="str">
         <f>'3_PDC'!X6</f>
         <v>II Periodo</v>
       </c>
-      <c r="AG29" s="164"/>
-      <c r="AH29" s="166"/>
-      <c r="AI29" s="167" t="str">
+      <c r="AG29" s="178"/>
+      <c r="AH29" s="180"/>
+      <c r="AI29" s="173" t="str">
         <f>'3_PDC'!AA6</f>
         <v>Totale</v>
       </c>
@@ -12574,51 +12673,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:60" ht="15.75" thickBot="1">
-      <c r="A30" s="171" t="s">
+    <row r="30" spans="1:60" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="164" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="170">
+      <c r="B30" s="165">
         <f>SUM(AO7:AQ7,AO20:AQ21,AO37:AQ38,AO54:AQ55)</f>
         <v>15</v>
       </c>
-      <c r="C30" s="170"/>
-      <c r="D30" s="170"/>
-      <c r="E30" s="170">
+      <c r="C30" s="165"/>
+      <c r="D30" s="165"/>
+      <c r="E30" s="165">
         <f>SUM(AR7:AT7,AR20:AT21,AR37:AT38,AR54:AT55)</f>
         <v>4</v>
       </c>
-      <c r="F30" s="170"/>
-      <c r="G30" s="170"/>
-      <c r="H30" s="170">
+      <c r="F30" s="165"/>
+      <c r="G30" s="165"/>
+      <c r="H30" s="165">
         <f>SUM(AU7:AW7,AU20:AW21,AU37:AW38,AU54:AW55)</f>
         <v>0</v>
       </c>
-      <c r="I30" s="170"/>
-      <c r="J30" s="170"/>
-      <c r="K30" s="172">
+      <c r="I30" s="165"/>
+      <c r="J30" s="165"/>
+      <c r="K30" s="166">
         <f>SUM(AX7:AZ7,AX20:AZ21,AX37:AZ38,AX54:AZ55)</f>
         <v>31</v>
       </c>
-      <c r="L30" s="172"/>
-      <c r="M30" s="172"/>
-      <c r="N30" s="172">
+      <c r="L30" s="166"/>
+      <c r="M30" s="166"/>
+      <c r="N30" s="166">
         <f>SUM(BA7:BC7,BA20:BC21,BA37:BC38,BA54:BC55)</f>
         <v>34</v>
       </c>
-      <c r="O30" s="172"/>
-      <c r="P30" s="172"/>
-      <c r="Q30" s="170">
+      <c r="O30" s="166"/>
+      <c r="P30" s="166"/>
+      <c r="Q30" s="165">
         <f>SUM(BD7:BF7,BD20:BF21,BD37:BF38,BD54:BF55)</f>
         <v>18</v>
       </c>
-      <c r="R30" s="170"/>
-      <c r="S30" s="170"/>
-      <c r="T30" s="170">
+      <c r="R30" s="165"/>
+      <c r="S30" s="165"/>
+      <c r="T30" s="165">
         <f t="shared" ref="T30" si="35">SUM(B30:S31)</f>
         <v>102</v>
       </c>
-      <c r="U30" s="182"/>
+      <c r="U30" s="161"/>
       <c r="AB30" s="150"/>
       <c r="AC30" s="26" t="str">
         <f>'3_PDC'!U7</f>
@@ -12644,7 +12743,7 @@
         <f>'3_PDC'!Z7</f>
         <v>Fase</v>
       </c>
-      <c r="AI30" s="168"/>
+      <c r="AI30" s="174"/>
       <c r="AK30">
         <f>SUM(AI31:AI44)</f>
         <v>373</v>
@@ -12654,28 +12753,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:60">
-      <c r="A31" s="171"/>
-      <c r="B31" s="170"/>
-      <c r="C31" s="170"/>
-      <c r="D31" s="170"/>
-      <c r="E31" s="170"/>
-      <c r="F31" s="170"/>
-      <c r="G31" s="170"/>
-      <c r="H31" s="170"/>
-      <c r="I31" s="170"/>
-      <c r="J31" s="170"/>
-      <c r="K31" s="172"/>
-      <c r="L31" s="172"/>
-      <c r="M31" s="172"/>
-      <c r="N31" s="172"/>
-      <c r="O31" s="172"/>
-      <c r="P31" s="172"/>
-      <c r="Q31" s="170"/>
-      <c r="R31" s="170"/>
-      <c r="S31" s="170"/>
-      <c r="T31" s="170"/>
-      <c r="U31" s="182"/>
+    <row r="31" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A31" s="164"/>
+      <c r="B31" s="165"/>
+      <c r="C31" s="165"/>
+      <c r="D31" s="165"/>
+      <c r="E31" s="165"/>
+      <c r="F31" s="165"/>
+      <c r="G31" s="165"/>
+      <c r="H31" s="165"/>
+      <c r="I31" s="165"/>
+      <c r="J31" s="165"/>
+      <c r="K31" s="166"/>
+      <c r="L31" s="166"/>
+      <c r="M31" s="166"/>
+      <c r="N31" s="166"/>
+      <c r="O31" s="166"/>
+      <c r="P31" s="166"/>
+      <c r="Q31" s="165"/>
+      <c r="R31" s="165"/>
+      <c r="S31" s="165"/>
+      <c r="T31" s="165"/>
+      <c r="U31" s="161"/>
       <c r="AB31" s="31" t="str">
         <f>'3_PDC'!T8</f>
         <v>Begolo Marco</v>
@@ -12704,7 +12803,7 @@
         <f>'3_PDC'!Z8</f>
         <v>PDC 4.4</v>
       </c>
-      <c r="AI31" s="169">
+      <c r="AI31" s="181">
         <f>'3_PDC'!AA8</f>
         <v>52</v>
       </c>
@@ -12789,51 +12888,51 @@
         <v>373</v>
       </c>
     </row>
-    <row r="32" spans="1:60">
-      <c r="A32" s="171" t="s">
+    <row r="32" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A32" s="164" t="s">
         <v>8</v>
       </c>
-      <c r="B32" s="170">
+      <c r="B32" s="165">
         <f>SUM(AO8:AQ8,AO22:AQ23,AO39:AQ40,AO56:AQ57)</f>
         <v>9</v>
       </c>
-      <c r="C32" s="170"/>
-      <c r="D32" s="170"/>
-      <c r="E32" s="170">
+      <c r="C32" s="165"/>
+      <c r="D32" s="165"/>
+      <c r="E32" s="165">
         <f>SUM(AR8:AT8,AR22:AT23,AR39:AT40,AR56:AT57)</f>
         <v>11</v>
       </c>
-      <c r="F32" s="170"/>
-      <c r="G32" s="170"/>
-      <c r="H32" s="170">
+      <c r="F32" s="165"/>
+      <c r="G32" s="165"/>
+      <c r="H32" s="165">
         <f>SUM(AU8:AW8,AU22:AW23,AU39:AW40,AU56:AW57)</f>
         <v>0</v>
       </c>
-      <c r="I32" s="170"/>
-      <c r="J32" s="170"/>
-      <c r="K32" s="170">
+      <c r="I32" s="165"/>
+      <c r="J32" s="165"/>
+      <c r="K32" s="165">
         <f>SUM(AX8:AZ8,AX22:AZ23,AX39:AZ40,AX56:AZ57)</f>
         <v>20</v>
       </c>
-      <c r="L32" s="170"/>
-      <c r="M32" s="170"/>
-      <c r="N32" s="172">
+      <c r="L32" s="165"/>
+      <c r="M32" s="165"/>
+      <c r="N32" s="166">
         <f>SUM(BA8:BC8,BA22:BC23,BA39:BC40,BA56:BC57)</f>
         <v>36</v>
       </c>
-      <c r="O32" s="172"/>
-      <c r="P32" s="172"/>
-      <c r="Q32" s="170">
+      <c r="O32" s="166"/>
+      <c r="P32" s="166"/>
+      <c r="Q32" s="165">
         <f>SUM(BD8:BF8,BD22:BF23,BD39:BF40,BD56:BF57)</f>
         <v>23</v>
       </c>
-      <c r="R32" s="170"/>
-      <c r="S32" s="170"/>
-      <c r="T32" s="170">
+      <c r="R32" s="165"/>
+      <c r="S32" s="165"/>
+      <c r="T32" s="165">
         <f t="shared" ref="T32" si="51">SUM(B32:S33)</f>
         <v>99</v>
       </c>
-      <c r="U32" s="182"/>
+      <c r="U32" s="161"/>
       <c r="AB32" s="35">
         <f>'3_PDC'!T9</f>
         <v>0</v>
@@ -12862,7 +12961,7 @@
         <f>'3_PDC'!Z9</f>
         <v>PDC 7</v>
       </c>
-      <c r="AI32" s="161"/>
+      <c r="AI32" s="169"/>
       <c r="AO32">
         <f>IF($AC32=AO$2,$AD32,0)</f>
         <v>0</v>
@@ -12940,28 +13039,28 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:60">
-      <c r="A33" s="171"/>
-      <c r="B33" s="170"/>
-      <c r="C33" s="170"/>
-      <c r="D33" s="170"/>
-      <c r="E33" s="170"/>
-      <c r="F33" s="170"/>
-      <c r="G33" s="170"/>
-      <c r="H33" s="170"/>
-      <c r="I33" s="170"/>
-      <c r="J33" s="170"/>
-      <c r="K33" s="170"/>
-      <c r="L33" s="170"/>
-      <c r="M33" s="170"/>
-      <c r="N33" s="172"/>
-      <c r="O33" s="172"/>
-      <c r="P33" s="172"/>
-      <c r="Q33" s="170"/>
-      <c r="R33" s="170"/>
-      <c r="S33" s="170"/>
-      <c r="T33" s="170"/>
-      <c r="U33" s="182"/>
+    <row r="33" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A33" s="164"/>
+      <c r="B33" s="165"/>
+      <c r="C33" s="165"/>
+      <c r="D33" s="165"/>
+      <c r="E33" s="165"/>
+      <c r="F33" s="165"/>
+      <c r="G33" s="165"/>
+      <c r="H33" s="165"/>
+      <c r="I33" s="165"/>
+      <c r="J33" s="165"/>
+      <c r="K33" s="165"/>
+      <c r="L33" s="165"/>
+      <c r="M33" s="165"/>
+      <c r="N33" s="166"/>
+      <c r="O33" s="166"/>
+      <c r="P33" s="166"/>
+      <c r="Q33" s="165"/>
+      <c r="R33" s="165"/>
+      <c r="S33" s="165"/>
+      <c r="T33" s="165"/>
+      <c r="U33" s="161"/>
       <c r="AB33" s="31" t="str">
         <f>'3_PDC'!T10</f>
         <v>Facchin Gabriele</v>
@@ -12990,7 +13089,7 @@
         <f>'3_PDC'!Z10</f>
         <v>PDC 3.1</v>
       </c>
-      <c r="AI33" s="161">
+      <c r="AI33" s="169">
         <f>'3_PDC'!AA10</f>
         <v>52</v>
       </c>
@@ -13071,51 +13170,51 @@
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:60">
-      <c r="A34" s="171" t="s">
+    <row r="34" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A34" s="164" t="s">
         <v>13</v>
       </c>
-      <c r="B34" s="170">
+      <c r="B34" s="165">
         <f>SUM(AO9:AQ9,AO24:AQ25,AO41:AQ42,AO58:AQ59)</f>
         <v>6</v>
       </c>
-      <c r="C34" s="170"/>
-      <c r="D34" s="170"/>
-      <c r="E34" s="170">
+      <c r="C34" s="165"/>
+      <c r="D34" s="165"/>
+      <c r="E34" s="165">
         <f>SUM(AR9:AT9,AR24:AT25,AR41:AT42,AR58:AT59)</f>
         <v>2</v>
       </c>
-      <c r="F34" s="170"/>
-      <c r="G34" s="170"/>
-      <c r="H34" s="170">
+      <c r="F34" s="165"/>
+      <c r="G34" s="165"/>
+      <c r="H34" s="165">
         <f>SUM(AU9:AW9,AU24:AW25,AU41:AW42,AU58:AW59)</f>
         <v>0</v>
       </c>
-      <c r="I34" s="170"/>
-      <c r="J34" s="170"/>
-      <c r="K34" s="172">
+      <c r="I34" s="165"/>
+      <c r="J34" s="165"/>
+      <c r="K34" s="166">
         <f>SUM(AX9:AZ9,AX24:AZ25,AX41:AZ42,AX58:AZ59)</f>
         <v>27</v>
       </c>
-      <c r="L34" s="172"/>
-      <c r="M34" s="172"/>
-      <c r="N34" s="172">
+      <c r="L34" s="166"/>
+      <c r="M34" s="166"/>
+      <c r="N34" s="166">
         <f>SUM(BA9:BC9,BA24:BC25,BA41:BC42,BA58:BC59)</f>
         <v>39</v>
       </c>
-      <c r="O34" s="172"/>
-      <c r="P34" s="172"/>
-      <c r="Q34" s="172">
+      <c r="O34" s="166"/>
+      <c r="P34" s="166"/>
+      <c r="Q34" s="166">
         <f>SUM(BD9:BF9,BD24:BF25,BD41:BF42,BD58:BF59)</f>
         <v>25</v>
       </c>
-      <c r="R34" s="172"/>
-      <c r="S34" s="172"/>
-      <c r="T34" s="170">
+      <c r="R34" s="166"/>
+      <c r="S34" s="166"/>
+      <c r="T34" s="165">
         <f t="shared" ref="T34" si="55">SUM(B34:S35)</f>
         <v>99</v>
       </c>
-      <c r="U34" s="182"/>
+      <c r="U34" s="161"/>
       <c r="AB34" s="31">
         <f>'3_PDC'!T11</f>
         <v>0</v>
@@ -13144,7 +13243,7 @@
         <f>'3_PDC'!Z11</f>
         <v>PDC 4.3</v>
       </c>
-      <c r="AI34" s="161"/>
+      <c r="AI34" s="169"/>
       <c r="AO34">
         <f t="shared" si="52"/>
         <v>0</v>
@@ -13222,28 +13321,28 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:60">
-      <c r="A35" s="171"/>
-      <c r="B35" s="170"/>
-      <c r="C35" s="170"/>
-      <c r="D35" s="170"/>
-      <c r="E35" s="170"/>
-      <c r="F35" s="170"/>
-      <c r="G35" s="170"/>
-      <c r="H35" s="170"/>
-      <c r="I35" s="170"/>
-      <c r="J35" s="170"/>
-      <c r="K35" s="172"/>
-      <c r="L35" s="172"/>
-      <c r="M35" s="172"/>
-      <c r="N35" s="172"/>
-      <c r="O35" s="172"/>
-      <c r="P35" s="172"/>
-      <c r="Q35" s="172"/>
-      <c r="R35" s="172"/>
-      <c r="S35" s="172"/>
-      <c r="T35" s="170"/>
-      <c r="U35" s="182"/>
+    <row r="35" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A35" s="164"/>
+      <c r="B35" s="165"/>
+      <c r="C35" s="165"/>
+      <c r="D35" s="165"/>
+      <c r="E35" s="165"/>
+      <c r="F35" s="165"/>
+      <c r="G35" s="165"/>
+      <c r="H35" s="165"/>
+      <c r="I35" s="165"/>
+      <c r="J35" s="165"/>
+      <c r="K35" s="166"/>
+      <c r="L35" s="166"/>
+      <c r="M35" s="166"/>
+      <c r="N35" s="166"/>
+      <c r="O35" s="166"/>
+      <c r="P35" s="166"/>
+      <c r="Q35" s="166"/>
+      <c r="R35" s="166"/>
+      <c r="S35" s="166"/>
+      <c r="T35" s="165"/>
+      <c r="U35" s="161"/>
       <c r="AB35" s="47" t="str">
         <f>'3_PDC'!T12</f>
         <v>Cornaglia Alessando</v>
@@ -13272,7 +13371,7 @@
         <f>'3_PDC'!Z12</f>
         <v>PDC 4.4 e 5</v>
       </c>
-      <c r="AI35" s="161">
+      <c r="AI35" s="169">
         <f>'3_PDC'!AA12</f>
         <v>52</v>
       </c>
@@ -13360,51 +13459,51 @@
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="1:60">
-      <c r="A36" s="171" t="s">
+    <row r="36" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A36" s="164" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="170">
+      <c r="B36" s="165">
         <f>SUM(AO10:AQ10,AO26:AQ27,AO43:AQ44,AO60:AQ61)</f>
         <v>2</v>
       </c>
-      <c r="C36" s="170"/>
-      <c r="D36" s="170"/>
-      <c r="E36" s="170">
+      <c r="C36" s="165"/>
+      <c r="D36" s="165"/>
+      <c r="E36" s="165">
         <f>SUM(AR10:AT10,AR26:AT27,AR43:AT44,AR60:AT61)</f>
         <v>8</v>
       </c>
-      <c r="F36" s="170"/>
-      <c r="G36" s="170"/>
-      <c r="H36" s="170">
+      <c r="F36" s="165"/>
+      <c r="G36" s="165"/>
+      <c r="H36" s="165">
         <f>SUM(AU10:AW10,AU26:AW27,AU43:AW44,AU60:AW61)</f>
         <v>12</v>
       </c>
-      <c r="I36" s="170"/>
-      <c r="J36" s="170"/>
-      <c r="K36" s="172">
+      <c r="I36" s="165"/>
+      <c r="J36" s="165"/>
+      <c r="K36" s="166">
         <f>SUM(AX10:AZ10,AX26:AZ27,AX43:AZ44,AX60:AZ61)</f>
         <v>51</v>
       </c>
-      <c r="L36" s="172"/>
-      <c r="M36" s="172"/>
-      <c r="N36" s="170">
+      <c r="L36" s="166"/>
+      <c r="M36" s="166"/>
+      <c r="N36" s="165">
         <f>SUM(BA10:BC10,BA26:BC27,BA43:BC44,BA60:BC61)</f>
         <v>6</v>
       </c>
-      <c r="O36" s="170"/>
-      <c r="P36" s="170"/>
-      <c r="Q36" s="170">
+      <c r="O36" s="165"/>
+      <c r="P36" s="165"/>
+      <c r="Q36" s="165">
         <f>SUM(BD10:BF10,BD26:BF27,BD43:BF44,BD60:BF61)</f>
         <v>18</v>
       </c>
-      <c r="R36" s="170"/>
-      <c r="S36" s="170"/>
-      <c r="T36" s="170">
+      <c r="R36" s="165"/>
+      <c r="S36" s="165"/>
+      <c r="T36" s="165">
         <f t="shared" ref="T36" si="56">SUM(B36:S37)</f>
         <v>97</v>
       </c>
-      <c r="U36" s="182"/>
+      <c r="U36" s="161"/>
       <c r="AB36" s="35">
         <f>'3_PDC'!T13</f>
         <v>0</v>
@@ -13433,7 +13532,7 @@
         <f>'3_PDC'!Z13</f>
         <v>PDC 7</v>
       </c>
-      <c r="AI36" s="161"/>
+      <c r="AI36" s="169"/>
       <c r="AK36">
         <f>SUM(BD31:BF44)</f>
         <v>100</v>
@@ -13515,28 +13614,28 @@
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="1:60">
-      <c r="A37" s="171"/>
-      <c r="B37" s="170"/>
-      <c r="C37" s="170"/>
-      <c r="D37" s="170"/>
-      <c r="E37" s="170"/>
-      <c r="F37" s="170"/>
-      <c r="G37" s="170"/>
-      <c r="H37" s="170"/>
-      <c r="I37" s="170"/>
-      <c r="J37" s="170"/>
-      <c r="K37" s="172"/>
-      <c r="L37" s="172"/>
-      <c r="M37" s="172"/>
-      <c r="N37" s="170"/>
-      <c r="O37" s="170"/>
-      <c r="P37" s="170"/>
-      <c r="Q37" s="170"/>
-      <c r="R37" s="170"/>
-      <c r="S37" s="170"/>
-      <c r="T37" s="170"/>
-      <c r="U37" s="182"/>
+    <row r="37" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A37" s="164"/>
+      <c r="B37" s="165"/>
+      <c r="C37" s="165"/>
+      <c r="D37" s="165"/>
+      <c r="E37" s="165"/>
+      <c r="F37" s="165"/>
+      <c r="G37" s="165"/>
+      <c r="H37" s="165"/>
+      <c r="I37" s="165"/>
+      <c r="J37" s="165"/>
+      <c r="K37" s="166"/>
+      <c r="L37" s="166"/>
+      <c r="M37" s="166"/>
+      <c r="N37" s="165"/>
+      <c r="O37" s="165"/>
+      <c r="P37" s="165"/>
+      <c r="Q37" s="165"/>
+      <c r="R37" s="165"/>
+      <c r="S37" s="165"/>
+      <c r="T37" s="165"/>
+      <c r="U37" s="161"/>
       <c r="AB37" s="31" t="str">
         <f>'3_PDC'!T14</f>
         <v>Dalla Pietà Massimo</v>
@@ -13565,7 +13664,7 @@
         <f>'3_PDC'!Z14</f>
         <v>PDC 4.3</v>
       </c>
-      <c r="AI37" s="161">
+      <c r="AI37" s="169">
         <f>'3_PDC'!AA14</f>
         <v>57</v>
       </c>
@@ -13646,51 +13745,51 @@
         <v>29</v>
       </c>
     </row>
-    <row r="38" spans="1:60">
-      <c r="A38" s="179" t="s">
+    <row r="38" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A38" s="167" t="s">
         <v>14</v>
       </c>
-      <c r="B38" s="170">
+      <c r="B38" s="165">
         <f>SUM(B24:D37)</f>
         <v>59</v>
       </c>
-      <c r="C38" s="170"/>
-      <c r="D38" s="170"/>
-      <c r="E38" s="170">
+      <c r="C38" s="165"/>
+      <c r="D38" s="165"/>
+      <c r="E38" s="165">
         <f t="shared" ref="E38" si="57">SUM(E24:G37)</f>
         <v>49</v>
       </c>
-      <c r="F38" s="170"/>
-      <c r="G38" s="170"/>
-      <c r="H38" s="170">
+      <c r="F38" s="165"/>
+      <c r="G38" s="165"/>
+      <c r="H38" s="165">
         <f>SUM(H24:J37)</f>
         <v>30</v>
       </c>
-      <c r="I38" s="170"/>
-      <c r="J38" s="170"/>
-      <c r="K38" s="170">
+      <c r="I38" s="165"/>
+      <c r="J38" s="165"/>
+      <c r="K38" s="165">
         <f t="shared" ref="K38" si="58">SUM(K24:M37)</f>
         <v>199</v>
       </c>
-      <c r="L38" s="170"/>
-      <c r="M38" s="170"/>
-      <c r="N38" s="170">
+      <c r="L38" s="165"/>
+      <c r="M38" s="165"/>
+      <c r="N38" s="165">
         <f t="shared" ref="N38" si="59">SUM(N24:P37)</f>
         <v>233</v>
       </c>
-      <c r="O38" s="170"/>
-      <c r="P38" s="170"/>
-      <c r="Q38" s="170">
+      <c r="O38" s="165"/>
+      <c r="P38" s="165"/>
+      <c r="Q38" s="165">
         <f>SUM(Q24:S37)</f>
         <v>120</v>
       </c>
-      <c r="R38" s="170"/>
-      <c r="S38" s="170"/>
+      <c r="R38" s="165"/>
+      <c r="S38" s="165"/>
       <c r="T38" s="183">
         <f>SUM(B38:S39)</f>
         <v>690</v>
       </c>
-      <c r="U38" s="182"/>
+      <c r="U38" s="161"/>
       <c r="AB38" s="31">
         <f>'3_PDC'!T15</f>
         <v>0</v>
@@ -13719,7 +13818,7 @@
         <f>'3_PDC'!Z15</f>
         <v>PDC 7</v>
       </c>
-      <c r="AI38" s="161"/>
+      <c r="AI38" s="169"/>
       <c r="AO38">
         <f t="shared" si="52"/>
         <v>0</v>
@@ -13797,28 +13896,28 @@
         <v>28</v>
       </c>
     </row>
-    <row r="39" spans="1:60">
-      <c r="A39" s="179"/>
-      <c r="B39" s="170"/>
-      <c r="C39" s="170"/>
-      <c r="D39" s="170"/>
-      <c r="E39" s="170"/>
-      <c r="F39" s="170"/>
-      <c r="G39" s="170"/>
-      <c r="H39" s="170"/>
-      <c r="I39" s="170"/>
-      <c r="J39" s="170"/>
-      <c r="K39" s="170"/>
-      <c r="L39" s="170"/>
-      <c r="M39" s="170"/>
-      <c r="N39" s="170"/>
-      <c r="O39" s="170"/>
-      <c r="P39" s="170"/>
-      <c r="Q39" s="170"/>
-      <c r="R39" s="170"/>
-      <c r="S39" s="170"/>
+    <row r="39" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A39" s="167"/>
+      <c r="B39" s="165"/>
+      <c r="C39" s="165"/>
+      <c r="D39" s="165"/>
+      <c r="E39" s="165"/>
+      <c r="F39" s="165"/>
+      <c r="G39" s="165"/>
+      <c r="H39" s="165"/>
+      <c r="I39" s="165"/>
+      <c r="J39" s="165"/>
+      <c r="K39" s="165"/>
+      <c r="L39" s="165"/>
+      <c r="M39" s="165"/>
+      <c r="N39" s="165"/>
+      <c r="O39" s="165"/>
+      <c r="P39" s="165"/>
+      <c r="Q39" s="165"/>
+      <c r="R39" s="165"/>
+      <c r="S39" s="165"/>
       <c r="T39" s="183"/>
-      <c r="U39" s="182"/>
+      <c r="U39" s="161"/>
       <c r="AB39" s="47" t="str">
         <f>'3_PDC'!T16</f>
         <v>Braghetto Lorenzo</v>
@@ -13847,7 +13946,7 @@
         <f>'3_PDC'!Z16</f>
         <v>PDC 4.4</v>
       </c>
-      <c r="AI39" s="161">
+      <c r="AI39" s="169">
         <f>'3_PDC'!AA16</f>
         <v>54</v>
       </c>
@@ -13928,7 +14027,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="1:60">
+    <row r="40" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A40" s="147"/>
       <c r="AB40" s="35">
         <f>'3_PDC'!T17</f>
@@ -13958,7 +14057,7 @@
         <f>'3_PDC'!Z17</f>
         <v>PDC 7</v>
       </c>
-      <c r="AI40" s="161"/>
+      <c r="AI40" s="169"/>
       <c r="AO40">
         <f t="shared" si="52"/>
         <v>0</v>
@@ -14036,7 +14135,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="1:60">
+    <row r="41" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A41" s="147"/>
       <c r="AB41" s="31" t="str">
         <f>'3_PDC'!T18</f>
@@ -14066,7 +14165,7 @@
         <f>'3_PDC'!Z18</f>
         <v>PDC 6</v>
       </c>
-      <c r="AI41" s="161">
+      <c r="AI41" s="169">
         <f>'3_PDC'!AA18</f>
         <v>54</v>
       </c>
@@ -14147,7 +14246,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="1:60">
+    <row r="42" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A42" s="147"/>
       <c r="AB42" s="31">
         <f>'3_PDC'!T19</f>
@@ -14177,7 +14276,7 @@
         <f>'3_PDC'!Z19</f>
         <v>PDC 3.2, 5 e 7</v>
       </c>
-      <c r="AI42" s="161"/>
+      <c r="AI42" s="169"/>
       <c r="AO42">
         <f t="shared" si="52"/>
         <v>0</v>
@@ -14255,7 +14354,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="1:60">
+    <row r="43" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A43" s="147"/>
       <c r="AB43" s="47" t="str">
         <f>'3_PDC'!T20</f>
@@ -14285,7 +14384,7 @@
         <f>'3_PDC'!Z20</f>
         <v>PDC 4.3</v>
       </c>
-      <c r="AI43" s="161">
+      <c r="AI43" s="169">
         <f>'3_PDC'!AA20</f>
         <v>52</v>
       </c>
@@ -14366,7 +14465,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="44" spans="1:60" ht="15.75" thickBot="1">
+    <row r="44" spans="1:60" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="147"/>
       <c r="AB44" s="63">
         <f>'3_PDC'!T21</f>
@@ -14396,7 +14495,7 @@
         <f>'3_PDC'!Z21</f>
         <v>PDC 7</v>
       </c>
-      <c r="AI44" s="162"/>
+      <c r="AI44" s="182"/>
       <c r="AO44">
         <f t="shared" si="52"/>
         <v>0</v>
@@ -14474,14 +14573,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:60" ht="15.75" thickBot="1">
+    <row r="45" spans="1:60" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="147"/>
       <c r="BG45" s="158">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:60">
+    <row r="46" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A46" s="147"/>
       <c r="AA46" t="s">
         <v>125</v>
@@ -14489,19 +14588,19 @@
       <c r="AB46" s="149" t="s">
         <v>128</v>
       </c>
-      <c r="AC46" s="163" t="str">
+      <c r="AC46" s="177" t="str">
         <f>'4_VV'!U3</f>
         <v>I Periodo</v>
       </c>
-      <c r="AD46" s="164"/>
-      <c r="AE46" s="165"/>
-      <c r="AF46" s="163" t="str">
+      <c r="AD46" s="178"/>
+      <c r="AE46" s="179"/>
+      <c r="AF46" s="177" t="str">
         <f>'4_VV'!X3</f>
         <v>II Periodo</v>
       </c>
-      <c r="AG46" s="164"/>
-      <c r="AH46" s="166"/>
-      <c r="AI46" s="167" t="str">
+      <c r="AG46" s="178"/>
+      <c r="AH46" s="180"/>
+      <c r="AI46" s="173" t="str">
         <f>'4_VV'!AA3</f>
         <v>Totale</v>
       </c>
@@ -14514,7 +14613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:60" ht="15.75" thickBot="1">
+    <row r="47" spans="1:60" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="147"/>
       <c r="AB47" s="150"/>
       <c r="AC47" s="26" t="str">
@@ -14541,13 +14640,13 @@
         <f>'4_VV'!Z4</f>
         <v>Fase</v>
       </c>
-      <c r="AI47" s="168"/>
+      <c r="AI47" s="174"/>
       <c r="BG47" s="158">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:60">
+    <row r="48" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A48" s="147"/>
       <c r="AB48" s="31" t="str">
         <f>'4_VV'!T5</f>
@@ -14577,7 +14676,7 @@
         <f>'4_VV'!Z5</f>
         <v>VV 3.2</v>
       </c>
-      <c r="AI48" s="169">
+      <c r="AI48" s="181">
         <f>'4_VV'!AA5</f>
         <v>18</v>
       </c>
@@ -14662,7 +14761,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="49" spans="20:59">
+    <row r="49" spans="20:59" x14ac:dyDescent="0.25">
       <c r="AB49" s="35">
         <f>'4_VV'!T6</f>
         <v>0</v>
@@ -14691,7 +14790,7 @@
         <f>'4_VV'!Z6</f>
         <v>0</v>
       </c>
-      <c r="AI49" s="161"/>
+      <c r="AI49" s="169"/>
       <c r="AO49">
         <f>IF($AC49=AO$2,$AD49,0)</f>
         <v>0</v>
@@ -14769,7 +14868,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="20:59" ht="15.75" thickBot="1">
+    <row r="50" spans="20:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AB50" s="31" t="str">
         <f>'4_VV'!T7</f>
         <v>Facchin Gabriele</v>
@@ -14798,7 +14897,7 @@
         <f>'4_VV'!Z7</f>
         <v>VV 3.2</v>
       </c>
-      <c r="AI50" s="161">
+      <c r="AI50" s="169">
         <f>'4_VV'!AA7</f>
         <v>18</v>
       </c>
@@ -14886,7 +14985,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="51" spans="20:59" ht="15.75" thickBot="1">
+    <row r="51" spans="20:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="T51" s="1" t="s">
         <v>26</v>
       </c>
@@ -14927,7 +15026,7 @@
         <f>'4_VV'!Z8</f>
         <v>VV 3.2</v>
       </c>
-      <c r="AI51" s="161"/>
+      <c r="AI51" s="169"/>
       <c r="AO51">
         <f t="shared" si="75"/>
         <v>0</v>
@@ -15005,7 +15104,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="20:59">
+    <row r="52" spans="20:59" x14ac:dyDescent="0.25">
       <c r="T52" s="12" t="s">
         <v>1</v>
       </c>
@@ -15048,7 +15147,7 @@
         <f>'4_VV'!Z9</f>
         <v>VV 3.1</v>
       </c>
-      <c r="AI52" s="161">
+      <c r="AI52" s="169">
         <f>'4_VV'!AA9</f>
         <v>18</v>
       </c>
@@ -15129,7 +15228,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="53" spans="20:59">
+    <row r="53" spans="20:59" x14ac:dyDescent="0.25">
       <c r="T53" s="15" t="s">
         <v>2</v>
       </c>
@@ -15172,7 +15271,7 @@
         <f>'4_VV'!Z10</f>
         <v>0</v>
       </c>
-      <c r="AI53" s="161"/>
+      <c r="AI53" s="169"/>
       <c r="AO53">
         <f t="shared" si="75"/>
         <v>0</v>
@@ -15250,7 +15349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="20:59">
+    <row r="54" spans="20:59" x14ac:dyDescent="0.25">
       <c r="T54" s="15" t="s">
         <v>3</v>
       </c>
@@ -15293,7 +15392,7 @@
         <f>'4_VV'!Z11</f>
         <v>VV 3.1</v>
       </c>
-      <c r="AI54" s="161">
+      <c r="AI54" s="169">
         <f>'4_VV'!AA11</f>
         <v>18</v>
       </c>
@@ -15374,7 +15473,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="55" spans="20:59">
+    <row r="55" spans="20:59" x14ac:dyDescent="0.25">
       <c r="T55" s="15" t="s">
         <v>4</v>
       </c>
@@ -15417,7 +15516,7 @@
         <f>'4_VV'!Z12</f>
         <v>0</v>
       </c>
-      <c r="AI55" s="161"/>
+      <c r="AI55" s="169"/>
       <c r="AO55">
         <f t="shared" si="75"/>
         <v>0</v>
@@ -15495,7 +15594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="20:59">
+    <row r="56" spans="20:59" x14ac:dyDescent="0.25">
       <c r="T56" s="15" t="s">
         <v>5</v>
       </c>
@@ -15538,7 +15637,7 @@
         <f>'4_VV'!Z13</f>
         <v>VV 3.1</v>
       </c>
-      <c r="AI56" s="161">
+      <c r="AI56" s="169">
         <f>'4_VV'!AA13</f>
         <v>18</v>
       </c>
@@ -15619,7 +15718,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="57" spans="20:59" ht="15.75" thickBot="1">
+    <row r="57" spans="20:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="T57" s="22" t="s">
         <v>6</v>
       </c>
@@ -15662,7 +15761,7 @@
         <f>'4_VV'!Z14</f>
         <v>0</v>
       </c>
-      <c r="AI57" s="161"/>
+      <c r="AI57" s="169"/>
       <c r="AO57">
         <f t="shared" si="75"/>
         <v>0</v>
@@ -15740,7 +15839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="20:59" ht="15.75" thickBot="1">
+    <row r="58" spans="20:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="T58" s="1" t="s">
         <v>14</v>
       </c>
@@ -15780,7 +15879,7 @@
         <f>'4_VV'!Z15</f>
         <v>VV 3.1</v>
       </c>
-      <c r="AI58" s="161">
+      <c r="AI58" s="169">
         <f>'4_VV'!AA15</f>
         <v>18</v>
       </c>
@@ -15861,7 +15960,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="59" spans="20:59">
+    <row r="59" spans="20:59" x14ac:dyDescent="0.25">
       <c r="AB59" s="31">
         <f>'4_VV'!T16</f>
         <v>0</v>
@@ -15890,7 +15989,7 @@
         <f>'4_VV'!Z16</f>
         <v>0</v>
       </c>
-      <c r="AI59" s="161"/>
+      <c r="AI59" s="169"/>
       <c r="AO59">
         <f t="shared" si="75"/>
         <v>0</v>
@@ -15968,7 +16067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="20:59">
+    <row r="60" spans="20:59" x14ac:dyDescent="0.25">
       <c r="AB60" s="47" t="str">
         <f>'4_VV'!T17</f>
         <v>Maggiolo Giorgio</v>
@@ -15997,7 +16096,7 @@
         <f>'4_VV'!Z17</f>
         <v>VV 3.1</v>
       </c>
-      <c r="AI60" s="161">
+      <c r="AI60" s="169">
         <f>'4_VV'!AA17</f>
         <v>16</v>
       </c>
@@ -16078,7 +16177,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="61" spans="20:59" ht="15.75" thickBot="1">
+    <row r="61" spans="20:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AB61" s="63">
         <f>'4_VV'!T18</f>
         <v>0</v>
@@ -16107,7 +16206,7 @@
         <f>'4_VV'!Z18</f>
         <v>0</v>
       </c>
-      <c r="AI61" s="162"/>
+      <c r="AI61" s="182"/>
       <c r="AO61">
         <f t="shared" si="75"/>
         <v>0</v>
@@ -16187,24 +16286,76 @@
     </row>
   </sheetData>
   <mergeCells count="112">
-    <mergeCell ref="AI56:AI57"/>
-    <mergeCell ref="AI58:AI59"/>
-    <mergeCell ref="AI60:AI61"/>
-    <mergeCell ref="AC46:AE46"/>
-    <mergeCell ref="AF46:AH46"/>
-    <mergeCell ref="AI46:AI47"/>
-    <mergeCell ref="AI48:AI49"/>
-    <mergeCell ref="AI50:AI51"/>
-    <mergeCell ref="AI52:AI53"/>
-    <mergeCell ref="AI39:AI40"/>
-    <mergeCell ref="AI41:AI42"/>
-    <mergeCell ref="AI43:AI44"/>
-    <mergeCell ref="Q36:S37"/>
-    <mergeCell ref="T36:T37"/>
-    <mergeCell ref="U36:U37"/>
-    <mergeCell ref="AI37:AI38"/>
-    <mergeCell ref="AI35:AI36"/>
-    <mergeCell ref="AI54:AI55"/>
+    <mergeCell ref="AC2:AE2"/>
+    <mergeCell ref="AF2:AH2"/>
+    <mergeCell ref="AI2:AI3"/>
+    <mergeCell ref="AC12:AE12"/>
+    <mergeCell ref="AF12:AH12"/>
+    <mergeCell ref="AI12:AK12"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="K23:M23"/>
+    <mergeCell ref="N23:P23"/>
+    <mergeCell ref="Q23:S23"/>
+    <mergeCell ref="AL12:AL13"/>
+    <mergeCell ref="AL14:AL15"/>
+    <mergeCell ref="AL16:AL17"/>
+    <mergeCell ref="AL18:AL19"/>
+    <mergeCell ref="AL20:AL21"/>
+    <mergeCell ref="AL22:AL23"/>
+    <mergeCell ref="AL26:AL27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:D29"/>
+    <mergeCell ref="E28:G29"/>
+    <mergeCell ref="H28:J29"/>
+    <mergeCell ref="K28:M29"/>
+    <mergeCell ref="N28:P29"/>
+    <mergeCell ref="Q24:S25"/>
+    <mergeCell ref="T24:T25"/>
+    <mergeCell ref="U24:U25"/>
+    <mergeCell ref="AL24:AL25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:D27"/>
+    <mergeCell ref="E26:G27"/>
+    <mergeCell ref="H26:J27"/>
+    <mergeCell ref="K26:M27"/>
+    <mergeCell ref="N26:P27"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="AF29:AH29"/>
+    <mergeCell ref="AI29:AI30"/>
+    <mergeCell ref="Q30:S31"/>
+    <mergeCell ref="T30:T31"/>
+    <mergeCell ref="U30:U31"/>
+    <mergeCell ref="AI31:AI32"/>
+    <mergeCell ref="Q26:S27"/>
+    <mergeCell ref="T26:T27"/>
+    <mergeCell ref="U26:U27"/>
+    <mergeCell ref="Q32:S33"/>
+    <mergeCell ref="T32:T33"/>
+    <mergeCell ref="U32:U33"/>
+    <mergeCell ref="AI33:AI34"/>
+    <mergeCell ref="Q28:S29"/>
+    <mergeCell ref="T28:T29"/>
+    <mergeCell ref="U28:U29"/>
+    <mergeCell ref="B24:D25"/>
+    <mergeCell ref="E24:G25"/>
+    <mergeCell ref="H24:J25"/>
+    <mergeCell ref="K24:M25"/>
+    <mergeCell ref="N24:P25"/>
+    <mergeCell ref="AC29:AE29"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:D33"/>
+    <mergeCell ref="E32:G33"/>
+    <mergeCell ref="H32:J33"/>
+    <mergeCell ref="K32:M33"/>
+    <mergeCell ref="N32:P33"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:D31"/>
+    <mergeCell ref="E30:G31"/>
+    <mergeCell ref="H30:J31"/>
+    <mergeCell ref="K30:M31"/>
+    <mergeCell ref="N30:P31"/>
     <mergeCell ref="A38:A39"/>
     <mergeCell ref="B38:D39"/>
     <mergeCell ref="E38:G39"/>
@@ -16229,76 +16380,24 @@
     <mergeCell ref="H34:J35"/>
     <mergeCell ref="K34:M35"/>
     <mergeCell ref="N34:P35"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:D33"/>
-    <mergeCell ref="E32:G33"/>
-    <mergeCell ref="H32:J33"/>
-    <mergeCell ref="K32:M33"/>
-    <mergeCell ref="N32:P33"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:D31"/>
-    <mergeCell ref="E30:G31"/>
-    <mergeCell ref="H30:J31"/>
-    <mergeCell ref="K30:M31"/>
-    <mergeCell ref="N30:P31"/>
-    <mergeCell ref="Q28:S29"/>
-    <mergeCell ref="T28:T29"/>
-    <mergeCell ref="U28:U29"/>
-    <mergeCell ref="B24:D25"/>
-    <mergeCell ref="E24:G25"/>
-    <mergeCell ref="H24:J25"/>
-    <mergeCell ref="K24:M25"/>
-    <mergeCell ref="N24:P25"/>
-    <mergeCell ref="AC29:AE29"/>
-    <mergeCell ref="AF29:AH29"/>
-    <mergeCell ref="AI29:AI30"/>
-    <mergeCell ref="Q30:S31"/>
-    <mergeCell ref="T30:T31"/>
-    <mergeCell ref="U30:U31"/>
-    <mergeCell ref="AI31:AI32"/>
-    <mergeCell ref="Q26:S27"/>
-    <mergeCell ref="T26:T27"/>
-    <mergeCell ref="U26:U27"/>
-    <mergeCell ref="Q32:S33"/>
-    <mergeCell ref="T32:T33"/>
-    <mergeCell ref="U32:U33"/>
-    <mergeCell ref="AI33:AI34"/>
-    <mergeCell ref="AL12:AL13"/>
-    <mergeCell ref="AL14:AL15"/>
-    <mergeCell ref="AL16:AL17"/>
-    <mergeCell ref="AL18:AL19"/>
-    <mergeCell ref="AL20:AL21"/>
-    <mergeCell ref="AL22:AL23"/>
-    <mergeCell ref="AL26:AL27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:D29"/>
-    <mergeCell ref="E28:G29"/>
-    <mergeCell ref="H28:J29"/>
-    <mergeCell ref="K28:M29"/>
-    <mergeCell ref="N28:P29"/>
-    <mergeCell ref="Q24:S25"/>
-    <mergeCell ref="T24:T25"/>
-    <mergeCell ref="U24:U25"/>
-    <mergeCell ref="AL24:AL25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:D27"/>
-    <mergeCell ref="E26:G27"/>
-    <mergeCell ref="H26:J27"/>
-    <mergeCell ref="K26:M27"/>
-    <mergeCell ref="N26:P27"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="AC2:AE2"/>
-    <mergeCell ref="AF2:AH2"/>
-    <mergeCell ref="AI2:AI3"/>
-    <mergeCell ref="AC12:AE12"/>
-    <mergeCell ref="AF12:AH12"/>
-    <mergeCell ref="AI12:AK12"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="K23:M23"/>
-    <mergeCell ref="N23:P23"/>
-    <mergeCell ref="Q23:S23"/>
+    <mergeCell ref="AI39:AI40"/>
+    <mergeCell ref="AI41:AI42"/>
+    <mergeCell ref="AI43:AI44"/>
+    <mergeCell ref="Q36:S37"/>
+    <mergeCell ref="T36:T37"/>
+    <mergeCell ref="U36:U37"/>
+    <mergeCell ref="AI37:AI38"/>
+    <mergeCell ref="AI35:AI36"/>
+    <mergeCell ref="AI54:AI55"/>
+    <mergeCell ref="AI56:AI57"/>
+    <mergeCell ref="AI58:AI59"/>
+    <mergeCell ref="AI60:AI61"/>
+    <mergeCell ref="AC46:AE46"/>
+    <mergeCell ref="AF46:AH46"/>
+    <mergeCell ref="AI46:AI47"/>
+    <mergeCell ref="AI48:AI49"/>
+    <mergeCell ref="AI50:AI51"/>
+    <mergeCell ref="AI52:AI53"/>
   </mergeCells>
   <conditionalFormatting sqref="AB14:AL27">
     <cfRule type="cellIs" dxfId="18" priority="5" operator="equal">
@@ -16329,14 +16428,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V19"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.42578125" customWidth="1"/>
     <col min="2" max="2" width="32.140625" customWidth="1"/>
@@ -16354,7 +16453,7 @@
     <col min="21" max="21" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="15.75" thickBot="1">
+    <row r="1" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="99" t="s">
         <v>15</v>
       </c>
@@ -16389,7 +16488,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
         <v>75</v>
       </c>
@@ -16432,24 +16531,24 @@
       <c r="N2" s="155">
         <v>30</v>
       </c>
-      <c r="O2" s="167" t="s">
-        <v>0</v>
-      </c>
-      <c r="P2" s="173" t="s">
+      <c r="O2" s="173" t="s">
+        <v>0</v>
+      </c>
+      <c r="P2" s="170" t="s">
         <v>18</v>
       </c>
-      <c r="Q2" s="174"/>
-      <c r="R2" s="175"/>
-      <c r="S2" s="173" t="s">
+      <c r="Q2" s="171"/>
+      <c r="R2" s="172"/>
+      <c r="S2" s="170" t="s">
         <v>19</v>
       </c>
-      <c r="T2" s="174"/>
-      <c r="U2" s="175"/>
-      <c r="V2" s="167" t="s">
+      <c r="T2" s="171"/>
+      <c r="U2" s="172"/>
+      <c r="V2" s="173" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="15.75" thickBot="1">
+    <row r="3" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12"/>
       <c r="B3" s="39"/>
       <c r="C3" s="13" t="s">
@@ -16507,9 +16606,9 @@
       <c r="U3" s="106" t="s">
         <v>39</v>
       </c>
-      <c r="V3" s="168"/>
-    </row>
-    <row r="4" spans="1:22">
+      <c r="V3" s="174"/>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
         <v>77</v>
       </c>
@@ -16578,7 +16677,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="15.75" thickBot="1">
+    <row r="5" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="12"/>
       <c r="B5" s="39"/>
       <c r="C5" s="13" t="s">
@@ -16643,7 +16742,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="15.75" thickBot="1">
+    <row r="6" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>81</v>
       </c>
@@ -16709,7 +16808,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="B7" s="7"/>
       <c r="C7" s="8" t="s">
@@ -16760,7 +16859,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
         <v>83</v>
       </c>
@@ -16815,7 +16914,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="12"/>
       <c r="B9" s="39"/>
       <c r="C9" s="13" t="s">
@@ -16866,7 +16965,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="15.75" thickBot="1">
+    <row r="10" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>85</v>
       </c>
@@ -16921,7 +17020,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="7"/>
       <c r="C11" s="8" t="s">
@@ -16954,7 +17053,7 @@
       <c r="T11" s="58"/>
       <c r="U11" s="7"/>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
         <v>87</v>
       </c>
@@ -16991,7 +17090,7 @@
       <c r="T12" s="7"/>
       <c r="U12" s="7"/>
     </row>
-    <row r="13" spans="1:22">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>89</v>
       </c>
@@ -17028,7 +17127,7 @@
       <c r="T13" s="58"/>
       <c r="U13" s="7"/>
     </row>
-    <row r="14" spans="1:22">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="7"/>
       <c r="C14" s="8" t="s">
@@ -17061,7 +17160,7 @@
       <c r="T14" s="7"/>
       <c r="U14" s="7"/>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
         <v>91</v>
       </c>
@@ -17098,7 +17197,7 @@
       <c r="T15" s="58"/>
       <c r="U15" s="7"/>
     </row>
-    <row r="16" spans="1:22">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>93</v>
       </c>
@@ -17128,7 +17227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="15.75" thickBot="1">
+    <row r="17" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="129" t="s">
         <v>95</v>
       </c>
@@ -17165,14 +17264,14 @@
       <c r="T17" s="58"/>
       <c r="U17" s="7"/>
     </row>
-    <row r="18" spans="1:21" ht="15.75" thickBot="1">
+    <row r="18" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F18" s="155"/>
       <c r="G18" s="155"/>
       <c r="H18" s="155"/>
       <c r="I18" s="155"/>
       <c r="O18" s="30"/>
     </row>
-    <row r="19" spans="1:21" ht="15.75" thickBot="1">
+    <row r="19" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="72" t="s">
         <v>14</v>
       </c>
@@ -17212,14 +17311,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE26"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AC26" sqref="AC26"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.42578125" customWidth="1"/>
     <col min="2" max="2" width="32.140625" customWidth="1"/>
@@ -17242,7 +17341,7 @@
     <col min="30" max="30" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="15.75" thickBot="1">
+    <row r="1" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -17292,7 +17391,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:31">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>102</v>
       </c>
@@ -17349,7 +17448,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:31">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
         <v>104</v>
       </c>
@@ -17406,7 +17505,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:31">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" s="12"/>
       <c r="B4" s="39"/>
       <c r="C4" s="13" t="s">
@@ -17459,7 +17558,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:31">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>106</v>
       </c>
@@ -17516,7 +17615,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:31" ht="15.75" thickBot="1">
+    <row r="6" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6"/>
       <c r="B6" s="7"/>
       <c r="C6" s="8" t="s">
@@ -17559,17 +17658,17 @@
       </c>
       <c r="P6" s="23">
         <f>SUM(M2:M18)</f>
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="Q6" s="24">
         <f t="shared" si="6"/>
-        <v>2112</v>
+        <v>2420</v>
       </c>
       <c r="R6" s="155">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:31" ht="15.75" thickBot="1">
+    <row r="7" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
         <v>108</v>
       </c>
@@ -17583,12 +17682,12 @@
         <v>34</v>
       </c>
       <c r="E7" s="16">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="F7" s="18"/>
       <c r="G7" s="57">
         <f t="shared" si="0"/>
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="I7" s="155">
         <f t="shared" si="1"/>
@@ -17608,21 +17707,21 @@
       </c>
       <c r="M7" s="155">
         <f t="shared" si="5"/>
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="O7" s="118" t="s">
         <v>14</v>
       </c>
       <c r="P7" s="3">
         <f>SUM(P2:P6)</f>
-        <v>193</v>
+        <v>207</v>
       </c>
       <c r="Q7" s="25">
         <f>SUM(Q2:Q6)</f>
-        <v>4217</v>
-      </c>
-    </row>
-    <row r="8" spans="1:31" ht="15.75" thickBot="1">
+        <v>4525</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>110</v>
       </c>
@@ -17664,7 +17763,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:31">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
         <v>112</v>
       </c>
@@ -17703,33 +17802,33 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O9" s="163"/>
-      <c r="P9" s="164"/>
-      <c r="Q9" s="164"/>
-      <c r="R9" s="165"/>
-      <c r="U9" s="167" t="s">
-        <v>0</v>
-      </c>
-      <c r="V9" s="163" t="s">
+      <c r="O9" s="177"/>
+      <c r="P9" s="178"/>
+      <c r="Q9" s="178"/>
+      <c r="R9" s="179"/>
+      <c r="U9" s="173" t="s">
+        <v>0</v>
+      </c>
+      <c r="V9" s="177" t="s">
         <v>18</v>
       </c>
-      <c r="W9" s="164"/>
-      <c r="X9" s="165"/>
-      <c r="Y9" s="163" t="s">
+      <c r="W9" s="178"/>
+      <c r="X9" s="179"/>
+      <c r="Y9" s="177" t="s">
         <v>19</v>
       </c>
-      <c r="Z9" s="164"/>
-      <c r="AA9" s="165"/>
-      <c r="AB9" s="163" t="s">
+      <c r="Z9" s="178"/>
+      <c r="AA9" s="179"/>
+      <c r="AB9" s="177" t="s">
         <v>114</v>
       </c>
-      <c r="AC9" s="164"/>
-      <c r="AD9" s="166"/>
-      <c r="AE9" s="167" t="s">
+      <c r="AC9" s="178"/>
+      <c r="AD9" s="180"/>
+      <c r="AE9" s="173" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:31" ht="15.75" thickBot="1">
+    <row r="10" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12"/>
       <c r="B10" s="39"/>
       <c r="C10" s="13" t="s">
@@ -17768,7 +17867,7 @@
       <c r="P10" s="93"/>
       <c r="Q10" s="93"/>
       <c r="R10" s="94"/>
-      <c r="U10" s="168"/>
+      <c r="U10" s="174"/>
       <c r="V10" s="26" t="s">
         <v>26</v>
       </c>
@@ -17796,9 +17895,9 @@
       <c r="AD10" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="AE10" s="168"/>
-    </row>
-    <row r="11" spans="1:31">
+      <c r="AE10" s="174"/>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>115</v>
       </c>
@@ -17871,12 +17970,12 @@
       <c r="AD11" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="AE11" s="169">
+      <c r="AE11" s="181">
         <f>SUM(Z11:Z12,AC11:AC12,W11:W12)</f>
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:31">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
         <v>117</v>
       </c>
@@ -17929,9 +18028,9 @@
       <c r="AB12" s="36"/>
       <c r="AC12" s="37"/>
       <c r="AD12" s="139"/>
-      <c r="AE12" s="161"/>
-    </row>
-    <row r="13" spans="1:31">
+      <c r="AE12" s="169"/>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" s="12"/>
       <c r="B13" s="39"/>
       <c r="C13" s="13" t="s">
@@ -18000,12 +18099,12 @@
       <c r="AD13" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="AE13" s="161">
+      <c r="AE13" s="169">
         <f t="shared" ref="AE13" si="7">SUM(Z13:Z14,AC13:AC14,W13:W14)</f>
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:31">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>120</v>
       </c>
@@ -18064,9 +18163,9 @@
       <c r="AB14" s="32"/>
       <c r="AC14" s="33"/>
       <c r="AD14" s="7"/>
-      <c r="AE14" s="161"/>
-    </row>
-    <row r="15" spans="1:31">
+      <c r="AE14" s="169"/>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>131</v>
       </c>
@@ -18079,11 +18178,11 @@
       <c r="D15" s="7"/>
       <c r="E15" s="8"/>
       <c r="F15" s="7">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G15" s="134">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I15" s="155">
         <f t="shared" si="1"/>
@@ -18091,7 +18190,7 @@
       </c>
       <c r="J15" s="155">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="K15" s="155">
         <f t="shared" si="3"/>
@@ -18139,12 +18238,12 @@
       <c r="AD15" s="79" t="s">
         <v>112</v>
       </c>
-      <c r="AE15" s="161">
+      <c r="AE15" s="169">
         <f t="shared" ref="AE15" si="8">SUM(Z15:Z16,AC15:AC16,W15:W16)</f>
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:31">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" s="80" t="s">
         <v>132</v>
       </c>
@@ -18157,11 +18256,11 @@
       <c r="D16" s="23"/>
       <c r="E16" s="23"/>
       <c r="F16" s="16">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G16" s="57">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I16" s="155">
         <f t="shared" si="1"/>
@@ -18169,7 +18268,7 @@
       </c>
       <c r="J16" s="155">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K16" s="155">
         <f t="shared" si="3"/>
@@ -18209,9 +18308,9 @@
       <c r="AD16" s="39" t="s">
         <v>132</v>
       </c>
-      <c r="AE16" s="161"/>
-    </row>
-    <row r="17" spans="1:31" ht="15.75" thickBot="1">
+      <c r="AE16" s="169"/>
+    </row>
+    <row r="17" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="22" t="s">
         <v>135</v>
       </c>
@@ -18284,12 +18383,12 @@
       <c r="AD17" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="AE17" s="161">
+      <c r="AE17" s="169">
         <f t="shared" ref="AE17" si="9">SUM(Z17:Z18,AC17:AC18,W17:W18)</f>
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:31" ht="15.75" thickBot="1">
+    <row r="18" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="88"/>
       <c r="B18" s="69"/>
       <c r="C18" s="70" t="s">
@@ -18350,9 +18449,9 @@
       <c r="AD18" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="AE18" s="161"/>
-    </row>
-    <row r="19" spans="1:31" ht="15.75" thickBot="1">
+      <c r="AE18" s="169"/>
+    </row>
+    <row r="19" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="U19" s="47" t="s">
         <v>8</v>
       </c>
@@ -18383,12 +18482,12 @@
       <c r="AD19" s="40" t="s">
         <v>120</v>
       </c>
-      <c r="AE19" s="161">
+      <c r="AE19" s="169">
         <f t="shared" ref="AE19" si="10">SUM(Z19:Z20,AC19:AC20,W19:W20)</f>
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:31" ht="15.75" thickBot="1">
+    <row r="20" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="141" t="s">
         <v>14</v>
       </c>
@@ -18400,7 +18499,7 @@
       </c>
       <c r="E20" s="133">
         <f>SUM(E2:E18)</f>
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="F20" s="133">
         <f>SUM(F2:F18)</f>
@@ -18408,7 +18507,7 @@
       </c>
       <c r="G20" s="133">
         <f>SUM(G2:G18)</f>
-        <v>193</v>
+        <v>207</v>
       </c>
       <c r="U20" s="35"/>
       <c r="V20" s="36" t="s">
@@ -18426,9 +18525,9 @@
       <c r="AB20" s="36"/>
       <c r="AC20" s="37"/>
       <c r="AD20" s="39"/>
-      <c r="AE20" s="161"/>
-    </row>
-    <row r="21" spans="1:31">
+      <c r="AE20" s="169"/>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="U21" s="31" t="s">
         <v>13</v>
       </c>
@@ -18459,12 +18558,12 @@
       <c r="AD21" s="85" t="s">
         <v>136</v>
       </c>
-      <c r="AE21" s="161">
+      <c r="AE21" s="169">
         <f t="shared" ref="AE21" si="11">SUM(Z21:Z22,AC21:AC22,W21:W22)</f>
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:31">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
       <c r="U22" s="31"/>
       <c r="V22" s="32"/>
       <c r="W22" s="33"/>
@@ -18475,9 +18574,9 @@
       <c r="AB22" s="32"/>
       <c r="AC22" s="33"/>
       <c r="AD22" s="7"/>
-      <c r="AE22" s="161"/>
-    </row>
-    <row r="23" spans="1:31">
+      <c r="AE22" s="169"/>
+    </row>
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
       <c r="O23" s="30"/>
       <c r="U23" s="47" t="s">
         <v>12</v>
@@ -18509,12 +18608,12 @@
       <c r="AD23" s="40" t="s">
         <v>112</v>
       </c>
-      <c r="AE23" s="161">
+      <c r="AE23" s="169">
         <f t="shared" ref="AE23" si="12">SUM(Z23:Z24,AC23:AC24,W23:W24)</f>
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:31" ht="15.75" thickBot="1">
+    <row r="24" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="U24" s="63"/>
       <c r="V24" s="64"/>
       <c r="W24" s="65"/>
@@ -18537,9 +18636,9 @@
       <c r="AD24" s="67" t="s">
         <v>120</v>
       </c>
-      <c r="AE24" s="162"/>
-    </row>
-    <row r="26" spans="1:31">
+      <c r="AE24" s="182"/>
+    </row>
+    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
       <c r="W26">
         <f>SUM(W11:W23)</f>
         <v>84</v>
@@ -18556,12 +18655,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="AB9:AD9"/>
-    <mergeCell ref="O9:O10"/>
-    <mergeCell ref="P9:R9"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="V9:X9"/>
-    <mergeCell ref="Y9:AA9"/>
     <mergeCell ref="AE21:AE22"/>
     <mergeCell ref="AE23:AE24"/>
     <mergeCell ref="AE9:AE10"/>
@@ -18570,6 +18663,12 @@
     <mergeCell ref="AE15:AE16"/>
     <mergeCell ref="AE17:AE18"/>
     <mergeCell ref="AE19:AE20"/>
+    <mergeCell ref="AB9:AD9"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="P9:R9"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="V9:X9"/>
+    <mergeCell ref="Y9:AA9"/>
   </mergeCells>
   <conditionalFormatting sqref="Z26">
     <cfRule type="cellIs" dxfId="13" priority="13" operator="notEqual">
@@ -18601,14 +18700,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD32"/>
   <sheetViews>
     <sheetView topLeftCell="J1" workbookViewId="0">
       <selection activeCell="Y21" activeCellId="1" sqref="Y15 Y21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.42578125" customWidth="1"/>
     <col min="2" max="2" width="35.7109375" customWidth="1"/>
@@ -18632,7 +18731,7 @@
     <col min="26" max="26" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="15.75" thickBot="1">
+    <row r="1" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -18679,7 +18778,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:27">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>30</v>
       </c>
@@ -18732,7 +18831,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:27">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="7"/>
       <c r="C3" s="8" t="s">
@@ -18781,7 +18880,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:27">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>32</v>
       </c>
@@ -18834,7 +18933,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:27" ht="15.75" thickBot="1">
+    <row r="5" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>34</v>
       </c>
@@ -18887,7 +18986,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="15.75" thickBot="1">
+    <row r="6" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6"/>
       <c r="B6" s="7"/>
       <c r="C6" s="8" t="s">
@@ -18935,24 +19034,24 @@
       <c r="R6" s="155">
         <v>15</v>
       </c>
-      <c r="T6" s="167" t="s">
-        <v>0</v>
-      </c>
-      <c r="U6" s="163" t="s">
+      <c r="T6" s="173" t="s">
+        <v>0</v>
+      </c>
+      <c r="U6" s="177" t="s">
         <v>18</v>
       </c>
-      <c r="V6" s="164"/>
-      <c r="W6" s="165"/>
-      <c r="X6" s="163" t="s">
+      <c r="V6" s="178"/>
+      <c r="W6" s="179"/>
+      <c r="X6" s="177" t="s">
         <v>19</v>
       </c>
-      <c r="Y6" s="164"/>
-      <c r="Z6" s="166"/>
-      <c r="AA6" s="167" t="s">
+      <c r="Y6" s="178"/>
+      <c r="Z6" s="180"/>
+      <c r="AA6" s="173" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:27" ht="15.75" thickBot="1">
+    <row r="7" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
         <v>36</v>
       </c>
@@ -19001,7 +19100,7 @@
         <f>SUM(Q2:Q6)</f>
         <v>6982</v>
       </c>
-      <c r="T7" s="168"/>
+      <c r="T7" s="174"/>
       <c r="U7" s="26" t="s">
         <v>26</v>
       </c>
@@ -19020,9 +19119,9 @@
       <c r="Z7" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="AA7" s="168"/>
-    </row>
-    <row r="8" spans="1:27">
+      <c r="AA7" s="174"/>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>40</v>
       </c>
@@ -19082,12 +19181,12 @@
       <c r="Z8" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="AA8" s="169">
+      <c r="AA8" s="181">
         <f>SUM(V8:V9,Y8:Y9)</f>
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:27">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="7"/>
       <c r="C9" s="8" t="s">
@@ -19134,9 +19233,9 @@
       <c r="Z9" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="AA9" s="161"/>
-    </row>
-    <row r="10" spans="1:27">
+      <c r="AA9" s="169"/>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
         <v>44</v>
       </c>
@@ -19195,12 +19294,12 @@
       <c r="Z10" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="AA10" s="161">
+      <c r="AA10" s="169">
         <f t="shared" ref="AA10" si="7">SUM(V10:V11,Y10:Y11)</f>
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:27" ht="15.75" thickBot="1">
+    <row r="11" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="22" t="s">
         <v>46</v>
       </c>
@@ -19257,9 +19356,9 @@
       <c r="Z11" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="AA11" s="161"/>
-    </row>
-    <row r="12" spans="1:27">
+      <c r="AA11" s="169"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" s="12"/>
       <c r="B12" s="39"/>
       <c r="C12" s="13" t="s">
@@ -19317,12 +19416,12 @@
       <c r="Z12" s="79" t="s">
         <v>130</v>
       </c>
-      <c r="AA12" s="161">
+      <c r="AA12" s="169">
         <f t="shared" ref="AA12" si="8">SUM(V12:V13,Y12:Y13)</f>
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:27" ht="15.75" thickBot="1">
+    <row r="13" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
         <v>50</v>
       </c>
@@ -19382,9 +19481,9 @@
       <c r="Z13" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="AA13" s="161"/>
-    </row>
-    <row r="14" spans="1:27">
+      <c r="AA13" s="169"/>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>53</v>
       </c>
@@ -19446,12 +19545,12 @@
       <c r="Z14" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="AA14" s="161">
+      <c r="AA14" s="169">
         <f t="shared" ref="AA14" si="9">SUM(V14:V15,Y14:Y15)</f>
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:27">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="56"/>
       <c r="B15" s="7"/>
       <c r="C15" s="8" t="s">
@@ -19507,9 +19606,9 @@
       <c r="Z15" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="AA15" s="161"/>
-    </row>
-    <row r="16" spans="1:27">
+      <c r="AA15" s="169"/>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
         <v>48</v>
       </c>
@@ -19571,12 +19670,12 @@
       <c r="Z16" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="AA16" s="161">
+      <c r="AA16" s="169">
         <f t="shared" ref="AA16" si="10">SUM(V16:V17,Y16:Y17)</f>
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:30">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>42</v>
       </c>
@@ -19636,9 +19735,9 @@
       <c r="Z17" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="AA17" s="161"/>
-    </row>
-    <row r="18" spans="1:30">
+      <c r="AA17" s="169"/>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="B18" s="7"/>
       <c r="C18" s="8" t="s">
@@ -19696,12 +19795,12 @@
       <c r="Z18" s="85" t="s">
         <v>58</v>
       </c>
-      <c r="AA18" s="161">
+      <c r="AA18" s="169">
         <f t="shared" ref="AA18" si="11">SUM(V18:V19,Y18:Y19)</f>
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="1:30">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A19" s="22" t="s">
         <v>55</v>
       </c>
@@ -19761,9 +19860,9 @@
       <c r="Z19" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="AA19" s="161"/>
-    </row>
-    <row r="20" spans="1:30" ht="15.75" thickBot="1">
+      <c r="AA19" s="169"/>
+    </row>
+    <row r="20" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="12"/>
       <c r="B20" s="39"/>
       <c r="C20" s="13" t="s">
@@ -19821,12 +19920,12 @@
       <c r="Z20" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="AA20" s="161">
+      <c r="AA20" s="169">
         <f t="shared" ref="AA20" si="12">SUM(V20:V21,Y20:Y21)</f>
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:30" ht="15.75" thickBot="1">
+    <row r="21" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>58</v>
       </c>
@@ -19880,9 +19979,9 @@
       <c r="Z21" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="AA21" s="162"/>
-    </row>
-    <row r="22" spans="1:30">
+      <c r="AA21" s="182"/>
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
       <c r="B22" s="7"/>
       <c r="C22" s="8" t="s">
@@ -19917,7 +20016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:30">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A23" s="48" t="s">
         <v>43</v>
       </c>
@@ -19956,7 +20055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:30">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A24" s="32"/>
       <c r="B24" s="8"/>
       <c r="C24" s="10" t="s">
@@ -19999,7 +20098,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="25" spans="1:30">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A25" s="32"/>
       <c r="B25" s="8"/>
       <c r="C25" s="10" t="s">
@@ -20034,7 +20133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:30" ht="15.75" thickBot="1">
+    <row r="26" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="64"/>
       <c r="B26" s="69"/>
       <c r="C26" s="70" t="s">
@@ -20070,14 +20169,14 @@
       </c>
       <c r="AD26" s="30"/>
     </row>
-    <row r="27" spans="1:30" ht="15.75" thickBot="1">
+    <row r="27" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H27" s="155"/>
       <c r="I27" s="155"/>
       <c r="J27" s="155"/>
       <c r="K27" s="155"/>
       <c r="L27" s="155"/>
     </row>
-    <row r="28" spans="1:30" ht="15.75" thickBot="1">
+    <row r="28" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="72" t="s">
         <v>61</v>
       </c>
@@ -20116,17 +20215,11 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:30">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
       <c r="E32" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="AA10:AA11"/>
-    <mergeCell ref="T6:T7"/>
-    <mergeCell ref="U6:W6"/>
-    <mergeCell ref="X6:Z6"/>
-    <mergeCell ref="AA6:AA7"/>
-    <mergeCell ref="AA8:AA9"/>
     <mergeCell ref="AA20:AA21"/>
     <mergeCell ref="O12:O13"/>
     <mergeCell ref="P12:Q12"/>
@@ -20134,6 +20227,12 @@
     <mergeCell ref="AA14:AA15"/>
     <mergeCell ref="AA16:AA17"/>
     <mergeCell ref="AA18:AA19"/>
+    <mergeCell ref="AA10:AA11"/>
+    <mergeCell ref="T6:T7"/>
+    <mergeCell ref="U6:W6"/>
+    <mergeCell ref="X6:Z6"/>
+    <mergeCell ref="AA6:AA7"/>
+    <mergeCell ref="AA8:AA9"/>
   </mergeCells>
   <conditionalFormatting sqref="Y24">
     <cfRule type="cellIs" dxfId="7" priority="3" operator="notEqual">
@@ -20157,14 +20256,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI32"/>
   <sheetViews>
     <sheetView topLeftCell="F7" workbookViewId="0">
       <selection activeCell="AF8" sqref="AF8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.42578125" customWidth="1"/>
     <col min="2" max="2" width="35.7109375" customWidth="1"/>
@@ -20189,7 +20288,7 @@
     <col min="29" max="29" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="15.75" thickBot="1">
+    <row r="1" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -20236,7 +20335,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:27" ht="15.75" thickBot="1">
+    <row r="2" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>62</v>
       </c>
@@ -20289,7 +20388,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:27">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
         <v>64</v>
       </c>
@@ -20341,24 +20440,24 @@
       <c r="R3" s="155">
         <v>20</v>
       </c>
-      <c r="T3" s="167" t="s">
-        <v>0</v>
-      </c>
-      <c r="U3" s="163" t="s">
+      <c r="T3" s="173" t="s">
+        <v>0</v>
+      </c>
+      <c r="U3" s="177" t="s">
         <v>18</v>
       </c>
-      <c r="V3" s="164"/>
-      <c r="W3" s="165"/>
-      <c r="X3" s="163" t="s">
+      <c r="V3" s="178"/>
+      <c r="W3" s="179"/>
+      <c r="X3" s="177" t="s">
         <v>19</v>
       </c>
-      <c r="Y3" s="164"/>
-      <c r="Z3" s="166"/>
-      <c r="AA3" s="167" t="s">
+      <c r="Y3" s="178"/>
+      <c r="Z3" s="180"/>
+      <c r="AA3" s="173" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="15.75" thickBot="1">
+    <row r="4" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="12"/>
       <c r="B4" s="13"/>
       <c r="C4" s="45" t="s">
@@ -20406,7 +20505,7 @@
       <c r="R4" s="155">
         <v>15</v>
       </c>
-      <c r="T4" s="168"/>
+      <c r="T4" s="174"/>
       <c r="U4" s="26" t="s">
         <v>26</v>
       </c>
@@ -20425,9 +20524,9 @@
       <c r="Z4" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="AA4" s="168"/>
-    </row>
-    <row r="5" spans="1:27">
+      <c r="AA4" s="174"/>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="76" t="s">
         <v>66</v>
       </c>
@@ -20500,12 +20599,12 @@
       <c r="Z5" s="79" t="s">
         <v>71</v>
       </c>
-      <c r="AA5" s="169">
+      <c r="AA5" s="181">
         <f>SUM(V5:V6,Y5:Y6)</f>
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="15.75" thickBot="1">
+    <row r="6" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="80" t="s">
         <v>69</v>
       </c>
@@ -20570,9 +20669,9 @@
       <c r="X6" s="81"/>
       <c r="Y6" s="37"/>
       <c r="Z6" s="83"/>
-      <c r="AA6" s="161"/>
-    </row>
-    <row r="7" spans="1:27" ht="15.75" thickBot="1">
+      <c r="AA6" s="169"/>
+    </row>
+    <row r="7" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12"/>
       <c r="B7" s="13"/>
       <c r="C7" s="45" t="s">
@@ -20638,12 +20737,12 @@
       <c r="Z7" s="85" t="s">
         <v>71</v>
       </c>
-      <c r="AA7" s="161">
+      <c r="AA7" s="169">
         <f t="shared" ref="AA7" si="7">SUM(V7:V8,Y7:Y8)</f>
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:27">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="76" t="s">
         <v>68</v>
       </c>
@@ -20694,9 +20793,9 @@
       <c r="Z8" s="85" t="s">
         <v>71</v>
       </c>
-      <c r="AA8" s="161"/>
-    </row>
-    <row r="9" spans="1:27">
+      <c r="AA8" s="169"/>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="80" t="s">
         <v>71</v>
       </c>
@@ -20755,12 +20854,12 @@
       <c r="Z9" s="79" t="s">
         <v>68</v>
       </c>
-      <c r="AA9" s="161">
+      <c r="AA9" s="169">
         <f t="shared" ref="AA9" si="8">SUM(V9:V10,Y9:Y10)</f>
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:27" ht="15.75" thickBot="1">
+    <row r="10" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="88"/>
       <c r="B10" s="69"/>
       <c r="C10" s="70" t="s">
@@ -20801,9 +20900,9 @@
       <c r="X10" s="81"/>
       <c r="Y10" s="37"/>
       <c r="Z10" s="83"/>
-      <c r="AA10" s="161"/>
-    </row>
-    <row r="11" spans="1:27" ht="15.75" thickBot="1">
+      <c r="AA10" s="169"/>
+    </row>
+    <row r="11" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -20836,12 +20935,12 @@
       <c r="Z11" s="79" t="s">
         <v>68</v>
       </c>
-      <c r="AA11" s="161">
+      <c r="AA11" s="169">
         <f t="shared" ref="AA11" si="9">SUM(V11:V12,Y11:Y12)</f>
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:27" ht="15.75" thickBot="1">
+    <row r="12" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="72" t="s">
         <v>14</v>
       </c>
@@ -20879,9 +20978,9 @@
         <f t="shared" si="11"/>
         <v>20</v>
       </c>
-      <c r="O12" s="163"/>
-      <c r="P12" s="164"/>
-      <c r="Q12" s="165"/>
+      <c r="O12" s="177"/>
+      <c r="P12" s="178"/>
+      <c r="Q12" s="179"/>
       <c r="T12" s="31"/>
       <c r="U12" s="78"/>
       <c r="V12" s="33"/>
@@ -20889,9 +20988,9 @@
       <c r="X12" s="78"/>
       <c r="Y12" s="33"/>
       <c r="Z12" s="85"/>
-      <c r="AA12" s="161"/>
-    </row>
-    <row r="13" spans="1:27" ht="15.75" thickBot="1">
+      <c r="AA12" s="169"/>
+    </row>
+    <row r="13" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
@@ -20922,12 +21021,12 @@
       <c r="Z13" s="79" t="s">
         <v>68</v>
       </c>
-      <c r="AA13" s="161">
+      <c r="AA13" s="169">
         <f t="shared" ref="AA13" si="12">SUM(V13:V14,Y13:Y14)</f>
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:27">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -20944,9 +21043,9 @@
       <c r="X14" s="81"/>
       <c r="Y14" s="37"/>
       <c r="Z14" s="83"/>
-      <c r="AA14" s="161"/>
-    </row>
-    <row r="15" spans="1:27">
+      <c r="AA14" s="169"/>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="95"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -20977,12 +21076,12 @@
       <c r="Z15" s="85" t="s">
         <v>68</v>
       </c>
-      <c r="AA15" s="161">
+      <c r="AA15" s="169">
         <f t="shared" ref="AA15" si="13">SUM(V15:V16,Y15:Y16)</f>
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:27">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -20999,9 +21098,9 @@
       <c r="X16" s="78"/>
       <c r="Y16" s="33"/>
       <c r="Z16" s="85"/>
-      <c r="AA16" s="161"/>
-    </row>
-    <row r="17" spans="1:35">
+      <c r="AA16" s="169"/>
+    </row>
+    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -21032,12 +21131,12 @@
       <c r="Z17" s="79" t="s">
         <v>68</v>
       </c>
-      <c r="AA17" s="161">
+      <c r="AA17" s="169">
         <f t="shared" ref="AA17" si="14">SUM(V17:V18,Y17:Y18)</f>
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:35" ht="15.75" thickBot="1">
+    <row r="18" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -21054,9 +21153,9 @@
       <c r="X18" s="96"/>
       <c r="Y18" s="65"/>
       <c r="Z18" s="98"/>
-      <c r="AA18" s="162"/>
-    </row>
-    <row r="19" spans="1:35">
+      <c r="AA18" s="182"/>
+    </row>
+    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -21067,7 +21166,7 @@
       <c r="P19" s="16"/>
       <c r="Q19" s="57"/>
     </row>
-    <row r="20" spans="1:35" ht="15.75" thickBot="1">
+    <row r="20" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -21086,7 +21185,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:35" ht="15.75" thickBot="1">
+    <row r="21" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -21097,7 +21196,7 @@
       <c r="P21" s="61"/>
       <c r="Q21" s="62"/>
     </row>
-    <row r="22" spans="1:35">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
@@ -21105,7 +21204,7 @@
       <c r="E22" s="9"/>
       <c r="F22" s="90"/>
     </row>
-    <row r="23" spans="1:35">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -21113,7 +21212,7 @@
       <c r="E23" s="9"/>
       <c r="F23" s="7"/>
     </row>
-    <row r="24" spans="1:35">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="9"/>
@@ -21121,7 +21220,7 @@
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
     </row>
-    <row r="25" spans="1:35">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="9"/>
@@ -21129,7 +21228,7 @@
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
     </row>
-    <row r="26" spans="1:35">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="9"/>
@@ -21137,7 +21236,7 @@
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
     </row>
-    <row r="27" spans="1:35">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
@@ -21153,7 +21252,7 @@
       <c r="AH27" s="7"/>
       <c r="AI27" s="7"/>
     </row>
-    <row r="28" spans="1:35">
+    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
@@ -21169,7 +21268,7 @@
       <c r="AH28" s="7"/>
       <c r="AI28" s="7"/>
     </row>
-    <row r="29" spans="1:35">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
       <c r="AB29" s="9"/>
       <c r="AC29" s="9"/>
       <c r="AD29" s="9"/>
@@ -21179,7 +21278,7 @@
       <c r="AH29" s="7"/>
       <c r="AI29" s="7"/>
     </row>
-    <row r="30" spans="1:35">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
       <c r="AB30" s="7"/>
       <c r="AC30" s="7"/>
       <c r="AD30" s="9"/>
@@ -21189,7 +21288,7 @@
       <c r="AH30" s="7"/>
       <c r="AI30" s="7"/>
     </row>
-    <row r="31" spans="1:35">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
       <c r="AB31" s="7"/>
       <c r="AC31" s="7"/>
       <c r="AD31" s="7"/>
@@ -21199,7 +21298,7 @@
       <c r="AH31" s="7"/>
       <c r="AI31" s="7"/>
     </row>
-    <row r="32" spans="1:35">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
       <c r="Q32" s="30"/>
       <c r="AB32" s="7"/>
       <c r="AC32" s="7"/>
@@ -21212,12 +21311,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="AA7:AA8"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="U3:W3"/>
-    <mergeCell ref="X3:Z3"/>
-    <mergeCell ref="AA3:AA4"/>
-    <mergeCell ref="AA5:AA6"/>
     <mergeCell ref="AA17:AA18"/>
     <mergeCell ref="AA9:AA10"/>
     <mergeCell ref="AA11:AA12"/>
@@ -21225,6 +21318,12 @@
     <mergeCell ref="P12:Q12"/>
     <mergeCell ref="AA13:AA14"/>
     <mergeCell ref="AA15:AA16"/>
+    <mergeCell ref="AA7:AA8"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="U3:W3"/>
+    <mergeCell ref="X3:Z3"/>
+    <mergeCell ref="AA3:AA4"/>
+    <mergeCell ref="AA5:AA6"/>
   </mergeCells>
   <conditionalFormatting sqref="Y20">
     <cfRule type="cellIs" dxfId="3" priority="3" operator="notEqual">
@@ -21248,14 +21347,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AY146"/>
   <sheetViews>
-    <sheetView topLeftCell="C24" workbookViewId="0">
-      <selection activeCell="G48" sqref="G48"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
     <col min="2" max="2" width="13.42578125" customWidth="1"/>
@@ -21266,7 +21365,7 @@
     <col min="7" max="7" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -21292,7 +21391,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -21318,7 +21417,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -21344,7 +21443,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -21370,7 +21469,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -21396,7 +21495,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -21422,7 +21521,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -21448,7 +21547,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -21474,7 +21573,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -21507,7 +21606,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="39" spans="5:8">
+    <row r="39" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E39" t="str">
         <f>'Prospetto orario (CON AN)'!T51</f>
         <v>Ruolo</v>
@@ -21521,7 +21620,7 @@
         <v>Costo</v>
       </c>
     </row>
-    <row r="40" spans="5:8">
+    <row r="40" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E40" t="str">
         <f>'Prospetto orario (CON AN)'!T52</f>
         <v>Responsabile</v>
@@ -21538,7 +21637,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="41" spans="5:8">
+    <row r="41" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E41" t="str">
         <f>'Prospetto orario (CON AN)'!T53</f>
         <v>Amministratore</v>
@@ -21555,7 +21654,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="5:8">
+    <row r="42" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E42" t="str">
         <f>'Prospetto orario (CON AN)'!T54</f>
         <v>Analista</v>
@@ -21572,7 +21671,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="43" spans="5:8">
+    <row r="43" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E43" t="str">
         <f>'Prospetto orario (CON AN)'!T55</f>
         <v>Verificatore</v>
@@ -21589,7 +21688,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="5:8">
+    <row r="44" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E44" t="str">
         <f>'Prospetto orario (CON AN)'!T56</f>
         <v>Progettista</v>
@@ -21606,7 +21705,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="45" spans="5:8">
+    <row r="45" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E45" t="str">
         <f>'Prospetto orario (CON AN)'!T57</f>
         <v>Programmatore</v>
@@ -21623,7 +21722,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="5:8">
+    <row r="46" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E46" t="str">
         <f>'Prospetto orario (CON AN)'!T58</f>
         <v>Totale</v>
@@ -21637,7 +21736,7 @@
         <v>13411</v>
       </c>
     </row>
-    <row r="92" spans="45:51">
+    <row r="92" spans="45:51" x14ac:dyDescent="0.25">
       <c r="AS92">
         <v>4</v>
       </c>
@@ -21660,7 +21759,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="93" spans="45:51">
+    <row r="93" spans="45:51" x14ac:dyDescent="0.25">
       <c r="AS93">
         <v>13</v>
       </c>
@@ -21683,7 +21782,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="94" spans="45:51">
+    <row r="94" spans="45:51" x14ac:dyDescent="0.25">
       <c r="AS94">
         <v>10</v>
       </c>
@@ -21706,7 +21805,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="95" spans="45:51">
+    <row r="95" spans="45:51" x14ac:dyDescent="0.25">
       <c r="AS95">
         <v>15</v>
       </c>
@@ -21729,7 +21828,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="96" spans="45:51">
+    <row r="96" spans="45:51" x14ac:dyDescent="0.25">
       <c r="AS96">
         <v>9</v>
       </c>
@@ -21752,7 +21851,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="97" spans="45:51">
+    <row r="97" spans="45:51" x14ac:dyDescent="0.25">
       <c r="AS97">
         <v>6</v>
       </c>
@@ -21775,7 +21874,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="98" spans="45:51">
+    <row r="98" spans="45:51" x14ac:dyDescent="0.25">
       <c r="AS98">
         <v>2</v>
       </c>
@@ -21798,7 +21897,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="140" spans="47:48">
+    <row r="140" spans="47:48" x14ac:dyDescent="0.25">
       <c r="AU140">
         <v>12</v>
       </c>
@@ -21806,7 +21905,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="141" spans="47:48">
+    <row r="141" spans="47:48" x14ac:dyDescent="0.25">
       <c r="AU141">
         <v>0</v>
       </c>
@@ -21814,7 +21913,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="142" spans="47:48">
+    <row r="142" spans="47:48" x14ac:dyDescent="0.25">
       <c r="AU142">
         <v>6</v>
       </c>
@@ -21822,7 +21921,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="143" spans="47:48">
+    <row r="143" spans="47:48" x14ac:dyDescent="0.25">
       <c r="AU143">
         <v>0</v>
       </c>
@@ -21830,7 +21929,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="144" spans="47:48">
+    <row r="144" spans="47:48" x14ac:dyDescent="0.25">
       <c r="AU144">
         <v>0</v>
       </c>
@@ -21838,7 +21937,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="145" spans="47:48">
+    <row r="145" spans="47:48" x14ac:dyDescent="0.25">
       <c r="AU145">
         <v>0</v>
       </c>
@@ -21846,7 +21945,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="146" spans="47:48">
+    <row r="146" spans="47:48" x14ac:dyDescent="0.25">
       <c r="AU146">
         <v>12</v>
       </c>

--- a/RP/Esterni/Piano di Progetto/Ripartizione ruoli e ore.xlsx
+++ b/RP/Esterni/Piano di Progetto/Ripartizione ruoli e ore.xlsx
@@ -1480,48 +1480,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1536,10 +1498,48 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2077,7 +2077,7 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>33</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>27</c:v>
@@ -2149,25 +2149,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>57</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>32</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>34</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>36</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>39</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2258,11 +2258,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="59533184"/>
-        <c:axId val="59534720"/>
+        <c:axId val="48142208"/>
+        <c:axId val="48143744"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="59533184"/>
+        <c:axId val="48142208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2271,7 +2271,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="59534720"/>
+        <c:crossAx val="48143744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2279,7 +2279,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="59534720"/>
+        <c:axId val="48143744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2290,7 +2290,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="59533184"/>
+        <c:crossAx val="48142208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2385,10 +2385,10 @@
                   <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>199</c:v>
+                  <c:v>201</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>233</c:v>
+                  <c:v>245</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>120</c:v>
@@ -2499,10 +2499,10 @@
                   <c:v>750</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2985</c:v>
+                  <c:v>3015</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5126</c:v>
+                  <c:v>5390</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>1800</c:v>
@@ -2525,6 +2525,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3011,7 +3012,7 @@
       </c>
       <c r="F2" s="148">
         <f>SUM(BA4:BC4,BA14:BC15,BA31:BC32,BA48:BC49)</f>
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G2" s="148">
         <f>SUM(BD4:BF4,BD14:BF15,BD31:BF32,BD48:BF49)</f>
@@ -3033,7 +3034,7 @@
       <c r="U2" s="148"/>
       <c r="V2" s="148">
         <f>SUM(B2:G2)</f>
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AA2" t="s">
         <v>74</v>
@@ -3042,19 +3043,19 @@
         <f>'1_AN'!O2</f>
         <v>Membro</v>
       </c>
-      <c r="AC2" s="170" t="str">
+      <c r="AC2" s="173" t="str">
         <f>'1_AN'!P2</f>
         <v>I Periodo</v>
       </c>
-      <c r="AD2" s="171"/>
-      <c r="AE2" s="172"/>
-      <c r="AF2" s="170" t="str">
+      <c r="AD2" s="174"/>
+      <c r="AE2" s="175"/>
+      <c r="AF2" s="173" t="str">
         <f>'1_AN'!S2</f>
         <v>II Periodo</v>
       </c>
-      <c r="AG2" s="171"/>
-      <c r="AH2" s="171"/>
-      <c r="AI2" s="173" t="str">
+      <c r="AG2" s="174"/>
+      <c r="AH2" s="174"/>
+      <c r="AI2" s="167" t="str">
         <f>'1_AN'!V2</f>
         <v>Totale</v>
       </c>
@@ -3135,7 +3136,7 @@
       </c>
       <c r="E3" s="148">
         <f t="shared" ref="E3:E8" si="2">SUM(AX5:AZ5,AX15:AZ16,AX32:AZ33,AX49:AZ50)</f>
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F3" s="148">
         <f t="shared" ref="F3:F8" si="3">SUM(BA5:BC5,BA15:BC16,BA32:BC33,BA49:BC50)</f>
@@ -3188,7 +3189,7 @@
         <f>'1_AN'!U3</f>
         <v>Fase</v>
       </c>
-      <c r="AI3" s="174"/>
+      <c r="AI3" s="168"/>
     </row>
     <row r="4" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A4" s="147" t="s">
@@ -3208,7 +3209,7 @@
       </c>
       <c r="E4" s="148">
         <f t="shared" si="2"/>
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F4" s="148">
         <f t="shared" si="3"/>
@@ -3344,7 +3345,7 @@
       </c>
       <c r="F5" s="148">
         <f t="shared" si="3"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G5" s="148">
         <f t="shared" si="4"/>
@@ -3476,7 +3477,7 @@
       </c>
       <c r="F6" s="148">
         <f t="shared" si="3"/>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G6" s="148">
         <f t="shared" si="4"/>
@@ -3608,7 +3609,7 @@
       </c>
       <c r="F7" s="148">
         <f t="shared" si="3"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G7" s="148">
         <f t="shared" si="4"/>
@@ -3740,7 +3741,7 @@
       </c>
       <c r="F8" s="148">
         <f t="shared" si="3"/>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G8" s="148">
         <f t="shared" si="4"/>
@@ -4071,25 +4072,25 @@
       <c r="AB12" s="149" t="s">
         <v>126</v>
       </c>
-      <c r="AC12" s="170" t="str">
+      <c r="AC12" s="173" t="str">
         <f>'2_PA'!V9</f>
         <v>I Periodo</v>
       </c>
-      <c r="AD12" s="175"/>
-      <c r="AE12" s="176"/>
-      <c r="AF12" s="177" t="str">
+      <c r="AD12" s="176"/>
+      <c r="AE12" s="177"/>
+      <c r="AF12" s="163" t="str">
         <f>'2_PA'!Y9</f>
         <v>II Periodo</v>
       </c>
-      <c r="AG12" s="178"/>
-      <c r="AH12" s="179"/>
-      <c r="AI12" s="177" t="str">
+      <c r="AG12" s="164"/>
+      <c r="AH12" s="165"/>
+      <c r="AI12" s="163" t="str">
         <f>'2_PA'!AB9</f>
         <v>III Periodo</v>
       </c>
-      <c r="AJ12" s="178"/>
-      <c r="AK12" s="180"/>
-      <c r="AL12" s="173" t="str">
+      <c r="AJ12" s="164"/>
+      <c r="AK12" s="166"/>
+      <c r="AL12" s="167" t="str">
         <f>'2_PA'!AE9</f>
         <v>Totale</v>
       </c>
@@ -4140,10 +4141,10 @@
         <f>'2_PA'!AD10</f>
         <v>Fase</v>
       </c>
-      <c r="AL13" s="174"/>
+      <c r="AL13" s="168"/>
       <c r="AM13">
         <f>SUM(AL14:AL27)</f>
-        <v>193</v>
+        <v>207</v>
       </c>
       <c r="BG13" s="158">
         <f t="shared" si="19"/>
@@ -4177,7 +4178,7 @@
       </c>
       <c r="AG14" s="33">
         <f>'2_PA'!Z11</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AH14" s="34" t="str">
         <f>'2_PA'!AA11</f>
@@ -4195,9 +4196,9 @@
         <f>'2_PA'!AD11</f>
         <v>PA 3.2</v>
       </c>
-      <c r="AL14" s="181">
+      <c r="AL14" s="169">
         <f>'2_PA'!AE11</f>
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AO14">
         <f>IF($AC14=AO$2,$AD14,0)</f>
@@ -4253,7 +4254,7 @@
       </c>
       <c r="BB14">
         <f t="shared" ref="BB14:BB15" si="30">IF($AF14=BB$2,$AG14,0)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BC14">
         <f t="shared" ref="BC14:BC15" si="31">IF($AI14=BC$2,$AJ14,0)</f>
@@ -4273,11 +4274,11 @@
       </c>
       <c r="BG14" s="158">
         <f t="shared" si="19"/>
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="BH14">
         <f>SUM(AO14:BF27)</f>
-        <v>193</v>
+        <v>207</v>
       </c>
     </row>
     <row r="15" spans="1:60" x14ac:dyDescent="0.25">
@@ -4325,7 +4326,7 @@
         <f>'2_PA'!AD12</f>
         <v>0</v>
       </c>
-      <c r="AL15" s="169"/>
+      <c r="AL15" s="161"/>
       <c r="AO15">
         <f>IF($AC15=AO$2,$AD15,0)</f>
         <v>0</v>
@@ -4426,7 +4427,7 @@
       </c>
       <c r="AG16" s="33">
         <f>'2_PA'!Z13</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AH16" s="34" t="str">
         <f>'2_PA'!AA13</f>
@@ -4444,9 +4445,9 @@
         <f>'2_PA'!AD13</f>
         <v>PA 3.2</v>
       </c>
-      <c r="AL16" s="169">
+      <c r="AL16" s="161">
         <f>'2_PA'!AE13</f>
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AO16">
         <f t="shared" ref="AO16:AO27" si="35">IF($AC16=AO$2,$AD16,0)</f>
@@ -4490,7 +4491,7 @@
       </c>
       <c r="AY16">
         <f t="shared" si="21"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AZ16">
         <f t="shared" si="22"/>
@@ -4522,7 +4523,7 @@
       </c>
       <c r="BG16" s="158">
         <f t="shared" si="19"/>
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:60" x14ac:dyDescent="0.25">
@@ -4566,7 +4567,7 @@
         <f>'2_PA'!AD14</f>
         <v>0</v>
       </c>
-      <c r="AL17" s="169"/>
+      <c r="AL17" s="161"/>
       <c r="AO17">
         <f t="shared" si="35"/>
         <v>0</v>
@@ -4667,7 +4668,7 @@
       </c>
       <c r="AG18" s="49">
         <f>'2_PA'!Z15</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AH18" s="87" t="str">
         <f>'2_PA'!AA15</f>
@@ -4685,9 +4686,9 @@
         <f>'2_PA'!AD15</f>
         <v>PA 3.3</v>
       </c>
-      <c r="AL18" s="169">
+      <c r="AL18" s="161">
         <f>'2_PA'!AE15</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AO18">
         <f t="shared" si="35"/>
@@ -4743,7 +4744,7 @@
       </c>
       <c r="BB18">
         <f t="shared" si="21"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BC18">
         <f t="shared" si="22"/>
@@ -4763,7 +4764,7 @@
       </c>
       <c r="BG18" s="158">
         <f t="shared" si="19"/>
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:60" x14ac:dyDescent="0.25">
@@ -4807,7 +4808,7 @@
         <f>'2_PA'!AD16</f>
         <v>PA 6.1</v>
       </c>
-      <c r="AL19" s="169"/>
+      <c r="AL19" s="161"/>
       <c r="AO19">
         <f t="shared" si="35"/>
         <v>0</v>
@@ -4908,7 +4909,7 @@
       </c>
       <c r="AG20" s="49">
         <f>'2_PA'!Z17</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AH20" s="50" t="str">
         <f>'2_PA'!AA17</f>
@@ -4926,9 +4927,9 @@
         <f>'2_PA'!AD17</f>
         <v>PA 3.3</v>
       </c>
-      <c r="AL20" s="169">
+      <c r="AL20" s="161">
         <f>'2_PA'!AE17</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AO20">
         <f t="shared" si="35"/>
@@ -4984,7 +4985,7 @@
       </c>
       <c r="BB20">
         <f t="shared" si="21"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BC20">
         <f t="shared" si="22"/>
@@ -5004,7 +5005,7 @@
       </c>
       <c r="BG20" s="158">
         <f t="shared" si="19"/>
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:60" x14ac:dyDescent="0.25">
@@ -5048,7 +5049,7 @@
         <f>'2_PA'!AD18</f>
         <v>PA 6.2</v>
       </c>
-      <c r="AL21" s="169"/>
+      <c r="AL21" s="161"/>
       <c r="AO21">
         <f t="shared" si="35"/>
         <v>0</v>
@@ -5149,7 +5150,7 @@
       </c>
       <c r="AG22" s="49">
         <f>'2_PA'!Z19</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AH22" s="50" t="str">
         <f>'2_PA'!AA19</f>
@@ -5167,9 +5168,9 @@
         <f>'2_PA'!AD19</f>
         <v>PA 5.1</v>
       </c>
-      <c r="AL22" s="169">
+      <c r="AL22" s="161">
         <f>'2_PA'!AE19</f>
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AO22">
         <f t="shared" si="35"/>
@@ -5225,7 +5226,7 @@
       </c>
       <c r="BB22">
         <f t="shared" si="21"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BC22">
         <f t="shared" si="22"/>
@@ -5245,43 +5246,43 @@
       </c>
       <c r="BG22" s="158">
         <f t="shared" si="19"/>
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A23" s="153" t="s">
         <v>0</v>
       </c>
-      <c r="B23" s="168" t="s">
+      <c r="B23" s="178" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="168"/>
-      <c r="D23" s="168"/>
-      <c r="E23" s="168" t="s">
+      <c r="C23" s="178"/>
+      <c r="D23" s="178"/>
+      <c r="E23" s="178" t="s">
         <v>2</v>
       </c>
-      <c r="F23" s="168"/>
-      <c r="G23" s="168"/>
-      <c r="H23" s="168" t="s">
+      <c r="F23" s="178"/>
+      <c r="G23" s="178"/>
+      <c r="H23" s="178" t="s">
         <v>3</v>
       </c>
-      <c r="I23" s="168"/>
-      <c r="J23" s="168"/>
-      <c r="K23" s="168" t="s">
+      <c r="I23" s="178"/>
+      <c r="J23" s="178"/>
+      <c r="K23" s="178" t="s">
         <v>4</v>
       </c>
-      <c r="L23" s="168"/>
-      <c r="M23" s="168"/>
-      <c r="N23" s="168" t="s">
+      <c r="L23" s="178"/>
+      <c r="M23" s="178"/>
+      <c r="N23" s="178" t="s">
         <v>5</v>
       </c>
-      <c r="O23" s="168"/>
-      <c r="P23" s="168"/>
-      <c r="Q23" s="168" t="s">
+      <c r="O23" s="178"/>
+      <c r="P23" s="178"/>
+      <c r="Q23" s="178" t="s">
         <v>6</v>
       </c>
-      <c r="R23" s="168"/>
-      <c r="S23" s="168"/>
+      <c r="R23" s="178"/>
+      <c r="S23" s="178"/>
       <c r="T23" s="159" t="s">
         <v>14</v>
       </c>
@@ -5326,7 +5327,7 @@
         <f>'2_PA'!AD20</f>
         <v>0</v>
       </c>
-      <c r="AL23" s="169"/>
+      <c r="AL23" s="161"/>
       <c r="AO23">
         <f t="shared" si="35"/>
         <v>0</v>
@@ -5405,50 +5406,50 @@
       </c>
     </row>
     <row r="24" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A24" s="164" t="s">
+      <c r="A24" s="170" t="s">
         <v>7</v>
       </c>
-      <c r="B24" s="165">
+      <c r="B24" s="172">
         <f>SUM(AO4:AQ4,AO14:AQ15,AO31:AQ32,AO48:AQ49)</f>
         <v>17</v>
       </c>
-      <c r="C24" s="165"/>
-      <c r="D24" s="165"/>
-      <c r="E24" s="165">
+      <c r="C24" s="172"/>
+      <c r="D24" s="172"/>
+      <c r="E24" s="172">
         <f>SUM(AR4:AT4,AR14:AT15,AR31:AT32,AR48:AT49)</f>
         <v>10</v>
       </c>
-      <c r="F24" s="165"/>
-      <c r="G24" s="165"/>
-      <c r="H24" s="166">
+      <c r="F24" s="172"/>
+      <c r="G24" s="172"/>
+      <c r="H24" s="171">
         <f>SUM(AU4:AW4,AU14:AW15,AU31:AW32,AU48:AW49)</f>
         <v>18</v>
       </c>
-      <c r="I24" s="166"/>
-      <c r="J24" s="166"/>
-      <c r="K24" s="165">
+      <c r="I24" s="171"/>
+      <c r="J24" s="171"/>
+      <c r="K24" s="172">
         <f>SUM(AX4:AZ4,AX14:AZ15,AX31:AZ32,AX48:AZ49)</f>
         <v>10</v>
       </c>
-      <c r="L24" s="165"/>
-      <c r="M24" s="165"/>
-      <c r="N24" s="166">
+      <c r="L24" s="172"/>
+      <c r="M24" s="172"/>
+      <c r="N24" s="171">
         <f>SUM(BA4:BC4,BA14:BC15,BA31:BC32,BA48:BC49)</f>
-        <v>57</v>
-      </c>
-      <c r="O24" s="166"/>
-      <c r="P24" s="166"/>
-      <c r="Q24" s="165">
+        <v>59</v>
+      </c>
+      <c r="O24" s="171"/>
+      <c r="P24" s="171"/>
+      <c r="Q24" s="172">
         <f t="shared" ref="Q24" si="38">SUM(BD4:BF4,BD14:BF15,BD31:BF32,BD48:BF49)</f>
         <v>4</v>
       </c>
-      <c r="R24" s="165"/>
-      <c r="S24" s="165"/>
-      <c r="T24" s="162">
+      <c r="R24" s="172"/>
+      <c r="S24" s="172"/>
+      <c r="T24" s="181">
         <f t="shared" ref="T24" si="39">SUM(B24:S25)</f>
-        <v>116</v>
-      </c>
-      <c r="U24" s="161"/>
+        <v>118</v>
+      </c>
+      <c r="U24" s="180"/>
       <c r="AB24" s="31" t="str">
         <f>'2_PA'!U21</f>
         <v>Quadrio Giacomo</v>
@@ -5471,7 +5472,7 @@
       </c>
       <c r="AG24" s="33">
         <f>'2_PA'!Z21</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AH24" s="84" t="str">
         <f>'2_PA'!AA21</f>
@@ -5489,9 +5490,9 @@
         <f>'2_PA'!AD21</f>
         <v>PA 5.1, 6.2</v>
       </c>
-      <c r="AL24" s="169">
+      <c r="AL24" s="161">
         <f>'2_PA'!AE21</f>
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AO24">
         <f t="shared" si="35"/>
@@ -5547,7 +5548,7 @@
       </c>
       <c r="BB24">
         <f t="shared" si="21"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BC24">
         <f t="shared" si="22"/>
@@ -5567,31 +5568,31 @@
       </c>
       <c r="BG24" s="158">
         <f t="shared" si="19"/>
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A25" s="164"/>
-      <c r="B25" s="165"/>
-      <c r="C25" s="165"/>
-      <c r="D25" s="165"/>
-      <c r="E25" s="165"/>
-      <c r="F25" s="165"/>
-      <c r="G25" s="165"/>
-      <c r="H25" s="166"/>
-      <c r="I25" s="166"/>
-      <c r="J25" s="166"/>
-      <c r="K25" s="165"/>
-      <c r="L25" s="165"/>
-      <c r="M25" s="165"/>
-      <c r="N25" s="166"/>
-      <c r="O25" s="166"/>
-      <c r="P25" s="166"/>
-      <c r="Q25" s="165"/>
-      <c r="R25" s="165"/>
-      <c r="S25" s="165"/>
-      <c r="T25" s="162"/>
-      <c r="U25" s="161"/>
+      <c r="A25" s="170"/>
+      <c r="B25" s="172"/>
+      <c r="C25" s="172"/>
+      <c r="D25" s="172"/>
+      <c r="E25" s="172"/>
+      <c r="F25" s="172"/>
+      <c r="G25" s="172"/>
+      <c r="H25" s="171"/>
+      <c r="I25" s="171"/>
+      <c r="J25" s="171"/>
+      <c r="K25" s="172"/>
+      <c r="L25" s="172"/>
+      <c r="M25" s="172"/>
+      <c r="N25" s="171"/>
+      <c r="O25" s="171"/>
+      <c r="P25" s="171"/>
+      <c r="Q25" s="172"/>
+      <c r="R25" s="172"/>
+      <c r="S25" s="172"/>
+      <c r="T25" s="181"/>
+      <c r="U25" s="180"/>
       <c r="AB25" s="31">
         <f>'2_PA'!U22</f>
         <v>0</v>
@@ -5632,7 +5633,7 @@
         <f>'2_PA'!AD22</f>
         <v>0</v>
       </c>
-      <c r="AL25" s="169"/>
+      <c r="AL25" s="161"/>
       <c r="AO25">
         <f t="shared" si="35"/>
         <v>0</v>
@@ -5711,50 +5712,50 @@
       </c>
     </row>
     <row r="26" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A26" s="164" t="s">
+      <c r="A26" s="170" t="s">
         <v>11</v>
       </c>
-      <c r="B26" s="165">
+      <c r="B26" s="172">
         <f>SUM(AO5:AQ5,AO16:AQ17,AO33:AQ34,AO50:AQ51)</f>
         <v>13</v>
       </c>
-      <c r="C26" s="165"/>
-      <c r="D26" s="165"/>
-      <c r="E26" s="165">
+      <c r="C26" s="172"/>
+      <c r="D26" s="172"/>
+      <c r="E26" s="172">
         <f>SUM(AR5:AT5,AR16:AT17,AR33:AT34,AR50:AT51)</f>
         <v>10</v>
       </c>
-      <c r="F26" s="165"/>
-      <c r="G26" s="165"/>
-      <c r="H26" s="165">
+      <c r="F26" s="172"/>
+      <c r="G26" s="172"/>
+      <c r="H26" s="172">
         <f>SUM(AU5:AW5,AU16:AW17,AU33:AW34,AU50:AW51)</f>
         <v>11</v>
       </c>
-      <c r="I26" s="165"/>
-      <c r="J26" s="165"/>
-      <c r="K26" s="166">
+      <c r="I26" s="172"/>
+      <c r="J26" s="172"/>
+      <c r="K26" s="171">
         <f>SUM(AX5:AZ5,AX16:AZ17,AX33:AZ34,AX50:AZ51)</f>
-        <v>41</v>
-      </c>
-      <c r="L26" s="166"/>
-      <c r="M26" s="166"/>
-      <c r="N26" s="165">
+        <v>43</v>
+      </c>
+      <c r="L26" s="171"/>
+      <c r="M26" s="171"/>
+      <c r="N26" s="172">
         <f>SUM(BA5:BC5,BA16:BC17,BA33:BC34,BA50:BC51)</f>
         <v>29</v>
       </c>
-      <c r="O26" s="165"/>
-      <c r="P26" s="165"/>
-      <c r="Q26" s="165">
+      <c r="O26" s="172"/>
+      <c r="P26" s="172"/>
+      <c r="Q26" s="172">
         <f>SUM(BD5:BF5,BD16:BF17,BD33:BF34,BD50:BF51)</f>
         <v>12</v>
       </c>
-      <c r="R26" s="165"/>
-      <c r="S26" s="165"/>
-      <c r="T26" s="162">
+      <c r="R26" s="172"/>
+      <c r="S26" s="172"/>
+      <c r="T26" s="181">
         <f t="shared" ref="T26" si="40">SUM(B26:S27)</f>
-        <v>116</v>
-      </c>
-      <c r="U26" s="161"/>
+        <v>118</v>
+      </c>
+      <c r="U26" s="180"/>
       <c r="AB26" s="47" t="str">
         <f>'2_PA'!U23</f>
         <v>Maggiolo Giorgio</v>
@@ -5777,7 +5778,7 @@
       </c>
       <c r="AG26" s="49">
         <f>'2_PA'!Z23</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AH26" s="50" t="str">
         <f>'2_PA'!AA23</f>
@@ -5795,9 +5796,9 @@
         <f>'2_PA'!AD23</f>
         <v>PA 3.3</v>
       </c>
-      <c r="AL26" s="169">
+      <c r="AL26" s="161">
         <f>'2_PA'!AE23</f>
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="AO26">
         <f t="shared" si="35"/>
@@ -5853,7 +5854,7 @@
       </c>
       <c r="BB26">
         <f t="shared" si="21"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BC26">
         <f t="shared" si="22"/>
@@ -5873,31 +5874,31 @@
       </c>
       <c r="BG26" s="158">
         <f t="shared" si="19"/>
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:60" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="164"/>
-      <c r="B27" s="165"/>
-      <c r="C27" s="165"/>
-      <c r="D27" s="165"/>
-      <c r="E27" s="165"/>
-      <c r="F27" s="165"/>
-      <c r="G27" s="165"/>
-      <c r="H27" s="165"/>
-      <c r="I27" s="165"/>
-      <c r="J27" s="165"/>
-      <c r="K27" s="166"/>
-      <c r="L27" s="166"/>
-      <c r="M27" s="166"/>
-      <c r="N27" s="165"/>
-      <c r="O27" s="165"/>
-      <c r="P27" s="165"/>
-      <c r="Q27" s="165"/>
-      <c r="R27" s="165"/>
-      <c r="S27" s="165"/>
-      <c r="T27" s="162"/>
-      <c r="U27" s="161"/>
+      <c r="A27" s="170"/>
+      <c r="B27" s="172"/>
+      <c r="C27" s="172"/>
+      <c r="D27" s="172"/>
+      <c r="E27" s="172"/>
+      <c r="F27" s="172"/>
+      <c r="G27" s="172"/>
+      <c r="H27" s="172"/>
+      <c r="I27" s="172"/>
+      <c r="J27" s="172"/>
+      <c r="K27" s="171"/>
+      <c r="L27" s="171"/>
+      <c r="M27" s="171"/>
+      <c r="N27" s="172"/>
+      <c r="O27" s="172"/>
+      <c r="P27" s="172"/>
+      <c r="Q27" s="172"/>
+      <c r="R27" s="172"/>
+      <c r="S27" s="172"/>
+      <c r="T27" s="181"/>
+      <c r="U27" s="180"/>
       <c r="AB27" s="63">
         <f>'2_PA'!U24</f>
         <v>0</v>
@@ -5938,7 +5939,7 @@
         <f>'2_PA'!AD24</f>
         <v>PA 5.1</v>
       </c>
-      <c r="AL27" s="182"/>
+      <c r="AL27" s="162"/>
       <c r="AO27">
         <f t="shared" si="35"/>
         <v>0</v>
@@ -6017,96 +6018,96 @@
       </c>
     </row>
     <row r="28" spans="1:60" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="164" t="s">
+      <c r="A28" s="170" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="165">
+      <c r="B28" s="172">
         <f>SUM(AO6:AQ6,AO18:AQ19,AO35:AQ36,AO52:AQ53)</f>
         <v>10</v>
       </c>
-      <c r="C28" s="165"/>
-      <c r="D28" s="165"/>
-      <c r="E28" s="165">
+      <c r="C28" s="172"/>
+      <c r="D28" s="172"/>
+      <c r="E28" s="172">
         <f>SUM(AR6:AT6,AR18:AT19,AR35:AT36,AR52:AT53)</f>
         <v>14</v>
       </c>
-      <c r="F28" s="165"/>
-      <c r="G28" s="165"/>
-      <c r="H28" s="165">
+      <c r="F28" s="172"/>
+      <c r="G28" s="172"/>
+      <c r="H28" s="172">
         <f>SUM(AU6:AW6,AU18:AW19,AU35:AW36,AU52:AW53)</f>
         <v>17</v>
       </c>
-      <c r="I28" s="165"/>
-      <c r="J28" s="165"/>
-      <c r="K28" s="165">
+      <c r="I28" s="172"/>
+      <c r="J28" s="172"/>
+      <c r="K28" s="172">
         <f>SUM(AX6:AZ6,AX18:AZ19,AX35:AZ36,AX52:AZ53)</f>
         <v>27</v>
       </c>
-      <c r="L28" s="165"/>
-      <c r="M28" s="165"/>
-      <c r="N28" s="165">
+      <c r="L28" s="172"/>
+      <c r="M28" s="172"/>
+      <c r="N28" s="172">
         <f>SUM(BA6:BC6,BA18:BC19,BA35:BC36,BA52:BC53)</f>
-        <v>32</v>
-      </c>
-      <c r="O28" s="165"/>
-      <c r="P28" s="165"/>
-      <c r="Q28" s="166">
+        <v>33</v>
+      </c>
+      <c r="O28" s="172"/>
+      <c r="P28" s="172"/>
+      <c r="Q28" s="171">
         <f>SUM(BD6:BF6,BD18:BF19,BD35:BF36,BD52:BF53)</f>
         <v>20</v>
       </c>
-      <c r="R28" s="166"/>
-      <c r="S28" s="166"/>
-      <c r="T28" s="162">
+      <c r="R28" s="171"/>
+      <c r="S28" s="171"/>
+      <c r="T28" s="181">
         <f t="shared" ref="T28" si="41">SUM(B28:S29)</f>
-        <v>120</v>
-      </c>
-      <c r="U28" s="161"/>
+        <v>121</v>
+      </c>
+      <c r="U28" s="180"/>
       <c r="BG28" s="158">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A29" s="164"/>
-      <c r="B29" s="165"/>
-      <c r="C29" s="165"/>
-      <c r="D29" s="165"/>
-      <c r="E29" s="165"/>
-      <c r="F29" s="165"/>
-      <c r="G29" s="165"/>
-      <c r="H29" s="165"/>
-      <c r="I29" s="165"/>
-      <c r="J29" s="165"/>
-      <c r="K29" s="165"/>
-      <c r="L29" s="165"/>
-      <c r="M29" s="165"/>
-      <c r="N29" s="165"/>
-      <c r="O29" s="165"/>
-      <c r="P29" s="165"/>
-      <c r="Q29" s="166"/>
-      <c r="R29" s="166"/>
-      <c r="S29" s="166"/>
-      <c r="T29" s="162"/>
-      <c r="U29" s="161"/>
+      <c r="A29" s="170"/>
+      <c r="B29" s="172"/>
+      <c r="C29" s="172"/>
+      <c r="D29" s="172"/>
+      <c r="E29" s="172"/>
+      <c r="F29" s="172"/>
+      <c r="G29" s="172"/>
+      <c r="H29" s="172"/>
+      <c r="I29" s="172"/>
+      <c r="J29" s="172"/>
+      <c r="K29" s="172"/>
+      <c r="L29" s="172"/>
+      <c r="M29" s="172"/>
+      <c r="N29" s="172"/>
+      <c r="O29" s="172"/>
+      <c r="P29" s="172"/>
+      <c r="Q29" s="171"/>
+      <c r="R29" s="171"/>
+      <c r="S29" s="171"/>
+      <c r="T29" s="181"/>
+      <c r="U29" s="180"/>
       <c r="AA29" t="s">
         <v>124</v>
       </c>
       <c r="AB29" s="149" t="s">
         <v>127</v>
       </c>
-      <c r="AC29" s="177" t="str">
+      <c r="AC29" s="163" t="str">
         <f>'3_PDC'!U6</f>
         <v>I Periodo</v>
       </c>
-      <c r="AD29" s="178"/>
-      <c r="AE29" s="179"/>
-      <c r="AF29" s="177" t="str">
+      <c r="AD29" s="164"/>
+      <c r="AE29" s="165"/>
+      <c r="AF29" s="163" t="str">
         <f>'3_PDC'!X6</f>
         <v>II Periodo</v>
       </c>
-      <c r="AG29" s="178"/>
-      <c r="AH29" s="180"/>
-      <c r="AI29" s="173" t="str">
+      <c r="AG29" s="164"/>
+      <c r="AH29" s="166"/>
+      <c r="AI29" s="167" t="str">
         <f>'3_PDC'!AA6</f>
         <v>Totale</v>
       </c>
@@ -6116,50 +6117,50 @@
       </c>
     </row>
     <row r="30" spans="1:60" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="164" t="s">
+      <c r="A30" s="170" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="165">
+      <c r="B30" s="172">
         <f>SUM(AO7:AQ7,AO20:AQ21,AO37:AQ38,AO54:AQ55)</f>
         <v>15</v>
       </c>
-      <c r="C30" s="165"/>
-      <c r="D30" s="165"/>
-      <c r="E30" s="165">
+      <c r="C30" s="172"/>
+      <c r="D30" s="172"/>
+      <c r="E30" s="172">
         <f>SUM(AR7:AT7,AR20:AT21,AR37:AT38,AR54:AT55)</f>
         <v>4</v>
       </c>
-      <c r="F30" s="165"/>
-      <c r="G30" s="165"/>
-      <c r="H30" s="165">
+      <c r="F30" s="172"/>
+      <c r="G30" s="172"/>
+      <c r="H30" s="172">
         <f>SUM(AU7:AW7,AU20:AW21,AU37:AW38,AU54:AW55)</f>
         <v>11</v>
       </c>
-      <c r="I30" s="165"/>
-      <c r="J30" s="165"/>
-      <c r="K30" s="166">
+      <c r="I30" s="172"/>
+      <c r="J30" s="172"/>
+      <c r="K30" s="171">
         <f>SUM(AX7:AZ7,AX20:AZ21,AX37:AZ38,AX54:AZ55)</f>
         <v>39</v>
       </c>
-      <c r="L30" s="166"/>
-      <c r="M30" s="166"/>
-      <c r="N30" s="166">
+      <c r="L30" s="171"/>
+      <c r="M30" s="171"/>
+      <c r="N30" s="171">
         <f>SUM(BA7:BC7,BA20:BC21,BA37:BC38,BA54:BC55)</f>
-        <v>34</v>
-      </c>
-      <c r="O30" s="166"/>
-      <c r="P30" s="166"/>
-      <c r="Q30" s="165">
+        <v>35</v>
+      </c>
+      <c r="O30" s="171"/>
+      <c r="P30" s="171"/>
+      <c r="Q30" s="172">
         <f>SUM(BD7:BF7,BD20:BF21,BD37:BF38,BD54:BF55)</f>
         <v>18</v>
       </c>
-      <c r="R30" s="165"/>
-      <c r="S30" s="165"/>
-      <c r="T30" s="162">
+      <c r="R30" s="172"/>
+      <c r="S30" s="172"/>
+      <c r="T30" s="181">
         <f t="shared" ref="T30" si="42">SUM(B30:S31)</f>
-        <v>121</v>
-      </c>
-      <c r="U30" s="161"/>
+        <v>122</v>
+      </c>
+      <c r="U30" s="180"/>
       <c r="AB30" s="150"/>
       <c r="AC30" s="26" t="str">
         <f>'3_PDC'!U7</f>
@@ -6185,7 +6186,7 @@
         <f>'3_PDC'!Z7</f>
         <v>Fase</v>
       </c>
-      <c r="AI30" s="174"/>
+      <c r="AI30" s="168"/>
       <c r="AK30">
         <f>SUM(AI31:AI44)</f>
         <v>373</v>
@@ -6196,27 +6197,27 @@
       </c>
     </row>
     <row r="31" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A31" s="164"/>
-      <c r="B31" s="165"/>
-      <c r="C31" s="165"/>
-      <c r="D31" s="165"/>
-      <c r="E31" s="165"/>
-      <c r="F31" s="165"/>
-      <c r="G31" s="165"/>
-      <c r="H31" s="165"/>
-      <c r="I31" s="165"/>
-      <c r="J31" s="165"/>
-      <c r="K31" s="166"/>
-      <c r="L31" s="166"/>
-      <c r="M31" s="166"/>
-      <c r="N31" s="166"/>
-      <c r="O31" s="166"/>
-      <c r="P31" s="166"/>
-      <c r="Q31" s="165"/>
-      <c r="R31" s="165"/>
-      <c r="S31" s="165"/>
-      <c r="T31" s="162"/>
-      <c r="U31" s="161"/>
+      <c r="A31" s="170"/>
+      <c r="B31" s="172"/>
+      <c r="C31" s="172"/>
+      <c r="D31" s="172"/>
+      <c r="E31" s="172"/>
+      <c r="F31" s="172"/>
+      <c r="G31" s="172"/>
+      <c r="H31" s="172"/>
+      <c r="I31" s="172"/>
+      <c r="J31" s="172"/>
+      <c r="K31" s="171"/>
+      <c r="L31" s="171"/>
+      <c r="M31" s="171"/>
+      <c r="N31" s="171"/>
+      <c r="O31" s="171"/>
+      <c r="P31" s="171"/>
+      <c r="Q31" s="172"/>
+      <c r="R31" s="172"/>
+      <c r="S31" s="172"/>
+      <c r="T31" s="181"/>
+      <c r="U31" s="180"/>
       <c r="AB31" s="31" t="str">
         <f>'3_PDC'!T8</f>
         <v>Begolo Marco</v>
@@ -6245,7 +6246,7 @@
         <f>'3_PDC'!Z8</f>
         <v>PDC 4.4</v>
       </c>
-      <c r="AI31" s="181">
+      <c r="AI31" s="169">
         <f>'3_PDC'!AA8</f>
         <v>52</v>
       </c>
@@ -6331,50 +6332,50 @@
       </c>
     </row>
     <row r="32" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A32" s="164" t="s">
+      <c r="A32" s="170" t="s">
         <v>8</v>
       </c>
-      <c r="B32" s="165">
+      <c r="B32" s="172">
         <f>SUM(AO8:AQ8,AO22:AQ23,AO39:AQ40,AO56:AQ57)</f>
         <v>9</v>
       </c>
-      <c r="C32" s="165"/>
-      <c r="D32" s="165"/>
-      <c r="E32" s="165">
+      <c r="C32" s="172"/>
+      <c r="D32" s="172"/>
+      <c r="E32" s="172">
         <f>SUM(AR8:AT8,AR22:AT23,AR39:AT40,AR56:AT57)</f>
         <v>11</v>
       </c>
-      <c r="F32" s="165"/>
-      <c r="G32" s="165"/>
-      <c r="H32" s="165">
+      <c r="F32" s="172"/>
+      <c r="G32" s="172"/>
+      <c r="H32" s="172">
         <f>SUM(AU8:AW8,AU22:AW23,AU39:AW40,AU56:AW57)</f>
         <v>10</v>
       </c>
-      <c r="I32" s="165"/>
-      <c r="J32" s="165"/>
-      <c r="K32" s="165">
+      <c r="I32" s="172"/>
+      <c r="J32" s="172"/>
+      <c r="K32" s="172">
         <f>SUM(AX8:AZ8,AX22:AZ23,AX39:AZ40,AX56:AZ57)</f>
         <v>30</v>
       </c>
-      <c r="L32" s="165"/>
-      <c r="M32" s="165"/>
-      <c r="N32" s="166">
+      <c r="L32" s="172"/>
+      <c r="M32" s="172"/>
+      <c r="N32" s="171">
         <f>SUM(BA8:BC8,BA22:BC23,BA39:BC40,BA56:BC57)</f>
-        <v>36</v>
-      </c>
-      <c r="O32" s="166"/>
-      <c r="P32" s="166"/>
-      <c r="Q32" s="165">
+        <v>39</v>
+      </c>
+      <c r="O32" s="171"/>
+      <c r="P32" s="171"/>
+      <c r="Q32" s="172">
         <f>SUM(BD8:BF8,BD22:BF23,BD39:BF40,BD56:BF57)</f>
         <v>23</v>
       </c>
-      <c r="R32" s="165"/>
-      <c r="S32" s="165"/>
-      <c r="T32" s="162">
+      <c r="R32" s="172"/>
+      <c r="S32" s="172"/>
+      <c r="T32" s="181">
         <f t="shared" ref="T32" si="58">SUM(B32:S33)</f>
-        <v>119</v>
-      </c>
-      <c r="U32" s="161"/>
+        <v>122</v>
+      </c>
+      <c r="U32" s="180"/>
       <c r="AB32" s="35">
         <f>'3_PDC'!T9</f>
         <v>0</v>
@@ -6403,7 +6404,7 @@
         <f>'3_PDC'!Z9</f>
         <v>PDC 7</v>
       </c>
-      <c r="AI32" s="169"/>
+      <c r="AI32" s="161"/>
       <c r="AO32">
         <f>IF($AC32=AO$2,$AD32,0)</f>
         <v>0</v>
@@ -6482,27 +6483,27 @@
       </c>
     </row>
     <row r="33" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A33" s="164"/>
-      <c r="B33" s="165"/>
-      <c r="C33" s="165"/>
-      <c r="D33" s="165"/>
-      <c r="E33" s="165"/>
-      <c r="F33" s="165"/>
-      <c r="G33" s="165"/>
-      <c r="H33" s="165"/>
-      <c r="I33" s="165"/>
-      <c r="J33" s="165"/>
-      <c r="K33" s="165"/>
-      <c r="L33" s="165"/>
-      <c r="M33" s="165"/>
-      <c r="N33" s="166"/>
-      <c r="O33" s="166"/>
-      <c r="P33" s="166"/>
-      <c r="Q33" s="165"/>
-      <c r="R33" s="165"/>
-      <c r="S33" s="165"/>
-      <c r="T33" s="162"/>
-      <c r="U33" s="161"/>
+      <c r="A33" s="170"/>
+      <c r="B33" s="172"/>
+      <c r="C33" s="172"/>
+      <c r="D33" s="172"/>
+      <c r="E33" s="172"/>
+      <c r="F33" s="172"/>
+      <c r="G33" s="172"/>
+      <c r="H33" s="172"/>
+      <c r="I33" s="172"/>
+      <c r="J33" s="172"/>
+      <c r="K33" s="172"/>
+      <c r="L33" s="172"/>
+      <c r="M33" s="172"/>
+      <c r="N33" s="171"/>
+      <c r="O33" s="171"/>
+      <c r="P33" s="171"/>
+      <c r="Q33" s="172"/>
+      <c r="R33" s="172"/>
+      <c r="S33" s="172"/>
+      <c r="T33" s="181"/>
+      <c r="U33" s="180"/>
       <c r="AB33" s="31" t="str">
         <f>'3_PDC'!T10</f>
         <v>Facchin Gabriele</v>
@@ -6531,7 +6532,7 @@
         <f>'3_PDC'!Z10</f>
         <v>PDC 3.1</v>
       </c>
-      <c r="AI33" s="169">
+      <c r="AI33" s="161">
         <f>'3_PDC'!AA10</f>
         <v>52</v>
       </c>
@@ -6613,50 +6614,50 @@
       </c>
     </row>
     <row r="34" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A34" s="164" t="s">
+      <c r="A34" s="170" t="s">
         <v>13</v>
       </c>
-      <c r="B34" s="165">
+      <c r="B34" s="172">
         <f>SUM(AO9:AQ9,AO24:AQ25,AO41:AQ42,AO58:AQ59)</f>
         <v>6</v>
       </c>
-      <c r="C34" s="165"/>
-      <c r="D34" s="165"/>
-      <c r="E34" s="165">
+      <c r="C34" s="172"/>
+      <c r="D34" s="172"/>
+      <c r="E34" s="172">
         <f>SUM(AR9:AT9,AR24:AT25,AR41:AT42,AR58:AT59)</f>
         <v>2</v>
       </c>
-      <c r="F34" s="165"/>
-      <c r="G34" s="165"/>
-      <c r="H34" s="165">
+      <c r="F34" s="172"/>
+      <c r="G34" s="172"/>
+      <c r="H34" s="172">
         <f>SUM(AU9:AW9,AU24:AW25,AU41:AW42,AU58:AW59)</f>
         <v>10</v>
       </c>
-      <c r="I34" s="165"/>
-      <c r="J34" s="165"/>
-      <c r="K34" s="166">
+      <c r="I34" s="172"/>
+      <c r="J34" s="172"/>
+      <c r="K34" s="171">
         <f>SUM(AX9:AZ9,AX24:AZ25,AX41:AZ42,AX58:AZ59)</f>
         <v>37</v>
       </c>
-      <c r="L34" s="166"/>
-      <c r="M34" s="166"/>
-      <c r="N34" s="166">
+      <c r="L34" s="171"/>
+      <c r="M34" s="171"/>
+      <c r="N34" s="171">
         <f>SUM(BA9:BC9,BA24:BC25,BA41:BC42,BA58:BC59)</f>
-        <v>39</v>
-      </c>
-      <c r="O34" s="166"/>
-      <c r="P34" s="166"/>
-      <c r="Q34" s="166">
+        <v>42</v>
+      </c>
+      <c r="O34" s="171"/>
+      <c r="P34" s="171"/>
+      <c r="Q34" s="171">
         <f>SUM(BD9:BF9,BD24:BF25,BD41:BF42,BD58:BF59)</f>
         <v>25</v>
       </c>
-      <c r="R34" s="166"/>
-      <c r="S34" s="166"/>
-      <c r="T34" s="162">
+      <c r="R34" s="171"/>
+      <c r="S34" s="171"/>
+      <c r="T34" s="181">
         <f t="shared" ref="T34" si="62">SUM(B34:S35)</f>
-        <v>119</v>
-      </c>
-      <c r="U34" s="161"/>
+        <v>122</v>
+      </c>
+      <c r="U34" s="180"/>
       <c r="AB34" s="31">
         <f>'3_PDC'!T11</f>
         <v>0</v>
@@ -6685,7 +6686,7 @@
         <f>'3_PDC'!Z11</f>
         <v>PDC 4.3</v>
       </c>
-      <c r="AI34" s="169"/>
+      <c r="AI34" s="161"/>
       <c r="AO34">
         <f t="shared" si="59"/>
         <v>0</v>
@@ -6764,27 +6765,27 @@
       </c>
     </row>
     <row r="35" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A35" s="164"/>
-      <c r="B35" s="165"/>
-      <c r="C35" s="165"/>
-      <c r="D35" s="165"/>
-      <c r="E35" s="165"/>
-      <c r="F35" s="165"/>
-      <c r="G35" s="165"/>
-      <c r="H35" s="165"/>
-      <c r="I35" s="165"/>
-      <c r="J35" s="165"/>
-      <c r="K35" s="166"/>
-      <c r="L35" s="166"/>
-      <c r="M35" s="166"/>
-      <c r="N35" s="166"/>
-      <c r="O35" s="166"/>
-      <c r="P35" s="166"/>
-      <c r="Q35" s="166"/>
-      <c r="R35" s="166"/>
-      <c r="S35" s="166"/>
-      <c r="T35" s="162"/>
-      <c r="U35" s="161"/>
+      <c r="A35" s="170"/>
+      <c r="B35" s="172"/>
+      <c r="C35" s="172"/>
+      <c r="D35" s="172"/>
+      <c r="E35" s="172"/>
+      <c r="F35" s="172"/>
+      <c r="G35" s="172"/>
+      <c r="H35" s="172"/>
+      <c r="I35" s="172"/>
+      <c r="J35" s="172"/>
+      <c r="K35" s="171"/>
+      <c r="L35" s="171"/>
+      <c r="M35" s="171"/>
+      <c r="N35" s="171"/>
+      <c r="O35" s="171"/>
+      <c r="P35" s="171"/>
+      <c r="Q35" s="171"/>
+      <c r="R35" s="171"/>
+      <c r="S35" s="171"/>
+      <c r="T35" s="181"/>
+      <c r="U35" s="180"/>
       <c r="AB35" s="47" t="str">
         <f>'3_PDC'!T12</f>
         <v>Cornaglia Alessando</v>
@@ -6813,7 +6814,7 @@
         <f>'3_PDC'!Z12</f>
         <v>PDC 4.4 e 5</v>
       </c>
-      <c r="AI35" s="169">
+      <c r="AI35" s="161">
         <f>'3_PDC'!AA12</f>
         <v>52</v>
       </c>
@@ -6895,50 +6896,50 @@
       </c>
     </row>
     <row r="36" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A36" s="164" t="s">
+      <c r="A36" s="170" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="165">
+      <c r="B36" s="172">
         <f>SUM(AO10:AQ10,AO26:AQ27,AO43:AQ44,AO60:AQ61)</f>
         <v>12</v>
       </c>
-      <c r="C36" s="165"/>
-      <c r="D36" s="165"/>
-      <c r="E36" s="165">
+      <c r="C36" s="172"/>
+      <c r="D36" s="172"/>
+      <c r="E36" s="172">
         <f>SUM(AR10:AT10,AR26:AT27,AR43:AT44,AR60:AT61)</f>
         <v>18</v>
       </c>
-      <c r="F36" s="165"/>
-      <c r="G36" s="165"/>
-      <c r="H36" s="165">
+      <c r="F36" s="172"/>
+      <c r="G36" s="172"/>
+      <c r="H36" s="172">
         <f>SUM(AU10:AW10,AU26:AW27,AU43:AW44,AU60:AW61)</f>
         <v>12</v>
       </c>
-      <c r="I36" s="165"/>
-      <c r="J36" s="165"/>
-      <c r="K36" s="166">
+      <c r="I36" s="172"/>
+      <c r="J36" s="172"/>
+      <c r="K36" s="171">
         <f>SUM(AX10:AZ10,AX26:AZ27,AX43:AZ44,AX60:AZ61)</f>
         <v>51</v>
       </c>
-      <c r="L36" s="166"/>
-      <c r="M36" s="166"/>
-      <c r="N36" s="165">
+      <c r="L36" s="171"/>
+      <c r="M36" s="171"/>
+      <c r="N36" s="172">
         <f>SUM(BA10:BC10,BA26:BC27,BA43:BC44,BA60:BC61)</f>
-        <v>6</v>
-      </c>
-      <c r="O36" s="165"/>
-      <c r="P36" s="165"/>
-      <c r="Q36" s="165">
+        <v>8</v>
+      </c>
+      <c r="O36" s="172"/>
+      <c r="P36" s="172"/>
+      <c r="Q36" s="172">
         <f>SUM(BD10:BF10,BD26:BF27,BD43:BF44,BD60:BF61)</f>
         <v>18</v>
       </c>
-      <c r="R36" s="165"/>
-      <c r="S36" s="165"/>
-      <c r="T36" s="162">
+      <c r="R36" s="172"/>
+      <c r="S36" s="172"/>
+      <c r="T36" s="181">
         <f t="shared" ref="T36" si="63">SUM(B36:S37)</f>
-        <v>117</v>
-      </c>
-      <c r="U36" s="161"/>
+        <v>119</v>
+      </c>
+      <c r="U36" s="180"/>
       <c r="AB36" s="35">
         <f>'3_PDC'!T13</f>
         <v>0</v>
@@ -6967,7 +6968,7 @@
         <f>'3_PDC'!Z13</f>
         <v>PDC 7</v>
       </c>
-      <c r="AI36" s="169"/>
+      <c r="AI36" s="161"/>
       <c r="AO36">
         <f t="shared" si="59"/>
         <v>0</v>
@@ -7046,27 +7047,27 @@
       </c>
     </row>
     <row r="37" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A37" s="164"/>
-      <c r="B37" s="165"/>
-      <c r="C37" s="165"/>
-      <c r="D37" s="165"/>
-      <c r="E37" s="165"/>
-      <c r="F37" s="165"/>
-      <c r="G37" s="165"/>
-      <c r="H37" s="165"/>
-      <c r="I37" s="165"/>
-      <c r="J37" s="165"/>
-      <c r="K37" s="166"/>
-      <c r="L37" s="166"/>
-      <c r="M37" s="166"/>
-      <c r="N37" s="165"/>
-      <c r="O37" s="165"/>
-      <c r="P37" s="165"/>
-      <c r="Q37" s="165"/>
-      <c r="R37" s="165"/>
-      <c r="S37" s="165"/>
-      <c r="T37" s="162"/>
-      <c r="U37" s="161"/>
+      <c r="A37" s="170"/>
+      <c r="B37" s="172"/>
+      <c r="C37" s="172"/>
+      <c r="D37" s="172"/>
+      <c r="E37" s="172"/>
+      <c r="F37" s="172"/>
+      <c r="G37" s="172"/>
+      <c r="H37" s="172"/>
+      <c r="I37" s="172"/>
+      <c r="J37" s="172"/>
+      <c r="K37" s="171"/>
+      <c r="L37" s="171"/>
+      <c r="M37" s="171"/>
+      <c r="N37" s="172"/>
+      <c r="O37" s="172"/>
+      <c r="P37" s="172"/>
+      <c r="Q37" s="172"/>
+      <c r="R37" s="172"/>
+      <c r="S37" s="172"/>
+      <c r="T37" s="181"/>
+      <c r="U37" s="180"/>
       <c r="AB37" s="31" t="str">
         <f>'3_PDC'!T14</f>
         <v>Dalla Pietà Massimo</v>
@@ -7095,7 +7096,7 @@
         <f>'3_PDC'!Z14</f>
         <v>PDC 4.3</v>
       </c>
-      <c r="AI37" s="169">
+      <c r="AI37" s="161">
         <f>'3_PDC'!AA14</f>
         <v>57</v>
       </c>
@@ -7177,50 +7178,50 @@
       </c>
     </row>
     <row r="38" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A38" s="167" t="s">
+      <c r="A38" s="179" t="s">
         <v>14</v>
       </c>
-      <c r="B38" s="165">
+      <c r="B38" s="172">
         <f>SUM(B24:D37)</f>
         <v>82</v>
       </c>
-      <c r="C38" s="165"/>
-      <c r="D38" s="165"/>
-      <c r="E38" s="165">
+      <c r="C38" s="172"/>
+      <c r="D38" s="172"/>
+      <c r="E38" s="172">
         <f t="shared" ref="E38" si="64">SUM(E24:G37)</f>
         <v>69</v>
       </c>
-      <c r="F38" s="165"/>
-      <c r="G38" s="165"/>
-      <c r="H38" s="165">
+      <c r="F38" s="172"/>
+      <c r="G38" s="172"/>
+      <c r="H38" s="172">
         <f>SUM(H24:J37)</f>
         <v>89</v>
       </c>
-      <c r="I38" s="165"/>
-      <c r="J38" s="165"/>
-      <c r="K38" s="165">
+      <c r="I38" s="172"/>
+      <c r="J38" s="172"/>
+      <c r="K38" s="172">
         <f t="shared" ref="K38" si="65">SUM(K24:M37)</f>
-        <v>235</v>
-      </c>
-      <c r="L38" s="165"/>
-      <c r="M38" s="165"/>
-      <c r="N38" s="165">
+        <v>237</v>
+      </c>
+      <c r="L38" s="172"/>
+      <c r="M38" s="172"/>
+      <c r="N38" s="172">
         <f t="shared" ref="N38" si="66">SUM(N24:P37)</f>
-        <v>233</v>
-      </c>
-      <c r="O38" s="165"/>
-      <c r="P38" s="165"/>
-      <c r="Q38" s="165">
+        <v>245</v>
+      </c>
+      <c r="O38" s="172"/>
+      <c r="P38" s="172"/>
+      <c r="Q38" s="172">
         <f>SUM(Q24:S37)</f>
         <v>120</v>
       </c>
-      <c r="R38" s="165"/>
-      <c r="S38" s="165"/>
-      <c r="T38" s="163">
+      <c r="R38" s="172"/>
+      <c r="S38" s="172"/>
+      <c r="T38" s="182">
         <f>SUM(B38:S39)</f>
-        <v>828</v>
-      </c>
-      <c r="U38" s="161"/>
+        <v>842</v>
+      </c>
+      <c r="U38" s="180"/>
       <c r="AB38" s="31">
         <f>'3_PDC'!T15</f>
         <v>0</v>
@@ -7249,7 +7250,7 @@
         <f>'3_PDC'!Z15</f>
         <v>PDC 7</v>
       </c>
-      <c r="AI38" s="169"/>
+      <c r="AI38" s="161"/>
       <c r="AO38">
         <f t="shared" si="59"/>
         <v>0</v>
@@ -7328,27 +7329,27 @@
       </c>
     </row>
     <row r="39" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A39" s="167"/>
-      <c r="B39" s="165"/>
-      <c r="C39" s="165"/>
-      <c r="D39" s="165"/>
-      <c r="E39" s="165"/>
-      <c r="F39" s="165"/>
-      <c r="G39" s="165"/>
-      <c r="H39" s="165"/>
-      <c r="I39" s="165"/>
-      <c r="J39" s="165"/>
-      <c r="K39" s="165"/>
-      <c r="L39" s="165"/>
-      <c r="M39" s="165"/>
-      <c r="N39" s="165"/>
-      <c r="O39" s="165"/>
-      <c r="P39" s="165"/>
-      <c r="Q39" s="165"/>
-      <c r="R39" s="165"/>
-      <c r="S39" s="165"/>
-      <c r="T39" s="163"/>
-      <c r="U39" s="161"/>
+      <c r="A39" s="179"/>
+      <c r="B39" s="172"/>
+      <c r="C39" s="172"/>
+      <c r="D39" s="172"/>
+      <c r="E39" s="172"/>
+      <c r="F39" s="172"/>
+      <c r="G39" s="172"/>
+      <c r="H39" s="172"/>
+      <c r="I39" s="172"/>
+      <c r="J39" s="172"/>
+      <c r="K39" s="172"/>
+      <c r="L39" s="172"/>
+      <c r="M39" s="172"/>
+      <c r="N39" s="172"/>
+      <c r="O39" s="172"/>
+      <c r="P39" s="172"/>
+      <c r="Q39" s="172"/>
+      <c r="R39" s="172"/>
+      <c r="S39" s="172"/>
+      <c r="T39" s="182"/>
+      <c r="U39" s="180"/>
       <c r="AB39" s="47" t="str">
         <f>'3_PDC'!T16</f>
         <v>Braghetto Lorenzo</v>
@@ -7377,7 +7378,7 @@
         <f>'3_PDC'!Z16</f>
         <v>PDC 4.4</v>
       </c>
-      <c r="AI39" s="169">
+      <c r="AI39" s="161">
         <f>'3_PDC'!AA16</f>
         <v>54</v>
       </c>
@@ -7488,7 +7489,7 @@
         <f>'3_PDC'!Z17</f>
         <v>PDC 7</v>
       </c>
-      <c r="AI40" s="169"/>
+      <c r="AI40" s="161"/>
       <c r="AO40">
         <f t="shared" si="59"/>
         <v>0</v>
@@ -7596,7 +7597,7 @@
         <f>'3_PDC'!Z18</f>
         <v>PDC 6</v>
       </c>
-      <c r="AI41" s="169">
+      <c r="AI41" s="161">
         <f>'3_PDC'!AA18</f>
         <v>54</v>
       </c>
@@ -7707,7 +7708,7 @@
         <f>'3_PDC'!Z19</f>
         <v>PDC 3.2, 5 e 7</v>
       </c>
-      <c r="AI42" s="169"/>
+      <c r="AI42" s="161"/>
       <c r="AO42">
         <f t="shared" si="59"/>
         <v>0</v>
@@ -7815,7 +7816,7 @@
         <f>'3_PDC'!Z20</f>
         <v>PDC 4.3</v>
       </c>
-      <c r="AI43" s="169">
+      <c r="AI43" s="161">
         <f>'3_PDC'!AA20</f>
         <v>52</v>
       </c>
@@ -7926,7 +7927,7 @@
         <f>'3_PDC'!Z21</f>
         <v>PDC 7</v>
       </c>
-      <c r="AI44" s="182"/>
+      <c r="AI44" s="162"/>
       <c r="AO44">
         <f t="shared" si="59"/>
         <v>0</v>
@@ -8019,19 +8020,19 @@
       <c r="AB46" s="149" t="s">
         <v>128</v>
       </c>
-      <c r="AC46" s="177" t="str">
+      <c r="AC46" s="163" t="str">
         <f>'4_VV'!U3</f>
         <v>I Periodo</v>
       </c>
-      <c r="AD46" s="178"/>
-      <c r="AE46" s="179"/>
-      <c r="AF46" s="177" t="str">
+      <c r="AD46" s="164"/>
+      <c r="AE46" s="165"/>
+      <c r="AF46" s="163" t="str">
         <f>'4_VV'!X3</f>
         <v>II Periodo</v>
       </c>
-      <c r="AG46" s="178"/>
-      <c r="AH46" s="180"/>
-      <c r="AI46" s="173" t="str">
+      <c r="AG46" s="164"/>
+      <c r="AH46" s="166"/>
+      <c r="AI46" s="167" t="str">
         <f>'4_VV'!AA3</f>
         <v>Totale</v>
       </c>
@@ -8071,7 +8072,7 @@
         <f>'4_VV'!Z4</f>
         <v>Fase</v>
       </c>
-      <c r="AI47" s="174"/>
+      <c r="AI47" s="168"/>
       <c r="BG47" s="158">
         <f t="shared" si="19"/>
         <v>0</v>
@@ -8107,7 +8108,7 @@
         <f>'4_VV'!Z5</f>
         <v>VV 3.2</v>
       </c>
-      <c r="AI48" s="181">
+      <c r="AI48" s="169">
         <f>'4_VV'!AA5</f>
         <v>18</v>
       </c>
@@ -8221,7 +8222,7 @@
         <f>'4_VV'!Z6</f>
         <v>0</v>
       </c>
-      <c r="AI49" s="169"/>
+      <c r="AI49" s="161"/>
       <c r="AO49">
         <f>IF($AC49=AO$2,$AD49,0)</f>
         <v>0</v>
@@ -8328,7 +8329,7 @@
         <f>'4_VV'!Z7</f>
         <v>VV 3.2</v>
       </c>
-      <c r="AI50" s="169">
+      <c r="AI50" s="161">
         <f>'4_VV'!AA7</f>
         <v>18</v>
       </c>
@@ -8450,7 +8451,7 @@
         <f>'4_VV'!Z8</f>
         <v>VV 3.2</v>
       </c>
-      <c r="AI51" s="169"/>
+      <c r="AI51" s="161"/>
       <c r="AO51">
         <f t="shared" si="82"/>
         <v>0</v>
@@ -8571,7 +8572,7 @@
         <f>'4_VV'!Z9</f>
         <v>VV 3.1</v>
       </c>
-      <c r="AI52" s="169">
+      <c r="AI52" s="161">
         <f>'4_VV'!AA9</f>
         <v>18</v>
       </c>
@@ -8695,7 +8696,7 @@
         <f>'4_VV'!Z10</f>
         <v>0</v>
       </c>
-      <c r="AI53" s="169"/>
+      <c r="AI53" s="161"/>
       <c r="AO53">
         <f t="shared" si="82"/>
         <v>0</v>
@@ -8816,7 +8817,7 @@
         <f>'4_VV'!Z11</f>
         <v>VV 3.1</v>
       </c>
-      <c r="AI54" s="169">
+      <c r="AI54" s="161">
         <f>'4_VV'!AA11</f>
         <v>18</v>
       </c>
@@ -8903,11 +8904,11 @@
       </c>
       <c r="U55" s="16">
         <f>K38</f>
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="V55" s="17">
         <f t="shared" si="85"/>
-        <v>3525</v>
+        <v>3555</v>
       </c>
       <c r="W55">
         <v>15</v>
@@ -8940,7 +8941,7 @@
         <f>'4_VV'!Z12</f>
         <v>0</v>
       </c>
-      <c r="AI55" s="169"/>
+      <c r="AI55" s="161"/>
       <c r="AO55">
         <f t="shared" si="82"/>
         <v>0</v>
@@ -9024,11 +9025,11 @@
       </c>
       <c r="U56" s="16">
         <f>N38</f>
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="V56" s="17">
         <f t="shared" si="85"/>
-        <v>5126</v>
+        <v>5390</v>
       </c>
       <c r="W56">
         <v>22</v>
@@ -9061,7 +9062,7 @@
         <f>'4_VV'!Z13</f>
         <v>VV 3.1</v>
       </c>
-      <c r="AI56" s="169">
+      <c r="AI56" s="161">
         <f>'4_VV'!AA13</f>
         <v>18</v>
       </c>
@@ -9185,7 +9186,7 @@
         <f>'4_VV'!Z14</f>
         <v>0</v>
       </c>
-      <c r="AI57" s="169"/>
+      <c r="AI57" s="161"/>
       <c r="AO57">
         <f t="shared" si="82"/>
         <v>0</v>
@@ -9269,11 +9270,11 @@
       </c>
       <c r="U58" s="3">
         <f>SUM(U52:U57)</f>
-        <v>828</v>
+        <v>842</v>
       </c>
       <c r="V58" s="25">
         <f>SUM(V52:V57)</f>
-        <v>16516</v>
+        <v>16810</v>
       </c>
       <c r="AB58" s="31" t="str">
         <f>'4_VV'!T15</f>
@@ -9303,7 +9304,7 @@
         <f>'4_VV'!Z15</f>
         <v>VV 3.1</v>
       </c>
-      <c r="AI58" s="169">
+      <c r="AI58" s="161">
         <f>'4_VV'!AA15</f>
         <v>18</v>
       </c>
@@ -9413,7 +9414,7 @@
         <f>'4_VV'!Z16</f>
         <v>0</v>
       </c>
-      <c r="AI59" s="169"/>
+      <c r="AI59" s="161"/>
       <c r="AO59">
         <f t="shared" si="82"/>
         <v>0</v>
@@ -9520,7 +9521,7 @@
         <f>'4_VV'!Z17</f>
         <v>VV 3.1</v>
       </c>
-      <c r="AI60" s="169">
+      <c r="AI60" s="161">
         <f>'4_VV'!AA17</f>
         <v>16</v>
       </c>
@@ -9630,7 +9631,7 @@
         <f>'4_VV'!Z18</f>
         <v>0</v>
       </c>
-      <c r="AI61" s="182"/>
+      <c r="AI61" s="162"/>
       <c r="AO61">
         <f t="shared" si="82"/>
         <v>0</v>
@@ -9710,69 +9711,22 @@
     </row>
   </sheetData>
   <mergeCells count="112">
-    <mergeCell ref="AI43:AI44"/>
-    <mergeCell ref="AC46:AE46"/>
-    <mergeCell ref="AF46:AH46"/>
-    <mergeCell ref="AI46:AI47"/>
-    <mergeCell ref="AI60:AI61"/>
-    <mergeCell ref="AI48:AI49"/>
-    <mergeCell ref="AI50:AI51"/>
-    <mergeCell ref="AI52:AI53"/>
-    <mergeCell ref="AI54:AI55"/>
-    <mergeCell ref="AI56:AI57"/>
-    <mergeCell ref="AI58:AI59"/>
-    <mergeCell ref="AI41:AI42"/>
-    <mergeCell ref="AL24:AL25"/>
-    <mergeCell ref="AL26:AL27"/>
-    <mergeCell ref="AC29:AE29"/>
-    <mergeCell ref="AF29:AH29"/>
-    <mergeCell ref="AI29:AI30"/>
-    <mergeCell ref="AI31:AI32"/>
-    <mergeCell ref="AI33:AI34"/>
-    <mergeCell ref="AI35:AI36"/>
-    <mergeCell ref="AI37:AI38"/>
-    <mergeCell ref="AI39:AI40"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="H24:J25"/>
-    <mergeCell ref="E24:G25"/>
-    <mergeCell ref="B24:D25"/>
-    <mergeCell ref="AL22:AL23"/>
-    <mergeCell ref="AC2:AE2"/>
-    <mergeCell ref="AF2:AH2"/>
-    <mergeCell ref="AI2:AI3"/>
-    <mergeCell ref="AC12:AE12"/>
-    <mergeCell ref="AF12:AH12"/>
-    <mergeCell ref="AI12:AK12"/>
-    <mergeCell ref="AL12:AL13"/>
-    <mergeCell ref="AL14:AL15"/>
-    <mergeCell ref="AL16:AL17"/>
-    <mergeCell ref="AL18:AL19"/>
-    <mergeCell ref="AL20:AL21"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:D27"/>
-    <mergeCell ref="E26:G27"/>
-    <mergeCell ref="H26:J27"/>
-    <mergeCell ref="K26:M27"/>
-    <mergeCell ref="E30:G31"/>
-    <mergeCell ref="H30:J31"/>
-    <mergeCell ref="K30:M31"/>
-    <mergeCell ref="N26:P27"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="Q23:S23"/>
-    <mergeCell ref="N23:P23"/>
-    <mergeCell ref="K23:M23"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="K32:M33"/>
-    <mergeCell ref="N32:P33"/>
-    <mergeCell ref="Q32:S33"/>
-    <mergeCell ref="Q24:S25"/>
-    <mergeCell ref="N24:P25"/>
-    <mergeCell ref="K24:M25"/>
-    <mergeCell ref="B32:D33"/>
-    <mergeCell ref="E32:G33"/>
-    <mergeCell ref="H32:J33"/>
-    <mergeCell ref="Q26:S27"/>
+    <mergeCell ref="U38:U39"/>
+    <mergeCell ref="U34:U35"/>
+    <mergeCell ref="U32:U33"/>
+    <mergeCell ref="U30:U31"/>
+    <mergeCell ref="U28:U29"/>
+    <mergeCell ref="U26:U27"/>
+    <mergeCell ref="U24:U25"/>
+    <mergeCell ref="U36:U37"/>
+    <mergeCell ref="T26:T27"/>
+    <mergeCell ref="T24:T25"/>
+    <mergeCell ref="T34:T35"/>
+    <mergeCell ref="T32:T33"/>
+    <mergeCell ref="T30:T31"/>
+    <mergeCell ref="T28:T29"/>
+    <mergeCell ref="T38:T39"/>
+    <mergeCell ref="T36:T37"/>
     <mergeCell ref="A38:A39"/>
     <mergeCell ref="B38:D39"/>
     <mergeCell ref="E38:G39"/>
@@ -9797,31 +9751,78 @@
     <mergeCell ref="N36:P37"/>
     <mergeCell ref="Q36:S37"/>
     <mergeCell ref="Q34:S35"/>
+    <mergeCell ref="K32:M33"/>
+    <mergeCell ref="N32:P33"/>
+    <mergeCell ref="Q32:S33"/>
+    <mergeCell ref="Q24:S25"/>
+    <mergeCell ref="N24:P25"/>
+    <mergeCell ref="K24:M25"/>
+    <mergeCell ref="B32:D33"/>
+    <mergeCell ref="E32:G33"/>
+    <mergeCell ref="H32:J33"/>
+    <mergeCell ref="Q26:S27"/>
     <mergeCell ref="K28:M29"/>
     <mergeCell ref="N28:P29"/>
     <mergeCell ref="Q28:S29"/>
-    <mergeCell ref="A30:A31"/>
     <mergeCell ref="B30:D31"/>
-    <mergeCell ref="A28:A29"/>
     <mergeCell ref="B28:D29"/>
     <mergeCell ref="E28:G29"/>
     <mergeCell ref="H28:J29"/>
-    <mergeCell ref="U38:U39"/>
-    <mergeCell ref="U34:U35"/>
-    <mergeCell ref="U32:U33"/>
-    <mergeCell ref="U30:U31"/>
-    <mergeCell ref="U28:U29"/>
-    <mergeCell ref="U26:U27"/>
-    <mergeCell ref="U24:U25"/>
-    <mergeCell ref="U36:U37"/>
-    <mergeCell ref="T26:T27"/>
-    <mergeCell ref="T24:T25"/>
-    <mergeCell ref="T34:T35"/>
-    <mergeCell ref="T32:T33"/>
-    <mergeCell ref="T30:T31"/>
-    <mergeCell ref="T28:T29"/>
-    <mergeCell ref="T38:T39"/>
-    <mergeCell ref="T36:T37"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:D27"/>
+    <mergeCell ref="E26:G27"/>
+    <mergeCell ref="H26:J27"/>
+    <mergeCell ref="K26:M27"/>
+    <mergeCell ref="E30:G31"/>
+    <mergeCell ref="H30:J31"/>
+    <mergeCell ref="K30:M31"/>
+    <mergeCell ref="N26:P27"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="H24:J25"/>
+    <mergeCell ref="E24:G25"/>
+    <mergeCell ref="B24:D25"/>
+    <mergeCell ref="AL22:AL23"/>
+    <mergeCell ref="AC2:AE2"/>
+    <mergeCell ref="AF2:AH2"/>
+    <mergeCell ref="AI2:AI3"/>
+    <mergeCell ref="AC12:AE12"/>
+    <mergeCell ref="AF12:AH12"/>
+    <mergeCell ref="AI12:AK12"/>
+    <mergeCell ref="AL12:AL13"/>
+    <mergeCell ref="AL14:AL15"/>
+    <mergeCell ref="AL16:AL17"/>
+    <mergeCell ref="AL18:AL19"/>
+    <mergeCell ref="AL20:AL21"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="Q23:S23"/>
+    <mergeCell ref="N23:P23"/>
+    <mergeCell ref="K23:M23"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="AI41:AI42"/>
+    <mergeCell ref="AL24:AL25"/>
+    <mergeCell ref="AL26:AL27"/>
+    <mergeCell ref="AC29:AE29"/>
+    <mergeCell ref="AF29:AH29"/>
+    <mergeCell ref="AI29:AI30"/>
+    <mergeCell ref="AI31:AI32"/>
+    <mergeCell ref="AI33:AI34"/>
+    <mergeCell ref="AI35:AI36"/>
+    <mergeCell ref="AI37:AI38"/>
+    <mergeCell ref="AI39:AI40"/>
+    <mergeCell ref="AI43:AI44"/>
+    <mergeCell ref="AC46:AE46"/>
+    <mergeCell ref="AF46:AH46"/>
+    <mergeCell ref="AI46:AI47"/>
+    <mergeCell ref="AI60:AI61"/>
+    <mergeCell ref="AI48:AI49"/>
+    <mergeCell ref="AI50:AI51"/>
+    <mergeCell ref="AI52:AI53"/>
+    <mergeCell ref="AI54:AI55"/>
+    <mergeCell ref="AI56:AI57"/>
+    <mergeCell ref="AI58:AI59"/>
   </mergeCells>
   <conditionalFormatting sqref="AB14:AL27">
     <cfRule type="cellIs" dxfId="23" priority="5" operator="equal">
@@ -9856,7 +9857,7 @@
   <dimension ref="A1:BH61"/>
   <sheetViews>
     <sheetView topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28:D29"/>
+      <selection activeCell="T38" sqref="B24:T39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9932,13 +9933,13 @@
         <v>74</v>
       </c>
       <c r="AB2" s="149"/>
-      <c r="AC2" s="170"/>
-      <c r="AD2" s="171"/>
-      <c r="AE2" s="172"/>
-      <c r="AF2" s="170"/>
-      <c r="AG2" s="171"/>
-      <c r="AH2" s="171"/>
-      <c r="AI2" s="173"/>
+      <c r="AC2" s="173"/>
+      <c r="AD2" s="174"/>
+      <c r="AE2" s="175"/>
+      <c r="AF2" s="173"/>
+      <c r="AG2" s="174"/>
+      <c r="AH2" s="174"/>
+      <c r="AI2" s="167"/>
       <c r="AJ2">
         <f>SUM(AI4:AI10)</f>
         <v>0</v>
@@ -10028,7 +10029,7 @@
       <c r="AF3" s="104"/>
       <c r="AG3" s="105"/>
       <c r="AH3" s="107"/>
-      <c r="AI3" s="174"/>
+      <c r="AI3" s="168"/>
     </row>
     <row r="4" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A4" s="147"/>
@@ -10641,25 +10642,25 @@
       <c r="AB12" s="149" t="s">
         <v>126</v>
       </c>
-      <c r="AC12" s="170" t="str">
+      <c r="AC12" s="173" t="str">
         <f>'2_PA'!V9</f>
         <v>I Periodo</v>
       </c>
-      <c r="AD12" s="175"/>
-      <c r="AE12" s="176"/>
-      <c r="AF12" s="177" t="str">
+      <c r="AD12" s="176"/>
+      <c r="AE12" s="177"/>
+      <c r="AF12" s="163" t="str">
         <f>'2_PA'!Y9</f>
         <v>II Periodo</v>
       </c>
-      <c r="AG12" s="178"/>
-      <c r="AH12" s="179"/>
-      <c r="AI12" s="177" t="str">
+      <c r="AG12" s="164"/>
+      <c r="AH12" s="165"/>
+      <c r="AI12" s="163" t="str">
         <f>'2_PA'!AB9</f>
         <v>III Periodo</v>
       </c>
-      <c r="AJ12" s="178"/>
-      <c r="AK12" s="180"/>
-      <c r="AL12" s="173" t="str">
+      <c r="AJ12" s="164"/>
+      <c r="AK12" s="166"/>
+      <c r="AL12" s="167" t="str">
         <f>'2_PA'!AE9</f>
         <v>Totale</v>
       </c>
@@ -10706,10 +10707,10 @@
         <f>'2_PA'!AD10</f>
         <v>Fase</v>
       </c>
-      <c r="AL13" s="174"/>
+      <c r="AL13" s="168"/>
       <c r="AM13">
         <f>SUM(AL14:AL27)</f>
-        <v>193</v>
+        <v>207</v>
       </c>
       <c r="BG13" s="158">
         <f t="shared" si="13"/>
@@ -10739,7 +10740,7 @@
       </c>
       <c r="AG14" s="33">
         <f>'2_PA'!Z11</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AH14" s="34" t="str">
         <f>'2_PA'!AA11</f>
@@ -10757,9 +10758,9 @@
         <f>'2_PA'!AD11</f>
         <v>PA 3.2</v>
       </c>
-      <c r="AL14" s="181">
+      <c r="AL14" s="169">
         <f>'2_PA'!AE11</f>
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AO14">
         <f>IF($AC14=AO$2,$AD14,0)</f>
@@ -10815,7 +10816,7 @@
       </c>
       <c r="BB14">
         <f t="shared" ref="BB14:BB15" si="24">IF($AF14=BB$2,$AG14,0)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BC14">
         <f t="shared" ref="BC14:BC15" si="25">IF($AI14=BC$2,$AJ14,0)</f>
@@ -10835,11 +10836,11 @@
       </c>
       <c r="BG14" s="158">
         <f t="shared" si="13"/>
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="BH14">
         <f>SUM(AO14:BF27)</f>
-        <v>193</v>
+        <v>207</v>
       </c>
     </row>
     <row r="15" spans="1:60" x14ac:dyDescent="0.25">
@@ -10883,7 +10884,7 @@
         <f>'2_PA'!AD12</f>
         <v>0</v>
       </c>
-      <c r="AL15" s="169"/>
+      <c r="AL15" s="161"/>
       <c r="AO15">
         <f>IF($AC15=AO$2,$AD15,0)</f>
         <v>0</v>
@@ -10984,7 +10985,7 @@
       </c>
       <c r="AG16" s="33">
         <f>'2_PA'!Z13</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AH16" s="34" t="str">
         <f>'2_PA'!AA13</f>
@@ -11002,9 +11003,9 @@
         <f>'2_PA'!AD13</f>
         <v>PA 3.2</v>
       </c>
-      <c r="AL16" s="169">
+      <c r="AL16" s="161">
         <f>'2_PA'!AE13</f>
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AO16">
         <f t="shared" ref="AO16:AO27" si="29">IF($AC16=AO$2,$AD16,0)</f>
@@ -11048,7 +11049,7 @@
       </c>
       <c r="AY16">
         <f t="shared" si="15"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AZ16">
         <f t="shared" si="16"/>
@@ -11080,7 +11081,7 @@
       </c>
       <c r="BG16" s="158">
         <f t="shared" si="13"/>
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:60" x14ac:dyDescent="0.25">
@@ -11124,7 +11125,7 @@
         <f>'2_PA'!AD14</f>
         <v>0</v>
       </c>
-      <c r="AL17" s="169"/>
+      <c r="AL17" s="161"/>
       <c r="AO17">
         <f t="shared" si="29"/>
         <v>0</v>
@@ -11225,7 +11226,7 @@
       </c>
       <c r="AG18" s="49">
         <f>'2_PA'!Z15</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AH18" s="87" t="str">
         <f>'2_PA'!AA15</f>
@@ -11243,9 +11244,9 @@
         <f>'2_PA'!AD15</f>
         <v>PA 3.3</v>
       </c>
-      <c r="AL18" s="169">
+      <c r="AL18" s="161">
         <f>'2_PA'!AE15</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AO18">
         <f t="shared" si="29"/>
@@ -11301,7 +11302,7 @@
       </c>
       <c r="BB18">
         <f t="shared" si="15"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BC18">
         <f t="shared" si="16"/>
@@ -11321,7 +11322,7 @@
       </c>
       <c r="BG18" s="158">
         <f t="shared" si="13"/>
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:60" x14ac:dyDescent="0.25">
@@ -11365,7 +11366,7 @@
         <f>'2_PA'!AD16</f>
         <v>PA 6.1</v>
       </c>
-      <c r="AL19" s="169"/>
+      <c r="AL19" s="161"/>
       <c r="AO19">
         <f t="shared" si="29"/>
         <v>0</v>
@@ -11466,7 +11467,7 @@
       </c>
       <c r="AG20" s="49">
         <f>'2_PA'!Z17</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AH20" s="50" t="str">
         <f>'2_PA'!AA17</f>
@@ -11484,9 +11485,9 @@
         <f>'2_PA'!AD17</f>
         <v>PA 3.3</v>
       </c>
-      <c r="AL20" s="169">
+      <c r="AL20" s="161">
         <f>'2_PA'!AE17</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AO20">
         <f t="shared" si="29"/>
@@ -11542,7 +11543,7 @@
       </c>
       <c r="BB20">
         <f t="shared" si="15"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BC20">
         <f t="shared" si="16"/>
@@ -11562,7 +11563,7 @@
       </c>
       <c r="BG20" s="158">
         <f t="shared" si="13"/>
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:60" x14ac:dyDescent="0.25">
@@ -11606,7 +11607,7 @@
         <f>'2_PA'!AD18</f>
         <v>PA 6.2</v>
       </c>
-      <c r="AL21" s="169"/>
+      <c r="AL21" s="161"/>
       <c r="AO21">
         <f t="shared" si="29"/>
         <v>0</v>
@@ -11707,7 +11708,7 @@
       </c>
       <c r="AG22" s="49">
         <f>'2_PA'!Z19</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AH22" s="50" t="str">
         <f>'2_PA'!AA19</f>
@@ -11725,9 +11726,9 @@
         <f>'2_PA'!AD19</f>
         <v>PA 5.1</v>
       </c>
-      <c r="AL22" s="169">
+      <c r="AL22" s="161">
         <f>'2_PA'!AE19</f>
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AO22">
         <f t="shared" si="29"/>
@@ -11783,7 +11784,7 @@
       </c>
       <c r="BB22">
         <f t="shared" si="15"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BC22">
         <f t="shared" si="16"/>
@@ -11803,43 +11804,43 @@
       </c>
       <c r="BG22" s="158">
         <f t="shared" si="13"/>
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A23" s="156" t="s">
         <v>0</v>
       </c>
-      <c r="B23" s="168" t="s">
+      <c r="B23" s="178" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="168"/>
-      <c r="D23" s="168"/>
-      <c r="E23" s="168" t="s">
+      <c r="C23" s="178"/>
+      <c r="D23" s="178"/>
+      <c r="E23" s="178" t="s">
         <v>2</v>
       </c>
-      <c r="F23" s="168"/>
-      <c r="G23" s="168"/>
-      <c r="H23" s="168" t="s">
+      <c r="F23" s="178"/>
+      <c r="G23" s="178"/>
+      <c r="H23" s="178" t="s">
         <v>3</v>
       </c>
-      <c r="I23" s="168"/>
-      <c r="J23" s="168"/>
-      <c r="K23" s="168" t="s">
+      <c r="I23" s="178"/>
+      <c r="J23" s="178"/>
+      <c r="K23" s="178" t="s">
         <v>4</v>
       </c>
-      <c r="L23" s="168"/>
-      <c r="M23" s="168"/>
-      <c r="N23" s="168" t="s">
+      <c r="L23" s="178"/>
+      <c r="M23" s="178"/>
+      <c r="N23" s="178" t="s">
         <v>5</v>
       </c>
-      <c r="O23" s="168"/>
-      <c r="P23" s="168"/>
-      <c r="Q23" s="168" t="s">
+      <c r="O23" s="178"/>
+      <c r="P23" s="178"/>
+      <c r="Q23" s="178" t="s">
         <v>6</v>
       </c>
-      <c r="R23" s="168"/>
-      <c r="S23" s="168"/>
+      <c r="R23" s="178"/>
+      <c r="S23" s="178"/>
       <c r="T23" s="156" t="s">
         <v>14</v>
       </c>
@@ -11884,7 +11885,7 @@
         <f>'2_PA'!AD20</f>
         <v>0</v>
       </c>
-      <c r="AL23" s="169"/>
+      <c r="AL23" s="161"/>
       <c r="AO23">
         <f t="shared" si="29"/>
         <v>0</v>
@@ -11963,50 +11964,50 @@
       </c>
     </row>
     <row r="24" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A24" s="164" t="s">
+      <c r="A24" s="170" t="s">
         <v>7</v>
       </c>
-      <c r="B24" s="165">
+      <c r="B24" s="172">
         <f>SUM(AO4:AQ4,AO14:AQ15,AO31:AQ32,AO48:AQ49)</f>
         <v>4</v>
       </c>
-      <c r="C24" s="165"/>
-      <c r="D24" s="165"/>
-      <c r="E24" s="165">
+      <c r="C24" s="172"/>
+      <c r="D24" s="172"/>
+      <c r="E24" s="172">
         <f>SUM(AR4:AT4,AR14:AT15,AR31:AT32,AR48:AT49)</f>
         <v>10</v>
       </c>
-      <c r="F24" s="165"/>
-      <c r="G24" s="165"/>
-      <c r="H24" s="166">
+      <c r="F24" s="172"/>
+      <c r="G24" s="172"/>
+      <c r="H24" s="171">
         <f>SUM(AU4:AW4,AU14:AW15,AU31:AW32,AU48:AW49)</f>
         <v>12</v>
       </c>
-      <c r="I24" s="166"/>
-      <c r="J24" s="166"/>
-      <c r="K24" s="165">
+      <c r="I24" s="171"/>
+      <c r="J24" s="171"/>
+      <c r="K24" s="172">
         <f>SUM(AX4:AZ4,AX14:AZ15,AX31:AZ32,AX48:AZ49)</f>
         <v>10</v>
       </c>
-      <c r="L24" s="165"/>
-      <c r="M24" s="165"/>
-      <c r="N24" s="166">
+      <c r="L24" s="172"/>
+      <c r="M24" s="172"/>
+      <c r="N24" s="171">
         <f>SUM(BA4:BC4,BA14:BC15,BA31:BC32,BA48:BC49)</f>
-        <v>57</v>
-      </c>
-      <c r="O24" s="166"/>
-      <c r="P24" s="166"/>
-      <c r="Q24" s="165">
+        <v>59</v>
+      </c>
+      <c r="O24" s="171"/>
+      <c r="P24" s="171"/>
+      <c r="Q24" s="172">
         <f>SUM(BD4:BF4,BD14:BF15,BD31:BF32,BD48:BF49)</f>
         <v>4</v>
       </c>
-      <c r="R24" s="165"/>
-      <c r="S24" s="165"/>
-      <c r="T24" s="165">
+      <c r="R24" s="172"/>
+      <c r="S24" s="172"/>
+      <c r="T24" s="172">
         <f t="shared" ref="T24" si="32">SUM(B24:S25)</f>
-        <v>97</v>
-      </c>
-      <c r="U24" s="161"/>
+        <v>99</v>
+      </c>
+      <c r="U24" s="180"/>
       <c r="AB24" s="31" t="str">
         <f>'2_PA'!U21</f>
         <v>Quadrio Giacomo</v>
@@ -12029,7 +12030,7 @@
       </c>
       <c r="AG24" s="33">
         <f>'2_PA'!Z21</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AH24" s="84" t="str">
         <f>'2_PA'!AA21</f>
@@ -12047,9 +12048,9 @@
         <f>'2_PA'!AD21</f>
         <v>PA 5.1, 6.2</v>
       </c>
-      <c r="AL24" s="169">
+      <c r="AL24" s="161">
         <f>'2_PA'!AE21</f>
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AO24">
         <f t="shared" si="29"/>
@@ -12105,7 +12106,7 @@
       </c>
       <c r="BB24">
         <f t="shared" si="15"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BC24">
         <f t="shared" si="16"/>
@@ -12125,31 +12126,31 @@
       </c>
       <c r="BG24" s="158">
         <f t="shared" si="13"/>
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A25" s="164"/>
-      <c r="B25" s="165"/>
-      <c r="C25" s="165"/>
-      <c r="D25" s="165"/>
-      <c r="E25" s="165"/>
-      <c r="F25" s="165"/>
-      <c r="G25" s="165"/>
-      <c r="H25" s="166"/>
-      <c r="I25" s="166"/>
-      <c r="J25" s="166"/>
-      <c r="K25" s="165"/>
-      <c r="L25" s="165"/>
-      <c r="M25" s="165"/>
-      <c r="N25" s="166"/>
-      <c r="O25" s="166"/>
-      <c r="P25" s="166"/>
-      <c r="Q25" s="165"/>
-      <c r="R25" s="165"/>
-      <c r="S25" s="165"/>
-      <c r="T25" s="165"/>
-      <c r="U25" s="161"/>
+      <c r="A25" s="170"/>
+      <c r="B25" s="172"/>
+      <c r="C25" s="172"/>
+      <c r="D25" s="172"/>
+      <c r="E25" s="172"/>
+      <c r="F25" s="172"/>
+      <c r="G25" s="172"/>
+      <c r="H25" s="171"/>
+      <c r="I25" s="171"/>
+      <c r="J25" s="171"/>
+      <c r="K25" s="172"/>
+      <c r="L25" s="172"/>
+      <c r="M25" s="172"/>
+      <c r="N25" s="171"/>
+      <c r="O25" s="171"/>
+      <c r="P25" s="171"/>
+      <c r="Q25" s="172"/>
+      <c r="R25" s="172"/>
+      <c r="S25" s="172"/>
+      <c r="T25" s="172"/>
+      <c r="U25" s="180"/>
       <c r="AB25" s="31">
         <f>'2_PA'!U22</f>
         <v>0</v>
@@ -12190,7 +12191,7 @@
         <f>'2_PA'!AD22</f>
         <v>0</v>
       </c>
-      <c r="AL25" s="169"/>
+      <c r="AL25" s="161"/>
       <c r="AO25">
         <f t="shared" si="29"/>
         <v>0</v>
@@ -12269,50 +12270,50 @@
       </c>
     </row>
     <row r="26" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A26" s="164" t="s">
+      <c r="A26" s="170" t="s">
         <v>11</v>
       </c>
-      <c r="B26" s="165">
+      <c r="B26" s="172">
         <f>SUM(AO5:AQ5,AO16:AQ17,AO33:AQ34,AO50:AQ51)</f>
         <v>13</v>
       </c>
-      <c r="C26" s="165"/>
-      <c r="D26" s="165"/>
-      <c r="E26" s="165">
+      <c r="C26" s="172"/>
+      <c r="D26" s="172"/>
+      <c r="E26" s="172">
         <f>SUM(AR5:AT5,AR16:AT17,AR33:AT34,AR50:AT51)</f>
         <v>10</v>
       </c>
-      <c r="F26" s="165"/>
-      <c r="G26" s="165"/>
-      <c r="H26" s="165">
+      <c r="F26" s="172"/>
+      <c r="G26" s="172"/>
+      <c r="H26" s="172">
         <f>SUM(AU5:AW5,AU16:AW17,AU33:AW34,AU50:AW51)</f>
         <v>0</v>
       </c>
-      <c r="I26" s="165"/>
-      <c r="J26" s="165"/>
-      <c r="K26" s="166">
+      <c r="I26" s="172"/>
+      <c r="J26" s="172"/>
+      <c r="K26" s="171">
         <f>SUM(AX5:AZ5,AX16:AZ17,AX33:AZ34,AX50:AZ51)</f>
-        <v>33</v>
-      </c>
-      <c r="L26" s="166"/>
-      <c r="M26" s="166"/>
-      <c r="N26" s="165">
+        <v>35</v>
+      </c>
+      <c r="L26" s="171"/>
+      <c r="M26" s="171"/>
+      <c r="N26" s="172">
         <f>SUM(BA5:BC5,BA16:BC17,BA33:BC34,BA50:BC51)</f>
         <v>29</v>
       </c>
-      <c r="O26" s="165"/>
-      <c r="P26" s="165"/>
-      <c r="Q26" s="165">
+      <c r="O26" s="172"/>
+      <c r="P26" s="172"/>
+      <c r="Q26" s="172">
         <f>SUM(BD5:BF5,BD16:BF17,BD33:BF34,BD50:BF51)</f>
         <v>12</v>
       </c>
-      <c r="R26" s="165"/>
-      <c r="S26" s="165"/>
-      <c r="T26" s="165">
+      <c r="R26" s="172"/>
+      <c r="S26" s="172"/>
+      <c r="T26" s="172">
         <f t="shared" ref="T26" si="33">SUM(B26:S27)</f>
-        <v>97</v>
-      </c>
-      <c r="U26" s="161"/>
+        <v>99</v>
+      </c>
+      <c r="U26" s="180"/>
       <c r="AB26" s="47" t="str">
         <f>'2_PA'!U23</f>
         <v>Maggiolo Giorgio</v>
@@ -12335,7 +12336,7 @@
       </c>
       <c r="AG26" s="49">
         <f>'2_PA'!Z23</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AH26" s="50" t="str">
         <f>'2_PA'!AA23</f>
@@ -12353,9 +12354,9 @@
         <f>'2_PA'!AD23</f>
         <v>PA 3.3</v>
       </c>
-      <c r="AL26" s="169">
+      <c r="AL26" s="161">
         <f>'2_PA'!AE23</f>
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="AO26">
         <f t="shared" si="29"/>
@@ -12411,7 +12412,7 @@
       </c>
       <c r="BB26">
         <f t="shared" si="15"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BC26">
         <f t="shared" si="16"/>
@@ -12431,31 +12432,31 @@
       </c>
       <c r="BG26" s="158">
         <f t="shared" si="13"/>
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:60" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="164"/>
-      <c r="B27" s="165"/>
-      <c r="C27" s="165"/>
-      <c r="D27" s="165"/>
-      <c r="E27" s="165"/>
-      <c r="F27" s="165"/>
-      <c r="G27" s="165"/>
-      <c r="H27" s="165"/>
-      <c r="I27" s="165"/>
-      <c r="J27" s="165"/>
-      <c r="K27" s="166"/>
-      <c r="L27" s="166"/>
-      <c r="M27" s="166"/>
-      <c r="N27" s="165"/>
-      <c r="O27" s="165"/>
-      <c r="P27" s="165"/>
-      <c r="Q27" s="165"/>
-      <c r="R27" s="165"/>
-      <c r="S27" s="165"/>
-      <c r="T27" s="165"/>
-      <c r="U27" s="161"/>
+      <c r="A27" s="170"/>
+      <c r="B27" s="172"/>
+      <c r="C27" s="172"/>
+      <c r="D27" s="172"/>
+      <c r="E27" s="172"/>
+      <c r="F27" s="172"/>
+      <c r="G27" s="172"/>
+      <c r="H27" s="172"/>
+      <c r="I27" s="172"/>
+      <c r="J27" s="172"/>
+      <c r="K27" s="171"/>
+      <c r="L27" s="171"/>
+      <c r="M27" s="171"/>
+      <c r="N27" s="172"/>
+      <c r="O27" s="172"/>
+      <c r="P27" s="172"/>
+      <c r="Q27" s="172"/>
+      <c r="R27" s="172"/>
+      <c r="S27" s="172"/>
+      <c r="T27" s="172"/>
+      <c r="U27" s="180"/>
       <c r="AB27" s="63">
         <f>'2_PA'!U24</f>
         <v>0</v>
@@ -12496,7 +12497,7 @@
         <f>'2_PA'!AD24</f>
         <v>PA 5.1</v>
       </c>
-      <c r="AL27" s="182"/>
+      <c r="AL27" s="162"/>
       <c r="AO27">
         <f t="shared" si="29"/>
         <v>0</v>
@@ -12575,96 +12576,96 @@
       </c>
     </row>
     <row r="28" spans="1:60" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="164" t="s">
+      <c r="A28" s="170" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="165">
+      <c r="B28" s="172">
         <f>SUM(AO6:AQ6,AO18:AQ19,AO35:AQ36,AO52:AQ53)</f>
         <v>10</v>
       </c>
-      <c r="C28" s="165"/>
-      <c r="D28" s="165"/>
-      <c r="E28" s="165">
+      <c r="C28" s="172"/>
+      <c r="D28" s="172"/>
+      <c r="E28" s="172">
         <f>SUM(AR6:AT6,AR18:AT19,AR35:AT36,AR52:AT53)</f>
         <v>4</v>
       </c>
-      <c r="F28" s="165"/>
-      <c r="G28" s="165"/>
-      <c r="H28" s="165">
+      <c r="F28" s="172"/>
+      <c r="G28" s="172"/>
+      <c r="H28" s="172">
         <f>SUM(AU6:AW6,AU18:AW19,AU35:AW36,AU52:AW53)</f>
         <v>6</v>
       </c>
-      <c r="I28" s="165"/>
-      <c r="J28" s="165"/>
-      <c r="K28" s="165">
+      <c r="I28" s="172"/>
+      <c r="J28" s="172"/>
+      <c r="K28" s="172">
         <f>SUM(AX6:AZ6,AX18:AZ19,AX35:AZ36,AX52:AZ53)</f>
         <v>27</v>
       </c>
-      <c r="L28" s="165"/>
-      <c r="M28" s="165"/>
-      <c r="N28" s="165">
+      <c r="L28" s="172"/>
+      <c r="M28" s="172"/>
+      <c r="N28" s="172">
         <f>SUM(BA6:BC6,BA18:BC19,BA35:BC36,BA52:BC53)</f>
-        <v>32</v>
-      </c>
-      <c r="O28" s="165"/>
-      <c r="P28" s="165"/>
-      <c r="Q28" s="166">
+        <v>33</v>
+      </c>
+      <c r="O28" s="172"/>
+      <c r="P28" s="172"/>
+      <c r="Q28" s="171">
         <f>SUM(BD6:BF6,BD18:BF19,BD35:BF36,BD52:BF53)</f>
         <v>20</v>
       </c>
-      <c r="R28" s="166"/>
-      <c r="S28" s="166"/>
-      <c r="T28" s="165">
+      <c r="R28" s="171"/>
+      <c r="S28" s="171"/>
+      <c r="T28" s="172">
         <f t="shared" ref="T28" si="34">SUM(B28:S29)</f>
-        <v>99</v>
-      </c>
-      <c r="U28" s="161"/>
+        <v>100</v>
+      </c>
+      <c r="U28" s="180"/>
       <c r="BG28" s="158">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A29" s="164"/>
-      <c r="B29" s="165"/>
-      <c r="C29" s="165"/>
-      <c r="D29" s="165"/>
-      <c r="E29" s="165"/>
-      <c r="F29" s="165"/>
-      <c r="G29" s="165"/>
-      <c r="H29" s="165"/>
-      <c r="I29" s="165"/>
-      <c r="J29" s="165"/>
-      <c r="K29" s="165"/>
-      <c r="L29" s="165"/>
-      <c r="M29" s="165"/>
-      <c r="N29" s="165"/>
-      <c r="O29" s="165"/>
-      <c r="P29" s="165"/>
-      <c r="Q29" s="166"/>
-      <c r="R29" s="166"/>
-      <c r="S29" s="166"/>
-      <c r="T29" s="165"/>
-      <c r="U29" s="161"/>
+      <c r="A29" s="170"/>
+      <c r="B29" s="172"/>
+      <c r="C29" s="172"/>
+      <c r="D29" s="172"/>
+      <c r="E29" s="172"/>
+      <c r="F29" s="172"/>
+      <c r="G29" s="172"/>
+      <c r="H29" s="172"/>
+      <c r="I29" s="172"/>
+      <c r="J29" s="172"/>
+      <c r="K29" s="172"/>
+      <c r="L29" s="172"/>
+      <c r="M29" s="172"/>
+      <c r="N29" s="172"/>
+      <c r="O29" s="172"/>
+      <c r="P29" s="172"/>
+      <c r="Q29" s="171"/>
+      <c r="R29" s="171"/>
+      <c r="S29" s="171"/>
+      <c r="T29" s="172"/>
+      <c r="U29" s="180"/>
       <c r="AA29" t="s">
         <v>124</v>
       </c>
       <c r="AB29" s="149" t="s">
         <v>127</v>
       </c>
-      <c r="AC29" s="177" t="str">
+      <c r="AC29" s="163" t="str">
         <f>'3_PDC'!U6</f>
         <v>I Periodo</v>
       </c>
-      <c r="AD29" s="178"/>
-      <c r="AE29" s="179"/>
-      <c r="AF29" s="177" t="str">
+      <c r="AD29" s="164"/>
+      <c r="AE29" s="165"/>
+      <c r="AF29" s="163" t="str">
         <f>'3_PDC'!X6</f>
         <v>II Periodo</v>
       </c>
-      <c r="AG29" s="178"/>
-      <c r="AH29" s="180"/>
-      <c r="AI29" s="173" t="str">
+      <c r="AG29" s="164"/>
+      <c r="AH29" s="166"/>
+      <c r="AI29" s="167" t="str">
         <f>'3_PDC'!AA6</f>
         <v>Totale</v>
       </c>
@@ -12674,50 +12675,50 @@
       </c>
     </row>
     <row r="30" spans="1:60" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="164" t="s">
+      <c r="A30" s="170" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="165">
+      <c r="B30" s="172">
         <f>SUM(AO7:AQ7,AO20:AQ21,AO37:AQ38,AO54:AQ55)</f>
         <v>15</v>
       </c>
-      <c r="C30" s="165"/>
-      <c r="D30" s="165"/>
-      <c r="E30" s="165">
+      <c r="C30" s="172"/>
+      <c r="D30" s="172"/>
+      <c r="E30" s="172">
         <f>SUM(AR7:AT7,AR20:AT21,AR37:AT38,AR54:AT55)</f>
         <v>4</v>
       </c>
-      <c r="F30" s="165"/>
-      <c r="G30" s="165"/>
-      <c r="H30" s="165">
+      <c r="F30" s="172"/>
+      <c r="G30" s="172"/>
+      <c r="H30" s="172">
         <f>SUM(AU7:AW7,AU20:AW21,AU37:AW38,AU54:AW55)</f>
         <v>0</v>
       </c>
-      <c r="I30" s="165"/>
-      <c r="J30" s="165"/>
-      <c r="K30" s="166">
+      <c r="I30" s="172"/>
+      <c r="J30" s="172"/>
+      <c r="K30" s="171">
         <f>SUM(AX7:AZ7,AX20:AZ21,AX37:AZ38,AX54:AZ55)</f>
         <v>31</v>
       </c>
-      <c r="L30" s="166"/>
-      <c r="M30" s="166"/>
-      <c r="N30" s="166">
+      <c r="L30" s="171"/>
+      <c r="M30" s="171"/>
+      <c r="N30" s="171">
         <f>SUM(BA7:BC7,BA20:BC21,BA37:BC38,BA54:BC55)</f>
-        <v>34</v>
-      </c>
-      <c r="O30" s="166"/>
-      <c r="P30" s="166"/>
-      <c r="Q30" s="165">
+        <v>35</v>
+      </c>
+      <c r="O30" s="171"/>
+      <c r="P30" s="171"/>
+      <c r="Q30" s="172">
         <f>SUM(BD7:BF7,BD20:BF21,BD37:BF38,BD54:BF55)</f>
         <v>18</v>
       </c>
-      <c r="R30" s="165"/>
-      <c r="S30" s="165"/>
-      <c r="T30" s="165">
+      <c r="R30" s="172"/>
+      <c r="S30" s="172"/>
+      <c r="T30" s="172">
         <f t="shared" ref="T30" si="35">SUM(B30:S31)</f>
-        <v>102</v>
-      </c>
-      <c r="U30" s="161"/>
+        <v>103</v>
+      </c>
+      <c r="U30" s="180"/>
       <c r="AB30" s="150"/>
       <c r="AC30" s="26" t="str">
         <f>'3_PDC'!U7</f>
@@ -12743,7 +12744,7 @@
         <f>'3_PDC'!Z7</f>
         <v>Fase</v>
       </c>
-      <c r="AI30" s="174"/>
+      <c r="AI30" s="168"/>
       <c r="AK30">
         <f>SUM(AI31:AI44)</f>
         <v>373</v>
@@ -12754,27 +12755,27 @@
       </c>
     </row>
     <row r="31" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A31" s="164"/>
-      <c r="B31" s="165"/>
-      <c r="C31" s="165"/>
-      <c r="D31" s="165"/>
-      <c r="E31" s="165"/>
-      <c r="F31" s="165"/>
-      <c r="G31" s="165"/>
-      <c r="H31" s="165"/>
-      <c r="I31" s="165"/>
-      <c r="J31" s="165"/>
-      <c r="K31" s="166"/>
-      <c r="L31" s="166"/>
-      <c r="M31" s="166"/>
-      <c r="N31" s="166"/>
-      <c r="O31" s="166"/>
-      <c r="P31" s="166"/>
-      <c r="Q31" s="165"/>
-      <c r="R31" s="165"/>
-      <c r="S31" s="165"/>
-      <c r="T31" s="165"/>
-      <c r="U31" s="161"/>
+      <c r="A31" s="170"/>
+      <c r="B31" s="172"/>
+      <c r="C31" s="172"/>
+      <c r="D31" s="172"/>
+      <c r="E31" s="172"/>
+      <c r="F31" s="172"/>
+      <c r="G31" s="172"/>
+      <c r="H31" s="172"/>
+      <c r="I31" s="172"/>
+      <c r="J31" s="172"/>
+      <c r="K31" s="171"/>
+      <c r="L31" s="171"/>
+      <c r="M31" s="171"/>
+      <c r="N31" s="171"/>
+      <c r="O31" s="171"/>
+      <c r="P31" s="171"/>
+      <c r="Q31" s="172"/>
+      <c r="R31" s="172"/>
+      <c r="S31" s="172"/>
+      <c r="T31" s="172"/>
+      <c r="U31" s="180"/>
       <c r="AB31" s="31" t="str">
         <f>'3_PDC'!T8</f>
         <v>Begolo Marco</v>
@@ -12803,7 +12804,7 @@
         <f>'3_PDC'!Z8</f>
         <v>PDC 4.4</v>
       </c>
-      <c r="AI31" s="181">
+      <c r="AI31" s="169">
         <f>'3_PDC'!AA8</f>
         <v>52</v>
       </c>
@@ -12889,50 +12890,50 @@
       </c>
     </row>
     <row r="32" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A32" s="164" t="s">
+      <c r="A32" s="170" t="s">
         <v>8</v>
       </c>
-      <c r="B32" s="165">
+      <c r="B32" s="172">
         <f>SUM(AO8:AQ8,AO22:AQ23,AO39:AQ40,AO56:AQ57)</f>
         <v>9</v>
       </c>
-      <c r="C32" s="165"/>
-      <c r="D32" s="165"/>
-      <c r="E32" s="165">
+      <c r="C32" s="172"/>
+      <c r="D32" s="172"/>
+      <c r="E32" s="172">
         <f>SUM(AR8:AT8,AR22:AT23,AR39:AT40,AR56:AT57)</f>
         <v>11</v>
       </c>
-      <c r="F32" s="165"/>
-      <c r="G32" s="165"/>
-      <c r="H32" s="165">
+      <c r="F32" s="172"/>
+      <c r="G32" s="172"/>
+      <c r="H32" s="172">
         <f>SUM(AU8:AW8,AU22:AW23,AU39:AW40,AU56:AW57)</f>
         <v>0</v>
       </c>
-      <c r="I32" s="165"/>
-      <c r="J32" s="165"/>
-      <c r="K32" s="165">
+      <c r="I32" s="172"/>
+      <c r="J32" s="172"/>
+      <c r="K32" s="172">
         <f>SUM(AX8:AZ8,AX22:AZ23,AX39:AZ40,AX56:AZ57)</f>
         <v>20</v>
       </c>
-      <c r="L32" s="165"/>
-      <c r="M32" s="165"/>
-      <c r="N32" s="166">
+      <c r="L32" s="172"/>
+      <c r="M32" s="172"/>
+      <c r="N32" s="171">
         <f>SUM(BA8:BC8,BA22:BC23,BA39:BC40,BA56:BC57)</f>
-        <v>36</v>
-      </c>
-      <c r="O32" s="166"/>
-      <c r="P32" s="166"/>
-      <c r="Q32" s="165">
+        <v>39</v>
+      </c>
+      <c r="O32" s="171"/>
+      <c r="P32" s="171"/>
+      <c r="Q32" s="172">
         <f>SUM(BD8:BF8,BD22:BF23,BD39:BF40,BD56:BF57)</f>
         <v>23</v>
       </c>
-      <c r="R32" s="165"/>
-      <c r="S32" s="165"/>
-      <c r="T32" s="165">
+      <c r="R32" s="172"/>
+      <c r="S32" s="172"/>
+      <c r="T32" s="172">
         <f t="shared" ref="T32" si="51">SUM(B32:S33)</f>
-        <v>99</v>
-      </c>
-      <c r="U32" s="161"/>
+        <v>102</v>
+      </c>
+      <c r="U32" s="180"/>
       <c r="AB32" s="35">
         <f>'3_PDC'!T9</f>
         <v>0</v>
@@ -12961,7 +12962,7 @@
         <f>'3_PDC'!Z9</f>
         <v>PDC 7</v>
       </c>
-      <c r="AI32" s="169"/>
+      <c r="AI32" s="161"/>
       <c r="AO32">
         <f>IF($AC32=AO$2,$AD32,0)</f>
         <v>0</v>
@@ -13040,27 +13041,27 @@
       </c>
     </row>
     <row r="33" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A33" s="164"/>
-      <c r="B33" s="165"/>
-      <c r="C33" s="165"/>
-      <c r="D33" s="165"/>
-      <c r="E33" s="165"/>
-      <c r="F33" s="165"/>
-      <c r="G33" s="165"/>
-      <c r="H33" s="165"/>
-      <c r="I33" s="165"/>
-      <c r="J33" s="165"/>
-      <c r="K33" s="165"/>
-      <c r="L33" s="165"/>
-      <c r="M33" s="165"/>
-      <c r="N33" s="166"/>
-      <c r="O33" s="166"/>
-      <c r="P33" s="166"/>
-      <c r="Q33" s="165"/>
-      <c r="R33" s="165"/>
-      <c r="S33" s="165"/>
-      <c r="T33" s="165"/>
-      <c r="U33" s="161"/>
+      <c r="A33" s="170"/>
+      <c r="B33" s="172"/>
+      <c r="C33" s="172"/>
+      <c r="D33" s="172"/>
+      <c r="E33" s="172"/>
+      <c r="F33" s="172"/>
+      <c r="G33" s="172"/>
+      <c r="H33" s="172"/>
+      <c r="I33" s="172"/>
+      <c r="J33" s="172"/>
+      <c r="K33" s="172"/>
+      <c r="L33" s="172"/>
+      <c r="M33" s="172"/>
+      <c r="N33" s="171"/>
+      <c r="O33" s="171"/>
+      <c r="P33" s="171"/>
+      <c r="Q33" s="172"/>
+      <c r="R33" s="172"/>
+      <c r="S33" s="172"/>
+      <c r="T33" s="172"/>
+      <c r="U33" s="180"/>
       <c r="AB33" s="31" t="str">
         <f>'3_PDC'!T10</f>
         <v>Facchin Gabriele</v>
@@ -13089,7 +13090,7 @@
         <f>'3_PDC'!Z10</f>
         <v>PDC 3.1</v>
       </c>
-      <c r="AI33" s="169">
+      <c r="AI33" s="161">
         <f>'3_PDC'!AA10</f>
         <v>52</v>
       </c>
@@ -13171,50 +13172,50 @@
       </c>
     </row>
     <row r="34" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A34" s="164" t="s">
+      <c r="A34" s="170" t="s">
         <v>13</v>
       </c>
-      <c r="B34" s="165">
+      <c r="B34" s="172">
         <f>SUM(AO9:AQ9,AO24:AQ25,AO41:AQ42,AO58:AQ59)</f>
         <v>6</v>
       </c>
-      <c r="C34" s="165"/>
-      <c r="D34" s="165"/>
-      <c r="E34" s="165">
+      <c r="C34" s="172"/>
+      <c r="D34" s="172"/>
+      <c r="E34" s="172">
         <f>SUM(AR9:AT9,AR24:AT25,AR41:AT42,AR58:AT59)</f>
         <v>2</v>
       </c>
-      <c r="F34" s="165"/>
-      <c r="G34" s="165"/>
-      <c r="H34" s="165">
+      <c r="F34" s="172"/>
+      <c r="G34" s="172"/>
+      <c r="H34" s="172">
         <f>SUM(AU9:AW9,AU24:AW25,AU41:AW42,AU58:AW59)</f>
         <v>0</v>
       </c>
-      <c r="I34" s="165"/>
-      <c r="J34" s="165"/>
-      <c r="K34" s="166">
+      <c r="I34" s="172"/>
+      <c r="J34" s="172"/>
+      <c r="K34" s="171">
         <f>SUM(AX9:AZ9,AX24:AZ25,AX41:AZ42,AX58:AZ59)</f>
         <v>27</v>
       </c>
-      <c r="L34" s="166"/>
-      <c r="M34" s="166"/>
-      <c r="N34" s="166">
+      <c r="L34" s="171"/>
+      <c r="M34" s="171"/>
+      <c r="N34" s="171">
         <f>SUM(BA9:BC9,BA24:BC25,BA41:BC42,BA58:BC59)</f>
-        <v>39</v>
-      </c>
-      <c r="O34" s="166"/>
-      <c r="P34" s="166"/>
-      <c r="Q34" s="166">
+        <v>42</v>
+      </c>
+      <c r="O34" s="171"/>
+      <c r="P34" s="171"/>
+      <c r="Q34" s="171">
         <f>SUM(BD9:BF9,BD24:BF25,BD41:BF42,BD58:BF59)</f>
         <v>25</v>
       </c>
-      <c r="R34" s="166"/>
-      <c r="S34" s="166"/>
-      <c r="T34" s="165">
+      <c r="R34" s="171"/>
+      <c r="S34" s="171"/>
+      <c r="T34" s="172">
         <f t="shared" ref="T34" si="55">SUM(B34:S35)</f>
-        <v>99</v>
-      </c>
-      <c r="U34" s="161"/>
+        <v>102</v>
+      </c>
+      <c r="U34" s="180"/>
       <c r="AB34" s="31">
         <f>'3_PDC'!T11</f>
         <v>0</v>
@@ -13243,7 +13244,7 @@
         <f>'3_PDC'!Z11</f>
         <v>PDC 4.3</v>
       </c>
-      <c r="AI34" s="169"/>
+      <c r="AI34" s="161"/>
       <c r="AO34">
         <f t="shared" si="52"/>
         <v>0</v>
@@ -13322,27 +13323,27 @@
       </c>
     </row>
     <row r="35" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A35" s="164"/>
-      <c r="B35" s="165"/>
-      <c r="C35" s="165"/>
-      <c r="D35" s="165"/>
-      <c r="E35" s="165"/>
-      <c r="F35" s="165"/>
-      <c r="G35" s="165"/>
-      <c r="H35" s="165"/>
-      <c r="I35" s="165"/>
-      <c r="J35" s="165"/>
-      <c r="K35" s="166"/>
-      <c r="L35" s="166"/>
-      <c r="M35" s="166"/>
-      <c r="N35" s="166"/>
-      <c r="O35" s="166"/>
-      <c r="P35" s="166"/>
-      <c r="Q35" s="166"/>
-      <c r="R35" s="166"/>
-      <c r="S35" s="166"/>
-      <c r="T35" s="165"/>
-      <c r="U35" s="161"/>
+      <c r="A35" s="170"/>
+      <c r="B35" s="172"/>
+      <c r="C35" s="172"/>
+      <c r="D35" s="172"/>
+      <c r="E35" s="172"/>
+      <c r="F35" s="172"/>
+      <c r="G35" s="172"/>
+      <c r="H35" s="172"/>
+      <c r="I35" s="172"/>
+      <c r="J35" s="172"/>
+      <c r="K35" s="171"/>
+      <c r="L35" s="171"/>
+      <c r="M35" s="171"/>
+      <c r="N35" s="171"/>
+      <c r="O35" s="171"/>
+      <c r="P35" s="171"/>
+      <c r="Q35" s="171"/>
+      <c r="R35" s="171"/>
+      <c r="S35" s="171"/>
+      <c r="T35" s="172"/>
+      <c r="U35" s="180"/>
       <c r="AB35" s="47" t="str">
         <f>'3_PDC'!T12</f>
         <v>Cornaglia Alessando</v>
@@ -13371,7 +13372,7 @@
         <f>'3_PDC'!Z12</f>
         <v>PDC 4.4 e 5</v>
       </c>
-      <c r="AI35" s="169">
+      <c r="AI35" s="161">
         <f>'3_PDC'!AA12</f>
         <v>52</v>
       </c>
@@ -13460,50 +13461,50 @@
       </c>
     </row>
     <row r="36" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A36" s="164" t="s">
+      <c r="A36" s="170" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="165">
+      <c r="B36" s="172">
         <f>SUM(AO10:AQ10,AO26:AQ27,AO43:AQ44,AO60:AQ61)</f>
         <v>2</v>
       </c>
-      <c r="C36" s="165"/>
-      <c r="D36" s="165"/>
-      <c r="E36" s="165">
+      <c r="C36" s="172"/>
+      <c r="D36" s="172"/>
+      <c r="E36" s="172">
         <f>SUM(AR10:AT10,AR26:AT27,AR43:AT44,AR60:AT61)</f>
         <v>8</v>
       </c>
-      <c r="F36" s="165"/>
-      <c r="G36" s="165"/>
-      <c r="H36" s="165">
+      <c r="F36" s="172"/>
+      <c r="G36" s="172"/>
+      <c r="H36" s="172">
         <f>SUM(AU10:AW10,AU26:AW27,AU43:AW44,AU60:AW61)</f>
         <v>12</v>
       </c>
-      <c r="I36" s="165"/>
-      <c r="J36" s="165"/>
-      <c r="K36" s="166">
+      <c r="I36" s="172"/>
+      <c r="J36" s="172"/>
+      <c r="K36" s="171">
         <f>SUM(AX10:AZ10,AX26:AZ27,AX43:AZ44,AX60:AZ61)</f>
         <v>51</v>
       </c>
-      <c r="L36" s="166"/>
-      <c r="M36" s="166"/>
-      <c r="N36" s="165">
+      <c r="L36" s="171"/>
+      <c r="M36" s="171"/>
+      <c r="N36" s="172">
         <f>SUM(BA10:BC10,BA26:BC27,BA43:BC44,BA60:BC61)</f>
-        <v>6</v>
-      </c>
-      <c r="O36" s="165"/>
-      <c r="P36" s="165"/>
-      <c r="Q36" s="165">
+        <v>8</v>
+      </c>
+      <c r="O36" s="172"/>
+      <c r="P36" s="172"/>
+      <c r="Q36" s="172">
         <f>SUM(BD10:BF10,BD26:BF27,BD43:BF44,BD60:BF61)</f>
         <v>18</v>
       </c>
-      <c r="R36" s="165"/>
-      <c r="S36" s="165"/>
-      <c r="T36" s="165">
+      <c r="R36" s="172"/>
+      <c r="S36" s="172"/>
+      <c r="T36" s="172">
         <f t="shared" ref="T36" si="56">SUM(B36:S37)</f>
-        <v>97</v>
-      </c>
-      <c r="U36" s="161"/>
+        <v>99</v>
+      </c>
+      <c r="U36" s="180"/>
       <c r="AB36" s="35">
         <f>'3_PDC'!T13</f>
         <v>0</v>
@@ -13532,7 +13533,7 @@
         <f>'3_PDC'!Z13</f>
         <v>PDC 7</v>
       </c>
-      <c r="AI36" s="169"/>
+      <c r="AI36" s="161"/>
       <c r="AK36">
         <f>SUM(BD31:BF44)</f>
         <v>100</v>
@@ -13615,27 +13616,27 @@
       </c>
     </row>
     <row r="37" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A37" s="164"/>
-      <c r="B37" s="165"/>
-      <c r="C37" s="165"/>
-      <c r="D37" s="165"/>
-      <c r="E37" s="165"/>
-      <c r="F37" s="165"/>
-      <c r="G37" s="165"/>
-      <c r="H37" s="165"/>
-      <c r="I37" s="165"/>
-      <c r="J37" s="165"/>
-      <c r="K37" s="166"/>
-      <c r="L37" s="166"/>
-      <c r="M37" s="166"/>
-      <c r="N37" s="165"/>
-      <c r="O37" s="165"/>
-      <c r="P37" s="165"/>
-      <c r="Q37" s="165"/>
-      <c r="R37" s="165"/>
-      <c r="S37" s="165"/>
-      <c r="T37" s="165"/>
-      <c r="U37" s="161"/>
+      <c r="A37" s="170"/>
+      <c r="B37" s="172"/>
+      <c r="C37" s="172"/>
+      <c r="D37" s="172"/>
+      <c r="E37" s="172"/>
+      <c r="F37" s="172"/>
+      <c r="G37" s="172"/>
+      <c r="H37" s="172"/>
+      <c r="I37" s="172"/>
+      <c r="J37" s="172"/>
+      <c r="K37" s="171"/>
+      <c r="L37" s="171"/>
+      <c r="M37" s="171"/>
+      <c r="N37" s="172"/>
+      <c r="O37" s="172"/>
+      <c r="P37" s="172"/>
+      <c r="Q37" s="172"/>
+      <c r="R37" s="172"/>
+      <c r="S37" s="172"/>
+      <c r="T37" s="172"/>
+      <c r="U37" s="180"/>
       <c r="AB37" s="31" t="str">
         <f>'3_PDC'!T14</f>
         <v>Dalla Pietà Massimo</v>
@@ -13664,7 +13665,7 @@
         <f>'3_PDC'!Z14</f>
         <v>PDC 4.3</v>
       </c>
-      <c r="AI37" s="169">
+      <c r="AI37" s="161">
         <f>'3_PDC'!AA14</f>
         <v>57</v>
       </c>
@@ -13746,50 +13747,50 @@
       </c>
     </row>
     <row r="38" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A38" s="167" t="s">
+      <c r="A38" s="179" t="s">
         <v>14</v>
       </c>
-      <c r="B38" s="165">
+      <c r="B38" s="172">
         <f>SUM(B24:D37)</f>
         <v>59</v>
       </c>
-      <c r="C38" s="165"/>
-      <c r="D38" s="165"/>
-      <c r="E38" s="165">
+      <c r="C38" s="172"/>
+      <c r="D38" s="172"/>
+      <c r="E38" s="172">
         <f t="shared" ref="E38" si="57">SUM(E24:G37)</f>
         <v>49</v>
       </c>
-      <c r="F38" s="165"/>
-      <c r="G38" s="165"/>
-      <c r="H38" s="165">
+      <c r="F38" s="172"/>
+      <c r="G38" s="172"/>
+      <c r="H38" s="172">
         <f>SUM(H24:J37)</f>
         <v>30</v>
       </c>
-      <c r="I38" s="165"/>
-      <c r="J38" s="165"/>
-      <c r="K38" s="165">
+      <c r="I38" s="172"/>
+      <c r="J38" s="172"/>
+      <c r="K38" s="172">
         <f t="shared" ref="K38" si="58">SUM(K24:M37)</f>
-        <v>199</v>
-      </c>
-      <c r="L38" s="165"/>
-      <c r="M38" s="165"/>
-      <c r="N38" s="165">
+        <v>201</v>
+      </c>
+      <c r="L38" s="172"/>
+      <c r="M38" s="172"/>
+      <c r="N38" s="172">
         <f t="shared" ref="N38" si="59">SUM(N24:P37)</f>
-        <v>233</v>
-      </c>
-      <c r="O38" s="165"/>
-      <c r="P38" s="165"/>
-      <c r="Q38" s="165">
+        <v>245</v>
+      </c>
+      <c r="O38" s="172"/>
+      <c r="P38" s="172"/>
+      <c r="Q38" s="172">
         <f>SUM(Q24:S37)</f>
         <v>120</v>
       </c>
-      <c r="R38" s="165"/>
-      <c r="S38" s="165"/>
+      <c r="R38" s="172"/>
+      <c r="S38" s="172"/>
       <c r="T38" s="183">
         <f>SUM(B38:S39)</f>
-        <v>690</v>
-      </c>
-      <c r="U38" s="161"/>
+        <v>704</v>
+      </c>
+      <c r="U38" s="180"/>
       <c r="AB38" s="31">
         <f>'3_PDC'!T15</f>
         <v>0</v>
@@ -13818,7 +13819,7 @@
         <f>'3_PDC'!Z15</f>
         <v>PDC 7</v>
       </c>
-      <c r="AI38" s="169"/>
+      <c r="AI38" s="161"/>
       <c r="AO38">
         <f t="shared" si="52"/>
         <v>0</v>
@@ -13897,27 +13898,27 @@
       </c>
     </row>
     <row r="39" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A39" s="167"/>
-      <c r="B39" s="165"/>
-      <c r="C39" s="165"/>
-      <c r="D39" s="165"/>
-      <c r="E39" s="165"/>
-      <c r="F39" s="165"/>
-      <c r="G39" s="165"/>
-      <c r="H39" s="165"/>
-      <c r="I39" s="165"/>
-      <c r="J39" s="165"/>
-      <c r="K39" s="165"/>
-      <c r="L39" s="165"/>
-      <c r="M39" s="165"/>
-      <c r="N39" s="165"/>
-      <c r="O39" s="165"/>
-      <c r="P39" s="165"/>
-      <c r="Q39" s="165"/>
-      <c r="R39" s="165"/>
-      <c r="S39" s="165"/>
+      <c r="A39" s="179"/>
+      <c r="B39" s="172"/>
+      <c r="C39" s="172"/>
+      <c r="D39" s="172"/>
+      <c r="E39" s="172"/>
+      <c r="F39" s="172"/>
+      <c r="G39" s="172"/>
+      <c r="H39" s="172"/>
+      <c r="I39" s="172"/>
+      <c r="J39" s="172"/>
+      <c r="K39" s="172"/>
+      <c r="L39" s="172"/>
+      <c r="M39" s="172"/>
+      <c r="N39" s="172"/>
+      <c r="O39" s="172"/>
+      <c r="P39" s="172"/>
+      <c r="Q39" s="172"/>
+      <c r="R39" s="172"/>
+      <c r="S39" s="172"/>
       <c r="T39" s="183"/>
-      <c r="U39" s="161"/>
+      <c r="U39" s="180"/>
       <c r="AB39" s="47" t="str">
         <f>'3_PDC'!T16</f>
         <v>Braghetto Lorenzo</v>
@@ -13946,7 +13947,7 @@
         <f>'3_PDC'!Z16</f>
         <v>PDC 4.4</v>
       </c>
-      <c r="AI39" s="169">
+      <c r="AI39" s="161">
         <f>'3_PDC'!AA16</f>
         <v>54</v>
       </c>
@@ -14057,7 +14058,7 @@
         <f>'3_PDC'!Z17</f>
         <v>PDC 7</v>
       </c>
-      <c r="AI40" s="169"/>
+      <c r="AI40" s="161"/>
       <c r="AO40">
         <f t="shared" si="52"/>
         <v>0</v>
@@ -14165,7 +14166,7 @@
         <f>'3_PDC'!Z18</f>
         <v>PDC 6</v>
       </c>
-      <c r="AI41" s="169">
+      <c r="AI41" s="161">
         <f>'3_PDC'!AA18</f>
         <v>54</v>
       </c>
@@ -14276,7 +14277,7 @@
         <f>'3_PDC'!Z19</f>
         <v>PDC 3.2, 5 e 7</v>
       </c>
-      <c r="AI42" s="169"/>
+      <c r="AI42" s="161"/>
       <c r="AO42">
         <f t="shared" si="52"/>
         <v>0</v>
@@ -14384,7 +14385,7 @@
         <f>'3_PDC'!Z20</f>
         <v>PDC 4.3</v>
       </c>
-      <c r="AI43" s="169">
+      <c r="AI43" s="161">
         <f>'3_PDC'!AA20</f>
         <v>52</v>
       </c>
@@ -14495,7 +14496,7 @@
         <f>'3_PDC'!Z21</f>
         <v>PDC 7</v>
       </c>
-      <c r="AI44" s="182"/>
+      <c r="AI44" s="162"/>
       <c r="AO44">
         <f t="shared" si="52"/>
         <v>0</v>
@@ -14588,19 +14589,19 @@
       <c r="AB46" s="149" t="s">
         <v>128</v>
       </c>
-      <c r="AC46" s="177" t="str">
+      <c r="AC46" s="163" t="str">
         <f>'4_VV'!U3</f>
         <v>I Periodo</v>
       </c>
-      <c r="AD46" s="178"/>
-      <c r="AE46" s="179"/>
-      <c r="AF46" s="177" t="str">
+      <c r="AD46" s="164"/>
+      <c r="AE46" s="165"/>
+      <c r="AF46" s="163" t="str">
         <f>'4_VV'!X3</f>
         <v>II Periodo</v>
       </c>
-      <c r="AG46" s="178"/>
-      <c r="AH46" s="180"/>
-      <c r="AI46" s="173" t="str">
+      <c r="AG46" s="164"/>
+      <c r="AH46" s="166"/>
+      <c r="AI46" s="167" t="str">
         <f>'4_VV'!AA3</f>
         <v>Totale</v>
       </c>
@@ -14640,7 +14641,7 @@
         <f>'4_VV'!Z4</f>
         <v>Fase</v>
       </c>
-      <c r="AI47" s="174"/>
+      <c r="AI47" s="168"/>
       <c r="BG47" s="158">
         <f t="shared" si="13"/>
         <v>0</v>
@@ -14676,7 +14677,7 @@
         <f>'4_VV'!Z5</f>
         <v>VV 3.2</v>
       </c>
-      <c r="AI48" s="181">
+      <c r="AI48" s="169">
         <f>'4_VV'!AA5</f>
         <v>18</v>
       </c>
@@ -14790,7 +14791,7 @@
         <f>'4_VV'!Z6</f>
         <v>0</v>
       </c>
-      <c r="AI49" s="169"/>
+      <c r="AI49" s="161"/>
       <c r="AO49">
         <f>IF($AC49=AO$2,$AD49,0)</f>
         <v>0</v>
@@ -14897,7 +14898,7 @@
         <f>'4_VV'!Z7</f>
         <v>VV 3.2</v>
       </c>
-      <c r="AI50" s="169">
+      <c r="AI50" s="161">
         <f>'4_VV'!AA7</f>
         <v>18</v>
       </c>
@@ -15026,7 +15027,7 @@
         <f>'4_VV'!Z8</f>
         <v>VV 3.2</v>
       </c>
-      <c r="AI51" s="169"/>
+      <c r="AI51" s="161"/>
       <c r="AO51">
         <f t="shared" si="75"/>
         <v>0</v>
@@ -15147,7 +15148,7 @@
         <f>'4_VV'!Z9</f>
         <v>VV 3.1</v>
       </c>
-      <c r="AI52" s="169">
+      <c r="AI52" s="161">
         <f>'4_VV'!AA9</f>
         <v>18</v>
       </c>
@@ -15271,7 +15272,7 @@
         <f>'4_VV'!Z10</f>
         <v>0</v>
       </c>
-      <c r="AI53" s="169"/>
+      <c r="AI53" s="161"/>
       <c r="AO53">
         <f t="shared" si="75"/>
         <v>0</v>
@@ -15392,7 +15393,7 @@
         <f>'4_VV'!Z11</f>
         <v>VV 3.1</v>
       </c>
-      <c r="AI54" s="169">
+      <c r="AI54" s="161">
         <f>'4_VV'!AA11</f>
         <v>18</v>
       </c>
@@ -15479,11 +15480,11 @@
       </c>
       <c r="U55" s="16">
         <f>K38</f>
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="V55" s="17">
         <f t="shared" si="78"/>
-        <v>2985</v>
+        <v>3015</v>
       </c>
       <c r="W55">
         <v>15</v>
@@ -15516,7 +15517,7 @@
         <f>'4_VV'!Z12</f>
         <v>0</v>
       </c>
-      <c r="AI55" s="169"/>
+      <c r="AI55" s="161"/>
       <c r="AO55">
         <f t="shared" si="75"/>
         <v>0</v>
@@ -15600,11 +15601,11 @@
       </c>
       <c r="U56" s="16">
         <f>N38</f>
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="V56" s="17">
         <f t="shared" si="78"/>
-        <v>5126</v>
+        <v>5390</v>
       </c>
       <c r="W56">
         <v>22</v>
@@ -15637,7 +15638,7 @@
         <f>'4_VV'!Z13</f>
         <v>VV 3.1</v>
       </c>
-      <c r="AI56" s="169">
+      <c r="AI56" s="161">
         <f>'4_VV'!AA13</f>
         <v>18</v>
       </c>
@@ -15761,7 +15762,7 @@
         <f>'4_VV'!Z14</f>
         <v>0</v>
       </c>
-      <c r="AI57" s="169"/>
+      <c r="AI57" s="161"/>
       <c r="AO57">
         <f t="shared" si="75"/>
         <v>0</v>
@@ -15845,11 +15846,11 @@
       </c>
       <c r="U58" s="3">
         <f>SUM(U52:U57)</f>
-        <v>690</v>
+        <v>704</v>
       </c>
       <c r="V58" s="25">
         <f>SUM(V52:V57)</f>
-        <v>13411</v>
+        <v>13705</v>
       </c>
       <c r="AB58" s="31" t="str">
         <f>'4_VV'!T15</f>
@@ -15879,7 +15880,7 @@
         <f>'4_VV'!Z15</f>
         <v>VV 3.1</v>
       </c>
-      <c r="AI58" s="169">
+      <c r="AI58" s="161">
         <f>'4_VV'!AA15</f>
         <v>18</v>
       </c>
@@ -15989,7 +15990,7 @@
         <f>'4_VV'!Z16</f>
         <v>0</v>
       </c>
-      <c r="AI59" s="169"/>
+      <c r="AI59" s="161"/>
       <c r="AO59">
         <f t="shared" si="75"/>
         <v>0</v>
@@ -16096,7 +16097,7 @@
         <f>'4_VV'!Z17</f>
         <v>VV 3.1</v>
       </c>
-      <c r="AI60" s="169">
+      <c r="AI60" s="161">
         <f>'4_VV'!AA17</f>
         <v>16</v>
       </c>
@@ -16206,7 +16207,7 @@
         <f>'4_VV'!Z18</f>
         <v>0</v>
       </c>
-      <c r="AI61" s="182"/>
+      <c r="AI61" s="162"/>
       <c r="AO61">
         <f t="shared" si="75"/>
         <v>0</v>
@@ -16286,18 +16287,82 @@
     </row>
   </sheetData>
   <mergeCells count="112">
-    <mergeCell ref="AC2:AE2"/>
-    <mergeCell ref="AF2:AH2"/>
-    <mergeCell ref="AI2:AI3"/>
-    <mergeCell ref="AC12:AE12"/>
-    <mergeCell ref="AF12:AH12"/>
-    <mergeCell ref="AI12:AK12"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="K23:M23"/>
-    <mergeCell ref="N23:P23"/>
-    <mergeCell ref="Q23:S23"/>
+    <mergeCell ref="AI56:AI57"/>
+    <mergeCell ref="AI58:AI59"/>
+    <mergeCell ref="AI60:AI61"/>
+    <mergeCell ref="AC46:AE46"/>
+    <mergeCell ref="AF46:AH46"/>
+    <mergeCell ref="AI46:AI47"/>
+    <mergeCell ref="AI48:AI49"/>
+    <mergeCell ref="AI50:AI51"/>
+    <mergeCell ref="AI52:AI53"/>
+    <mergeCell ref="AI39:AI40"/>
+    <mergeCell ref="AI41:AI42"/>
+    <mergeCell ref="AI43:AI44"/>
+    <mergeCell ref="Q36:S37"/>
+    <mergeCell ref="T36:T37"/>
+    <mergeCell ref="U36:U37"/>
+    <mergeCell ref="AI37:AI38"/>
+    <mergeCell ref="AI35:AI36"/>
+    <mergeCell ref="AI54:AI55"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:D39"/>
+    <mergeCell ref="E38:G39"/>
+    <mergeCell ref="H38:J39"/>
+    <mergeCell ref="K38:M39"/>
+    <mergeCell ref="N38:P39"/>
+    <mergeCell ref="Q34:S35"/>
+    <mergeCell ref="T34:T35"/>
+    <mergeCell ref="U34:U35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:D37"/>
+    <mergeCell ref="E36:G37"/>
+    <mergeCell ref="H36:J37"/>
+    <mergeCell ref="K36:M37"/>
+    <mergeCell ref="N36:P37"/>
+    <mergeCell ref="Q38:S39"/>
+    <mergeCell ref="T38:T39"/>
+    <mergeCell ref="U38:U39"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:D35"/>
+    <mergeCell ref="E34:G35"/>
+    <mergeCell ref="H34:J35"/>
+    <mergeCell ref="K34:M35"/>
+    <mergeCell ref="N34:P35"/>
+    <mergeCell ref="B24:D25"/>
+    <mergeCell ref="E24:G25"/>
+    <mergeCell ref="H24:J25"/>
+    <mergeCell ref="K24:M25"/>
+    <mergeCell ref="N24:P25"/>
+    <mergeCell ref="AC29:AE29"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:D33"/>
+    <mergeCell ref="E32:G33"/>
+    <mergeCell ref="H32:J33"/>
+    <mergeCell ref="K32:M33"/>
+    <mergeCell ref="N32:P33"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:D31"/>
+    <mergeCell ref="E30:G31"/>
+    <mergeCell ref="H30:J31"/>
+    <mergeCell ref="K30:M31"/>
+    <mergeCell ref="N30:P31"/>
+    <mergeCell ref="AF29:AH29"/>
+    <mergeCell ref="AI29:AI30"/>
+    <mergeCell ref="Q30:S31"/>
+    <mergeCell ref="T30:T31"/>
+    <mergeCell ref="U30:U31"/>
+    <mergeCell ref="AI31:AI32"/>
+    <mergeCell ref="Q26:S27"/>
+    <mergeCell ref="T26:T27"/>
+    <mergeCell ref="U26:U27"/>
+    <mergeCell ref="Q32:S33"/>
+    <mergeCell ref="T32:T33"/>
+    <mergeCell ref="U32:U33"/>
+    <mergeCell ref="AI33:AI34"/>
+    <mergeCell ref="Q28:S29"/>
+    <mergeCell ref="T28:T29"/>
+    <mergeCell ref="U28:U29"/>
     <mergeCell ref="AL12:AL13"/>
     <mergeCell ref="AL14:AL15"/>
     <mergeCell ref="AL16:AL17"/>
@@ -16322,82 +16387,18 @@
     <mergeCell ref="K26:M27"/>
     <mergeCell ref="N26:P27"/>
     <mergeCell ref="A24:A25"/>
-    <mergeCell ref="AF29:AH29"/>
-    <mergeCell ref="AI29:AI30"/>
-    <mergeCell ref="Q30:S31"/>
-    <mergeCell ref="T30:T31"/>
-    <mergeCell ref="U30:U31"/>
-    <mergeCell ref="AI31:AI32"/>
-    <mergeCell ref="Q26:S27"/>
-    <mergeCell ref="T26:T27"/>
-    <mergeCell ref="U26:U27"/>
-    <mergeCell ref="Q32:S33"/>
-    <mergeCell ref="T32:T33"/>
-    <mergeCell ref="U32:U33"/>
-    <mergeCell ref="AI33:AI34"/>
-    <mergeCell ref="Q28:S29"/>
-    <mergeCell ref="T28:T29"/>
-    <mergeCell ref="U28:U29"/>
-    <mergeCell ref="B24:D25"/>
-    <mergeCell ref="E24:G25"/>
-    <mergeCell ref="H24:J25"/>
-    <mergeCell ref="K24:M25"/>
-    <mergeCell ref="N24:P25"/>
-    <mergeCell ref="AC29:AE29"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:D33"/>
-    <mergeCell ref="E32:G33"/>
-    <mergeCell ref="H32:J33"/>
-    <mergeCell ref="K32:M33"/>
-    <mergeCell ref="N32:P33"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:D31"/>
-    <mergeCell ref="E30:G31"/>
-    <mergeCell ref="H30:J31"/>
-    <mergeCell ref="K30:M31"/>
-    <mergeCell ref="N30:P31"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B38:D39"/>
-    <mergeCell ref="E38:G39"/>
-    <mergeCell ref="H38:J39"/>
-    <mergeCell ref="K38:M39"/>
-    <mergeCell ref="N38:P39"/>
-    <mergeCell ref="Q34:S35"/>
-    <mergeCell ref="T34:T35"/>
-    <mergeCell ref="U34:U35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:D37"/>
-    <mergeCell ref="E36:G37"/>
-    <mergeCell ref="H36:J37"/>
-    <mergeCell ref="K36:M37"/>
-    <mergeCell ref="N36:P37"/>
-    <mergeCell ref="Q38:S39"/>
-    <mergeCell ref="T38:T39"/>
-    <mergeCell ref="U38:U39"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:D35"/>
-    <mergeCell ref="E34:G35"/>
-    <mergeCell ref="H34:J35"/>
-    <mergeCell ref="K34:M35"/>
-    <mergeCell ref="N34:P35"/>
-    <mergeCell ref="AI39:AI40"/>
-    <mergeCell ref="AI41:AI42"/>
-    <mergeCell ref="AI43:AI44"/>
-    <mergeCell ref="Q36:S37"/>
-    <mergeCell ref="T36:T37"/>
-    <mergeCell ref="U36:U37"/>
-    <mergeCell ref="AI37:AI38"/>
-    <mergeCell ref="AI35:AI36"/>
-    <mergeCell ref="AI54:AI55"/>
-    <mergeCell ref="AI56:AI57"/>
-    <mergeCell ref="AI58:AI59"/>
-    <mergeCell ref="AI60:AI61"/>
-    <mergeCell ref="AC46:AE46"/>
-    <mergeCell ref="AF46:AH46"/>
-    <mergeCell ref="AI46:AI47"/>
-    <mergeCell ref="AI48:AI49"/>
-    <mergeCell ref="AI50:AI51"/>
-    <mergeCell ref="AI52:AI53"/>
+    <mergeCell ref="AC2:AE2"/>
+    <mergeCell ref="AF2:AH2"/>
+    <mergeCell ref="AI2:AI3"/>
+    <mergeCell ref="AC12:AE12"/>
+    <mergeCell ref="AF12:AH12"/>
+    <mergeCell ref="AI12:AK12"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="K23:M23"/>
+    <mergeCell ref="N23:P23"/>
+    <mergeCell ref="Q23:S23"/>
   </mergeCells>
   <conditionalFormatting sqref="AB14:AL27">
     <cfRule type="cellIs" dxfId="18" priority="5" operator="equal">
@@ -16531,20 +16532,20 @@
       <c r="N2" s="155">
         <v>30</v>
       </c>
-      <c r="O2" s="173" t="s">
-        <v>0</v>
-      </c>
-      <c r="P2" s="170" t="s">
+      <c r="O2" s="167" t="s">
+        <v>0</v>
+      </c>
+      <c r="P2" s="173" t="s">
         <v>18</v>
       </c>
-      <c r="Q2" s="171"/>
-      <c r="R2" s="172"/>
-      <c r="S2" s="170" t="s">
+      <c r="Q2" s="174"/>
+      <c r="R2" s="175"/>
+      <c r="S2" s="173" t="s">
         <v>19</v>
       </c>
-      <c r="T2" s="171"/>
-      <c r="U2" s="172"/>
-      <c r="V2" s="173" t="s">
+      <c r="T2" s="174"/>
+      <c r="U2" s="175"/>
+      <c r="V2" s="167" t="s">
         <v>14</v>
       </c>
     </row>
@@ -16606,7 +16607,7 @@
       <c r="U3" s="106" t="s">
         <v>39</v>
       </c>
-      <c r="V3" s="174"/>
+      <c r="V3" s="168"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
@@ -17314,8 +17315,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="P7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Z31" sqref="Z31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17802,29 +17803,29 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O9" s="177"/>
-      <c r="P9" s="178"/>
-      <c r="Q9" s="178"/>
-      <c r="R9" s="179"/>
-      <c r="U9" s="173" t="s">
-        <v>0</v>
-      </c>
-      <c r="V9" s="177" t="s">
+      <c r="O9" s="163"/>
+      <c r="P9" s="164"/>
+      <c r="Q9" s="164"/>
+      <c r="R9" s="165"/>
+      <c r="U9" s="167" t="s">
+        <v>0</v>
+      </c>
+      <c r="V9" s="163" t="s">
         <v>18</v>
       </c>
-      <c r="W9" s="178"/>
-      <c r="X9" s="179"/>
-      <c r="Y9" s="177" t="s">
+      <c r="W9" s="164"/>
+      <c r="X9" s="165"/>
+      <c r="Y9" s="163" t="s">
         <v>19</v>
       </c>
-      <c r="Z9" s="178"/>
-      <c r="AA9" s="179"/>
-      <c r="AB9" s="177" t="s">
+      <c r="Z9" s="164"/>
+      <c r="AA9" s="165"/>
+      <c r="AB9" s="163" t="s">
         <v>114</v>
       </c>
-      <c r="AC9" s="178"/>
-      <c r="AD9" s="180"/>
-      <c r="AE9" s="173" t="s">
+      <c r="AC9" s="164"/>
+      <c r="AD9" s="166"/>
+      <c r="AE9" s="167" t="s">
         <v>14</v>
       </c>
     </row>
@@ -17867,7 +17868,7 @@
       <c r="P10" s="93"/>
       <c r="Q10" s="93"/>
       <c r="R10" s="94"/>
-      <c r="U10" s="174"/>
+      <c r="U10" s="168"/>
       <c r="V10" s="26" t="s">
         <v>26</v>
       </c>
@@ -17895,7 +17896,7 @@
       <c r="AD10" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="AE10" s="174"/>
+      <c r="AE10" s="168"/>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
@@ -17956,7 +17957,7 @@
         <v>24</v>
       </c>
       <c r="Z11" s="33">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AA11" s="34" t="s">
         <v>108</v>
@@ -17970,9 +17971,9 @@
       <c r="AD11" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="AE11" s="181">
+      <c r="AE11" s="169">
         <f>SUM(Z11:Z12,AC11:AC12,W11:W12)</f>
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
@@ -18028,7 +18029,7 @@
       <c r="AB12" s="36"/>
       <c r="AC12" s="37"/>
       <c r="AD12" s="139"/>
-      <c r="AE12" s="169"/>
+      <c r="AE12" s="161"/>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" s="12"/>
@@ -18085,7 +18086,7 @@
         <v>23</v>
       </c>
       <c r="Z13" s="33">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AA13" s="34" t="s">
         <v>117</v>
@@ -18099,9 +18100,9 @@
       <c r="AD13" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="AE13" s="169">
+      <c r="AE13" s="161">
         <f t="shared" ref="AE13" si="7">SUM(Z13:Z14,AC13:AC14,W13:W14)</f>
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.25">
@@ -18163,7 +18164,7 @@
       <c r="AB14" s="32"/>
       <c r="AC14" s="33"/>
       <c r="AD14" s="7"/>
-      <c r="AE14" s="169"/>
+      <c r="AE14" s="161"/>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
@@ -18224,7 +18225,7 @@
         <v>24</v>
       </c>
       <c r="Z15" s="49">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AA15" s="87" t="s">
         <v>110</v>
@@ -18238,9 +18239,9 @@
       <c r="AD15" s="79" t="s">
         <v>112</v>
       </c>
-      <c r="AE15" s="169">
+      <c r="AE15" s="161">
         <f t="shared" ref="AE15" si="8">SUM(Z15:Z16,AC15:AC16,W15:W16)</f>
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.25">
@@ -18308,7 +18309,7 @@
       <c r="AD16" s="39" t="s">
         <v>132</v>
       </c>
-      <c r="AE16" s="169"/>
+      <c r="AE16" s="161"/>
     </row>
     <row r="17" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="22" t="s">
@@ -18369,7 +18370,7 @@
         <v>24</v>
       </c>
       <c r="Z17" s="49">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AA17" s="50" t="s">
         <v>110</v>
@@ -18383,9 +18384,9 @@
       <c r="AD17" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="AE17" s="169">
+      <c r="AE17" s="161">
         <f t="shared" ref="AE17" si="9">SUM(Z17:Z18,AC17:AC18,W17:W18)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18449,7 +18450,7 @@
       <c r="AD18" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="AE18" s="169"/>
+      <c r="AE18" s="161"/>
     </row>
     <row r="19" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="U19" s="47" t="s">
@@ -18468,7 +18469,7 @@
         <v>24</v>
       </c>
       <c r="Z19" s="49">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AA19" s="50" t="s">
         <v>110</v>
@@ -18482,9 +18483,9 @@
       <c r="AD19" s="40" t="s">
         <v>120</v>
       </c>
-      <c r="AE19" s="169">
+      <c r="AE19" s="161">
         <f t="shared" ref="AE19" si="10">SUM(Z19:Z20,AC19:AC20,W19:W20)</f>
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18525,7 +18526,7 @@
       <c r="AB20" s="36"/>
       <c r="AC20" s="37"/>
       <c r="AD20" s="39"/>
-      <c r="AE20" s="169"/>
+      <c r="AE20" s="161"/>
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="U21" s="31" t="s">
@@ -18544,7 +18545,7 @@
         <v>24</v>
       </c>
       <c r="Z21" s="33">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AA21" s="84" t="s">
         <v>110</v>
@@ -18558,9 +18559,9 @@
       <c r="AD21" s="85" t="s">
         <v>136</v>
       </c>
-      <c r="AE21" s="169">
+      <c r="AE21" s="161">
         <f t="shared" ref="AE21" si="11">SUM(Z21:Z22,AC21:AC22,W21:W22)</f>
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.25">
@@ -18574,7 +18575,7 @@
       <c r="AB22" s="32"/>
       <c r="AC22" s="33"/>
       <c r="AD22" s="7"/>
-      <c r="AE22" s="169"/>
+      <c r="AE22" s="161"/>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.25">
       <c r="O23" s="30"/>
@@ -18594,7 +18595,7 @@
         <v>24</v>
       </c>
       <c r="Z23" s="49">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AA23" s="50" t="s">
         <v>115</v>
@@ -18608,9 +18609,9 @@
       <c r="AD23" s="40" t="s">
         <v>112</v>
       </c>
-      <c r="AE23" s="169">
+      <c r="AE23" s="161">
         <f t="shared" ref="AE23" si="12">SUM(Z23:Z24,AC23:AC24,W23:W24)</f>
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18636,7 +18637,7 @@
       <c r="AD24" s="67" t="s">
         <v>120</v>
       </c>
-      <c r="AE24" s="182"/>
+      <c r="AE24" s="162"/>
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.25">
       <c r="W26">
@@ -18645,7 +18646,7 @@
       </c>
       <c r="Z26">
         <f>SUM(Z11:Z24)</f>
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="AC26">
         <f>SUM(AC11:AC24)</f>
@@ -18655,6 +18656,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="AB9:AD9"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="P9:R9"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="V9:X9"/>
+    <mergeCell ref="Y9:AA9"/>
     <mergeCell ref="AE21:AE22"/>
     <mergeCell ref="AE23:AE24"/>
     <mergeCell ref="AE9:AE10"/>
@@ -18663,12 +18670,6 @@
     <mergeCell ref="AE15:AE16"/>
     <mergeCell ref="AE17:AE18"/>
     <mergeCell ref="AE19:AE20"/>
-    <mergeCell ref="AB9:AD9"/>
-    <mergeCell ref="O9:O10"/>
-    <mergeCell ref="P9:R9"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="V9:X9"/>
-    <mergeCell ref="Y9:AA9"/>
   </mergeCells>
   <conditionalFormatting sqref="Z26">
     <cfRule type="cellIs" dxfId="13" priority="13" operator="notEqual">
@@ -19034,20 +19035,20 @@
       <c r="R6" s="155">
         <v>15</v>
       </c>
-      <c r="T6" s="173" t="s">
-        <v>0</v>
-      </c>
-      <c r="U6" s="177" t="s">
+      <c r="T6" s="167" t="s">
+        <v>0</v>
+      </c>
+      <c r="U6" s="163" t="s">
         <v>18</v>
       </c>
-      <c r="V6" s="178"/>
-      <c r="W6" s="179"/>
-      <c r="X6" s="177" t="s">
+      <c r="V6" s="164"/>
+      <c r="W6" s="165"/>
+      <c r="X6" s="163" t="s">
         <v>19</v>
       </c>
-      <c r="Y6" s="178"/>
-      <c r="Z6" s="180"/>
-      <c r="AA6" s="173" t="s">
+      <c r="Y6" s="164"/>
+      <c r="Z6" s="166"/>
+      <c r="AA6" s="167" t="s">
         <v>14</v>
       </c>
     </row>
@@ -19100,7 +19101,7 @@
         <f>SUM(Q2:Q6)</f>
         <v>6982</v>
       </c>
-      <c r="T7" s="174"/>
+      <c r="T7" s="168"/>
       <c r="U7" s="26" t="s">
         <v>26</v>
       </c>
@@ -19119,7 +19120,7 @@
       <c r="Z7" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="AA7" s="174"/>
+      <c r="AA7" s="168"/>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
@@ -19181,7 +19182,7 @@
       <c r="Z8" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="AA8" s="181">
+      <c r="AA8" s="169">
         <f>SUM(V8:V9,Y8:Y9)</f>
         <v>52</v>
       </c>
@@ -19233,7 +19234,7 @@
       <c r="Z9" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="AA9" s="169"/>
+      <c r="AA9" s="161"/>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
@@ -19294,7 +19295,7 @@
       <c r="Z10" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="AA10" s="169">
+      <c r="AA10" s="161">
         <f t="shared" ref="AA10" si="7">SUM(V10:V11,Y10:Y11)</f>
         <v>52</v>
       </c>
@@ -19356,7 +19357,7 @@
       <c r="Z11" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="AA11" s="169"/>
+      <c r="AA11" s="161"/>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" s="12"/>
@@ -19416,7 +19417,7 @@
       <c r="Z12" s="79" t="s">
         <v>130</v>
       </c>
-      <c r="AA12" s="169">
+      <c r="AA12" s="161">
         <f t="shared" ref="AA12" si="8">SUM(V12:V13,Y12:Y13)</f>
         <v>52</v>
       </c>
@@ -19481,7 +19482,7 @@
       <c r="Z13" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="AA13" s="169"/>
+      <c r="AA13" s="161"/>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
@@ -19545,7 +19546,7 @@
       <c r="Z14" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="AA14" s="169">
+      <c r="AA14" s="161">
         <f t="shared" ref="AA14" si="9">SUM(V14:V15,Y14:Y15)</f>
         <v>57</v>
       </c>
@@ -19606,7 +19607,7 @@
       <c r="Z15" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="AA15" s="169"/>
+      <c r="AA15" s="161"/>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
@@ -19670,7 +19671,7 @@
       <c r="Z16" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="AA16" s="169">
+      <c r="AA16" s="161">
         <f t="shared" ref="AA16" si="10">SUM(V16:V17,Y16:Y17)</f>
         <v>54</v>
       </c>
@@ -19735,7 +19736,7 @@
       <c r="Z17" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="AA17" s="169"/>
+      <c r="AA17" s="161"/>
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
@@ -19795,7 +19796,7 @@
       <c r="Z18" s="85" t="s">
         <v>58</v>
       </c>
-      <c r="AA18" s="169">
+      <c r="AA18" s="161">
         <f t="shared" ref="AA18" si="11">SUM(V18:V19,Y18:Y19)</f>
         <v>54</v>
       </c>
@@ -19860,7 +19861,7 @@
       <c r="Z19" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="AA19" s="169"/>
+      <c r="AA19" s="161"/>
     </row>
     <row r="20" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="12"/>
@@ -19920,7 +19921,7 @@
       <c r="Z20" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="AA20" s="169">
+      <c r="AA20" s="161">
         <f t="shared" ref="AA20" si="12">SUM(V20:V21,Y20:Y21)</f>
         <v>52</v>
       </c>
@@ -19979,7 +19980,7 @@
       <c r="Z21" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="AA21" s="182"/>
+      <c r="AA21" s="162"/>
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
@@ -20220,6 +20221,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="AA10:AA11"/>
+    <mergeCell ref="T6:T7"/>
+    <mergeCell ref="U6:W6"/>
+    <mergeCell ref="X6:Z6"/>
+    <mergeCell ref="AA6:AA7"/>
+    <mergeCell ref="AA8:AA9"/>
     <mergeCell ref="AA20:AA21"/>
     <mergeCell ref="O12:O13"/>
     <mergeCell ref="P12:Q12"/>
@@ -20227,12 +20234,6 @@
     <mergeCell ref="AA14:AA15"/>
     <mergeCell ref="AA16:AA17"/>
     <mergeCell ref="AA18:AA19"/>
-    <mergeCell ref="AA10:AA11"/>
-    <mergeCell ref="T6:T7"/>
-    <mergeCell ref="U6:W6"/>
-    <mergeCell ref="X6:Z6"/>
-    <mergeCell ref="AA6:AA7"/>
-    <mergeCell ref="AA8:AA9"/>
   </mergeCells>
   <conditionalFormatting sqref="Y24">
     <cfRule type="cellIs" dxfId="7" priority="3" operator="notEqual">
@@ -20440,20 +20441,20 @@
       <c r="R3" s="155">
         <v>20</v>
       </c>
-      <c r="T3" s="173" t="s">
-        <v>0</v>
-      </c>
-      <c r="U3" s="177" t="s">
+      <c r="T3" s="167" t="s">
+        <v>0</v>
+      </c>
+      <c r="U3" s="163" t="s">
         <v>18</v>
       </c>
-      <c r="V3" s="178"/>
-      <c r="W3" s="179"/>
-      <c r="X3" s="177" t="s">
+      <c r="V3" s="164"/>
+      <c r="W3" s="165"/>
+      <c r="X3" s="163" t="s">
         <v>19</v>
       </c>
-      <c r="Y3" s="178"/>
-      <c r="Z3" s="180"/>
-      <c r="AA3" s="173" t="s">
+      <c r="Y3" s="164"/>
+      <c r="Z3" s="166"/>
+      <c r="AA3" s="167" t="s">
         <v>14</v>
       </c>
     </row>
@@ -20505,7 +20506,7 @@
       <c r="R4" s="155">
         <v>15</v>
       </c>
-      <c r="T4" s="174"/>
+      <c r="T4" s="168"/>
       <c r="U4" s="26" t="s">
         <v>26</v>
       </c>
@@ -20524,7 +20525,7 @@
       <c r="Z4" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="AA4" s="174"/>
+      <c r="AA4" s="168"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="76" t="s">
@@ -20599,7 +20600,7 @@
       <c r="Z5" s="79" t="s">
         <v>71</v>
       </c>
-      <c r="AA5" s="181">
+      <c r="AA5" s="169">
         <f>SUM(V5:V6,Y5:Y6)</f>
         <v>18</v>
       </c>
@@ -20669,7 +20670,7 @@
       <c r="X6" s="81"/>
       <c r="Y6" s="37"/>
       <c r="Z6" s="83"/>
-      <c r="AA6" s="169"/>
+      <c r="AA6" s="161"/>
     </row>
     <row r="7" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12"/>
@@ -20737,7 +20738,7 @@
       <c r="Z7" s="85" t="s">
         <v>71</v>
       </c>
-      <c r="AA7" s="169">
+      <c r="AA7" s="161">
         <f t="shared" ref="AA7" si="7">SUM(V7:V8,Y7:Y8)</f>
         <v>18</v>
       </c>
@@ -20793,7 +20794,7 @@
       <c r="Z8" s="85" t="s">
         <v>71</v>
       </c>
-      <c r="AA8" s="169"/>
+      <c r="AA8" s="161"/>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="80" t="s">
@@ -20854,7 +20855,7 @@
       <c r="Z9" s="79" t="s">
         <v>68</v>
       </c>
-      <c r="AA9" s="169">
+      <c r="AA9" s="161">
         <f t="shared" ref="AA9" si="8">SUM(V9:V10,Y9:Y10)</f>
         <v>18</v>
       </c>
@@ -20900,7 +20901,7 @@
       <c r="X10" s="81"/>
       <c r="Y10" s="37"/>
       <c r="Z10" s="83"/>
-      <c r="AA10" s="169"/>
+      <c r="AA10" s="161"/>
     </row>
     <row r="11" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7"/>
@@ -20935,7 +20936,7 @@
       <c r="Z11" s="79" t="s">
         <v>68</v>
       </c>
-      <c r="AA11" s="169">
+      <c r="AA11" s="161">
         <f t="shared" ref="AA11" si="9">SUM(V11:V12,Y11:Y12)</f>
         <v>18</v>
       </c>
@@ -20978,9 +20979,9 @@
         <f t="shared" si="11"/>
         <v>20</v>
       </c>
-      <c r="O12" s="177"/>
-      <c r="P12" s="178"/>
-      <c r="Q12" s="179"/>
+      <c r="O12" s="163"/>
+      <c r="P12" s="164"/>
+      <c r="Q12" s="165"/>
       <c r="T12" s="31"/>
       <c r="U12" s="78"/>
       <c r="V12" s="33"/>
@@ -20988,7 +20989,7 @@
       <c r="X12" s="78"/>
       <c r="Y12" s="33"/>
       <c r="Z12" s="85"/>
-      <c r="AA12" s="169"/>
+      <c r="AA12" s="161"/>
     </row>
     <row r="13" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7"/>
@@ -21021,7 +21022,7 @@
       <c r="Z13" s="79" t="s">
         <v>68</v>
       </c>
-      <c r="AA13" s="169">
+      <c r="AA13" s="161">
         <f t="shared" ref="AA13" si="12">SUM(V13:V14,Y13:Y14)</f>
         <v>18</v>
       </c>
@@ -21043,7 +21044,7 @@
       <c r="X14" s="81"/>
       <c r="Y14" s="37"/>
       <c r="Z14" s="83"/>
-      <c r="AA14" s="169"/>
+      <c r="AA14" s="161"/>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="95"/>
@@ -21076,7 +21077,7 @@
       <c r="Z15" s="85" t="s">
         <v>68</v>
       </c>
-      <c r="AA15" s="169">
+      <c r="AA15" s="161">
         <f t="shared" ref="AA15" si="13">SUM(V15:V16,Y15:Y16)</f>
         <v>18</v>
       </c>
@@ -21098,7 +21099,7 @@
       <c r="X16" s="78"/>
       <c r="Y16" s="33"/>
       <c r="Z16" s="85"/>
-      <c r="AA16" s="169"/>
+      <c r="AA16" s="161"/>
     </row>
     <row r="17" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
@@ -21131,7 +21132,7 @@
       <c r="Z17" s="79" t="s">
         <v>68</v>
       </c>
-      <c r="AA17" s="169">
+      <c r="AA17" s="161">
         <f t="shared" ref="AA17" si="14">SUM(V17:V18,Y17:Y18)</f>
         <v>16</v>
       </c>
@@ -21153,7 +21154,7 @@
       <c r="X18" s="96"/>
       <c r="Y18" s="65"/>
       <c r="Z18" s="98"/>
-      <c r="AA18" s="182"/>
+      <c r="AA18" s="162"/>
     </row>
     <row r="19" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
@@ -21311,6 +21312,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="AA7:AA8"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="U3:W3"/>
+    <mergeCell ref="X3:Z3"/>
+    <mergeCell ref="AA3:AA4"/>
+    <mergeCell ref="AA5:AA6"/>
     <mergeCell ref="AA17:AA18"/>
     <mergeCell ref="AA9:AA10"/>
     <mergeCell ref="AA11:AA12"/>
@@ -21318,12 +21325,6 @@
     <mergeCell ref="P12:Q12"/>
     <mergeCell ref="AA13:AA14"/>
     <mergeCell ref="AA15:AA16"/>
-    <mergeCell ref="AA7:AA8"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="U3:W3"/>
-    <mergeCell ref="X3:Z3"/>
-    <mergeCell ref="AA3:AA4"/>
-    <mergeCell ref="AA5:AA6"/>
   </mergeCells>
   <conditionalFormatting sqref="Y20">
     <cfRule type="cellIs" dxfId="3" priority="3" operator="notEqual">
@@ -21348,10 +21349,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AY146"/>
+  <dimension ref="A1:AR146"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21365,7 +21366,7 @@
     <col min="7" max="7" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -21391,7 +21392,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -21408,16 +21409,16 @@
         <v>10</v>
       </c>
       <c r="F2">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G2">
         <v>4</v>
       </c>
       <c r="H2">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -21431,7 +21432,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F3">
         <v>29</v>
@@ -21440,10 +21441,10 @@
         <v>12</v>
       </c>
       <c r="H3">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -21460,16 +21461,37 @@
         <v>27</v>
       </c>
       <c r="F4">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G4">
         <v>20</v>
       </c>
       <c r="H4">
+        <v>100</v>
+      </c>
+      <c r="AL4">
+        <v>4</v>
+      </c>
+      <c r="AM4">
+        <v>10</v>
+      </c>
+      <c r="AN4">
+        <v>12</v>
+      </c>
+      <c r="AO4">
+        <v>10</v>
+      </c>
+      <c r="AP4">
+        <v>59</v>
+      </c>
+      <c r="AQ4">
+        <v>4</v>
+      </c>
+      <c r="AR4">
         <v>99</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -21486,16 +21508,16 @@
         <v>31</v>
       </c>
       <c r="F5">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G5">
         <v>18</v>
       </c>
       <c r="H5">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -21512,16 +21534,37 @@
         <v>20</v>
       </c>
       <c r="F6">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G6">
         <v>23</v>
       </c>
       <c r="H6">
+        <v>102</v>
+      </c>
+      <c r="AL6">
+        <v>13</v>
+      </c>
+      <c r="AM6">
+        <v>10</v>
+      </c>
+      <c r="AN6">
+        <v>0</v>
+      </c>
+      <c r="AO6">
+        <v>35</v>
+      </c>
+      <c r="AP6">
+        <v>29</v>
+      </c>
+      <c r="AQ6">
+        <v>12</v>
+      </c>
+      <c r="AR6">
         <v>99</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -21538,16 +21581,16 @@
         <v>27</v>
       </c>
       <c r="F7">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G7">
         <v>25</v>
       </c>
       <c r="H7">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -21564,16 +21607,37 @@
         <v>51</v>
       </c>
       <c r="F8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G8">
         <v>18</v>
       </c>
       <c r="H8">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+      <c r="AL8">
+        <v>10</v>
+      </c>
+      <c r="AM8">
+        <v>4</v>
+      </c>
+      <c r="AN8">
+        <v>6</v>
+      </c>
+      <c r="AO8">
+        <v>27</v>
+      </c>
+      <c r="AP8">
+        <v>33</v>
+      </c>
+      <c r="AQ8">
+        <v>20</v>
+      </c>
+      <c r="AR8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -21591,11 +21655,11 @@
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="F9">
         <f t="shared" si="0"/>
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="G9">
         <f t="shared" si="0"/>
@@ -21603,7 +21667,122 @@
       </c>
       <c r="H9">
         <f t="shared" si="0"/>
-        <v>690</v>
+        <v>704</v>
+      </c>
+    </row>
+    <row r="10" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AL10">
+        <v>15</v>
+      </c>
+      <c r="AM10">
+        <v>4</v>
+      </c>
+      <c r="AN10">
+        <v>0</v>
+      </c>
+      <c r="AO10">
+        <v>31</v>
+      </c>
+      <c r="AP10">
+        <v>36</v>
+      </c>
+      <c r="AQ10">
+        <v>18</v>
+      </c>
+      <c r="AR10">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AL12">
+        <v>9</v>
+      </c>
+      <c r="AM12">
+        <v>11</v>
+      </c>
+      <c r="AN12">
+        <v>0</v>
+      </c>
+      <c r="AO12">
+        <v>20</v>
+      </c>
+      <c r="AP12">
+        <v>39</v>
+      </c>
+      <c r="AQ12">
+        <v>23</v>
+      </c>
+      <c r="AR12">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AL14">
+        <v>6</v>
+      </c>
+      <c r="AM14">
+        <v>2</v>
+      </c>
+      <c r="AN14">
+        <v>0</v>
+      </c>
+      <c r="AO14">
+        <v>27</v>
+      </c>
+      <c r="AP14">
+        <v>42</v>
+      </c>
+      <c r="AQ14">
+        <v>25</v>
+      </c>
+      <c r="AR14">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="16" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AL16">
+        <v>2</v>
+      </c>
+      <c r="AM16">
+        <v>8</v>
+      </c>
+      <c r="AN16">
+        <v>12</v>
+      </c>
+      <c r="AO16">
+        <v>51</v>
+      </c>
+      <c r="AP16">
+        <v>7</v>
+      </c>
+      <c r="AQ16">
+        <v>18</v>
+      </c>
+      <c r="AR16">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="38:44" x14ac:dyDescent="0.25">
+      <c r="AL18">
+        <v>59</v>
+      </c>
+      <c r="AM18">
+        <v>49</v>
+      </c>
+      <c r="AN18">
+        <v>30</v>
+      </c>
+      <c r="AO18">
+        <v>201</v>
+      </c>
+      <c r="AP18">
+        <v>245</v>
+      </c>
+      <c r="AQ18">
+        <v>120</v>
+      </c>
+      <c r="AR18">
+        <v>704</v>
       </c>
     </row>
     <row r="39" spans="5:8" x14ac:dyDescent="0.25">
@@ -21678,11 +21857,11 @@
       </c>
       <c r="F43">
         <f>E$9</f>
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="G43">
         <f t="shared" si="1"/>
-        <v>2985</v>
+        <v>3015</v>
       </c>
       <c r="H43">
         <v>15</v>
@@ -21695,11 +21874,11 @@
       </c>
       <c r="F44">
         <f>F$9</f>
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="G44">
         <f t="shared" si="1"/>
-        <v>5126</v>
+        <v>5390</v>
       </c>
       <c r="H44">
         <v>22</v>
@@ -21729,228 +21908,102 @@
       </c>
       <c r="F46">
         <f>SUM(F40:F45)</f>
-        <v>690</v>
+        <v>704</v>
       </c>
       <c r="G46">
         <f>SUM(G40:G45)</f>
-        <v>13411</v>
-      </c>
-    </row>
-    <row r="92" spans="45:51" x14ac:dyDescent="0.25">
-      <c r="AS92">
+        <v>13705</v>
+      </c>
+    </row>
+    <row r="92" spans="41:42" x14ac:dyDescent="0.25">
+      <c r="AO92">
+        <v>12</v>
+      </c>
+      <c r="AP92">
         <v>4</v>
       </c>
-      <c r="AT92">
-        <v>10</v>
-      </c>
-      <c r="AU92">
+    </row>
+    <row r="93" spans="41:42" x14ac:dyDescent="0.25">
+      <c r="AO93">
+        <v>0</v>
+      </c>
+      <c r="AP93">
         <v>12</v>
       </c>
-      <c r="AV92">
-        <v>10</v>
-      </c>
-      <c r="AW92">
-        <v>57</v>
-      </c>
-      <c r="AX92">
-        <v>4</v>
-      </c>
-      <c r="AY92">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="93" spans="45:51" x14ac:dyDescent="0.25">
-      <c r="AS93">
-        <v>13</v>
-      </c>
-      <c r="AT93">
-        <v>10</v>
-      </c>
-      <c r="AU93">
-        <v>0</v>
-      </c>
-      <c r="AV93">
+    </row>
+    <row r="94" spans="41:42" x14ac:dyDescent="0.25">
+      <c r="AO94">
+        <v>6</v>
+      </c>
+      <c r="AP94">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="95" spans="41:42" x14ac:dyDescent="0.25">
+      <c r="AO95">
+        <v>0</v>
+      </c>
+      <c r="AP95">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="96" spans="41:42" x14ac:dyDescent="0.25">
+      <c r="AO96">
+        <v>0</v>
+      </c>
+      <c r="AP96">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="97" spans="41:42" x14ac:dyDescent="0.25">
+      <c r="AO97">
+        <v>0</v>
+      </c>
+      <c r="AP97">
         <v>33</v>
       </c>
-      <c r="AW93">
-        <v>29</v>
-      </c>
-      <c r="AX93">
+    </row>
+    <row r="98" spans="41:42" x14ac:dyDescent="0.25">
+      <c r="AO98">
         <v>12</v>
       </c>
-      <c r="AY93">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="94" spans="45:51" x14ac:dyDescent="0.25">
-      <c r="AS94">
-        <v>10</v>
-      </c>
-      <c r="AT94">
-        <v>4</v>
-      </c>
-      <c r="AU94">
+      <c r="AP98">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="140" spans="41:41" x14ac:dyDescent="0.25">
+      <c r="AO140">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="141" spans="41:41" x14ac:dyDescent="0.25">
+      <c r="AO141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="41:41" x14ac:dyDescent="0.25">
+      <c r="AO142">
         <v>6</v>
       </c>
-      <c r="AV94">
-        <v>27</v>
-      </c>
-      <c r="AW94">
-        <v>24</v>
-      </c>
-      <c r="AX94">
-        <v>28</v>
-      </c>
-      <c r="AY94">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="95" spans="45:51" x14ac:dyDescent="0.25">
-      <c r="AS95">
-        <v>15</v>
-      </c>
-      <c r="AT95">
-        <v>4</v>
-      </c>
-      <c r="AU95">
-        <v>0</v>
-      </c>
-      <c r="AV95">
-        <v>31</v>
-      </c>
-      <c r="AW95">
-        <v>34</v>
-      </c>
-      <c r="AX95">
-        <v>18</v>
-      </c>
-      <c r="AY95">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="96" spans="45:51" x14ac:dyDescent="0.25">
-      <c r="AS96">
-        <v>9</v>
-      </c>
-      <c r="AT96">
-        <v>11</v>
-      </c>
-      <c r="AU96">
-        <v>0</v>
-      </c>
-      <c r="AV96">
-        <v>20</v>
-      </c>
-      <c r="AW96">
-        <v>36</v>
-      </c>
-      <c r="AX96">
-        <v>23</v>
-      </c>
-      <c r="AY96">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="97" spans="45:51" x14ac:dyDescent="0.25">
-      <c r="AS97">
-        <v>6</v>
-      </c>
-      <c r="AT97">
-        <v>2</v>
-      </c>
-      <c r="AU97">
-        <v>0</v>
-      </c>
-      <c r="AV97">
-        <v>27</v>
-      </c>
-      <c r="AW97">
-        <v>31</v>
-      </c>
-      <c r="AX97">
-        <v>33</v>
-      </c>
-      <c r="AY97">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="98" spans="45:51" x14ac:dyDescent="0.25">
-      <c r="AS98">
-        <v>2</v>
-      </c>
-      <c r="AT98">
-        <v>8</v>
-      </c>
-      <c r="AU98">
+    </row>
+    <row r="143" spans="41:41" x14ac:dyDescent="0.25">
+      <c r="AO143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="41:41" x14ac:dyDescent="0.25">
+      <c r="AO144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="41:41" x14ac:dyDescent="0.25">
+      <c r="AO145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="41:41" x14ac:dyDescent="0.25">
+      <c r="AO146">
         <v>12</v>
-      </c>
-      <c r="AV98">
-        <v>51</v>
-      </c>
-      <c r="AW98">
-        <v>6</v>
-      </c>
-      <c r="AX98">
-        <v>18</v>
-      </c>
-      <c r="AY98">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="140" spans="47:48" x14ac:dyDescent="0.25">
-      <c r="AU140">
-        <v>12</v>
-      </c>
-      <c r="AV140">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="141" spans="47:48" x14ac:dyDescent="0.25">
-      <c r="AU141">
-        <v>0</v>
-      </c>
-      <c r="AV141">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="142" spans="47:48" x14ac:dyDescent="0.25">
-      <c r="AU142">
-        <v>6</v>
-      </c>
-      <c r="AV142">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="143" spans="47:48" x14ac:dyDescent="0.25">
-      <c r="AU143">
-        <v>0</v>
-      </c>
-      <c r="AV143">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="144" spans="47:48" x14ac:dyDescent="0.25">
-      <c r="AU144">
-        <v>0</v>
-      </c>
-      <c r="AV144">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="145" spans="47:48" x14ac:dyDescent="0.25">
-      <c r="AU145">
-        <v>0</v>
-      </c>
-      <c r="AV145">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="146" spans="47:48" x14ac:dyDescent="0.25">
-      <c r="AU146">
-        <v>12</v>
-      </c>
-      <c r="AV146">
-        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/RP/Esterni/Piano di Progetto/Ripartizione ruoli e ore.xlsx
+++ b/RP/Esterni/Piano di Progetto/Ripartizione ruoli e ore.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="300" windowWidth="18735" windowHeight="11700" activeTab="3"/>
@@ -15,12 +15,12 @@
     <sheet name="4_VV" sheetId="5" r:id="rId6"/>
     <sheet name="Grafici" sheetId="8" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="142">
   <si>
     <t>Membro</t>
   </si>
@@ -435,15 +435,27 @@
   <si>
     <t>prog</t>
   </si>
+  <si>
+    <t>(-10)</t>
+  </si>
+  <si>
+    <t>(+10)</t>
+  </si>
+  <si>
+    <t>(-€250)</t>
+  </si>
+  <si>
+    <t>(+€220)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;€&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -463,6 +475,20 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF04AC20"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1238,7 +1264,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="190">
+  <cellXfs count="202">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1480,10 +1506,45 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1498,48 +1559,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1563,11 +1589,111 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="33">
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <condense val="0"/>
@@ -1769,6 +1895,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF04AC20"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1779,25 +1910,13 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="stacked"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1812,7 +1931,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Grafici!$A$2:$A$8</c:f>
@@ -1846,7 +1964,7 @@
             <c:numRef>
               <c:f>Grafici!$B$2:$B$8</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>Standard</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>4</c:v>
@@ -1887,7 +2005,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Grafici!$A$2:$A$8</c:f>
@@ -1921,7 +2038,7 @@
             <c:numRef>
               <c:f>Grafici!$C$2:$C$8</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>Standard</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
@@ -1962,7 +2079,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Grafici!$A$2:$A$8</c:f>
@@ -1996,7 +2112,7 @@
             <c:numRef>
               <c:f>Grafici!$D$2:$D$8</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>Standard</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>12</c:v>
@@ -2037,7 +2153,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Grafici!$A$2:$A$8</c:f>
@@ -2071,7 +2186,7 @@
             <c:numRef>
               <c:f>Grafici!$E$2:$E$8</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>Standard</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
@@ -2112,7 +2227,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Grafici!$A$2:$A$8</c:f>
@@ -2146,7 +2260,7 @@
             <c:numRef>
               <c:f>Grafici!$F$2:$F$8</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>Standard</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>59</c:v>
@@ -2187,7 +2301,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Grafici!$A$2:$A$8</c:f>
@@ -2221,7 +2334,7 @@
             <c:numRef>
               <c:f>Grafici!$G$2:$G$8</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>Standard</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>4</c:v>
@@ -2248,65 +2361,47 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
+        <c:dLbls/>
         <c:overlap val="100"/>
-        <c:axId val="48142208"/>
-        <c:axId val="48143744"/>
+        <c:axId val="124270848"/>
+        <c:axId val="124280832"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="48142208"/>
+        <c:axId val="124270848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="48143744"/>
+        <c:crossAx val="124280832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="48143744"/>
+        <c:axId val="124280832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
+        <c:numFmt formatCode="Standard" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="48142208"/>
+        <c:crossAx val="124270848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2314,19 +2409,8 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:pieChart>
@@ -2335,12 +2419,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:dLbls>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
             <c:showPercent val="1"/>
-            <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
           </c:dLbls>
           <c:cat>
@@ -2373,7 +2452,7 @@
             <c:numRef>
               <c:f>Grafici!$F$40:$F$45</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>Standard</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>59</c:v>
@@ -2397,30 +2476,19 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:firstSliceAng val="0"/>
       </c:pieChart>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
+    <c:dispBlanksAs val="zero"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2428,19 +2496,8 @@
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:pieChart>
@@ -2449,12 +2506,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:dLbls>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
             <c:showPercent val="1"/>
-            <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
           </c:dLbls>
           <c:cat>
@@ -2487,7 +2539,7 @@
             <c:numRef>
               <c:f>Grafici!$G$40:$G$45</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>Standard</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>1770</c:v>
@@ -2511,30 +2563,19 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:firstSliceAng val="0"/>
       </c:pieChart>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
+    <c:dispBlanksAs val="zero"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2710,7 +2751,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -2745,7 +2785,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2921,14 +2960,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BH61"/>
   <sheetViews>
     <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="P43" sqref="P43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="19.85546875" customWidth="1"/>
     <col min="2" max="3" width="3.42578125" customWidth="1"/>
@@ -2950,7 +2989,7 @@
     <col min="41" max="58" width="3.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:60" ht="15.75" thickBot="1">
       <c r="A1" s="147" t="s">
         <v>0</v>
       </c>
@@ -2990,7 +3029,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:60">
       <c r="A2" s="147" t="s">
         <v>7</v>
       </c>
@@ -3004,7 +3043,7 @@
       </c>
       <c r="D2" s="148">
         <f>SUM(AU4:AW4,AU14:AW15,AU31:AW32,AU48:AW49)</f>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E2" s="148">
         <f>SUM(AX4:AZ4,AX14:AZ15,AX31:AZ32,AX48:AZ49)</f>
@@ -3034,7 +3073,7 @@
       <c r="U2" s="148"/>
       <c r="V2" s="148">
         <f>SUM(B2:G2)</f>
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AA2" t="s">
         <v>74</v>
@@ -3043,19 +3082,19 @@
         <f>'1_AN'!O2</f>
         <v>Membro</v>
       </c>
-      <c r="AC2" s="173" t="str">
+      <c r="AC2" s="169" t="str">
         <f>'1_AN'!P2</f>
         <v>I Periodo</v>
       </c>
-      <c r="AD2" s="174"/>
-      <c r="AE2" s="175"/>
-      <c r="AF2" s="173" t="str">
+      <c r="AD2" s="170"/>
+      <c r="AE2" s="171"/>
+      <c r="AF2" s="169" t="str">
         <f>'1_AN'!S2</f>
         <v>II Periodo</v>
       </c>
-      <c r="AG2" s="174"/>
-      <c r="AH2" s="174"/>
-      <c r="AI2" s="167" t="str">
+      <c r="AG2" s="170"/>
+      <c r="AH2" s="170"/>
+      <c r="AI2" s="172" t="str">
         <f>'1_AN'!V2</f>
         <v>Totale</v>
       </c>
@@ -3118,7 +3157,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:60" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:60" ht="15.75" thickBot="1">
       <c r="A3" s="147" t="s">
         <v>8</v>
       </c>
@@ -3189,9 +3228,9 @@
         <f>'1_AN'!U3</f>
         <v>Fase</v>
       </c>
-      <c r="AI3" s="168"/>
-    </row>
-    <row r="4" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="AI3" s="173"/>
+    </row>
+    <row r="4" spans="1:60">
       <c r="A4" s="147" t="s">
         <v>10</v>
       </c>
@@ -3323,7 +3362,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:60">
       <c r="A5" s="147" t="s">
         <v>9</v>
       </c>
@@ -3337,7 +3376,7 @@
       </c>
       <c r="D5" s="148">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E5" s="148">
         <f t="shared" si="2"/>
@@ -3455,7 +3494,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:60">
       <c r="A6" s="147" t="s">
         <v>11</v>
       </c>
@@ -3469,7 +3508,7 @@
       </c>
       <c r="D6" s="148">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E6" s="148">
         <f t="shared" si="2"/>
@@ -3587,7 +3626,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:60">
       <c r="A7" s="147" t="s">
         <v>12</v>
       </c>
@@ -3719,7 +3758,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:60">
       <c r="A8" s="147" t="s">
         <v>13</v>
       </c>
@@ -3851,7 +3890,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:60">
       <c r="A9" s="147" t="s">
         <v>14</v>
       </c>
@@ -3965,7 +4004,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:60" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:60" ht="15.75" thickBot="1">
       <c r="AB10" s="122" t="str">
         <f>'1_AN'!O10</f>
         <v>Maggiolo Giorgio</v>
@@ -4059,38 +4098,38 @@
         <v>138</v>
       </c>
     </row>
-    <row r="11" spans="1:60" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:60" ht="15.75" thickBot="1">
       <c r="BG11" s="158">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:60">
       <c r="AA12" t="s">
         <v>123</v>
       </c>
       <c r="AB12" s="149" t="s">
         <v>126</v>
       </c>
-      <c r="AC12" s="173" t="str">
+      <c r="AC12" s="169" t="str">
         <f>'2_PA'!V9</f>
         <v>I Periodo</v>
       </c>
-      <c r="AD12" s="176"/>
-      <c r="AE12" s="177"/>
-      <c r="AF12" s="163" t="str">
+      <c r="AD12" s="174"/>
+      <c r="AE12" s="175"/>
+      <c r="AF12" s="176" t="str">
         <f>'2_PA'!Y9</f>
         <v>II Periodo</v>
       </c>
-      <c r="AG12" s="164"/>
-      <c r="AH12" s="165"/>
-      <c r="AI12" s="163" t="str">
+      <c r="AG12" s="177"/>
+      <c r="AH12" s="178"/>
+      <c r="AI12" s="176" t="str">
         <f>'2_PA'!AB9</f>
         <v>III Periodo</v>
       </c>
-      <c r="AJ12" s="164"/>
-      <c r="AK12" s="166"/>
-      <c r="AL12" s="167" t="str">
+      <c r="AJ12" s="177"/>
+      <c r="AK12" s="179"/>
+      <c r="AL12" s="172" t="str">
         <f>'2_PA'!AE9</f>
         <v>Totale</v>
       </c>
@@ -4099,7 +4138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:60" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:60" ht="15.75" thickBot="1">
       <c r="E13" t="e">
         <f>VALUE(AB14)</f>
         <v>#VALUE!</v>
@@ -4141,17 +4180,17 @@
         <f>'2_PA'!AD10</f>
         <v>Fase</v>
       </c>
-      <c r="AL13" s="168"/>
+      <c r="AL13" s="173"/>
       <c r="AM13">
         <f>SUM(AL14:AL27)</f>
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="BG13" s="158">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:60">
       <c r="F14" t="str">
         <f>IF(AB8=AB4&amp;AB7=AB10,"fghj","lllllllll")</f>
         <v>lllllllll</v>
@@ -4166,7 +4205,7 @@
       </c>
       <c r="AD14" s="33">
         <f>'2_PA'!W11</f>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AE14" s="34" t="str">
         <f>'2_PA'!X11</f>
@@ -4196,9 +4235,9 @@
         <f>'2_PA'!AD11</f>
         <v>PA 3.2</v>
       </c>
-      <c r="AL14" s="169">
+      <c r="AL14" s="180">
         <f>'2_PA'!AE11</f>
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AO14">
         <f>IF($AC14=AO$2,$AD14,0)</f>
@@ -4226,7 +4265,7 @@
       </c>
       <c r="AU14">
         <f t="shared" ref="AU14:AU15" si="23">IF($AC14=AU$2,$AD14,0)</f>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AV14">
         <f t="shared" ref="AV14:AV15" si="24">IF($AF14=AV$2,$AG14,0)</f>
@@ -4274,14 +4313,14 @@
       </c>
       <c r="BG14" s="158">
         <f t="shared" si="19"/>
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="BH14">
         <f>SUM(AO14:BF27)</f>
-        <v>207</v>
-      </c>
-    </row>
-    <row r="15" spans="1:60" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="15" spans="1:60">
       <c r="B15">
         <f>IF(AB10=A2,AA12,0)</f>
         <v>0</v>
@@ -4326,7 +4365,7 @@
         <f>'2_PA'!AD12</f>
         <v>0</v>
       </c>
-      <c r="AL15" s="161"/>
+      <c r="AL15" s="168"/>
       <c r="AO15">
         <f>IF($AC15=AO$2,$AD15,0)</f>
         <v>0</v>
@@ -4404,7 +4443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:60">
       <c r="AB16" s="31" t="str">
         <f>'2_PA'!U13</f>
         <v>Facchin Gabriele</v>
@@ -4445,7 +4484,7 @@
         <f>'2_PA'!AD13</f>
         <v>PA 3.2</v>
       </c>
-      <c r="AL16" s="161">
+      <c r="AL16" s="168">
         <f>'2_PA'!AE13</f>
         <v>29</v>
       </c>
@@ -4526,7 +4565,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:60">
       <c r="AB17" s="31">
         <f>'2_PA'!U14</f>
         <v>0</v>
@@ -4567,7 +4606,7 @@
         <f>'2_PA'!AD14</f>
         <v>0</v>
       </c>
-      <c r="AL17" s="161"/>
+      <c r="AL17" s="168"/>
       <c r="AO17">
         <f t="shared" si="35"/>
         <v>0</v>
@@ -4645,7 +4684,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:60">
       <c r="AB18" s="47" t="str">
         <f>'2_PA'!U15</f>
         <v>Cornaglia Alessando</v>
@@ -4656,7 +4695,7 @@
       </c>
       <c r="AD18" s="49">
         <f>'2_PA'!W15</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AE18" s="50" t="str">
         <f>'2_PA'!X15</f>
@@ -4686,9 +4725,9 @@
         <f>'2_PA'!AD15</f>
         <v>PA 3.3</v>
       </c>
-      <c r="AL18" s="161">
+      <c r="AL18" s="168">
         <f>'2_PA'!AE15</f>
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AO18">
         <f t="shared" si="35"/>
@@ -4716,7 +4755,7 @@
       </c>
       <c r="AU18">
         <f t="shared" si="20"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AV18">
         <f t="shared" si="21"/>
@@ -4764,10 +4803,10 @@
       </c>
       <c r="BG18" s="158">
         <f t="shared" si="19"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:60" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:60">
       <c r="AB19" s="35">
         <f>'2_PA'!U16</f>
         <v>0</v>
@@ -4808,7 +4847,7 @@
         <f>'2_PA'!AD16</f>
         <v>PA 6.1</v>
       </c>
-      <c r="AL19" s="161"/>
+      <c r="AL19" s="168"/>
       <c r="AO19">
         <f t="shared" si="35"/>
         <v>0</v>
@@ -4886,7 +4925,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:60">
       <c r="AB20" s="31" t="str">
         <f>'2_PA'!U17</f>
         <v>Dalla Pietà Massimo</v>
@@ -4927,7 +4966,7 @@
         <f>'2_PA'!AD17</f>
         <v>PA 3.3</v>
       </c>
-      <c r="AL20" s="161">
+      <c r="AL20" s="168">
         <f>'2_PA'!AE17</f>
         <v>28</v>
       </c>
@@ -5008,7 +5047,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:60">
       <c r="AB21" s="31">
         <f>'2_PA'!U18</f>
         <v>0</v>
@@ -5049,7 +5088,7 @@
         <f>'2_PA'!AD18</f>
         <v>PA 6.2</v>
       </c>
-      <c r="AL21" s="161"/>
+      <c r="AL21" s="168"/>
       <c r="AO21">
         <f t="shared" si="35"/>
         <v>0</v>
@@ -5127,7 +5166,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:60">
       <c r="AB22" s="47" t="str">
         <f>'2_PA'!U19</f>
         <v>Braghetto Lorenzo</v>
@@ -5150,7 +5189,7 @@
       </c>
       <c r="AG22" s="49">
         <f>'2_PA'!Z19</f>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AH22" s="50" t="str">
         <f>'2_PA'!AA19</f>
@@ -5168,9 +5207,9 @@
         <f>'2_PA'!AD19</f>
         <v>PA 5.1</v>
       </c>
-      <c r="AL22" s="161">
+      <c r="AL22" s="168">
         <f>'2_PA'!AE19</f>
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AO22">
         <f t="shared" si="35"/>
@@ -5226,7 +5265,7 @@
       </c>
       <c r="BB22">
         <f t="shared" si="21"/>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BC22">
         <f t="shared" si="22"/>
@@ -5246,43 +5285,43 @@
       </c>
       <c r="BG22" s="158">
         <f t="shared" si="19"/>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="1:60" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:60">
       <c r="A23" s="153" t="s">
         <v>0</v>
       </c>
-      <c r="B23" s="178" t="s">
+      <c r="B23" s="181" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="178"/>
-      <c r="D23" s="178"/>
-      <c r="E23" s="178" t="s">
+      <c r="C23" s="181"/>
+      <c r="D23" s="181"/>
+      <c r="E23" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="F23" s="178"/>
-      <c r="G23" s="178"/>
-      <c r="H23" s="178" t="s">
+      <c r="F23" s="181"/>
+      <c r="G23" s="181"/>
+      <c r="H23" s="181" t="s">
         <v>3</v>
       </c>
-      <c r="I23" s="178"/>
-      <c r="J23" s="178"/>
-      <c r="K23" s="178" t="s">
+      <c r="I23" s="181"/>
+      <c r="J23" s="181"/>
+      <c r="K23" s="181" t="s">
         <v>4</v>
       </c>
-      <c r="L23" s="178"/>
-      <c r="M23" s="178"/>
-      <c r="N23" s="178" t="s">
+      <c r="L23" s="181"/>
+      <c r="M23" s="181"/>
+      <c r="N23" s="181" t="s">
         <v>5</v>
       </c>
-      <c r="O23" s="178"/>
-      <c r="P23" s="178"/>
-      <c r="Q23" s="178" t="s">
+      <c r="O23" s="181"/>
+      <c r="P23" s="181"/>
+      <c r="Q23" s="181" t="s">
         <v>6</v>
       </c>
-      <c r="R23" s="178"/>
-      <c r="S23" s="178"/>
+      <c r="R23" s="181"/>
+      <c r="S23" s="181"/>
       <c r="T23" s="159" t="s">
         <v>14</v>
       </c>
@@ -5327,7 +5366,7 @@
         <f>'2_PA'!AD20</f>
         <v>0</v>
       </c>
-      <c r="AL23" s="161"/>
+      <c r="AL23" s="168"/>
       <c r="AO23">
         <f t="shared" si="35"/>
         <v>0</v>
@@ -5405,51 +5444,51 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A24" s="170" t="s">
+    <row r="24" spans="1:60">
+      <c r="A24" s="167" t="s">
         <v>7</v>
       </c>
-      <c r="B24" s="172">
+      <c r="B24" s="165">
         <f>SUM(AO4:AQ4,AO14:AQ15,AO31:AQ32,AO48:AQ49)</f>
         <v>17</v>
       </c>
-      <c r="C24" s="172"/>
-      <c r="D24" s="172"/>
-      <c r="E24" s="172">
+      <c r="C24" s="165"/>
+      <c r="D24" s="165"/>
+      <c r="E24" s="165">
         <f>SUM(AR4:AT4,AR14:AT15,AR31:AT32,AR48:AT49)</f>
         <v>10</v>
       </c>
-      <c r="F24" s="172"/>
-      <c r="G24" s="172"/>
-      <c r="H24" s="171">
+      <c r="F24" s="165"/>
+      <c r="G24" s="165"/>
+      <c r="H24" s="166">
         <f>SUM(AU4:AW4,AU14:AW15,AU31:AW32,AU48:AW49)</f>
-        <v>18</v>
-      </c>
-      <c r="I24" s="171"/>
-      <c r="J24" s="171"/>
-      <c r="K24" s="172">
+        <v>16</v>
+      </c>
+      <c r="I24" s="166"/>
+      <c r="J24" s="166"/>
+      <c r="K24" s="165">
         <f>SUM(AX4:AZ4,AX14:AZ15,AX31:AZ32,AX48:AZ49)</f>
         <v>10</v>
       </c>
-      <c r="L24" s="172"/>
-      <c r="M24" s="172"/>
-      <c r="N24" s="171">
+      <c r="L24" s="165"/>
+      <c r="M24" s="165"/>
+      <c r="N24" s="166">
         <f>SUM(BA4:BC4,BA14:BC15,BA31:BC32,BA48:BC49)</f>
         <v>59</v>
       </c>
-      <c r="O24" s="171"/>
-      <c r="P24" s="171"/>
-      <c r="Q24" s="172">
+      <c r="O24" s="166"/>
+      <c r="P24" s="166"/>
+      <c r="Q24" s="165">
         <f t="shared" ref="Q24" si="38">SUM(BD4:BF4,BD14:BF15,BD31:BF32,BD48:BF49)</f>
         <v>4</v>
       </c>
-      <c r="R24" s="172"/>
-      <c r="S24" s="172"/>
-      <c r="T24" s="181">
+      <c r="R24" s="165"/>
+      <c r="S24" s="165"/>
+      <c r="T24" s="162">
         <f t="shared" ref="T24" si="39">SUM(B24:S25)</f>
-        <v>118</v>
-      </c>
-      <c r="U24" s="180"/>
+        <v>116</v>
+      </c>
+      <c r="U24" s="161"/>
       <c r="AB24" s="31" t="str">
         <f>'2_PA'!U21</f>
         <v>Quadrio Giacomo</v>
@@ -5472,7 +5511,7 @@
       </c>
       <c r="AG24" s="33">
         <f>'2_PA'!Z21</f>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AH24" s="84" t="str">
         <f>'2_PA'!AA21</f>
@@ -5490,9 +5529,9 @@
         <f>'2_PA'!AD21</f>
         <v>PA 5.1, 6.2</v>
       </c>
-      <c r="AL24" s="161">
+      <c r="AL24" s="168">
         <f>'2_PA'!AE21</f>
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AO24">
         <f t="shared" si="35"/>
@@ -5548,7 +5587,7 @@
       </c>
       <c r="BB24">
         <f t="shared" si="21"/>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BC24">
         <f t="shared" si="22"/>
@@ -5568,31 +5607,31 @@
       </c>
       <c r="BG24" s="158">
         <f t="shared" si="19"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A25" s="170"/>
-      <c r="B25" s="172"/>
-      <c r="C25" s="172"/>
-      <c r="D25" s="172"/>
-      <c r="E25" s="172"/>
-      <c r="F25" s="172"/>
-      <c r="G25" s="172"/>
-      <c r="H25" s="171"/>
-      <c r="I25" s="171"/>
-      <c r="J25" s="171"/>
-      <c r="K25" s="172"/>
-      <c r="L25" s="172"/>
-      <c r="M25" s="172"/>
-      <c r="N25" s="171"/>
-      <c r="O25" s="171"/>
-      <c r="P25" s="171"/>
-      <c r="Q25" s="172"/>
-      <c r="R25" s="172"/>
-      <c r="S25" s="172"/>
-      <c r="T25" s="181"/>
-      <c r="U25" s="180"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:60">
+      <c r="A25" s="167"/>
+      <c r="B25" s="165"/>
+      <c r="C25" s="165"/>
+      <c r="D25" s="165"/>
+      <c r="E25" s="165"/>
+      <c r="F25" s="165"/>
+      <c r="G25" s="165"/>
+      <c r="H25" s="166"/>
+      <c r="I25" s="166"/>
+      <c r="J25" s="166"/>
+      <c r="K25" s="165"/>
+      <c r="L25" s="165"/>
+      <c r="M25" s="165"/>
+      <c r="N25" s="166"/>
+      <c r="O25" s="166"/>
+      <c r="P25" s="166"/>
+      <c r="Q25" s="165"/>
+      <c r="R25" s="165"/>
+      <c r="S25" s="165"/>
+      <c r="T25" s="162"/>
+      <c r="U25" s="161"/>
       <c r="AB25" s="31">
         <f>'2_PA'!U22</f>
         <v>0</v>
@@ -5633,7 +5672,7 @@
         <f>'2_PA'!AD22</f>
         <v>0</v>
       </c>
-      <c r="AL25" s="161"/>
+      <c r="AL25" s="168"/>
       <c r="AO25">
         <f t="shared" si="35"/>
         <v>0</v>
@@ -5711,51 +5750,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A26" s="170" t="s">
+    <row r="26" spans="1:60">
+      <c r="A26" s="167" t="s">
         <v>11</v>
       </c>
-      <c r="B26" s="172">
+      <c r="B26" s="165">
         <f>SUM(AO5:AQ5,AO16:AQ17,AO33:AQ34,AO50:AQ51)</f>
         <v>13</v>
       </c>
-      <c r="C26" s="172"/>
-      <c r="D26" s="172"/>
-      <c r="E26" s="172">
+      <c r="C26" s="165"/>
+      <c r="D26" s="165"/>
+      <c r="E26" s="165">
         <f>SUM(AR5:AT5,AR16:AT17,AR33:AT34,AR50:AT51)</f>
         <v>10</v>
       </c>
-      <c r="F26" s="172"/>
-      <c r="G26" s="172"/>
-      <c r="H26" s="172">
+      <c r="F26" s="165"/>
+      <c r="G26" s="165"/>
+      <c r="H26" s="165">
         <f>SUM(AU5:AW5,AU16:AW17,AU33:AW34,AU50:AW51)</f>
         <v>11</v>
       </c>
-      <c r="I26" s="172"/>
-      <c r="J26" s="172"/>
-      <c r="K26" s="171">
+      <c r="I26" s="165"/>
+      <c r="J26" s="165"/>
+      <c r="K26" s="166">
         <f>SUM(AX5:AZ5,AX16:AZ17,AX33:AZ34,AX50:AZ51)</f>
         <v>43</v>
       </c>
-      <c r="L26" s="171"/>
-      <c r="M26" s="171"/>
-      <c r="N26" s="172">
+      <c r="L26" s="166"/>
+      <c r="M26" s="166"/>
+      <c r="N26" s="165">
         <f>SUM(BA5:BC5,BA16:BC17,BA33:BC34,BA50:BC51)</f>
         <v>29</v>
       </c>
-      <c r="O26" s="172"/>
-      <c r="P26" s="172"/>
-      <c r="Q26" s="172">
+      <c r="O26" s="165"/>
+      <c r="P26" s="165"/>
+      <c r="Q26" s="165">
         <f>SUM(BD5:BF5,BD16:BF17,BD33:BF34,BD50:BF51)</f>
         <v>12</v>
       </c>
-      <c r="R26" s="172"/>
-      <c r="S26" s="172"/>
-      <c r="T26" s="181">
+      <c r="R26" s="165"/>
+      <c r="S26" s="165"/>
+      <c r="T26" s="162">
         <f t="shared" ref="T26" si="40">SUM(B26:S27)</f>
         <v>118</v>
       </c>
-      <c r="U26" s="180"/>
+      <c r="U26" s="161"/>
       <c r="AB26" s="47" t="str">
         <f>'2_PA'!U23</f>
         <v>Maggiolo Giorgio</v>
@@ -5766,7 +5805,7 @@
       </c>
       <c r="AD26" s="49">
         <f>'2_PA'!W23</f>
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AE26" s="50" t="str">
         <f>'2_PA'!X23</f>
@@ -5796,9 +5835,9 @@
         <f>'2_PA'!AD23</f>
         <v>PA 3.3</v>
       </c>
-      <c r="AL26" s="161">
+      <c r="AL26" s="168">
         <f>'2_PA'!AE23</f>
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="AO26">
         <f t="shared" si="35"/>
@@ -5826,7 +5865,7 @@
       </c>
       <c r="AU26">
         <f t="shared" si="20"/>
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AV26">
         <f t="shared" si="21"/>
@@ -5874,31 +5913,31 @@
       </c>
       <c r="BG26" s="158">
         <f t="shared" si="19"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:60" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="170"/>
-      <c r="B27" s="172"/>
-      <c r="C27" s="172"/>
-      <c r="D27" s="172"/>
-      <c r="E27" s="172"/>
-      <c r="F27" s="172"/>
-      <c r="G27" s="172"/>
-      <c r="H27" s="172"/>
-      <c r="I27" s="172"/>
-      <c r="J27" s="172"/>
-      <c r="K27" s="171"/>
-      <c r="L27" s="171"/>
-      <c r="M27" s="171"/>
-      <c r="N27" s="172"/>
-      <c r="O27" s="172"/>
-      <c r="P27" s="172"/>
-      <c r="Q27" s="172"/>
-      <c r="R27" s="172"/>
-      <c r="S27" s="172"/>
-      <c r="T27" s="181"/>
-      <c r="U27" s="180"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:60" ht="15.75" thickBot="1">
+      <c r="A27" s="167"/>
+      <c r="B27" s="165"/>
+      <c r="C27" s="165"/>
+      <c r="D27" s="165"/>
+      <c r="E27" s="165"/>
+      <c r="F27" s="165"/>
+      <c r="G27" s="165"/>
+      <c r="H27" s="165"/>
+      <c r="I27" s="165"/>
+      <c r="J27" s="165"/>
+      <c r="K27" s="166"/>
+      <c r="L27" s="166"/>
+      <c r="M27" s="166"/>
+      <c r="N27" s="165"/>
+      <c r="O27" s="165"/>
+      <c r="P27" s="165"/>
+      <c r="Q27" s="165"/>
+      <c r="R27" s="165"/>
+      <c r="S27" s="165"/>
+      <c r="T27" s="162"/>
+      <c r="U27" s="161"/>
       <c r="AB27" s="63">
         <f>'2_PA'!U24</f>
         <v>0</v>
@@ -5939,7 +5978,7 @@
         <f>'2_PA'!AD24</f>
         <v>PA 5.1</v>
       </c>
-      <c r="AL27" s="162"/>
+      <c r="AL27" s="182"/>
       <c r="AO27">
         <f t="shared" si="35"/>
         <v>0</v>
@@ -6017,97 +6056,97 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:60" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="170" t="s">
+    <row r="28" spans="1:60" ht="15.75" thickBot="1">
+      <c r="A28" s="167" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="172">
+      <c r="B28" s="165">
         <f>SUM(AO6:AQ6,AO18:AQ19,AO35:AQ36,AO52:AQ53)</f>
         <v>10</v>
       </c>
-      <c r="C28" s="172"/>
-      <c r="D28" s="172"/>
-      <c r="E28" s="172">
+      <c r="C28" s="165"/>
+      <c r="D28" s="165"/>
+      <c r="E28" s="165">
         <f>SUM(AR6:AT6,AR18:AT19,AR35:AT36,AR52:AT53)</f>
         <v>14</v>
       </c>
-      <c r="F28" s="172"/>
-      <c r="G28" s="172"/>
-      <c r="H28" s="172">
+      <c r="F28" s="165"/>
+      <c r="G28" s="165"/>
+      <c r="H28" s="165">
         <f>SUM(AU6:AW6,AU18:AW19,AU35:AW36,AU52:AW53)</f>
-        <v>17</v>
-      </c>
-      <c r="I28" s="172"/>
-      <c r="J28" s="172"/>
-      <c r="K28" s="172">
+        <v>13</v>
+      </c>
+      <c r="I28" s="165"/>
+      <c r="J28" s="165"/>
+      <c r="K28" s="165">
         <f>SUM(AX6:AZ6,AX18:AZ19,AX35:AZ36,AX52:AZ53)</f>
         <v>27</v>
       </c>
-      <c r="L28" s="172"/>
-      <c r="M28" s="172"/>
-      <c r="N28" s="172">
+      <c r="L28" s="165"/>
+      <c r="M28" s="165"/>
+      <c r="N28" s="165">
         <f>SUM(BA6:BC6,BA18:BC19,BA35:BC36,BA52:BC53)</f>
         <v>33</v>
       </c>
-      <c r="O28" s="172"/>
-      <c r="P28" s="172"/>
-      <c r="Q28" s="171">
+      <c r="O28" s="165"/>
+      <c r="P28" s="165"/>
+      <c r="Q28" s="166">
         <f>SUM(BD6:BF6,BD18:BF19,BD35:BF36,BD52:BF53)</f>
         <v>20</v>
       </c>
-      <c r="R28" s="171"/>
-      <c r="S28" s="171"/>
-      <c r="T28" s="181">
+      <c r="R28" s="166"/>
+      <c r="S28" s="166"/>
+      <c r="T28" s="162">
         <f t="shared" ref="T28" si="41">SUM(B28:S29)</f>
-        <v>121</v>
-      </c>
-      <c r="U28" s="180"/>
+        <v>117</v>
+      </c>
+      <c r="U28" s="161"/>
       <c r="BG28" s="158">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A29" s="170"/>
-      <c r="B29" s="172"/>
-      <c r="C29" s="172"/>
-      <c r="D29" s="172"/>
-      <c r="E29" s="172"/>
-      <c r="F29" s="172"/>
-      <c r="G29" s="172"/>
-      <c r="H29" s="172"/>
-      <c r="I29" s="172"/>
-      <c r="J29" s="172"/>
-      <c r="K29" s="172"/>
-      <c r="L29" s="172"/>
-      <c r="M29" s="172"/>
-      <c r="N29" s="172"/>
-      <c r="O29" s="172"/>
-      <c r="P29" s="172"/>
-      <c r="Q29" s="171"/>
-      <c r="R29" s="171"/>
-      <c r="S29" s="171"/>
-      <c r="T29" s="181"/>
-      <c r="U29" s="180"/>
+    <row r="29" spans="1:60">
+      <c r="A29" s="167"/>
+      <c r="B29" s="165"/>
+      <c r="C29" s="165"/>
+      <c r="D29" s="165"/>
+      <c r="E29" s="165"/>
+      <c r="F29" s="165"/>
+      <c r="G29" s="165"/>
+      <c r="H29" s="165"/>
+      <c r="I29" s="165"/>
+      <c r="J29" s="165"/>
+      <c r="K29" s="165"/>
+      <c r="L29" s="165"/>
+      <c r="M29" s="165"/>
+      <c r="N29" s="165"/>
+      <c r="O29" s="165"/>
+      <c r="P29" s="165"/>
+      <c r="Q29" s="166"/>
+      <c r="R29" s="166"/>
+      <c r="S29" s="166"/>
+      <c r="T29" s="162"/>
+      <c r="U29" s="161"/>
       <c r="AA29" t="s">
         <v>124</v>
       </c>
       <c r="AB29" s="149" t="s">
         <v>127</v>
       </c>
-      <c r="AC29" s="163" t="str">
+      <c r="AC29" s="176" t="str">
         <f>'3_PDC'!U6</f>
         <v>I Periodo</v>
       </c>
-      <c r="AD29" s="164"/>
-      <c r="AE29" s="165"/>
-      <c r="AF29" s="163" t="str">
+      <c r="AD29" s="177"/>
+      <c r="AE29" s="178"/>
+      <c r="AF29" s="176" t="str">
         <f>'3_PDC'!X6</f>
         <v>II Periodo</v>
       </c>
-      <c r="AG29" s="164"/>
-      <c r="AH29" s="166"/>
-      <c r="AI29" s="167" t="str">
+      <c r="AG29" s="177"/>
+      <c r="AH29" s="179"/>
+      <c r="AI29" s="172" t="str">
         <f>'3_PDC'!AA6</f>
         <v>Totale</v>
       </c>
@@ -6116,51 +6155,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:60" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="170" t="s">
+    <row r="30" spans="1:60" ht="15.75" thickBot="1">
+      <c r="A30" s="167" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="172">
+      <c r="B30" s="165">
         <f>SUM(AO7:AQ7,AO20:AQ21,AO37:AQ38,AO54:AQ55)</f>
         <v>15</v>
       </c>
-      <c r="C30" s="172"/>
-      <c r="D30" s="172"/>
-      <c r="E30" s="172">
+      <c r="C30" s="165"/>
+      <c r="D30" s="165"/>
+      <c r="E30" s="165">
         <f>SUM(AR7:AT7,AR20:AT21,AR37:AT38,AR54:AT55)</f>
         <v>4</v>
       </c>
-      <c r="F30" s="172"/>
-      <c r="G30" s="172"/>
-      <c r="H30" s="172">
+      <c r="F30" s="165"/>
+      <c r="G30" s="165"/>
+      <c r="H30" s="165">
         <f>SUM(AU7:AW7,AU20:AW21,AU37:AW38,AU54:AW55)</f>
         <v>11</v>
       </c>
-      <c r="I30" s="172"/>
-      <c r="J30" s="172"/>
-      <c r="K30" s="171">
+      <c r="I30" s="165"/>
+      <c r="J30" s="165"/>
+      <c r="K30" s="166">
         <f>SUM(AX7:AZ7,AX20:AZ21,AX37:AZ38,AX54:AZ55)</f>
         <v>39</v>
       </c>
-      <c r="L30" s="171"/>
-      <c r="M30" s="171"/>
-      <c r="N30" s="171">
+      <c r="L30" s="166"/>
+      <c r="M30" s="166"/>
+      <c r="N30" s="166">
         <f>SUM(BA7:BC7,BA20:BC21,BA37:BC38,BA54:BC55)</f>
         <v>35</v>
       </c>
-      <c r="O30" s="171"/>
-      <c r="P30" s="171"/>
-      <c r="Q30" s="172">
+      <c r="O30" s="166"/>
+      <c r="P30" s="166"/>
+      <c r="Q30" s="165">
         <f>SUM(BD7:BF7,BD20:BF21,BD37:BF38,BD54:BF55)</f>
         <v>18</v>
       </c>
-      <c r="R30" s="172"/>
-      <c r="S30" s="172"/>
-      <c r="T30" s="181">
+      <c r="R30" s="165"/>
+      <c r="S30" s="165"/>
+      <c r="T30" s="162">
         <f t="shared" ref="T30" si="42">SUM(B30:S31)</f>
         <v>122</v>
       </c>
-      <c r="U30" s="180"/>
+      <c r="U30" s="161"/>
       <c r="AB30" s="150"/>
       <c r="AC30" s="26" t="str">
         <f>'3_PDC'!U7</f>
@@ -6186,7 +6225,7 @@
         <f>'3_PDC'!Z7</f>
         <v>Fase</v>
       </c>
-      <c r="AI30" s="168"/>
+      <c r="AI30" s="173"/>
       <c r="AK30">
         <f>SUM(AI31:AI44)</f>
         <v>373</v>
@@ -6196,28 +6235,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A31" s="170"/>
-      <c r="B31" s="172"/>
-      <c r="C31" s="172"/>
-      <c r="D31" s="172"/>
-      <c r="E31" s="172"/>
-      <c r="F31" s="172"/>
-      <c r="G31" s="172"/>
-      <c r="H31" s="172"/>
-      <c r="I31" s="172"/>
-      <c r="J31" s="172"/>
-      <c r="K31" s="171"/>
-      <c r="L31" s="171"/>
-      <c r="M31" s="171"/>
-      <c r="N31" s="171"/>
-      <c r="O31" s="171"/>
-      <c r="P31" s="171"/>
-      <c r="Q31" s="172"/>
-      <c r="R31" s="172"/>
-      <c r="S31" s="172"/>
-      <c r="T31" s="181"/>
-      <c r="U31" s="180"/>
+    <row r="31" spans="1:60">
+      <c r="A31" s="167"/>
+      <c r="B31" s="165"/>
+      <c r="C31" s="165"/>
+      <c r="D31" s="165"/>
+      <c r="E31" s="165"/>
+      <c r="F31" s="165"/>
+      <c r="G31" s="165"/>
+      <c r="H31" s="165"/>
+      <c r="I31" s="165"/>
+      <c r="J31" s="165"/>
+      <c r="K31" s="166"/>
+      <c r="L31" s="166"/>
+      <c r="M31" s="166"/>
+      <c r="N31" s="166"/>
+      <c r="O31" s="166"/>
+      <c r="P31" s="166"/>
+      <c r="Q31" s="165"/>
+      <c r="R31" s="165"/>
+      <c r="S31" s="165"/>
+      <c r="T31" s="162"/>
+      <c r="U31" s="161"/>
       <c r="AB31" s="31" t="str">
         <f>'3_PDC'!T8</f>
         <v>Begolo Marco</v>
@@ -6246,7 +6285,7 @@
         <f>'3_PDC'!Z8</f>
         <v>PDC 4.4</v>
       </c>
-      <c r="AI31" s="169">
+      <c r="AI31" s="180">
         <f>'3_PDC'!AA8</f>
         <v>52</v>
       </c>
@@ -6331,51 +6370,51 @@
         <v>373</v>
       </c>
     </row>
-    <row r="32" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A32" s="170" t="s">
+    <row r="32" spans="1:60">
+      <c r="A32" s="167" t="s">
         <v>8</v>
       </c>
-      <c r="B32" s="172">
+      <c r="B32" s="165">
         <f>SUM(AO8:AQ8,AO22:AQ23,AO39:AQ40,AO56:AQ57)</f>
         <v>9</v>
       </c>
-      <c r="C32" s="172"/>
-      <c r="D32" s="172"/>
-      <c r="E32" s="172">
+      <c r="C32" s="165"/>
+      <c r="D32" s="165"/>
+      <c r="E32" s="165">
         <f>SUM(AR8:AT8,AR22:AT23,AR39:AT40,AR56:AT57)</f>
         <v>11</v>
       </c>
-      <c r="F32" s="172"/>
-      <c r="G32" s="172"/>
-      <c r="H32" s="172">
+      <c r="F32" s="165"/>
+      <c r="G32" s="165"/>
+      <c r="H32" s="165">
         <f>SUM(AU8:AW8,AU22:AW23,AU39:AW40,AU56:AW57)</f>
         <v>10</v>
       </c>
-      <c r="I32" s="172"/>
-      <c r="J32" s="172"/>
-      <c r="K32" s="172">
+      <c r="I32" s="165"/>
+      <c r="J32" s="165"/>
+      <c r="K32" s="165">
         <f>SUM(AX8:AZ8,AX22:AZ23,AX39:AZ40,AX56:AZ57)</f>
         <v>30</v>
       </c>
-      <c r="L32" s="172"/>
-      <c r="M32" s="172"/>
-      <c r="N32" s="171">
+      <c r="L32" s="165"/>
+      <c r="M32" s="165"/>
+      <c r="N32" s="166">
         <f>SUM(BA8:BC8,BA22:BC23,BA39:BC40,BA56:BC57)</f>
-        <v>39</v>
-      </c>
-      <c r="O32" s="171"/>
-      <c r="P32" s="171"/>
-      <c r="Q32" s="172">
+        <v>37</v>
+      </c>
+      <c r="O32" s="166"/>
+      <c r="P32" s="166"/>
+      <c r="Q32" s="165">
         <f>SUM(BD8:BF8,BD22:BF23,BD39:BF40,BD56:BF57)</f>
         <v>23</v>
       </c>
-      <c r="R32" s="172"/>
-      <c r="S32" s="172"/>
-      <c r="T32" s="181">
+      <c r="R32" s="165"/>
+      <c r="S32" s="165"/>
+      <c r="T32" s="162">
         <f t="shared" ref="T32" si="58">SUM(B32:S33)</f>
-        <v>122</v>
-      </c>
-      <c r="U32" s="180"/>
+        <v>120</v>
+      </c>
+      <c r="U32" s="161"/>
       <c r="AB32" s="35">
         <f>'3_PDC'!T9</f>
         <v>0</v>
@@ -6404,7 +6443,7 @@
         <f>'3_PDC'!Z9</f>
         <v>PDC 7</v>
       </c>
-      <c r="AI32" s="161"/>
+      <c r="AI32" s="168"/>
       <c r="AO32">
         <f>IF($AC32=AO$2,$AD32,0)</f>
         <v>0</v>
@@ -6482,28 +6521,28 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A33" s="170"/>
-      <c r="B33" s="172"/>
-      <c r="C33" s="172"/>
-      <c r="D33" s="172"/>
-      <c r="E33" s="172"/>
-      <c r="F33" s="172"/>
-      <c r="G33" s="172"/>
-      <c r="H33" s="172"/>
-      <c r="I33" s="172"/>
-      <c r="J33" s="172"/>
-      <c r="K33" s="172"/>
-      <c r="L33" s="172"/>
-      <c r="M33" s="172"/>
-      <c r="N33" s="171"/>
-      <c r="O33" s="171"/>
-      <c r="P33" s="171"/>
-      <c r="Q33" s="172"/>
-      <c r="R33" s="172"/>
-      <c r="S33" s="172"/>
-      <c r="T33" s="181"/>
-      <c r="U33" s="180"/>
+    <row r="33" spans="1:60">
+      <c r="A33" s="167"/>
+      <c r="B33" s="165"/>
+      <c r="C33" s="165"/>
+      <c r="D33" s="165"/>
+      <c r="E33" s="165"/>
+      <c r="F33" s="165"/>
+      <c r="G33" s="165"/>
+      <c r="H33" s="165"/>
+      <c r="I33" s="165"/>
+      <c r="J33" s="165"/>
+      <c r="K33" s="165"/>
+      <c r="L33" s="165"/>
+      <c r="M33" s="165"/>
+      <c r="N33" s="166"/>
+      <c r="O33" s="166"/>
+      <c r="P33" s="166"/>
+      <c r="Q33" s="165"/>
+      <c r="R33" s="165"/>
+      <c r="S33" s="165"/>
+      <c r="T33" s="162"/>
+      <c r="U33" s="161"/>
       <c r="AB33" s="31" t="str">
         <f>'3_PDC'!T10</f>
         <v>Facchin Gabriele</v>
@@ -6532,7 +6571,7 @@
         <f>'3_PDC'!Z10</f>
         <v>PDC 3.1</v>
       </c>
-      <c r="AI33" s="161">
+      <c r="AI33" s="168">
         <f>'3_PDC'!AA10</f>
         <v>52</v>
       </c>
@@ -6613,51 +6652,51 @@
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A34" s="170" t="s">
+    <row r="34" spans="1:60">
+      <c r="A34" s="167" t="s">
         <v>13</v>
       </c>
-      <c r="B34" s="172">
+      <c r="B34" s="165">
         <f>SUM(AO9:AQ9,AO24:AQ25,AO41:AQ42,AO58:AQ59)</f>
         <v>6</v>
       </c>
-      <c r="C34" s="172"/>
-      <c r="D34" s="172"/>
-      <c r="E34" s="172">
+      <c r="C34" s="165"/>
+      <c r="D34" s="165"/>
+      <c r="E34" s="165">
         <f>SUM(AR9:AT9,AR24:AT25,AR41:AT42,AR58:AT59)</f>
         <v>2</v>
       </c>
-      <c r="F34" s="172"/>
-      <c r="G34" s="172"/>
-      <c r="H34" s="172">
+      <c r="F34" s="165"/>
+      <c r="G34" s="165"/>
+      <c r="H34" s="165">
         <f>SUM(AU9:AW9,AU24:AW25,AU41:AW42,AU58:AW59)</f>
         <v>10</v>
       </c>
-      <c r="I34" s="172"/>
-      <c r="J34" s="172"/>
-      <c r="K34" s="171">
+      <c r="I34" s="165"/>
+      <c r="J34" s="165"/>
+      <c r="K34" s="166">
         <f>SUM(AX9:AZ9,AX24:AZ25,AX41:AZ42,AX58:AZ59)</f>
         <v>37</v>
       </c>
-      <c r="L34" s="171"/>
-      <c r="M34" s="171"/>
-      <c r="N34" s="171">
+      <c r="L34" s="166"/>
+      <c r="M34" s="166"/>
+      <c r="N34" s="166">
         <f>SUM(BA9:BC9,BA24:BC25,BA41:BC42,BA58:BC59)</f>
-        <v>42</v>
-      </c>
-      <c r="O34" s="171"/>
-      <c r="P34" s="171"/>
-      <c r="Q34" s="171">
+        <v>40</v>
+      </c>
+      <c r="O34" s="166"/>
+      <c r="P34" s="166"/>
+      <c r="Q34" s="166">
         <f>SUM(BD9:BF9,BD24:BF25,BD41:BF42,BD58:BF59)</f>
         <v>25</v>
       </c>
-      <c r="R34" s="171"/>
-      <c r="S34" s="171"/>
-      <c r="T34" s="181">
+      <c r="R34" s="166"/>
+      <c r="S34" s="166"/>
+      <c r="T34" s="162">
         <f t="shared" ref="T34" si="62">SUM(B34:S35)</f>
-        <v>122</v>
-      </c>
-      <c r="U34" s="180"/>
+        <v>120</v>
+      </c>
+      <c r="U34" s="161"/>
       <c r="AB34" s="31">
         <f>'3_PDC'!T11</f>
         <v>0</v>
@@ -6686,7 +6725,7 @@
         <f>'3_PDC'!Z11</f>
         <v>PDC 4.3</v>
       </c>
-      <c r="AI34" s="161"/>
+      <c r="AI34" s="168"/>
       <c r="AO34">
         <f t="shared" si="59"/>
         <v>0</v>
@@ -6764,28 +6803,28 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A35" s="170"/>
-      <c r="B35" s="172"/>
-      <c r="C35" s="172"/>
-      <c r="D35" s="172"/>
-      <c r="E35" s="172"/>
-      <c r="F35" s="172"/>
-      <c r="G35" s="172"/>
-      <c r="H35" s="172"/>
-      <c r="I35" s="172"/>
-      <c r="J35" s="172"/>
-      <c r="K35" s="171"/>
-      <c r="L35" s="171"/>
-      <c r="M35" s="171"/>
-      <c r="N35" s="171"/>
-      <c r="O35" s="171"/>
-      <c r="P35" s="171"/>
-      <c r="Q35" s="171"/>
-      <c r="R35" s="171"/>
-      <c r="S35" s="171"/>
-      <c r="T35" s="181"/>
-      <c r="U35" s="180"/>
+    <row r="35" spans="1:60">
+      <c r="A35" s="167"/>
+      <c r="B35" s="165"/>
+      <c r="C35" s="165"/>
+      <c r="D35" s="165"/>
+      <c r="E35" s="165"/>
+      <c r="F35" s="165"/>
+      <c r="G35" s="165"/>
+      <c r="H35" s="165"/>
+      <c r="I35" s="165"/>
+      <c r="J35" s="165"/>
+      <c r="K35" s="166"/>
+      <c r="L35" s="166"/>
+      <c r="M35" s="166"/>
+      <c r="N35" s="166"/>
+      <c r="O35" s="166"/>
+      <c r="P35" s="166"/>
+      <c r="Q35" s="166"/>
+      <c r="R35" s="166"/>
+      <c r="S35" s="166"/>
+      <c r="T35" s="162"/>
+      <c r="U35" s="161"/>
       <c r="AB35" s="47" t="str">
         <f>'3_PDC'!T12</f>
         <v>Cornaglia Alessando</v>
@@ -6814,7 +6853,7 @@
         <f>'3_PDC'!Z12</f>
         <v>PDC 4.4 e 5</v>
       </c>
-      <c r="AI35" s="161">
+      <c r="AI35" s="168">
         <f>'3_PDC'!AA12</f>
         <v>52</v>
       </c>
@@ -6895,51 +6934,51 @@
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A36" s="170" t="s">
+    <row r="36" spans="1:60">
+      <c r="A36" s="167" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="172">
+      <c r="B36" s="165">
         <f>SUM(AO10:AQ10,AO26:AQ27,AO43:AQ44,AO60:AQ61)</f>
         <v>12</v>
       </c>
-      <c r="C36" s="172"/>
-      <c r="D36" s="172"/>
-      <c r="E36" s="172">
+      <c r="C36" s="165"/>
+      <c r="D36" s="165"/>
+      <c r="E36" s="165">
         <f>SUM(AR10:AT10,AR26:AT27,AR43:AT44,AR60:AT61)</f>
         <v>18</v>
       </c>
-      <c r="F36" s="172"/>
-      <c r="G36" s="172"/>
-      <c r="H36" s="172">
+      <c r="F36" s="165"/>
+      <c r="G36" s="165"/>
+      <c r="H36" s="165">
         <f>SUM(AU10:AW10,AU26:AW27,AU43:AW44,AU60:AW61)</f>
-        <v>12</v>
-      </c>
-      <c r="I36" s="172"/>
-      <c r="J36" s="172"/>
-      <c r="K36" s="171">
+        <v>8</v>
+      </c>
+      <c r="I36" s="165"/>
+      <c r="J36" s="165"/>
+      <c r="K36" s="166">
         <f>SUM(AX10:AZ10,AX26:AZ27,AX43:AZ44,AX60:AZ61)</f>
         <v>51</v>
       </c>
-      <c r="L36" s="171"/>
-      <c r="M36" s="171"/>
-      <c r="N36" s="172">
+      <c r="L36" s="166"/>
+      <c r="M36" s="166"/>
+      <c r="N36" s="165">
         <f>SUM(BA10:BC10,BA26:BC27,BA43:BC44,BA60:BC61)</f>
         <v>8</v>
       </c>
-      <c r="O36" s="172"/>
-      <c r="P36" s="172"/>
-      <c r="Q36" s="172">
+      <c r="O36" s="165"/>
+      <c r="P36" s="165"/>
+      <c r="Q36" s="165">
         <f>SUM(BD10:BF10,BD26:BF27,BD43:BF44,BD60:BF61)</f>
         <v>18</v>
       </c>
-      <c r="R36" s="172"/>
-      <c r="S36" s="172"/>
-      <c r="T36" s="181">
+      <c r="R36" s="165"/>
+      <c r="S36" s="165"/>
+      <c r="T36" s="162">
         <f t="shared" ref="T36" si="63">SUM(B36:S37)</f>
-        <v>119</v>
-      </c>
-      <c r="U36" s="180"/>
+        <v>115</v>
+      </c>
+      <c r="U36" s="161"/>
       <c r="AB36" s="35">
         <f>'3_PDC'!T13</f>
         <v>0</v>
@@ -6968,7 +7007,7 @@
         <f>'3_PDC'!Z13</f>
         <v>PDC 7</v>
       </c>
-      <c r="AI36" s="161"/>
+      <c r="AI36" s="168"/>
       <c r="AO36">
         <f t="shared" si="59"/>
         <v>0</v>
@@ -7046,28 +7085,28 @@
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A37" s="170"/>
-      <c r="B37" s="172"/>
-      <c r="C37" s="172"/>
-      <c r="D37" s="172"/>
-      <c r="E37" s="172"/>
-      <c r="F37" s="172"/>
-      <c r="G37" s="172"/>
-      <c r="H37" s="172"/>
-      <c r="I37" s="172"/>
-      <c r="J37" s="172"/>
-      <c r="K37" s="171"/>
-      <c r="L37" s="171"/>
-      <c r="M37" s="171"/>
-      <c r="N37" s="172"/>
-      <c r="O37" s="172"/>
-      <c r="P37" s="172"/>
-      <c r="Q37" s="172"/>
-      <c r="R37" s="172"/>
-      <c r="S37" s="172"/>
-      <c r="T37" s="181"/>
-      <c r="U37" s="180"/>
+    <row r="37" spans="1:60">
+      <c r="A37" s="167"/>
+      <c r="B37" s="165"/>
+      <c r="C37" s="165"/>
+      <c r="D37" s="165"/>
+      <c r="E37" s="165"/>
+      <c r="F37" s="165"/>
+      <c r="G37" s="165"/>
+      <c r="H37" s="165"/>
+      <c r="I37" s="165"/>
+      <c r="J37" s="165"/>
+      <c r="K37" s="166"/>
+      <c r="L37" s="166"/>
+      <c r="M37" s="166"/>
+      <c r="N37" s="165"/>
+      <c r="O37" s="165"/>
+      <c r="P37" s="165"/>
+      <c r="Q37" s="165"/>
+      <c r="R37" s="165"/>
+      <c r="S37" s="165"/>
+      <c r="T37" s="162"/>
+      <c r="U37" s="161"/>
       <c r="AB37" s="31" t="str">
         <f>'3_PDC'!T14</f>
         <v>Dalla Pietà Massimo</v>
@@ -7096,7 +7135,7 @@
         <f>'3_PDC'!Z14</f>
         <v>PDC 4.3</v>
       </c>
-      <c r="AI37" s="161">
+      <c r="AI37" s="168">
         <f>'3_PDC'!AA14</f>
         <v>57</v>
       </c>
@@ -7177,51 +7216,51 @@
         <v>29</v>
       </c>
     </row>
-    <row r="38" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A38" s="179" t="s">
+    <row r="38" spans="1:60">
+      <c r="A38" s="164" t="s">
         <v>14</v>
       </c>
-      <c r="B38" s="172">
+      <c r="B38" s="165">
         <f>SUM(B24:D37)</f>
         <v>82</v>
       </c>
-      <c r="C38" s="172"/>
-      <c r="D38" s="172"/>
-      <c r="E38" s="172">
+      <c r="C38" s="165"/>
+      <c r="D38" s="165"/>
+      <c r="E38" s="165">
         <f t="shared" ref="E38" si="64">SUM(E24:G37)</f>
         <v>69</v>
       </c>
-      <c r="F38" s="172"/>
-      <c r="G38" s="172"/>
-      <c r="H38" s="172">
+      <c r="F38" s="165"/>
+      <c r="G38" s="165"/>
+      <c r="H38" s="165">
         <f>SUM(H24:J37)</f>
-        <v>89</v>
-      </c>
-      <c r="I38" s="172"/>
-      <c r="J38" s="172"/>
-      <c r="K38" s="172">
+        <v>79</v>
+      </c>
+      <c r="I38" s="165"/>
+      <c r="J38" s="165"/>
+      <c r="K38" s="165">
         <f t="shared" ref="K38" si="65">SUM(K24:M37)</f>
         <v>237</v>
       </c>
-      <c r="L38" s="172"/>
-      <c r="M38" s="172"/>
-      <c r="N38" s="172">
+      <c r="L38" s="165"/>
+      <c r="M38" s="165"/>
+      <c r="N38" s="165">
         <f t="shared" ref="N38" si="66">SUM(N24:P37)</f>
-        <v>245</v>
-      </c>
-      <c r="O38" s="172"/>
-      <c r="P38" s="172"/>
-      <c r="Q38" s="172">
+        <v>241</v>
+      </c>
+      <c r="O38" s="165"/>
+      <c r="P38" s="165"/>
+      <c r="Q38" s="165">
         <f>SUM(Q24:S37)</f>
         <v>120</v>
       </c>
-      <c r="R38" s="172"/>
-      <c r="S38" s="172"/>
-      <c r="T38" s="182">
+      <c r="R38" s="165"/>
+      <c r="S38" s="165"/>
+      <c r="T38" s="163">
         <f>SUM(B38:S39)</f>
-        <v>842</v>
-      </c>
-      <c r="U38" s="180"/>
+        <v>828</v>
+      </c>
+      <c r="U38" s="161"/>
       <c r="AB38" s="31">
         <f>'3_PDC'!T15</f>
         <v>0</v>
@@ -7250,7 +7289,7 @@
         <f>'3_PDC'!Z15</f>
         <v>PDC 7</v>
       </c>
-      <c r="AI38" s="161"/>
+      <c r="AI38" s="168"/>
       <c r="AO38">
         <f t="shared" si="59"/>
         <v>0</v>
@@ -7328,28 +7367,28 @@
         <v>28</v>
       </c>
     </row>
-    <row r="39" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A39" s="179"/>
-      <c r="B39" s="172"/>
-      <c r="C39" s="172"/>
-      <c r="D39" s="172"/>
-      <c r="E39" s="172"/>
-      <c r="F39" s="172"/>
-      <c r="G39" s="172"/>
-      <c r="H39" s="172"/>
-      <c r="I39" s="172"/>
-      <c r="J39" s="172"/>
-      <c r="K39" s="172"/>
-      <c r="L39" s="172"/>
-      <c r="M39" s="172"/>
-      <c r="N39" s="172"/>
-      <c r="O39" s="172"/>
-      <c r="P39" s="172"/>
-      <c r="Q39" s="172"/>
-      <c r="R39" s="172"/>
-      <c r="S39" s="172"/>
-      <c r="T39" s="182"/>
-      <c r="U39" s="180"/>
+    <row r="39" spans="1:60">
+      <c r="A39" s="164"/>
+      <c r="B39" s="165"/>
+      <c r="C39" s="165"/>
+      <c r="D39" s="165"/>
+      <c r="E39" s="165"/>
+      <c r="F39" s="165"/>
+      <c r="G39" s="165"/>
+      <c r="H39" s="165"/>
+      <c r="I39" s="165"/>
+      <c r="J39" s="165"/>
+      <c r="K39" s="165"/>
+      <c r="L39" s="165"/>
+      <c r="M39" s="165"/>
+      <c r="N39" s="165"/>
+      <c r="O39" s="165"/>
+      <c r="P39" s="165"/>
+      <c r="Q39" s="165"/>
+      <c r="R39" s="165"/>
+      <c r="S39" s="165"/>
+      <c r="T39" s="163"/>
+      <c r="U39" s="161"/>
       <c r="AB39" s="47" t="str">
         <f>'3_PDC'!T16</f>
         <v>Braghetto Lorenzo</v>
@@ -7378,7 +7417,7 @@
         <f>'3_PDC'!Z16</f>
         <v>PDC 4.4</v>
       </c>
-      <c r="AI39" s="161">
+      <c r="AI39" s="168">
         <f>'3_PDC'!AA16</f>
         <v>54</v>
       </c>
@@ -7459,7 +7498,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:60">
       <c r="A40" s="147"/>
       <c r="AB40" s="35">
         <f>'3_PDC'!T17</f>
@@ -7489,7 +7528,7 @@
         <f>'3_PDC'!Z17</f>
         <v>PDC 7</v>
       </c>
-      <c r="AI40" s="161"/>
+      <c r="AI40" s="168"/>
       <c r="AO40">
         <f t="shared" si="59"/>
         <v>0</v>
@@ -7567,7 +7606,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:60">
       <c r="A41" s="147"/>
       <c r="AB41" s="31" t="str">
         <f>'3_PDC'!T18</f>
@@ -7597,7 +7636,7 @@
         <f>'3_PDC'!Z18</f>
         <v>PDC 6</v>
       </c>
-      <c r="AI41" s="161">
+      <c r="AI41" s="168">
         <f>'3_PDC'!AA18</f>
         <v>54</v>
       </c>
@@ -7678,7 +7717,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:60">
       <c r="A42" s="147"/>
       <c r="AB42" s="31">
         <f>'3_PDC'!T19</f>
@@ -7708,7 +7747,7 @@
         <f>'3_PDC'!Z19</f>
         <v>PDC 3.2, 5 e 7</v>
       </c>
-      <c r="AI42" s="161"/>
+      <c r="AI42" s="168"/>
       <c r="AO42">
         <f t="shared" si="59"/>
         <v>0</v>
@@ -7786,7 +7825,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:60">
       <c r="A43" s="147"/>
       <c r="AB43" s="47" t="str">
         <f>'3_PDC'!T20</f>
@@ -7816,7 +7855,7 @@
         <f>'3_PDC'!Z20</f>
         <v>PDC 4.3</v>
       </c>
-      <c r="AI43" s="161">
+      <c r="AI43" s="168">
         <f>'3_PDC'!AA20</f>
         <v>52</v>
       </c>
@@ -7897,7 +7936,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="44" spans="1:60" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:60" ht="15.75" thickBot="1">
       <c r="A44" s="147"/>
       <c r="AB44" s="63">
         <f>'3_PDC'!T21</f>
@@ -7927,7 +7966,7 @@
         <f>'3_PDC'!Z21</f>
         <v>PDC 7</v>
       </c>
-      <c r="AI44" s="162"/>
+      <c r="AI44" s="182"/>
       <c r="AO44">
         <f t="shared" si="59"/>
         <v>0</v>
@@ -8005,14 +8044,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:60" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:60" ht="15.75" thickBot="1">
       <c r="A45" s="147"/>
       <c r="BG45" s="158">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:60">
       <c r="A46" s="147"/>
       <c r="AA46" t="s">
         <v>125</v>
@@ -8020,19 +8059,19 @@
       <c r="AB46" s="149" t="s">
         <v>128</v>
       </c>
-      <c r="AC46" s="163" t="str">
+      <c r="AC46" s="176" t="str">
         <f>'4_VV'!U3</f>
         <v>I Periodo</v>
       </c>
-      <c r="AD46" s="164"/>
-      <c r="AE46" s="165"/>
-      <c r="AF46" s="163" t="str">
+      <c r="AD46" s="177"/>
+      <c r="AE46" s="178"/>
+      <c r="AF46" s="176" t="str">
         <f>'4_VV'!X3</f>
         <v>II Periodo</v>
       </c>
-      <c r="AG46" s="164"/>
-      <c r="AH46" s="166"/>
-      <c r="AI46" s="167" t="str">
+      <c r="AG46" s="177"/>
+      <c r="AH46" s="179"/>
+      <c r="AI46" s="172" t="str">
         <f>'4_VV'!AA3</f>
         <v>Totale</v>
       </c>
@@ -8045,7 +8084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:60" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:60" ht="15.75" thickBot="1">
       <c r="A47" s="147"/>
       <c r="AB47" s="150"/>
       <c r="AC47" s="26" t="str">
@@ -8072,13 +8111,13 @@
         <f>'4_VV'!Z4</f>
         <v>Fase</v>
       </c>
-      <c r="AI47" s="168"/>
+      <c r="AI47" s="173"/>
       <c r="BG47" s="158">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:60">
       <c r="A48" s="147"/>
       <c r="AB48" s="31" t="str">
         <f>'4_VV'!T5</f>
@@ -8108,7 +8147,7 @@
         <f>'4_VV'!Z5</f>
         <v>VV 3.2</v>
       </c>
-      <c r="AI48" s="169">
+      <c r="AI48" s="180">
         <f>'4_VV'!AA5</f>
         <v>18</v>
       </c>
@@ -8193,7 +8232,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="49" spans="20:59" x14ac:dyDescent="0.25">
+    <row r="49" spans="20:59">
       <c r="AB49" s="35">
         <f>'4_VV'!T6</f>
         <v>0</v>
@@ -8222,7 +8261,7 @@
         <f>'4_VV'!Z6</f>
         <v>0</v>
       </c>
-      <c r="AI49" s="161"/>
+      <c r="AI49" s="168"/>
       <c r="AO49">
         <f>IF($AC49=AO$2,$AD49,0)</f>
         <v>0</v>
@@ -8300,7 +8339,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="20:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="20:59" ht="15.75" thickBot="1">
       <c r="AB50" s="31" t="str">
         <f>'4_VV'!T7</f>
         <v>Facchin Gabriele</v>
@@ -8329,7 +8368,7 @@
         <f>'4_VV'!Z7</f>
         <v>VV 3.2</v>
       </c>
-      <c r="AI50" s="161">
+      <c r="AI50" s="168">
         <f>'4_VV'!AA7</f>
         <v>18</v>
       </c>
@@ -8410,7 +8449,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="51" spans="20:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="20:59" ht="15.75" thickBot="1">
       <c r="T51" s="1" t="s">
         <v>26</v>
       </c>
@@ -8451,7 +8490,7 @@
         <f>'4_VV'!Z8</f>
         <v>VV 3.2</v>
       </c>
-      <c r="AI51" s="161"/>
+      <c r="AI51" s="168"/>
       <c r="AO51">
         <f t="shared" si="82"/>
         <v>0</v>
@@ -8529,7 +8568,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="20:59" x14ac:dyDescent="0.25">
+    <row r="52" spans="20:59">
       <c r="T52" s="12" t="s">
         <v>1</v>
       </c>
@@ -8572,7 +8611,7 @@
         <f>'4_VV'!Z9</f>
         <v>VV 3.1</v>
       </c>
-      <c r="AI52" s="161">
+      <c r="AI52" s="168">
         <f>'4_VV'!AA9</f>
         <v>18</v>
       </c>
@@ -8653,7 +8692,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="53" spans="20:59" x14ac:dyDescent="0.25">
+    <row r="53" spans="20:59">
       <c r="T53" s="15" t="s">
         <v>2</v>
       </c>
@@ -8696,7 +8735,7 @@
         <f>'4_VV'!Z10</f>
         <v>0</v>
       </c>
-      <c r="AI53" s="161"/>
+      <c r="AI53" s="168"/>
       <c r="AO53">
         <f t="shared" si="82"/>
         <v>0</v>
@@ -8774,17 +8813,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="20:59" x14ac:dyDescent="0.25">
+    <row r="54" spans="20:59">
       <c r="T54" s="15" t="s">
         <v>3</v>
       </c>
       <c r="U54" s="16">
         <f>H38</f>
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="V54" s="17">
         <f t="shared" si="85"/>
-        <v>2225</v>
+        <v>1975</v>
       </c>
       <c r="W54">
         <v>25</v>
@@ -8817,7 +8856,7 @@
         <f>'4_VV'!Z11</f>
         <v>VV 3.1</v>
       </c>
-      <c r="AI54" s="161">
+      <c r="AI54" s="168">
         <f>'4_VV'!AA11</f>
         <v>18</v>
       </c>
@@ -8898,7 +8937,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="55" spans="20:59" x14ac:dyDescent="0.25">
+    <row r="55" spans="20:59">
       <c r="T55" s="15" t="s">
         <v>4</v>
       </c>
@@ -8941,7 +8980,7 @@
         <f>'4_VV'!Z12</f>
         <v>0</v>
       </c>
-      <c r="AI55" s="161"/>
+      <c r="AI55" s="168"/>
       <c r="AO55">
         <f t="shared" si="82"/>
         <v>0</v>
@@ -9019,17 +9058,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="20:59" x14ac:dyDescent="0.25">
+    <row r="56" spans="20:59">
       <c r="T56" s="15" t="s">
         <v>5</v>
       </c>
       <c r="U56" s="16">
         <f>N38</f>
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="V56" s="17">
         <f t="shared" si="85"/>
-        <v>5390</v>
+        <v>5302</v>
       </c>
       <c r="W56">
         <v>22</v>
@@ -9062,7 +9101,7 @@
         <f>'4_VV'!Z13</f>
         <v>VV 3.1</v>
       </c>
-      <c r="AI56" s="161">
+      <c r="AI56" s="168">
         <f>'4_VV'!AA13</f>
         <v>18</v>
       </c>
@@ -9143,7 +9182,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="57" spans="20:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="20:59" ht="15.75" thickBot="1">
       <c r="T57" s="22" t="s">
         <v>6</v>
       </c>
@@ -9186,7 +9225,7 @@
         <f>'4_VV'!Z14</f>
         <v>0</v>
       </c>
-      <c r="AI57" s="161"/>
+      <c r="AI57" s="168"/>
       <c r="AO57">
         <f t="shared" si="82"/>
         <v>0</v>
@@ -9264,17 +9303,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="20:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="20:59" ht="15.75" thickBot="1">
       <c r="T58" s="1" t="s">
         <v>14</v>
       </c>
       <c r="U58" s="3">
         <f>SUM(U52:U57)</f>
-        <v>842</v>
+        <v>828</v>
       </c>
       <c r="V58" s="25">
         <f>SUM(V52:V57)</f>
-        <v>16810</v>
+        <v>16472</v>
       </c>
       <c r="AB58" s="31" t="str">
         <f>'4_VV'!T15</f>
@@ -9304,7 +9343,7 @@
         <f>'4_VV'!Z15</f>
         <v>VV 3.1</v>
       </c>
-      <c r="AI58" s="161">
+      <c r="AI58" s="168">
         <f>'4_VV'!AA15</f>
         <v>18</v>
       </c>
@@ -9385,7 +9424,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="59" spans="20:59" x14ac:dyDescent="0.25">
+    <row r="59" spans="20:59">
       <c r="AB59" s="31">
         <f>'4_VV'!T16</f>
         <v>0</v>
@@ -9414,7 +9453,7 @@
         <f>'4_VV'!Z16</f>
         <v>0</v>
       </c>
-      <c r="AI59" s="161"/>
+      <c r="AI59" s="168"/>
       <c r="AO59">
         <f t="shared" si="82"/>
         <v>0</v>
@@ -9492,7 +9531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="20:59" x14ac:dyDescent="0.25">
+    <row r="60" spans="20:59">
       <c r="AB60" s="47" t="str">
         <f>'4_VV'!T17</f>
         <v>Maggiolo Giorgio</v>
@@ -9521,7 +9560,7 @@
         <f>'4_VV'!Z17</f>
         <v>VV 3.1</v>
       </c>
-      <c r="AI60" s="161">
+      <c r="AI60" s="168">
         <f>'4_VV'!AA17</f>
         <v>16</v>
       </c>
@@ -9602,7 +9641,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="61" spans="20:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="20:59" ht="15.75" thickBot="1">
       <c r="AB61" s="63">
         <f>'4_VV'!T18</f>
         <v>0</v>
@@ -9631,7 +9670,7 @@
         <f>'4_VV'!Z18</f>
         <v>0</v>
       </c>
-      <c r="AI61" s="162"/>
+      <c r="AI61" s="182"/>
       <c r="AO61">
         <f t="shared" si="82"/>
         <v>0</v>
@@ -9711,22 +9750,78 @@
     </row>
   </sheetData>
   <mergeCells count="112">
-    <mergeCell ref="U38:U39"/>
-    <mergeCell ref="U34:U35"/>
-    <mergeCell ref="U32:U33"/>
-    <mergeCell ref="U30:U31"/>
-    <mergeCell ref="U28:U29"/>
-    <mergeCell ref="U26:U27"/>
-    <mergeCell ref="U24:U25"/>
-    <mergeCell ref="U36:U37"/>
-    <mergeCell ref="T26:T27"/>
-    <mergeCell ref="T24:T25"/>
-    <mergeCell ref="T34:T35"/>
-    <mergeCell ref="T32:T33"/>
-    <mergeCell ref="T30:T31"/>
-    <mergeCell ref="T28:T29"/>
-    <mergeCell ref="T38:T39"/>
-    <mergeCell ref="T36:T37"/>
+    <mergeCell ref="AI43:AI44"/>
+    <mergeCell ref="AC46:AE46"/>
+    <mergeCell ref="AF46:AH46"/>
+    <mergeCell ref="AI46:AI47"/>
+    <mergeCell ref="AI60:AI61"/>
+    <mergeCell ref="AI48:AI49"/>
+    <mergeCell ref="AI50:AI51"/>
+    <mergeCell ref="AI52:AI53"/>
+    <mergeCell ref="AI54:AI55"/>
+    <mergeCell ref="AI56:AI57"/>
+    <mergeCell ref="AI58:AI59"/>
+    <mergeCell ref="AI41:AI42"/>
+    <mergeCell ref="AL24:AL25"/>
+    <mergeCell ref="AL26:AL27"/>
+    <mergeCell ref="AC29:AE29"/>
+    <mergeCell ref="AF29:AH29"/>
+    <mergeCell ref="AI29:AI30"/>
+    <mergeCell ref="AI31:AI32"/>
+    <mergeCell ref="AI33:AI34"/>
+    <mergeCell ref="AI35:AI36"/>
+    <mergeCell ref="AI37:AI38"/>
+    <mergeCell ref="AI39:AI40"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="H24:J25"/>
+    <mergeCell ref="E24:G25"/>
+    <mergeCell ref="B24:D25"/>
+    <mergeCell ref="AL22:AL23"/>
+    <mergeCell ref="AC2:AE2"/>
+    <mergeCell ref="AF2:AH2"/>
+    <mergeCell ref="AI2:AI3"/>
+    <mergeCell ref="AC12:AE12"/>
+    <mergeCell ref="AF12:AH12"/>
+    <mergeCell ref="AI12:AK12"/>
+    <mergeCell ref="AL12:AL13"/>
+    <mergeCell ref="AL14:AL15"/>
+    <mergeCell ref="AL16:AL17"/>
+    <mergeCell ref="AL18:AL19"/>
+    <mergeCell ref="AL20:AL21"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="Q23:S23"/>
+    <mergeCell ref="N23:P23"/>
+    <mergeCell ref="K23:M23"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:D27"/>
+    <mergeCell ref="E26:G27"/>
+    <mergeCell ref="H26:J27"/>
+    <mergeCell ref="K26:M27"/>
+    <mergeCell ref="E30:G31"/>
+    <mergeCell ref="H30:J31"/>
+    <mergeCell ref="K30:M31"/>
+    <mergeCell ref="N26:P27"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="K32:M33"/>
+    <mergeCell ref="N32:P33"/>
+    <mergeCell ref="Q32:S33"/>
+    <mergeCell ref="Q24:S25"/>
+    <mergeCell ref="N24:P25"/>
+    <mergeCell ref="K24:M25"/>
+    <mergeCell ref="B32:D33"/>
+    <mergeCell ref="E32:G33"/>
+    <mergeCell ref="H32:J33"/>
+    <mergeCell ref="Q26:S27"/>
+    <mergeCell ref="K28:M29"/>
+    <mergeCell ref="N28:P29"/>
+    <mergeCell ref="Q28:S29"/>
+    <mergeCell ref="B30:D31"/>
+    <mergeCell ref="B28:D29"/>
+    <mergeCell ref="E28:G29"/>
+    <mergeCell ref="H28:J29"/>
     <mergeCell ref="A38:A39"/>
     <mergeCell ref="B38:D39"/>
     <mergeCell ref="E38:G39"/>
@@ -9751,99 +9846,43 @@
     <mergeCell ref="N36:P37"/>
     <mergeCell ref="Q36:S37"/>
     <mergeCell ref="Q34:S35"/>
-    <mergeCell ref="K32:M33"/>
-    <mergeCell ref="N32:P33"/>
-    <mergeCell ref="Q32:S33"/>
-    <mergeCell ref="Q24:S25"/>
-    <mergeCell ref="N24:P25"/>
-    <mergeCell ref="K24:M25"/>
-    <mergeCell ref="B32:D33"/>
-    <mergeCell ref="E32:G33"/>
-    <mergeCell ref="H32:J33"/>
-    <mergeCell ref="Q26:S27"/>
-    <mergeCell ref="K28:M29"/>
-    <mergeCell ref="N28:P29"/>
-    <mergeCell ref="Q28:S29"/>
-    <mergeCell ref="B30:D31"/>
-    <mergeCell ref="B28:D29"/>
-    <mergeCell ref="E28:G29"/>
-    <mergeCell ref="H28:J29"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:D27"/>
-    <mergeCell ref="E26:G27"/>
-    <mergeCell ref="H26:J27"/>
-    <mergeCell ref="K26:M27"/>
-    <mergeCell ref="E30:G31"/>
-    <mergeCell ref="H30:J31"/>
-    <mergeCell ref="K30:M31"/>
-    <mergeCell ref="N26:P27"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="H24:J25"/>
-    <mergeCell ref="E24:G25"/>
-    <mergeCell ref="B24:D25"/>
-    <mergeCell ref="AL22:AL23"/>
-    <mergeCell ref="AC2:AE2"/>
-    <mergeCell ref="AF2:AH2"/>
-    <mergeCell ref="AI2:AI3"/>
-    <mergeCell ref="AC12:AE12"/>
-    <mergeCell ref="AF12:AH12"/>
-    <mergeCell ref="AI12:AK12"/>
-    <mergeCell ref="AL12:AL13"/>
-    <mergeCell ref="AL14:AL15"/>
-    <mergeCell ref="AL16:AL17"/>
-    <mergeCell ref="AL18:AL19"/>
-    <mergeCell ref="AL20:AL21"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="Q23:S23"/>
-    <mergeCell ref="N23:P23"/>
-    <mergeCell ref="K23:M23"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="AI41:AI42"/>
-    <mergeCell ref="AL24:AL25"/>
-    <mergeCell ref="AL26:AL27"/>
-    <mergeCell ref="AC29:AE29"/>
-    <mergeCell ref="AF29:AH29"/>
-    <mergeCell ref="AI29:AI30"/>
-    <mergeCell ref="AI31:AI32"/>
-    <mergeCell ref="AI33:AI34"/>
-    <mergeCell ref="AI35:AI36"/>
-    <mergeCell ref="AI37:AI38"/>
-    <mergeCell ref="AI39:AI40"/>
-    <mergeCell ref="AI43:AI44"/>
-    <mergeCell ref="AC46:AE46"/>
-    <mergeCell ref="AF46:AH46"/>
-    <mergeCell ref="AI46:AI47"/>
-    <mergeCell ref="AI60:AI61"/>
-    <mergeCell ref="AI48:AI49"/>
-    <mergeCell ref="AI50:AI51"/>
-    <mergeCell ref="AI52:AI53"/>
-    <mergeCell ref="AI54:AI55"/>
-    <mergeCell ref="AI56:AI57"/>
-    <mergeCell ref="AI58:AI59"/>
+    <mergeCell ref="U38:U39"/>
+    <mergeCell ref="U34:U35"/>
+    <mergeCell ref="U32:U33"/>
+    <mergeCell ref="U30:U31"/>
+    <mergeCell ref="U28:U29"/>
+    <mergeCell ref="U26:U27"/>
+    <mergeCell ref="U24:U25"/>
+    <mergeCell ref="U36:U37"/>
+    <mergeCell ref="T26:T27"/>
+    <mergeCell ref="T24:T25"/>
+    <mergeCell ref="T34:T35"/>
+    <mergeCell ref="T32:T33"/>
+    <mergeCell ref="T30:T31"/>
+    <mergeCell ref="T28:T29"/>
+    <mergeCell ref="T38:T39"/>
+    <mergeCell ref="T36:T37"/>
   </mergeCells>
   <conditionalFormatting sqref="AB14:AL27">
-    <cfRule type="cellIs" dxfId="23" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB29:AI44">
-    <cfRule type="cellIs" dxfId="22" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="4" operator="equal">
       <formula>27.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB46:AI61">
-    <cfRule type="cellIs" dxfId="20" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24:T39">
-    <cfRule type="cellIs" dxfId="19" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9853,14 +9892,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BH61"/>
   <sheetViews>
     <sheetView topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="T38" sqref="B24:T39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="19.85546875" customWidth="1"/>
     <col min="2" max="3" width="3.42578125" customWidth="1"/>
@@ -9882,7 +9921,7 @@
     <col min="41" max="58" width="3.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:60" ht="15.75" thickBot="1">
       <c r="A1" s="147"/>
       <c r="B1" s="148"/>
       <c r="C1" s="148"/>
@@ -9906,7 +9945,7 @@
       <c r="U1" s="148"/>
       <c r="V1" s="147"/>
     </row>
-    <row r="2" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:60">
       <c r="A2" s="147"/>
       <c r="B2" s="148"/>
       <c r="C2" s="148"/>
@@ -9933,13 +9972,13 @@
         <v>74</v>
       </c>
       <c r="AB2" s="149"/>
-      <c r="AC2" s="173"/>
-      <c r="AD2" s="174"/>
-      <c r="AE2" s="175"/>
-      <c r="AF2" s="173"/>
-      <c r="AG2" s="174"/>
-      <c r="AH2" s="174"/>
-      <c r="AI2" s="167"/>
+      <c r="AC2" s="169"/>
+      <c r="AD2" s="170"/>
+      <c r="AE2" s="171"/>
+      <c r="AF2" s="169"/>
+      <c r="AG2" s="170"/>
+      <c r="AH2" s="170"/>
+      <c r="AI2" s="172"/>
       <c r="AJ2">
         <f>SUM(AI4:AI10)</f>
         <v>0</v>
@@ -9999,7 +10038,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:60" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:60" ht="15.75" thickBot="1">
       <c r="A3" s="147"/>
       <c r="B3" s="148"/>
       <c r="C3" s="148"/>
@@ -10029,9 +10068,9 @@
       <c r="AF3" s="104"/>
       <c r="AG3" s="105"/>
       <c r="AH3" s="107"/>
-      <c r="AI3" s="168"/>
-    </row>
-    <row r="4" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="AI3" s="173"/>
+    </row>
+    <row r="4" spans="1:60">
       <c r="A4" s="147"/>
       <c r="B4" s="148"/>
       <c r="C4" s="148"/>
@@ -10119,7 +10158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:60">
       <c r="A5" s="147"/>
       <c r="B5" s="148"/>
       <c r="C5" s="148"/>
@@ -10207,7 +10246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:60">
       <c r="A6" s="147"/>
       <c r="B6" s="148"/>
       <c r="C6" s="148"/>
@@ -10295,7 +10334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:60">
       <c r="A7" s="147"/>
       <c r="B7" s="148"/>
       <c r="C7" s="148"/>
@@ -10383,7 +10422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:60">
       <c r="A8" s="147"/>
       <c r="B8" s="148"/>
       <c r="C8" s="148"/>
@@ -10471,7 +10510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:60">
       <c r="A9" s="147"/>
       <c r="B9" s="148"/>
       <c r="C9" s="148"/>
@@ -10559,7 +10598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:60" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:60" ht="15.75" thickBot="1">
       <c r="AB10" s="122"/>
       <c r="AC10" s="123"/>
       <c r="AD10" s="124"/>
@@ -10629,38 +10668,38 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:60" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:60" ht="15.75" thickBot="1">
       <c r="BG11" s="158">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:60">
       <c r="AA12" t="s">
         <v>123</v>
       </c>
       <c r="AB12" s="149" t="s">
         <v>126</v>
       </c>
-      <c r="AC12" s="173" t="str">
+      <c r="AC12" s="169" t="str">
         <f>'2_PA'!V9</f>
         <v>I Periodo</v>
       </c>
-      <c r="AD12" s="176"/>
-      <c r="AE12" s="177"/>
-      <c r="AF12" s="163" t="str">
+      <c r="AD12" s="174"/>
+      <c r="AE12" s="175"/>
+      <c r="AF12" s="176" t="str">
         <f>'2_PA'!Y9</f>
         <v>II Periodo</v>
       </c>
-      <c r="AG12" s="164"/>
-      <c r="AH12" s="165"/>
-      <c r="AI12" s="163" t="str">
+      <c r="AG12" s="177"/>
+      <c r="AH12" s="178"/>
+      <c r="AI12" s="176" t="str">
         <f>'2_PA'!AB9</f>
         <v>III Periodo</v>
       </c>
-      <c r="AJ12" s="164"/>
-      <c r="AK12" s="166"/>
-      <c r="AL12" s="167" t="str">
+      <c r="AJ12" s="177"/>
+      <c r="AK12" s="179"/>
+      <c r="AL12" s="172" t="str">
         <f>'2_PA'!AE9</f>
         <v>Totale</v>
       </c>
@@ -10669,7 +10708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:60" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:60" ht="15.75" thickBot="1">
       <c r="AB13" s="150"/>
       <c r="AC13" s="26" t="str">
         <f>'2_PA'!V10</f>
@@ -10707,17 +10746,17 @@
         <f>'2_PA'!AD10</f>
         <v>Fase</v>
       </c>
-      <c r="AL13" s="168"/>
+      <c r="AL13" s="173"/>
       <c r="AM13">
         <f>SUM(AL14:AL27)</f>
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="BG13" s="158">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:60">
       <c r="AB14" s="31" t="str">
         <f>'2_PA'!U11</f>
         <v>Begolo Marco</v>
@@ -10728,7 +10767,7 @@
       </c>
       <c r="AD14" s="33">
         <f>'2_PA'!W11</f>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AE14" s="34" t="str">
         <f>'2_PA'!X11</f>
@@ -10758,9 +10797,9 @@
         <f>'2_PA'!AD11</f>
         <v>PA 3.2</v>
       </c>
-      <c r="AL14" s="169">
+      <c r="AL14" s="180">
         <f>'2_PA'!AE11</f>
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AO14">
         <f>IF($AC14=AO$2,$AD14,0)</f>
@@ -10788,7 +10827,7 @@
       </c>
       <c r="AU14">
         <f t="shared" ref="AU14:AU15" si="17">IF($AC14=AU$2,$AD14,0)</f>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AV14">
         <f t="shared" ref="AV14:AV15" si="18">IF($AF14=AV$2,$AG14,0)</f>
@@ -10836,14 +10875,14 @@
       </c>
       <c r="BG14" s="158">
         <f t="shared" si="13"/>
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="BH14">
         <f>SUM(AO14:BF27)</f>
-        <v>207</v>
-      </c>
-    </row>
-    <row r="15" spans="1:60" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="15" spans="1:60">
       <c r="AB15" s="35">
         <f>'2_PA'!U12</f>
         <v>0</v>
@@ -10884,7 +10923,7 @@
         <f>'2_PA'!AD12</f>
         <v>0</v>
       </c>
-      <c r="AL15" s="161"/>
+      <c r="AL15" s="168"/>
       <c r="AO15">
         <f>IF($AC15=AO$2,$AD15,0)</f>
         <v>0</v>
@@ -10962,7 +11001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:60">
       <c r="AB16" s="31" t="str">
         <f>'2_PA'!U13</f>
         <v>Facchin Gabriele</v>
@@ -11003,7 +11042,7 @@
         <f>'2_PA'!AD13</f>
         <v>PA 3.2</v>
       </c>
-      <c r="AL16" s="161">
+      <c r="AL16" s="168">
         <f>'2_PA'!AE13</f>
         <v>29</v>
       </c>
@@ -11084,7 +11123,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:60">
       <c r="AB17" s="31">
         <f>'2_PA'!U14</f>
         <v>0</v>
@@ -11125,7 +11164,7 @@
         <f>'2_PA'!AD14</f>
         <v>0</v>
       </c>
-      <c r="AL17" s="161"/>
+      <c r="AL17" s="168"/>
       <c r="AO17">
         <f t="shared" si="29"/>
         <v>0</v>
@@ -11203,7 +11242,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:60">
       <c r="AB18" s="47" t="str">
         <f>'2_PA'!U15</f>
         <v>Cornaglia Alessando</v>
@@ -11214,7 +11253,7 @@
       </c>
       <c r="AD18" s="49">
         <f>'2_PA'!W15</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AE18" s="50" t="str">
         <f>'2_PA'!X15</f>
@@ -11244,9 +11283,9 @@
         <f>'2_PA'!AD15</f>
         <v>PA 3.3</v>
       </c>
-      <c r="AL18" s="161">
+      <c r="AL18" s="168">
         <f>'2_PA'!AE15</f>
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AO18">
         <f t="shared" si="29"/>
@@ -11274,7 +11313,7 @@
       </c>
       <c r="AU18">
         <f t="shared" si="14"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AV18">
         <f t="shared" si="15"/>
@@ -11322,10 +11361,10 @@
       </c>
       <c r="BG18" s="158">
         <f t="shared" si="13"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:60" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:60">
       <c r="AB19" s="35">
         <f>'2_PA'!U16</f>
         <v>0</v>
@@ -11366,7 +11405,7 @@
         <f>'2_PA'!AD16</f>
         <v>PA 6.1</v>
       </c>
-      <c r="AL19" s="161"/>
+      <c r="AL19" s="168"/>
       <c r="AO19">
         <f t="shared" si="29"/>
         <v>0</v>
@@ -11444,7 +11483,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:60">
       <c r="AB20" s="31" t="str">
         <f>'2_PA'!U17</f>
         <v>Dalla Pietà Massimo</v>
@@ -11485,7 +11524,7 @@
         <f>'2_PA'!AD17</f>
         <v>PA 3.3</v>
       </c>
-      <c r="AL20" s="161">
+      <c r="AL20" s="168">
         <f>'2_PA'!AE17</f>
         <v>28</v>
       </c>
@@ -11566,7 +11605,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:60">
       <c r="AB21" s="31">
         <f>'2_PA'!U18</f>
         <v>0</v>
@@ -11607,7 +11646,7 @@
         <f>'2_PA'!AD18</f>
         <v>PA 6.2</v>
       </c>
-      <c r="AL21" s="161"/>
+      <c r="AL21" s="168"/>
       <c r="AO21">
         <f t="shared" si="29"/>
         <v>0</v>
@@ -11685,7 +11724,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:60">
       <c r="AB22" s="47" t="str">
         <f>'2_PA'!U19</f>
         <v>Braghetto Lorenzo</v>
@@ -11708,7 +11747,7 @@
       </c>
       <c r="AG22" s="49">
         <f>'2_PA'!Z19</f>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AH22" s="50" t="str">
         <f>'2_PA'!AA19</f>
@@ -11726,9 +11765,9 @@
         <f>'2_PA'!AD19</f>
         <v>PA 5.1</v>
       </c>
-      <c r="AL22" s="161">
+      <c r="AL22" s="168">
         <f>'2_PA'!AE19</f>
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AO22">
         <f t="shared" si="29"/>
@@ -11784,7 +11823,7 @@
       </c>
       <c r="BB22">
         <f t="shared" si="15"/>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BC22">
         <f t="shared" si="16"/>
@@ -11804,43 +11843,43 @@
       </c>
       <c r="BG22" s="158">
         <f t="shared" si="13"/>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="1:60" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:60">
       <c r="A23" s="156" t="s">
         <v>0</v>
       </c>
-      <c r="B23" s="178" t="s">
+      <c r="B23" s="181" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="178"/>
-      <c r="D23" s="178"/>
-      <c r="E23" s="178" t="s">
+      <c r="C23" s="181"/>
+      <c r="D23" s="181"/>
+      <c r="E23" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="F23" s="178"/>
-      <c r="G23" s="178"/>
-      <c r="H23" s="178" t="s">
+      <c r="F23" s="181"/>
+      <c r="G23" s="181"/>
+      <c r="H23" s="181" t="s">
         <v>3</v>
       </c>
-      <c r="I23" s="178"/>
-      <c r="J23" s="178"/>
-      <c r="K23" s="178" t="s">
+      <c r="I23" s="181"/>
+      <c r="J23" s="181"/>
+      <c r="K23" s="181" t="s">
         <v>4</v>
       </c>
-      <c r="L23" s="178"/>
-      <c r="M23" s="178"/>
-      <c r="N23" s="178" t="s">
+      <c r="L23" s="181"/>
+      <c r="M23" s="181"/>
+      <c r="N23" s="181" t="s">
         <v>5</v>
       </c>
-      <c r="O23" s="178"/>
-      <c r="P23" s="178"/>
-      <c r="Q23" s="178" t="s">
+      <c r="O23" s="181"/>
+      <c r="P23" s="181"/>
+      <c r="Q23" s="181" t="s">
         <v>6</v>
       </c>
-      <c r="R23" s="178"/>
-      <c r="S23" s="178"/>
+      <c r="R23" s="181"/>
+      <c r="S23" s="181"/>
       <c r="T23" s="156" t="s">
         <v>14</v>
       </c>
@@ -11885,7 +11924,7 @@
         <f>'2_PA'!AD20</f>
         <v>0</v>
       </c>
-      <c r="AL23" s="161"/>
+      <c r="AL23" s="168"/>
       <c r="AO23">
         <f t="shared" si="29"/>
         <v>0</v>
@@ -11963,51 +12002,51 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A24" s="170" t="s">
+    <row r="24" spans="1:60">
+      <c r="A24" s="167" t="s">
         <v>7</v>
       </c>
-      <c r="B24" s="172">
+      <c r="B24" s="165">
         <f>SUM(AO4:AQ4,AO14:AQ15,AO31:AQ32,AO48:AQ49)</f>
         <v>4</v>
       </c>
-      <c r="C24" s="172"/>
-      <c r="D24" s="172"/>
-      <c r="E24" s="172">
+      <c r="C24" s="165"/>
+      <c r="D24" s="165"/>
+      <c r="E24" s="165">
         <f>SUM(AR4:AT4,AR14:AT15,AR31:AT32,AR48:AT49)</f>
         <v>10</v>
       </c>
-      <c r="F24" s="172"/>
-      <c r="G24" s="172"/>
-      <c r="H24" s="171">
+      <c r="F24" s="165"/>
+      <c r="G24" s="165"/>
+      <c r="H24" s="166">
         <f>SUM(AU4:AW4,AU14:AW15,AU31:AW32,AU48:AW49)</f>
-        <v>12</v>
-      </c>
-      <c r="I24" s="171"/>
-      <c r="J24" s="171"/>
-      <c r="K24" s="172">
+        <v>10</v>
+      </c>
+      <c r="I24" s="166"/>
+      <c r="J24" s="166"/>
+      <c r="K24" s="165">
         <f>SUM(AX4:AZ4,AX14:AZ15,AX31:AZ32,AX48:AZ49)</f>
         <v>10</v>
       </c>
-      <c r="L24" s="172"/>
-      <c r="M24" s="172"/>
-      <c r="N24" s="171">
+      <c r="L24" s="165"/>
+      <c r="M24" s="165"/>
+      <c r="N24" s="166">
         <f>SUM(BA4:BC4,BA14:BC15,BA31:BC32,BA48:BC49)</f>
         <v>59</v>
       </c>
-      <c r="O24" s="171"/>
-      <c r="P24" s="171"/>
-      <c r="Q24" s="172">
+      <c r="O24" s="166"/>
+      <c r="P24" s="166"/>
+      <c r="Q24" s="165">
         <f>SUM(BD4:BF4,BD14:BF15,BD31:BF32,BD48:BF49)</f>
         <v>4</v>
       </c>
-      <c r="R24" s="172"/>
-      <c r="S24" s="172"/>
-      <c r="T24" s="172">
+      <c r="R24" s="165"/>
+      <c r="S24" s="165"/>
+      <c r="T24" s="165">
         <f t="shared" ref="T24" si="32">SUM(B24:S25)</f>
-        <v>99</v>
-      </c>
-      <c r="U24" s="180"/>
+        <v>97</v>
+      </c>
+      <c r="U24" s="161"/>
       <c r="AB24" s="31" t="str">
         <f>'2_PA'!U21</f>
         <v>Quadrio Giacomo</v>
@@ -12030,7 +12069,7 @@
       </c>
       <c r="AG24" s="33">
         <f>'2_PA'!Z21</f>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AH24" s="84" t="str">
         <f>'2_PA'!AA21</f>
@@ -12048,9 +12087,9 @@
         <f>'2_PA'!AD21</f>
         <v>PA 5.1, 6.2</v>
       </c>
-      <c r="AL24" s="161">
+      <c r="AL24" s="168">
         <f>'2_PA'!AE21</f>
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AO24">
         <f t="shared" si="29"/>
@@ -12106,7 +12145,7 @@
       </c>
       <c r="BB24">
         <f t="shared" si="15"/>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BC24">
         <f t="shared" si="16"/>
@@ -12126,31 +12165,31 @@
       </c>
       <c r="BG24" s="158">
         <f t="shared" si="13"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A25" s="170"/>
-      <c r="B25" s="172"/>
-      <c r="C25" s="172"/>
-      <c r="D25" s="172"/>
-      <c r="E25" s="172"/>
-      <c r="F25" s="172"/>
-      <c r="G25" s="172"/>
-      <c r="H25" s="171"/>
-      <c r="I25" s="171"/>
-      <c r="J25" s="171"/>
-      <c r="K25" s="172"/>
-      <c r="L25" s="172"/>
-      <c r="M25" s="172"/>
-      <c r="N25" s="171"/>
-      <c r="O25" s="171"/>
-      <c r="P25" s="171"/>
-      <c r="Q25" s="172"/>
-      <c r="R25" s="172"/>
-      <c r="S25" s="172"/>
-      <c r="T25" s="172"/>
-      <c r="U25" s="180"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:60">
+      <c r="A25" s="167"/>
+      <c r="B25" s="165"/>
+      <c r="C25" s="165"/>
+      <c r="D25" s="165"/>
+      <c r="E25" s="165"/>
+      <c r="F25" s="165"/>
+      <c r="G25" s="165"/>
+      <c r="H25" s="166"/>
+      <c r="I25" s="166"/>
+      <c r="J25" s="166"/>
+      <c r="K25" s="165"/>
+      <c r="L25" s="165"/>
+      <c r="M25" s="165"/>
+      <c r="N25" s="166"/>
+      <c r="O25" s="166"/>
+      <c r="P25" s="166"/>
+      <c r="Q25" s="165"/>
+      <c r="R25" s="165"/>
+      <c r="S25" s="165"/>
+      <c r="T25" s="165"/>
+      <c r="U25" s="161"/>
       <c r="AB25" s="31">
         <f>'2_PA'!U22</f>
         <v>0</v>
@@ -12191,7 +12230,7 @@
         <f>'2_PA'!AD22</f>
         <v>0</v>
       </c>
-      <c r="AL25" s="161"/>
+      <c r="AL25" s="168"/>
       <c r="AO25">
         <f t="shared" si="29"/>
         <v>0</v>
@@ -12269,51 +12308,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A26" s="170" t="s">
+    <row r="26" spans="1:60">
+      <c r="A26" s="167" t="s">
         <v>11</v>
       </c>
-      <c r="B26" s="172">
+      <c r="B26" s="165">
         <f>SUM(AO5:AQ5,AO16:AQ17,AO33:AQ34,AO50:AQ51)</f>
         <v>13</v>
       </c>
-      <c r="C26" s="172"/>
-      <c r="D26" s="172"/>
-      <c r="E26" s="172">
+      <c r="C26" s="165"/>
+      <c r="D26" s="165"/>
+      <c r="E26" s="165">
         <f>SUM(AR5:AT5,AR16:AT17,AR33:AT34,AR50:AT51)</f>
         <v>10</v>
       </c>
-      <c r="F26" s="172"/>
-      <c r="G26" s="172"/>
-      <c r="H26" s="172">
+      <c r="F26" s="165"/>
+      <c r="G26" s="165"/>
+      <c r="H26" s="165">
         <f>SUM(AU5:AW5,AU16:AW17,AU33:AW34,AU50:AW51)</f>
         <v>0</v>
       </c>
-      <c r="I26" s="172"/>
-      <c r="J26" s="172"/>
-      <c r="K26" s="171">
+      <c r="I26" s="165"/>
+      <c r="J26" s="165"/>
+      <c r="K26" s="166">
         <f>SUM(AX5:AZ5,AX16:AZ17,AX33:AZ34,AX50:AZ51)</f>
         <v>35</v>
       </c>
-      <c r="L26" s="171"/>
-      <c r="M26" s="171"/>
-      <c r="N26" s="172">
+      <c r="L26" s="166"/>
+      <c r="M26" s="166"/>
+      <c r="N26" s="165">
         <f>SUM(BA5:BC5,BA16:BC17,BA33:BC34,BA50:BC51)</f>
         <v>29</v>
       </c>
-      <c r="O26" s="172"/>
-      <c r="P26" s="172"/>
-      <c r="Q26" s="172">
+      <c r="O26" s="165"/>
+      <c r="P26" s="165"/>
+      <c r="Q26" s="165">
         <f>SUM(BD5:BF5,BD16:BF17,BD33:BF34,BD50:BF51)</f>
         <v>12</v>
       </c>
-      <c r="R26" s="172"/>
-      <c r="S26" s="172"/>
-      <c r="T26" s="172">
+      <c r="R26" s="165"/>
+      <c r="S26" s="165"/>
+      <c r="T26" s="165">
         <f t="shared" ref="T26" si="33">SUM(B26:S27)</f>
         <v>99</v>
       </c>
-      <c r="U26" s="180"/>
+      <c r="U26" s="161"/>
       <c r="AB26" s="47" t="str">
         <f>'2_PA'!U23</f>
         <v>Maggiolo Giorgio</v>
@@ -12324,7 +12363,7 @@
       </c>
       <c r="AD26" s="49">
         <f>'2_PA'!W23</f>
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AE26" s="50" t="str">
         <f>'2_PA'!X23</f>
@@ -12354,9 +12393,9 @@
         <f>'2_PA'!AD23</f>
         <v>PA 3.3</v>
       </c>
-      <c r="AL26" s="161">
+      <c r="AL26" s="168">
         <f>'2_PA'!AE23</f>
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="AO26">
         <f t="shared" si="29"/>
@@ -12384,7 +12423,7 @@
       </c>
       <c r="AU26">
         <f t="shared" si="14"/>
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AV26">
         <f t="shared" si="15"/>
@@ -12432,31 +12471,31 @@
       </c>
       <c r="BG26" s="158">
         <f t="shared" si="13"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:60" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="170"/>
-      <c r="B27" s="172"/>
-      <c r="C27" s="172"/>
-      <c r="D27" s="172"/>
-      <c r="E27" s="172"/>
-      <c r="F27" s="172"/>
-      <c r="G27" s="172"/>
-      <c r="H27" s="172"/>
-      <c r="I27" s="172"/>
-      <c r="J27" s="172"/>
-      <c r="K27" s="171"/>
-      <c r="L27" s="171"/>
-      <c r="M27" s="171"/>
-      <c r="N27" s="172"/>
-      <c r="O27" s="172"/>
-      <c r="P27" s="172"/>
-      <c r="Q27" s="172"/>
-      <c r="R27" s="172"/>
-      <c r="S27" s="172"/>
-      <c r="T27" s="172"/>
-      <c r="U27" s="180"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:60" ht="15.75" thickBot="1">
+      <c r="A27" s="167"/>
+      <c r="B27" s="165"/>
+      <c r="C27" s="165"/>
+      <c r="D27" s="165"/>
+      <c r="E27" s="165"/>
+      <c r="F27" s="165"/>
+      <c r="G27" s="165"/>
+      <c r="H27" s="165"/>
+      <c r="I27" s="165"/>
+      <c r="J27" s="165"/>
+      <c r="K27" s="166"/>
+      <c r="L27" s="166"/>
+      <c r="M27" s="166"/>
+      <c r="N27" s="165"/>
+      <c r="O27" s="165"/>
+      <c r="P27" s="165"/>
+      <c r="Q27" s="165"/>
+      <c r="R27" s="165"/>
+      <c r="S27" s="165"/>
+      <c r="T27" s="165"/>
+      <c r="U27" s="161"/>
       <c r="AB27" s="63">
         <f>'2_PA'!U24</f>
         <v>0</v>
@@ -12497,7 +12536,7 @@
         <f>'2_PA'!AD24</f>
         <v>PA 5.1</v>
       </c>
-      <c r="AL27" s="162"/>
+      <c r="AL27" s="182"/>
       <c r="AO27">
         <f t="shared" si="29"/>
         <v>0</v>
@@ -12575,97 +12614,97 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:60" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="170" t="s">
+    <row r="28" spans="1:60" ht="15.75" thickBot="1">
+      <c r="A28" s="167" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="172">
+      <c r="B28" s="165">
         <f>SUM(AO6:AQ6,AO18:AQ19,AO35:AQ36,AO52:AQ53)</f>
         <v>10</v>
       </c>
-      <c r="C28" s="172"/>
-      <c r="D28" s="172"/>
-      <c r="E28" s="172">
+      <c r="C28" s="165"/>
+      <c r="D28" s="165"/>
+      <c r="E28" s="165">
         <f>SUM(AR6:AT6,AR18:AT19,AR35:AT36,AR52:AT53)</f>
         <v>4</v>
       </c>
-      <c r="F28" s="172"/>
-      <c r="G28" s="172"/>
-      <c r="H28" s="172">
+      <c r="F28" s="165"/>
+      <c r="G28" s="165"/>
+      <c r="H28" s="165">
         <f>SUM(AU6:AW6,AU18:AW19,AU35:AW36,AU52:AW53)</f>
-        <v>6</v>
-      </c>
-      <c r="I28" s="172"/>
-      <c r="J28" s="172"/>
-      <c r="K28" s="172">
+        <v>2</v>
+      </c>
+      <c r="I28" s="165"/>
+      <c r="J28" s="165"/>
+      <c r="K28" s="165">
         <f>SUM(AX6:AZ6,AX18:AZ19,AX35:AZ36,AX52:AZ53)</f>
         <v>27</v>
       </c>
-      <c r="L28" s="172"/>
-      <c r="M28" s="172"/>
-      <c r="N28" s="172">
+      <c r="L28" s="165"/>
+      <c r="M28" s="165"/>
+      <c r="N28" s="165">
         <f>SUM(BA6:BC6,BA18:BC19,BA35:BC36,BA52:BC53)</f>
         <v>33</v>
       </c>
-      <c r="O28" s="172"/>
-      <c r="P28" s="172"/>
-      <c r="Q28" s="171">
+      <c r="O28" s="165"/>
+      <c r="P28" s="165"/>
+      <c r="Q28" s="166">
         <f>SUM(BD6:BF6,BD18:BF19,BD35:BF36,BD52:BF53)</f>
         <v>20</v>
       </c>
-      <c r="R28" s="171"/>
-      <c r="S28" s="171"/>
-      <c r="T28" s="172">
+      <c r="R28" s="166"/>
+      <c r="S28" s="166"/>
+      <c r="T28" s="165">
         <f t="shared" ref="T28" si="34">SUM(B28:S29)</f>
-        <v>100</v>
-      </c>
-      <c r="U28" s="180"/>
+        <v>96</v>
+      </c>
+      <c r="U28" s="161"/>
       <c r="BG28" s="158">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A29" s="170"/>
-      <c r="B29" s="172"/>
-      <c r="C29" s="172"/>
-      <c r="D29" s="172"/>
-      <c r="E29" s="172"/>
-      <c r="F29" s="172"/>
-      <c r="G29" s="172"/>
-      <c r="H29" s="172"/>
-      <c r="I29" s="172"/>
-      <c r="J29" s="172"/>
-      <c r="K29" s="172"/>
-      <c r="L29" s="172"/>
-      <c r="M29" s="172"/>
-      <c r="N29" s="172"/>
-      <c r="O29" s="172"/>
-      <c r="P29" s="172"/>
-      <c r="Q29" s="171"/>
-      <c r="R29" s="171"/>
-      <c r="S29" s="171"/>
-      <c r="T29" s="172"/>
-      <c r="U29" s="180"/>
+    <row r="29" spans="1:60">
+      <c r="A29" s="167"/>
+      <c r="B29" s="165"/>
+      <c r="C29" s="165"/>
+      <c r="D29" s="165"/>
+      <c r="E29" s="165"/>
+      <c r="F29" s="165"/>
+      <c r="G29" s="165"/>
+      <c r="H29" s="165"/>
+      <c r="I29" s="165"/>
+      <c r="J29" s="165"/>
+      <c r="K29" s="165"/>
+      <c r="L29" s="165"/>
+      <c r="M29" s="165"/>
+      <c r="N29" s="165"/>
+      <c r="O29" s="165"/>
+      <c r="P29" s="165"/>
+      <c r="Q29" s="166"/>
+      <c r="R29" s="166"/>
+      <c r="S29" s="166"/>
+      <c r="T29" s="165"/>
+      <c r="U29" s="161"/>
       <c r="AA29" t="s">
         <v>124</v>
       </c>
       <c r="AB29" s="149" t="s">
         <v>127</v>
       </c>
-      <c r="AC29" s="163" t="str">
+      <c r="AC29" s="176" t="str">
         <f>'3_PDC'!U6</f>
         <v>I Periodo</v>
       </c>
-      <c r="AD29" s="164"/>
-      <c r="AE29" s="165"/>
-      <c r="AF29" s="163" t="str">
+      <c r="AD29" s="177"/>
+      <c r="AE29" s="178"/>
+      <c r="AF29" s="176" t="str">
         <f>'3_PDC'!X6</f>
         <v>II Periodo</v>
       </c>
-      <c r="AG29" s="164"/>
-      <c r="AH29" s="166"/>
-      <c r="AI29" s="167" t="str">
+      <c r="AG29" s="177"/>
+      <c r="AH29" s="179"/>
+      <c r="AI29" s="172" t="str">
         <f>'3_PDC'!AA6</f>
         <v>Totale</v>
       </c>
@@ -12674,51 +12713,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:60" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="170" t="s">
+    <row r="30" spans="1:60" ht="15.75" thickBot="1">
+      <c r="A30" s="167" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="172">
+      <c r="B30" s="165">
         <f>SUM(AO7:AQ7,AO20:AQ21,AO37:AQ38,AO54:AQ55)</f>
         <v>15</v>
       </c>
-      <c r="C30" s="172"/>
-      <c r="D30" s="172"/>
-      <c r="E30" s="172">
+      <c r="C30" s="165"/>
+      <c r="D30" s="165"/>
+      <c r="E30" s="165">
         <f>SUM(AR7:AT7,AR20:AT21,AR37:AT38,AR54:AT55)</f>
         <v>4</v>
       </c>
-      <c r="F30" s="172"/>
-      <c r="G30" s="172"/>
-      <c r="H30" s="172">
+      <c r="F30" s="165"/>
+      <c r="G30" s="165"/>
+      <c r="H30" s="165">
         <f>SUM(AU7:AW7,AU20:AW21,AU37:AW38,AU54:AW55)</f>
         <v>0</v>
       </c>
-      <c r="I30" s="172"/>
-      <c r="J30" s="172"/>
-      <c r="K30" s="171">
+      <c r="I30" s="165"/>
+      <c r="J30" s="165"/>
+      <c r="K30" s="166">
         <f>SUM(AX7:AZ7,AX20:AZ21,AX37:AZ38,AX54:AZ55)</f>
         <v>31</v>
       </c>
-      <c r="L30" s="171"/>
-      <c r="M30" s="171"/>
-      <c r="N30" s="171">
+      <c r="L30" s="166"/>
+      <c r="M30" s="166"/>
+      <c r="N30" s="166">
         <f>SUM(BA7:BC7,BA20:BC21,BA37:BC38,BA54:BC55)</f>
         <v>35</v>
       </c>
-      <c r="O30" s="171"/>
-      <c r="P30" s="171"/>
-      <c r="Q30" s="172">
+      <c r="O30" s="166"/>
+      <c r="P30" s="166"/>
+      <c r="Q30" s="165">
         <f>SUM(BD7:BF7,BD20:BF21,BD37:BF38,BD54:BF55)</f>
         <v>18</v>
       </c>
-      <c r="R30" s="172"/>
-      <c r="S30" s="172"/>
-      <c r="T30" s="172">
+      <c r="R30" s="165"/>
+      <c r="S30" s="165"/>
+      <c r="T30" s="165">
         <f t="shared" ref="T30" si="35">SUM(B30:S31)</f>
         <v>103</v>
       </c>
-      <c r="U30" s="180"/>
+      <c r="U30" s="161"/>
       <c r="AB30" s="150"/>
       <c r="AC30" s="26" t="str">
         <f>'3_PDC'!U7</f>
@@ -12744,7 +12783,7 @@
         <f>'3_PDC'!Z7</f>
         <v>Fase</v>
       </c>
-      <c r="AI30" s="168"/>
+      <c r="AI30" s="173"/>
       <c r="AK30">
         <f>SUM(AI31:AI44)</f>
         <v>373</v>
@@ -12754,28 +12793,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A31" s="170"/>
-      <c r="B31" s="172"/>
-      <c r="C31" s="172"/>
-      <c r="D31" s="172"/>
-      <c r="E31" s="172"/>
-      <c r="F31" s="172"/>
-      <c r="G31" s="172"/>
-      <c r="H31" s="172"/>
-      <c r="I31" s="172"/>
-      <c r="J31" s="172"/>
-      <c r="K31" s="171"/>
-      <c r="L31" s="171"/>
-      <c r="M31" s="171"/>
-      <c r="N31" s="171"/>
-      <c r="O31" s="171"/>
-      <c r="P31" s="171"/>
-      <c r="Q31" s="172"/>
-      <c r="R31" s="172"/>
-      <c r="S31" s="172"/>
-      <c r="T31" s="172"/>
-      <c r="U31" s="180"/>
+    <row r="31" spans="1:60">
+      <c r="A31" s="167"/>
+      <c r="B31" s="165"/>
+      <c r="C31" s="165"/>
+      <c r="D31" s="165"/>
+      <c r="E31" s="165"/>
+      <c r="F31" s="165"/>
+      <c r="G31" s="165"/>
+      <c r="H31" s="165"/>
+      <c r="I31" s="165"/>
+      <c r="J31" s="165"/>
+      <c r="K31" s="166"/>
+      <c r="L31" s="166"/>
+      <c r="M31" s="166"/>
+      <c r="N31" s="166"/>
+      <c r="O31" s="166"/>
+      <c r="P31" s="166"/>
+      <c r="Q31" s="165"/>
+      <c r="R31" s="165"/>
+      <c r="S31" s="165"/>
+      <c r="T31" s="165"/>
+      <c r="U31" s="161"/>
       <c r="AB31" s="31" t="str">
         <f>'3_PDC'!T8</f>
         <v>Begolo Marco</v>
@@ -12804,7 +12843,7 @@
         <f>'3_PDC'!Z8</f>
         <v>PDC 4.4</v>
       </c>
-      <c r="AI31" s="169">
+      <c r="AI31" s="180">
         <f>'3_PDC'!AA8</f>
         <v>52</v>
       </c>
@@ -12889,51 +12928,51 @@
         <v>373</v>
       </c>
     </row>
-    <row r="32" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A32" s="170" t="s">
+    <row r="32" spans="1:60">
+      <c r="A32" s="167" t="s">
         <v>8</v>
       </c>
-      <c r="B32" s="172">
+      <c r="B32" s="165">
         <f>SUM(AO8:AQ8,AO22:AQ23,AO39:AQ40,AO56:AQ57)</f>
         <v>9</v>
       </c>
-      <c r="C32" s="172"/>
-      <c r="D32" s="172"/>
-      <c r="E32" s="172">
+      <c r="C32" s="165"/>
+      <c r="D32" s="165"/>
+      <c r="E32" s="165">
         <f>SUM(AR8:AT8,AR22:AT23,AR39:AT40,AR56:AT57)</f>
         <v>11</v>
       </c>
-      <c r="F32" s="172"/>
-      <c r="G32" s="172"/>
-      <c r="H32" s="172">
+      <c r="F32" s="165"/>
+      <c r="G32" s="165"/>
+      <c r="H32" s="165">
         <f>SUM(AU8:AW8,AU22:AW23,AU39:AW40,AU56:AW57)</f>
         <v>0</v>
       </c>
-      <c r="I32" s="172"/>
-      <c r="J32" s="172"/>
-      <c r="K32" s="172">
+      <c r="I32" s="165"/>
+      <c r="J32" s="165"/>
+      <c r="K32" s="165">
         <f>SUM(AX8:AZ8,AX22:AZ23,AX39:AZ40,AX56:AZ57)</f>
         <v>20</v>
       </c>
-      <c r="L32" s="172"/>
-      <c r="M32" s="172"/>
-      <c r="N32" s="171">
+      <c r="L32" s="165"/>
+      <c r="M32" s="165"/>
+      <c r="N32" s="166">
         <f>SUM(BA8:BC8,BA22:BC23,BA39:BC40,BA56:BC57)</f>
-        <v>39</v>
-      </c>
-      <c r="O32" s="171"/>
-      <c r="P32" s="171"/>
-      <c r="Q32" s="172">
+        <v>37</v>
+      </c>
+      <c r="O32" s="166"/>
+      <c r="P32" s="166"/>
+      <c r="Q32" s="165">
         <f>SUM(BD8:BF8,BD22:BF23,BD39:BF40,BD56:BF57)</f>
         <v>23</v>
       </c>
-      <c r="R32" s="172"/>
-      <c r="S32" s="172"/>
-      <c r="T32" s="172">
+      <c r="R32" s="165"/>
+      <c r="S32" s="165"/>
+      <c r="T32" s="165">
         <f t="shared" ref="T32" si="51">SUM(B32:S33)</f>
-        <v>102</v>
-      </c>
-      <c r="U32" s="180"/>
+        <v>100</v>
+      </c>
+      <c r="U32" s="161"/>
       <c r="AB32" s="35">
         <f>'3_PDC'!T9</f>
         <v>0</v>
@@ -12962,7 +13001,7 @@
         <f>'3_PDC'!Z9</f>
         <v>PDC 7</v>
       </c>
-      <c r="AI32" s="161"/>
+      <c r="AI32" s="168"/>
       <c r="AO32">
         <f>IF($AC32=AO$2,$AD32,0)</f>
         <v>0</v>
@@ -13040,28 +13079,28 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A33" s="170"/>
-      <c r="B33" s="172"/>
-      <c r="C33" s="172"/>
-      <c r="D33" s="172"/>
-      <c r="E33" s="172"/>
-      <c r="F33" s="172"/>
-      <c r="G33" s="172"/>
-      <c r="H33" s="172"/>
-      <c r="I33" s="172"/>
-      <c r="J33" s="172"/>
-      <c r="K33" s="172"/>
-      <c r="L33" s="172"/>
-      <c r="M33" s="172"/>
-      <c r="N33" s="171"/>
-      <c r="O33" s="171"/>
-      <c r="P33" s="171"/>
-      <c r="Q33" s="172"/>
-      <c r="R33" s="172"/>
-      <c r="S33" s="172"/>
-      <c r="T33" s="172"/>
-      <c r="U33" s="180"/>
+    <row r="33" spans="1:60">
+      <c r="A33" s="167"/>
+      <c r="B33" s="165"/>
+      <c r="C33" s="165"/>
+      <c r="D33" s="165"/>
+      <c r="E33" s="165"/>
+      <c r="F33" s="165"/>
+      <c r="G33" s="165"/>
+      <c r="H33" s="165"/>
+      <c r="I33" s="165"/>
+      <c r="J33" s="165"/>
+      <c r="K33" s="165"/>
+      <c r="L33" s="165"/>
+      <c r="M33" s="165"/>
+      <c r="N33" s="166"/>
+      <c r="O33" s="166"/>
+      <c r="P33" s="166"/>
+      <c r="Q33" s="165"/>
+      <c r="R33" s="165"/>
+      <c r="S33" s="165"/>
+      <c r="T33" s="165"/>
+      <c r="U33" s="161"/>
       <c r="AB33" s="31" t="str">
         <f>'3_PDC'!T10</f>
         <v>Facchin Gabriele</v>
@@ -13090,7 +13129,7 @@
         <f>'3_PDC'!Z10</f>
         <v>PDC 3.1</v>
       </c>
-      <c r="AI33" s="161">
+      <c r="AI33" s="168">
         <f>'3_PDC'!AA10</f>
         <v>52</v>
       </c>
@@ -13171,51 +13210,51 @@
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A34" s="170" t="s">
+    <row r="34" spans="1:60">
+      <c r="A34" s="167" t="s">
         <v>13</v>
       </c>
-      <c r="B34" s="172">
+      <c r="B34" s="165">
         <f>SUM(AO9:AQ9,AO24:AQ25,AO41:AQ42,AO58:AQ59)</f>
         <v>6</v>
       </c>
-      <c r="C34" s="172"/>
-      <c r="D34" s="172"/>
-      <c r="E34" s="172">
+      <c r="C34" s="165"/>
+      <c r="D34" s="165"/>
+      <c r="E34" s="165">
         <f>SUM(AR9:AT9,AR24:AT25,AR41:AT42,AR58:AT59)</f>
         <v>2</v>
       </c>
-      <c r="F34" s="172"/>
-      <c r="G34" s="172"/>
-      <c r="H34" s="172">
+      <c r="F34" s="165"/>
+      <c r="G34" s="165"/>
+      <c r="H34" s="165">
         <f>SUM(AU9:AW9,AU24:AW25,AU41:AW42,AU58:AW59)</f>
         <v>0</v>
       </c>
-      <c r="I34" s="172"/>
-      <c r="J34" s="172"/>
-      <c r="K34" s="171">
+      <c r="I34" s="165"/>
+      <c r="J34" s="165"/>
+      <c r="K34" s="166">
         <f>SUM(AX9:AZ9,AX24:AZ25,AX41:AZ42,AX58:AZ59)</f>
         <v>27</v>
       </c>
-      <c r="L34" s="171"/>
-      <c r="M34" s="171"/>
-      <c r="N34" s="171">
+      <c r="L34" s="166"/>
+      <c r="M34" s="166"/>
+      <c r="N34" s="166">
         <f>SUM(BA9:BC9,BA24:BC25,BA41:BC42,BA58:BC59)</f>
-        <v>42</v>
-      </c>
-      <c r="O34" s="171"/>
-      <c r="P34" s="171"/>
-      <c r="Q34" s="171">
+        <v>40</v>
+      </c>
+      <c r="O34" s="166"/>
+      <c r="P34" s="166"/>
+      <c r="Q34" s="166">
         <f>SUM(BD9:BF9,BD24:BF25,BD41:BF42,BD58:BF59)</f>
         <v>25</v>
       </c>
-      <c r="R34" s="171"/>
-      <c r="S34" s="171"/>
-      <c r="T34" s="172">
+      <c r="R34" s="166"/>
+      <c r="S34" s="166"/>
+      <c r="T34" s="165">
         <f t="shared" ref="T34" si="55">SUM(B34:S35)</f>
-        <v>102</v>
-      </c>
-      <c r="U34" s="180"/>
+        <v>100</v>
+      </c>
+      <c r="U34" s="161"/>
       <c r="AB34" s="31">
         <f>'3_PDC'!T11</f>
         <v>0</v>
@@ -13244,7 +13283,7 @@
         <f>'3_PDC'!Z11</f>
         <v>PDC 4.3</v>
       </c>
-      <c r="AI34" s="161"/>
+      <c r="AI34" s="168"/>
       <c r="AO34">
         <f t="shared" si="52"/>
         <v>0</v>
@@ -13322,28 +13361,28 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A35" s="170"/>
-      <c r="B35" s="172"/>
-      <c r="C35" s="172"/>
-      <c r="D35" s="172"/>
-      <c r="E35" s="172"/>
-      <c r="F35" s="172"/>
-      <c r="G35" s="172"/>
-      <c r="H35" s="172"/>
-      <c r="I35" s="172"/>
-      <c r="J35" s="172"/>
-      <c r="K35" s="171"/>
-      <c r="L35" s="171"/>
-      <c r="M35" s="171"/>
-      <c r="N35" s="171"/>
-      <c r="O35" s="171"/>
-      <c r="P35" s="171"/>
-      <c r="Q35" s="171"/>
-      <c r="R35" s="171"/>
-      <c r="S35" s="171"/>
-      <c r="T35" s="172"/>
-      <c r="U35" s="180"/>
+    <row r="35" spans="1:60">
+      <c r="A35" s="167"/>
+      <c r="B35" s="165"/>
+      <c r="C35" s="165"/>
+      <c r="D35" s="165"/>
+      <c r="E35" s="165"/>
+      <c r="F35" s="165"/>
+      <c r="G35" s="165"/>
+      <c r="H35" s="165"/>
+      <c r="I35" s="165"/>
+      <c r="J35" s="165"/>
+      <c r="K35" s="166"/>
+      <c r="L35" s="166"/>
+      <c r="M35" s="166"/>
+      <c r="N35" s="166"/>
+      <c r="O35" s="166"/>
+      <c r="P35" s="166"/>
+      <c r="Q35" s="166"/>
+      <c r="R35" s="166"/>
+      <c r="S35" s="166"/>
+      <c r="T35" s="165"/>
+      <c r="U35" s="161"/>
       <c r="AB35" s="47" t="str">
         <f>'3_PDC'!T12</f>
         <v>Cornaglia Alessando</v>
@@ -13372,7 +13411,7 @@
         <f>'3_PDC'!Z12</f>
         <v>PDC 4.4 e 5</v>
       </c>
-      <c r="AI35" s="161">
+      <c r="AI35" s="168">
         <f>'3_PDC'!AA12</f>
         <v>52</v>
       </c>
@@ -13460,51 +13499,51 @@
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A36" s="170" t="s">
+    <row r="36" spans="1:60">
+      <c r="A36" s="167" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="172">
+      <c r="B36" s="165">
         <f>SUM(AO10:AQ10,AO26:AQ27,AO43:AQ44,AO60:AQ61)</f>
         <v>2</v>
       </c>
-      <c r="C36" s="172"/>
-      <c r="D36" s="172"/>
-      <c r="E36" s="172">
+      <c r="C36" s="165"/>
+      <c r="D36" s="165"/>
+      <c r="E36" s="165">
         <f>SUM(AR10:AT10,AR26:AT27,AR43:AT44,AR60:AT61)</f>
         <v>8</v>
       </c>
-      <c r="F36" s="172"/>
-      <c r="G36" s="172"/>
-      <c r="H36" s="172">
+      <c r="F36" s="165"/>
+      <c r="G36" s="165"/>
+      <c r="H36" s="165">
         <f>SUM(AU10:AW10,AU26:AW27,AU43:AW44,AU60:AW61)</f>
-        <v>12</v>
-      </c>
-      <c r="I36" s="172"/>
-      <c r="J36" s="172"/>
-      <c r="K36" s="171">
+        <v>8</v>
+      </c>
+      <c r="I36" s="165"/>
+      <c r="J36" s="165"/>
+      <c r="K36" s="166">
         <f>SUM(AX10:AZ10,AX26:AZ27,AX43:AZ44,AX60:AZ61)</f>
         <v>51</v>
       </c>
-      <c r="L36" s="171"/>
-      <c r="M36" s="171"/>
-      <c r="N36" s="172">
+      <c r="L36" s="166"/>
+      <c r="M36" s="166"/>
+      <c r="N36" s="165">
         <f>SUM(BA10:BC10,BA26:BC27,BA43:BC44,BA60:BC61)</f>
         <v>8</v>
       </c>
-      <c r="O36" s="172"/>
-      <c r="P36" s="172"/>
-      <c r="Q36" s="172">
+      <c r="O36" s="165"/>
+      <c r="P36" s="165"/>
+      <c r="Q36" s="165">
         <f>SUM(BD10:BF10,BD26:BF27,BD43:BF44,BD60:BF61)</f>
         <v>18</v>
       </c>
-      <c r="R36" s="172"/>
-      <c r="S36" s="172"/>
-      <c r="T36" s="172">
+      <c r="R36" s="165"/>
+      <c r="S36" s="165"/>
+      <c r="T36" s="165">
         <f t="shared" ref="T36" si="56">SUM(B36:S37)</f>
-        <v>99</v>
-      </c>
-      <c r="U36" s="180"/>
+        <v>95</v>
+      </c>
+      <c r="U36" s="161"/>
       <c r="AB36" s="35">
         <f>'3_PDC'!T13</f>
         <v>0</v>
@@ -13533,7 +13572,7 @@
         <f>'3_PDC'!Z13</f>
         <v>PDC 7</v>
       </c>
-      <c r="AI36" s="161"/>
+      <c r="AI36" s="168"/>
       <c r="AK36">
         <f>SUM(BD31:BF44)</f>
         <v>100</v>
@@ -13615,28 +13654,28 @@
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A37" s="170"/>
-      <c r="B37" s="172"/>
-      <c r="C37" s="172"/>
-      <c r="D37" s="172"/>
-      <c r="E37" s="172"/>
-      <c r="F37" s="172"/>
-      <c r="G37" s="172"/>
-      <c r="H37" s="172"/>
-      <c r="I37" s="172"/>
-      <c r="J37" s="172"/>
-      <c r="K37" s="171"/>
-      <c r="L37" s="171"/>
-      <c r="M37" s="171"/>
-      <c r="N37" s="172"/>
-      <c r="O37" s="172"/>
-      <c r="P37" s="172"/>
-      <c r="Q37" s="172"/>
-      <c r="R37" s="172"/>
-      <c r="S37" s="172"/>
-      <c r="T37" s="172"/>
-      <c r="U37" s="180"/>
+    <row r="37" spans="1:60">
+      <c r="A37" s="167"/>
+      <c r="B37" s="165"/>
+      <c r="C37" s="165"/>
+      <c r="D37" s="165"/>
+      <c r="E37" s="165"/>
+      <c r="F37" s="165"/>
+      <c r="G37" s="165"/>
+      <c r="H37" s="165"/>
+      <c r="I37" s="165"/>
+      <c r="J37" s="165"/>
+      <c r="K37" s="166"/>
+      <c r="L37" s="166"/>
+      <c r="M37" s="166"/>
+      <c r="N37" s="165"/>
+      <c r="O37" s="165"/>
+      <c r="P37" s="165"/>
+      <c r="Q37" s="165"/>
+      <c r="R37" s="165"/>
+      <c r="S37" s="165"/>
+      <c r="T37" s="165"/>
+      <c r="U37" s="161"/>
       <c r="AB37" s="31" t="str">
         <f>'3_PDC'!T14</f>
         <v>Dalla Pietà Massimo</v>
@@ -13665,7 +13704,7 @@
         <f>'3_PDC'!Z14</f>
         <v>PDC 4.3</v>
       </c>
-      <c r="AI37" s="161">
+      <c r="AI37" s="168">
         <f>'3_PDC'!AA14</f>
         <v>57</v>
       </c>
@@ -13746,51 +13785,51 @@
         <v>29</v>
       </c>
     </row>
-    <row r="38" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A38" s="179" t="s">
+    <row r="38" spans="1:60">
+      <c r="A38" s="164" t="s">
         <v>14</v>
       </c>
-      <c r="B38" s="172">
+      <c r="B38" s="165">
         <f>SUM(B24:D37)</f>
         <v>59</v>
       </c>
-      <c r="C38" s="172"/>
-      <c r="D38" s="172"/>
-      <c r="E38" s="172">
+      <c r="C38" s="165"/>
+      <c r="D38" s="165"/>
+      <c r="E38" s="165">
         <f t="shared" ref="E38" si="57">SUM(E24:G37)</f>
         <v>49</v>
       </c>
-      <c r="F38" s="172"/>
-      <c r="G38" s="172"/>
-      <c r="H38" s="172">
+      <c r="F38" s="165"/>
+      <c r="G38" s="165"/>
+      <c r="H38" s="165">
         <f>SUM(H24:J37)</f>
-        <v>30</v>
-      </c>
-      <c r="I38" s="172"/>
-      <c r="J38" s="172"/>
-      <c r="K38" s="172">
+        <v>20</v>
+      </c>
+      <c r="I38" s="165"/>
+      <c r="J38" s="165"/>
+      <c r="K38" s="165">
         <f t="shared" ref="K38" si="58">SUM(K24:M37)</f>
         <v>201</v>
       </c>
-      <c r="L38" s="172"/>
-      <c r="M38" s="172"/>
-      <c r="N38" s="172">
+      <c r="L38" s="165"/>
+      <c r="M38" s="165"/>
+      <c r="N38" s="165">
         <f t="shared" ref="N38" si="59">SUM(N24:P37)</f>
-        <v>245</v>
-      </c>
-      <c r="O38" s="172"/>
-      <c r="P38" s="172"/>
-      <c r="Q38" s="172">
+        <v>241</v>
+      </c>
+      <c r="O38" s="165"/>
+      <c r="P38" s="165"/>
+      <c r="Q38" s="165">
         <f>SUM(Q24:S37)</f>
         <v>120</v>
       </c>
-      <c r="R38" s="172"/>
-      <c r="S38" s="172"/>
+      <c r="R38" s="165"/>
+      <c r="S38" s="165"/>
       <c r="T38" s="183">
         <f>SUM(B38:S39)</f>
-        <v>704</v>
-      </c>
-      <c r="U38" s="180"/>
+        <v>690</v>
+      </c>
+      <c r="U38" s="161"/>
       <c r="AB38" s="31">
         <f>'3_PDC'!T15</f>
         <v>0</v>
@@ -13819,7 +13858,7 @@
         <f>'3_PDC'!Z15</f>
         <v>PDC 7</v>
       </c>
-      <c r="AI38" s="161"/>
+      <c r="AI38" s="168"/>
       <c r="AO38">
         <f t="shared" si="52"/>
         <v>0</v>
@@ -13897,28 +13936,28 @@
         <v>28</v>
       </c>
     </row>
-    <row r="39" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A39" s="179"/>
-      <c r="B39" s="172"/>
-      <c r="C39" s="172"/>
-      <c r="D39" s="172"/>
-      <c r="E39" s="172"/>
-      <c r="F39" s="172"/>
-      <c r="G39" s="172"/>
-      <c r="H39" s="172"/>
-      <c r="I39" s="172"/>
-      <c r="J39" s="172"/>
-      <c r="K39" s="172"/>
-      <c r="L39" s="172"/>
-      <c r="M39" s="172"/>
-      <c r="N39" s="172"/>
-      <c r="O39" s="172"/>
-      <c r="P39" s="172"/>
-      <c r="Q39" s="172"/>
-      <c r="R39" s="172"/>
-      <c r="S39" s="172"/>
+    <row r="39" spans="1:60">
+      <c r="A39" s="164"/>
+      <c r="B39" s="165"/>
+      <c r="C39" s="165"/>
+      <c r="D39" s="165"/>
+      <c r="E39" s="165"/>
+      <c r="F39" s="165"/>
+      <c r="G39" s="165"/>
+      <c r="H39" s="165"/>
+      <c r="I39" s="165"/>
+      <c r="J39" s="165"/>
+      <c r="K39" s="165"/>
+      <c r="L39" s="165"/>
+      <c r="M39" s="165"/>
+      <c r="N39" s="165"/>
+      <c r="O39" s="165"/>
+      <c r="P39" s="165"/>
+      <c r="Q39" s="165"/>
+      <c r="R39" s="165"/>
+      <c r="S39" s="165"/>
       <c r="T39" s="183"/>
-      <c r="U39" s="180"/>
+      <c r="U39" s="161"/>
       <c r="AB39" s="47" t="str">
         <f>'3_PDC'!T16</f>
         <v>Braghetto Lorenzo</v>
@@ -13947,7 +13986,7 @@
         <f>'3_PDC'!Z16</f>
         <v>PDC 4.4</v>
       </c>
-      <c r="AI39" s="161">
+      <c r="AI39" s="168">
         <f>'3_PDC'!AA16</f>
         <v>54</v>
       </c>
@@ -14028,7 +14067,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:60">
       <c r="A40" s="147"/>
       <c r="AB40" s="35">
         <f>'3_PDC'!T17</f>
@@ -14058,7 +14097,7 @@
         <f>'3_PDC'!Z17</f>
         <v>PDC 7</v>
       </c>
-      <c r="AI40" s="161"/>
+      <c r="AI40" s="168"/>
       <c r="AO40">
         <f t="shared" si="52"/>
         <v>0</v>
@@ -14136,7 +14175,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:60">
       <c r="A41" s="147"/>
       <c r="AB41" s="31" t="str">
         <f>'3_PDC'!T18</f>
@@ -14166,7 +14205,7 @@
         <f>'3_PDC'!Z18</f>
         <v>PDC 6</v>
       </c>
-      <c r="AI41" s="161">
+      <c r="AI41" s="168">
         <f>'3_PDC'!AA18</f>
         <v>54</v>
       </c>
@@ -14247,7 +14286,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:60">
       <c r="A42" s="147"/>
       <c r="AB42" s="31">
         <f>'3_PDC'!T19</f>
@@ -14277,7 +14316,7 @@
         <f>'3_PDC'!Z19</f>
         <v>PDC 3.2, 5 e 7</v>
       </c>
-      <c r="AI42" s="161"/>
+      <c r="AI42" s="168"/>
       <c r="AO42">
         <f t="shared" si="52"/>
         <v>0</v>
@@ -14355,7 +14394,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:60">
       <c r="A43" s="147"/>
       <c r="AB43" s="47" t="str">
         <f>'3_PDC'!T20</f>
@@ -14385,7 +14424,7 @@
         <f>'3_PDC'!Z20</f>
         <v>PDC 4.3</v>
       </c>
-      <c r="AI43" s="161">
+      <c r="AI43" s="168">
         <f>'3_PDC'!AA20</f>
         <v>52</v>
       </c>
@@ -14466,7 +14505,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="44" spans="1:60" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:60" ht="15.75" thickBot="1">
       <c r="A44" s="147"/>
       <c r="AB44" s="63">
         <f>'3_PDC'!T21</f>
@@ -14496,7 +14535,7 @@
         <f>'3_PDC'!Z21</f>
         <v>PDC 7</v>
       </c>
-      <c r="AI44" s="162"/>
+      <c r="AI44" s="182"/>
       <c r="AO44">
         <f t="shared" si="52"/>
         <v>0</v>
@@ -14574,14 +14613,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:60" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:60" ht="15.75" thickBot="1">
       <c r="A45" s="147"/>
       <c r="BG45" s="158">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:60">
       <c r="A46" s="147"/>
       <c r="AA46" t="s">
         <v>125</v>
@@ -14589,19 +14628,19 @@
       <c r="AB46" s="149" t="s">
         <v>128</v>
       </c>
-      <c r="AC46" s="163" t="str">
+      <c r="AC46" s="176" t="str">
         <f>'4_VV'!U3</f>
         <v>I Periodo</v>
       </c>
-      <c r="AD46" s="164"/>
-      <c r="AE46" s="165"/>
-      <c r="AF46" s="163" t="str">
+      <c r="AD46" s="177"/>
+      <c r="AE46" s="178"/>
+      <c r="AF46" s="176" t="str">
         <f>'4_VV'!X3</f>
         <v>II Periodo</v>
       </c>
-      <c r="AG46" s="164"/>
-      <c r="AH46" s="166"/>
-      <c r="AI46" s="167" t="str">
+      <c r="AG46" s="177"/>
+      <c r="AH46" s="179"/>
+      <c r="AI46" s="172" t="str">
         <f>'4_VV'!AA3</f>
         <v>Totale</v>
       </c>
@@ -14614,7 +14653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:60" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:60" ht="15.75" thickBot="1">
       <c r="A47" s="147"/>
       <c r="AB47" s="150"/>
       <c r="AC47" s="26" t="str">
@@ -14641,13 +14680,13 @@
         <f>'4_VV'!Z4</f>
         <v>Fase</v>
       </c>
-      <c r="AI47" s="168"/>
+      <c r="AI47" s="173"/>
       <c r="BG47" s="158">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:60">
       <c r="A48" s="147"/>
       <c r="AB48" s="31" t="str">
         <f>'4_VV'!T5</f>
@@ -14677,7 +14716,7 @@
         <f>'4_VV'!Z5</f>
         <v>VV 3.2</v>
       </c>
-      <c r="AI48" s="169">
+      <c r="AI48" s="180">
         <f>'4_VV'!AA5</f>
         <v>18</v>
       </c>
@@ -14762,7 +14801,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="49" spans="20:59" x14ac:dyDescent="0.25">
+    <row r="49" spans="20:59">
       <c r="AB49" s="35">
         <f>'4_VV'!T6</f>
         <v>0</v>
@@ -14791,7 +14830,7 @@
         <f>'4_VV'!Z6</f>
         <v>0</v>
       </c>
-      <c r="AI49" s="161"/>
+      <c r="AI49" s="168"/>
       <c r="AO49">
         <f>IF($AC49=AO$2,$AD49,0)</f>
         <v>0</v>
@@ -14869,7 +14908,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="20:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="20:59" ht="15.75" thickBot="1">
       <c r="AB50" s="31" t="str">
         <f>'4_VV'!T7</f>
         <v>Facchin Gabriele</v>
@@ -14898,7 +14937,7 @@
         <f>'4_VV'!Z7</f>
         <v>VV 3.2</v>
       </c>
-      <c r="AI50" s="161">
+      <c r="AI50" s="168">
         <f>'4_VV'!AA7</f>
         <v>18</v>
       </c>
@@ -14986,7 +15025,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="51" spans="20:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="20:59" ht="15.75" thickBot="1">
       <c r="T51" s="1" t="s">
         <v>26</v>
       </c>
@@ -15027,7 +15066,7 @@
         <f>'4_VV'!Z8</f>
         <v>VV 3.2</v>
       </c>
-      <c r="AI51" s="161"/>
+      <c r="AI51" s="168"/>
       <c r="AO51">
         <f t="shared" si="75"/>
         <v>0</v>
@@ -15105,7 +15144,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="20:59" x14ac:dyDescent="0.25">
+    <row r="52" spans="20:59">
       <c r="T52" s="12" t="s">
         <v>1</v>
       </c>
@@ -15148,7 +15187,7 @@
         <f>'4_VV'!Z9</f>
         <v>VV 3.1</v>
       </c>
-      <c r="AI52" s="161">
+      <c r="AI52" s="168">
         <f>'4_VV'!AA9</f>
         <v>18</v>
       </c>
@@ -15229,7 +15268,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="53" spans="20:59" x14ac:dyDescent="0.25">
+    <row r="53" spans="20:59">
       <c r="T53" s="15" t="s">
         <v>2</v>
       </c>
@@ -15272,7 +15311,7 @@
         <f>'4_VV'!Z10</f>
         <v>0</v>
       </c>
-      <c r="AI53" s="161"/>
+      <c r="AI53" s="168"/>
       <c r="AO53">
         <f t="shared" si="75"/>
         <v>0</v>
@@ -15350,17 +15389,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="20:59" x14ac:dyDescent="0.25">
+    <row r="54" spans="20:59">
       <c r="T54" s="15" t="s">
         <v>3</v>
       </c>
       <c r="U54" s="16">
         <f>H38</f>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="V54" s="17">
         <f t="shared" si="78"/>
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="W54">
         <v>25</v>
@@ -15393,7 +15432,7 @@
         <f>'4_VV'!Z11</f>
         <v>VV 3.1</v>
       </c>
-      <c r="AI54" s="161">
+      <c r="AI54" s="168">
         <f>'4_VV'!AA11</f>
         <v>18</v>
       </c>
@@ -15474,7 +15513,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="55" spans="20:59" x14ac:dyDescent="0.25">
+    <row r="55" spans="20:59">
       <c r="T55" s="15" t="s">
         <v>4</v>
       </c>
@@ -15517,7 +15556,7 @@
         <f>'4_VV'!Z12</f>
         <v>0</v>
       </c>
-      <c r="AI55" s="161"/>
+      <c r="AI55" s="168"/>
       <c r="AO55">
         <f t="shared" si="75"/>
         <v>0</v>
@@ -15595,17 +15634,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="20:59" x14ac:dyDescent="0.25">
+    <row r="56" spans="20:59">
       <c r="T56" s="15" t="s">
         <v>5</v>
       </c>
       <c r="U56" s="16">
         <f>N38</f>
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="V56" s="17">
         <f t="shared" si="78"/>
-        <v>5390</v>
+        <v>5302</v>
       </c>
       <c r="W56">
         <v>22</v>
@@ -15638,7 +15677,7 @@
         <f>'4_VV'!Z13</f>
         <v>VV 3.1</v>
       </c>
-      <c r="AI56" s="161">
+      <c r="AI56" s="168">
         <f>'4_VV'!AA13</f>
         <v>18</v>
       </c>
@@ -15719,7 +15758,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="57" spans="20:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="20:59" ht="15.75" thickBot="1">
       <c r="T57" s="22" t="s">
         <v>6</v>
       </c>
@@ -15762,7 +15801,7 @@
         <f>'4_VV'!Z14</f>
         <v>0</v>
       </c>
-      <c r="AI57" s="161"/>
+      <c r="AI57" s="168"/>
       <c r="AO57">
         <f t="shared" si="75"/>
         <v>0</v>
@@ -15840,17 +15879,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="20:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="20:59" ht="15.75" thickBot="1">
       <c r="T58" s="1" t="s">
         <v>14</v>
       </c>
       <c r="U58" s="3">
         <f>SUM(U52:U57)</f>
-        <v>704</v>
+        <v>690</v>
       </c>
       <c r="V58" s="25">
         <f>SUM(V52:V57)</f>
-        <v>13705</v>
+        <v>13367</v>
       </c>
       <c r="AB58" s="31" t="str">
         <f>'4_VV'!T15</f>
@@ -15880,7 +15919,7 @@
         <f>'4_VV'!Z15</f>
         <v>VV 3.1</v>
       </c>
-      <c r="AI58" s="161">
+      <c r="AI58" s="168">
         <f>'4_VV'!AA15</f>
         <v>18</v>
       </c>
@@ -15961,7 +16000,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="59" spans="20:59" x14ac:dyDescent="0.25">
+    <row r="59" spans="20:59">
       <c r="AB59" s="31">
         <f>'4_VV'!T16</f>
         <v>0</v>
@@ -15990,7 +16029,7 @@
         <f>'4_VV'!Z16</f>
         <v>0</v>
       </c>
-      <c r="AI59" s="161"/>
+      <c r="AI59" s="168"/>
       <c r="AO59">
         <f t="shared" si="75"/>
         <v>0</v>
@@ -16068,7 +16107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="20:59" x14ac:dyDescent="0.25">
+    <row r="60" spans="20:59">
       <c r="AB60" s="47" t="str">
         <f>'4_VV'!T17</f>
         <v>Maggiolo Giorgio</v>
@@ -16097,7 +16136,7 @@
         <f>'4_VV'!Z17</f>
         <v>VV 3.1</v>
       </c>
-      <c r="AI60" s="161">
+      <c r="AI60" s="168">
         <f>'4_VV'!AA17</f>
         <v>16</v>
       </c>
@@ -16178,7 +16217,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="61" spans="20:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="20:59" ht="15.75" thickBot="1">
       <c r="AB61" s="63">
         <f>'4_VV'!T18</f>
         <v>0</v>
@@ -16207,7 +16246,7 @@
         <f>'4_VV'!Z18</f>
         <v>0</v>
       </c>
-      <c r="AI61" s="162"/>
+      <c r="AI61" s="182"/>
       <c r="AO61">
         <f t="shared" si="75"/>
         <v>0</v>
@@ -16287,24 +16326,76 @@
     </row>
   </sheetData>
   <mergeCells count="112">
-    <mergeCell ref="AI56:AI57"/>
-    <mergeCell ref="AI58:AI59"/>
-    <mergeCell ref="AI60:AI61"/>
-    <mergeCell ref="AC46:AE46"/>
-    <mergeCell ref="AF46:AH46"/>
-    <mergeCell ref="AI46:AI47"/>
-    <mergeCell ref="AI48:AI49"/>
-    <mergeCell ref="AI50:AI51"/>
-    <mergeCell ref="AI52:AI53"/>
-    <mergeCell ref="AI39:AI40"/>
-    <mergeCell ref="AI41:AI42"/>
-    <mergeCell ref="AI43:AI44"/>
-    <mergeCell ref="Q36:S37"/>
-    <mergeCell ref="T36:T37"/>
-    <mergeCell ref="U36:U37"/>
-    <mergeCell ref="AI37:AI38"/>
-    <mergeCell ref="AI35:AI36"/>
-    <mergeCell ref="AI54:AI55"/>
+    <mergeCell ref="AC2:AE2"/>
+    <mergeCell ref="AF2:AH2"/>
+    <mergeCell ref="AI2:AI3"/>
+    <mergeCell ref="AC12:AE12"/>
+    <mergeCell ref="AF12:AH12"/>
+    <mergeCell ref="AI12:AK12"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="K23:M23"/>
+    <mergeCell ref="N23:P23"/>
+    <mergeCell ref="Q23:S23"/>
+    <mergeCell ref="AL12:AL13"/>
+    <mergeCell ref="AL14:AL15"/>
+    <mergeCell ref="AL16:AL17"/>
+    <mergeCell ref="AL18:AL19"/>
+    <mergeCell ref="AL20:AL21"/>
+    <mergeCell ref="AL22:AL23"/>
+    <mergeCell ref="AL26:AL27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:D29"/>
+    <mergeCell ref="E28:G29"/>
+    <mergeCell ref="H28:J29"/>
+    <mergeCell ref="K28:M29"/>
+    <mergeCell ref="N28:P29"/>
+    <mergeCell ref="Q24:S25"/>
+    <mergeCell ref="T24:T25"/>
+    <mergeCell ref="U24:U25"/>
+    <mergeCell ref="AL24:AL25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:D27"/>
+    <mergeCell ref="E26:G27"/>
+    <mergeCell ref="H26:J27"/>
+    <mergeCell ref="K26:M27"/>
+    <mergeCell ref="N26:P27"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="AF29:AH29"/>
+    <mergeCell ref="AI29:AI30"/>
+    <mergeCell ref="Q30:S31"/>
+    <mergeCell ref="T30:T31"/>
+    <mergeCell ref="U30:U31"/>
+    <mergeCell ref="AI31:AI32"/>
+    <mergeCell ref="Q26:S27"/>
+    <mergeCell ref="T26:T27"/>
+    <mergeCell ref="U26:U27"/>
+    <mergeCell ref="Q32:S33"/>
+    <mergeCell ref="T32:T33"/>
+    <mergeCell ref="U32:U33"/>
+    <mergeCell ref="AI33:AI34"/>
+    <mergeCell ref="Q28:S29"/>
+    <mergeCell ref="T28:T29"/>
+    <mergeCell ref="U28:U29"/>
+    <mergeCell ref="B24:D25"/>
+    <mergeCell ref="E24:G25"/>
+    <mergeCell ref="H24:J25"/>
+    <mergeCell ref="K24:M25"/>
+    <mergeCell ref="N24:P25"/>
+    <mergeCell ref="AC29:AE29"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:D33"/>
+    <mergeCell ref="E32:G33"/>
+    <mergeCell ref="H32:J33"/>
+    <mergeCell ref="K32:M33"/>
+    <mergeCell ref="N32:P33"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:D31"/>
+    <mergeCell ref="E30:G31"/>
+    <mergeCell ref="H30:J31"/>
+    <mergeCell ref="K30:M31"/>
+    <mergeCell ref="N30:P31"/>
     <mergeCell ref="A38:A39"/>
     <mergeCell ref="B38:D39"/>
     <mergeCell ref="E38:G39"/>
@@ -16329,97 +16420,45 @@
     <mergeCell ref="H34:J35"/>
     <mergeCell ref="K34:M35"/>
     <mergeCell ref="N34:P35"/>
-    <mergeCell ref="B24:D25"/>
-    <mergeCell ref="E24:G25"/>
-    <mergeCell ref="H24:J25"/>
-    <mergeCell ref="K24:M25"/>
-    <mergeCell ref="N24:P25"/>
-    <mergeCell ref="AC29:AE29"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:D33"/>
-    <mergeCell ref="E32:G33"/>
-    <mergeCell ref="H32:J33"/>
-    <mergeCell ref="K32:M33"/>
-    <mergeCell ref="N32:P33"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:D31"/>
-    <mergeCell ref="E30:G31"/>
-    <mergeCell ref="H30:J31"/>
-    <mergeCell ref="K30:M31"/>
-    <mergeCell ref="N30:P31"/>
-    <mergeCell ref="AF29:AH29"/>
-    <mergeCell ref="AI29:AI30"/>
-    <mergeCell ref="Q30:S31"/>
-    <mergeCell ref="T30:T31"/>
-    <mergeCell ref="U30:U31"/>
-    <mergeCell ref="AI31:AI32"/>
-    <mergeCell ref="Q26:S27"/>
-    <mergeCell ref="T26:T27"/>
-    <mergeCell ref="U26:U27"/>
-    <mergeCell ref="Q32:S33"/>
-    <mergeCell ref="T32:T33"/>
-    <mergeCell ref="U32:U33"/>
-    <mergeCell ref="AI33:AI34"/>
-    <mergeCell ref="Q28:S29"/>
-    <mergeCell ref="T28:T29"/>
-    <mergeCell ref="U28:U29"/>
-    <mergeCell ref="AL12:AL13"/>
-    <mergeCell ref="AL14:AL15"/>
-    <mergeCell ref="AL16:AL17"/>
-    <mergeCell ref="AL18:AL19"/>
-    <mergeCell ref="AL20:AL21"/>
-    <mergeCell ref="AL22:AL23"/>
-    <mergeCell ref="AL26:AL27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:D29"/>
-    <mergeCell ref="E28:G29"/>
-    <mergeCell ref="H28:J29"/>
-    <mergeCell ref="K28:M29"/>
-    <mergeCell ref="N28:P29"/>
-    <mergeCell ref="Q24:S25"/>
-    <mergeCell ref="T24:T25"/>
-    <mergeCell ref="U24:U25"/>
-    <mergeCell ref="AL24:AL25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:D27"/>
-    <mergeCell ref="E26:G27"/>
-    <mergeCell ref="H26:J27"/>
-    <mergeCell ref="K26:M27"/>
-    <mergeCell ref="N26:P27"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="AC2:AE2"/>
-    <mergeCell ref="AF2:AH2"/>
-    <mergeCell ref="AI2:AI3"/>
-    <mergeCell ref="AC12:AE12"/>
-    <mergeCell ref="AF12:AH12"/>
-    <mergeCell ref="AI12:AK12"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="K23:M23"/>
-    <mergeCell ref="N23:P23"/>
-    <mergeCell ref="Q23:S23"/>
+    <mergeCell ref="AI39:AI40"/>
+    <mergeCell ref="AI41:AI42"/>
+    <mergeCell ref="AI43:AI44"/>
+    <mergeCell ref="Q36:S37"/>
+    <mergeCell ref="T36:T37"/>
+    <mergeCell ref="U36:U37"/>
+    <mergeCell ref="AI37:AI38"/>
+    <mergeCell ref="AI35:AI36"/>
+    <mergeCell ref="AI54:AI55"/>
+    <mergeCell ref="AI56:AI57"/>
+    <mergeCell ref="AI58:AI59"/>
+    <mergeCell ref="AI60:AI61"/>
+    <mergeCell ref="AC46:AE46"/>
+    <mergeCell ref="AF46:AH46"/>
+    <mergeCell ref="AI46:AI47"/>
+    <mergeCell ref="AI48:AI49"/>
+    <mergeCell ref="AI50:AI51"/>
+    <mergeCell ref="AI52:AI53"/>
   </mergeCells>
   <conditionalFormatting sqref="AB14:AL27">
-    <cfRule type="cellIs" dxfId="18" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB29:AI44">
-    <cfRule type="cellIs" dxfId="17" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="4" operator="equal">
       <formula>27.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB46:AI61">
-    <cfRule type="cellIs" dxfId="15" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24:T39">
-    <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16429,14 +16468,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V19"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14.42578125" customWidth="1"/>
     <col min="2" max="2" width="32.140625" customWidth="1"/>
@@ -16454,7 +16493,7 @@
     <col min="21" max="21" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" ht="15.75" thickBot="1">
       <c r="A1" s="99" t="s">
         <v>15</v>
       </c>
@@ -16489,7 +16528,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22">
       <c r="A2" s="22" t="s">
         <v>75</v>
       </c>
@@ -16532,24 +16571,24 @@
       <c r="N2" s="155">
         <v>30</v>
       </c>
-      <c r="O2" s="167" t="s">
-        <v>0</v>
-      </c>
-      <c r="P2" s="173" t="s">
+      <c r="O2" s="172" t="s">
+        <v>0</v>
+      </c>
+      <c r="P2" s="169" t="s">
         <v>18</v>
       </c>
-      <c r="Q2" s="174"/>
-      <c r="R2" s="175"/>
-      <c r="S2" s="173" t="s">
+      <c r="Q2" s="170"/>
+      <c r="R2" s="171"/>
+      <c r="S2" s="169" t="s">
         <v>19</v>
       </c>
-      <c r="T2" s="174"/>
-      <c r="U2" s="175"/>
-      <c r="V2" s="167" t="s">
+      <c r="T2" s="170"/>
+      <c r="U2" s="171"/>
+      <c r="V2" s="172" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" ht="15.75" thickBot="1">
       <c r="A3" s="12"/>
       <c r="B3" s="39"/>
       <c r="C3" s="13" t="s">
@@ -16607,9 +16646,9 @@
       <c r="U3" s="106" t="s">
         <v>39</v>
       </c>
-      <c r="V3" s="168"/>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V3" s="173"/>
+    </row>
+    <row r="4" spans="1:22">
       <c r="A4" s="22" t="s">
         <v>77</v>
       </c>
@@ -16678,7 +16717,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" ht="15.75" thickBot="1">
       <c r="A5" s="12"/>
       <c r="B5" s="39"/>
       <c r="C5" s="13" t="s">
@@ -16743,7 +16782,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" ht="15.75" thickBot="1">
       <c r="A6" s="6" t="s">
         <v>81</v>
       </c>
@@ -16809,7 +16848,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22">
       <c r="A7" s="6"/>
       <c r="B7" s="7"/>
       <c r="C7" s="8" t="s">
@@ -16860,7 +16899,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22">
       <c r="A8" s="22" t="s">
         <v>83</v>
       </c>
@@ -16915,7 +16954,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22">
       <c r="A9" s="12"/>
       <c r="B9" s="39"/>
       <c r="C9" s="13" t="s">
@@ -16966,7 +17005,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" ht="15.75" thickBot="1">
       <c r="A10" s="6" t="s">
         <v>85</v>
       </c>
@@ -17021,7 +17060,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22">
       <c r="A11" s="6"/>
       <c r="B11" s="7"/>
       <c r="C11" s="8" t="s">
@@ -17054,7 +17093,7 @@
       <c r="T11" s="58"/>
       <c r="U11" s="7"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22">
       <c r="A12" s="15" t="s">
         <v>87</v>
       </c>
@@ -17091,7 +17130,7 @@
       <c r="T12" s="7"/>
       <c r="U12" s="7"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22">
       <c r="A13" s="6" t="s">
         <v>89</v>
       </c>
@@ -17128,7 +17167,7 @@
       <c r="T13" s="58"/>
       <c r="U13" s="7"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22">
       <c r="A14" s="6"/>
       <c r="B14" s="7"/>
       <c r="C14" s="8" t="s">
@@ -17161,7 +17200,7 @@
       <c r="T14" s="7"/>
       <c r="U14" s="7"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22">
       <c r="A15" s="15" t="s">
         <v>91</v>
       </c>
@@ -17198,7 +17237,7 @@
       <c r="T15" s="58"/>
       <c r="U15" s="7"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22">
       <c r="A16" s="6" t="s">
         <v>93</v>
       </c>
@@ -17228,7 +17267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" ht="15.75" thickBot="1">
       <c r="A17" s="129" t="s">
         <v>95</v>
       </c>
@@ -17265,14 +17304,14 @@
       <c r="T17" s="58"/>
       <c r="U17" s="7"/>
     </row>
-    <row r="18" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" ht="15.75" thickBot="1">
       <c r="F18" s="155"/>
       <c r="G18" s="155"/>
       <c r="H18" s="155"/>
       <c r="I18" s="155"/>
       <c r="O18" s="30"/>
     </row>
-    <row r="19" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" ht="15.75" thickBot="1">
       <c r="A19" s="72" t="s">
         <v>14</v>
       </c>
@@ -17312,14 +17351,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AE26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Z31" sqref="Z31"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14.42578125" customWidth="1"/>
     <col min="2" max="2" width="32.140625" customWidth="1"/>
@@ -17342,7 +17381,7 @@
     <col min="30" max="30" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:31" ht="15.75" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -17392,7 +17431,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31">
       <c r="A2" s="6" t="s">
         <v>102</v>
       </c>
@@ -17402,14 +17441,17 @@
       <c r="C2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="7">
-        <v>30</v>
+      <c r="D2" s="194">
+        <v>20</v>
       </c>
       <c r="E2" s="8"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="134">
+      <c r="G2" s="196">
         <f t="shared" ref="G2:G18" si="0">SUM(D2:F2)</f>
-        <v>30</v>
+        <v>20</v>
+      </c>
+      <c r="H2" s="200" t="s">
+        <v>138</v>
       </c>
       <c r="I2" s="155">
         <f t="shared" ref="I2:I18" si="1">IF($C2="Responsabile",$G2,0)</f>
@@ -17421,7 +17463,7 @@
       </c>
       <c r="K2" s="155">
         <f t="shared" ref="K2:K18" si="3">IF($C2="Analista",$G2,0)</f>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="L2" s="155">
         <f t="shared" ref="L2:L18" si="4">IF($C2="Verificatore",$G2,0)</f>
@@ -17449,7 +17491,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31">
       <c r="A3" s="22" t="s">
         <v>104</v>
       </c>
@@ -17506,7 +17548,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31">
       <c r="A4" s="12"/>
       <c r="B4" s="39"/>
       <c r="C4" s="13" t="s">
@@ -17547,19 +17589,22 @@
       <c r="O4" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="P4" s="16">
+      <c r="P4" s="195">
         <f>SUM(K2:K18)</f>
-        <v>30</v>
-      </c>
-      <c r="Q4" s="17">
+        <v>20</v>
+      </c>
+      <c r="Q4" s="199">
         <f t="shared" si="6"/>
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="R4" s="155">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="S4" s="200" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31">
       <c r="A5" s="6" t="s">
         <v>106</v>
       </c>
@@ -17616,7 +17661,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:31" ht="15.75" thickBot="1">
       <c r="A6" s="6"/>
       <c r="B6" s="7"/>
       <c r="C6" s="8" t="s">
@@ -17657,19 +17702,22 @@
       <c r="O6" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P6" s="23">
+      <c r="P6" s="197">
         <f>SUM(M2:M18)</f>
-        <v>110</v>
-      </c>
-      <c r="Q6" s="24">
+        <v>106</v>
+      </c>
+      <c r="Q6" s="198">
         <f t="shared" si="6"/>
-        <v>2420</v>
+        <v>2332</v>
       </c>
       <c r="R6" s="155">
         <v>22</v>
       </c>
-    </row>
-    <row r="7" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S6" s="201" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" ht="15.75" thickBot="1">
       <c r="A7" s="15" t="s">
         <v>108</v>
       </c>
@@ -17682,13 +17730,16 @@
       <c r="D7" s="18">
         <v>34</v>
       </c>
-      <c r="E7" s="16">
-        <v>22</v>
+      <c r="E7" s="192">
+        <v>18</v>
       </c>
       <c r="F7" s="18"/>
-      <c r="G7" s="57">
+      <c r="G7" s="193">
         <f t="shared" si="0"/>
-        <v>56</v>
+        <v>52</v>
+      </c>
+      <c r="H7" s="201" t="s">
+        <v>139</v>
       </c>
       <c r="I7" s="155">
         <f t="shared" si="1"/>
@@ -17708,21 +17759,28 @@
       </c>
       <c r="M7" s="155">
         <f t="shared" si="5"/>
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="O7" s="118" t="s">
         <v>14</v>
       </c>
       <c r="P7" s="3">
         <f>SUM(P2:P6)</f>
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="Q7" s="25">
         <f>SUM(Q2:Q6)</f>
-        <v>4525</v>
-      </c>
-    </row>
-    <row r="8" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>4187</v>
+      </c>
+      <c r="R7" s="191">
+        <f>Q7-S7</f>
+        <v>-30</v>
+      </c>
+      <c r="S7">
+        <v>4217</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" ht="15.75" thickBot="1">
       <c r="A8" s="6" t="s">
         <v>110</v>
       </c>
@@ -17764,7 +17822,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31">
       <c r="A9" s="22" t="s">
         <v>112</v>
       </c>
@@ -17803,33 +17861,33 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O9" s="163"/>
-      <c r="P9" s="164"/>
-      <c r="Q9" s="164"/>
-      <c r="R9" s="165"/>
-      <c r="U9" s="167" t="s">
-        <v>0</v>
-      </c>
-      <c r="V9" s="163" t="s">
+      <c r="O9" s="176"/>
+      <c r="P9" s="177"/>
+      <c r="Q9" s="177"/>
+      <c r="R9" s="178"/>
+      <c r="U9" s="172" t="s">
+        <v>0</v>
+      </c>
+      <c r="V9" s="176" t="s">
         <v>18</v>
       </c>
-      <c r="W9" s="164"/>
-      <c r="X9" s="165"/>
-      <c r="Y9" s="163" t="s">
+      <c r="W9" s="177"/>
+      <c r="X9" s="178"/>
+      <c r="Y9" s="176" t="s">
         <v>19</v>
       </c>
-      <c r="Z9" s="164"/>
-      <c r="AA9" s="165"/>
-      <c r="AB9" s="163" t="s">
+      <c r="Z9" s="177"/>
+      <c r="AA9" s="178"/>
+      <c r="AB9" s="176" t="s">
         <v>114</v>
       </c>
-      <c r="AC9" s="164"/>
-      <c r="AD9" s="166"/>
-      <c r="AE9" s="167" t="s">
+      <c r="AC9" s="177"/>
+      <c r="AD9" s="179"/>
+      <c r="AE9" s="172" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:31" ht="15.75" thickBot="1">
       <c r="A10" s="12"/>
       <c r="B10" s="39"/>
       <c r="C10" s="13" t="s">
@@ -17868,7 +17926,7 @@
       <c r="P10" s="93"/>
       <c r="Q10" s="93"/>
       <c r="R10" s="94"/>
-      <c r="U10" s="168"/>
+      <c r="U10" s="173"/>
       <c r="V10" s="26" t="s">
         <v>26</v>
       </c>
@@ -17896,9 +17954,9 @@
       <c r="AD10" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="AE10" s="168"/>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AE10" s="173"/>
+    </row>
+    <row r="11" spans="1:31">
       <c r="A11" s="6" t="s">
         <v>115</v>
       </c>
@@ -17948,7 +18006,7 @@
         <v>74</v>
       </c>
       <c r="W11" s="33">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="X11" s="34" t="s">
         <v>102</v>
@@ -17971,12 +18029,12 @@
       <c r="AD11" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="AE11" s="169">
+      <c r="AE11" s="180">
         <f>SUM(Z11:Z12,AC11:AC12,W11:W12)</f>
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31">
       <c r="A12" s="22" t="s">
         <v>117</v>
       </c>
@@ -18029,9 +18087,9 @@
       <c r="AB12" s="36"/>
       <c r="AC12" s="37"/>
       <c r="AD12" s="139"/>
-      <c r="AE12" s="161"/>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AE12" s="168"/>
+    </row>
+    <row r="13" spans="1:31">
       <c r="A13" s="12"/>
       <c r="B13" s="39"/>
       <c r="C13" s="13" t="s">
@@ -18100,12 +18158,12 @@
       <c r="AD13" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="AE13" s="161">
+      <c r="AE13" s="168">
         <f t="shared" ref="AE13" si="7">SUM(Z13:Z14,AC13:AC14,W13:W14)</f>
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31">
       <c r="A14" s="6" t="s">
         <v>120</v>
       </c>
@@ -18164,9 +18222,9 @@
       <c r="AB14" s="32"/>
       <c r="AC14" s="33"/>
       <c r="AD14" s="7"/>
-      <c r="AE14" s="161"/>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AE14" s="168"/>
+    </row>
+    <row r="15" spans="1:31">
       <c r="A15" s="6" t="s">
         <v>131</v>
       </c>
@@ -18216,7 +18274,7 @@
         <v>74</v>
       </c>
       <c r="W15" s="49">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="X15" s="50" t="s">
         <v>102</v>
@@ -18239,12 +18297,12 @@
       <c r="AD15" s="79" t="s">
         <v>112</v>
       </c>
-      <c r="AE15" s="161">
+      <c r="AE15" s="168">
         <f t="shared" ref="AE15" si="8">SUM(Z15:Z16,AC15:AC16,W15:W16)</f>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31">
       <c r="A16" s="80" t="s">
         <v>132</v>
       </c>
@@ -18309,9 +18367,9 @@
       <c r="AD16" s="39" t="s">
         <v>132</v>
       </c>
-      <c r="AE16" s="161"/>
-    </row>
-    <row r="17" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AE16" s="168"/>
+    </row>
+    <row r="17" spans="1:31" ht="15.75" thickBot="1">
       <c r="A17" s="22" t="s">
         <v>135</v>
       </c>
@@ -18384,12 +18442,12 @@
       <c r="AD17" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="AE17" s="161">
+      <c r="AE17" s="168">
         <f t="shared" ref="AE17" si="9">SUM(Z17:Z18,AC17:AC18,W17:W18)</f>
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:31" ht="15.75" thickBot="1">
       <c r="A18" s="88"/>
       <c r="B18" s="69"/>
       <c r="C18" s="70" t="s">
@@ -18450,9 +18508,9 @@
       <c r="AD18" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="AE18" s="161"/>
-    </row>
-    <row r="19" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AE18" s="168"/>
+    </row>
+    <row r="19" spans="1:31" ht="15.75" thickBot="1">
       <c r="U19" s="47" t="s">
         <v>8</v>
       </c>
@@ -18469,7 +18527,7 @@
         <v>24</v>
       </c>
       <c r="Z19" s="49">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AA19" s="50" t="s">
         <v>110</v>
@@ -18483,12 +18541,12 @@
       <c r="AD19" s="40" t="s">
         <v>120</v>
       </c>
-      <c r="AE19" s="161">
+      <c r="AE19" s="168">
         <f t="shared" ref="AE19" si="10">SUM(Z19:Z20,AC19:AC20,W19:W20)</f>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31" ht="15.75" thickBot="1">
       <c r="A20" s="141" t="s">
         <v>14</v>
       </c>
@@ -18496,11 +18554,11 @@
       <c r="C20" s="91"/>
       <c r="D20" s="133">
         <f>SUM(D2:D18)</f>
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="E20" s="133">
         <f>SUM(E2:E18)</f>
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F20" s="133">
         <f>SUM(F2:F18)</f>
@@ -18508,7 +18566,7 @@
       </c>
       <c r="G20" s="133">
         <f>SUM(G2:G18)</f>
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="U20" s="35"/>
       <c r="V20" s="36" t="s">
@@ -18526,9 +18584,9 @@
       <c r="AB20" s="36"/>
       <c r="AC20" s="37"/>
       <c r="AD20" s="39"/>
-      <c r="AE20" s="161"/>
-    </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AE20" s="168"/>
+    </row>
+    <row r="21" spans="1:31">
       <c r="U21" s="31" t="s">
         <v>13</v>
       </c>
@@ -18545,7 +18603,7 @@
         <v>24</v>
       </c>
       <c r="Z21" s="33">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AA21" s="84" t="s">
         <v>110</v>
@@ -18559,12 +18617,13 @@
       <c r="AD21" s="85" t="s">
         <v>136</v>
       </c>
-      <c r="AE21" s="161">
+      <c r="AE21" s="168">
         <f t="shared" ref="AE21" si="11">SUM(Z21:Z22,AC21:AC22,W21:W22)</f>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31">
+      <c r="S22" s="190"/>
       <c r="U22" s="31"/>
       <c r="V22" s="32"/>
       <c r="W22" s="33"/>
@@ -18575,9 +18634,9 @@
       <c r="AB22" s="32"/>
       <c r="AC22" s="33"/>
       <c r="AD22" s="7"/>
-      <c r="AE22" s="161"/>
-    </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AE22" s="168"/>
+    </row>
+    <row r="23" spans="1:31">
       <c r="O23" s="30"/>
       <c r="U23" s="47" t="s">
         <v>12</v>
@@ -18586,7 +18645,7 @@
         <v>74</v>
       </c>
       <c r="W23" s="49">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="X23" s="50" t="s">
         <v>102</v>
@@ -18609,12 +18668,12 @@
       <c r="AD23" s="40" t="s">
         <v>112</v>
       </c>
-      <c r="AE23" s="161">
+      <c r="AE23" s="168">
         <f t="shared" ref="AE23" si="12">SUM(Z23:Z24,AC23:AC24,W23:W24)</f>
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31" ht="15.75" thickBot="1">
       <c r="U24" s="63"/>
       <c r="V24" s="64"/>
       <c r="W24" s="65"/>
@@ -18637,16 +18696,16 @@
       <c r="AD24" s="67" t="s">
         <v>120</v>
       </c>
-      <c r="AE24" s="162"/>
-    </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AE24" s="182"/>
+    </row>
+    <row r="26" spans="1:31">
       <c r="W26">
         <f>SUM(W11:W23)</f>
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="Z26">
         <f>SUM(Z11:Z24)</f>
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="AC26">
         <f>SUM(AC11:AC24)</f>
@@ -18656,12 +18715,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="AB9:AD9"/>
-    <mergeCell ref="O9:O10"/>
-    <mergeCell ref="P9:R9"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="V9:X9"/>
-    <mergeCell ref="Y9:AA9"/>
     <mergeCell ref="AE21:AE22"/>
     <mergeCell ref="AE23:AE24"/>
     <mergeCell ref="AE9:AE10"/>
@@ -18670,45 +18723,59 @@
     <mergeCell ref="AE15:AE16"/>
     <mergeCell ref="AE17:AE18"/>
     <mergeCell ref="AE19:AE20"/>
+    <mergeCell ref="AB9:AD9"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="P9:R9"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="V9:X9"/>
+    <mergeCell ref="Y9:AA9"/>
   </mergeCells>
   <conditionalFormatting sqref="Z26">
-    <cfRule type="cellIs" dxfId="13" priority="13" operator="notEqual">
+    <cfRule type="cellIs" dxfId="14" priority="15" operator="notEqual">
       <formula>$E$20</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="16" operator="equal">
       <formula>$E$20</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W26">
-    <cfRule type="cellIs" dxfId="11" priority="15" operator="notEqual">
+    <cfRule type="cellIs" dxfId="12" priority="17" operator="notEqual">
       <formula>$D$20</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="18" operator="equal">
       <formula>$D$20</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC26">
-    <cfRule type="cellIs" dxfId="9" priority="17" operator="notEqual">
+    <cfRule type="cellIs" dxfId="10" priority="19" operator="notEqual">
       <formula>$F$20</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="20" operator="equal">
       <formula>$F$20</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="R7">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AD32"/>
   <sheetViews>
     <sheetView topLeftCell="J1" workbookViewId="0">
       <selection activeCell="Y21" activeCellId="1" sqref="Y15 Y21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14.42578125" customWidth="1"/>
     <col min="2" max="2" width="35.7109375" customWidth="1"/>
@@ -18732,7 +18799,7 @@
     <col min="26" max="26" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" ht="15.75" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -18779,7 +18846,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27">
       <c r="A2" s="6" t="s">
         <v>30</v>
       </c>
@@ -18832,7 +18899,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27">
       <c r="A3" s="6"/>
       <c r="B3" s="7"/>
       <c r="C3" s="8" t="s">
@@ -18881,7 +18948,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27">
       <c r="A4" s="15" t="s">
         <v>32</v>
       </c>
@@ -18934,7 +19001,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" ht="15.75" thickBot="1">
       <c r="A5" s="6" t="s">
         <v>34</v>
       </c>
@@ -18987,7 +19054,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" ht="15.75" thickBot="1">
       <c r="A6" s="6"/>
       <c r="B6" s="7"/>
       <c r="C6" s="8" t="s">
@@ -19035,24 +19102,24 @@
       <c r="R6" s="155">
         <v>15</v>
       </c>
-      <c r="T6" s="167" t="s">
-        <v>0</v>
-      </c>
-      <c r="U6" s="163" t="s">
+      <c r="T6" s="172" t="s">
+        <v>0</v>
+      </c>
+      <c r="U6" s="176" t="s">
         <v>18</v>
       </c>
-      <c r="V6" s="164"/>
-      <c r="W6" s="165"/>
-      <c r="X6" s="163" t="s">
+      <c r="V6" s="177"/>
+      <c r="W6" s="178"/>
+      <c r="X6" s="176" t="s">
         <v>19</v>
       </c>
-      <c r="Y6" s="164"/>
-      <c r="Z6" s="166"/>
-      <c r="AA6" s="167" t="s">
+      <c r="Y6" s="177"/>
+      <c r="Z6" s="179"/>
+      <c r="AA6" s="172" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" ht="15.75" thickBot="1">
       <c r="A7" s="15" t="s">
         <v>36</v>
       </c>
@@ -19101,7 +19168,7 @@
         <f>SUM(Q2:Q6)</f>
         <v>6982</v>
       </c>
-      <c r="T7" s="168"/>
+      <c r="T7" s="173"/>
       <c r="U7" s="26" t="s">
         <v>26</v>
       </c>
@@ -19120,9 +19187,9 @@
       <c r="Z7" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="AA7" s="168"/>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AA7" s="173"/>
+    </row>
+    <row r="8" spans="1:27">
       <c r="A8" s="6" t="s">
         <v>40</v>
       </c>
@@ -19182,12 +19249,12 @@
       <c r="Z8" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="AA8" s="169">
+      <c r="AA8" s="180">
         <f>SUM(V8:V9,Y8:Y9)</f>
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27">
       <c r="A9" s="6"/>
       <c r="B9" s="7"/>
       <c r="C9" s="8" t="s">
@@ -19234,9 +19301,9 @@
       <c r="Z9" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="AA9" s="161"/>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AA9" s="168"/>
+    </row>
+    <row r="10" spans="1:27">
       <c r="A10" s="22" t="s">
         <v>44</v>
       </c>
@@ -19295,12 +19362,12 @@
       <c r="Z10" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="AA10" s="161">
+      <c r="AA10" s="168">
         <f t="shared" ref="AA10" si="7">SUM(V10:V11,Y10:Y11)</f>
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:27" ht="15.75" thickBot="1">
       <c r="A11" s="22" t="s">
         <v>46</v>
       </c>
@@ -19357,9 +19424,9 @@
       <c r="Z11" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="AA11" s="161"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AA11" s="168"/>
+    </row>
+    <row r="12" spans="1:27">
       <c r="A12" s="12"/>
       <c r="B12" s="39"/>
       <c r="C12" s="13" t="s">
@@ -19417,12 +19484,12 @@
       <c r="Z12" s="79" t="s">
         <v>130</v>
       </c>
-      <c r="AA12" s="161">
+      <c r="AA12" s="168">
         <f t="shared" ref="AA12" si="8">SUM(V12:V13,Y12:Y13)</f>
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:27" ht="15.75" thickBot="1">
       <c r="A13" s="15" t="s">
         <v>50</v>
       </c>
@@ -19482,9 +19549,9 @@
       <c r="Z13" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="AA13" s="161"/>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AA13" s="168"/>
+    </row>
+    <row r="14" spans="1:27">
       <c r="A14" s="6" t="s">
         <v>53</v>
       </c>
@@ -19546,12 +19613,12 @@
       <c r="Z14" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="AA14" s="161">
+      <c r="AA14" s="168">
         <f t="shared" ref="AA14" si="9">SUM(V14:V15,Y14:Y15)</f>
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27">
       <c r="A15" s="56"/>
       <c r="B15" s="7"/>
       <c r="C15" s="8" t="s">
@@ -19607,9 +19674,9 @@
       <c r="Z15" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="AA15" s="161"/>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AA15" s="168"/>
+    </row>
+    <row r="16" spans="1:27">
       <c r="A16" s="15" t="s">
         <v>48</v>
       </c>
@@ -19671,12 +19738,12 @@
       <c r="Z16" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="AA16" s="161">
+      <c r="AA16" s="168">
         <f t="shared" ref="AA16" si="10">SUM(V16:V17,Y16:Y17)</f>
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:30">
       <c r="A17" s="6" t="s">
         <v>42</v>
       </c>
@@ -19736,9 +19803,9 @@
       <c r="Z17" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="AA17" s="161"/>
-    </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AA17" s="168"/>
+    </row>
+    <row r="18" spans="1:30">
       <c r="A18" s="6"/>
       <c r="B18" s="7"/>
       <c r="C18" s="8" t="s">
@@ -19796,12 +19863,12 @@
       <c r="Z18" s="85" t="s">
         <v>58</v>
       </c>
-      <c r="AA18" s="161">
+      <c r="AA18" s="168">
         <f t="shared" ref="AA18" si="11">SUM(V18:V19,Y18:Y19)</f>
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:30">
       <c r="A19" s="22" t="s">
         <v>55</v>
       </c>
@@ -19861,9 +19928,9 @@
       <c r="Z19" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="AA19" s="161"/>
-    </row>
-    <row r="20" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA19" s="168"/>
+    </row>
+    <row r="20" spans="1:30" ht="15.75" thickBot="1">
       <c r="A20" s="12"/>
       <c r="B20" s="39"/>
       <c r="C20" s="13" t="s">
@@ -19921,12 +19988,12 @@
       <c r="Z20" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="AA20" s="161">
+      <c r="AA20" s="168">
         <f t="shared" ref="AA20" si="12">SUM(V20:V21,Y20:Y21)</f>
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:30" ht="15.75" thickBot="1">
       <c r="A21" s="6" t="s">
         <v>58</v>
       </c>
@@ -19980,9 +20047,9 @@
       <c r="Z21" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="AA21" s="162"/>
-    </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AA21" s="182"/>
+    </row>
+    <row r="22" spans="1:30">
       <c r="A22" s="6"/>
       <c r="B22" s="7"/>
       <c r="C22" s="8" t="s">
@@ -20017,7 +20084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:30">
       <c r="A23" s="48" t="s">
         <v>43</v>
       </c>
@@ -20056,7 +20123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:30">
       <c r="A24" s="32"/>
       <c r="B24" s="8"/>
       <c r="C24" s="10" t="s">
@@ -20099,7 +20166,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:30">
       <c r="A25" s="32"/>
       <c r="B25" s="8"/>
       <c r="C25" s="10" t="s">
@@ -20134,7 +20201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:30" ht="15.75" thickBot="1">
       <c r="A26" s="64"/>
       <c r="B26" s="69"/>
       <c r="C26" s="70" t="s">
@@ -20170,14 +20237,14 @@
       </c>
       <c r="AD26" s="30"/>
     </row>
-    <row r="27" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:30" ht="15.75" thickBot="1">
       <c r="H27" s="155"/>
       <c r="I27" s="155"/>
       <c r="J27" s="155"/>
       <c r="K27" s="155"/>
       <c r="L27" s="155"/>
     </row>
-    <row r="28" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:30" ht="15.75" thickBot="1">
       <c r="A28" s="72" t="s">
         <v>61</v>
       </c>
@@ -20216,17 +20283,11 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:30">
       <c r="E32" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="AA10:AA11"/>
-    <mergeCell ref="T6:T7"/>
-    <mergeCell ref="U6:W6"/>
-    <mergeCell ref="X6:Z6"/>
-    <mergeCell ref="AA6:AA7"/>
-    <mergeCell ref="AA8:AA9"/>
     <mergeCell ref="AA20:AA21"/>
     <mergeCell ref="O12:O13"/>
     <mergeCell ref="P12:Q12"/>
@@ -20234,20 +20295,26 @@
     <mergeCell ref="AA14:AA15"/>
     <mergeCell ref="AA16:AA17"/>
     <mergeCell ref="AA18:AA19"/>
+    <mergeCell ref="AA10:AA11"/>
+    <mergeCell ref="T6:T7"/>
+    <mergeCell ref="U6:W6"/>
+    <mergeCell ref="X6:Z6"/>
+    <mergeCell ref="AA6:AA7"/>
+    <mergeCell ref="AA8:AA9"/>
   </mergeCells>
   <conditionalFormatting sqref="Y24">
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="notEqual">
+    <cfRule type="cellIs" dxfId="22" priority="3" operator="notEqual">
       <formula>$E$28</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="4" operator="equal">
       <formula>$E$28</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V24">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="20" priority="1" operator="notEqual">
       <formula>$D$28</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="2" operator="equal">
       <formula>$D$28</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20257,14 +20324,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AI32"/>
   <sheetViews>
     <sheetView topLeftCell="F7" workbookViewId="0">
       <selection activeCell="AF8" sqref="AF8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14.42578125" customWidth="1"/>
     <col min="2" max="2" width="35.7109375" customWidth="1"/>
@@ -20289,7 +20356,7 @@
     <col min="29" max="29" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" ht="15.75" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -20336,7 +20403,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" ht="15.75" thickBot="1">
       <c r="A2" s="12" t="s">
         <v>62</v>
       </c>
@@ -20389,7 +20456,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27">
       <c r="A3" s="22" t="s">
         <v>64</v>
       </c>
@@ -20441,24 +20508,24 @@
       <c r="R3" s="155">
         <v>20</v>
       </c>
-      <c r="T3" s="167" t="s">
-        <v>0</v>
-      </c>
-      <c r="U3" s="163" t="s">
+      <c r="T3" s="172" t="s">
+        <v>0</v>
+      </c>
+      <c r="U3" s="176" t="s">
         <v>18</v>
       </c>
-      <c r="V3" s="164"/>
-      <c r="W3" s="165"/>
-      <c r="X3" s="163" t="s">
+      <c r="V3" s="177"/>
+      <c r="W3" s="178"/>
+      <c r="X3" s="176" t="s">
         <v>19</v>
       </c>
-      <c r="Y3" s="164"/>
-      <c r="Z3" s="166"/>
-      <c r="AA3" s="167" t="s">
+      <c r="Y3" s="177"/>
+      <c r="Z3" s="179"/>
+      <c r="AA3" s="172" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" ht="15.75" thickBot="1">
       <c r="A4" s="12"/>
       <c r="B4" s="13"/>
       <c r="C4" s="45" t="s">
@@ -20506,7 +20573,7 @@
       <c r="R4" s="155">
         <v>15</v>
       </c>
-      <c r="T4" s="168"/>
+      <c r="T4" s="173"/>
       <c r="U4" s="26" t="s">
         <v>26</v>
       </c>
@@ -20525,9 +20592,9 @@
       <c r="Z4" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="AA4" s="168"/>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AA4" s="173"/>
+    </row>
+    <row r="5" spans="1:27">
       <c r="A5" s="76" t="s">
         <v>66</v>
       </c>
@@ -20600,12 +20667,12 @@
       <c r="Z5" s="79" t="s">
         <v>71</v>
       </c>
-      <c r="AA5" s="169">
+      <c r="AA5" s="180">
         <f>SUM(V5:V6,Y5:Y6)</f>
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" ht="15.75" thickBot="1">
       <c r="A6" s="80" t="s">
         <v>69</v>
       </c>
@@ -20670,9 +20737,9 @@
       <c r="X6" s="81"/>
       <c r="Y6" s="37"/>
       <c r="Z6" s="83"/>
-      <c r="AA6" s="161"/>
-    </row>
-    <row r="7" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA6" s="168"/>
+    </row>
+    <row r="7" spans="1:27" ht="15.75" thickBot="1">
       <c r="A7" s="12"/>
       <c r="B7" s="13"/>
       <c r="C7" s="45" t="s">
@@ -20738,12 +20805,12 @@
       <c r="Z7" s="85" t="s">
         <v>71</v>
       </c>
-      <c r="AA7" s="161">
+      <c r="AA7" s="168">
         <f t="shared" ref="AA7" si="7">SUM(V7:V8,Y7:Y8)</f>
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27">
       <c r="A8" s="76" t="s">
         <v>68</v>
       </c>
@@ -20794,9 +20861,9 @@
       <c r="Z8" s="85" t="s">
         <v>71</v>
       </c>
-      <c r="AA8" s="161"/>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AA8" s="168"/>
+    </row>
+    <row r="9" spans="1:27">
       <c r="A9" s="80" t="s">
         <v>71</v>
       </c>
@@ -20855,12 +20922,12 @@
       <c r="Z9" s="79" t="s">
         <v>68</v>
       </c>
-      <c r="AA9" s="161">
+      <c r="AA9" s="168">
         <f t="shared" ref="AA9" si="8">SUM(V9:V10,Y9:Y10)</f>
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27" ht="15.75" thickBot="1">
       <c r="A10" s="88"/>
       <c r="B10" s="69"/>
       <c r="C10" s="70" t="s">
@@ -20901,9 +20968,9 @@
       <c r="X10" s="81"/>
       <c r="Y10" s="37"/>
       <c r="Z10" s="83"/>
-      <c r="AA10" s="161"/>
-    </row>
-    <row r="11" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA10" s="168"/>
+    </row>
+    <row r="11" spans="1:27" ht="15.75" thickBot="1">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -20936,12 +21003,12 @@
       <c r="Z11" s="79" t="s">
         <v>68</v>
       </c>
-      <c r="AA11" s="161">
+      <c r="AA11" s="168">
         <f t="shared" ref="AA11" si="9">SUM(V11:V12,Y11:Y12)</f>
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:27" ht="15.75" thickBot="1">
       <c r="A12" s="72" t="s">
         <v>14</v>
       </c>
@@ -20979,9 +21046,9 @@
         <f t="shared" si="11"/>
         <v>20</v>
       </c>
-      <c r="O12" s="163"/>
-      <c r="P12" s="164"/>
-      <c r="Q12" s="165"/>
+      <c r="O12" s="176"/>
+      <c r="P12" s="177"/>
+      <c r="Q12" s="178"/>
       <c r="T12" s="31"/>
       <c r="U12" s="78"/>
       <c r="V12" s="33"/>
@@ -20989,9 +21056,9 @@
       <c r="X12" s="78"/>
       <c r="Y12" s="33"/>
       <c r="Z12" s="85"/>
-      <c r="AA12" s="161"/>
-    </row>
-    <row r="13" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA12" s="168"/>
+    </row>
+    <row r="13" spans="1:27" ht="15.75" thickBot="1">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
@@ -21022,12 +21089,12 @@
       <c r="Z13" s="79" t="s">
         <v>68</v>
       </c>
-      <c r="AA13" s="161">
+      <c r="AA13" s="168">
         <f t="shared" ref="AA13" si="12">SUM(V13:V14,Y13:Y14)</f>
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -21044,9 +21111,9 @@
       <c r="X14" s="81"/>
       <c r="Y14" s="37"/>
       <c r="Z14" s="83"/>
-      <c r="AA14" s="161"/>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AA14" s="168"/>
+    </row>
+    <row r="15" spans="1:27">
       <c r="A15" s="95"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -21077,12 +21144,12 @@
       <c r="Z15" s="85" t="s">
         <v>68</v>
       </c>
-      <c r="AA15" s="161">
+      <c r="AA15" s="168">
         <f t="shared" ref="AA15" si="13">SUM(V15:V16,Y15:Y16)</f>
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -21099,9 +21166,9 @@
       <c r="X16" s="78"/>
       <c r="Y16" s="33"/>
       <c r="Z16" s="85"/>
-      <c r="AA16" s="161"/>
-    </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AA16" s="168"/>
+    </row>
+    <row r="17" spans="1:35">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -21132,12 +21199,12 @@
       <c r="Z17" s="79" t="s">
         <v>68</v>
       </c>
-      <c r="AA17" s="161">
+      <c r="AA17" s="168">
         <f t="shared" ref="AA17" si="14">SUM(V17:V18,Y17:Y18)</f>
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:35" ht="15.75" thickBot="1">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -21154,9 +21221,9 @@
       <c r="X18" s="96"/>
       <c r="Y18" s="65"/>
       <c r="Z18" s="98"/>
-      <c r="AA18" s="162"/>
-    </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AA18" s="182"/>
+    </row>
+    <row r="19" spans="1:35">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -21167,7 +21234,7 @@
       <c r="P19" s="16"/>
       <c r="Q19" s="57"/>
     </row>
-    <row r="20" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:35" ht="15.75" thickBot="1">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -21186,7 +21253,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:35" ht="15.75" thickBot="1">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -21197,7 +21264,7 @@
       <c r="P21" s="61"/>
       <c r="Q21" s="62"/>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:35">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
@@ -21205,7 +21272,7 @@
       <c r="E22" s="9"/>
       <c r="F22" s="90"/>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:35">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -21213,7 +21280,7 @@
       <c r="E23" s="9"/>
       <c r="F23" s="7"/>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:35">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="9"/>
@@ -21221,7 +21288,7 @@
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:35">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="9"/>
@@ -21229,7 +21296,7 @@
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:35">
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="9"/>
@@ -21237,7 +21304,7 @@
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:35">
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
@@ -21253,7 +21320,7 @@
       <c r="AH27" s="7"/>
       <c r="AI27" s="7"/>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:35">
       <c r="A28" s="7"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
@@ -21269,7 +21336,7 @@
       <c r="AH28" s="7"/>
       <c r="AI28" s="7"/>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:35">
       <c r="AB29" s="9"/>
       <c r="AC29" s="9"/>
       <c r="AD29" s="9"/>
@@ -21279,7 +21346,7 @@
       <c r="AH29" s="7"/>
       <c r="AI29" s="7"/>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:35">
       <c r="AB30" s="7"/>
       <c r="AC30" s="7"/>
       <c r="AD30" s="9"/>
@@ -21289,7 +21356,7 @@
       <c r="AH30" s="7"/>
       <c r="AI30" s="7"/>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:35">
       <c r="AB31" s="7"/>
       <c r="AC31" s="7"/>
       <c r="AD31" s="7"/>
@@ -21299,7 +21366,7 @@
       <c r="AH31" s="7"/>
       <c r="AI31" s="7"/>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:35">
       <c r="Q32" s="30"/>
       <c r="AB32" s="7"/>
       <c r="AC32" s="7"/>
@@ -21312,12 +21379,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="AA7:AA8"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="U3:W3"/>
-    <mergeCell ref="X3:Z3"/>
-    <mergeCell ref="AA3:AA4"/>
-    <mergeCell ref="AA5:AA6"/>
     <mergeCell ref="AA17:AA18"/>
     <mergeCell ref="AA9:AA10"/>
     <mergeCell ref="AA11:AA12"/>
@@ -21325,20 +21386,26 @@
     <mergeCell ref="P12:Q12"/>
     <mergeCell ref="AA13:AA14"/>
     <mergeCell ref="AA15:AA16"/>
+    <mergeCell ref="AA7:AA8"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="U3:W3"/>
+    <mergeCell ref="X3:Z3"/>
+    <mergeCell ref="AA3:AA4"/>
+    <mergeCell ref="AA5:AA6"/>
   </mergeCells>
   <conditionalFormatting sqref="Y20">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="notEqual">
+    <cfRule type="cellIs" dxfId="18" priority="3" operator="notEqual">
       <formula>$E$12</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="4" operator="equal">
       <formula>$E$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V20">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="16" priority="1" operator="notEqual">
       <formula>$D$12</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="2" operator="equal">
       <formula>$D$12</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21348,14 +21415,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AR146"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="B8" sqref="B8:H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
     <col min="2" max="2" width="13.42578125" customWidth="1"/>
@@ -21366,7 +21433,7 @@
     <col min="7" max="7" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:44">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -21392,7 +21459,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:44">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -21418,7 +21485,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:44">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -21444,7 +21511,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:44">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -21491,7 +21558,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="5" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:44">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -21517,7 +21584,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="6" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:44">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -21564,7 +21631,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="7" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:44">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -21590,7 +21657,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="8" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:44">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -21637,7 +21704,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:44">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -21670,7 +21737,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="10" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:44">
       <c r="AL10">
         <v>15</v>
       </c>
@@ -21693,7 +21760,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="12" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:44">
       <c r="AL12">
         <v>9</v>
       </c>
@@ -21716,7 +21783,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="14" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:44">
       <c r="AL14">
         <v>6</v>
       </c>
@@ -21739,7 +21806,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="16" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:44">
       <c r="AL16">
         <v>2</v>
       </c>
@@ -21762,7 +21829,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="38:44" x14ac:dyDescent="0.25">
+    <row r="18" spans="38:44">
       <c r="AL18">
         <v>59</v>
       </c>
@@ -21785,7 +21852,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="39" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="5:8">
       <c r="E39" t="str">
         <f>'Prospetto orario (CON AN)'!T51</f>
         <v>Ruolo</v>
@@ -21799,7 +21866,7 @@
         <v>Costo</v>
       </c>
     </row>
-    <row r="40" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="5:8">
       <c r="E40" t="str">
         <f>'Prospetto orario (CON AN)'!T52</f>
         <v>Responsabile</v>
@@ -21816,7 +21883,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="41" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="5:8">
       <c r="E41" t="str">
         <f>'Prospetto orario (CON AN)'!T53</f>
         <v>Amministratore</v>
@@ -21833,7 +21900,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="5:8">
       <c r="E42" t="str">
         <f>'Prospetto orario (CON AN)'!T54</f>
         <v>Analista</v>
@@ -21850,7 +21917,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="43" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="5:8">
       <c r="E43" t="str">
         <f>'Prospetto orario (CON AN)'!T55</f>
         <v>Verificatore</v>
@@ -21867,7 +21934,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="5:8">
       <c r="E44" t="str">
         <f>'Prospetto orario (CON AN)'!T56</f>
         <v>Progettista</v>
@@ -21884,7 +21951,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="45" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="5:8">
       <c r="E45" t="str">
         <f>'Prospetto orario (CON AN)'!T57</f>
         <v>Programmatore</v>
@@ -21901,7 +21968,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="5:8">
       <c r="E46" t="str">
         <f>'Prospetto orario (CON AN)'!T58</f>
         <v>Totale</v>
@@ -21915,7 +21982,7 @@
         <v>13705</v>
       </c>
     </row>
-    <row r="92" spans="41:42" x14ac:dyDescent="0.25">
+    <row r="92" spans="41:42">
       <c r="AO92">
         <v>12</v>
       </c>
@@ -21923,7 +21990,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="41:42" x14ac:dyDescent="0.25">
+    <row r="93" spans="41:42">
       <c r="AO93">
         <v>0</v>
       </c>
@@ -21931,7 +21998,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="94" spans="41:42" x14ac:dyDescent="0.25">
+    <row r="94" spans="41:42">
       <c r="AO94">
         <v>6</v>
       </c>
@@ -21939,7 +22006,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="95" spans="41:42" x14ac:dyDescent="0.25">
+    <row r="95" spans="41:42">
       <c r="AO95">
         <v>0</v>
       </c>
@@ -21947,7 +22014,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="96" spans="41:42" x14ac:dyDescent="0.25">
+    <row r="96" spans="41:42">
       <c r="AO96">
         <v>0</v>
       </c>
@@ -21955,7 +22022,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="97" spans="41:42" x14ac:dyDescent="0.25">
+    <row r="97" spans="41:42">
       <c r="AO97">
         <v>0</v>
       </c>
@@ -21963,7 +22030,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="98" spans="41:42" x14ac:dyDescent="0.25">
+    <row r="98" spans="41:42">
       <c r="AO98">
         <v>12</v>
       </c>
@@ -21971,37 +22038,37 @@
         <v>18</v>
       </c>
     </row>
-    <row r="140" spans="41:41" x14ac:dyDescent="0.25">
+    <row r="140" spans="41:41">
       <c r="AO140">
         <v>12</v>
       </c>
     </row>
-    <row r="141" spans="41:41" x14ac:dyDescent="0.25">
+    <row r="141" spans="41:41">
       <c r="AO141">
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="41:41" x14ac:dyDescent="0.25">
+    <row r="142" spans="41:41">
       <c r="AO142">
         <v>6</v>
       </c>
     </row>
-    <row r="143" spans="41:41" x14ac:dyDescent="0.25">
+    <row r="143" spans="41:41">
       <c r="AO143">
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="41:41" x14ac:dyDescent="0.25">
+    <row r="144" spans="41:41">
       <c r="AO144">
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="41:41" x14ac:dyDescent="0.25">
+    <row r="145" spans="41:41">
       <c r="AO145">
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="41:41" x14ac:dyDescent="0.25">
+    <row r="146" spans="41:41">
       <c r="AO146">
         <v>12</v>
       </c>

--- a/RP/Esterni/Piano di Progetto/Ripartizione ruoli e ore.xlsx
+++ b/RP/Esterni/Piano di Progetto/Ripartizione ruoli e ore.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="142">
   <si>
     <t>Membro</t>
   </si>
@@ -1264,7 +1264,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="202">
+  <cellXfs count="204">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1506,45 +1506,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1559,13 +1536,48 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1589,54 +1601,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="33">
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="26">
     <dxf>
       <font>
         <condense val="0"/>
@@ -1714,21 +1687,9 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor theme="6"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1740,33 +1701,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2361,26 +2296,25 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
         <c:overlap val="100"/>
-        <c:axId val="124270848"/>
-        <c:axId val="124280832"/>
+        <c:axId val="129668608"/>
+        <c:axId val="129670144"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="124270848"/>
+        <c:axId val="129668608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="124280832"/>
+        <c:crossAx val="129670144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="124280832"/>
+        <c:axId val="129670144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2388,7 +2322,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="Standard" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="124270848"/>
+        <c:crossAx val="129668608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2401,7 +2335,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2476,7 +2410,6 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
         <c:firstSliceAng val="0"/>
       </c:pieChart>
     </c:plotArea>
@@ -2488,7 +2421,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2563,7 +2496,6 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
         <c:firstSliceAng val="0"/>
       </c:pieChart>
     </c:plotArea>
@@ -2575,7 +2507,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3043,7 +2975,7 @@
       </c>
       <c r="D2" s="148">
         <f>SUM(AU4:AW4,AU14:AW15,AU31:AW32,AU48:AW49)</f>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E2" s="148">
         <f>SUM(AX4:AZ4,AX14:AZ15,AX31:AZ32,AX48:AZ49)</f>
@@ -3073,7 +3005,7 @@
       <c r="U2" s="148"/>
       <c r="V2" s="148">
         <f>SUM(B2:G2)</f>
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AA2" t="s">
         <v>74</v>
@@ -3082,19 +3014,19 @@
         <f>'1_AN'!O2</f>
         <v>Membro</v>
       </c>
-      <c r="AC2" s="169" t="str">
+      <c r="AC2" s="185" t="str">
         <f>'1_AN'!P2</f>
         <v>I Periodo</v>
       </c>
-      <c r="AD2" s="170"/>
-      <c r="AE2" s="171"/>
-      <c r="AF2" s="169" t="str">
+      <c r="AD2" s="186"/>
+      <c r="AE2" s="187"/>
+      <c r="AF2" s="185" t="str">
         <f>'1_AN'!S2</f>
         <v>II Periodo</v>
       </c>
-      <c r="AG2" s="170"/>
-      <c r="AH2" s="170"/>
-      <c r="AI2" s="172" t="str">
+      <c r="AG2" s="186"/>
+      <c r="AH2" s="186"/>
+      <c r="AI2" s="179" t="str">
         <f>'1_AN'!V2</f>
         <v>Totale</v>
       </c>
@@ -3228,7 +3160,7 @@
         <f>'1_AN'!U3</f>
         <v>Fase</v>
       </c>
-      <c r="AI3" s="173"/>
+      <c r="AI3" s="180"/>
     </row>
     <row r="4" spans="1:60">
       <c r="A4" s="147" t="s">
@@ -4111,25 +4043,25 @@
       <c r="AB12" s="149" t="s">
         <v>126</v>
       </c>
-      <c r="AC12" s="169" t="str">
+      <c r="AC12" s="185" t="str">
         <f>'2_PA'!V9</f>
         <v>I Periodo</v>
       </c>
-      <c r="AD12" s="174"/>
-      <c r="AE12" s="175"/>
-      <c r="AF12" s="176" t="str">
+      <c r="AD12" s="188"/>
+      <c r="AE12" s="189"/>
+      <c r="AF12" s="175" t="str">
         <f>'2_PA'!Y9</f>
         <v>II Periodo</v>
       </c>
-      <c r="AG12" s="177"/>
-      <c r="AH12" s="178"/>
-      <c r="AI12" s="176" t="str">
+      <c r="AG12" s="176"/>
+      <c r="AH12" s="177"/>
+      <c r="AI12" s="175" t="str">
         <f>'2_PA'!AB9</f>
         <v>III Periodo</v>
       </c>
-      <c r="AJ12" s="177"/>
-      <c r="AK12" s="179"/>
-      <c r="AL12" s="172" t="str">
+      <c r="AJ12" s="176"/>
+      <c r="AK12" s="178"/>
+      <c r="AL12" s="179" t="str">
         <f>'2_PA'!AE9</f>
         <v>Totale</v>
       </c>
@@ -4180,7 +4112,7 @@
         <f>'2_PA'!AD10</f>
         <v>Fase</v>
       </c>
-      <c r="AL13" s="173"/>
+      <c r="AL13" s="180"/>
       <c r="AM13">
         <f>SUM(AL14:AL27)</f>
         <v>193</v>
@@ -4205,7 +4137,7 @@
       </c>
       <c r="AD14" s="33">
         <f>'2_PA'!W11</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AE14" s="34" t="str">
         <f>'2_PA'!X11</f>
@@ -4235,9 +4167,9 @@
         <f>'2_PA'!AD11</f>
         <v>PA 3.2</v>
       </c>
-      <c r="AL14" s="180">
+      <c r="AL14" s="181">
         <f>'2_PA'!AE11</f>
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AO14">
         <f>IF($AC14=AO$2,$AD14,0)</f>
@@ -4265,7 +4197,7 @@
       </c>
       <c r="AU14">
         <f t="shared" ref="AU14:AU15" si="23">IF($AC14=AU$2,$AD14,0)</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AV14">
         <f t="shared" ref="AV14:AV15" si="24">IF($AF14=AV$2,$AG14,0)</f>
@@ -4313,7 +4245,7 @@
       </c>
       <c r="BG14" s="158">
         <f t="shared" si="19"/>
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BH14">
         <f>SUM(AO14:BF27)</f>
@@ -4365,7 +4297,7 @@
         <f>'2_PA'!AD12</f>
         <v>0</v>
       </c>
-      <c r="AL15" s="168"/>
+      <c r="AL15" s="173"/>
       <c r="AO15">
         <f>IF($AC15=AO$2,$AD15,0)</f>
         <v>0</v>
@@ -4484,7 +4416,7 @@
         <f>'2_PA'!AD13</f>
         <v>PA 3.2</v>
       </c>
-      <c r="AL16" s="168">
+      <c r="AL16" s="173">
         <f>'2_PA'!AE13</f>
         <v>29</v>
       </c>
@@ -4606,7 +4538,7 @@
         <f>'2_PA'!AD14</f>
         <v>0</v>
       </c>
-      <c r="AL17" s="168"/>
+      <c r="AL17" s="173"/>
       <c r="AO17">
         <f t="shared" si="35"/>
         <v>0</v>
@@ -4725,7 +4657,7 @@
         <f>'2_PA'!AD15</f>
         <v>PA 3.3</v>
       </c>
-      <c r="AL18" s="168">
+      <c r="AL18" s="173">
         <f>'2_PA'!AE15</f>
         <v>26</v>
       </c>
@@ -4847,7 +4779,7 @@
         <f>'2_PA'!AD16</f>
         <v>PA 6.1</v>
       </c>
-      <c r="AL19" s="168"/>
+      <c r="AL19" s="173"/>
       <c r="AO19">
         <f t="shared" si="35"/>
         <v>0</v>
@@ -4966,7 +4898,7 @@
         <f>'2_PA'!AD17</f>
         <v>PA 3.3</v>
       </c>
-      <c r="AL20" s="168">
+      <c r="AL20" s="173">
         <f>'2_PA'!AE17</f>
         <v>28</v>
       </c>
@@ -5088,7 +5020,7 @@
         <f>'2_PA'!AD18</f>
         <v>PA 6.2</v>
       </c>
-      <c r="AL21" s="168"/>
+      <c r="AL21" s="173"/>
       <c r="AO21">
         <f t="shared" si="35"/>
         <v>0</v>
@@ -5207,9 +5139,9 @@
         <f>'2_PA'!AD19</f>
         <v>PA 5.1</v>
       </c>
-      <c r="AL22" s="168">
+      <c r="AL22" s="173">
         <f>'2_PA'!AE19</f>
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AO22">
         <f t="shared" si="35"/>
@@ -5292,36 +5224,36 @@
       <c r="A23" s="153" t="s">
         <v>0</v>
       </c>
-      <c r="B23" s="181" t="s">
+      <c r="B23" s="190" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="181"/>
-      <c r="D23" s="181"/>
-      <c r="E23" s="181" t="s">
+      <c r="C23" s="190"/>
+      <c r="D23" s="190"/>
+      <c r="E23" s="190" t="s">
         <v>2</v>
       </c>
-      <c r="F23" s="181"/>
-      <c r="G23" s="181"/>
-      <c r="H23" s="181" t="s">
+      <c r="F23" s="190"/>
+      <c r="G23" s="190"/>
+      <c r="H23" s="190" t="s">
         <v>3</v>
       </c>
-      <c r="I23" s="181"/>
-      <c r="J23" s="181"/>
-      <c r="K23" s="181" t="s">
+      <c r="I23" s="190"/>
+      <c r="J23" s="190"/>
+      <c r="K23" s="190" t="s">
         <v>4</v>
       </c>
-      <c r="L23" s="181"/>
-      <c r="M23" s="181"/>
-      <c r="N23" s="181" t="s">
+      <c r="L23" s="190"/>
+      <c r="M23" s="190"/>
+      <c r="N23" s="190" t="s">
         <v>5</v>
       </c>
-      <c r="O23" s="181"/>
-      <c r="P23" s="181"/>
-      <c r="Q23" s="181" t="s">
+      <c r="O23" s="190"/>
+      <c r="P23" s="190"/>
+      <c r="Q23" s="190" t="s">
         <v>6</v>
       </c>
-      <c r="R23" s="181"/>
-      <c r="S23" s="181"/>
+      <c r="R23" s="190"/>
+      <c r="S23" s="190"/>
       <c r="T23" s="159" t="s">
         <v>14</v>
       </c>
@@ -5354,19 +5286,19 @@
         <f>'2_PA'!AA20</f>
         <v>0</v>
       </c>
-      <c r="AI23" s="36">
+      <c r="AI23" s="36" t="str">
         <f>'2_PA'!AB20</f>
-        <v>0</v>
+        <v>AN</v>
       </c>
       <c r="AJ23" s="37">
         <f>'2_PA'!AC20</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK23" s="39">
         <f>'2_PA'!AD20</f>
         <v>0</v>
       </c>
-      <c r="AL23" s="168"/>
+      <c r="AL23" s="173"/>
       <c r="AO23">
         <f t="shared" si="35"/>
         <v>0</v>
@@ -5401,7 +5333,7 @@
       </c>
       <c r="AW23">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX23">
         <f t="shared" si="20"/>
@@ -5441,54 +5373,54 @@
       </c>
       <c r="BG23" s="158">
         <f t="shared" si="19"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:60">
+      <c r="A24" s="182" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="24" spans="1:60">
-      <c r="A24" s="167" t="s">
-        <v>7</v>
-      </c>
-      <c r="B24" s="165">
+      <c r="B24" s="184">
         <f>SUM(AO4:AQ4,AO14:AQ15,AO31:AQ32,AO48:AQ49)</f>
         <v>17</v>
       </c>
-      <c r="C24" s="165"/>
-      <c r="D24" s="165"/>
-      <c r="E24" s="165">
+      <c r="C24" s="184"/>
+      <c r="D24" s="184"/>
+      <c r="E24" s="184">
         <f>SUM(AR4:AT4,AR14:AT15,AR31:AT32,AR48:AT49)</f>
         <v>10</v>
       </c>
-      <c r="F24" s="165"/>
-      <c r="G24" s="165"/>
-      <c r="H24" s="166">
+      <c r="F24" s="184"/>
+      <c r="G24" s="184"/>
+      <c r="H24" s="183">
         <f>SUM(AU4:AW4,AU14:AW15,AU31:AW32,AU48:AW49)</f>
-        <v>16</v>
-      </c>
-      <c r="I24" s="166"/>
-      <c r="J24" s="166"/>
-      <c r="K24" s="165">
+        <v>15</v>
+      </c>
+      <c r="I24" s="183"/>
+      <c r="J24" s="183"/>
+      <c r="K24" s="184">
         <f>SUM(AX4:AZ4,AX14:AZ15,AX31:AZ32,AX48:AZ49)</f>
         <v>10</v>
       </c>
-      <c r="L24" s="165"/>
-      <c r="M24" s="165"/>
-      <c r="N24" s="166">
+      <c r="L24" s="184"/>
+      <c r="M24" s="184"/>
+      <c r="N24" s="183">
         <f>SUM(BA4:BC4,BA14:BC15,BA31:BC32,BA48:BC49)</f>
         <v>59</v>
       </c>
-      <c r="O24" s="166"/>
-      <c r="P24" s="166"/>
-      <c r="Q24" s="165">
+      <c r="O24" s="183"/>
+      <c r="P24" s="183"/>
+      <c r="Q24" s="184">
         <f t="shared" ref="Q24" si="38">SUM(BD4:BF4,BD14:BF15,BD31:BF32,BD48:BF49)</f>
         <v>4</v>
       </c>
-      <c r="R24" s="165"/>
-      <c r="S24" s="165"/>
-      <c r="T24" s="162">
+      <c r="R24" s="184"/>
+      <c r="S24" s="184"/>
+      <c r="T24" s="193">
         <f t="shared" ref="T24" si="39">SUM(B24:S25)</f>
-        <v>116</v>
-      </c>
-      <c r="U24" s="161"/>
+        <v>115</v>
+      </c>
+      <c r="U24" s="192"/>
       <c r="AB24" s="31" t="str">
         <f>'2_PA'!U21</f>
         <v>Quadrio Giacomo</v>
@@ -5529,7 +5461,7 @@
         <f>'2_PA'!AD21</f>
         <v>PA 5.1, 6.2</v>
       </c>
-      <c r="AL24" s="168">
+      <c r="AL24" s="173">
         <f>'2_PA'!AE21</f>
         <v>28</v>
       </c>
@@ -5611,27 +5543,27 @@
       </c>
     </row>
     <row r="25" spans="1:60">
-      <c r="A25" s="167"/>
-      <c r="B25" s="165"/>
-      <c r="C25" s="165"/>
-      <c r="D25" s="165"/>
-      <c r="E25" s="165"/>
-      <c r="F25" s="165"/>
-      <c r="G25" s="165"/>
-      <c r="H25" s="166"/>
-      <c r="I25" s="166"/>
-      <c r="J25" s="166"/>
-      <c r="K25" s="165"/>
-      <c r="L25" s="165"/>
-      <c r="M25" s="165"/>
-      <c r="N25" s="166"/>
-      <c r="O25" s="166"/>
-      <c r="P25" s="166"/>
-      <c r="Q25" s="165"/>
-      <c r="R25" s="165"/>
-      <c r="S25" s="165"/>
-      <c r="T25" s="162"/>
-      <c r="U25" s="161"/>
+      <c r="A25" s="182"/>
+      <c r="B25" s="184"/>
+      <c r="C25" s="184"/>
+      <c r="D25" s="184"/>
+      <c r="E25" s="184"/>
+      <c r="F25" s="184"/>
+      <c r="G25" s="184"/>
+      <c r="H25" s="183"/>
+      <c r="I25" s="183"/>
+      <c r="J25" s="183"/>
+      <c r="K25" s="184"/>
+      <c r="L25" s="184"/>
+      <c r="M25" s="184"/>
+      <c r="N25" s="183"/>
+      <c r="O25" s="183"/>
+      <c r="P25" s="183"/>
+      <c r="Q25" s="184"/>
+      <c r="R25" s="184"/>
+      <c r="S25" s="184"/>
+      <c r="T25" s="193"/>
+      <c r="U25" s="192"/>
       <c r="AB25" s="31">
         <f>'2_PA'!U22</f>
         <v>0</v>
@@ -5672,7 +5604,7 @@
         <f>'2_PA'!AD22</f>
         <v>0</v>
       </c>
-      <c r="AL25" s="168"/>
+      <c r="AL25" s="173"/>
       <c r="AO25">
         <f t="shared" si="35"/>
         <v>0</v>
@@ -5751,50 +5683,50 @@
       </c>
     </row>
     <row r="26" spans="1:60">
-      <c r="A26" s="167" t="s">
+      <c r="A26" s="182" t="s">
         <v>11</v>
       </c>
-      <c r="B26" s="165">
+      <c r="B26" s="184">
         <f>SUM(AO5:AQ5,AO16:AQ17,AO33:AQ34,AO50:AQ51)</f>
         <v>13</v>
       </c>
-      <c r="C26" s="165"/>
-      <c r="D26" s="165"/>
-      <c r="E26" s="165">
+      <c r="C26" s="184"/>
+      <c r="D26" s="184"/>
+      <c r="E26" s="184">
         <f>SUM(AR5:AT5,AR16:AT17,AR33:AT34,AR50:AT51)</f>
         <v>10</v>
       </c>
-      <c r="F26" s="165"/>
-      <c r="G26" s="165"/>
-      <c r="H26" s="165">
+      <c r="F26" s="184"/>
+      <c r="G26" s="184"/>
+      <c r="H26" s="184">
         <f>SUM(AU5:AW5,AU16:AW17,AU33:AW34,AU50:AW51)</f>
         <v>11</v>
       </c>
-      <c r="I26" s="165"/>
-      <c r="J26" s="165"/>
-      <c r="K26" s="166">
+      <c r="I26" s="184"/>
+      <c r="J26" s="184"/>
+      <c r="K26" s="183">
         <f>SUM(AX5:AZ5,AX16:AZ17,AX33:AZ34,AX50:AZ51)</f>
         <v>43</v>
       </c>
-      <c r="L26" s="166"/>
-      <c r="M26" s="166"/>
-      <c r="N26" s="165">
+      <c r="L26" s="183"/>
+      <c r="M26" s="183"/>
+      <c r="N26" s="184">
         <f>SUM(BA5:BC5,BA16:BC17,BA33:BC34,BA50:BC51)</f>
         <v>29</v>
       </c>
-      <c r="O26" s="165"/>
-      <c r="P26" s="165"/>
-      <c r="Q26" s="165">
+      <c r="O26" s="184"/>
+      <c r="P26" s="184"/>
+      <c r="Q26" s="184">
         <f>SUM(BD5:BF5,BD16:BF17,BD33:BF34,BD50:BF51)</f>
         <v>12</v>
       </c>
-      <c r="R26" s="165"/>
-      <c r="S26" s="165"/>
-      <c r="T26" s="162">
+      <c r="R26" s="184"/>
+      <c r="S26" s="184"/>
+      <c r="T26" s="193">
         <f t="shared" ref="T26" si="40">SUM(B26:S27)</f>
         <v>118</v>
       </c>
-      <c r="U26" s="161"/>
+      <c r="U26" s="192"/>
       <c r="AB26" s="47" t="str">
         <f>'2_PA'!U23</f>
         <v>Maggiolo Giorgio</v>
@@ -5805,7 +5737,7 @@
       </c>
       <c r="AD26" s="49">
         <f>'2_PA'!W23</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AE26" s="50" t="str">
         <f>'2_PA'!X23</f>
@@ -5835,9 +5767,9 @@
         <f>'2_PA'!AD23</f>
         <v>PA 3.3</v>
       </c>
-      <c r="AL26" s="168">
+      <c r="AL26" s="173">
         <f>'2_PA'!AE23</f>
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AO26">
         <f t="shared" si="35"/>
@@ -5865,7 +5797,7 @@
       </c>
       <c r="AU26">
         <f t="shared" si="20"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AV26">
         <f t="shared" si="21"/>
@@ -5913,31 +5845,31 @@
       </c>
       <c r="BG26" s="158">
         <f t="shared" si="19"/>
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:60" ht="15.75" thickBot="1">
-      <c r="A27" s="167"/>
-      <c r="B27" s="165"/>
-      <c r="C27" s="165"/>
-      <c r="D27" s="165"/>
-      <c r="E27" s="165"/>
-      <c r="F27" s="165"/>
-      <c r="G27" s="165"/>
-      <c r="H27" s="165"/>
-      <c r="I27" s="165"/>
-      <c r="J27" s="165"/>
-      <c r="K27" s="166"/>
-      <c r="L27" s="166"/>
-      <c r="M27" s="166"/>
-      <c r="N27" s="165"/>
-      <c r="O27" s="165"/>
-      <c r="P27" s="165"/>
-      <c r="Q27" s="165"/>
-      <c r="R27" s="165"/>
-      <c r="S27" s="165"/>
-      <c r="T27" s="162"/>
-      <c r="U27" s="161"/>
+      <c r="A27" s="182"/>
+      <c r="B27" s="184"/>
+      <c r="C27" s="184"/>
+      <c r="D27" s="184"/>
+      <c r="E27" s="184"/>
+      <c r="F27" s="184"/>
+      <c r="G27" s="184"/>
+      <c r="H27" s="184"/>
+      <c r="I27" s="184"/>
+      <c r="J27" s="184"/>
+      <c r="K27" s="183"/>
+      <c r="L27" s="183"/>
+      <c r="M27" s="183"/>
+      <c r="N27" s="184"/>
+      <c r="O27" s="184"/>
+      <c r="P27" s="184"/>
+      <c r="Q27" s="184"/>
+      <c r="R27" s="184"/>
+      <c r="S27" s="184"/>
+      <c r="T27" s="193"/>
+      <c r="U27" s="192"/>
       <c r="AB27" s="63">
         <f>'2_PA'!U24</f>
         <v>0</v>
@@ -5978,7 +5910,7 @@
         <f>'2_PA'!AD24</f>
         <v>PA 5.1</v>
       </c>
-      <c r="AL27" s="182"/>
+      <c r="AL27" s="174"/>
       <c r="AO27">
         <f t="shared" si="35"/>
         <v>0</v>
@@ -6057,96 +5989,96 @@
       </c>
     </row>
     <row r="28" spans="1:60" ht="15.75" thickBot="1">
-      <c r="A28" s="167" t="s">
+      <c r="A28" s="182" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="165">
+      <c r="B28" s="184">
         <f>SUM(AO6:AQ6,AO18:AQ19,AO35:AQ36,AO52:AQ53)</f>
         <v>10</v>
       </c>
-      <c r="C28" s="165"/>
-      <c r="D28" s="165"/>
-      <c r="E28" s="165">
+      <c r="C28" s="184"/>
+      <c r="D28" s="184"/>
+      <c r="E28" s="184">
         <f>SUM(AR6:AT6,AR18:AT19,AR35:AT36,AR52:AT53)</f>
         <v>14</v>
       </c>
-      <c r="F28" s="165"/>
-      <c r="G28" s="165"/>
-      <c r="H28" s="165">
+      <c r="F28" s="184"/>
+      <c r="G28" s="184"/>
+      <c r="H28" s="184">
         <f>SUM(AU6:AW6,AU18:AW19,AU35:AW36,AU52:AW53)</f>
         <v>13</v>
       </c>
-      <c r="I28" s="165"/>
-      <c r="J28" s="165"/>
-      <c r="K28" s="165">
+      <c r="I28" s="184"/>
+      <c r="J28" s="184"/>
+      <c r="K28" s="184">
         <f>SUM(AX6:AZ6,AX18:AZ19,AX35:AZ36,AX52:AZ53)</f>
         <v>27</v>
       </c>
-      <c r="L28" s="165"/>
-      <c r="M28" s="165"/>
-      <c r="N28" s="165">
+      <c r="L28" s="184"/>
+      <c r="M28" s="184"/>
+      <c r="N28" s="184">
         <f>SUM(BA6:BC6,BA18:BC19,BA35:BC36,BA52:BC53)</f>
         <v>33</v>
       </c>
-      <c r="O28" s="165"/>
-      <c r="P28" s="165"/>
-      <c r="Q28" s="166">
+      <c r="O28" s="184"/>
+      <c r="P28" s="184"/>
+      <c r="Q28" s="183">
         <f>SUM(BD6:BF6,BD18:BF19,BD35:BF36,BD52:BF53)</f>
         <v>20</v>
       </c>
-      <c r="R28" s="166"/>
-      <c r="S28" s="166"/>
-      <c r="T28" s="162">
+      <c r="R28" s="183"/>
+      <c r="S28" s="183"/>
+      <c r="T28" s="193">
         <f t="shared" ref="T28" si="41">SUM(B28:S29)</f>
         <v>117</v>
       </c>
-      <c r="U28" s="161"/>
+      <c r="U28" s="192"/>
       <c r="BG28" s="158">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:60">
-      <c r="A29" s="167"/>
-      <c r="B29" s="165"/>
-      <c r="C29" s="165"/>
-      <c r="D29" s="165"/>
-      <c r="E29" s="165"/>
-      <c r="F29" s="165"/>
-      <c r="G29" s="165"/>
-      <c r="H29" s="165"/>
-      <c r="I29" s="165"/>
-      <c r="J29" s="165"/>
-      <c r="K29" s="165"/>
-      <c r="L29" s="165"/>
-      <c r="M29" s="165"/>
-      <c r="N29" s="165"/>
-      <c r="O29" s="165"/>
-      <c r="P29" s="165"/>
-      <c r="Q29" s="166"/>
-      <c r="R29" s="166"/>
-      <c r="S29" s="166"/>
-      <c r="T29" s="162"/>
-      <c r="U29" s="161"/>
+      <c r="A29" s="182"/>
+      <c r="B29" s="184"/>
+      <c r="C29" s="184"/>
+      <c r="D29" s="184"/>
+      <c r="E29" s="184"/>
+      <c r="F29" s="184"/>
+      <c r="G29" s="184"/>
+      <c r="H29" s="184"/>
+      <c r="I29" s="184"/>
+      <c r="J29" s="184"/>
+      <c r="K29" s="184"/>
+      <c r="L29" s="184"/>
+      <c r="M29" s="184"/>
+      <c r="N29" s="184"/>
+      <c r="O29" s="184"/>
+      <c r="P29" s="184"/>
+      <c r="Q29" s="183"/>
+      <c r="R29" s="183"/>
+      <c r="S29" s="183"/>
+      <c r="T29" s="193"/>
+      <c r="U29" s="192"/>
       <c r="AA29" t="s">
         <v>124</v>
       </c>
       <c r="AB29" s="149" t="s">
         <v>127</v>
       </c>
-      <c r="AC29" s="176" t="str">
+      <c r="AC29" s="175" t="str">
         <f>'3_PDC'!U6</f>
         <v>I Periodo</v>
       </c>
-      <c r="AD29" s="177"/>
-      <c r="AE29" s="178"/>
-      <c r="AF29" s="176" t="str">
+      <c r="AD29" s="176"/>
+      <c r="AE29" s="177"/>
+      <c r="AF29" s="175" t="str">
         <f>'3_PDC'!X6</f>
         <v>II Periodo</v>
       </c>
-      <c r="AG29" s="177"/>
-      <c r="AH29" s="179"/>
-      <c r="AI29" s="172" t="str">
+      <c r="AG29" s="176"/>
+      <c r="AH29" s="178"/>
+      <c r="AI29" s="179" t="str">
         <f>'3_PDC'!AA6</f>
         <v>Totale</v>
       </c>
@@ -6156,50 +6088,50 @@
       </c>
     </row>
     <row r="30" spans="1:60" ht="15.75" thickBot="1">
-      <c r="A30" s="167" t="s">
+      <c r="A30" s="182" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="165">
+      <c r="B30" s="184">
         <f>SUM(AO7:AQ7,AO20:AQ21,AO37:AQ38,AO54:AQ55)</f>
         <v>15</v>
       </c>
-      <c r="C30" s="165"/>
-      <c r="D30" s="165"/>
-      <c r="E30" s="165">
+      <c r="C30" s="184"/>
+      <c r="D30" s="184"/>
+      <c r="E30" s="184">
         <f>SUM(AR7:AT7,AR20:AT21,AR37:AT38,AR54:AT55)</f>
         <v>4</v>
       </c>
-      <c r="F30" s="165"/>
-      <c r="G30" s="165"/>
-      <c r="H30" s="165">
+      <c r="F30" s="184"/>
+      <c r="G30" s="184"/>
+      <c r="H30" s="184">
         <f>SUM(AU7:AW7,AU20:AW21,AU37:AW38,AU54:AW55)</f>
         <v>11</v>
       </c>
-      <c r="I30" s="165"/>
-      <c r="J30" s="165"/>
-      <c r="K30" s="166">
+      <c r="I30" s="184"/>
+      <c r="J30" s="184"/>
+      <c r="K30" s="183">
         <f>SUM(AX7:AZ7,AX20:AZ21,AX37:AZ38,AX54:AZ55)</f>
         <v>39</v>
       </c>
-      <c r="L30" s="166"/>
-      <c r="M30" s="166"/>
-      <c r="N30" s="166">
+      <c r="L30" s="183"/>
+      <c r="M30" s="183"/>
+      <c r="N30" s="183">
         <f>SUM(BA7:BC7,BA20:BC21,BA37:BC38,BA54:BC55)</f>
         <v>35</v>
       </c>
-      <c r="O30" s="166"/>
-      <c r="P30" s="166"/>
-      <c r="Q30" s="165">
+      <c r="O30" s="183"/>
+      <c r="P30" s="183"/>
+      <c r="Q30" s="184">
         <f>SUM(BD7:BF7,BD20:BF21,BD37:BF38,BD54:BF55)</f>
         <v>18</v>
       </c>
-      <c r="R30" s="165"/>
-      <c r="S30" s="165"/>
-      <c r="T30" s="162">
+      <c r="R30" s="184"/>
+      <c r="S30" s="184"/>
+      <c r="T30" s="193">
         <f t="shared" ref="T30" si="42">SUM(B30:S31)</f>
         <v>122</v>
       </c>
-      <c r="U30" s="161"/>
+      <c r="U30" s="192"/>
       <c r="AB30" s="150"/>
       <c r="AC30" s="26" t="str">
         <f>'3_PDC'!U7</f>
@@ -6225,7 +6157,7 @@
         <f>'3_PDC'!Z7</f>
         <v>Fase</v>
       </c>
-      <c r="AI30" s="173"/>
+      <c r="AI30" s="180"/>
       <c r="AK30">
         <f>SUM(AI31:AI44)</f>
         <v>373</v>
@@ -6236,27 +6168,27 @@
       </c>
     </row>
     <row r="31" spans="1:60">
-      <c r="A31" s="167"/>
-      <c r="B31" s="165"/>
-      <c r="C31" s="165"/>
-      <c r="D31" s="165"/>
-      <c r="E31" s="165"/>
-      <c r="F31" s="165"/>
-      <c r="G31" s="165"/>
-      <c r="H31" s="165"/>
-      <c r="I31" s="165"/>
-      <c r="J31" s="165"/>
-      <c r="K31" s="166"/>
-      <c r="L31" s="166"/>
-      <c r="M31" s="166"/>
-      <c r="N31" s="166"/>
-      <c r="O31" s="166"/>
-      <c r="P31" s="166"/>
-      <c r="Q31" s="165"/>
-      <c r="R31" s="165"/>
-      <c r="S31" s="165"/>
-      <c r="T31" s="162"/>
-      <c r="U31" s="161"/>
+      <c r="A31" s="182"/>
+      <c r="B31" s="184"/>
+      <c r="C31" s="184"/>
+      <c r="D31" s="184"/>
+      <c r="E31" s="184"/>
+      <c r="F31" s="184"/>
+      <c r="G31" s="184"/>
+      <c r="H31" s="184"/>
+      <c r="I31" s="184"/>
+      <c r="J31" s="184"/>
+      <c r="K31" s="183"/>
+      <c r="L31" s="183"/>
+      <c r="M31" s="183"/>
+      <c r="N31" s="183"/>
+      <c r="O31" s="183"/>
+      <c r="P31" s="183"/>
+      <c r="Q31" s="184"/>
+      <c r="R31" s="184"/>
+      <c r="S31" s="184"/>
+      <c r="T31" s="193"/>
+      <c r="U31" s="192"/>
       <c r="AB31" s="31" t="str">
         <f>'3_PDC'!T8</f>
         <v>Begolo Marco</v>
@@ -6285,7 +6217,7 @@
         <f>'3_PDC'!Z8</f>
         <v>PDC 4.4</v>
       </c>
-      <c r="AI31" s="180">
+      <c r="AI31" s="181">
         <f>'3_PDC'!AA8</f>
         <v>52</v>
       </c>
@@ -6371,50 +6303,50 @@
       </c>
     </row>
     <row r="32" spans="1:60">
-      <c r="A32" s="167" t="s">
+      <c r="A32" s="182" t="s">
         <v>8</v>
       </c>
-      <c r="B32" s="165">
+      <c r="B32" s="184">
         <f>SUM(AO8:AQ8,AO22:AQ23,AO39:AQ40,AO56:AQ57)</f>
         <v>9</v>
       </c>
-      <c r="C32" s="165"/>
-      <c r="D32" s="165"/>
-      <c r="E32" s="165">
+      <c r="C32" s="184"/>
+      <c r="D32" s="184"/>
+      <c r="E32" s="184">
         <f>SUM(AR8:AT8,AR22:AT23,AR39:AT40,AR56:AT57)</f>
         <v>11</v>
       </c>
-      <c r="F32" s="165"/>
-      <c r="G32" s="165"/>
-      <c r="H32" s="165">
+      <c r="F32" s="184"/>
+      <c r="G32" s="184"/>
+      <c r="H32" s="184">
         <f>SUM(AU8:AW8,AU22:AW23,AU39:AW40,AU56:AW57)</f>
-        <v>10</v>
-      </c>
-      <c r="I32" s="165"/>
-      <c r="J32" s="165"/>
-      <c r="K32" s="165">
+        <v>12</v>
+      </c>
+      <c r="I32" s="184"/>
+      <c r="J32" s="184"/>
+      <c r="K32" s="184">
         <f>SUM(AX8:AZ8,AX22:AZ23,AX39:AZ40,AX56:AZ57)</f>
         <v>30</v>
       </c>
-      <c r="L32" s="165"/>
-      <c r="M32" s="165"/>
-      <c r="N32" s="166">
+      <c r="L32" s="184"/>
+      <c r="M32" s="184"/>
+      <c r="N32" s="183">
         <f>SUM(BA8:BC8,BA22:BC23,BA39:BC40,BA56:BC57)</f>
         <v>37</v>
       </c>
-      <c r="O32" s="166"/>
-      <c r="P32" s="166"/>
-      <c r="Q32" s="165">
+      <c r="O32" s="183"/>
+      <c r="P32" s="183"/>
+      <c r="Q32" s="184">
         <f>SUM(BD8:BF8,BD22:BF23,BD39:BF40,BD56:BF57)</f>
         <v>23</v>
       </c>
-      <c r="R32" s="165"/>
-      <c r="S32" s="165"/>
-      <c r="T32" s="162">
+      <c r="R32" s="184"/>
+      <c r="S32" s="184"/>
+      <c r="T32" s="193">
         <f t="shared" ref="T32" si="58">SUM(B32:S33)</f>
-        <v>120</v>
-      </c>
-      <c r="U32" s="161"/>
+        <v>122</v>
+      </c>
+      <c r="U32" s="192"/>
       <c r="AB32" s="35">
         <f>'3_PDC'!T9</f>
         <v>0</v>
@@ -6443,7 +6375,7 @@
         <f>'3_PDC'!Z9</f>
         <v>PDC 7</v>
       </c>
-      <c r="AI32" s="168"/>
+      <c r="AI32" s="173"/>
       <c r="AO32">
         <f>IF($AC32=AO$2,$AD32,0)</f>
         <v>0</v>
@@ -6522,27 +6454,27 @@
       </c>
     </row>
     <row r="33" spans="1:60">
-      <c r="A33" s="167"/>
-      <c r="B33" s="165"/>
-      <c r="C33" s="165"/>
-      <c r="D33" s="165"/>
-      <c r="E33" s="165"/>
-      <c r="F33" s="165"/>
-      <c r="G33" s="165"/>
-      <c r="H33" s="165"/>
-      <c r="I33" s="165"/>
-      <c r="J33" s="165"/>
-      <c r="K33" s="165"/>
-      <c r="L33" s="165"/>
-      <c r="M33" s="165"/>
-      <c r="N33" s="166"/>
-      <c r="O33" s="166"/>
-      <c r="P33" s="166"/>
-      <c r="Q33" s="165"/>
-      <c r="R33" s="165"/>
-      <c r="S33" s="165"/>
-      <c r="T33" s="162"/>
-      <c r="U33" s="161"/>
+      <c r="A33" s="182"/>
+      <c r="B33" s="184"/>
+      <c r="C33" s="184"/>
+      <c r="D33" s="184"/>
+      <c r="E33" s="184"/>
+      <c r="F33" s="184"/>
+      <c r="G33" s="184"/>
+      <c r="H33" s="184"/>
+      <c r="I33" s="184"/>
+      <c r="J33" s="184"/>
+      <c r="K33" s="184"/>
+      <c r="L33" s="184"/>
+      <c r="M33" s="184"/>
+      <c r="N33" s="183"/>
+      <c r="O33" s="183"/>
+      <c r="P33" s="183"/>
+      <c r="Q33" s="184"/>
+      <c r="R33" s="184"/>
+      <c r="S33" s="184"/>
+      <c r="T33" s="193"/>
+      <c r="U33" s="192"/>
       <c r="AB33" s="31" t="str">
         <f>'3_PDC'!T10</f>
         <v>Facchin Gabriele</v>
@@ -6571,7 +6503,7 @@
         <f>'3_PDC'!Z10</f>
         <v>PDC 3.1</v>
       </c>
-      <c r="AI33" s="168">
+      <c r="AI33" s="173">
         <f>'3_PDC'!AA10</f>
         <v>52</v>
       </c>
@@ -6653,50 +6585,50 @@
       </c>
     </row>
     <row r="34" spans="1:60">
-      <c r="A34" s="167" t="s">
+      <c r="A34" s="182" t="s">
         <v>13</v>
       </c>
-      <c r="B34" s="165">
+      <c r="B34" s="184">
         <f>SUM(AO9:AQ9,AO24:AQ25,AO41:AQ42,AO58:AQ59)</f>
         <v>6</v>
       </c>
-      <c r="C34" s="165"/>
-      <c r="D34" s="165"/>
-      <c r="E34" s="165">
+      <c r="C34" s="184"/>
+      <c r="D34" s="184"/>
+      <c r="E34" s="184">
         <f>SUM(AR9:AT9,AR24:AT25,AR41:AT42,AR58:AT59)</f>
         <v>2</v>
       </c>
-      <c r="F34" s="165"/>
-      <c r="G34" s="165"/>
-      <c r="H34" s="165">
+      <c r="F34" s="184"/>
+      <c r="G34" s="184"/>
+      <c r="H34" s="184">
         <f>SUM(AU9:AW9,AU24:AW25,AU41:AW42,AU58:AW59)</f>
         <v>10</v>
       </c>
-      <c r="I34" s="165"/>
-      <c r="J34" s="165"/>
-      <c r="K34" s="166">
+      <c r="I34" s="184"/>
+      <c r="J34" s="184"/>
+      <c r="K34" s="183">
         <f>SUM(AX9:AZ9,AX24:AZ25,AX41:AZ42,AX58:AZ59)</f>
         <v>37</v>
       </c>
-      <c r="L34" s="166"/>
-      <c r="M34" s="166"/>
-      <c r="N34" s="166">
+      <c r="L34" s="183"/>
+      <c r="M34" s="183"/>
+      <c r="N34" s="183">
         <f>SUM(BA9:BC9,BA24:BC25,BA41:BC42,BA58:BC59)</f>
         <v>40</v>
       </c>
-      <c r="O34" s="166"/>
-      <c r="P34" s="166"/>
-      <c r="Q34" s="166">
+      <c r="O34" s="183"/>
+      <c r="P34" s="183"/>
+      <c r="Q34" s="183">
         <f>SUM(BD9:BF9,BD24:BF25,BD41:BF42,BD58:BF59)</f>
         <v>25</v>
       </c>
-      <c r="R34" s="166"/>
-      <c r="S34" s="166"/>
-      <c r="T34" s="162">
+      <c r="R34" s="183"/>
+      <c r="S34" s="183"/>
+      <c r="T34" s="193">
         <f t="shared" ref="T34" si="62">SUM(B34:S35)</f>
         <v>120</v>
       </c>
-      <c r="U34" s="161"/>
+      <c r="U34" s="192"/>
       <c r="AB34" s="31">
         <f>'3_PDC'!T11</f>
         <v>0</v>
@@ -6725,7 +6657,7 @@
         <f>'3_PDC'!Z11</f>
         <v>PDC 4.3</v>
       </c>
-      <c r="AI34" s="168"/>
+      <c r="AI34" s="173"/>
       <c r="AO34">
         <f t="shared" si="59"/>
         <v>0</v>
@@ -6804,27 +6736,27 @@
       </c>
     </row>
     <row r="35" spans="1:60">
-      <c r="A35" s="167"/>
-      <c r="B35" s="165"/>
-      <c r="C35" s="165"/>
-      <c r="D35" s="165"/>
-      <c r="E35" s="165"/>
-      <c r="F35" s="165"/>
-      <c r="G35" s="165"/>
-      <c r="H35" s="165"/>
-      <c r="I35" s="165"/>
-      <c r="J35" s="165"/>
-      <c r="K35" s="166"/>
-      <c r="L35" s="166"/>
-      <c r="M35" s="166"/>
-      <c r="N35" s="166"/>
-      <c r="O35" s="166"/>
-      <c r="P35" s="166"/>
-      <c r="Q35" s="166"/>
-      <c r="R35" s="166"/>
-      <c r="S35" s="166"/>
-      <c r="T35" s="162"/>
-      <c r="U35" s="161"/>
+      <c r="A35" s="182"/>
+      <c r="B35" s="184"/>
+      <c r="C35" s="184"/>
+      <c r="D35" s="184"/>
+      <c r="E35" s="184"/>
+      <c r="F35" s="184"/>
+      <c r="G35" s="184"/>
+      <c r="H35" s="184"/>
+      <c r="I35" s="184"/>
+      <c r="J35" s="184"/>
+      <c r="K35" s="183"/>
+      <c r="L35" s="183"/>
+      <c r="M35" s="183"/>
+      <c r="N35" s="183"/>
+      <c r="O35" s="183"/>
+      <c r="P35" s="183"/>
+      <c r="Q35" s="183"/>
+      <c r="R35" s="183"/>
+      <c r="S35" s="183"/>
+      <c r="T35" s="193"/>
+      <c r="U35" s="192"/>
       <c r="AB35" s="47" t="str">
         <f>'3_PDC'!T12</f>
         <v>Cornaglia Alessando</v>
@@ -6853,7 +6785,7 @@
         <f>'3_PDC'!Z12</f>
         <v>PDC 4.4 e 5</v>
       </c>
-      <c r="AI35" s="168">
+      <c r="AI35" s="173">
         <f>'3_PDC'!AA12</f>
         <v>52</v>
       </c>
@@ -6935,50 +6867,50 @@
       </c>
     </row>
     <row r="36" spans="1:60">
-      <c r="A36" s="167" t="s">
+      <c r="A36" s="182" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="165">
+      <c r="B36" s="184">
         <f>SUM(AO10:AQ10,AO26:AQ27,AO43:AQ44,AO60:AQ61)</f>
         <v>12</v>
       </c>
-      <c r="C36" s="165"/>
-      <c r="D36" s="165"/>
-      <c r="E36" s="165">
+      <c r="C36" s="184"/>
+      <c r="D36" s="184"/>
+      <c r="E36" s="184">
         <f>SUM(AR10:AT10,AR26:AT27,AR43:AT44,AR60:AT61)</f>
         <v>18</v>
       </c>
-      <c r="F36" s="165"/>
-      <c r="G36" s="165"/>
-      <c r="H36" s="165">
+      <c r="F36" s="184"/>
+      <c r="G36" s="184"/>
+      <c r="H36" s="184">
         <f>SUM(AU10:AW10,AU26:AW27,AU43:AW44,AU60:AW61)</f>
-        <v>8</v>
-      </c>
-      <c r="I36" s="165"/>
-      <c r="J36" s="165"/>
-      <c r="K36" s="166">
+        <v>7</v>
+      </c>
+      <c r="I36" s="184"/>
+      <c r="J36" s="184"/>
+      <c r="K36" s="183">
         <f>SUM(AX10:AZ10,AX26:AZ27,AX43:AZ44,AX60:AZ61)</f>
         <v>51</v>
       </c>
-      <c r="L36" s="166"/>
-      <c r="M36" s="166"/>
-      <c r="N36" s="165">
+      <c r="L36" s="183"/>
+      <c r="M36" s="183"/>
+      <c r="N36" s="184">
         <f>SUM(BA10:BC10,BA26:BC27,BA43:BC44,BA60:BC61)</f>
         <v>8</v>
       </c>
-      <c r="O36" s="165"/>
-      <c r="P36" s="165"/>
-      <c r="Q36" s="165">
+      <c r="O36" s="184"/>
+      <c r="P36" s="184"/>
+      <c r="Q36" s="184">
         <f>SUM(BD10:BF10,BD26:BF27,BD43:BF44,BD60:BF61)</f>
         <v>18</v>
       </c>
-      <c r="R36" s="165"/>
-      <c r="S36" s="165"/>
-      <c r="T36" s="162">
+      <c r="R36" s="184"/>
+      <c r="S36" s="184"/>
+      <c r="T36" s="193">
         <f t="shared" ref="T36" si="63">SUM(B36:S37)</f>
-        <v>115</v>
-      </c>
-      <c r="U36" s="161"/>
+        <v>114</v>
+      </c>
+      <c r="U36" s="192"/>
       <c r="AB36" s="35">
         <f>'3_PDC'!T13</f>
         <v>0</v>
@@ -7007,7 +6939,7 @@
         <f>'3_PDC'!Z13</f>
         <v>PDC 7</v>
       </c>
-      <c r="AI36" s="168"/>
+      <c r="AI36" s="173"/>
       <c r="AO36">
         <f t="shared" si="59"/>
         <v>0</v>
@@ -7086,27 +7018,27 @@
       </c>
     </row>
     <row r="37" spans="1:60">
-      <c r="A37" s="167"/>
-      <c r="B37" s="165"/>
-      <c r="C37" s="165"/>
-      <c r="D37" s="165"/>
-      <c r="E37" s="165"/>
-      <c r="F37" s="165"/>
-      <c r="G37" s="165"/>
-      <c r="H37" s="165"/>
-      <c r="I37" s="165"/>
-      <c r="J37" s="165"/>
-      <c r="K37" s="166"/>
-      <c r="L37" s="166"/>
-      <c r="M37" s="166"/>
-      <c r="N37" s="165"/>
-      <c r="O37" s="165"/>
-      <c r="P37" s="165"/>
-      <c r="Q37" s="165"/>
-      <c r="R37" s="165"/>
-      <c r="S37" s="165"/>
-      <c r="T37" s="162"/>
-      <c r="U37" s="161"/>
+      <c r="A37" s="182"/>
+      <c r="B37" s="184"/>
+      <c r="C37" s="184"/>
+      <c r="D37" s="184"/>
+      <c r="E37" s="184"/>
+      <c r="F37" s="184"/>
+      <c r="G37" s="184"/>
+      <c r="H37" s="184"/>
+      <c r="I37" s="184"/>
+      <c r="J37" s="184"/>
+      <c r="K37" s="183"/>
+      <c r="L37" s="183"/>
+      <c r="M37" s="183"/>
+      <c r="N37" s="184"/>
+      <c r="O37" s="184"/>
+      <c r="P37" s="184"/>
+      <c r="Q37" s="184"/>
+      <c r="R37" s="184"/>
+      <c r="S37" s="184"/>
+      <c r="T37" s="193"/>
+      <c r="U37" s="192"/>
       <c r="AB37" s="31" t="str">
         <f>'3_PDC'!T14</f>
         <v>Dalla Pietà Massimo</v>
@@ -7135,7 +7067,7 @@
         <f>'3_PDC'!Z14</f>
         <v>PDC 4.3</v>
       </c>
-      <c r="AI37" s="168">
+      <c r="AI37" s="173">
         <f>'3_PDC'!AA14</f>
         <v>57</v>
       </c>
@@ -7217,50 +7149,50 @@
       </c>
     </row>
     <row r="38" spans="1:60">
-      <c r="A38" s="164" t="s">
+      <c r="A38" s="191" t="s">
         <v>14</v>
       </c>
-      <c r="B38" s="165">
+      <c r="B38" s="184">
         <f>SUM(B24:D37)</f>
         <v>82</v>
       </c>
-      <c r="C38" s="165"/>
-      <c r="D38" s="165"/>
-      <c r="E38" s="165">
+      <c r="C38" s="184"/>
+      <c r="D38" s="184"/>
+      <c r="E38" s="184">
         <f t="shared" ref="E38" si="64">SUM(E24:G37)</f>
         <v>69</v>
       </c>
-      <c r="F38" s="165"/>
-      <c r="G38" s="165"/>
-      <c r="H38" s="165">
+      <c r="F38" s="184"/>
+      <c r="G38" s="184"/>
+      <c r="H38" s="184">
         <f>SUM(H24:J37)</f>
         <v>79</v>
       </c>
-      <c r="I38" s="165"/>
-      <c r="J38" s="165"/>
-      <c r="K38" s="165">
+      <c r="I38" s="184"/>
+      <c r="J38" s="184"/>
+      <c r="K38" s="184">
         <f t="shared" ref="K38" si="65">SUM(K24:M37)</f>
         <v>237</v>
       </c>
-      <c r="L38" s="165"/>
-      <c r="M38" s="165"/>
-      <c r="N38" s="165">
+      <c r="L38" s="184"/>
+      <c r="M38" s="184"/>
+      <c r="N38" s="184">
         <f t="shared" ref="N38" si="66">SUM(N24:P37)</f>
         <v>241</v>
       </c>
-      <c r="O38" s="165"/>
-      <c r="P38" s="165"/>
-      <c r="Q38" s="165">
+      <c r="O38" s="184"/>
+      <c r="P38" s="184"/>
+      <c r="Q38" s="184">
         <f>SUM(Q24:S37)</f>
         <v>120</v>
       </c>
-      <c r="R38" s="165"/>
-      <c r="S38" s="165"/>
-      <c r="T38" s="163">
+      <c r="R38" s="184"/>
+      <c r="S38" s="184"/>
+      <c r="T38" s="194">
         <f>SUM(B38:S39)</f>
         <v>828</v>
       </c>
-      <c r="U38" s="161"/>
+      <c r="U38" s="192"/>
       <c r="AB38" s="31">
         <f>'3_PDC'!T15</f>
         <v>0</v>
@@ -7289,7 +7221,7 @@
         <f>'3_PDC'!Z15</f>
         <v>PDC 7</v>
       </c>
-      <c r="AI38" s="168"/>
+      <c r="AI38" s="173"/>
       <c r="AO38">
         <f t="shared" si="59"/>
         <v>0</v>
@@ -7368,27 +7300,27 @@
       </c>
     </row>
     <row r="39" spans="1:60">
-      <c r="A39" s="164"/>
-      <c r="B39" s="165"/>
-      <c r="C39" s="165"/>
-      <c r="D39" s="165"/>
-      <c r="E39" s="165"/>
-      <c r="F39" s="165"/>
-      <c r="G39" s="165"/>
-      <c r="H39" s="165"/>
-      <c r="I39" s="165"/>
-      <c r="J39" s="165"/>
-      <c r="K39" s="165"/>
-      <c r="L39" s="165"/>
-      <c r="M39" s="165"/>
-      <c r="N39" s="165"/>
-      <c r="O39" s="165"/>
-      <c r="P39" s="165"/>
-      <c r="Q39" s="165"/>
-      <c r="R39" s="165"/>
-      <c r="S39" s="165"/>
-      <c r="T39" s="163"/>
-      <c r="U39" s="161"/>
+      <c r="A39" s="191"/>
+      <c r="B39" s="184"/>
+      <c r="C39" s="184"/>
+      <c r="D39" s="184"/>
+      <c r="E39" s="184"/>
+      <c r="F39" s="184"/>
+      <c r="G39" s="184"/>
+      <c r="H39" s="184"/>
+      <c r="I39" s="184"/>
+      <c r="J39" s="184"/>
+      <c r="K39" s="184"/>
+      <c r="L39" s="184"/>
+      <c r="M39" s="184"/>
+      <c r="N39" s="184"/>
+      <c r="O39" s="184"/>
+      <c r="P39" s="184"/>
+      <c r="Q39" s="184"/>
+      <c r="R39" s="184"/>
+      <c r="S39" s="184"/>
+      <c r="T39" s="194"/>
+      <c r="U39" s="192"/>
       <c r="AB39" s="47" t="str">
         <f>'3_PDC'!T16</f>
         <v>Braghetto Lorenzo</v>
@@ -7417,7 +7349,7 @@
         <f>'3_PDC'!Z16</f>
         <v>PDC 4.4</v>
       </c>
-      <c r="AI39" s="168">
+      <c r="AI39" s="173">
         <f>'3_PDC'!AA16</f>
         <v>54</v>
       </c>
@@ -7528,7 +7460,7 @@
         <f>'3_PDC'!Z17</f>
         <v>PDC 7</v>
       </c>
-      <c r="AI40" s="168"/>
+      <c r="AI40" s="173"/>
       <c r="AO40">
         <f t="shared" si="59"/>
         <v>0</v>
@@ -7636,7 +7568,7 @@
         <f>'3_PDC'!Z18</f>
         <v>PDC 6</v>
       </c>
-      <c r="AI41" s="168">
+      <c r="AI41" s="173">
         <f>'3_PDC'!AA18</f>
         <v>54</v>
       </c>
@@ -7747,7 +7679,7 @@
         <f>'3_PDC'!Z19</f>
         <v>PDC 3.2, 5 e 7</v>
       </c>
-      <c r="AI42" s="168"/>
+      <c r="AI42" s="173"/>
       <c r="AO42">
         <f t="shared" si="59"/>
         <v>0</v>
@@ -7855,7 +7787,7 @@
         <f>'3_PDC'!Z20</f>
         <v>PDC 4.3</v>
       </c>
-      <c r="AI43" s="168">
+      <c r="AI43" s="173">
         <f>'3_PDC'!AA20</f>
         <v>52</v>
       </c>
@@ -7966,7 +7898,7 @@
         <f>'3_PDC'!Z21</f>
         <v>PDC 7</v>
       </c>
-      <c r="AI44" s="182"/>
+      <c r="AI44" s="174"/>
       <c r="AO44">
         <f t="shared" si="59"/>
         <v>0</v>
@@ -8059,19 +7991,19 @@
       <c r="AB46" s="149" t="s">
         <v>128</v>
       </c>
-      <c r="AC46" s="176" t="str">
+      <c r="AC46" s="175" t="str">
         <f>'4_VV'!U3</f>
         <v>I Periodo</v>
       </c>
-      <c r="AD46" s="177"/>
-      <c r="AE46" s="178"/>
-      <c r="AF46" s="176" t="str">
+      <c r="AD46" s="176"/>
+      <c r="AE46" s="177"/>
+      <c r="AF46" s="175" t="str">
         <f>'4_VV'!X3</f>
         <v>II Periodo</v>
       </c>
-      <c r="AG46" s="177"/>
-      <c r="AH46" s="179"/>
-      <c r="AI46" s="172" t="str">
+      <c r="AG46" s="176"/>
+      <c r="AH46" s="178"/>
+      <c r="AI46" s="179" t="str">
         <f>'4_VV'!AA3</f>
         <v>Totale</v>
       </c>
@@ -8111,7 +8043,7 @@
         <f>'4_VV'!Z4</f>
         <v>Fase</v>
       </c>
-      <c r="AI47" s="173"/>
+      <c r="AI47" s="180"/>
       <c r="BG47" s="158">
         <f t="shared" si="19"/>
         <v>0</v>
@@ -8147,7 +8079,7 @@
         <f>'4_VV'!Z5</f>
         <v>VV 3.2</v>
       </c>
-      <c r="AI48" s="180">
+      <c r="AI48" s="181">
         <f>'4_VV'!AA5</f>
         <v>18</v>
       </c>
@@ -8261,7 +8193,7 @@
         <f>'4_VV'!Z6</f>
         <v>0</v>
       </c>
-      <c r="AI49" s="168"/>
+      <c r="AI49" s="173"/>
       <c r="AO49">
         <f>IF($AC49=AO$2,$AD49,0)</f>
         <v>0</v>
@@ -8368,7 +8300,7 @@
         <f>'4_VV'!Z7</f>
         <v>VV 3.2</v>
       </c>
-      <c r="AI50" s="168">
+      <c r="AI50" s="173">
         <f>'4_VV'!AA7</f>
         <v>18</v>
       </c>
@@ -8490,7 +8422,7 @@
         <f>'4_VV'!Z8</f>
         <v>VV 3.2</v>
       </c>
-      <c r="AI51" s="168"/>
+      <c r="AI51" s="173"/>
       <c r="AO51">
         <f t="shared" si="82"/>
         <v>0</v>
@@ -8611,7 +8543,7 @@
         <f>'4_VV'!Z9</f>
         <v>VV 3.1</v>
       </c>
-      <c r="AI52" s="168">
+      <c r="AI52" s="173">
         <f>'4_VV'!AA9</f>
         <v>18</v>
       </c>
@@ -8735,7 +8667,7 @@
         <f>'4_VV'!Z10</f>
         <v>0</v>
       </c>
-      <c r="AI53" s="168"/>
+      <c r="AI53" s="173"/>
       <c r="AO53">
         <f t="shared" si="82"/>
         <v>0</v>
@@ -8856,7 +8788,7 @@
         <f>'4_VV'!Z11</f>
         <v>VV 3.1</v>
       </c>
-      <c r="AI54" s="168">
+      <c r="AI54" s="173">
         <f>'4_VV'!AA11</f>
         <v>18</v>
       </c>
@@ -8980,7 +8912,7 @@
         <f>'4_VV'!Z12</f>
         <v>0</v>
       </c>
-      <c r="AI55" s="168"/>
+      <c r="AI55" s="173"/>
       <c r="AO55">
         <f t="shared" si="82"/>
         <v>0</v>
@@ -9101,7 +9033,7 @@
         <f>'4_VV'!Z13</f>
         <v>VV 3.1</v>
       </c>
-      <c r="AI56" s="168">
+      <c r="AI56" s="173">
         <f>'4_VV'!AA13</f>
         <v>18</v>
       </c>
@@ -9225,7 +9157,7 @@
         <f>'4_VV'!Z14</f>
         <v>0</v>
       </c>
-      <c r="AI57" s="168"/>
+      <c r="AI57" s="173"/>
       <c r="AO57">
         <f t="shared" si="82"/>
         <v>0</v>
@@ -9343,7 +9275,7 @@
         <f>'4_VV'!Z15</f>
         <v>VV 3.1</v>
       </c>
-      <c r="AI58" s="168">
+      <c r="AI58" s="173">
         <f>'4_VV'!AA15</f>
         <v>18</v>
       </c>
@@ -9453,7 +9385,7 @@
         <f>'4_VV'!Z16</f>
         <v>0</v>
       </c>
-      <c r="AI59" s="168"/>
+      <c r="AI59" s="173"/>
       <c r="AO59">
         <f t="shared" si="82"/>
         <v>0</v>
@@ -9560,7 +9492,7 @@
         <f>'4_VV'!Z17</f>
         <v>VV 3.1</v>
       </c>
-      <c r="AI60" s="168">
+      <c r="AI60" s="173">
         <f>'4_VV'!AA17</f>
         <v>16</v>
       </c>
@@ -9670,7 +9602,7 @@
         <f>'4_VV'!Z18</f>
         <v>0</v>
       </c>
-      <c r="AI61" s="182"/>
+      <c r="AI61" s="174"/>
       <c r="AO61">
         <f t="shared" si="82"/>
         <v>0</v>
@@ -9750,78 +9682,22 @@
     </row>
   </sheetData>
   <mergeCells count="112">
-    <mergeCell ref="AI43:AI44"/>
-    <mergeCell ref="AC46:AE46"/>
-    <mergeCell ref="AF46:AH46"/>
-    <mergeCell ref="AI46:AI47"/>
-    <mergeCell ref="AI60:AI61"/>
-    <mergeCell ref="AI48:AI49"/>
-    <mergeCell ref="AI50:AI51"/>
-    <mergeCell ref="AI52:AI53"/>
-    <mergeCell ref="AI54:AI55"/>
-    <mergeCell ref="AI56:AI57"/>
-    <mergeCell ref="AI58:AI59"/>
-    <mergeCell ref="AI41:AI42"/>
-    <mergeCell ref="AL24:AL25"/>
-    <mergeCell ref="AL26:AL27"/>
-    <mergeCell ref="AC29:AE29"/>
-    <mergeCell ref="AF29:AH29"/>
-    <mergeCell ref="AI29:AI30"/>
-    <mergeCell ref="AI31:AI32"/>
-    <mergeCell ref="AI33:AI34"/>
-    <mergeCell ref="AI35:AI36"/>
-    <mergeCell ref="AI37:AI38"/>
-    <mergeCell ref="AI39:AI40"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="H24:J25"/>
-    <mergeCell ref="E24:G25"/>
-    <mergeCell ref="B24:D25"/>
-    <mergeCell ref="AL22:AL23"/>
-    <mergeCell ref="AC2:AE2"/>
-    <mergeCell ref="AF2:AH2"/>
-    <mergeCell ref="AI2:AI3"/>
-    <mergeCell ref="AC12:AE12"/>
-    <mergeCell ref="AF12:AH12"/>
-    <mergeCell ref="AI12:AK12"/>
-    <mergeCell ref="AL12:AL13"/>
-    <mergeCell ref="AL14:AL15"/>
-    <mergeCell ref="AL16:AL17"/>
-    <mergeCell ref="AL18:AL19"/>
-    <mergeCell ref="AL20:AL21"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="Q23:S23"/>
-    <mergeCell ref="N23:P23"/>
-    <mergeCell ref="K23:M23"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:D27"/>
-    <mergeCell ref="E26:G27"/>
-    <mergeCell ref="H26:J27"/>
-    <mergeCell ref="K26:M27"/>
-    <mergeCell ref="E30:G31"/>
-    <mergeCell ref="H30:J31"/>
-    <mergeCell ref="K30:M31"/>
-    <mergeCell ref="N26:P27"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="K32:M33"/>
-    <mergeCell ref="N32:P33"/>
-    <mergeCell ref="Q32:S33"/>
-    <mergeCell ref="Q24:S25"/>
-    <mergeCell ref="N24:P25"/>
-    <mergeCell ref="K24:M25"/>
-    <mergeCell ref="B32:D33"/>
-    <mergeCell ref="E32:G33"/>
-    <mergeCell ref="H32:J33"/>
-    <mergeCell ref="Q26:S27"/>
-    <mergeCell ref="K28:M29"/>
-    <mergeCell ref="N28:P29"/>
-    <mergeCell ref="Q28:S29"/>
-    <mergeCell ref="B30:D31"/>
-    <mergeCell ref="B28:D29"/>
-    <mergeCell ref="E28:G29"/>
-    <mergeCell ref="H28:J29"/>
+    <mergeCell ref="U38:U39"/>
+    <mergeCell ref="U34:U35"/>
+    <mergeCell ref="U32:U33"/>
+    <mergeCell ref="U30:U31"/>
+    <mergeCell ref="U28:U29"/>
+    <mergeCell ref="U26:U27"/>
+    <mergeCell ref="U24:U25"/>
+    <mergeCell ref="U36:U37"/>
+    <mergeCell ref="T26:T27"/>
+    <mergeCell ref="T24:T25"/>
+    <mergeCell ref="T34:T35"/>
+    <mergeCell ref="T32:T33"/>
+    <mergeCell ref="T30:T31"/>
+    <mergeCell ref="T28:T29"/>
+    <mergeCell ref="T38:T39"/>
+    <mergeCell ref="T36:T37"/>
     <mergeCell ref="A38:A39"/>
     <mergeCell ref="B38:D39"/>
     <mergeCell ref="E38:G39"/>
@@ -9846,43 +9722,99 @@
     <mergeCell ref="N36:P37"/>
     <mergeCell ref="Q36:S37"/>
     <mergeCell ref="Q34:S35"/>
-    <mergeCell ref="U38:U39"/>
-    <mergeCell ref="U34:U35"/>
-    <mergeCell ref="U32:U33"/>
-    <mergeCell ref="U30:U31"/>
-    <mergeCell ref="U28:U29"/>
-    <mergeCell ref="U26:U27"/>
-    <mergeCell ref="U24:U25"/>
-    <mergeCell ref="U36:U37"/>
-    <mergeCell ref="T26:T27"/>
-    <mergeCell ref="T24:T25"/>
-    <mergeCell ref="T34:T35"/>
-    <mergeCell ref="T32:T33"/>
-    <mergeCell ref="T30:T31"/>
-    <mergeCell ref="T28:T29"/>
-    <mergeCell ref="T38:T39"/>
-    <mergeCell ref="T36:T37"/>
+    <mergeCell ref="K32:M33"/>
+    <mergeCell ref="N32:P33"/>
+    <mergeCell ref="Q32:S33"/>
+    <mergeCell ref="Q24:S25"/>
+    <mergeCell ref="N24:P25"/>
+    <mergeCell ref="K24:M25"/>
+    <mergeCell ref="B32:D33"/>
+    <mergeCell ref="E32:G33"/>
+    <mergeCell ref="H32:J33"/>
+    <mergeCell ref="Q26:S27"/>
+    <mergeCell ref="K28:M29"/>
+    <mergeCell ref="N28:P29"/>
+    <mergeCell ref="Q28:S29"/>
+    <mergeCell ref="B30:D31"/>
+    <mergeCell ref="B28:D29"/>
+    <mergeCell ref="E28:G29"/>
+    <mergeCell ref="H28:J29"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:D27"/>
+    <mergeCell ref="E26:G27"/>
+    <mergeCell ref="H26:J27"/>
+    <mergeCell ref="K26:M27"/>
+    <mergeCell ref="E30:G31"/>
+    <mergeCell ref="H30:J31"/>
+    <mergeCell ref="K30:M31"/>
+    <mergeCell ref="N26:P27"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="H24:J25"/>
+    <mergeCell ref="E24:G25"/>
+    <mergeCell ref="B24:D25"/>
+    <mergeCell ref="AL22:AL23"/>
+    <mergeCell ref="AC2:AE2"/>
+    <mergeCell ref="AF2:AH2"/>
+    <mergeCell ref="AI2:AI3"/>
+    <mergeCell ref="AC12:AE12"/>
+    <mergeCell ref="AF12:AH12"/>
+    <mergeCell ref="AI12:AK12"/>
+    <mergeCell ref="AL12:AL13"/>
+    <mergeCell ref="AL14:AL15"/>
+    <mergeCell ref="AL16:AL17"/>
+    <mergeCell ref="AL18:AL19"/>
+    <mergeCell ref="AL20:AL21"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="Q23:S23"/>
+    <mergeCell ref="N23:P23"/>
+    <mergeCell ref="K23:M23"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="AI41:AI42"/>
+    <mergeCell ref="AL24:AL25"/>
+    <mergeCell ref="AL26:AL27"/>
+    <mergeCell ref="AC29:AE29"/>
+    <mergeCell ref="AF29:AH29"/>
+    <mergeCell ref="AI29:AI30"/>
+    <mergeCell ref="AI31:AI32"/>
+    <mergeCell ref="AI33:AI34"/>
+    <mergeCell ref="AI35:AI36"/>
+    <mergeCell ref="AI37:AI38"/>
+    <mergeCell ref="AI39:AI40"/>
+    <mergeCell ref="AI43:AI44"/>
+    <mergeCell ref="AC46:AE46"/>
+    <mergeCell ref="AF46:AH46"/>
+    <mergeCell ref="AI46:AI47"/>
+    <mergeCell ref="AI60:AI61"/>
+    <mergeCell ref="AI48:AI49"/>
+    <mergeCell ref="AI50:AI51"/>
+    <mergeCell ref="AI52:AI53"/>
+    <mergeCell ref="AI54:AI55"/>
+    <mergeCell ref="AI56:AI57"/>
+    <mergeCell ref="AI58:AI59"/>
   </mergeCells>
   <conditionalFormatting sqref="AB14:AL27">
-    <cfRule type="cellIs" dxfId="32" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB29:AI44">
-    <cfRule type="cellIs" dxfId="31" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="4" operator="equal">
       <formula>27.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB46:AI61">
-    <cfRule type="cellIs" dxfId="29" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24:T39">
-    <cfRule type="cellIs" dxfId="28" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9972,13 +9904,13 @@
         <v>74</v>
       </c>
       <c r="AB2" s="149"/>
-      <c r="AC2" s="169"/>
-      <c r="AD2" s="170"/>
-      <c r="AE2" s="171"/>
-      <c r="AF2" s="169"/>
-      <c r="AG2" s="170"/>
-      <c r="AH2" s="170"/>
-      <c r="AI2" s="172"/>
+      <c r="AC2" s="185"/>
+      <c r="AD2" s="186"/>
+      <c r="AE2" s="187"/>
+      <c r="AF2" s="185"/>
+      <c r="AG2" s="186"/>
+      <c r="AH2" s="186"/>
+      <c r="AI2" s="179"/>
       <c r="AJ2">
         <f>SUM(AI4:AI10)</f>
         <v>0</v>
@@ -10068,7 +10000,7 @@
       <c r="AF3" s="104"/>
       <c r="AG3" s="105"/>
       <c r="AH3" s="107"/>
-      <c r="AI3" s="173"/>
+      <c r="AI3" s="180"/>
     </row>
     <row r="4" spans="1:60">
       <c r="A4" s="147"/>
@@ -10681,25 +10613,25 @@
       <c r="AB12" s="149" t="s">
         <v>126</v>
       </c>
-      <c r="AC12" s="169" t="str">
+      <c r="AC12" s="185" t="str">
         <f>'2_PA'!V9</f>
         <v>I Periodo</v>
       </c>
-      <c r="AD12" s="174"/>
-      <c r="AE12" s="175"/>
-      <c r="AF12" s="176" t="str">
+      <c r="AD12" s="188"/>
+      <c r="AE12" s="189"/>
+      <c r="AF12" s="175" t="str">
         <f>'2_PA'!Y9</f>
         <v>II Periodo</v>
       </c>
-      <c r="AG12" s="177"/>
-      <c r="AH12" s="178"/>
-      <c r="AI12" s="176" t="str">
+      <c r="AG12" s="176"/>
+      <c r="AH12" s="177"/>
+      <c r="AI12" s="175" t="str">
         <f>'2_PA'!AB9</f>
         <v>III Periodo</v>
       </c>
-      <c r="AJ12" s="177"/>
-      <c r="AK12" s="179"/>
-      <c r="AL12" s="172" t="str">
+      <c r="AJ12" s="176"/>
+      <c r="AK12" s="178"/>
+      <c r="AL12" s="179" t="str">
         <f>'2_PA'!AE9</f>
         <v>Totale</v>
       </c>
@@ -10746,7 +10678,7 @@
         <f>'2_PA'!AD10</f>
         <v>Fase</v>
       </c>
-      <c r="AL13" s="173"/>
+      <c r="AL13" s="180"/>
       <c r="AM13">
         <f>SUM(AL14:AL27)</f>
         <v>193</v>
@@ -10767,7 +10699,7 @@
       </c>
       <c r="AD14" s="33">
         <f>'2_PA'!W11</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AE14" s="34" t="str">
         <f>'2_PA'!X11</f>
@@ -10797,9 +10729,9 @@
         <f>'2_PA'!AD11</f>
         <v>PA 3.2</v>
       </c>
-      <c r="AL14" s="180">
+      <c r="AL14" s="181">
         <f>'2_PA'!AE11</f>
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AO14">
         <f>IF($AC14=AO$2,$AD14,0)</f>
@@ -10827,7 +10759,7 @@
       </c>
       <c r="AU14">
         <f t="shared" ref="AU14:AU15" si="17">IF($AC14=AU$2,$AD14,0)</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AV14">
         <f t="shared" ref="AV14:AV15" si="18">IF($AF14=AV$2,$AG14,0)</f>
@@ -10875,7 +10807,7 @@
       </c>
       <c r="BG14" s="158">
         <f t="shared" si="13"/>
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BH14">
         <f>SUM(AO14:BF27)</f>
@@ -10923,7 +10855,7 @@
         <f>'2_PA'!AD12</f>
         <v>0</v>
       </c>
-      <c r="AL15" s="168"/>
+      <c r="AL15" s="173"/>
       <c r="AO15">
         <f>IF($AC15=AO$2,$AD15,0)</f>
         <v>0</v>
@@ -11042,7 +10974,7 @@
         <f>'2_PA'!AD13</f>
         <v>PA 3.2</v>
       </c>
-      <c r="AL16" s="168">
+      <c r="AL16" s="173">
         <f>'2_PA'!AE13</f>
         <v>29</v>
       </c>
@@ -11164,7 +11096,7 @@
         <f>'2_PA'!AD14</f>
         <v>0</v>
       </c>
-      <c r="AL17" s="168"/>
+      <c r="AL17" s="173"/>
       <c r="AO17">
         <f t="shared" si="29"/>
         <v>0</v>
@@ -11283,7 +11215,7 @@
         <f>'2_PA'!AD15</f>
         <v>PA 3.3</v>
       </c>
-      <c r="AL18" s="168">
+      <c r="AL18" s="173">
         <f>'2_PA'!AE15</f>
         <v>26</v>
       </c>
@@ -11405,7 +11337,7 @@
         <f>'2_PA'!AD16</f>
         <v>PA 6.1</v>
       </c>
-      <c r="AL19" s="168"/>
+      <c r="AL19" s="173"/>
       <c r="AO19">
         <f t="shared" si="29"/>
         <v>0</v>
@@ -11524,7 +11456,7 @@
         <f>'2_PA'!AD17</f>
         <v>PA 3.3</v>
       </c>
-      <c r="AL20" s="168">
+      <c r="AL20" s="173">
         <f>'2_PA'!AE17</f>
         <v>28</v>
       </c>
@@ -11646,7 +11578,7 @@
         <f>'2_PA'!AD18</f>
         <v>PA 6.2</v>
       </c>
-      <c r="AL21" s="168"/>
+      <c r="AL21" s="173"/>
       <c r="AO21">
         <f t="shared" si="29"/>
         <v>0</v>
@@ -11765,9 +11697,9 @@
         <f>'2_PA'!AD19</f>
         <v>PA 5.1</v>
       </c>
-      <c r="AL22" s="168">
+      <c r="AL22" s="173">
         <f>'2_PA'!AE19</f>
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AO22">
         <f t="shared" si="29"/>
@@ -11850,36 +11782,36 @@
       <c r="A23" s="156" t="s">
         <v>0</v>
       </c>
-      <c r="B23" s="181" t="s">
+      <c r="B23" s="190" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="181"/>
-      <c r="D23" s="181"/>
-      <c r="E23" s="181" t="s">
+      <c r="C23" s="190"/>
+      <c r="D23" s="190"/>
+      <c r="E23" s="190" t="s">
         <v>2</v>
       </c>
-      <c r="F23" s="181"/>
-      <c r="G23" s="181"/>
-      <c r="H23" s="181" t="s">
+      <c r="F23" s="190"/>
+      <c r="G23" s="190"/>
+      <c r="H23" s="190" t="s">
         <v>3</v>
       </c>
-      <c r="I23" s="181"/>
-      <c r="J23" s="181"/>
-      <c r="K23" s="181" t="s">
+      <c r="I23" s="190"/>
+      <c r="J23" s="190"/>
+      <c r="K23" s="190" t="s">
         <v>4</v>
       </c>
-      <c r="L23" s="181"/>
-      <c r="M23" s="181"/>
-      <c r="N23" s="181" t="s">
+      <c r="L23" s="190"/>
+      <c r="M23" s="190"/>
+      <c r="N23" s="190" t="s">
         <v>5</v>
       </c>
-      <c r="O23" s="181"/>
-      <c r="P23" s="181"/>
-      <c r="Q23" s="181" t="s">
+      <c r="O23" s="190"/>
+      <c r="P23" s="190"/>
+      <c r="Q23" s="190" t="s">
         <v>6</v>
       </c>
-      <c r="R23" s="181"/>
-      <c r="S23" s="181"/>
+      <c r="R23" s="190"/>
+      <c r="S23" s="190"/>
       <c r="T23" s="156" t="s">
         <v>14</v>
       </c>
@@ -11912,19 +11844,19 @@
         <f>'2_PA'!AA20</f>
         <v>0</v>
       </c>
-      <c r="AI23" s="36">
+      <c r="AI23" s="36" t="str">
         <f>'2_PA'!AB20</f>
-        <v>0</v>
+        <v>AN</v>
       </c>
       <c r="AJ23" s="37">
         <f>'2_PA'!AC20</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK23" s="39">
         <f>'2_PA'!AD20</f>
         <v>0</v>
       </c>
-      <c r="AL23" s="168"/>
+      <c r="AL23" s="173"/>
       <c r="AO23">
         <f t="shared" si="29"/>
         <v>0</v>
@@ -11959,7 +11891,7 @@
       </c>
       <c r="AW23">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX23">
         <f t="shared" si="14"/>
@@ -11999,54 +11931,54 @@
       </c>
       <c r="BG23" s="158">
         <f t="shared" si="13"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:60">
+      <c r="A24" s="182" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="24" spans="1:60">
-      <c r="A24" s="167" t="s">
-        <v>7</v>
-      </c>
-      <c r="B24" s="165">
+      <c r="B24" s="184">
         <f>SUM(AO4:AQ4,AO14:AQ15,AO31:AQ32,AO48:AQ49)</f>
         <v>4</v>
       </c>
-      <c r="C24" s="165"/>
-      <c r="D24" s="165"/>
-      <c r="E24" s="165">
+      <c r="C24" s="184"/>
+      <c r="D24" s="184"/>
+      <c r="E24" s="184">
         <f>SUM(AR4:AT4,AR14:AT15,AR31:AT32,AR48:AT49)</f>
         <v>10</v>
       </c>
-      <c r="F24" s="165"/>
-      <c r="G24" s="165"/>
-      <c r="H24" s="166">
+      <c r="F24" s="184"/>
+      <c r="G24" s="184"/>
+      <c r="H24" s="183">
         <f>SUM(AU4:AW4,AU14:AW15,AU31:AW32,AU48:AW49)</f>
-        <v>10</v>
-      </c>
-      <c r="I24" s="166"/>
-      <c r="J24" s="166"/>
-      <c r="K24" s="165">
+        <v>9</v>
+      </c>
+      <c r="I24" s="183"/>
+      <c r="J24" s="183"/>
+      <c r="K24" s="184">
         <f>SUM(AX4:AZ4,AX14:AZ15,AX31:AZ32,AX48:AZ49)</f>
         <v>10</v>
       </c>
-      <c r="L24" s="165"/>
-      <c r="M24" s="165"/>
-      <c r="N24" s="166">
+      <c r="L24" s="184"/>
+      <c r="M24" s="184"/>
+      <c r="N24" s="183">
         <f>SUM(BA4:BC4,BA14:BC15,BA31:BC32,BA48:BC49)</f>
         <v>59</v>
       </c>
-      <c r="O24" s="166"/>
-      <c r="P24" s="166"/>
-      <c r="Q24" s="165">
+      <c r="O24" s="183"/>
+      <c r="P24" s="183"/>
+      <c r="Q24" s="184">
         <f>SUM(BD4:BF4,BD14:BF15,BD31:BF32,BD48:BF49)</f>
         <v>4</v>
       </c>
-      <c r="R24" s="165"/>
-      <c r="S24" s="165"/>
-      <c r="T24" s="165">
+      <c r="R24" s="184"/>
+      <c r="S24" s="184"/>
+      <c r="T24" s="184">
         <f t="shared" ref="T24" si="32">SUM(B24:S25)</f>
-        <v>97</v>
-      </c>
-      <c r="U24" s="161"/>
+        <v>96</v>
+      </c>
+      <c r="U24" s="192"/>
       <c r="AB24" s="31" t="str">
         <f>'2_PA'!U21</f>
         <v>Quadrio Giacomo</v>
@@ -12087,7 +12019,7 @@
         <f>'2_PA'!AD21</f>
         <v>PA 5.1, 6.2</v>
       </c>
-      <c r="AL24" s="168">
+      <c r="AL24" s="173">
         <f>'2_PA'!AE21</f>
         <v>28</v>
       </c>
@@ -12169,27 +12101,27 @@
       </c>
     </row>
     <row r="25" spans="1:60">
-      <c r="A25" s="167"/>
-      <c r="B25" s="165"/>
-      <c r="C25" s="165"/>
-      <c r="D25" s="165"/>
-      <c r="E25" s="165"/>
-      <c r="F25" s="165"/>
-      <c r="G25" s="165"/>
-      <c r="H25" s="166"/>
-      <c r="I25" s="166"/>
-      <c r="J25" s="166"/>
-      <c r="K25" s="165"/>
-      <c r="L25" s="165"/>
-      <c r="M25" s="165"/>
-      <c r="N25" s="166"/>
-      <c r="O25" s="166"/>
-      <c r="P25" s="166"/>
-      <c r="Q25" s="165"/>
-      <c r="R25" s="165"/>
-      <c r="S25" s="165"/>
-      <c r="T25" s="165"/>
-      <c r="U25" s="161"/>
+      <c r="A25" s="182"/>
+      <c r="B25" s="184"/>
+      <c r="C25" s="184"/>
+      <c r="D25" s="184"/>
+      <c r="E25" s="184"/>
+      <c r="F25" s="184"/>
+      <c r="G25" s="184"/>
+      <c r="H25" s="183"/>
+      <c r="I25" s="183"/>
+      <c r="J25" s="183"/>
+      <c r="K25" s="184"/>
+      <c r="L25" s="184"/>
+      <c r="M25" s="184"/>
+      <c r="N25" s="183"/>
+      <c r="O25" s="183"/>
+      <c r="P25" s="183"/>
+      <c r="Q25" s="184"/>
+      <c r="R25" s="184"/>
+      <c r="S25" s="184"/>
+      <c r="T25" s="184"/>
+      <c r="U25" s="192"/>
       <c r="AB25" s="31">
         <f>'2_PA'!U22</f>
         <v>0</v>
@@ -12230,7 +12162,7 @@
         <f>'2_PA'!AD22</f>
         <v>0</v>
       </c>
-      <c r="AL25" s="168"/>
+      <c r="AL25" s="173"/>
       <c r="AO25">
         <f t="shared" si="29"/>
         <v>0</v>
@@ -12309,50 +12241,50 @@
       </c>
     </row>
     <row r="26" spans="1:60">
-      <c r="A26" s="167" t="s">
+      <c r="A26" s="182" t="s">
         <v>11</v>
       </c>
-      <c r="B26" s="165">
+      <c r="B26" s="184">
         <f>SUM(AO5:AQ5,AO16:AQ17,AO33:AQ34,AO50:AQ51)</f>
         <v>13</v>
       </c>
-      <c r="C26" s="165"/>
-      <c r="D26" s="165"/>
-      <c r="E26" s="165">
+      <c r="C26" s="184"/>
+      <c r="D26" s="184"/>
+      <c r="E26" s="184">
         <f>SUM(AR5:AT5,AR16:AT17,AR33:AT34,AR50:AT51)</f>
         <v>10</v>
       </c>
-      <c r="F26" s="165"/>
-      <c r="G26" s="165"/>
-      <c r="H26" s="165">
+      <c r="F26" s="184"/>
+      <c r="G26" s="184"/>
+      <c r="H26" s="184">
         <f>SUM(AU5:AW5,AU16:AW17,AU33:AW34,AU50:AW51)</f>
         <v>0</v>
       </c>
-      <c r="I26" s="165"/>
-      <c r="J26" s="165"/>
-      <c r="K26" s="166">
+      <c r="I26" s="184"/>
+      <c r="J26" s="184"/>
+      <c r="K26" s="183">
         <f>SUM(AX5:AZ5,AX16:AZ17,AX33:AZ34,AX50:AZ51)</f>
         <v>35</v>
       </c>
-      <c r="L26" s="166"/>
-      <c r="M26" s="166"/>
-      <c r="N26" s="165">
+      <c r="L26" s="183"/>
+      <c r="M26" s="183"/>
+      <c r="N26" s="184">
         <f>SUM(BA5:BC5,BA16:BC17,BA33:BC34,BA50:BC51)</f>
         <v>29</v>
       </c>
-      <c r="O26" s="165"/>
-      <c r="P26" s="165"/>
-      <c r="Q26" s="165">
+      <c r="O26" s="184"/>
+      <c r="P26" s="184"/>
+      <c r="Q26" s="184">
         <f>SUM(BD5:BF5,BD16:BF17,BD33:BF34,BD50:BF51)</f>
         <v>12</v>
       </c>
-      <c r="R26" s="165"/>
-      <c r="S26" s="165"/>
-      <c r="T26" s="165">
+      <c r="R26" s="184"/>
+      <c r="S26" s="184"/>
+      <c r="T26" s="184">
         <f t="shared" ref="T26" si="33">SUM(B26:S27)</f>
         <v>99</v>
       </c>
-      <c r="U26" s="161"/>
+      <c r="U26" s="192"/>
       <c r="AB26" s="47" t="str">
         <f>'2_PA'!U23</f>
         <v>Maggiolo Giorgio</v>
@@ -12363,7 +12295,7 @@
       </c>
       <c r="AD26" s="49">
         <f>'2_PA'!W23</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AE26" s="50" t="str">
         <f>'2_PA'!X23</f>
@@ -12393,9 +12325,9 @@
         <f>'2_PA'!AD23</f>
         <v>PA 3.3</v>
       </c>
-      <c r="AL26" s="168">
+      <c r="AL26" s="173">
         <f>'2_PA'!AE23</f>
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AO26">
         <f t="shared" si="29"/>
@@ -12423,7 +12355,7 @@
       </c>
       <c r="AU26">
         <f t="shared" si="14"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AV26">
         <f t="shared" si="15"/>
@@ -12471,31 +12403,31 @@
       </c>
       <c r="BG26" s="158">
         <f t="shared" si="13"/>
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:60" ht="15.75" thickBot="1">
-      <c r="A27" s="167"/>
-      <c r="B27" s="165"/>
-      <c r="C27" s="165"/>
-      <c r="D27" s="165"/>
-      <c r="E27" s="165"/>
-      <c r="F27" s="165"/>
-      <c r="G27" s="165"/>
-      <c r="H27" s="165"/>
-      <c r="I27" s="165"/>
-      <c r="J27" s="165"/>
-      <c r="K27" s="166"/>
-      <c r="L27" s="166"/>
-      <c r="M27" s="166"/>
-      <c r="N27" s="165"/>
-      <c r="O27" s="165"/>
-      <c r="P27" s="165"/>
-      <c r="Q27" s="165"/>
-      <c r="R27" s="165"/>
-      <c r="S27" s="165"/>
-      <c r="T27" s="165"/>
-      <c r="U27" s="161"/>
+      <c r="A27" s="182"/>
+      <c r="B27" s="184"/>
+      <c r="C27" s="184"/>
+      <c r="D27" s="184"/>
+      <c r="E27" s="184"/>
+      <c r="F27" s="184"/>
+      <c r="G27" s="184"/>
+      <c r="H27" s="184"/>
+      <c r="I27" s="184"/>
+      <c r="J27" s="184"/>
+      <c r="K27" s="183"/>
+      <c r="L27" s="183"/>
+      <c r="M27" s="183"/>
+      <c r="N27" s="184"/>
+      <c r="O27" s="184"/>
+      <c r="P27" s="184"/>
+      <c r="Q27" s="184"/>
+      <c r="R27" s="184"/>
+      <c r="S27" s="184"/>
+      <c r="T27" s="184"/>
+      <c r="U27" s="192"/>
       <c r="AB27" s="63">
         <f>'2_PA'!U24</f>
         <v>0</v>
@@ -12536,7 +12468,7 @@
         <f>'2_PA'!AD24</f>
         <v>PA 5.1</v>
       </c>
-      <c r="AL27" s="182"/>
+      <c r="AL27" s="174"/>
       <c r="AO27">
         <f t="shared" si="29"/>
         <v>0</v>
@@ -12615,96 +12547,96 @@
       </c>
     </row>
     <row r="28" spans="1:60" ht="15.75" thickBot="1">
-      <c r="A28" s="167" t="s">
+      <c r="A28" s="182" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="165">
+      <c r="B28" s="184">
         <f>SUM(AO6:AQ6,AO18:AQ19,AO35:AQ36,AO52:AQ53)</f>
         <v>10</v>
       </c>
-      <c r="C28" s="165"/>
-      <c r="D28" s="165"/>
-      <c r="E28" s="165">
+      <c r="C28" s="184"/>
+      <c r="D28" s="184"/>
+      <c r="E28" s="184">
         <f>SUM(AR6:AT6,AR18:AT19,AR35:AT36,AR52:AT53)</f>
         <v>4</v>
       </c>
-      <c r="F28" s="165"/>
-      <c r="G28" s="165"/>
-      <c r="H28" s="165">
+      <c r="F28" s="184"/>
+      <c r="G28" s="184"/>
+      <c r="H28" s="184">
         <f>SUM(AU6:AW6,AU18:AW19,AU35:AW36,AU52:AW53)</f>
         <v>2</v>
       </c>
-      <c r="I28" s="165"/>
-      <c r="J28" s="165"/>
-      <c r="K28" s="165">
+      <c r="I28" s="184"/>
+      <c r="J28" s="184"/>
+      <c r="K28" s="184">
         <f>SUM(AX6:AZ6,AX18:AZ19,AX35:AZ36,AX52:AZ53)</f>
         <v>27</v>
       </c>
-      <c r="L28" s="165"/>
-      <c r="M28" s="165"/>
-      <c r="N28" s="165">
+      <c r="L28" s="184"/>
+      <c r="M28" s="184"/>
+      <c r="N28" s="184">
         <f>SUM(BA6:BC6,BA18:BC19,BA35:BC36,BA52:BC53)</f>
         <v>33</v>
       </c>
-      <c r="O28" s="165"/>
-      <c r="P28" s="165"/>
-      <c r="Q28" s="166">
+      <c r="O28" s="184"/>
+      <c r="P28" s="184"/>
+      <c r="Q28" s="183">
         <f>SUM(BD6:BF6,BD18:BF19,BD35:BF36,BD52:BF53)</f>
         <v>20</v>
       </c>
-      <c r="R28" s="166"/>
-      <c r="S28" s="166"/>
-      <c r="T28" s="165">
+      <c r="R28" s="183"/>
+      <c r="S28" s="183"/>
+      <c r="T28" s="184">
         <f t="shared" ref="T28" si="34">SUM(B28:S29)</f>
         <v>96</v>
       </c>
-      <c r="U28" s="161"/>
+      <c r="U28" s="192"/>
       <c r="BG28" s="158">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:60">
-      <c r="A29" s="167"/>
-      <c r="B29" s="165"/>
-      <c r="C29" s="165"/>
-      <c r="D29" s="165"/>
-      <c r="E29" s="165"/>
-      <c r="F29" s="165"/>
-      <c r="G29" s="165"/>
-      <c r="H29" s="165"/>
-      <c r="I29" s="165"/>
-      <c r="J29" s="165"/>
-      <c r="K29" s="165"/>
-      <c r="L29" s="165"/>
-      <c r="M29" s="165"/>
-      <c r="N29" s="165"/>
-      <c r="O29" s="165"/>
-      <c r="P29" s="165"/>
-      <c r="Q29" s="166"/>
-      <c r="R29" s="166"/>
-      <c r="S29" s="166"/>
-      <c r="T29" s="165"/>
-      <c r="U29" s="161"/>
+      <c r="A29" s="182"/>
+      <c r="B29" s="184"/>
+      <c r="C29" s="184"/>
+      <c r="D29" s="184"/>
+      <c r="E29" s="184"/>
+      <c r="F29" s="184"/>
+      <c r="G29" s="184"/>
+      <c r="H29" s="184"/>
+      <c r="I29" s="184"/>
+      <c r="J29" s="184"/>
+      <c r="K29" s="184"/>
+      <c r="L29" s="184"/>
+      <c r="M29" s="184"/>
+      <c r="N29" s="184"/>
+      <c r="O29" s="184"/>
+      <c r="P29" s="184"/>
+      <c r="Q29" s="183"/>
+      <c r="R29" s="183"/>
+      <c r="S29" s="183"/>
+      <c r="T29" s="184"/>
+      <c r="U29" s="192"/>
       <c r="AA29" t="s">
         <v>124</v>
       </c>
       <c r="AB29" s="149" t="s">
         <v>127</v>
       </c>
-      <c r="AC29" s="176" t="str">
+      <c r="AC29" s="175" t="str">
         <f>'3_PDC'!U6</f>
         <v>I Periodo</v>
       </c>
-      <c r="AD29" s="177"/>
-      <c r="AE29" s="178"/>
-      <c r="AF29" s="176" t="str">
+      <c r="AD29" s="176"/>
+      <c r="AE29" s="177"/>
+      <c r="AF29" s="175" t="str">
         <f>'3_PDC'!X6</f>
         <v>II Periodo</v>
       </c>
-      <c r="AG29" s="177"/>
-      <c r="AH29" s="179"/>
-      <c r="AI29" s="172" t="str">
+      <c r="AG29" s="176"/>
+      <c r="AH29" s="178"/>
+      <c r="AI29" s="179" t="str">
         <f>'3_PDC'!AA6</f>
         <v>Totale</v>
       </c>
@@ -12714,50 +12646,50 @@
       </c>
     </row>
     <row r="30" spans="1:60" ht="15.75" thickBot="1">
-      <c r="A30" s="167" t="s">
+      <c r="A30" s="182" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="165">
+      <c r="B30" s="184">
         <f>SUM(AO7:AQ7,AO20:AQ21,AO37:AQ38,AO54:AQ55)</f>
         <v>15</v>
       </c>
-      <c r="C30" s="165"/>
-      <c r="D30" s="165"/>
-      <c r="E30" s="165">
+      <c r="C30" s="184"/>
+      <c r="D30" s="184"/>
+      <c r="E30" s="184">
         <f>SUM(AR7:AT7,AR20:AT21,AR37:AT38,AR54:AT55)</f>
         <v>4</v>
       </c>
-      <c r="F30" s="165"/>
-      <c r="G30" s="165"/>
-      <c r="H30" s="165">
+      <c r="F30" s="184"/>
+      <c r="G30" s="184"/>
+      <c r="H30" s="184">
         <f>SUM(AU7:AW7,AU20:AW21,AU37:AW38,AU54:AW55)</f>
         <v>0</v>
       </c>
-      <c r="I30" s="165"/>
-      <c r="J30" s="165"/>
-      <c r="K30" s="166">
+      <c r="I30" s="184"/>
+      <c r="J30" s="184"/>
+      <c r="K30" s="183">
         <f>SUM(AX7:AZ7,AX20:AZ21,AX37:AZ38,AX54:AZ55)</f>
         <v>31</v>
       </c>
-      <c r="L30" s="166"/>
-      <c r="M30" s="166"/>
-      <c r="N30" s="166">
+      <c r="L30" s="183"/>
+      <c r="M30" s="183"/>
+      <c r="N30" s="183">
         <f>SUM(BA7:BC7,BA20:BC21,BA37:BC38,BA54:BC55)</f>
         <v>35</v>
       </c>
-      <c r="O30" s="166"/>
-      <c r="P30" s="166"/>
-      <c r="Q30" s="165">
+      <c r="O30" s="183"/>
+      <c r="P30" s="183"/>
+      <c r="Q30" s="184">
         <f>SUM(BD7:BF7,BD20:BF21,BD37:BF38,BD54:BF55)</f>
         <v>18</v>
       </c>
-      <c r="R30" s="165"/>
-      <c r="S30" s="165"/>
-      <c r="T30" s="165">
+      <c r="R30" s="184"/>
+      <c r="S30" s="184"/>
+      <c r="T30" s="184">
         <f t="shared" ref="T30" si="35">SUM(B30:S31)</f>
         <v>103</v>
       </c>
-      <c r="U30" s="161"/>
+      <c r="U30" s="192"/>
       <c r="AB30" s="150"/>
       <c r="AC30" s="26" t="str">
         <f>'3_PDC'!U7</f>
@@ -12783,7 +12715,7 @@
         <f>'3_PDC'!Z7</f>
         <v>Fase</v>
       </c>
-      <c r="AI30" s="173"/>
+      <c r="AI30" s="180"/>
       <c r="AK30">
         <f>SUM(AI31:AI44)</f>
         <v>373</v>
@@ -12794,27 +12726,27 @@
       </c>
     </row>
     <row r="31" spans="1:60">
-      <c r="A31" s="167"/>
-      <c r="B31" s="165"/>
-      <c r="C31" s="165"/>
-      <c r="D31" s="165"/>
-      <c r="E31" s="165"/>
-      <c r="F31" s="165"/>
-      <c r="G31" s="165"/>
-      <c r="H31" s="165"/>
-      <c r="I31" s="165"/>
-      <c r="J31" s="165"/>
-      <c r="K31" s="166"/>
-      <c r="L31" s="166"/>
-      <c r="M31" s="166"/>
-      <c r="N31" s="166"/>
-      <c r="O31" s="166"/>
-      <c r="P31" s="166"/>
-      <c r="Q31" s="165"/>
-      <c r="R31" s="165"/>
-      <c r="S31" s="165"/>
-      <c r="T31" s="165"/>
-      <c r="U31" s="161"/>
+      <c r="A31" s="182"/>
+      <c r="B31" s="184"/>
+      <c r="C31" s="184"/>
+      <c r="D31" s="184"/>
+      <c r="E31" s="184"/>
+      <c r="F31" s="184"/>
+      <c r="G31" s="184"/>
+      <c r="H31" s="184"/>
+      <c r="I31" s="184"/>
+      <c r="J31" s="184"/>
+      <c r="K31" s="183"/>
+      <c r="L31" s="183"/>
+      <c r="M31" s="183"/>
+      <c r="N31" s="183"/>
+      <c r="O31" s="183"/>
+      <c r="P31" s="183"/>
+      <c r="Q31" s="184"/>
+      <c r="R31" s="184"/>
+      <c r="S31" s="184"/>
+      <c r="T31" s="184"/>
+      <c r="U31" s="192"/>
       <c r="AB31" s="31" t="str">
         <f>'3_PDC'!T8</f>
         <v>Begolo Marco</v>
@@ -12843,7 +12775,7 @@
         <f>'3_PDC'!Z8</f>
         <v>PDC 4.4</v>
       </c>
-      <c r="AI31" s="180">
+      <c r="AI31" s="181">
         <f>'3_PDC'!AA8</f>
         <v>52</v>
       </c>
@@ -12929,50 +12861,50 @@
       </c>
     </row>
     <row r="32" spans="1:60">
-      <c r="A32" s="167" t="s">
+      <c r="A32" s="182" t="s">
         <v>8</v>
       </c>
-      <c r="B32" s="165">
+      <c r="B32" s="184">
         <f>SUM(AO8:AQ8,AO22:AQ23,AO39:AQ40,AO56:AQ57)</f>
         <v>9</v>
       </c>
-      <c r="C32" s="165"/>
-      <c r="D32" s="165"/>
-      <c r="E32" s="165">
+      <c r="C32" s="184"/>
+      <c r="D32" s="184"/>
+      <c r="E32" s="184">
         <f>SUM(AR8:AT8,AR22:AT23,AR39:AT40,AR56:AT57)</f>
         <v>11</v>
       </c>
-      <c r="F32" s="165"/>
-      <c r="G32" s="165"/>
-      <c r="H32" s="165">
+      <c r="F32" s="184"/>
+      <c r="G32" s="184"/>
+      <c r="H32" s="184">
         <f>SUM(AU8:AW8,AU22:AW23,AU39:AW40,AU56:AW57)</f>
-        <v>0</v>
-      </c>
-      <c r="I32" s="165"/>
-      <c r="J32" s="165"/>
-      <c r="K32" s="165">
+        <v>2</v>
+      </c>
+      <c r="I32" s="184"/>
+      <c r="J32" s="184"/>
+      <c r="K32" s="184">
         <f>SUM(AX8:AZ8,AX22:AZ23,AX39:AZ40,AX56:AZ57)</f>
         <v>20</v>
       </c>
-      <c r="L32" s="165"/>
-      <c r="M32" s="165"/>
-      <c r="N32" s="166">
+      <c r="L32" s="184"/>
+      <c r="M32" s="184"/>
+      <c r="N32" s="183">
         <f>SUM(BA8:BC8,BA22:BC23,BA39:BC40,BA56:BC57)</f>
         <v>37</v>
       </c>
-      <c r="O32" s="166"/>
-      <c r="P32" s="166"/>
-      <c r="Q32" s="165">
+      <c r="O32" s="183"/>
+      <c r="P32" s="183"/>
+      <c r="Q32" s="184">
         <f>SUM(BD8:BF8,BD22:BF23,BD39:BF40,BD56:BF57)</f>
         <v>23</v>
       </c>
-      <c r="R32" s="165"/>
-      <c r="S32" s="165"/>
-      <c r="T32" s="165">
+      <c r="R32" s="184"/>
+      <c r="S32" s="184"/>
+      <c r="T32" s="184">
         <f t="shared" ref="T32" si="51">SUM(B32:S33)</f>
-        <v>100</v>
-      </c>
-      <c r="U32" s="161"/>
+        <v>102</v>
+      </c>
+      <c r="U32" s="192"/>
       <c r="AB32" s="35">
         <f>'3_PDC'!T9</f>
         <v>0</v>
@@ -13001,7 +12933,7 @@
         <f>'3_PDC'!Z9</f>
         <v>PDC 7</v>
       </c>
-      <c r="AI32" s="168"/>
+      <c r="AI32" s="173"/>
       <c r="AO32">
         <f>IF($AC32=AO$2,$AD32,0)</f>
         <v>0</v>
@@ -13080,27 +13012,27 @@
       </c>
     </row>
     <row r="33" spans="1:60">
-      <c r="A33" s="167"/>
-      <c r="B33" s="165"/>
-      <c r="C33" s="165"/>
-      <c r="D33" s="165"/>
-      <c r="E33" s="165"/>
-      <c r="F33" s="165"/>
-      <c r="G33" s="165"/>
-      <c r="H33" s="165"/>
-      <c r="I33" s="165"/>
-      <c r="J33" s="165"/>
-      <c r="K33" s="165"/>
-      <c r="L33" s="165"/>
-      <c r="M33" s="165"/>
-      <c r="N33" s="166"/>
-      <c r="O33" s="166"/>
-      <c r="P33" s="166"/>
-      <c r="Q33" s="165"/>
-      <c r="R33" s="165"/>
-      <c r="S33" s="165"/>
-      <c r="T33" s="165"/>
-      <c r="U33" s="161"/>
+      <c r="A33" s="182"/>
+      <c r="B33" s="184"/>
+      <c r="C33" s="184"/>
+      <c r="D33" s="184"/>
+      <c r="E33" s="184"/>
+      <c r="F33" s="184"/>
+      <c r="G33" s="184"/>
+      <c r="H33" s="184"/>
+      <c r="I33" s="184"/>
+      <c r="J33" s="184"/>
+      <c r="K33" s="184"/>
+      <c r="L33" s="184"/>
+      <c r="M33" s="184"/>
+      <c r="N33" s="183"/>
+      <c r="O33" s="183"/>
+      <c r="P33" s="183"/>
+      <c r="Q33" s="184"/>
+      <c r="R33" s="184"/>
+      <c r="S33" s="184"/>
+      <c r="T33" s="184"/>
+      <c r="U33" s="192"/>
       <c r="AB33" s="31" t="str">
         <f>'3_PDC'!T10</f>
         <v>Facchin Gabriele</v>
@@ -13129,7 +13061,7 @@
         <f>'3_PDC'!Z10</f>
         <v>PDC 3.1</v>
       </c>
-      <c r="AI33" s="168">
+      <c r="AI33" s="173">
         <f>'3_PDC'!AA10</f>
         <v>52</v>
       </c>
@@ -13211,50 +13143,50 @@
       </c>
     </row>
     <row r="34" spans="1:60">
-      <c r="A34" s="167" t="s">
+      <c r="A34" s="182" t="s">
         <v>13</v>
       </c>
-      <c r="B34" s="165">
+      <c r="B34" s="184">
         <f>SUM(AO9:AQ9,AO24:AQ25,AO41:AQ42,AO58:AQ59)</f>
         <v>6</v>
       </c>
-      <c r="C34" s="165"/>
-      <c r="D34" s="165"/>
-      <c r="E34" s="165">
+      <c r="C34" s="184"/>
+      <c r="D34" s="184"/>
+      <c r="E34" s="184">
         <f>SUM(AR9:AT9,AR24:AT25,AR41:AT42,AR58:AT59)</f>
         <v>2</v>
       </c>
-      <c r="F34" s="165"/>
-      <c r="G34" s="165"/>
-      <c r="H34" s="165">
+      <c r="F34" s="184"/>
+      <c r="G34" s="184"/>
+      <c r="H34" s="184">
         <f>SUM(AU9:AW9,AU24:AW25,AU41:AW42,AU58:AW59)</f>
         <v>0</v>
       </c>
-      <c r="I34" s="165"/>
-      <c r="J34" s="165"/>
-      <c r="K34" s="166">
+      <c r="I34" s="184"/>
+      <c r="J34" s="184"/>
+      <c r="K34" s="183">
         <f>SUM(AX9:AZ9,AX24:AZ25,AX41:AZ42,AX58:AZ59)</f>
         <v>27</v>
       </c>
-      <c r="L34" s="166"/>
-      <c r="M34" s="166"/>
-      <c r="N34" s="166">
+      <c r="L34" s="183"/>
+      <c r="M34" s="183"/>
+      <c r="N34" s="183">
         <f>SUM(BA9:BC9,BA24:BC25,BA41:BC42,BA58:BC59)</f>
         <v>40</v>
       </c>
-      <c r="O34" s="166"/>
-      <c r="P34" s="166"/>
-      <c r="Q34" s="166">
+      <c r="O34" s="183"/>
+      <c r="P34" s="183"/>
+      <c r="Q34" s="183">
         <f>SUM(BD9:BF9,BD24:BF25,BD41:BF42,BD58:BF59)</f>
         <v>25</v>
       </c>
-      <c r="R34" s="166"/>
-      <c r="S34" s="166"/>
-      <c r="T34" s="165">
+      <c r="R34" s="183"/>
+      <c r="S34" s="183"/>
+      <c r="T34" s="184">
         <f t="shared" ref="T34" si="55">SUM(B34:S35)</f>
         <v>100</v>
       </c>
-      <c r="U34" s="161"/>
+      <c r="U34" s="192"/>
       <c r="AB34" s="31">
         <f>'3_PDC'!T11</f>
         <v>0</v>
@@ -13283,7 +13215,7 @@
         <f>'3_PDC'!Z11</f>
         <v>PDC 4.3</v>
       </c>
-      <c r="AI34" s="168"/>
+      <c r="AI34" s="173"/>
       <c r="AO34">
         <f t="shared" si="52"/>
         <v>0</v>
@@ -13362,27 +13294,27 @@
       </c>
     </row>
     <row r="35" spans="1:60">
-      <c r="A35" s="167"/>
-      <c r="B35" s="165"/>
-      <c r="C35" s="165"/>
-      <c r="D35" s="165"/>
-      <c r="E35" s="165"/>
-      <c r="F35" s="165"/>
-      <c r="G35" s="165"/>
-      <c r="H35" s="165"/>
-      <c r="I35" s="165"/>
-      <c r="J35" s="165"/>
-      <c r="K35" s="166"/>
-      <c r="L35" s="166"/>
-      <c r="M35" s="166"/>
-      <c r="N35" s="166"/>
-      <c r="O35" s="166"/>
-      <c r="P35" s="166"/>
-      <c r="Q35" s="166"/>
-      <c r="R35" s="166"/>
-      <c r="S35" s="166"/>
-      <c r="T35" s="165"/>
-      <c r="U35" s="161"/>
+      <c r="A35" s="182"/>
+      <c r="B35" s="184"/>
+      <c r="C35" s="184"/>
+      <c r="D35" s="184"/>
+      <c r="E35" s="184"/>
+      <c r="F35" s="184"/>
+      <c r="G35" s="184"/>
+      <c r="H35" s="184"/>
+      <c r="I35" s="184"/>
+      <c r="J35" s="184"/>
+      <c r="K35" s="183"/>
+      <c r="L35" s="183"/>
+      <c r="M35" s="183"/>
+      <c r="N35" s="183"/>
+      <c r="O35" s="183"/>
+      <c r="P35" s="183"/>
+      <c r="Q35" s="183"/>
+      <c r="R35" s="183"/>
+      <c r="S35" s="183"/>
+      <c r="T35" s="184"/>
+      <c r="U35" s="192"/>
       <c r="AB35" s="47" t="str">
         <f>'3_PDC'!T12</f>
         <v>Cornaglia Alessando</v>
@@ -13411,7 +13343,7 @@
         <f>'3_PDC'!Z12</f>
         <v>PDC 4.4 e 5</v>
       </c>
-      <c r="AI35" s="168">
+      <c r="AI35" s="173">
         <f>'3_PDC'!AA12</f>
         <v>52</v>
       </c>
@@ -13500,50 +13432,50 @@
       </c>
     </row>
     <row r="36" spans="1:60">
-      <c r="A36" s="167" t="s">
+      <c r="A36" s="182" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="165">
+      <c r="B36" s="184">
         <f>SUM(AO10:AQ10,AO26:AQ27,AO43:AQ44,AO60:AQ61)</f>
         <v>2</v>
       </c>
-      <c r="C36" s="165"/>
-      <c r="D36" s="165"/>
-      <c r="E36" s="165">
+      <c r="C36" s="184"/>
+      <c r="D36" s="184"/>
+      <c r="E36" s="184">
         <f>SUM(AR10:AT10,AR26:AT27,AR43:AT44,AR60:AT61)</f>
         <v>8</v>
       </c>
-      <c r="F36" s="165"/>
-      <c r="G36" s="165"/>
-      <c r="H36" s="165">
+      <c r="F36" s="184"/>
+      <c r="G36" s="184"/>
+      <c r="H36" s="184">
         <f>SUM(AU10:AW10,AU26:AW27,AU43:AW44,AU60:AW61)</f>
-        <v>8</v>
-      </c>
-      <c r="I36" s="165"/>
-      <c r="J36" s="165"/>
-      <c r="K36" s="166">
+        <v>7</v>
+      </c>
+      <c r="I36" s="184"/>
+      <c r="J36" s="184"/>
+      <c r="K36" s="183">
         <f>SUM(AX10:AZ10,AX26:AZ27,AX43:AZ44,AX60:AZ61)</f>
         <v>51</v>
       </c>
-      <c r="L36" s="166"/>
-      <c r="M36" s="166"/>
-      <c r="N36" s="165">
+      <c r="L36" s="183"/>
+      <c r="M36" s="183"/>
+      <c r="N36" s="184">
         <f>SUM(BA10:BC10,BA26:BC27,BA43:BC44,BA60:BC61)</f>
         <v>8</v>
       </c>
-      <c r="O36" s="165"/>
-      <c r="P36" s="165"/>
-      <c r="Q36" s="165">
+      <c r="O36" s="184"/>
+      <c r="P36" s="184"/>
+      <c r="Q36" s="184">
         <f>SUM(BD10:BF10,BD26:BF27,BD43:BF44,BD60:BF61)</f>
         <v>18</v>
       </c>
-      <c r="R36" s="165"/>
-      <c r="S36" s="165"/>
-      <c r="T36" s="165">
+      <c r="R36" s="184"/>
+      <c r="S36" s="184"/>
+      <c r="T36" s="184">
         <f t="shared" ref="T36" si="56">SUM(B36:S37)</f>
-        <v>95</v>
-      </c>
-      <c r="U36" s="161"/>
+        <v>94</v>
+      </c>
+      <c r="U36" s="192"/>
       <c r="AB36" s="35">
         <f>'3_PDC'!T13</f>
         <v>0</v>
@@ -13572,7 +13504,7 @@
         <f>'3_PDC'!Z13</f>
         <v>PDC 7</v>
       </c>
-      <c r="AI36" s="168"/>
+      <c r="AI36" s="173"/>
       <c r="AK36">
         <f>SUM(BD31:BF44)</f>
         <v>100</v>
@@ -13655,27 +13587,27 @@
       </c>
     </row>
     <row r="37" spans="1:60">
-      <c r="A37" s="167"/>
-      <c r="B37" s="165"/>
-      <c r="C37" s="165"/>
-      <c r="D37" s="165"/>
-      <c r="E37" s="165"/>
-      <c r="F37" s="165"/>
-      <c r="G37" s="165"/>
-      <c r="H37" s="165"/>
-      <c r="I37" s="165"/>
-      <c r="J37" s="165"/>
-      <c r="K37" s="166"/>
-      <c r="L37" s="166"/>
-      <c r="M37" s="166"/>
-      <c r="N37" s="165"/>
-      <c r="O37" s="165"/>
-      <c r="P37" s="165"/>
-      <c r="Q37" s="165"/>
-      <c r="R37" s="165"/>
-      <c r="S37" s="165"/>
-      <c r="T37" s="165"/>
-      <c r="U37" s="161"/>
+      <c r="A37" s="182"/>
+      <c r="B37" s="184"/>
+      <c r="C37" s="184"/>
+      <c r="D37" s="184"/>
+      <c r="E37" s="184"/>
+      <c r="F37" s="184"/>
+      <c r="G37" s="184"/>
+      <c r="H37" s="184"/>
+      <c r="I37" s="184"/>
+      <c r="J37" s="184"/>
+      <c r="K37" s="183"/>
+      <c r="L37" s="183"/>
+      <c r="M37" s="183"/>
+      <c r="N37" s="184"/>
+      <c r="O37" s="184"/>
+      <c r="P37" s="184"/>
+      <c r="Q37" s="184"/>
+      <c r="R37" s="184"/>
+      <c r="S37" s="184"/>
+      <c r="T37" s="184"/>
+      <c r="U37" s="192"/>
       <c r="AB37" s="31" t="str">
         <f>'3_PDC'!T14</f>
         <v>Dalla Pietà Massimo</v>
@@ -13704,7 +13636,7 @@
         <f>'3_PDC'!Z14</f>
         <v>PDC 4.3</v>
       </c>
-      <c r="AI37" s="168">
+      <c r="AI37" s="173">
         <f>'3_PDC'!AA14</f>
         <v>57</v>
       </c>
@@ -13786,50 +13718,50 @@
       </c>
     </row>
     <row r="38" spans="1:60">
-      <c r="A38" s="164" t="s">
+      <c r="A38" s="191" t="s">
         <v>14</v>
       </c>
-      <c r="B38" s="165">
+      <c r="B38" s="184">
         <f>SUM(B24:D37)</f>
         <v>59</v>
       </c>
-      <c r="C38" s="165"/>
-      <c r="D38" s="165"/>
-      <c r="E38" s="165">
+      <c r="C38" s="184"/>
+      <c r="D38" s="184"/>
+      <c r="E38" s="184">
         <f t="shared" ref="E38" si="57">SUM(E24:G37)</f>
         <v>49</v>
       </c>
-      <c r="F38" s="165"/>
-      <c r="G38" s="165"/>
-      <c r="H38" s="165">
+      <c r="F38" s="184"/>
+      <c r="G38" s="184"/>
+      <c r="H38" s="184">
         <f>SUM(H24:J37)</f>
         <v>20</v>
       </c>
-      <c r="I38" s="165"/>
-      <c r="J38" s="165"/>
-      <c r="K38" s="165">
+      <c r="I38" s="184"/>
+      <c r="J38" s="184"/>
+      <c r="K38" s="184">
         <f t="shared" ref="K38" si="58">SUM(K24:M37)</f>
         <v>201</v>
       </c>
-      <c r="L38" s="165"/>
-      <c r="M38" s="165"/>
-      <c r="N38" s="165">
+      <c r="L38" s="184"/>
+      <c r="M38" s="184"/>
+      <c r="N38" s="184">
         <f t="shared" ref="N38" si="59">SUM(N24:P37)</f>
         <v>241</v>
       </c>
-      <c r="O38" s="165"/>
-      <c r="P38" s="165"/>
-      <c r="Q38" s="165">
+      <c r="O38" s="184"/>
+      <c r="P38" s="184"/>
+      <c r="Q38" s="184">
         <f>SUM(Q24:S37)</f>
         <v>120</v>
       </c>
-      <c r="R38" s="165"/>
-      <c r="S38" s="165"/>
-      <c r="T38" s="183">
+      <c r="R38" s="184"/>
+      <c r="S38" s="184"/>
+      <c r="T38" s="195">
         <f>SUM(B38:S39)</f>
         <v>690</v>
       </c>
-      <c r="U38" s="161"/>
+      <c r="U38" s="192"/>
       <c r="AB38" s="31">
         <f>'3_PDC'!T15</f>
         <v>0</v>
@@ -13858,7 +13790,7 @@
         <f>'3_PDC'!Z15</f>
         <v>PDC 7</v>
       </c>
-      <c r="AI38" s="168"/>
+      <c r="AI38" s="173"/>
       <c r="AO38">
         <f t="shared" si="52"/>
         <v>0</v>
@@ -13937,27 +13869,27 @@
       </c>
     </row>
     <row r="39" spans="1:60">
-      <c r="A39" s="164"/>
-      <c r="B39" s="165"/>
-      <c r="C39" s="165"/>
-      <c r="D39" s="165"/>
-      <c r="E39" s="165"/>
-      <c r="F39" s="165"/>
-      <c r="G39" s="165"/>
-      <c r="H39" s="165"/>
-      <c r="I39" s="165"/>
-      <c r="J39" s="165"/>
-      <c r="K39" s="165"/>
-      <c r="L39" s="165"/>
-      <c r="M39" s="165"/>
-      <c r="N39" s="165"/>
-      <c r="O39" s="165"/>
-      <c r="P39" s="165"/>
-      <c r="Q39" s="165"/>
-      <c r="R39" s="165"/>
-      <c r="S39" s="165"/>
-      <c r="T39" s="183"/>
-      <c r="U39" s="161"/>
+      <c r="A39" s="191"/>
+      <c r="B39" s="184"/>
+      <c r="C39" s="184"/>
+      <c r="D39" s="184"/>
+      <c r="E39" s="184"/>
+      <c r="F39" s="184"/>
+      <c r="G39" s="184"/>
+      <c r="H39" s="184"/>
+      <c r="I39" s="184"/>
+      <c r="J39" s="184"/>
+      <c r="K39" s="184"/>
+      <c r="L39" s="184"/>
+      <c r="M39" s="184"/>
+      <c r="N39" s="184"/>
+      <c r="O39" s="184"/>
+      <c r="P39" s="184"/>
+      <c r="Q39" s="184"/>
+      <c r="R39" s="184"/>
+      <c r="S39" s="184"/>
+      <c r="T39" s="195"/>
+      <c r="U39" s="192"/>
       <c r="AB39" s="47" t="str">
         <f>'3_PDC'!T16</f>
         <v>Braghetto Lorenzo</v>
@@ -13986,7 +13918,7 @@
         <f>'3_PDC'!Z16</f>
         <v>PDC 4.4</v>
       </c>
-      <c r="AI39" s="168">
+      <c r="AI39" s="173">
         <f>'3_PDC'!AA16</f>
         <v>54</v>
       </c>
@@ -14097,7 +14029,7 @@
         <f>'3_PDC'!Z17</f>
         <v>PDC 7</v>
       </c>
-      <c r="AI40" s="168"/>
+      <c r="AI40" s="173"/>
       <c r="AO40">
         <f t="shared" si="52"/>
         <v>0</v>
@@ -14205,7 +14137,7 @@
         <f>'3_PDC'!Z18</f>
         <v>PDC 6</v>
       </c>
-      <c r="AI41" s="168">
+      <c r="AI41" s="173">
         <f>'3_PDC'!AA18</f>
         <v>54</v>
       </c>
@@ -14316,7 +14248,7 @@
         <f>'3_PDC'!Z19</f>
         <v>PDC 3.2, 5 e 7</v>
       </c>
-      <c r="AI42" s="168"/>
+      <c r="AI42" s="173"/>
       <c r="AO42">
         <f t="shared" si="52"/>
         <v>0</v>
@@ -14424,7 +14356,7 @@
         <f>'3_PDC'!Z20</f>
         <v>PDC 4.3</v>
       </c>
-      <c r="AI43" s="168">
+      <c r="AI43" s="173">
         <f>'3_PDC'!AA20</f>
         <v>52</v>
       </c>
@@ -14535,7 +14467,7 @@
         <f>'3_PDC'!Z21</f>
         <v>PDC 7</v>
       </c>
-      <c r="AI44" s="182"/>
+      <c r="AI44" s="174"/>
       <c r="AO44">
         <f t="shared" si="52"/>
         <v>0</v>
@@ -14628,19 +14560,19 @@
       <c r="AB46" s="149" t="s">
         <v>128</v>
       </c>
-      <c r="AC46" s="176" t="str">
+      <c r="AC46" s="175" t="str">
         <f>'4_VV'!U3</f>
         <v>I Periodo</v>
       </c>
-      <c r="AD46" s="177"/>
-      <c r="AE46" s="178"/>
-      <c r="AF46" s="176" t="str">
+      <c r="AD46" s="176"/>
+      <c r="AE46" s="177"/>
+      <c r="AF46" s="175" t="str">
         <f>'4_VV'!X3</f>
         <v>II Periodo</v>
       </c>
-      <c r="AG46" s="177"/>
-      <c r="AH46" s="179"/>
-      <c r="AI46" s="172" t="str">
+      <c r="AG46" s="176"/>
+      <c r="AH46" s="178"/>
+      <c r="AI46" s="179" t="str">
         <f>'4_VV'!AA3</f>
         <v>Totale</v>
       </c>
@@ -14680,7 +14612,7 @@
         <f>'4_VV'!Z4</f>
         <v>Fase</v>
       </c>
-      <c r="AI47" s="173"/>
+      <c r="AI47" s="180"/>
       <c r="BG47" s="158">
         <f t="shared" si="13"/>
         <v>0</v>
@@ -14716,7 +14648,7 @@
         <f>'4_VV'!Z5</f>
         <v>VV 3.2</v>
       </c>
-      <c r="AI48" s="180">
+      <c r="AI48" s="181">
         <f>'4_VV'!AA5</f>
         <v>18</v>
       </c>
@@ -14830,7 +14762,7 @@
         <f>'4_VV'!Z6</f>
         <v>0</v>
       </c>
-      <c r="AI49" s="168"/>
+      <c r="AI49" s="173"/>
       <c r="AO49">
         <f>IF($AC49=AO$2,$AD49,0)</f>
         <v>0</v>
@@ -14937,7 +14869,7 @@
         <f>'4_VV'!Z7</f>
         <v>VV 3.2</v>
       </c>
-      <c r="AI50" s="168">
+      <c r="AI50" s="173">
         <f>'4_VV'!AA7</f>
         <v>18</v>
       </c>
@@ -15066,7 +14998,7 @@
         <f>'4_VV'!Z8</f>
         <v>VV 3.2</v>
       </c>
-      <c r="AI51" s="168"/>
+      <c r="AI51" s="173"/>
       <c r="AO51">
         <f t="shared" si="75"/>
         <v>0</v>
@@ -15187,7 +15119,7 @@
         <f>'4_VV'!Z9</f>
         <v>VV 3.1</v>
       </c>
-      <c r="AI52" s="168">
+      <c r="AI52" s="173">
         <f>'4_VV'!AA9</f>
         <v>18</v>
       </c>
@@ -15311,7 +15243,7 @@
         <f>'4_VV'!Z10</f>
         <v>0</v>
       </c>
-      <c r="AI53" s="168"/>
+      <c r="AI53" s="173"/>
       <c r="AO53">
         <f t="shared" si="75"/>
         <v>0</v>
@@ -15432,7 +15364,7 @@
         <f>'4_VV'!Z11</f>
         <v>VV 3.1</v>
       </c>
-      <c r="AI54" s="168">
+      <c r="AI54" s="173">
         <f>'4_VV'!AA11</f>
         <v>18</v>
       </c>
@@ -15556,7 +15488,7 @@
         <f>'4_VV'!Z12</f>
         <v>0</v>
       </c>
-      <c r="AI55" s="168"/>
+      <c r="AI55" s="173"/>
       <c r="AO55">
         <f t="shared" si="75"/>
         <v>0</v>
@@ -15677,7 +15609,7 @@
         <f>'4_VV'!Z13</f>
         <v>VV 3.1</v>
       </c>
-      <c r="AI56" s="168">
+      <c r="AI56" s="173">
         <f>'4_VV'!AA13</f>
         <v>18</v>
       </c>
@@ -15801,7 +15733,7 @@
         <f>'4_VV'!Z14</f>
         <v>0</v>
       </c>
-      <c r="AI57" s="168"/>
+      <c r="AI57" s="173"/>
       <c r="AO57">
         <f t="shared" si="75"/>
         <v>0</v>
@@ -15919,7 +15851,7 @@
         <f>'4_VV'!Z15</f>
         <v>VV 3.1</v>
       </c>
-      <c r="AI58" s="168">
+      <c r="AI58" s="173">
         <f>'4_VV'!AA15</f>
         <v>18</v>
       </c>
@@ -16029,7 +15961,7 @@
         <f>'4_VV'!Z16</f>
         <v>0</v>
       </c>
-      <c r="AI59" s="168"/>
+      <c r="AI59" s="173"/>
       <c r="AO59">
         <f t="shared" si="75"/>
         <v>0</v>
@@ -16136,7 +16068,7 @@
         <f>'4_VV'!Z17</f>
         <v>VV 3.1</v>
       </c>
-      <c r="AI60" s="168">
+      <c r="AI60" s="173">
         <f>'4_VV'!AA17</f>
         <v>16</v>
       </c>
@@ -16246,7 +16178,7 @@
         <f>'4_VV'!Z18</f>
         <v>0</v>
       </c>
-      <c r="AI61" s="182"/>
+      <c r="AI61" s="174"/>
       <c r="AO61">
         <f t="shared" si="75"/>
         <v>0</v>
@@ -16326,18 +16258,82 @@
     </row>
   </sheetData>
   <mergeCells count="112">
-    <mergeCell ref="AC2:AE2"/>
-    <mergeCell ref="AF2:AH2"/>
-    <mergeCell ref="AI2:AI3"/>
-    <mergeCell ref="AC12:AE12"/>
-    <mergeCell ref="AF12:AH12"/>
-    <mergeCell ref="AI12:AK12"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="K23:M23"/>
-    <mergeCell ref="N23:P23"/>
-    <mergeCell ref="Q23:S23"/>
+    <mergeCell ref="AI56:AI57"/>
+    <mergeCell ref="AI58:AI59"/>
+    <mergeCell ref="AI60:AI61"/>
+    <mergeCell ref="AC46:AE46"/>
+    <mergeCell ref="AF46:AH46"/>
+    <mergeCell ref="AI46:AI47"/>
+    <mergeCell ref="AI48:AI49"/>
+    <mergeCell ref="AI50:AI51"/>
+    <mergeCell ref="AI52:AI53"/>
+    <mergeCell ref="AI39:AI40"/>
+    <mergeCell ref="AI41:AI42"/>
+    <mergeCell ref="AI43:AI44"/>
+    <mergeCell ref="Q36:S37"/>
+    <mergeCell ref="T36:T37"/>
+    <mergeCell ref="U36:U37"/>
+    <mergeCell ref="AI37:AI38"/>
+    <mergeCell ref="AI35:AI36"/>
+    <mergeCell ref="AI54:AI55"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:D39"/>
+    <mergeCell ref="E38:G39"/>
+    <mergeCell ref="H38:J39"/>
+    <mergeCell ref="K38:M39"/>
+    <mergeCell ref="N38:P39"/>
+    <mergeCell ref="Q34:S35"/>
+    <mergeCell ref="T34:T35"/>
+    <mergeCell ref="U34:U35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:D37"/>
+    <mergeCell ref="E36:G37"/>
+    <mergeCell ref="H36:J37"/>
+    <mergeCell ref="K36:M37"/>
+    <mergeCell ref="N36:P37"/>
+    <mergeCell ref="Q38:S39"/>
+    <mergeCell ref="T38:T39"/>
+    <mergeCell ref="U38:U39"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:D35"/>
+    <mergeCell ref="E34:G35"/>
+    <mergeCell ref="H34:J35"/>
+    <mergeCell ref="K34:M35"/>
+    <mergeCell ref="N34:P35"/>
+    <mergeCell ref="B24:D25"/>
+    <mergeCell ref="E24:G25"/>
+    <mergeCell ref="H24:J25"/>
+    <mergeCell ref="K24:M25"/>
+    <mergeCell ref="N24:P25"/>
+    <mergeCell ref="AC29:AE29"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:D33"/>
+    <mergeCell ref="E32:G33"/>
+    <mergeCell ref="H32:J33"/>
+    <mergeCell ref="K32:M33"/>
+    <mergeCell ref="N32:P33"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:D31"/>
+    <mergeCell ref="E30:G31"/>
+    <mergeCell ref="H30:J31"/>
+    <mergeCell ref="K30:M31"/>
+    <mergeCell ref="N30:P31"/>
+    <mergeCell ref="AF29:AH29"/>
+    <mergeCell ref="AI29:AI30"/>
+    <mergeCell ref="Q30:S31"/>
+    <mergeCell ref="T30:T31"/>
+    <mergeCell ref="U30:U31"/>
+    <mergeCell ref="AI31:AI32"/>
+    <mergeCell ref="Q26:S27"/>
+    <mergeCell ref="T26:T27"/>
+    <mergeCell ref="U26:U27"/>
+    <mergeCell ref="Q32:S33"/>
+    <mergeCell ref="T32:T33"/>
+    <mergeCell ref="U32:U33"/>
+    <mergeCell ref="AI33:AI34"/>
+    <mergeCell ref="Q28:S29"/>
+    <mergeCell ref="T28:T29"/>
+    <mergeCell ref="U28:U29"/>
     <mergeCell ref="AL12:AL13"/>
     <mergeCell ref="AL14:AL15"/>
     <mergeCell ref="AL16:AL17"/>
@@ -16362,103 +16358,39 @@
     <mergeCell ref="K26:M27"/>
     <mergeCell ref="N26:P27"/>
     <mergeCell ref="A24:A25"/>
-    <mergeCell ref="AF29:AH29"/>
-    <mergeCell ref="AI29:AI30"/>
-    <mergeCell ref="Q30:S31"/>
-    <mergeCell ref="T30:T31"/>
-    <mergeCell ref="U30:U31"/>
-    <mergeCell ref="AI31:AI32"/>
-    <mergeCell ref="Q26:S27"/>
-    <mergeCell ref="T26:T27"/>
-    <mergeCell ref="U26:U27"/>
-    <mergeCell ref="Q32:S33"/>
-    <mergeCell ref="T32:T33"/>
-    <mergeCell ref="U32:U33"/>
-    <mergeCell ref="AI33:AI34"/>
-    <mergeCell ref="Q28:S29"/>
-    <mergeCell ref="T28:T29"/>
-    <mergeCell ref="U28:U29"/>
-    <mergeCell ref="B24:D25"/>
-    <mergeCell ref="E24:G25"/>
-    <mergeCell ref="H24:J25"/>
-    <mergeCell ref="K24:M25"/>
-    <mergeCell ref="N24:P25"/>
-    <mergeCell ref="AC29:AE29"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:D33"/>
-    <mergeCell ref="E32:G33"/>
-    <mergeCell ref="H32:J33"/>
-    <mergeCell ref="K32:M33"/>
-    <mergeCell ref="N32:P33"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:D31"/>
-    <mergeCell ref="E30:G31"/>
-    <mergeCell ref="H30:J31"/>
-    <mergeCell ref="K30:M31"/>
-    <mergeCell ref="N30:P31"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B38:D39"/>
-    <mergeCell ref="E38:G39"/>
-    <mergeCell ref="H38:J39"/>
-    <mergeCell ref="K38:M39"/>
-    <mergeCell ref="N38:P39"/>
-    <mergeCell ref="Q34:S35"/>
-    <mergeCell ref="T34:T35"/>
-    <mergeCell ref="U34:U35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:D37"/>
-    <mergeCell ref="E36:G37"/>
-    <mergeCell ref="H36:J37"/>
-    <mergeCell ref="K36:M37"/>
-    <mergeCell ref="N36:P37"/>
-    <mergeCell ref="Q38:S39"/>
-    <mergeCell ref="T38:T39"/>
-    <mergeCell ref="U38:U39"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:D35"/>
-    <mergeCell ref="E34:G35"/>
-    <mergeCell ref="H34:J35"/>
-    <mergeCell ref="K34:M35"/>
-    <mergeCell ref="N34:P35"/>
-    <mergeCell ref="AI39:AI40"/>
-    <mergeCell ref="AI41:AI42"/>
-    <mergeCell ref="AI43:AI44"/>
-    <mergeCell ref="Q36:S37"/>
-    <mergeCell ref="T36:T37"/>
-    <mergeCell ref="U36:U37"/>
-    <mergeCell ref="AI37:AI38"/>
-    <mergeCell ref="AI35:AI36"/>
-    <mergeCell ref="AI54:AI55"/>
-    <mergeCell ref="AI56:AI57"/>
-    <mergeCell ref="AI58:AI59"/>
-    <mergeCell ref="AI60:AI61"/>
-    <mergeCell ref="AC46:AE46"/>
-    <mergeCell ref="AF46:AH46"/>
-    <mergeCell ref="AI46:AI47"/>
-    <mergeCell ref="AI48:AI49"/>
-    <mergeCell ref="AI50:AI51"/>
-    <mergeCell ref="AI52:AI53"/>
+    <mergeCell ref="AC2:AE2"/>
+    <mergeCell ref="AF2:AH2"/>
+    <mergeCell ref="AI2:AI3"/>
+    <mergeCell ref="AC12:AE12"/>
+    <mergeCell ref="AF12:AH12"/>
+    <mergeCell ref="AI12:AK12"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="K23:M23"/>
+    <mergeCell ref="N23:P23"/>
+    <mergeCell ref="Q23:S23"/>
   </mergeCells>
   <conditionalFormatting sqref="AB14:AL27">
-    <cfRule type="cellIs" dxfId="27" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB29:AI44">
-    <cfRule type="cellIs" dxfId="26" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="4" operator="equal">
       <formula>27.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB46:AI61">
-    <cfRule type="cellIs" dxfId="24" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24:T39">
-    <cfRule type="cellIs" dxfId="23" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16571,20 +16503,20 @@
       <c r="N2" s="155">
         <v>30</v>
       </c>
-      <c r="O2" s="172" t="s">
-        <v>0</v>
-      </c>
-      <c r="P2" s="169" t="s">
+      <c r="O2" s="179" t="s">
+        <v>0</v>
+      </c>
+      <c r="P2" s="185" t="s">
         <v>18</v>
       </c>
-      <c r="Q2" s="170"/>
-      <c r="R2" s="171"/>
-      <c r="S2" s="169" t="s">
+      <c r="Q2" s="186"/>
+      <c r="R2" s="187"/>
+      <c r="S2" s="185" t="s">
         <v>19</v>
       </c>
-      <c r="T2" s="170"/>
-      <c r="U2" s="171"/>
-      <c r="V2" s="172" t="s">
+      <c r="T2" s="186"/>
+      <c r="U2" s="187"/>
+      <c r="V2" s="179" t="s">
         <v>14</v>
       </c>
     </row>
@@ -16627,7 +16559,7 @@
       <c r="N3" s="155">
         <v>20</v>
       </c>
-      <c r="O3" s="184"/>
+      <c r="O3" s="196"/>
       <c r="P3" s="104" t="s">
         <v>26</v>
       </c>
@@ -16646,7 +16578,7 @@
       <c r="U3" s="106" t="s">
         <v>39</v>
       </c>
-      <c r="V3" s="173"/>
+      <c r="V3" s="180"/>
     </row>
     <row r="4" spans="1:22">
       <c r="A4" s="22" t="s">
@@ -17354,8 +17286,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AE26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W24" sqref="W24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -17441,16 +17373,18 @@
       <c r="C2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="194">
-        <v>20</v>
+      <c r="D2" s="165">
+        <v>18</v>
       </c>
       <c r="E2" s="8"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="196">
+      <c r="F2" s="202">
+        <v>2</v>
+      </c>
+      <c r="G2" s="167">
         <f t="shared" ref="G2:G18" si="0">SUM(D2:F2)</f>
         <v>20</v>
       </c>
-      <c r="H2" s="200" t="s">
+      <c r="H2" s="171" t="s">
         <v>138</v>
       </c>
       <c r="I2" s="155">
@@ -17589,18 +17523,18 @@
       <c r="O4" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="P4" s="195">
+      <c r="P4" s="166">
         <f>SUM(K2:K18)</f>
         <v>20</v>
       </c>
-      <c r="Q4" s="199">
+      <c r="Q4" s="170">
         <f t="shared" si="6"/>
         <v>500</v>
       </c>
       <c r="R4" s="155">
         <v>25</v>
       </c>
-      <c r="S4" s="200" t="s">
+      <c r="S4" s="171" t="s">
         <v>140</v>
       </c>
     </row>
@@ -17702,18 +17636,18 @@
       <c r="O6" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P6" s="197">
+      <c r="P6" s="168">
         <f>SUM(M2:M18)</f>
         <v>106</v>
       </c>
-      <c r="Q6" s="198">
+      <c r="Q6" s="169">
         <f t="shared" si="6"/>
         <v>2332</v>
       </c>
       <c r="R6" s="155">
         <v>22</v>
       </c>
-      <c r="S6" s="201" t="s">
+      <c r="S6" s="172" t="s">
         <v>141</v>
       </c>
     </row>
@@ -17730,15 +17664,15 @@
       <c r="D7" s="18">
         <v>34</v>
       </c>
-      <c r="E7" s="192">
+      <c r="E7" s="163">
         <v>18</v>
       </c>
       <c r="F7" s="18"/>
-      <c r="G7" s="193">
+      <c r="G7" s="164">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="H7" s="201" t="s">
+      <c r="H7" s="172" t="s">
         <v>139</v>
       </c>
       <c r="I7" s="155">
@@ -17772,7 +17706,7 @@
         <f>SUM(Q2:Q6)</f>
         <v>4187</v>
       </c>
-      <c r="R7" s="191">
+      <c r="R7" s="162">
         <f>Q7-S7</f>
         <v>-30</v>
       </c>
@@ -17861,29 +17795,29 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O9" s="176"/>
-      <c r="P9" s="177"/>
-      <c r="Q9" s="177"/>
-      <c r="R9" s="178"/>
-      <c r="U9" s="172" t="s">
-        <v>0</v>
-      </c>
-      <c r="V9" s="176" t="s">
+      <c r="O9" s="175"/>
+      <c r="P9" s="176"/>
+      <c r="Q9" s="176"/>
+      <c r="R9" s="177"/>
+      <c r="U9" s="179" t="s">
+        <v>0</v>
+      </c>
+      <c r="V9" s="175" t="s">
         <v>18</v>
       </c>
-      <c r="W9" s="177"/>
-      <c r="X9" s="178"/>
-      <c r="Y9" s="176" t="s">
+      <c r="W9" s="176"/>
+      <c r="X9" s="177"/>
+      <c r="Y9" s="175" t="s">
         <v>19</v>
       </c>
-      <c r="Z9" s="177"/>
-      <c r="AA9" s="178"/>
-      <c r="AB9" s="176" t="s">
+      <c r="Z9" s="176"/>
+      <c r="AA9" s="177"/>
+      <c r="AB9" s="175" t="s">
         <v>114</v>
       </c>
-      <c r="AC9" s="177"/>
-      <c r="AD9" s="179"/>
-      <c r="AE9" s="172" t="s">
+      <c r="AC9" s="176"/>
+      <c r="AD9" s="178"/>
+      <c r="AE9" s="179" t="s">
         <v>14</v>
       </c>
     </row>
@@ -17922,11 +17856,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O10" s="185"/>
+      <c r="O10" s="197"/>
       <c r="P10" s="93"/>
       <c r="Q10" s="93"/>
       <c r="R10" s="94"/>
-      <c r="U10" s="173"/>
+      <c r="U10" s="180"/>
       <c r="V10" s="26" t="s">
         <v>26</v>
       </c>
@@ -17954,7 +17888,7 @@
       <c r="AD10" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="AE10" s="173"/>
+      <c r="AE10" s="180"/>
     </row>
     <row r="11" spans="1:31">
       <c r="A11" s="6" t="s">
@@ -18006,7 +17940,7 @@
         <v>74</v>
       </c>
       <c r="W11" s="33">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="X11" s="34" t="s">
         <v>102</v>
@@ -18029,9 +17963,9 @@
       <c r="AD11" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="AE11" s="180">
+      <c r="AE11" s="181">
         <f>SUM(Z11:Z12,AC11:AC12,W11:W12)</f>
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:31">
@@ -18087,7 +18021,7 @@
       <c r="AB12" s="36"/>
       <c r="AC12" s="37"/>
       <c r="AD12" s="139"/>
-      <c r="AE12" s="168"/>
+      <c r="AE12" s="173"/>
     </row>
     <row r="13" spans="1:31">
       <c r="A13" s="12"/>
@@ -18158,7 +18092,7 @@
       <c r="AD13" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="AE13" s="168">
+      <c r="AE13" s="173">
         <f t="shared" ref="AE13" si="7">SUM(Z13:Z14,AC13:AC14,W13:W14)</f>
         <v>29</v>
       </c>
@@ -18222,7 +18156,7 @@
       <c r="AB14" s="32"/>
       <c r="AC14" s="33"/>
       <c r="AD14" s="7"/>
-      <c r="AE14" s="168"/>
+      <c r="AE14" s="173"/>
     </row>
     <row r="15" spans="1:31">
       <c r="A15" s="6" t="s">
@@ -18297,7 +18231,7 @@
       <c r="AD15" s="79" t="s">
         <v>112</v>
       </c>
-      <c r="AE15" s="168">
+      <c r="AE15" s="173">
         <f t="shared" ref="AE15" si="8">SUM(Z15:Z16,AC15:AC16,W15:W16)</f>
         <v>26</v>
       </c>
@@ -18367,7 +18301,7 @@
       <c r="AD16" s="39" t="s">
         <v>132</v>
       </c>
-      <c r="AE16" s="168"/>
+      <c r="AE16" s="173"/>
     </row>
     <row r="17" spans="1:31" ht="15.75" thickBot="1">
       <c r="A17" s="22" t="s">
@@ -18442,7 +18376,7 @@
       <c r="AD17" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="AE17" s="168">
+      <c r="AE17" s="173">
         <f t="shared" ref="AE17" si="9">SUM(Z17:Z18,AC17:AC18,W17:W18)</f>
         <v>28</v>
       </c>
@@ -18508,7 +18442,7 @@
       <c r="AD18" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="AE18" s="168"/>
+      <c r="AE18" s="173"/>
     </row>
     <row r="19" spans="1:31" ht="15.75" thickBot="1">
       <c r="U19" s="47" t="s">
@@ -18541,9 +18475,9 @@
       <c r="AD19" s="40" t="s">
         <v>120</v>
       </c>
-      <c r="AE19" s="168">
+      <c r="AE19" s="173">
         <f t="shared" ref="AE19" si="10">SUM(Z19:Z20,AC19:AC20,W19:W20)</f>
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:31" ht="15.75" thickBot="1">
@@ -18554,7 +18488,7 @@
       <c r="C20" s="91"/>
       <c r="D20" s="133">
         <f>SUM(D2:D18)</f>
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E20" s="133">
         <f>SUM(E2:E18)</f>
@@ -18562,7 +18496,7 @@
       </c>
       <c r="F20" s="133">
         <f>SUM(F2:F18)</f>
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G20" s="133">
         <f>SUM(G2:G18)</f>
@@ -18581,10 +18515,14 @@
       <c r="Y20" s="36"/>
       <c r="Z20" s="37"/>
       <c r="AA20" s="38"/>
-      <c r="AB20" s="36"/>
-      <c r="AC20" s="37"/>
+      <c r="AB20" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC20" s="37">
+        <v>2</v>
+      </c>
       <c r="AD20" s="39"/>
-      <c r="AE20" s="168"/>
+      <c r="AE20" s="173"/>
     </row>
     <row r="21" spans="1:31">
       <c r="U21" s="31" t="s">
@@ -18617,13 +18555,13 @@
       <c r="AD21" s="85" t="s">
         <v>136</v>
       </c>
-      <c r="AE21" s="168">
+      <c r="AE21" s="173">
         <f t="shared" ref="AE21" si="11">SUM(Z21:Z22,AC21:AC22,W21:W22)</f>
         <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:31">
-      <c r="S22" s="190"/>
+      <c r="S22" s="161"/>
       <c r="U22" s="31"/>
       <c r="V22" s="32"/>
       <c r="W22" s="33"/>
@@ -18634,7 +18572,7 @@
       <c r="AB22" s="32"/>
       <c r="AC22" s="33"/>
       <c r="AD22" s="7"/>
-      <c r="AE22" s="168"/>
+      <c r="AE22" s="173"/>
     </row>
     <row r="23" spans="1:31">
       <c r="O23" s="30"/>
@@ -18645,7 +18583,7 @@
         <v>74</v>
       </c>
       <c r="W23" s="49">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="X23" s="50" t="s">
         <v>102</v>
@@ -18668,15 +18606,15 @@
       <c r="AD23" s="40" t="s">
         <v>112</v>
       </c>
-      <c r="AE23" s="168">
+      <c r="AE23" s="173">
         <f t="shared" ref="AE23" si="12">SUM(Z23:Z24,AC23:AC24,W23:W24)</f>
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:31" ht="15.75" thickBot="1">
       <c r="U24" s="63"/>
       <c r="V24" s="64"/>
-      <c r="W24" s="65"/>
+      <c r="W24" s="203"/>
       <c r="X24" s="66"/>
       <c r="Y24" s="64" t="s">
         <v>21</v>
@@ -18696,12 +18634,12 @@
       <c r="AD24" s="67" t="s">
         <v>120</v>
       </c>
-      <c r="AE24" s="182"/>
+      <c r="AE24" s="174"/>
     </row>
     <row r="26" spans="1:31">
       <c r="W26">
         <f>SUM(W11:W23)</f>
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="Z26">
         <f>SUM(Z11:Z24)</f>
@@ -18709,12 +18647,18 @@
       </c>
       <c r="AC26">
         <f>SUM(AC11:AC24)</f>
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="AD26" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="AB9:AD9"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="P9:R9"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="V9:X9"/>
+    <mergeCell ref="Y9:AA9"/>
     <mergeCell ref="AE21:AE22"/>
     <mergeCell ref="AE23:AE24"/>
     <mergeCell ref="AE9:AE10"/>
@@ -18723,42 +18667,36 @@
     <mergeCell ref="AE15:AE16"/>
     <mergeCell ref="AE17:AE18"/>
     <mergeCell ref="AE19:AE20"/>
-    <mergeCell ref="AB9:AD9"/>
-    <mergeCell ref="O9:O10"/>
-    <mergeCell ref="P9:R9"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="V9:X9"/>
-    <mergeCell ref="Y9:AA9"/>
   </mergeCells>
   <conditionalFormatting sqref="Z26">
-    <cfRule type="cellIs" dxfId="14" priority="15" operator="notEqual">
+    <cfRule type="cellIs" dxfId="15" priority="15" operator="notEqual">
       <formula>$E$20</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="16" operator="equal">
       <formula>$E$20</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W26">
-    <cfRule type="cellIs" dxfId="12" priority="17" operator="notEqual">
+    <cfRule type="cellIs" dxfId="13" priority="17" operator="notEqual">
       <formula>$D$20</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="18" operator="equal">
       <formula>$D$20</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC26">
-    <cfRule type="cellIs" dxfId="10" priority="19" operator="notEqual">
+    <cfRule type="cellIs" dxfId="11" priority="19" operator="notEqual">
       <formula>$F$20</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="20" operator="equal">
       <formula>$F$20</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R7">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="9" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19102,20 +19040,20 @@
       <c r="R6" s="155">
         <v>15</v>
       </c>
-      <c r="T6" s="172" t="s">
-        <v>0</v>
-      </c>
-      <c r="U6" s="176" t="s">
+      <c r="T6" s="179" t="s">
+        <v>0</v>
+      </c>
+      <c r="U6" s="175" t="s">
         <v>18</v>
       </c>
-      <c r="V6" s="177"/>
-      <c r="W6" s="178"/>
-      <c r="X6" s="176" t="s">
+      <c r="V6" s="176"/>
+      <c r="W6" s="177"/>
+      <c r="X6" s="175" t="s">
         <v>19</v>
       </c>
-      <c r="Y6" s="177"/>
-      <c r="Z6" s="179"/>
-      <c r="AA6" s="172" t="s">
+      <c r="Y6" s="176"/>
+      <c r="Z6" s="178"/>
+      <c r="AA6" s="179" t="s">
         <v>14</v>
       </c>
     </row>
@@ -19168,7 +19106,7 @@
         <f>SUM(Q2:Q6)</f>
         <v>6982</v>
       </c>
-      <c r="T7" s="173"/>
+      <c r="T7" s="180"/>
       <c r="U7" s="26" t="s">
         <v>26</v>
       </c>
@@ -19187,7 +19125,7 @@
       <c r="Z7" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="AA7" s="173"/>
+      <c r="AA7" s="180"/>
     </row>
     <row r="8" spans="1:27">
       <c r="A8" s="6" t="s">
@@ -19249,7 +19187,7 @@
       <c r="Z8" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="AA8" s="180">
+      <c r="AA8" s="181">
         <f>SUM(V8:V9,Y8:Y9)</f>
         <v>52</v>
       </c>
@@ -19301,7 +19239,7 @@
       <c r="Z9" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="AA9" s="168"/>
+      <c r="AA9" s="173"/>
     </row>
     <row r="10" spans="1:27">
       <c r="A10" s="22" t="s">
@@ -19362,7 +19300,7 @@
       <c r="Z10" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="AA10" s="168">
+      <c r="AA10" s="173">
         <f t="shared" ref="AA10" si="7">SUM(V10:V11,Y10:Y11)</f>
         <v>52</v>
       </c>
@@ -19424,7 +19362,7 @@
       <c r="Z11" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="AA11" s="168"/>
+      <c r="AA11" s="173"/>
     </row>
     <row r="12" spans="1:27">
       <c r="A12" s="12"/>
@@ -19460,9 +19398,9 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O12" s="186"/>
-      <c r="P12" s="188"/>
-      <c r="Q12" s="189"/>
+      <c r="O12" s="198"/>
+      <c r="P12" s="200"/>
+      <c r="Q12" s="201"/>
       <c r="T12" s="47" t="s">
         <v>49</v>
       </c>
@@ -19484,7 +19422,7 @@
       <c r="Z12" s="79" t="s">
         <v>130</v>
       </c>
-      <c r="AA12" s="168">
+      <c r="AA12" s="173">
         <f t="shared" ref="AA12" si="8">SUM(V12:V13,Y12:Y13)</f>
         <v>52</v>
       </c>
@@ -19527,7 +19465,7 @@
         <f t="shared" si="5"/>
         <v>60</v>
       </c>
-      <c r="O13" s="187"/>
+      <c r="O13" s="199"/>
       <c r="P13" s="52"/>
       <c r="Q13" s="53"/>
       <c r="T13" s="35"/>
@@ -19549,7 +19487,7 @@
       <c r="Z13" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="AA13" s="168"/>
+      <c r="AA13" s="173"/>
     </row>
     <row r="14" spans="1:27">
       <c r="A14" s="6" t="s">
@@ -19613,7 +19551,7 @@
       <c r="Z14" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="AA14" s="168">
+      <c r="AA14" s="173">
         <f t="shared" ref="AA14" si="9">SUM(V14:V15,Y14:Y15)</f>
         <v>57</v>
       </c>
@@ -19674,7 +19612,7 @@
       <c r="Z15" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="AA15" s="168"/>
+      <c r="AA15" s="173"/>
     </row>
     <row r="16" spans="1:27">
       <c r="A16" s="15" t="s">
@@ -19738,7 +19676,7 @@
       <c r="Z16" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="AA16" s="168">
+      <c r="AA16" s="173">
         <f t="shared" ref="AA16" si="10">SUM(V16:V17,Y16:Y17)</f>
         <v>54</v>
       </c>
@@ -19803,7 +19741,7 @@
       <c r="Z17" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="AA17" s="168"/>
+      <c r="AA17" s="173"/>
     </row>
     <row r="18" spans="1:30">
       <c r="A18" s="6"/>
@@ -19863,7 +19801,7 @@
       <c r="Z18" s="85" t="s">
         <v>58</v>
       </c>
-      <c r="AA18" s="168">
+      <c r="AA18" s="173">
         <f t="shared" ref="AA18" si="11">SUM(V18:V19,Y18:Y19)</f>
         <v>54</v>
       </c>
@@ -19928,7 +19866,7 @@
       <c r="Z19" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="AA19" s="168"/>
+      <c r="AA19" s="173"/>
     </row>
     <row r="20" spans="1:30" ht="15.75" thickBot="1">
       <c r="A20" s="12"/>
@@ -19988,7 +19926,7 @@
       <c r="Z20" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="AA20" s="168">
+      <c r="AA20" s="173">
         <f t="shared" ref="AA20" si="12">SUM(V20:V21,Y20:Y21)</f>
         <v>52</v>
       </c>
@@ -20047,7 +19985,7 @@
       <c r="Z21" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="AA21" s="182"/>
+      <c r="AA21" s="174"/>
     </row>
     <row r="22" spans="1:30">
       <c r="A22" s="6"/>
@@ -20288,6 +20226,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="AA10:AA11"/>
+    <mergeCell ref="T6:T7"/>
+    <mergeCell ref="U6:W6"/>
+    <mergeCell ref="X6:Z6"/>
+    <mergeCell ref="AA6:AA7"/>
+    <mergeCell ref="AA8:AA9"/>
     <mergeCell ref="AA20:AA21"/>
     <mergeCell ref="O12:O13"/>
     <mergeCell ref="P12:Q12"/>
@@ -20295,26 +20239,20 @@
     <mergeCell ref="AA14:AA15"/>
     <mergeCell ref="AA16:AA17"/>
     <mergeCell ref="AA18:AA19"/>
-    <mergeCell ref="AA10:AA11"/>
-    <mergeCell ref="T6:T7"/>
-    <mergeCell ref="U6:W6"/>
-    <mergeCell ref="X6:Z6"/>
-    <mergeCell ref="AA6:AA7"/>
-    <mergeCell ref="AA8:AA9"/>
   </mergeCells>
   <conditionalFormatting sqref="Y24">
-    <cfRule type="cellIs" dxfId="22" priority="3" operator="notEqual">
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="notEqual">
       <formula>$E$28</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
       <formula>$E$28</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V24">
-    <cfRule type="cellIs" dxfId="20" priority="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="notEqual">
       <formula>$D$28</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>$D$28</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20508,20 +20446,20 @@
       <c r="R3" s="155">
         <v>20</v>
       </c>
-      <c r="T3" s="172" t="s">
-        <v>0</v>
-      </c>
-      <c r="U3" s="176" t="s">
+      <c r="T3" s="179" t="s">
+        <v>0</v>
+      </c>
+      <c r="U3" s="175" t="s">
         <v>18</v>
       </c>
-      <c r="V3" s="177"/>
-      <c r="W3" s="178"/>
-      <c r="X3" s="176" t="s">
+      <c r="V3" s="176"/>
+      <c r="W3" s="177"/>
+      <c r="X3" s="175" t="s">
         <v>19</v>
       </c>
-      <c r="Y3" s="177"/>
-      <c r="Z3" s="179"/>
-      <c r="AA3" s="172" t="s">
+      <c r="Y3" s="176"/>
+      <c r="Z3" s="178"/>
+      <c r="AA3" s="179" t="s">
         <v>14</v>
       </c>
     </row>
@@ -20573,7 +20511,7 @@
       <c r="R4" s="155">
         <v>15</v>
       </c>
-      <c r="T4" s="173"/>
+      <c r="T4" s="180"/>
       <c r="U4" s="26" t="s">
         <v>26</v>
       </c>
@@ -20592,7 +20530,7 @@
       <c r="Z4" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="AA4" s="173"/>
+      <c r="AA4" s="180"/>
     </row>
     <row r="5" spans="1:27">
       <c r="A5" s="76" t="s">
@@ -20667,7 +20605,7 @@
       <c r="Z5" s="79" t="s">
         <v>71</v>
       </c>
-      <c r="AA5" s="180">
+      <c r="AA5" s="181">
         <f>SUM(V5:V6,Y5:Y6)</f>
         <v>18</v>
       </c>
@@ -20737,7 +20675,7 @@
       <c r="X6" s="81"/>
       <c r="Y6" s="37"/>
       <c r="Z6" s="83"/>
-      <c r="AA6" s="168"/>
+      <c r="AA6" s="173"/>
     </row>
     <row r="7" spans="1:27" ht="15.75" thickBot="1">
       <c r="A7" s="12"/>
@@ -20805,7 +20743,7 @@
       <c r="Z7" s="85" t="s">
         <v>71</v>
       </c>
-      <c r="AA7" s="168">
+      <c r="AA7" s="173">
         <f t="shared" ref="AA7" si="7">SUM(V7:V8,Y7:Y8)</f>
         <v>18</v>
       </c>
@@ -20861,7 +20799,7 @@
       <c r="Z8" s="85" t="s">
         <v>71</v>
       </c>
-      <c r="AA8" s="168"/>
+      <c r="AA8" s="173"/>
     </row>
     <row r="9" spans="1:27">
       <c r="A9" s="80" t="s">
@@ -20922,7 +20860,7 @@
       <c r="Z9" s="79" t="s">
         <v>68</v>
       </c>
-      <c r="AA9" s="168">
+      <c r="AA9" s="173">
         <f t="shared" ref="AA9" si="8">SUM(V9:V10,Y9:Y10)</f>
         <v>18</v>
       </c>
@@ -20968,7 +20906,7 @@
       <c r="X10" s="81"/>
       <c r="Y10" s="37"/>
       <c r="Z10" s="83"/>
-      <c r="AA10" s="168"/>
+      <c r="AA10" s="173"/>
     </row>
     <row r="11" spans="1:27" ht="15.75" thickBot="1">
       <c r="A11" s="7"/>
@@ -21003,7 +20941,7 @@
       <c r="Z11" s="79" t="s">
         <v>68</v>
       </c>
-      <c r="AA11" s="168">
+      <c r="AA11" s="173">
         <f t="shared" ref="AA11" si="9">SUM(V11:V12,Y11:Y12)</f>
         <v>18</v>
       </c>
@@ -21046,9 +20984,9 @@
         <f t="shared" si="11"/>
         <v>20</v>
       </c>
-      <c r="O12" s="176"/>
-      <c r="P12" s="177"/>
-      <c r="Q12" s="178"/>
+      <c r="O12" s="175"/>
+      <c r="P12" s="176"/>
+      <c r="Q12" s="177"/>
       <c r="T12" s="31"/>
       <c r="U12" s="78"/>
       <c r="V12" s="33"/>
@@ -21056,7 +20994,7 @@
       <c r="X12" s="78"/>
       <c r="Y12" s="33"/>
       <c r="Z12" s="85"/>
-      <c r="AA12" s="168"/>
+      <c r="AA12" s="173"/>
     </row>
     <row r="13" spans="1:27" ht="15.75" thickBot="1">
       <c r="A13" s="7"/>
@@ -21065,7 +21003,7 @@
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
       <c r="F13" s="90"/>
-      <c r="O13" s="185"/>
+      <c r="O13" s="197"/>
       <c r="P13" s="93"/>
       <c r="Q13" s="94"/>
       <c r="T13" s="47" t="s">
@@ -21089,7 +21027,7 @@
       <c r="Z13" s="79" t="s">
         <v>68</v>
       </c>
-      <c r="AA13" s="168">
+      <c r="AA13" s="173">
         <f t="shared" ref="AA13" si="12">SUM(V13:V14,Y13:Y14)</f>
         <v>18</v>
       </c>
@@ -21111,7 +21049,7 @@
       <c r="X14" s="81"/>
       <c r="Y14" s="37"/>
       <c r="Z14" s="83"/>
-      <c r="AA14" s="168"/>
+      <c r="AA14" s="173"/>
     </row>
     <row r="15" spans="1:27">
       <c r="A15" s="95"/>
@@ -21144,7 +21082,7 @@
       <c r="Z15" s="85" t="s">
         <v>68</v>
       </c>
-      <c r="AA15" s="168">
+      <c r="AA15" s="173">
         <f t="shared" ref="AA15" si="13">SUM(V15:V16,Y15:Y16)</f>
         <v>18</v>
       </c>
@@ -21166,7 +21104,7 @@
       <c r="X16" s="78"/>
       <c r="Y16" s="33"/>
       <c r="Z16" s="85"/>
-      <c r="AA16" s="168"/>
+      <c r="AA16" s="173"/>
     </row>
     <row r="17" spans="1:35">
       <c r="A17" s="7"/>
@@ -21199,7 +21137,7 @@
       <c r="Z17" s="79" t="s">
         <v>68</v>
       </c>
-      <c r="AA17" s="168">
+      <c r="AA17" s="173">
         <f t="shared" ref="AA17" si="14">SUM(V17:V18,Y17:Y18)</f>
         <v>16</v>
       </c>
@@ -21221,7 +21159,7 @@
       <c r="X18" s="96"/>
       <c r="Y18" s="65"/>
       <c r="Z18" s="98"/>
-      <c r="AA18" s="182"/>
+      <c r="AA18" s="174"/>
     </row>
     <row r="19" spans="1:35">
       <c r="A19" s="7"/>
@@ -21379,6 +21317,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="AA7:AA8"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="U3:W3"/>
+    <mergeCell ref="X3:Z3"/>
+    <mergeCell ref="AA3:AA4"/>
+    <mergeCell ref="AA5:AA6"/>
     <mergeCell ref="AA17:AA18"/>
     <mergeCell ref="AA9:AA10"/>
     <mergeCell ref="AA11:AA12"/>
@@ -21386,26 +21330,20 @@
     <mergeCell ref="P12:Q12"/>
     <mergeCell ref="AA13:AA14"/>
     <mergeCell ref="AA15:AA16"/>
-    <mergeCell ref="AA7:AA8"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="U3:W3"/>
-    <mergeCell ref="X3:Z3"/>
-    <mergeCell ref="AA3:AA4"/>
-    <mergeCell ref="AA5:AA6"/>
   </mergeCells>
   <conditionalFormatting sqref="Y20">
-    <cfRule type="cellIs" dxfId="18" priority="3" operator="notEqual">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="notEqual">
       <formula>$E$12</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>$E$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V20">
-    <cfRule type="cellIs" dxfId="16" priority="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="notEqual">
       <formula>$D$12</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>$D$12</formula>
     </cfRule>
   </conditionalFormatting>

--- a/RP/Esterni/Piano di Progetto/Ripartizione ruoli e ore.xlsx
+++ b/RP/Esterni/Piano di Progetto/Ripartizione ruoli e ore.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="300" windowWidth="18735" windowHeight="11700" activeTab="3"/>
+    <workbookView xWindow="360" yWindow="300" windowWidth="9645" windowHeight="4740" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Prospetto orario (CON AN)" sheetId="2" r:id="rId1"/>
@@ -15,12 +15,12 @@
     <sheet name="4_VV" sheetId="5" r:id="rId6"/>
     <sheet name="Grafici" sheetId="8" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="142">
   <si>
     <t>Membro</t>
   </si>
@@ -451,11 +451,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;€&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -489,6 +489,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF04AC20"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1264,7 +1270,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="204">
+  <cellXfs count="211">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1518,10 +1524,51 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1536,48 +1583,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1587,6 +1599,21 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1599,10 +1626,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1845,13 +1868,508 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="105"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="5"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Preventivo</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'2_PA'!$O$2:$O$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Responsabile</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Amministratore</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Analista</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Verificatore</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Progettista</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2_PA'!$P$25:$P$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>96</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Consuntivo</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'2_PA'!$O$2:$O$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Responsabile</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Amministratore</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Analista</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Verificatore</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Progettista</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2_PA'!$P$2:$P$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>106</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="98229248"/>
+        <c:axId val="98231040"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="98229248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="98231040"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="98231040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="98229248"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill>
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="accent3"/>
+        </a:gs>
+        <a:gs pos="50000">
+          <a:schemeClr val="accent1">
+            <a:tint val="44500"/>
+            <a:satMod val="160000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="accent1">
+            <a:tint val="23500"/>
+            <a:satMod val="160000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:lin ang="5400000" scaled="0"/>
+    </a:gradFill>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Preventivo</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:scene3d>
+              <a:camera prst="orthographicFront"/>
+              <a:lightRig rig="threePt" dir="t"/>
+            </a:scene3d>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr u="none"/>
+                </a:pPr>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>Costo</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2_PA'!$Q$30</c:f>
+              <c:numCache>
+                <c:formatCode>"€"\ #,##0.00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4217</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Consuntivo</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr u="none"/>
+                </a:pPr>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>Costo</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2_PA'!$Q$7</c:f>
+              <c:numCache>
+                <c:formatCode>"€"\ #,##0.00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4187</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="101029376"/>
+        <c:axId val="101030912"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="101029376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="101030912"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="101030912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="&quot;€&quot;\ #,##0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="101029376"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill>
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="accent3"/>
+        </a:gs>
+        <a:gs pos="50000">
+          <a:schemeClr val="accent1">
+            <a:tint val="44500"/>
+            <a:satMod val="160000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="accent1">
+            <a:tint val="23500"/>
+            <a:satMod val="160000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:lin ang="5400000" scaled="0"/>
+    </a:gradFill>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr u="sng"/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1866,6 +2384,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Grafici!$A$2:$A$8</c:f>
@@ -1899,7 +2418,7 @@
             <c:numRef>
               <c:f>Grafici!$B$2:$B$8</c:f>
               <c:numCache>
-                <c:formatCode>Standard</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>4</c:v>
@@ -1940,6 +2459,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Grafici!$A$2:$A$8</c:f>
@@ -1973,7 +2493,7 @@
             <c:numRef>
               <c:f>Grafici!$C$2:$C$8</c:f>
               <c:numCache>
-                <c:formatCode>Standard</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
@@ -2014,6 +2534,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Grafici!$A$2:$A$8</c:f>
@@ -2047,7 +2568,7 @@
             <c:numRef>
               <c:f>Grafici!$D$2:$D$8</c:f>
               <c:numCache>
-                <c:formatCode>Standard</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>12</c:v>
@@ -2088,6 +2609,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Grafici!$A$2:$A$8</c:f>
@@ -2121,7 +2643,7 @@
             <c:numRef>
               <c:f>Grafici!$E$2:$E$8</c:f>
               <c:numCache>
-                <c:formatCode>Standard</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
@@ -2162,6 +2684,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Grafici!$A$2:$A$8</c:f>
@@ -2195,7 +2718,7 @@
             <c:numRef>
               <c:f>Grafici!$F$2:$F$8</c:f>
               <c:numCache>
-                <c:formatCode>Standard</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>59</c:v>
@@ -2236,6 +2759,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Grafici!$A$2:$A$8</c:f>
@@ -2269,7 +2793,7 @@
             <c:numRef>
               <c:f>Grafici!$G$2:$G$8</c:f>
               <c:numCache>
-                <c:formatCode>Standard</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>4</c:v>
@@ -2296,42 +2820,60 @@
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="129668608"/>
-        <c:axId val="129670144"/>
+        <c:axId val="102923648"/>
+        <c:axId val="102937728"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="129668608"/>
+        <c:axId val="102923648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="129670144"/>
+        <c:crossAx val="102937728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="129670144"/>
+        <c:axId val="102937728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="Standard" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="129668608"/>
+        <c:crossAx val="102923648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -2341,10 +2883,21 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:pieChart>
@@ -2353,7 +2906,12 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
             <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
           </c:dLbls>
           <c:cat>
@@ -2386,7 +2944,7 @@
             <c:numRef>
               <c:f>Grafici!$F$40:$F$45</c:f>
               <c:numCache>
-                <c:formatCode>Standard</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>59</c:v>
@@ -2410,14 +2968,25 @@
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
         <c:firstSliceAng val="0"/>
       </c:pieChart>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -2427,10 +2996,21 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:pieChart>
@@ -2439,7 +3019,12 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
             <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
           </c:dLbls>
           <c:cat>
@@ -2472,7 +3057,7 @@
             <c:numRef>
               <c:f>Grafici!$G$40:$G$45</c:f>
               <c:numCache>
-                <c:formatCode>Standard</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>1770</c:v>
@@ -2496,14 +3081,25 @@
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
         <c:firstSliceAng val="0"/>
       </c:pieChart>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -2514,6 +3110,71 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>601266</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>77986</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>803672</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>130373</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Grafico 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>728382</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>68356</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>488674</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>144556</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Grafico 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2683,6 +3344,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -2717,6 +3379,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2892,14 +3555,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BH61"/>
   <sheetViews>
     <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="P43" sqref="P43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.85546875" customWidth="1"/>
     <col min="2" max="3" width="3.42578125" customWidth="1"/>
@@ -2921,7 +3584,7 @@
     <col min="41" max="58" width="3.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60" ht="15.75" thickBot="1">
+    <row r="1" spans="1:60" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="147" t="s">
         <v>0</v>
       </c>
@@ -2961,7 +3624,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:60">
+    <row r="2" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A2" s="147" t="s">
         <v>7</v>
       </c>
@@ -3026,7 +3689,7 @@
       </c>
       <c r="AG2" s="186"/>
       <c r="AH2" s="186"/>
-      <c r="AI2" s="179" t="str">
+      <c r="AI2" s="188" t="str">
         <f>'1_AN'!V2</f>
         <v>Totale</v>
       </c>
@@ -3089,7 +3752,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:60" ht="15.75" thickBot="1">
+    <row r="3" spans="1:60" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="147" t="s">
         <v>8</v>
       </c>
@@ -3107,7 +3770,7 @@
       </c>
       <c r="E3" s="148">
         <f t="shared" ref="E3:E8" si="2">SUM(AX5:AZ5,AX15:AZ16,AX32:AZ33,AX49:AZ50)</f>
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F3" s="148">
         <f t="shared" ref="F3:F8" si="3">SUM(BA5:BC5,BA15:BC16,BA32:BC33,BA49:BC50)</f>
@@ -3160,9 +3823,9 @@
         <f>'1_AN'!U3</f>
         <v>Fase</v>
       </c>
-      <c r="AI3" s="180"/>
-    </row>
-    <row r="4" spans="1:60">
+      <c r="AI3" s="189"/>
+    </row>
+    <row r="4" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A4" s="147" t="s">
         <v>10</v>
       </c>
@@ -3180,7 +3843,7 @@
       </c>
       <c r="E4" s="148">
         <f t="shared" si="2"/>
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F4" s="148">
         <f t="shared" si="3"/>
@@ -3294,7 +3957,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:60">
+    <row r="5" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A5" s="147" t="s">
         <v>9</v>
       </c>
@@ -3426,7 +4089,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:60">
+    <row r="6" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A6" s="147" t="s">
         <v>11</v>
       </c>
@@ -3558,7 +4221,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:60">
+    <row r="7" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A7" s="147" t="s">
         <v>12</v>
       </c>
@@ -3690,7 +4353,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:60">
+    <row r="8" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A8" s="147" t="s">
         <v>13</v>
       </c>
@@ -3822,7 +4485,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:60">
+    <row r="9" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A9" s="147" t="s">
         <v>14</v>
       </c>
@@ -3936,7 +4599,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:60" ht="15.75" thickBot="1">
+    <row r="10" spans="1:60" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AB10" s="122" t="str">
         <f>'1_AN'!O10</f>
         <v>Maggiolo Giorgio</v>
@@ -4030,13 +4693,13 @@
         <v>138</v>
       </c>
     </row>
-    <row r="11" spans="1:60" ht="15.75" thickBot="1">
+    <row r="11" spans="1:60" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="BG11" s="158">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:60">
+    <row r="12" spans="1:60" x14ac:dyDescent="0.25">
       <c r="AA12" t="s">
         <v>123</v>
       </c>
@@ -4047,21 +4710,21 @@
         <f>'2_PA'!V9</f>
         <v>I Periodo</v>
       </c>
-      <c r="AD12" s="188"/>
-      <c r="AE12" s="189"/>
-      <c r="AF12" s="175" t="str">
+      <c r="AD12" s="190"/>
+      <c r="AE12" s="191"/>
+      <c r="AF12" s="192" t="str">
         <f>'2_PA'!Y9</f>
         <v>II Periodo</v>
       </c>
-      <c r="AG12" s="176"/>
-      <c r="AH12" s="177"/>
-      <c r="AI12" s="175" t="str">
+      <c r="AG12" s="193"/>
+      <c r="AH12" s="194"/>
+      <c r="AI12" s="192" t="str">
         <f>'2_PA'!AB9</f>
         <v>III Periodo</v>
       </c>
-      <c r="AJ12" s="176"/>
-      <c r="AK12" s="178"/>
-      <c r="AL12" s="179" t="str">
+      <c r="AJ12" s="193"/>
+      <c r="AK12" s="195"/>
+      <c r="AL12" s="188" t="str">
         <f>'2_PA'!AE9</f>
         <v>Totale</v>
       </c>
@@ -4070,7 +4733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:60" ht="15.75" thickBot="1">
+    <row r="13" spans="1:60" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E13" t="e">
         <f>VALUE(AB14)</f>
         <v>#VALUE!</v>
@@ -4112,7 +4775,7 @@
         <f>'2_PA'!AD10</f>
         <v>Fase</v>
       </c>
-      <c r="AL13" s="180"/>
+      <c r="AL13" s="189"/>
       <c r="AM13">
         <f>SUM(AL14:AL27)</f>
         <v>193</v>
@@ -4122,7 +4785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:60">
+    <row r="14" spans="1:60" x14ac:dyDescent="0.25">
       <c r="F14" t="str">
         <f>IF(AB8=AB4&amp;AB7=AB10,"fghj","lllllllll")</f>
         <v>lllllllll</v>
@@ -4167,7 +4830,7 @@
         <f>'2_PA'!AD11</f>
         <v>PA 3.2</v>
       </c>
-      <c r="AL14" s="181">
+      <c r="AL14" s="196">
         <f>'2_PA'!AE11</f>
         <v>26</v>
       </c>
@@ -4252,7 +4915,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="15" spans="1:60">
+    <row r="15" spans="1:60" x14ac:dyDescent="0.25">
       <c r="B15">
         <f>IF(AB10=A2,AA12,0)</f>
         <v>0</v>
@@ -4297,7 +4960,7 @@
         <f>'2_PA'!AD12</f>
         <v>0</v>
       </c>
-      <c r="AL15" s="173"/>
+      <c r="AL15" s="184"/>
       <c r="AO15">
         <f>IF($AC15=AO$2,$AD15,0)</f>
         <v>0</v>
@@ -4375,7 +5038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:60">
+    <row r="16" spans="1:60" x14ac:dyDescent="0.25">
       <c r="AB16" s="31" t="str">
         <f>'2_PA'!U13</f>
         <v>Facchin Gabriele</v>
@@ -4398,7 +5061,7 @@
       </c>
       <c r="AG16" s="33">
         <f>'2_PA'!Z13</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AH16" s="34" t="str">
         <f>'2_PA'!AA13</f>
@@ -4416,9 +5079,9 @@
         <f>'2_PA'!AD13</f>
         <v>PA 3.2</v>
       </c>
-      <c r="AL16" s="173">
+      <c r="AL16" s="184">
         <f>'2_PA'!AE13</f>
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AO16">
         <f t="shared" ref="AO16:AO27" si="35">IF($AC16=AO$2,$AD16,0)</f>
@@ -4462,7 +5125,7 @@
       </c>
       <c r="AY16">
         <f t="shared" si="21"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AZ16">
         <f t="shared" si="22"/>
@@ -4494,10 +5157,10 @@
       </c>
       <c r="BG16" s="158">
         <f t="shared" si="19"/>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:60">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:60" x14ac:dyDescent="0.25">
       <c r="AB17" s="31">
         <f>'2_PA'!U14</f>
         <v>0</v>
@@ -4538,7 +5201,7 @@
         <f>'2_PA'!AD14</f>
         <v>0</v>
       </c>
-      <c r="AL17" s="173"/>
+      <c r="AL17" s="184"/>
       <c r="AO17">
         <f t="shared" si="35"/>
         <v>0</v>
@@ -4616,7 +5279,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:60">
+    <row r="18" spans="1:60" x14ac:dyDescent="0.25">
       <c r="AB18" s="47" t="str">
         <f>'2_PA'!U15</f>
         <v>Cornaglia Alessando</v>
@@ -4657,7 +5320,7 @@
         <f>'2_PA'!AD15</f>
         <v>PA 3.3</v>
       </c>
-      <c r="AL18" s="173">
+      <c r="AL18" s="184">
         <f>'2_PA'!AE15</f>
         <v>26</v>
       </c>
@@ -4738,7 +5401,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:60">
+    <row r="19" spans="1:60" x14ac:dyDescent="0.25">
       <c r="AB19" s="35">
         <f>'2_PA'!U16</f>
         <v>0</v>
@@ -4779,7 +5442,7 @@
         <f>'2_PA'!AD16</f>
         <v>PA 6.1</v>
       </c>
-      <c r="AL19" s="173"/>
+      <c r="AL19" s="184"/>
       <c r="AO19">
         <f t="shared" si="35"/>
         <v>0</v>
@@ -4857,7 +5520,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:60">
+    <row r="20" spans="1:60" x14ac:dyDescent="0.25">
       <c r="AB20" s="31" t="str">
         <f>'2_PA'!U17</f>
         <v>Dalla Pietà Massimo</v>
@@ -4898,7 +5561,7 @@
         <f>'2_PA'!AD17</f>
         <v>PA 3.3</v>
       </c>
-      <c r="AL20" s="173">
+      <c r="AL20" s="184">
         <f>'2_PA'!AE17</f>
         <v>28</v>
       </c>
@@ -4979,7 +5642,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:60">
+    <row r="21" spans="1:60" x14ac:dyDescent="0.25">
       <c r="AB21" s="31">
         <f>'2_PA'!U18</f>
         <v>0</v>
@@ -5020,7 +5683,7 @@
         <f>'2_PA'!AD18</f>
         <v>PA 6.2</v>
       </c>
-      <c r="AL21" s="173"/>
+      <c r="AL21" s="184"/>
       <c r="AO21">
         <f t="shared" si="35"/>
         <v>0</v>
@@ -5098,7 +5761,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:60">
+    <row r="22" spans="1:60" x14ac:dyDescent="0.25">
       <c r="AB22" s="47" t="str">
         <f>'2_PA'!U19</f>
         <v>Braghetto Lorenzo</v>
@@ -5139,7 +5802,7 @@
         <f>'2_PA'!AD19</f>
         <v>PA 5.1</v>
       </c>
-      <c r="AL22" s="173">
+      <c r="AL22" s="184">
         <f>'2_PA'!AE19</f>
         <v>30</v>
       </c>
@@ -5220,40 +5883,40 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:60">
+    <row r="23" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A23" s="153" t="s">
         <v>0</v>
       </c>
-      <c r="B23" s="190" t="s">
+      <c r="B23" s="197" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="190"/>
-      <c r="D23" s="190"/>
-      <c r="E23" s="190" t="s">
+      <c r="C23" s="197"/>
+      <c r="D23" s="197"/>
+      <c r="E23" s="197" t="s">
         <v>2</v>
       </c>
-      <c r="F23" s="190"/>
-      <c r="G23" s="190"/>
-      <c r="H23" s="190" t="s">
+      <c r="F23" s="197"/>
+      <c r="G23" s="197"/>
+      <c r="H23" s="197" t="s">
         <v>3</v>
       </c>
-      <c r="I23" s="190"/>
-      <c r="J23" s="190"/>
-      <c r="K23" s="190" t="s">
+      <c r="I23" s="197"/>
+      <c r="J23" s="197"/>
+      <c r="K23" s="197" t="s">
         <v>4</v>
       </c>
-      <c r="L23" s="190"/>
-      <c r="M23" s="190"/>
-      <c r="N23" s="190" t="s">
+      <c r="L23" s="197"/>
+      <c r="M23" s="197"/>
+      <c r="N23" s="197" t="s">
         <v>5</v>
       </c>
-      <c r="O23" s="190"/>
-      <c r="P23" s="190"/>
-      <c r="Q23" s="190" t="s">
+      <c r="O23" s="197"/>
+      <c r="P23" s="197"/>
+      <c r="Q23" s="197" t="s">
         <v>6</v>
       </c>
-      <c r="R23" s="190"/>
-      <c r="S23" s="190"/>
+      <c r="R23" s="197"/>
+      <c r="S23" s="197"/>
       <c r="T23" s="159" t="s">
         <v>14</v>
       </c>
@@ -5298,7 +5961,7 @@
         <f>'2_PA'!AD20</f>
         <v>0</v>
       </c>
-      <c r="AL23" s="173"/>
+      <c r="AL23" s="184"/>
       <c r="AO23">
         <f t="shared" si="35"/>
         <v>0</v>
@@ -5376,51 +6039,51 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:60">
-      <c r="A24" s="182" t="s">
+    <row r="24" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A24" s="183" t="s">
         <v>7</v>
       </c>
-      <c r="B24" s="184">
+      <c r="B24" s="181">
         <f>SUM(AO4:AQ4,AO14:AQ15,AO31:AQ32,AO48:AQ49)</f>
         <v>17</v>
       </c>
-      <c r="C24" s="184"/>
-      <c r="D24" s="184"/>
-      <c r="E24" s="184">
+      <c r="C24" s="181"/>
+      <c r="D24" s="181"/>
+      <c r="E24" s="181">
         <f>SUM(AR4:AT4,AR14:AT15,AR31:AT32,AR48:AT49)</f>
         <v>10</v>
       </c>
-      <c r="F24" s="184"/>
-      <c r="G24" s="184"/>
-      <c r="H24" s="183">
+      <c r="F24" s="181"/>
+      <c r="G24" s="181"/>
+      <c r="H24" s="182">
         <f>SUM(AU4:AW4,AU14:AW15,AU31:AW32,AU48:AW49)</f>
         <v>15</v>
       </c>
-      <c r="I24" s="183"/>
-      <c r="J24" s="183"/>
-      <c r="K24" s="184">
+      <c r="I24" s="182"/>
+      <c r="J24" s="182"/>
+      <c r="K24" s="181">
         <f>SUM(AX4:AZ4,AX14:AZ15,AX31:AZ32,AX48:AZ49)</f>
         <v>10</v>
       </c>
-      <c r="L24" s="184"/>
-      <c r="M24" s="184"/>
-      <c r="N24" s="183">
+      <c r="L24" s="181"/>
+      <c r="M24" s="181"/>
+      <c r="N24" s="182">
         <f>SUM(BA4:BC4,BA14:BC15,BA31:BC32,BA48:BC49)</f>
         <v>59</v>
       </c>
-      <c r="O24" s="183"/>
-      <c r="P24" s="183"/>
-      <c r="Q24" s="184">
+      <c r="O24" s="182"/>
+      <c r="P24" s="182"/>
+      <c r="Q24" s="181">
         <f t="shared" ref="Q24" si="38">SUM(BD4:BF4,BD14:BF15,BD31:BF32,BD48:BF49)</f>
         <v>4</v>
       </c>
-      <c r="R24" s="184"/>
-      <c r="S24" s="184"/>
-      <c r="T24" s="193">
+      <c r="R24" s="181"/>
+      <c r="S24" s="181"/>
+      <c r="T24" s="178">
         <f t="shared" ref="T24" si="39">SUM(B24:S25)</f>
         <v>115</v>
       </c>
-      <c r="U24" s="192"/>
+      <c r="U24" s="177"/>
       <c r="AB24" s="31" t="str">
         <f>'2_PA'!U21</f>
         <v>Quadrio Giacomo</v>
@@ -5461,7 +6124,7 @@
         <f>'2_PA'!AD21</f>
         <v>PA 5.1, 6.2</v>
       </c>
-      <c r="AL24" s="173">
+      <c r="AL24" s="184">
         <f>'2_PA'!AE21</f>
         <v>28</v>
       </c>
@@ -5542,28 +6205,28 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:60">
-      <c r="A25" s="182"/>
-      <c r="B25" s="184"/>
-      <c r="C25" s="184"/>
-      <c r="D25" s="184"/>
-      <c r="E25" s="184"/>
-      <c r="F25" s="184"/>
-      <c r="G25" s="184"/>
-      <c r="H25" s="183"/>
-      <c r="I25" s="183"/>
-      <c r="J25" s="183"/>
-      <c r="K25" s="184"/>
-      <c r="L25" s="184"/>
-      <c r="M25" s="184"/>
-      <c r="N25" s="183"/>
-      <c r="O25" s="183"/>
-      <c r="P25" s="183"/>
-      <c r="Q25" s="184"/>
-      <c r="R25" s="184"/>
-      <c r="S25" s="184"/>
-      <c r="T25" s="193"/>
-      <c r="U25" s="192"/>
+    <row r="25" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A25" s="183"/>
+      <c r="B25" s="181"/>
+      <c r="C25" s="181"/>
+      <c r="D25" s="181"/>
+      <c r="E25" s="181"/>
+      <c r="F25" s="181"/>
+      <c r="G25" s="181"/>
+      <c r="H25" s="182"/>
+      <c r="I25" s="182"/>
+      <c r="J25" s="182"/>
+      <c r="K25" s="181"/>
+      <c r="L25" s="181"/>
+      <c r="M25" s="181"/>
+      <c r="N25" s="182"/>
+      <c r="O25" s="182"/>
+      <c r="P25" s="182"/>
+      <c r="Q25" s="181"/>
+      <c r="R25" s="181"/>
+      <c r="S25" s="181"/>
+      <c r="T25" s="178"/>
+      <c r="U25" s="177"/>
       <c r="AB25" s="31">
         <f>'2_PA'!U22</f>
         <v>0</v>
@@ -5604,7 +6267,7 @@
         <f>'2_PA'!AD22</f>
         <v>0</v>
       </c>
-      <c r="AL25" s="173"/>
+      <c r="AL25" s="184"/>
       <c r="AO25">
         <f t="shared" si="35"/>
         <v>0</v>
@@ -5682,51 +6345,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:60">
-      <c r="A26" s="182" t="s">
+    <row r="26" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A26" s="183" t="s">
         <v>11</v>
       </c>
-      <c r="B26" s="184">
+      <c r="B26" s="181">
         <f>SUM(AO5:AQ5,AO16:AQ17,AO33:AQ34,AO50:AQ51)</f>
         <v>13</v>
       </c>
-      <c r="C26" s="184"/>
-      <c r="D26" s="184"/>
-      <c r="E26" s="184">
+      <c r="C26" s="181"/>
+      <c r="D26" s="181"/>
+      <c r="E26" s="181">
         <f>SUM(AR5:AT5,AR16:AT17,AR33:AT34,AR50:AT51)</f>
         <v>10</v>
       </c>
-      <c r="F26" s="184"/>
-      <c r="G26" s="184"/>
-      <c r="H26" s="184">
+      <c r="F26" s="181"/>
+      <c r="G26" s="181"/>
+      <c r="H26" s="181">
         <f>SUM(AU5:AW5,AU16:AW17,AU33:AW34,AU50:AW51)</f>
         <v>11</v>
       </c>
-      <c r="I26" s="184"/>
-      <c r="J26" s="184"/>
-      <c r="K26" s="183">
+      <c r="I26" s="181"/>
+      <c r="J26" s="181"/>
+      <c r="K26" s="182">
         <f>SUM(AX5:AZ5,AX16:AZ17,AX33:AZ34,AX50:AZ51)</f>
-        <v>43</v>
-      </c>
-      <c r="L26" s="183"/>
-      <c r="M26" s="183"/>
-      <c r="N26" s="184">
+        <v>41</v>
+      </c>
+      <c r="L26" s="182"/>
+      <c r="M26" s="182"/>
+      <c r="N26" s="181">
         <f>SUM(BA5:BC5,BA16:BC17,BA33:BC34,BA50:BC51)</f>
         <v>29</v>
       </c>
-      <c r="O26" s="184"/>
-      <c r="P26" s="184"/>
-      <c r="Q26" s="184">
+      <c r="O26" s="181"/>
+      <c r="P26" s="181"/>
+      <c r="Q26" s="181">
         <f>SUM(BD5:BF5,BD16:BF17,BD33:BF34,BD50:BF51)</f>
         <v>12</v>
       </c>
-      <c r="R26" s="184"/>
-      <c r="S26" s="184"/>
-      <c r="T26" s="193">
+      <c r="R26" s="181"/>
+      <c r="S26" s="181"/>
+      <c r="T26" s="178">
         <f t="shared" ref="T26" si="40">SUM(B26:S27)</f>
-        <v>118</v>
-      </c>
-      <c r="U26" s="192"/>
+        <v>116</v>
+      </c>
+      <c r="U26" s="177"/>
       <c r="AB26" s="47" t="str">
         <f>'2_PA'!U23</f>
         <v>Maggiolo Giorgio</v>
@@ -5749,7 +6412,7 @@
       </c>
       <c r="AG26" s="49">
         <f>'2_PA'!Z23</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AH26" s="50" t="str">
         <f>'2_PA'!AA23</f>
@@ -5767,9 +6430,9 @@
         <f>'2_PA'!AD23</f>
         <v>PA 3.3</v>
       </c>
-      <c r="AL26" s="173">
+      <c r="AL26" s="184">
         <f>'2_PA'!AE23</f>
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AO26">
         <f t="shared" si="35"/>
@@ -5825,7 +6488,7 @@
       </c>
       <c r="BB26">
         <f t="shared" si="21"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BC26">
         <f t="shared" si="22"/>
@@ -5845,31 +6508,31 @@
       </c>
       <c r="BG26" s="158">
         <f t="shared" si="19"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:60" ht="15.75" thickBot="1">
-      <c r="A27" s="182"/>
-      <c r="B27" s="184"/>
-      <c r="C27" s="184"/>
-      <c r="D27" s="184"/>
-      <c r="E27" s="184"/>
-      <c r="F27" s="184"/>
-      <c r="G27" s="184"/>
-      <c r="H27" s="184"/>
-      <c r="I27" s="184"/>
-      <c r="J27" s="184"/>
-      <c r="K27" s="183"/>
-      <c r="L27" s="183"/>
-      <c r="M27" s="183"/>
-      <c r="N27" s="184"/>
-      <c r="O27" s="184"/>
-      <c r="P27" s="184"/>
-      <c r="Q27" s="184"/>
-      <c r="R27" s="184"/>
-      <c r="S27" s="184"/>
-      <c r="T27" s="193"/>
-      <c r="U27" s="192"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:60" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="183"/>
+      <c r="B27" s="181"/>
+      <c r="C27" s="181"/>
+      <c r="D27" s="181"/>
+      <c r="E27" s="181"/>
+      <c r="F27" s="181"/>
+      <c r="G27" s="181"/>
+      <c r="H27" s="181"/>
+      <c r="I27" s="181"/>
+      <c r="J27" s="181"/>
+      <c r="K27" s="182"/>
+      <c r="L27" s="182"/>
+      <c r="M27" s="182"/>
+      <c r="N27" s="181"/>
+      <c r="O27" s="181"/>
+      <c r="P27" s="181"/>
+      <c r="Q27" s="181"/>
+      <c r="R27" s="181"/>
+      <c r="S27" s="181"/>
+      <c r="T27" s="178"/>
+      <c r="U27" s="177"/>
       <c r="AB27" s="63">
         <f>'2_PA'!U24</f>
         <v>0</v>
@@ -5910,7 +6573,7 @@
         <f>'2_PA'!AD24</f>
         <v>PA 5.1</v>
       </c>
-      <c r="AL27" s="174"/>
+      <c r="AL27" s="198"/>
       <c r="AO27">
         <f t="shared" si="35"/>
         <v>0</v>
@@ -5988,97 +6651,97 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:60" ht="15.75" thickBot="1">
-      <c r="A28" s="182" t="s">
+    <row r="28" spans="1:60" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="183" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="184">
+      <c r="B28" s="181">
         <f>SUM(AO6:AQ6,AO18:AQ19,AO35:AQ36,AO52:AQ53)</f>
         <v>10</v>
       </c>
-      <c r="C28" s="184"/>
-      <c r="D28" s="184"/>
-      <c r="E28" s="184">
+      <c r="C28" s="181"/>
+      <c r="D28" s="181"/>
+      <c r="E28" s="181">
         <f>SUM(AR6:AT6,AR18:AT19,AR35:AT36,AR52:AT53)</f>
         <v>14</v>
       </c>
-      <c r="F28" s="184"/>
-      <c r="G28" s="184"/>
-      <c r="H28" s="184">
+      <c r="F28" s="181"/>
+      <c r="G28" s="181"/>
+      <c r="H28" s="181">
         <f>SUM(AU6:AW6,AU18:AW19,AU35:AW36,AU52:AW53)</f>
         <v>13</v>
       </c>
-      <c r="I28" s="184"/>
-      <c r="J28" s="184"/>
-      <c r="K28" s="184">
+      <c r="I28" s="181"/>
+      <c r="J28" s="181"/>
+      <c r="K28" s="181">
         <f>SUM(AX6:AZ6,AX18:AZ19,AX35:AZ36,AX52:AZ53)</f>
         <v>27</v>
       </c>
-      <c r="L28" s="184"/>
-      <c r="M28" s="184"/>
-      <c r="N28" s="184">
+      <c r="L28" s="181"/>
+      <c r="M28" s="181"/>
+      <c r="N28" s="181">
         <f>SUM(BA6:BC6,BA18:BC19,BA35:BC36,BA52:BC53)</f>
         <v>33</v>
       </c>
-      <c r="O28" s="184"/>
-      <c r="P28" s="184"/>
-      <c r="Q28" s="183">
+      <c r="O28" s="181"/>
+      <c r="P28" s="181"/>
+      <c r="Q28" s="182">
         <f>SUM(BD6:BF6,BD18:BF19,BD35:BF36,BD52:BF53)</f>
         <v>20</v>
       </c>
-      <c r="R28" s="183"/>
-      <c r="S28" s="183"/>
-      <c r="T28" s="193">
+      <c r="R28" s="182"/>
+      <c r="S28" s="182"/>
+      <c r="T28" s="178">
         <f t="shared" ref="T28" si="41">SUM(B28:S29)</f>
         <v>117</v>
       </c>
-      <c r="U28" s="192"/>
+      <c r="U28" s="177"/>
       <c r="BG28" s="158">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:60">
-      <c r="A29" s="182"/>
-      <c r="B29" s="184"/>
-      <c r="C29" s="184"/>
-      <c r="D29" s="184"/>
-      <c r="E29" s="184"/>
-      <c r="F29" s="184"/>
-      <c r="G29" s="184"/>
-      <c r="H29" s="184"/>
-      <c r="I29" s="184"/>
-      <c r="J29" s="184"/>
-      <c r="K29" s="184"/>
-      <c r="L29" s="184"/>
-      <c r="M29" s="184"/>
-      <c r="N29" s="184"/>
-      <c r="O29" s="184"/>
-      <c r="P29" s="184"/>
-      <c r="Q29" s="183"/>
-      <c r="R29" s="183"/>
-      <c r="S29" s="183"/>
-      <c r="T29" s="193"/>
-      <c r="U29" s="192"/>
+    <row r="29" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A29" s="183"/>
+      <c r="B29" s="181"/>
+      <c r="C29" s="181"/>
+      <c r="D29" s="181"/>
+      <c r="E29" s="181"/>
+      <c r="F29" s="181"/>
+      <c r="G29" s="181"/>
+      <c r="H29" s="181"/>
+      <c r="I29" s="181"/>
+      <c r="J29" s="181"/>
+      <c r="K29" s="181"/>
+      <c r="L29" s="181"/>
+      <c r="M29" s="181"/>
+      <c r="N29" s="181"/>
+      <c r="O29" s="181"/>
+      <c r="P29" s="181"/>
+      <c r="Q29" s="182"/>
+      <c r="R29" s="182"/>
+      <c r="S29" s="182"/>
+      <c r="T29" s="178"/>
+      <c r="U29" s="177"/>
       <c r="AA29" t="s">
         <v>124</v>
       </c>
       <c r="AB29" s="149" t="s">
         <v>127</v>
       </c>
-      <c r="AC29" s="175" t="str">
+      <c r="AC29" s="192" t="str">
         <f>'3_PDC'!U6</f>
         <v>I Periodo</v>
       </c>
-      <c r="AD29" s="176"/>
-      <c r="AE29" s="177"/>
-      <c r="AF29" s="175" t="str">
+      <c r="AD29" s="193"/>
+      <c r="AE29" s="194"/>
+      <c r="AF29" s="192" t="str">
         <f>'3_PDC'!X6</f>
         <v>II Periodo</v>
       </c>
-      <c r="AG29" s="176"/>
-      <c r="AH29" s="178"/>
-      <c r="AI29" s="179" t="str">
+      <c r="AG29" s="193"/>
+      <c r="AH29" s="195"/>
+      <c r="AI29" s="188" t="str">
         <f>'3_PDC'!AA6</f>
         <v>Totale</v>
       </c>
@@ -6087,51 +6750,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:60" ht="15.75" thickBot="1">
-      <c r="A30" s="182" t="s">
+    <row r="30" spans="1:60" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="183" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="184">
+      <c r="B30" s="181">
         <f>SUM(AO7:AQ7,AO20:AQ21,AO37:AQ38,AO54:AQ55)</f>
         <v>15</v>
       </c>
-      <c r="C30" s="184"/>
-      <c r="D30" s="184"/>
-      <c r="E30" s="184">
+      <c r="C30" s="181"/>
+      <c r="D30" s="181"/>
+      <c r="E30" s="181">
         <f>SUM(AR7:AT7,AR20:AT21,AR37:AT38,AR54:AT55)</f>
         <v>4</v>
       </c>
-      <c r="F30" s="184"/>
-      <c r="G30" s="184"/>
-      <c r="H30" s="184">
+      <c r="F30" s="181"/>
+      <c r="G30" s="181"/>
+      <c r="H30" s="181">
         <f>SUM(AU7:AW7,AU20:AW21,AU37:AW38,AU54:AW55)</f>
         <v>11</v>
       </c>
-      <c r="I30" s="184"/>
-      <c r="J30" s="184"/>
-      <c r="K30" s="183">
+      <c r="I30" s="181"/>
+      <c r="J30" s="181"/>
+      <c r="K30" s="182">
         <f>SUM(AX7:AZ7,AX20:AZ21,AX37:AZ38,AX54:AZ55)</f>
         <v>39</v>
       </c>
-      <c r="L30" s="183"/>
-      <c r="M30" s="183"/>
-      <c r="N30" s="183">
+      <c r="L30" s="182"/>
+      <c r="M30" s="182"/>
+      <c r="N30" s="182">
         <f>SUM(BA7:BC7,BA20:BC21,BA37:BC38,BA54:BC55)</f>
         <v>35</v>
       </c>
-      <c r="O30" s="183"/>
-      <c r="P30" s="183"/>
-      <c r="Q30" s="184">
+      <c r="O30" s="182"/>
+      <c r="P30" s="182"/>
+      <c r="Q30" s="181">
         <f>SUM(BD7:BF7,BD20:BF21,BD37:BF38,BD54:BF55)</f>
         <v>18</v>
       </c>
-      <c r="R30" s="184"/>
-      <c r="S30" s="184"/>
-      <c r="T30" s="193">
+      <c r="R30" s="181"/>
+      <c r="S30" s="181"/>
+      <c r="T30" s="178">
         <f t="shared" ref="T30" si="42">SUM(B30:S31)</f>
         <v>122</v>
       </c>
-      <c r="U30" s="192"/>
+      <c r="U30" s="177"/>
       <c r="AB30" s="150"/>
       <c r="AC30" s="26" t="str">
         <f>'3_PDC'!U7</f>
@@ -6157,7 +6820,7 @@
         <f>'3_PDC'!Z7</f>
         <v>Fase</v>
       </c>
-      <c r="AI30" s="180"/>
+      <c r="AI30" s="189"/>
       <c r="AK30">
         <f>SUM(AI31:AI44)</f>
         <v>373</v>
@@ -6167,28 +6830,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:60">
-      <c r="A31" s="182"/>
-      <c r="B31" s="184"/>
-      <c r="C31" s="184"/>
-      <c r="D31" s="184"/>
-      <c r="E31" s="184"/>
-      <c r="F31" s="184"/>
-      <c r="G31" s="184"/>
-      <c r="H31" s="184"/>
-      <c r="I31" s="184"/>
-      <c r="J31" s="184"/>
-      <c r="K31" s="183"/>
-      <c r="L31" s="183"/>
-      <c r="M31" s="183"/>
-      <c r="N31" s="183"/>
-      <c r="O31" s="183"/>
-      <c r="P31" s="183"/>
-      <c r="Q31" s="184"/>
-      <c r="R31" s="184"/>
-      <c r="S31" s="184"/>
-      <c r="T31" s="193"/>
-      <c r="U31" s="192"/>
+    <row r="31" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A31" s="183"/>
+      <c r="B31" s="181"/>
+      <c r="C31" s="181"/>
+      <c r="D31" s="181"/>
+      <c r="E31" s="181"/>
+      <c r="F31" s="181"/>
+      <c r="G31" s="181"/>
+      <c r="H31" s="181"/>
+      <c r="I31" s="181"/>
+      <c r="J31" s="181"/>
+      <c r="K31" s="182"/>
+      <c r="L31" s="182"/>
+      <c r="M31" s="182"/>
+      <c r="N31" s="182"/>
+      <c r="O31" s="182"/>
+      <c r="P31" s="182"/>
+      <c r="Q31" s="181"/>
+      <c r="R31" s="181"/>
+      <c r="S31" s="181"/>
+      <c r="T31" s="178"/>
+      <c r="U31" s="177"/>
       <c r="AB31" s="31" t="str">
         <f>'3_PDC'!T8</f>
         <v>Begolo Marco</v>
@@ -6217,7 +6880,7 @@
         <f>'3_PDC'!Z8</f>
         <v>PDC 4.4</v>
       </c>
-      <c r="AI31" s="181">
+      <c r="AI31" s="196">
         <f>'3_PDC'!AA8</f>
         <v>52</v>
       </c>
@@ -6302,51 +6965,51 @@
         <v>373</v>
       </c>
     </row>
-    <row r="32" spans="1:60">
-      <c r="A32" s="182" t="s">
+    <row r="32" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A32" s="183" t="s">
         <v>8</v>
       </c>
-      <c r="B32" s="184">
+      <c r="B32" s="181">
         <f>SUM(AO8:AQ8,AO22:AQ23,AO39:AQ40,AO56:AQ57)</f>
         <v>9</v>
       </c>
-      <c r="C32" s="184"/>
-      <c r="D32" s="184"/>
-      <c r="E32" s="184">
+      <c r="C32" s="181"/>
+      <c r="D32" s="181"/>
+      <c r="E32" s="181">
         <f>SUM(AR8:AT8,AR22:AT23,AR39:AT40,AR56:AT57)</f>
         <v>11</v>
       </c>
-      <c r="F32" s="184"/>
-      <c r="G32" s="184"/>
-      <c r="H32" s="184">
+      <c r="F32" s="181"/>
+      <c r="G32" s="181"/>
+      <c r="H32" s="181">
         <f>SUM(AU8:AW8,AU22:AW23,AU39:AW40,AU56:AW57)</f>
         <v>12</v>
       </c>
-      <c r="I32" s="184"/>
-      <c r="J32" s="184"/>
-      <c r="K32" s="184">
+      <c r="I32" s="181"/>
+      <c r="J32" s="181"/>
+      <c r="K32" s="181">
         <f>SUM(AX8:AZ8,AX22:AZ23,AX39:AZ40,AX56:AZ57)</f>
         <v>30</v>
       </c>
-      <c r="L32" s="184"/>
-      <c r="M32" s="184"/>
-      <c r="N32" s="183">
+      <c r="L32" s="181"/>
+      <c r="M32" s="181"/>
+      <c r="N32" s="182">
         <f>SUM(BA8:BC8,BA22:BC23,BA39:BC40,BA56:BC57)</f>
         <v>37</v>
       </c>
-      <c r="O32" s="183"/>
-      <c r="P32" s="183"/>
-      <c r="Q32" s="184">
+      <c r="O32" s="182"/>
+      <c r="P32" s="182"/>
+      <c r="Q32" s="181">
         <f>SUM(BD8:BF8,BD22:BF23,BD39:BF40,BD56:BF57)</f>
         <v>23</v>
       </c>
-      <c r="R32" s="184"/>
-      <c r="S32" s="184"/>
-      <c r="T32" s="193">
+      <c r="R32" s="181"/>
+      <c r="S32" s="181"/>
+      <c r="T32" s="178">
         <f t="shared" ref="T32" si="58">SUM(B32:S33)</f>
         <v>122</v>
       </c>
-      <c r="U32" s="192"/>
+      <c r="U32" s="177"/>
       <c r="AB32" s="35">
         <f>'3_PDC'!T9</f>
         <v>0</v>
@@ -6375,7 +7038,7 @@
         <f>'3_PDC'!Z9</f>
         <v>PDC 7</v>
       </c>
-      <c r="AI32" s="173"/>
+      <c r="AI32" s="184"/>
       <c r="AO32">
         <f>IF($AC32=AO$2,$AD32,0)</f>
         <v>0</v>
@@ -6453,28 +7116,28 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:60">
-      <c r="A33" s="182"/>
-      <c r="B33" s="184"/>
-      <c r="C33" s="184"/>
-      <c r="D33" s="184"/>
-      <c r="E33" s="184"/>
-      <c r="F33" s="184"/>
-      <c r="G33" s="184"/>
-      <c r="H33" s="184"/>
-      <c r="I33" s="184"/>
-      <c r="J33" s="184"/>
-      <c r="K33" s="184"/>
-      <c r="L33" s="184"/>
-      <c r="M33" s="184"/>
-      <c r="N33" s="183"/>
-      <c r="O33" s="183"/>
-      <c r="P33" s="183"/>
-      <c r="Q33" s="184"/>
-      <c r="R33" s="184"/>
-      <c r="S33" s="184"/>
-      <c r="T33" s="193"/>
-      <c r="U33" s="192"/>
+    <row r="33" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A33" s="183"/>
+      <c r="B33" s="181"/>
+      <c r="C33" s="181"/>
+      <c r="D33" s="181"/>
+      <c r="E33" s="181"/>
+      <c r="F33" s="181"/>
+      <c r="G33" s="181"/>
+      <c r="H33" s="181"/>
+      <c r="I33" s="181"/>
+      <c r="J33" s="181"/>
+      <c r="K33" s="181"/>
+      <c r="L33" s="181"/>
+      <c r="M33" s="181"/>
+      <c r="N33" s="182"/>
+      <c r="O33" s="182"/>
+      <c r="P33" s="182"/>
+      <c r="Q33" s="181"/>
+      <c r="R33" s="181"/>
+      <c r="S33" s="181"/>
+      <c r="T33" s="178"/>
+      <c r="U33" s="177"/>
       <c r="AB33" s="31" t="str">
         <f>'3_PDC'!T10</f>
         <v>Facchin Gabriele</v>
@@ -6503,7 +7166,7 @@
         <f>'3_PDC'!Z10</f>
         <v>PDC 3.1</v>
       </c>
-      <c r="AI33" s="173">
+      <c r="AI33" s="184">
         <f>'3_PDC'!AA10</f>
         <v>52</v>
       </c>
@@ -6584,51 +7247,51 @@
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:60">
-      <c r="A34" s="182" t="s">
+    <row r="34" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A34" s="183" t="s">
         <v>13</v>
       </c>
-      <c r="B34" s="184">
+      <c r="B34" s="181">
         <f>SUM(AO9:AQ9,AO24:AQ25,AO41:AQ42,AO58:AQ59)</f>
         <v>6</v>
       </c>
-      <c r="C34" s="184"/>
-      <c r="D34" s="184"/>
-      <c r="E34" s="184">
+      <c r="C34" s="181"/>
+      <c r="D34" s="181"/>
+      <c r="E34" s="181">
         <f>SUM(AR9:AT9,AR24:AT25,AR41:AT42,AR58:AT59)</f>
         <v>2</v>
       </c>
-      <c r="F34" s="184"/>
-      <c r="G34" s="184"/>
-      <c r="H34" s="184">
+      <c r="F34" s="181"/>
+      <c r="G34" s="181"/>
+      <c r="H34" s="181">
         <f>SUM(AU9:AW9,AU24:AW25,AU41:AW42,AU58:AW59)</f>
         <v>10</v>
       </c>
-      <c r="I34" s="184"/>
-      <c r="J34" s="184"/>
-      <c r="K34" s="183">
+      <c r="I34" s="181"/>
+      <c r="J34" s="181"/>
+      <c r="K34" s="182">
         <f>SUM(AX9:AZ9,AX24:AZ25,AX41:AZ42,AX58:AZ59)</f>
         <v>37</v>
       </c>
-      <c r="L34" s="183"/>
-      <c r="M34" s="183"/>
-      <c r="N34" s="183">
+      <c r="L34" s="182"/>
+      <c r="M34" s="182"/>
+      <c r="N34" s="182">
         <f>SUM(BA9:BC9,BA24:BC25,BA41:BC42,BA58:BC59)</f>
         <v>40</v>
       </c>
-      <c r="O34" s="183"/>
-      <c r="P34" s="183"/>
-      <c r="Q34" s="183">
+      <c r="O34" s="182"/>
+      <c r="P34" s="182"/>
+      <c r="Q34" s="182">
         <f>SUM(BD9:BF9,BD24:BF25,BD41:BF42,BD58:BF59)</f>
         <v>25</v>
       </c>
-      <c r="R34" s="183"/>
-      <c r="S34" s="183"/>
-      <c r="T34" s="193">
+      <c r="R34" s="182"/>
+      <c r="S34" s="182"/>
+      <c r="T34" s="178">
         <f t="shared" ref="T34" si="62">SUM(B34:S35)</f>
         <v>120</v>
       </c>
-      <c r="U34" s="192"/>
+      <c r="U34" s="177"/>
       <c r="AB34" s="31">
         <f>'3_PDC'!T11</f>
         <v>0</v>
@@ -6657,7 +7320,7 @@
         <f>'3_PDC'!Z11</f>
         <v>PDC 4.3</v>
       </c>
-      <c r="AI34" s="173"/>
+      <c r="AI34" s="184"/>
       <c r="AO34">
         <f t="shared" si="59"/>
         <v>0</v>
@@ -6735,28 +7398,28 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:60">
-      <c r="A35" s="182"/>
-      <c r="B35" s="184"/>
-      <c r="C35" s="184"/>
-      <c r="D35" s="184"/>
-      <c r="E35" s="184"/>
-      <c r="F35" s="184"/>
-      <c r="G35" s="184"/>
-      <c r="H35" s="184"/>
-      <c r="I35" s="184"/>
-      <c r="J35" s="184"/>
-      <c r="K35" s="183"/>
-      <c r="L35" s="183"/>
-      <c r="M35" s="183"/>
-      <c r="N35" s="183"/>
-      <c r="O35" s="183"/>
-      <c r="P35" s="183"/>
-      <c r="Q35" s="183"/>
-      <c r="R35" s="183"/>
-      <c r="S35" s="183"/>
-      <c r="T35" s="193"/>
-      <c r="U35" s="192"/>
+    <row r="35" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A35" s="183"/>
+      <c r="B35" s="181"/>
+      <c r="C35" s="181"/>
+      <c r="D35" s="181"/>
+      <c r="E35" s="181"/>
+      <c r="F35" s="181"/>
+      <c r="G35" s="181"/>
+      <c r="H35" s="181"/>
+      <c r="I35" s="181"/>
+      <c r="J35" s="181"/>
+      <c r="K35" s="182"/>
+      <c r="L35" s="182"/>
+      <c r="M35" s="182"/>
+      <c r="N35" s="182"/>
+      <c r="O35" s="182"/>
+      <c r="P35" s="182"/>
+      <c r="Q35" s="182"/>
+      <c r="R35" s="182"/>
+      <c r="S35" s="182"/>
+      <c r="T35" s="178"/>
+      <c r="U35" s="177"/>
       <c r="AB35" s="47" t="str">
         <f>'3_PDC'!T12</f>
         <v>Cornaglia Alessando</v>
@@ -6785,7 +7448,7 @@
         <f>'3_PDC'!Z12</f>
         <v>PDC 4.4 e 5</v>
       </c>
-      <c r="AI35" s="173">
+      <c r="AI35" s="184">
         <f>'3_PDC'!AA12</f>
         <v>52</v>
       </c>
@@ -6866,51 +7529,51 @@
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="1:60">
-      <c r="A36" s="182" t="s">
+    <row r="36" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A36" s="183" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="184">
+      <c r="B36" s="181">
         <f>SUM(AO10:AQ10,AO26:AQ27,AO43:AQ44,AO60:AQ61)</f>
         <v>12</v>
       </c>
-      <c r="C36" s="184"/>
-      <c r="D36" s="184"/>
-      <c r="E36" s="184">
+      <c r="C36" s="181"/>
+      <c r="D36" s="181"/>
+      <c r="E36" s="181">
         <f>SUM(AR10:AT10,AR26:AT27,AR43:AT44,AR60:AT61)</f>
         <v>18</v>
       </c>
-      <c r="F36" s="184"/>
-      <c r="G36" s="184"/>
-      <c r="H36" s="184">
+      <c r="F36" s="181"/>
+      <c r="G36" s="181"/>
+      <c r="H36" s="181">
         <f>SUM(AU10:AW10,AU26:AW27,AU43:AW44,AU60:AW61)</f>
         <v>7</v>
       </c>
-      <c r="I36" s="184"/>
-      <c r="J36" s="184"/>
-      <c r="K36" s="183">
+      <c r="I36" s="181"/>
+      <c r="J36" s="181"/>
+      <c r="K36" s="182">
         <f>SUM(AX10:AZ10,AX26:AZ27,AX43:AZ44,AX60:AZ61)</f>
         <v>51</v>
       </c>
-      <c r="L36" s="183"/>
-      <c r="M36" s="183"/>
-      <c r="N36" s="184">
+      <c r="L36" s="182"/>
+      <c r="M36" s="182"/>
+      <c r="N36" s="181">
         <f>SUM(BA10:BC10,BA26:BC27,BA43:BC44,BA60:BC61)</f>
-        <v>8</v>
-      </c>
-      <c r="O36" s="184"/>
-      <c r="P36" s="184"/>
-      <c r="Q36" s="184">
+        <v>10</v>
+      </c>
+      <c r="O36" s="181"/>
+      <c r="P36" s="181"/>
+      <c r="Q36" s="181">
         <f>SUM(BD10:BF10,BD26:BF27,BD43:BF44,BD60:BF61)</f>
         <v>18</v>
       </c>
-      <c r="R36" s="184"/>
-      <c r="S36" s="184"/>
-      <c r="T36" s="193">
+      <c r="R36" s="181"/>
+      <c r="S36" s="181"/>
+      <c r="T36" s="178">
         <f t="shared" ref="T36" si="63">SUM(B36:S37)</f>
-        <v>114</v>
-      </c>
-      <c r="U36" s="192"/>
+        <v>116</v>
+      </c>
+      <c r="U36" s="177"/>
       <c r="AB36" s="35">
         <f>'3_PDC'!T13</f>
         <v>0</v>
@@ -6939,7 +7602,7 @@
         <f>'3_PDC'!Z13</f>
         <v>PDC 7</v>
       </c>
-      <c r="AI36" s="173"/>
+      <c r="AI36" s="184"/>
       <c r="AO36">
         <f t="shared" si="59"/>
         <v>0</v>
@@ -7017,28 +7680,28 @@
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="1:60">
-      <c r="A37" s="182"/>
-      <c r="B37" s="184"/>
-      <c r="C37" s="184"/>
-      <c r="D37" s="184"/>
-      <c r="E37" s="184"/>
-      <c r="F37" s="184"/>
-      <c r="G37" s="184"/>
-      <c r="H37" s="184"/>
-      <c r="I37" s="184"/>
-      <c r="J37" s="184"/>
-      <c r="K37" s="183"/>
-      <c r="L37" s="183"/>
-      <c r="M37" s="183"/>
-      <c r="N37" s="184"/>
-      <c r="O37" s="184"/>
-      <c r="P37" s="184"/>
-      <c r="Q37" s="184"/>
-      <c r="R37" s="184"/>
-      <c r="S37" s="184"/>
-      <c r="T37" s="193"/>
-      <c r="U37" s="192"/>
+    <row r="37" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A37" s="183"/>
+      <c r="B37" s="181"/>
+      <c r="C37" s="181"/>
+      <c r="D37" s="181"/>
+      <c r="E37" s="181"/>
+      <c r="F37" s="181"/>
+      <c r="G37" s="181"/>
+      <c r="H37" s="181"/>
+      <c r="I37" s="181"/>
+      <c r="J37" s="181"/>
+      <c r="K37" s="182"/>
+      <c r="L37" s="182"/>
+      <c r="M37" s="182"/>
+      <c r="N37" s="181"/>
+      <c r="O37" s="181"/>
+      <c r="P37" s="181"/>
+      <c r="Q37" s="181"/>
+      <c r="R37" s="181"/>
+      <c r="S37" s="181"/>
+      <c r="T37" s="178"/>
+      <c r="U37" s="177"/>
       <c r="AB37" s="31" t="str">
         <f>'3_PDC'!T14</f>
         <v>Dalla Pietà Massimo</v>
@@ -7067,7 +7730,7 @@
         <f>'3_PDC'!Z14</f>
         <v>PDC 4.3</v>
       </c>
-      <c r="AI37" s="173">
+      <c r="AI37" s="184">
         <f>'3_PDC'!AA14</f>
         <v>57</v>
       </c>
@@ -7148,51 +7811,51 @@
         <v>29</v>
       </c>
     </row>
-    <row r="38" spans="1:60">
-      <c r="A38" s="191" t="s">
+    <row r="38" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A38" s="180" t="s">
         <v>14</v>
       </c>
-      <c r="B38" s="184">
+      <c r="B38" s="181">
         <f>SUM(B24:D37)</f>
         <v>82</v>
       </c>
-      <c r="C38" s="184"/>
-      <c r="D38" s="184"/>
-      <c r="E38" s="184">
+      <c r="C38" s="181"/>
+      <c r="D38" s="181"/>
+      <c r="E38" s="181">
         <f t="shared" ref="E38" si="64">SUM(E24:G37)</f>
         <v>69</v>
       </c>
-      <c r="F38" s="184"/>
-      <c r="G38" s="184"/>
-      <c r="H38" s="184">
+      <c r="F38" s="181"/>
+      <c r="G38" s="181"/>
+      <c r="H38" s="181">
         <f>SUM(H24:J37)</f>
         <v>79</v>
       </c>
-      <c r="I38" s="184"/>
-      <c r="J38" s="184"/>
-      <c r="K38" s="184">
+      <c r="I38" s="181"/>
+      <c r="J38" s="181"/>
+      <c r="K38" s="181">
         <f t="shared" ref="K38" si="65">SUM(K24:M37)</f>
-        <v>237</v>
-      </c>
-      <c r="L38" s="184"/>
-      <c r="M38" s="184"/>
-      <c r="N38" s="184">
+        <v>235</v>
+      </c>
+      <c r="L38" s="181"/>
+      <c r="M38" s="181"/>
+      <c r="N38" s="181">
         <f t="shared" ref="N38" si="66">SUM(N24:P37)</f>
-        <v>241</v>
-      </c>
-      <c r="O38" s="184"/>
-      <c r="P38" s="184"/>
-      <c r="Q38" s="184">
+        <v>243</v>
+      </c>
+      <c r="O38" s="181"/>
+      <c r="P38" s="181"/>
+      <c r="Q38" s="181">
         <f>SUM(Q24:S37)</f>
         <v>120</v>
       </c>
-      <c r="R38" s="184"/>
-      <c r="S38" s="184"/>
-      <c r="T38" s="194">
+      <c r="R38" s="181"/>
+      <c r="S38" s="181"/>
+      <c r="T38" s="179">
         <f>SUM(B38:S39)</f>
         <v>828</v>
       </c>
-      <c r="U38" s="192"/>
+      <c r="U38" s="177"/>
       <c r="AB38" s="31">
         <f>'3_PDC'!T15</f>
         <v>0</v>
@@ -7221,7 +7884,7 @@
         <f>'3_PDC'!Z15</f>
         <v>PDC 7</v>
       </c>
-      <c r="AI38" s="173"/>
+      <c r="AI38" s="184"/>
       <c r="AO38">
         <f t="shared" si="59"/>
         <v>0</v>
@@ -7299,28 +7962,28 @@
         <v>28</v>
       </c>
     </row>
-    <row r="39" spans="1:60">
-      <c r="A39" s="191"/>
-      <c r="B39" s="184"/>
-      <c r="C39" s="184"/>
-      <c r="D39" s="184"/>
-      <c r="E39" s="184"/>
-      <c r="F39" s="184"/>
-      <c r="G39" s="184"/>
-      <c r="H39" s="184"/>
-      <c r="I39" s="184"/>
-      <c r="J39" s="184"/>
-      <c r="K39" s="184"/>
-      <c r="L39" s="184"/>
-      <c r="M39" s="184"/>
-      <c r="N39" s="184"/>
-      <c r="O39" s="184"/>
-      <c r="P39" s="184"/>
-      <c r="Q39" s="184"/>
-      <c r="R39" s="184"/>
-      <c r="S39" s="184"/>
-      <c r="T39" s="194"/>
-      <c r="U39" s="192"/>
+    <row r="39" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A39" s="180"/>
+      <c r="B39" s="181"/>
+      <c r="C39" s="181"/>
+      <c r="D39" s="181"/>
+      <c r="E39" s="181"/>
+      <c r="F39" s="181"/>
+      <c r="G39" s="181"/>
+      <c r="H39" s="181"/>
+      <c r="I39" s="181"/>
+      <c r="J39" s="181"/>
+      <c r="K39" s="181"/>
+      <c r="L39" s="181"/>
+      <c r="M39" s="181"/>
+      <c r="N39" s="181"/>
+      <c r="O39" s="181"/>
+      <c r="P39" s="181"/>
+      <c r="Q39" s="181"/>
+      <c r="R39" s="181"/>
+      <c r="S39" s="181"/>
+      <c r="T39" s="179"/>
+      <c r="U39" s="177"/>
       <c r="AB39" s="47" t="str">
         <f>'3_PDC'!T16</f>
         <v>Braghetto Lorenzo</v>
@@ -7349,7 +8012,7 @@
         <f>'3_PDC'!Z16</f>
         <v>PDC 4.4</v>
       </c>
-      <c r="AI39" s="173">
+      <c r="AI39" s="184">
         <f>'3_PDC'!AA16</f>
         <v>54</v>
       </c>
@@ -7430,7 +8093,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="1:60">
+    <row r="40" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A40" s="147"/>
       <c r="AB40" s="35">
         <f>'3_PDC'!T17</f>
@@ -7460,7 +8123,7 @@
         <f>'3_PDC'!Z17</f>
         <v>PDC 7</v>
       </c>
-      <c r="AI40" s="173"/>
+      <c r="AI40" s="184"/>
       <c r="AO40">
         <f t="shared" si="59"/>
         <v>0</v>
@@ -7538,7 +8201,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="1:60">
+    <row r="41" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A41" s="147"/>
       <c r="AB41" s="31" t="str">
         <f>'3_PDC'!T18</f>
@@ -7568,7 +8231,7 @@
         <f>'3_PDC'!Z18</f>
         <v>PDC 6</v>
       </c>
-      <c r="AI41" s="173">
+      <c r="AI41" s="184">
         <f>'3_PDC'!AA18</f>
         <v>54</v>
       </c>
@@ -7649,7 +8312,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="1:60">
+    <row r="42" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A42" s="147"/>
       <c r="AB42" s="31">
         <f>'3_PDC'!T19</f>
@@ -7679,7 +8342,7 @@
         <f>'3_PDC'!Z19</f>
         <v>PDC 3.2, 5 e 7</v>
       </c>
-      <c r="AI42" s="173"/>
+      <c r="AI42" s="184"/>
       <c r="AO42">
         <f t="shared" si="59"/>
         <v>0</v>
@@ -7757,7 +8420,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="1:60">
+    <row r="43" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A43" s="147"/>
       <c r="AB43" s="47" t="str">
         <f>'3_PDC'!T20</f>
@@ -7787,7 +8450,7 @@
         <f>'3_PDC'!Z20</f>
         <v>PDC 4.3</v>
       </c>
-      <c r="AI43" s="173">
+      <c r="AI43" s="184">
         <f>'3_PDC'!AA20</f>
         <v>52</v>
       </c>
@@ -7868,7 +8531,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="44" spans="1:60" ht="15.75" thickBot="1">
+    <row r="44" spans="1:60" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="147"/>
       <c r="AB44" s="63">
         <f>'3_PDC'!T21</f>
@@ -7898,7 +8561,7 @@
         <f>'3_PDC'!Z21</f>
         <v>PDC 7</v>
       </c>
-      <c r="AI44" s="174"/>
+      <c r="AI44" s="198"/>
       <c r="AO44">
         <f t="shared" si="59"/>
         <v>0</v>
@@ -7976,14 +8639,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:60" ht="15.75" thickBot="1">
+    <row r="45" spans="1:60" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="147"/>
       <c r="BG45" s="158">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:60">
+    <row r="46" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A46" s="147"/>
       <c r="AA46" t="s">
         <v>125</v>
@@ -7991,19 +8654,19 @@
       <c r="AB46" s="149" t="s">
         <v>128</v>
       </c>
-      <c r="AC46" s="175" t="str">
+      <c r="AC46" s="192" t="str">
         <f>'4_VV'!U3</f>
         <v>I Periodo</v>
       </c>
-      <c r="AD46" s="176"/>
-      <c r="AE46" s="177"/>
-      <c r="AF46" s="175" t="str">
+      <c r="AD46" s="193"/>
+      <c r="AE46" s="194"/>
+      <c r="AF46" s="192" t="str">
         <f>'4_VV'!X3</f>
         <v>II Periodo</v>
       </c>
-      <c r="AG46" s="176"/>
-      <c r="AH46" s="178"/>
-      <c r="AI46" s="179" t="str">
+      <c r="AG46" s="193"/>
+      <c r="AH46" s="195"/>
+      <c r="AI46" s="188" t="str">
         <f>'4_VV'!AA3</f>
         <v>Totale</v>
       </c>
@@ -8016,7 +8679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:60" ht="15.75" thickBot="1">
+    <row r="47" spans="1:60" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="147"/>
       <c r="AB47" s="150"/>
       <c r="AC47" s="26" t="str">
@@ -8043,13 +8706,13 @@
         <f>'4_VV'!Z4</f>
         <v>Fase</v>
       </c>
-      <c r="AI47" s="180"/>
+      <c r="AI47" s="189"/>
       <c r="BG47" s="158">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:60">
+    <row r="48" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A48" s="147"/>
       <c r="AB48" s="31" t="str">
         <f>'4_VV'!T5</f>
@@ -8079,7 +8742,7 @@
         <f>'4_VV'!Z5</f>
         <v>VV 3.2</v>
       </c>
-      <c r="AI48" s="181">
+      <c r="AI48" s="196">
         <f>'4_VV'!AA5</f>
         <v>18</v>
       </c>
@@ -8164,7 +8827,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="49" spans="20:59">
+    <row r="49" spans="20:59" x14ac:dyDescent="0.25">
       <c r="AB49" s="35">
         <f>'4_VV'!T6</f>
         <v>0</v>
@@ -8193,7 +8856,7 @@
         <f>'4_VV'!Z6</f>
         <v>0</v>
       </c>
-      <c r="AI49" s="173"/>
+      <c r="AI49" s="184"/>
       <c r="AO49">
         <f>IF($AC49=AO$2,$AD49,0)</f>
         <v>0</v>
@@ -8271,7 +8934,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="20:59" ht="15.75" thickBot="1">
+    <row r="50" spans="20:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AB50" s="31" t="str">
         <f>'4_VV'!T7</f>
         <v>Facchin Gabriele</v>
@@ -8300,7 +8963,7 @@
         <f>'4_VV'!Z7</f>
         <v>VV 3.2</v>
       </c>
-      <c r="AI50" s="173">
+      <c r="AI50" s="184">
         <f>'4_VV'!AA7</f>
         <v>18</v>
       </c>
@@ -8381,7 +9044,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="51" spans="20:59" ht="15.75" thickBot="1">
+    <row r="51" spans="20:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="T51" s="1" t="s">
         <v>26</v>
       </c>
@@ -8422,7 +9085,7 @@
         <f>'4_VV'!Z8</f>
         <v>VV 3.2</v>
       </c>
-      <c r="AI51" s="173"/>
+      <c r="AI51" s="184"/>
       <c r="AO51">
         <f t="shared" si="82"/>
         <v>0</v>
@@ -8500,7 +9163,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="20:59">
+    <row r="52" spans="20:59" x14ac:dyDescent="0.25">
       <c r="T52" s="12" t="s">
         <v>1</v>
       </c>
@@ -8543,7 +9206,7 @@
         <f>'4_VV'!Z9</f>
         <v>VV 3.1</v>
       </c>
-      <c r="AI52" s="173">
+      <c r="AI52" s="184">
         <f>'4_VV'!AA9</f>
         <v>18</v>
       </c>
@@ -8624,7 +9287,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="53" spans="20:59">
+    <row r="53" spans="20:59" x14ac:dyDescent="0.25">
       <c r="T53" s="15" t="s">
         <v>2</v>
       </c>
@@ -8667,7 +9330,7 @@
         <f>'4_VV'!Z10</f>
         <v>0</v>
       </c>
-      <c r="AI53" s="173"/>
+      <c r="AI53" s="184"/>
       <c r="AO53">
         <f t="shared" si="82"/>
         <v>0</v>
@@ -8745,7 +9408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="20:59">
+    <row r="54" spans="20:59" x14ac:dyDescent="0.25">
       <c r="T54" s="15" t="s">
         <v>3</v>
       </c>
@@ -8788,7 +9451,7 @@
         <f>'4_VV'!Z11</f>
         <v>VV 3.1</v>
       </c>
-      <c r="AI54" s="173">
+      <c r="AI54" s="184">
         <f>'4_VV'!AA11</f>
         <v>18</v>
       </c>
@@ -8869,17 +9532,17 @@
         <v>18</v>
       </c>
     </row>
-    <row r="55" spans="20:59">
+    <row r="55" spans="20:59" x14ac:dyDescent="0.25">
       <c r="T55" s="15" t="s">
         <v>4</v>
       </c>
       <c r="U55" s="16">
         <f>K38</f>
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="V55" s="17">
         <f t="shared" si="85"/>
-        <v>3555</v>
+        <v>3525</v>
       </c>
       <c r="W55">
         <v>15</v>
@@ -8912,7 +9575,7 @@
         <f>'4_VV'!Z12</f>
         <v>0</v>
       </c>
-      <c r="AI55" s="173"/>
+      <c r="AI55" s="184"/>
       <c r="AO55">
         <f t="shared" si="82"/>
         <v>0</v>
@@ -8990,17 +9653,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="20:59">
+    <row r="56" spans="20:59" x14ac:dyDescent="0.25">
       <c r="T56" s="15" t="s">
         <v>5</v>
       </c>
       <c r="U56" s="16">
         <f>N38</f>
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="V56" s="17">
         <f t="shared" si="85"/>
-        <v>5302</v>
+        <v>5346</v>
       </c>
       <c r="W56">
         <v>22</v>
@@ -9033,7 +9696,7 @@
         <f>'4_VV'!Z13</f>
         <v>VV 3.1</v>
       </c>
-      <c r="AI56" s="173">
+      <c r="AI56" s="184">
         <f>'4_VV'!AA13</f>
         <v>18</v>
       </c>
@@ -9114,7 +9777,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="57" spans="20:59" ht="15.75" thickBot="1">
+    <row r="57" spans="20:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="T57" s="22" t="s">
         <v>6</v>
       </c>
@@ -9157,7 +9820,7 @@
         <f>'4_VV'!Z14</f>
         <v>0</v>
       </c>
-      <c r="AI57" s="173"/>
+      <c r="AI57" s="184"/>
       <c r="AO57">
         <f t="shared" si="82"/>
         <v>0</v>
@@ -9235,7 +9898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="20:59" ht="15.75" thickBot="1">
+    <row r="58" spans="20:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="T58" s="1" t="s">
         <v>14</v>
       </c>
@@ -9245,7 +9908,7 @@
       </c>
       <c r="V58" s="25">
         <f>SUM(V52:V57)</f>
-        <v>16472</v>
+        <v>16486</v>
       </c>
       <c r="AB58" s="31" t="str">
         <f>'4_VV'!T15</f>
@@ -9275,7 +9938,7 @@
         <f>'4_VV'!Z15</f>
         <v>VV 3.1</v>
       </c>
-      <c r="AI58" s="173">
+      <c r="AI58" s="184">
         <f>'4_VV'!AA15</f>
         <v>18</v>
       </c>
@@ -9356,7 +10019,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="59" spans="20:59">
+    <row r="59" spans="20:59" x14ac:dyDescent="0.25">
       <c r="AB59" s="31">
         <f>'4_VV'!T16</f>
         <v>0</v>
@@ -9385,7 +10048,7 @@
         <f>'4_VV'!Z16</f>
         <v>0</v>
       </c>
-      <c r="AI59" s="173"/>
+      <c r="AI59" s="184"/>
       <c r="AO59">
         <f t="shared" si="82"/>
         <v>0</v>
@@ -9463,7 +10126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="20:59">
+    <row r="60" spans="20:59" x14ac:dyDescent="0.25">
       <c r="AB60" s="47" t="str">
         <f>'4_VV'!T17</f>
         <v>Maggiolo Giorgio</v>
@@ -9492,7 +10155,7 @@
         <f>'4_VV'!Z17</f>
         <v>VV 3.1</v>
       </c>
-      <c r="AI60" s="173">
+      <c r="AI60" s="184">
         <f>'4_VV'!AA17</f>
         <v>16</v>
       </c>
@@ -9573,7 +10236,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="61" spans="20:59" ht="15.75" thickBot="1">
+    <row r="61" spans="20:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AB61" s="63">
         <f>'4_VV'!T18</f>
         <v>0</v>
@@ -9602,7 +10265,7 @@
         <f>'4_VV'!Z18</f>
         <v>0</v>
       </c>
-      <c r="AI61" s="174"/>
+      <c r="AI61" s="198"/>
       <c r="AO61">
         <f t="shared" si="82"/>
         <v>0</v>
@@ -9682,22 +10345,78 @@
     </row>
   </sheetData>
   <mergeCells count="112">
-    <mergeCell ref="U38:U39"/>
-    <mergeCell ref="U34:U35"/>
-    <mergeCell ref="U32:U33"/>
-    <mergeCell ref="U30:U31"/>
-    <mergeCell ref="U28:U29"/>
-    <mergeCell ref="U26:U27"/>
-    <mergeCell ref="U24:U25"/>
-    <mergeCell ref="U36:U37"/>
-    <mergeCell ref="T26:T27"/>
-    <mergeCell ref="T24:T25"/>
-    <mergeCell ref="T34:T35"/>
-    <mergeCell ref="T32:T33"/>
-    <mergeCell ref="T30:T31"/>
-    <mergeCell ref="T28:T29"/>
-    <mergeCell ref="T38:T39"/>
-    <mergeCell ref="T36:T37"/>
+    <mergeCell ref="AI43:AI44"/>
+    <mergeCell ref="AC46:AE46"/>
+    <mergeCell ref="AF46:AH46"/>
+    <mergeCell ref="AI46:AI47"/>
+    <mergeCell ref="AI60:AI61"/>
+    <mergeCell ref="AI48:AI49"/>
+    <mergeCell ref="AI50:AI51"/>
+    <mergeCell ref="AI52:AI53"/>
+    <mergeCell ref="AI54:AI55"/>
+    <mergeCell ref="AI56:AI57"/>
+    <mergeCell ref="AI58:AI59"/>
+    <mergeCell ref="AI41:AI42"/>
+    <mergeCell ref="AL24:AL25"/>
+    <mergeCell ref="AL26:AL27"/>
+    <mergeCell ref="AC29:AE29"/>
+    <mergeCell ref="AF29:AH29"/>
+    <mergeCell ref="AI29:AI30"/>
+    <mergeCell ref="AI31:AI32"/>
+    <mergeCell ref="AI33:AI34"/>
+    <mergeCell ref="AI35:AI36"/>
+    <mergeCell ref="AI37:AI38"/>
+    <mergeCell ref="AI39:AI40"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="H24:J25"/>
+    <mergeCell ref="E24:G25"/>
+    <mergeCell ref="B24:D25"/>
+    <mergeCell ref="AL22:AL23"/>
+    <mergeCell ref="AC2:AE2"/>
+    <mergeCell ref="AF2:AH2"/>
+    <mergeCell ref="AI2:AI3"/>
+    <mergeCell ref="AC12:AE12"/>
+    <mergeCell ref="AF12:AH12"/>
+    <mergeCell ref="AI12:AK12"/>
+    <mergeCell ref="AL12:AL13"/>
+    <mergeCell ref="AL14:AL15"/>
+    <mergeCell ref="AL16:AL17"/>
+    <mergeCell ref="AL18:AL19"/>
+    <mergeCell ref="AL20:AL21"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="Q23:S23"/>
+    <mergeCell ref="N23:P23"/>
+    <mergeCell ref="K23:M23"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:D27"/>
+    <mergeCell ref="E26:G27"/>
+    <mergeCell ref="H26:J27"/>
+    <mergeCell ref="K26:M27"/>
+    <mergeCell ref="E30:G31"/>
+    <mergeCell ref="H30:J31"/>
+    <mergeCell ref="K30:M31"/>
+    <mergeCell ref="N26:P27"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="K32:M33"/>
+    <mergeCell ref="N32:P33"/>
+    <mergeCell ref="Q32:S33"/>
+    <mergeCell ref="Q24:S25"/>
+    <mergeCell ref="N24:P25"/>
+    <mergeCell ref="K24:M25"/>
+    <mergeCell ref="B32:D33"/>
+    <mergeCell ref="E32:G33"/>
+    <mergeCell ref="H32:J33"/>
+    <mergeCell ref="Q26:S27"/>
+    <mergeCell ref="K28:M29"/>
+    <mergeCell ref="N28:P29"/>
+    <mergeCell ref="Q28:S29"/>
+    <mergeCell ref="B30:D31"/>
+    <mergeCell ref="B28:D29"/>
+    <mergeCell ref="E28:G29"/>
+    <mergeCell ref="H28:J29"/>
     <mergeCell ref="A38:A39"/>
     <mergeCell ref="B38:D39"/>
     <mergeCell ref="E38:G39"/>
@@ -9722,78 +10441,22 @@
     <mergeCell ref="N36:P37"/>
     <mergeCell ref="Q36:S37"/>
     <mergeCell ref="Q34:S35"/>
-    <mergeCell ref="K32:M33"/>
-    <mergeCell ref="N32:P33"/>
-    <mergeCell ref="Q32:S33"/>
-    <mergeCell ref="Q24:S25"/>
-    <mergeCell ref="N24:P25"/>
-    <mergeCell ref="K24:M25"/>
-    <mergeCell ref="B32:D33"/>
-    <mergeCell ref="E32:G33"/>
-    <mergeCell ref="H32:J33"/>
-    <mergeCell ref="Q26:S27"/>
-    <mergeCell ref="K28:M29"/>
-    <mergeCell ref="N28:P29"/>
-    <mergeCell ref="Q28:S29"/>
-    <mergeCell ref="B30:D31"/>
-    <mergeCell ref="B28:D29"/>
-    <mergeCell ref="E28:G29"/>
-    <mergeCell ref="H28:J29"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:D27"/>
-    <mergeCell ref="E26:G27"/>
-    <mergeCell ref="H26:J27"/>
-    <mergeCell ref="K26:M27"/>
-    <mergeCell ref="E30:G31"/>
-    <mergeCell ref="H30:J31"/>
-    <mergeCell ref="K30:M31"/>
-    <mergeCell ref="N26:P27"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="H24:J25"/>
-    <mergeCell ref="E24:G25"/>
-    <mergeCell ref="B24:D25"/>
-    <mergeCell ref="AL22:AL23"/>
-    <mergeCell ref="AC2:AE2"/>
-    <mergeCell ref="AF2:AH2"/>
-    <mergeCell ref="AI2:AI3"/>
-    <mergeCell ref="AC12:AE12"/>
-    <mergeCell ref="AF12:AH12"/>
-    <mergeCell ref="AI12:AK12"/>
-    <mergeCell ref="AL12:AL13"/>
-    <mergeCell ref="AL14:AL15"/>
-    <mergeCell ref="AL16:AL17"/>
-    <mergeCell ref="AL18:AL19"/>
-    <mergeCell ref="AL20:AL21"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="Q23:S23"/>
-    <mergeCell ref="N23:P23"/>
-    <mergeCell ref="K23:M23"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="AI41:AI42"/>
-    <mergeCell ref="AL24:AL25"/>
-    <mergeCell ref="AL26:AL27"/>
-    <mergeCell ref="AC29:AE29"/>
-    <mergeCell ref="AF29:AH29"/>
-    <mergeCell ref="AI29:AI30"/>
-    <mergeCell ref="AI31:AI32"/>
-    <mergeCell ref="AI33:AI34"/>
-    <mergeCell ref="AI35:AI36"/>
-    <mergeCell ref="AI37:AI38"/>
-    <mergeCell ref="AI39:AI40"/>
-    <mergeCell ref="AI43:AI44"/>
-    <mergeCell ref="AC46:AE46"/>
-    <mergeCell ref="AF46:AH46"/>
-    <mergeCell ref="AI46:AI47"/>
-    <mergeCell ref="AI60:AI61"/>
-    <mergeCell ref="AI48:AI49"/>
-    <mergeCell ref="AI50:AI51"/>
-    <mergeCell ref="AI52:AI53"/>
-    <mergeCell ref="AI54:AI55"/>
-    <mergeCell ref="AI56:AI57"/>
-    <mergeCell ref="AI58:AI59"/>
+    <mergeCell ref="U38:U39"/>
+    <mergeCell ref="U34:U35"/>
+    <mergeCell ref="U32:U33"/>
+    <mergeCell ref="U30:U31"/>
+    <mergeCell ref="U28:U29"/>
+    <mergeCell ref="U26:U27"/>
+    <mergeCell ref="U24:U25"/>
+    <mergeCell ref="U36:U37"/>
+    <mergeCell ref="T26:T27"/>
+    <mergeCell ref="T24:T25"/>
+    <mergeCell ref="T34:T35"/>
+    <mergeCell ref="T32:T33"/>
+    <mergeCell ref="T30:T31"/>
+    <mergeCell ref="T28:T29"/>
+    <mergeCell ref="T38:T39"/>
+    <mergeCell ref="T36:T37"/>
   </mergeCells>
   <conditionalFormatting sqref="AB14:AL27">
     <cfRule type="cellIs" dxfId="25" priority="5" operator="equal">
@@ -9824,14 +10487,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BH61"/>
   <sheetViews>
     <sheetView topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="T38" sqref="B24:T39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.85546875" customWidth="1"/>
     <col min="2" max="3" width="3.42578125" customWidth="1"/>
@@ -9853,7 +10516,7 @@
     <col min="41" max="58" width="3.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60" ht="15.75" thickBot="1">
+    <row r="1" spans="1:60" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="147"/>
       <c r="B1" s="148"/>
       <c r="C1" s="148"/>
@@ -9877,7 +10540,7 @@
       <c r="U1" s="148"/>
       <c r="V1" s="147"/>
     </row>
-    <row r="2" spans="1:60">
+    <row r="2" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A2" s="147"/>
       <c r="B2" s="148"/>
       <c r="C2" s="148"/>
@@ -9910,7 +10573,7 @@
       <c r="AF2" s="185"/>
       <c r="AG2" s="186"/>
       <c r="AH2" s="186"/>
-      <c r="AI2" s="179"/>
+      <c r="AI2" s="188"/>
       <c r="AJ2">
         <f>SUM(AI4:AI10)</f>
         <v>0</v>
@@ -9970,7 +10633,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:60" ht="15.75" thickBot="1">
+    <row r="3" spans="1:60" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="147"/>
       <c r="B3" s="148"/>
       <c r="C3" s="148"/>
@@ -10000,9 +10663,9 @@
       <c r="AF3" s="104"/>
       <c r="AG3" s="105"/>
       <c r="AH3" s="107"/>
-      <c r="AI3" s="180"/>
-    </row>
-    <row r="4" spans="1:60">
+      <c r="AI3" s="189"/>
+    </row>
+    <row r="4" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A4" s="147"/>
       <c r="B4" s="148"/>
       <c r="C4" s="148"/>
@@ -10090,7 +10753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:60">
+    <row r="5" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A5" s="147"/>
       <c r="B5" s="148"/>
       <c r="C5" s="148"/>
@@ -10178,7 +10841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:60">
+    <row r="6" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A6" s="147"/>
       <c r="B6" s="148"/>
       <c r="C6" s="148"/>
@@ -10266,7 +10929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:60">
+    <row r="7" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A7" s="147"/>
       <c r="B7" s="148"/>
       <c r="C7" s="148"/>
@@ -10354,7 +11017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:60">
+    <row r="8" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A8" s="147"/>
       <c r="B8" s="148"/>
       <c r="C8" s="148"/>
@@ -10442,7 +11105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:60">
+    <row r="9" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A9" s="147"/>
       <c r="B9" s="148"/>
       <c r="C9" s="148"/>
@@ -10530,7 +11193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:60" ht="15.75" thickBot="1">
+    <row r="10" spans="1:60" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AB10" s="122"/>
       <c r="AC10" s="123"/>
       <c r="AD10" s="124"/>
@@ -10600,13 +11263,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:60" ht="15.75" thickBot="1">
+    <row r="11" spans="1:60" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="BG11" s="158">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:60">
+    <row r="12" spans="1:60" x14ac:dyDescent="0.25">
       <c r="AA12" t="s">
         <v>123</v>
       </c>
@@ -10617,21 +11280,21 @@
         <f>'2_PA'!V9</f>
         <v>I Periodo</v>
       </c>
-      <c r="AD12" s="188"/>
-      <c r="AE12" s="189"/>
-      <c r="AF12" s="175" t="str">
+      <c r="AD12" s="190"/>
+      <c r="AE12" s="191"/>
+      <c r="AF12" s="192" t="str">
         <f>'2_PA'!Y9</f>
         <v>II Periodo</v>
       </c>
-      <c r="AG12" s="176"/>
-      <c r="AH12" s="177"/>
-      <c r="AI12" s="175" t="str">
+      <c r="AG12" s="193"/>
+      <c r="AH12" s="194"/>
+      <c r="AI12" s="192" t="str">
         <f>'2_PA'!AB9</f>
         <v>III Periodo</v>
       </c>
-      <c r="AJ12" s="176"/>
-      <c r="AK12" s="178"/>
-      <c r="AL12" s="179" t="str">
+      <c r="AJ12" s="193"/>
+      <c r="AK12" s="195"/>
+      <c r="AL12" s="188" t="str">
         <f>'2_PA'!AE9</f>
         <v>Totale</v>
       </c>
@@ -10640,7 +11303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:60" ht="15.75" thickBot="1">
+    <row r="13" spans="1:60" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AB13" s="150"/>
       <c r="AC13" s="26" t="str">
         <f>'2_PA'!V10</f>
@@ -10678,7 +11341,7 @@
         <f>'2_PA'!AD10</f>
         <v>Fase</v>
       </c>
-      <c r="AL13" s="180"/>
+      <c r="AL13" s="189"/>
       <c r="AM13">
         <f>SUM(AL14:AL27)</f>
         <v>193</v>
@@ -10688,7 +11351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:60">
+    <row r="14" spans="1:60" x14ac:dyDescent="0.25">
       <c r="AB14" s="31" t="str">
         <f>'2_PA'!U11</f>
         <v>Begolo Marco</v>
@@ -10729,7 +11392,7 @@
         <f>'2_PA'!AD11</f>
         <v>PA 3.2</v>
       </c>
-      <c r="AL14" s="181">
+      <c r="AL14" s="196">
         <f>'2_PA'!AE11</f>
         <v>26</v>
       </c>
@@ -10814,7 +11477,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="15" spans="1:60">
+    <row r="15" spans="1:60" x14ac:dyDescent="0.25">
       <c r="AB15" s="35">
         <f>'2_PA'!U12</f>
         <v>0</v>
@@ -10855,7 +11518,7 @@
         <f>'2_PA'!AD12</f>
         <v>0</v>
       </c>
-      <c r="AL15" s="173"/>
+      <c r="AL15" s="184"/>
       <c r="AO15">
         <f>IF($AC15=AO$2,$AD15,0)</f>
         <v>0</v>
@@ -10933,7 +11596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:60">
+    <row r="16" spans="1:60" x14ac:dyDescent="0.25">
       <c r="AB16" s="31" t="str">
         <f>'2_PA'!U13</f>
         <v>Facchin Gabriele</v>
@@ -10956,7 +11619,7 @@
       </c>
       <c r="AG16" s="33">
         <f>'2_PA'!Z13</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AH16" s="34" t="str">
         <f>'2_PA'!AA13</f>
@@ -10974,9 +11637,9 @@
         <f>'2_PA'!AD13</f>
         <v>PA 3.2</v>
       </c>
-      <c r="AL16" s="173">
+      <c r="AL16" s="184">
         <f>'2_PA'!AE13</f>
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AO16">
         <f t="shared" ref="AO16:AO27" si="29">IF($AC16=AO$2,$AD16,0)</f>
@@ -11020,7 +11683,7 @@
       </c>
       <c r="AY16">
         <f t="shared" si="15"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AZ16">
         <f t="shared" si="16"/>
@@ -11052,10 +11715,10 @@
       </c>
       <c r="BG16" s="158">
         <f t="shared" si="13"/>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:60">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:60" x14ac:dyDescent="0.25">
       <c r="AB17" s="31">
         <f>'2_PA'!U14</f>
         <v>0</v>
@@ -11096,7 +11759,7 @@
         <f>'2_PA'!AD14</f>
         <v>0</v>
       </c>
-      <c r="AL17" s="173"/>
+      <c r="AL17" s="184"/>
       <c r="AO17">
         <f t="shared" si="29"/>
         <v>0</v>
@@ -11174,7 +11837,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:60">
+    <row r="18" spans="1:60" x14ac:dyDescent="0.25">
       <c r="AB18" s="47" t="str">
         <f>'2_PA'!U15</f>
         <v>Cornaglia Alessando</v>
@@ -11215,7 +11878,7 @@
         <f>'2_PA'!AD15</f>
         <v>PA 3.3</v>
       </c>
-      <c r="AL18" s="173">
+      <c r="AL18" s="184">
         <f>'2_PA'!AE15</f>
         <v>26</v>
       </c>
@@ -11296,7 +11959,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:60">
+    <row r="19" spans="1:60" x14ac:dyDescent="0.25">
       <c r="AB19" s="35">
         <f>'2_PA'!U16</f>
         <v>0</v>
@@ -11337,7 +12000,7 @@
         <f>'2_PA'!AD16</f>
         <v>PA 6.1</v>
       </c>
-      <c r="AL19" s="173"/>
+      <c r="AL19" s="184"/>
       <c r="AO19">
         <f t="shared" si="29"/>
         <v>0</v>
@@ -11415,7 +12078,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:60">
+    <row r="20" spans="1:60" x14ac:dyDescent="0.25">
       <c r="AB20" s="31" t="str">
         <f>'2_PA'!U17</f>
         <v>Dalla Pietà Massimo</v>
@@ -11456,7 +12119,7 @@
         <f>'2_PA'!AD17</f>
         <v>PA 3.3</v>
       </c>
-      <c r="AL20" s="173">
+      <c r="AL20" s="184">
         <f>'2_PA'!AE17</f>
         <v>28</v>
       </c>
@@ -11537,7 +12200,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:60">
+    <row r="21" spans="1:60" x14ac:dyDescent="0.25">
       <c r="AB21" s="31">
         <f>'2_PA'!U18</f>
         <v>0</v>
@@ -11578,7 +12241,7 @@
         <f>'2_PA'!AD18</f>
         <v>PA 6.2</v>
       </c>
-      <c r="AL21" s="173"/>
+      <c r="AL21" s="184"/>
       <c r="AO21">
         <f t="shared" si="29"/>
         <v>0</v>
@@ -11656,7 +12319,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:60">
+    <row r="22" spans="1:60" x14ac:dyDescent="0.25">
       <c r="AB22" s="47" t="str">
         <f>'2_PA'!U19</f>
         <v>Braghetto Lorenzo</v>
@@ -11697,7 +12360,7 @@
         <f>'2_PA'!AD19</f>
         <v>PA 5.1</v>
       </c>
-      <c r="AL22" s="173">
+      <c r="AL22" s="184">
         <f>'2_PA'!AE19</f>
         <v>30</v>
       </c>
@@ -11778,40 +12441,40 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:60">
+    <row r="23" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A23" s="156" t="s">
         <v>0</v>
       </c>
-      <c r="B23" s="190" t="s">
+      <c r="B23" s="197" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="190"/>
-      <c r="D23" s="190"/>
-      <c r="E23" s="190" t="s">
+      <c r="C23" s="197"/>
+      <c r="D23" s="197"/>
+      <c r="E23" s="197" t="s">
         <v>2</v>
       </c>
-      <c r="F23" s="190"/>
-      <c r="G23" s="190"/>
-      <c r="H23" s="190" t="s">
+      <c r="F23" s="197"/>
+      <c r="G23" s="197"/>
+      <c r="H23" s="197" t="s">
         <v>3</v>
       </c>
-      <c r="I23" s="190"/>
-      <c r="J23" s="190"/>
-      <c r="K23" s="190" t="s">
+      <c r="I23" s="197"/>
+      <c r="J23" s="197"/>
+      <c r="K23" s="197" t="s">
         <v>4</v>
       </c>
-      <c r="L23" s="190"/>
-      <c r="M23" s="190"/>
-      <c r="N23" s="190" t="s">
+      <c r="L23" s="197"/>
+      <c r="M23" s="197"/>
+      <c r="N23" s="197" t="s">
         <v>5</v>
       </c>
-      <c r="O23" s="190"/>
-      <c r="P23" s="190"/>
-      <c r="Q23" s="190" t="s">
+      <c r="O23" s="197"/>
+      <c r="P23" s="197"/>
+      <c r="Q23" s="197" t="s">
         <v>6</v>
       </c>
-      <c r="R23" s="190"/>
-      <c r="S23" s="190"/>
+      <c r="R23" s="197"/>
+      <c r="S23" s="197"/>
       <c r="T23" s="156" t="s">
         <v>14</v>
       </c>
@@ -11856,7 +12519,7 @@
         <f>'2_PA'!AD20</f>
         <v>0</v>
       </c>
-      <c r="AL23" s="173"/>
+      <c r="AL23" s="184"/>
       <c r="AO23">
         <f t="shared" si="29"/>
         <v>0</v>
@@ -11934,51 +12597,51 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:60">
-      <c r="A24" s="182" t="s">
+    <row r="24" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A24" s="183" t="s">
         <v>7</v>
       </c>
-      <c r="B24" s="184">
+      <c r="B24" s="181">
         <f>SUM(AO4:AQ4,AO14:AQ15,AO31:AQ32,AO48:AQ49)</f>
         <v>4</v>
       </c>
-      <c r="C24" s="184"/>
-      <c r="D24" s="184"/>
-      <c r="E24" s="184">
+      <c r="C24" s="181"/>
+      <c r="D24" s="181"/>
+      <c r="E24" s="181">
         <f>SUM(AR4:AT4,AR14:AT15,AR31:AT32,AR48:AT49)</f>
         <v>10</v>
       </c>
-      <c r="F24" s="184"/>
-      <c r="G24" s="184"/>
-      <c r="H24" s="183">
+      <c r="F24" s="181"/>
+      <c r="G24" s="181"/>
+      <c r="H24" s="182">
         <f>SUM(AU4:AW4,AU14:AW15,AU31:AW32,AU48:AW49)</f>
         <v>9</v>
       </c>
-      <c r="I24" s="183"/>
-      <c r="J24" s="183"/>
-      <c r="K24" s="184">
+      <c r="I24" s="182"/>
+      <c r="J24" s="182"/>
+      <c r="K24" s="181">
         <f>SUM(AX4:AZ4,AX14:AZ15,AX31:AZ32,AX48:AZ49)</f>
         <v>10</v>
       </c>
-      <c r="L24" s="184"/>
-      <c r="M24" s="184"/>
-      <c r="N24" s="183">
+      <c r="L24" s="181"/>
+      <c r="M24" s="181"/>
+      <c r="N24" s="182">
         <f>SUM(BA4:BC4,BA14:BC15,BA31:BC32,BA48:BC49)</f>
         <v>59</v>
       </c>
-      <c r="O24" s="183"/>
-      <c r="P24" s="183"/>
-      <c r="Q24" s="184">
+      <c r="O24" s="182"/>
+      <c r="P24" s="182"/>
+      <c r="Q24" s="181">
         <f>SUM(BD4:BF4,BD14:BF15,BD31:BF32,BD48:BF49)</f>
         <v>4</v>
       </c>
-      <c r="R24" s="184"/>
-      <c r="S24" s="184"/>
-      <c r="T24" s="184">
+      <c r="R24" s="181"/>
+      <c r="S24" s="181"/>
+      <c r="T24" s="181">
         <f t="shared" ref="T24" si="32">SUM(B24:S25)</f>
         <v>96</v>
       </c>
-      <c r="U24" s="192"/>
+      <c r="U24" s="177"/>
       <c r="AB24" s="31" t="str">
         <f>'2_PA'!U21</f>
         <v>Quadrio Giacomo</v>
@@ -12019,7 +12682,7 @@
         <f>'2_PA'!AD21</f>
         <v>PA 5.1, 6.2</v>
       </c>
-      <c r="AL24" s="173">
+      <c r="AL24" s="184">
         <f>'2_PA'!AE21</f>
         <v>28</v>
       </c>
@@ -12100,28 +12763,28 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:60">
-      <c r="A25" s="182"/>
-      <c r="B25" s="184"/>
-      <c r="C25" s="184"/>
-      <c r="D25" s="184"/>
-      <c r="E25" s="184"/>
-      <c r="F25" s="184"/>
-      <c r="G25" s="184"/>
-      <c r="H25" s="183"/>
-      <c r="I25" s="183"/>
-      <c r="J25" s="183"/>
-      <c r="K25" s="184"/>
-      <c r="L25" s="184"/>
-      <c r="M25" s="184"/>
-      <c r="N25" s="183"/>
-      <c r="O25" s="183"/>
-      <c r="P25" s="183"/>
-      <c r="Q25" s="184"/>
-      <c r="R25" s="184"/>
-      <c r="S25" s="184"/>
-      <c r="T25" s="184"/>
-      <c r="U25" s="192"/>
+    <row r="25" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A25" s="183"/>
+      <c r="B25" s="181"/>
+      <c r="C25" s="181"/>
+      <c r="D25" s="181"/>
+      <c r="E25" s="181"/>
+      <c r="F25" s="181"/>
+      <c r="G25" s="181"/>
+      <c r="H25" s="182"/>
+      <c r="I25" s="182"/>
+      <c r="J25" s="182"/>
+      <c r="K25" s="181"/>
+      <c r="L25" s="181"/>
+      <c r="M25" s="181"/>
+      <c r="N25" s="182"/>
+      <c r="O25" s="182"/>
+      <c r="P25" s="182"/>
+      <c r="Q25" s="181"/>
+      <c r="R25" s="181"/>
+      <c r="S25" s="181"/>
+      <c r="T25" s="181"/>
+      <c r="U25" s="177"/>
       <c r="AB25" s="31">
         <f>'2_PA'!U22</f>
         <v>0</v>
@@ -12162,7 +12825,7 @@
         <f>'2_PA'!AD22</f>
         <v>0</v>
       </c>
-      <c r="AL25" s="173"/>
+      <c r="AL25" s="184"/>
       <c r="AO25">
         <f t="shared" si="29"/>
         <v>0</v>
@@ -12240,51 +12903,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:60">
-      <c r="A26" s="182" t="s">
+    <row r="26" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A26" s="183" t="s">
         <v>11</v>
       </c>
-      <c r="B26" s="184">
+      <c r="B26" s="181">
         <f>SUM(AO5:AQ5,AO16:AQ17,AO33:AQ34,AO50:AQ51)</f>
         <v>13</v>
       </c>
-      <c r="C26" s="184"/>
-      <c r="D26" s="184"/>
-      <c r="E26" s="184">
+      <c r="C26" s="181"/>
+      <c r="D26" s="181"/>
+      <c r="E26" s="181">
         <f>SUM(AR5:AT5,AR16:AT17,AR33:AT34,AR50:AT51)</f>
         <v>10</v>
       </c>
-      <c r="F26" s="184"/>
-      <c r="G26" s="184"/>
-      <c r="H26" s="184">
+      <c r="F26" s="181"/>
+      <c r="G26" s="181"/>
+      <c r="H26" s="181">
         <f>SUM(AU5:AW5,AU16:AW17,AU33:AW34,AU50:AW51)</f>
         <v>0</v>
       </c>
-      <c r="I26" s="184"/>
-      <c r="J26" s="184"/>
-      <c r="K26" s="183">
+      <c r="I26" s="181"/>
+      <c r="J26" s="181"/>
+      <c r="K26" s="182">
         <f>SUM(AX5:AZ5,AX16:AZ17,AX33:AZ34,AX50:AZ51)</f>
-        <v>35</v>
-      </c>
-      <c r="L26" s="183"/>
-      <c r="M26" s="183"/>
-      <c r="N26" s="184">
+        <v>33</v>
+      </c>
+      <c r="L26" s="182"/>
+      <c r="M26" s="182"/>
+      <c r="N26" s="181">
         <f>SUM(BA5:BC5,BA16:BC17,BA33:BC34,BA50:BC51)</f>
         <v>29</v>
       </c>
-      <c r="O26" s="184"/>
-      <c r="P26" s="184"/>
-      <c r="Q26" s="184">
+      <c r="O26" s="181"/>
+      <c r="P26" s="181"/>
+      <c r="Q26" s="181">
         <f>SUM(BD5:BF5,BD16:BF17,BD33:BF34,BD50:BF51)</f>
         <v>12</v>
       </c>
-      <c r="R26" s="184"/>
-      <c r="S26" s="184"/>
-      <c r="T26" s="184">
+      <c r="R26" s="181"/>
+      <c r="S26" s="181"/>
+      <c r="T26" s="181">
         <f t="shared" ref="T26" si="33">SUM(B26:S27)</f>
-        <v>99</v>
-      </c>
-      <c r="U26" s="192"/>
+        <v>97</v>
+      </c>
+      <c r="U26" s="177"/>
       <c r="AB26" s="47" t="str">
         <f>'2_PA'!U23</f>
         <v>Maggiolo Giorgio</v>
@@ -12307,7 +12970,7 @@
       </c>
       <c r="AG26" s="49">
         <f>'2_PA'!Z23</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AH26" s="50" t="str">
         <f>'2_PA'!AA23</f>
@@ -12325,9 +12988,9 @@
         <f>'2_PA'!AD23</f>
         <v>PA 3.3</v>
       </c>
-      <c r="AL26" s="173">
+      <c r="AL26" s="184">
         <f>'2_PA'!AE23</f>
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AO26">
         <f t="shared" si="29"/>
@@ -12383,7 +13046,7 @@
       </c>
       <c r="BB26">
         <f t="shared" si="15"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BC26">
         <f t="shared" si="16"/>
@@ -12403,31 +13066,31 @@
       </c>
       <c r="BG26" s="158">
         <f t="shared" si="13"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:60" ht="15.75" thickBot="1">
-      <c r="A27" s="182"/>
-      <c r="B27" s="184"/>
-      <c r="C27" s="184"/>
-      <c r="D27" s="184"/>
-      <c r="E27" s="184"/>
-      <c r="F27" s="184"/>
-      <c r="G27" s="184"/>
-      <c r="H27" s="184"/>
-      <c r="I27" s="184"/>
-      <c r="J27" s="184"/>
-      <c r="K27" s="183"/>
-      <c r="L27" s="183"/>
-      <c r="M27" s="183"/>
-      <c r="N27" s="184"/>
-      <c r="O27" s="184"/>
-      <c r="P27" s="184"/>
-      <c r="Q27" s="184"/>
-      <c r="R27" s="184"/>
-      <c r="S27" s="184"/>
-      <c r="T27" s="184"/>
-      <c r="U27" s="192"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:60" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="183"/>
+      <c r="B27" s="181"/>
+      <c r="C27" s="181"/>
+      <c r="D27" s="181"/>
+      <c r="E27" s="181"/>
+      <c r="F27" s="181"/>
+      <c r="G27" s="181"/>
+      <c r="H27" s="181"/>
+      <c r="I27" s="181"/>
+      <c r="J27" s="181"/>
+      <c r="K27" s="182"/>
+      <c r="L27" s="182"/>
+      <c r="M27" s="182"/>
+      <c r="N27" s="181"/>
+      <c r="O27" s="181"/>
+      <c r="P27" s="181"/>
+      <c r="Q27" s="181"/>
+      <c r="R27" s="181"/>
+      <c r="S27" s="181"/>
+      <c r="T27" s="181"/>
+      <c r="U27" s="177"/>
       <c r="AB27" s="63">
         <f>'2_PA'!U24</f>
         <v>0</v>
@@ -12468,7 +13131,7 @@
         <f>'2_PA'!AD24</f>
         <v>PA 5.1</v>
       </c>
-      <c r="AL27" s="174"/>
+      <c r="AL27" s="198"/>
       <c r="AO27">
         <f t="shared" si="29"/>
         <v>0</v>
@@ -12546,97 +13209,97 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:60" ht="15.75" thickBot="1">
-      <c r="A28" s="182" t="s">
+    <row r="28" spans="1:60" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="183" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="184">
+      <c r="B28" s="181">
         <f>SUM(AO6:AQ6,AO18:AQ19,AO35:AQ36,AO52:AQ53)</f>
         <v>10</v>
       </c>
-      <c r="C28" s="184"/>
-      <c r="D28" s="184"/>
-      <c r="E28" s="184">
+      <c r="C28" s="181"/>
+      <c r="D28" s="181"/>
+      <c r="E28" s="181">
         <f>SUM(AR6:AT6,AR18:AT19,AR35:AT36,AR52:AT53)</f>
         <v>4</v>
       </c>
-      <c r="F28" s="184"/>
-      <c r="G28" s="184"/>
-      <c r="H28" s="184">
+      <c r="F28" s="181"/>
+      <c r="G28" s="181"/>
+      <c r="H28" s="181">
         <f>SUM(AU6:AW6,AU18:AW19,AU35:AW36,AU52:AW53)</f>
         <v>2</v>
       </c>
-      <c r="I28" s="184"/>
-      <c r="J28" s="184"/>
-      <c r="K28" s="184">
+      <c r="I28" s="181"/>
+      <c r="J28" s="181"/>
+      <c r="K28" s="181">
         <f>SUM(AX6:AZ6,AX18:AZ19,AX35:AZ36,AX52:AZ53)</f>
         <v>27</v>
       </c>
-      <c r="L28" s="184"/>
-      <c r="M28" s="184"/>
-      <c r="N28" s="184">
+      <c r="L28" s="181"/>
+      <c r="M28" s="181"/>
+      <c r="N28" s="181">
         <f>SUM(BA6:BC6,BA18:BC19,BA35:BC36,BA52:BC53)</f>
         <v>33</v>
       </c>
-      <c r="O28" s="184"/>
-      <c r="P28" s="184"/>
-      <c r="Q28" s="183">
+      <c r="O28" s="181"/>
+      <c r="P28" s="181"/>
+      <c r="Q28" s="182">
         <f>SUM(BD6:BF6,BD18:BF19,BD35:BF36,BD52:BF53)</f>
         <v>20</v>
       </c>
-      <c r="R28" s="183"/>
-      <c r="S28" s="183"/>
-      <c r="T28" s="184">
+      <c r="R28" s="182"/>
+      <c r="S28" s="182"/>
+      <c r="T28" s="181">
         <f t="shared" ref="T28" si="34">SUM(B28:S29)</f>
         <v>96</v>
       </c>
-      <c r="U28" s="192"/>
+      <c r="U28" s="177"/>
       <c r="BG28" s="158">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:60">
-      <c r="A29" s="182"/>
-      <c r="B29" s="184"/>
-      <c r="C29" s="184"/>
-      <c r="D29" s="184"/>
-      <c r="E29" s="184"/>
-      <c r="F29" s="184"/>
-      <c r="G29" s="184"/>
-      <c r="H29" s="184"/>
-      <c r="I29" s="184"/>
-      <c r="J29" s="184"/>
-      <c r="K29" s="184"/>
-      <c r="L29" s="184"/>
-      <c r="M29" s="184"/>
-      <c r="N29" s="184"/>
-      <c r="O29" s="184"/>
-      <c r="P29" s="184"/>
-      <c r="Q29" s="183"/>
-      <c r="R29" s="183"/>
-      <c r="S29" s="183"/>
-      <c r="T29" s="184"/>
-      <c r="U29" s="192"/>
+    <row r="29" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A29" s="183"/>
+      <c r="B29" s="181"/>
+      <c r="C29" s="181"/>
+      <c r="D29" s="181"/>
+      <c r="E29" s="181"/>
+      <c r="F29" s="181"/>
+      <c r="G29" s="181"/>
+      <c r="H29" s="181"/>
+      <c r="I29" s="181"/>
+      <c r="J29" s="181"/>
+      <c r="K29" s="181"/>
+      <c r="L29" s="181"/>
+      <c r="M29" s="181"/>
+      <c r="N29" s="181"/>
+      <c r="O29" s="181"/>
+      <c r="P29" s="181"/>
+      <c r="Q29" s="182"/>
+      <c r="R29" s="182"/>
+      <c r="S29" s="182"/>
+      <c r="T29" s="181"/>
+      <c r="U29" s="177"/>
       <c r="AA29" t="s">
         <v>124</v>
       </c>
       <c r="AB29" s="149" t="s">
         <v>127</v>
       </c>
-      <c r="AC29" s="175" t="str">
+      <c r="AC29" s="192" t="str">
         <f>'3_PDC'!U6</f>
         <v>I Periodo</v>
       </c>
-      <c r="AD29" s="176"/>
-      <c r="AE29" s="177"/>
-      <c r="AF29" s="175" t="str">
+      <c r="AD29" s="193"/>
+      <c r="AE29" s="194"/>
+      <c r="AF29" s="192" t="str">
         <f>'3_PDC'!X6</f>
         <v>II Periodo</v>
       </c>
-      <c r="AG29" s="176"/>
-      <c r="AH29" s="178"/>
-      <c r="AI29" s="179" t="str">
+      <c r="AG29" s="193"/>
+      <c r="AH29" s="195"/>
+      <c r="AI29" s="188" t="str">
         <f>'3_PDC'!AA6</f>
         <v>Totale</v>
       </c>
@@ -12645,51 +13308,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:60" ht="15.75" thickBot="1">
-      <c r="A30" s="182" t="s">
+    <row r="30" spans="1:60" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="183" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="184">
+      <c r="B30" s="181">
         <f>SUM(AO7:AQ7,AO20:AQ21,AO37:AQ38,AO54:AQ55)</f>
         <v>15</v>
       </c>
-      <c r="C30" s="184"/>
-      <c r="D30" s="184"/>
-      <c r="E30" s="184">
+      <c r="C30" s="181"/>
+      <c r="D30" s="181"/>
+      <c r="E30" s="181">
         <f>SUM(AR7:AT7,AR20:AT21,AR37:AT38,AR54:AT55)</f>
         <v>4</v>
       </c>
-      <c r="F30" s="184"/>
-      <c r="G30" s="184"/>
-      <c r="H30" s="184">
+      <c r="F30" s="181"/>
+      <c r="G30" s="181"/>
+      <c r="H30" s="181">
         <f>SUM(AU7:AW7,AU20:AW21,AU37:AW38,AU54:AW55)</f>
         <v>0</v>
       </c>
-      <c r="I30" s="184"/>
-      <c r="J30" s="184"/>
-      <c r="K30" s="183">
+      <c r="I30" s="181"/>
+      <c r="J30" s="181"/>
+      <c r="K30" s="182">
         <f>SUM(AX7:AZ7,AX20:AZ21,AX37:AZ38,AX54:AZ55)</f>
         <v>31</v>
       </c>
-      <c r="L30" s="183"/>
-      <c r="M30" s="183"/>
-      <c r="N30" s="183">
+      <c r="L30" s="182"/>
+      <c r="M30" s="182"/>
+      <c r="N30" s="182">
         <f>SUM(BA7:BC7,BA20:BC21,BA37:BC38,BA54:BC55)</f>
         <v>35</v>
       </c>
-      <c r="O30" s="183"/>
-      <c r="P30" s="183"/>
-      <c r="Q30" s="184">
+      <c r="O30" s="182"/>
+      <c r="P30" s="182"/>
+      <c r="Q30" s="181">
         <f>SUM(BD7:BF7,BD20:BF21,BD37:BF38,BD54:BF55)</f>
         <v>18</v>
       </c>
-      <c r="R30" s="184"/>
-      <c r="S30" s="184"/>
-      <c r="T30" s="184">
+      <c r="R30" s="181"/>
+      <c r="S30" s="181"/>
+      <c r="T30" s="181">
         <f t="shared" ref="T30" si="35">SUM(B30:S31)</f>
         <v>103</v>
       </c>
-      <c r="U30" s="192"/>
+      <c r="U30" s="177"/>
       <c r="AB30" s="150"/>
       <c r="AC30" s="26" t="str">
         <f>'3_PDC'!U7</f>
@@ -12715,7 +13378,7 @@
         <f>'3_PDC'!Z7</f>
         <v>Fase</v>
       </c>
-      <c r="AI30" s="180"/>
+      <c r="AI30" s="189"/>
       <c r="AK30">
         <f>SUM(AI31:AI44)</f>
         <v>373</v>
@@ -12725,28 +13388,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:60">
-      <c r="A31" s="182"/>
-      <c r="B31" s="184"/>
-      <c r="C31" s="184"/>
-      <c r="D31" s="184"/>
-      <c r="E31" s="184"/>
-      <c r="F31" s="184"/>
-      <c r="G31" s="184"/>
-      <c r="H31" s="184"/>
-      <c r="I31" s="184"/>
-      <c r="J31" s="184"/>
-      <c r="K31" s="183"/>
-      <c r="L31" s="183"/>
-      <c r="M31" s="183"/>
-      <c r="N31" s="183"/>
-      <c r="O31" s="183"/>
-      <c r="P31" s="183"/>
-      <c r="Q31" s="184"/>
-      <c r="R31" s="184"/>
-      <c r="S31" s="184"/>
-      <c r="T31" s="184"/>
-      <c r="U31" s="192"/>
+    <row r="31" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A31" s="183"/>
+      <c r="B31" s="181"/>
+      <c r="C31" s="181"/>
+      <c r="D31" s="181"/>
+      <c r="E31" s="181"/>
+      <c r="F31" s="181"/>
+      <c r="G31" s="181"/>
+      <c r="H31" s="181"/>
+      <c r="I31" s="181"/>
+      <c r="J31" s="181"/>
+      <c r="K31" s="182"/>
+      <c r="L31" s="182"/>
+      <c r="M31" s="182"/>
+      <c r="N31" s="182"/>
+      <c r="O31" s="182"/>
+      <c r="P31" s="182"/>
+      <c r="Q31" s="181"/>
+      <c r="R31" s="181"/>
+      <c r="S31" s="181"/>
+      <c r="T31" s="181"/>
+      <c r="U31" s="177"/>
       <c r="AB31" s="31" t="str">
         <f>'3_PDC'!T8</f>
         <v>Begolo Marco</v>
@@ -12775,7 +13438,7 @@
         <f>'3_PDC'!Z8</f>
         <v>PDC 4.4</v>
       </c>
-      <c r="AI31" s="181">
+      <c r="AI31" s="196">
         <f>'3_PDC'!AA8</f>
         <v>52</v>
       </c>
@@ -12860,51 +13523,51 @@
         <v>373</v>
       </c>
     </row>
-    <row r="32" spans="1:60">
-      <c r="A32" s="182" t="s">
+    <row r="32" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A32" s="183" t="s">
         <v>8</v>
       </c>
-      <c r="B32" s="184">
+      <c r="B32" s="181">
         <f>SUM(AO8:AQ8,AO22:AQ23,AO39:AQ40,AO56:AQ57)</f>
         <v>9</v>
       </c>
-      <c r="C32" s="184"/>
-      <c r="D32" s="184"/>
-      <c r="E32" s="184">
+      <c r="C32" s="181"/>
+      <c r="D32" s="181"/>
+      <c r="E32" s="181">
         <f>SUM(AR8:AT8,AR22:AT23,AR39:AT40,AR56:AT57)</f>
         <v>11</v>
       </c>
-      <c r="F32" s="184"/>
-      <c r="G32" s="184"/>
-      <c r="H32" s="184">
+      <c r="F32" s="181"/>
+      <c r="G32" s="181"/>
+      <c r="H32" s="181">
         <f>SUM(AU8:AW8,AU22:AW23,AU39:AW40,AU56:AW57)</f>
         <v>2</v>
       </c>
-      <c r="I32" s="184"/>
-      <c r="J32" s="184"/>
-      <c r="K32" s="184">
+      <c r="I32" s="181"/>
+      <c r="J32" s="181"/>
+      <c r="K32" s="181">
         <f>SUM(AX8:AZ8,AX22:AZ23,AX39:AZ40,AX56:AZ57)</f>
         <v>20</v>
       </c>
-      <c r="L32" s="184"/>
-      <c r="M32" s="184"/>
-      <c r="N32" s="183">
+      <c r="L32" s="181"/>
+      <c r="M32" s="181"/>
+      <c r="N32" s="182">
         <f>SUM(BA8:BC8,BA22:BC23,BA39:BC40,BA56:BC57)</f>
         <v>37</v>
       </c>
-      <c r="O32" s="183"/>
-      <c r="P32" s="183"/>
-      <c r="Q32" s="184">
+      <c r="O32" s="182"/>
+      <c r="P32" s="182"/>
+      <c r="Q32" s="181">
         <f>SUM(BD8:BF8,BD22:BF23,BD39:BF40,BD56:BF57)</f>
         <v>23</v>
       </c>
-      <c r="R32" s="184"/>
-      <c r="S32" s="184"/>
-      <c r="T32" s="184">
+      <c r="R32" s="181"/>
+      <c r="S32" s="181"/>
+      <c r="T32" s="181">
         <f t="shared" ref="T32" si="51">SUM(B32:S33)</f>
         <v>102</v>
       </c>
-      <c r="U32" s="192"/>
+      <c r="U32" s="177"/>
       <c r="AB32" s="35">
         <f>'3_PDC'!T9</f>
         <v>0</v>
@@ -12933,7 +13596,7 @@
         <f>'3_PDC'!Z9</f>
         <v>PDC 7</v>
       </c>
-      <c r="AI32" s="173"/>
+      <c r="AI32" s="184"/>
       <c r="AO32">
         <f>IF($AC32=AO$2,$AD32,0)</f>
         <v>0</v>
@@ -13011,28 +13674,28 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:60">
-      <c r="A33" s="182"/>
-      <c r="B33" s="184"/>
-      <c r="C33" s="184"/>
-      <c r="D33" s="184"/>
-      <c r="E33" s="184"/>
-      <c r="F33" s="184"/>
-      <c r="G33" s="184"/>
-      <c r="H33" s="184"/>
-      <c r="I33" s="184"/>
-      <c r="J33" s="184"/>
-      <c r="K33" s="184"/>
-      <c r="L33" s="184"/>
-      <c r="M33" s="184"/>
-      <c r="N33" s="183"/>
-      <c r="O33" s="183"/>
-      <c r="P33" s="183"/>
-      <c r="Q33" s="184"/>
-      <c r="R33" s="184"/>
-      <c r="S33" s="184"/>
-      <c r="T33" s="184"/>
-      <c r="U33" s="192"/>
+    <row r="33" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A33" s="183"/>
+      <c r="B33" s="181"/>
+      <c r="C33" s="181"/>
+      <c r="D33" s="181"/>
+      <c r="E33" s="181"/>
+      <c r="F33" s="181"/>
+      <c r="G33" s="181"/>
+      <c r="H33" s="181"/>
+      <c r="I33" s="181"/>
+      <c r="J33" s="181"/>
+      <c r="K33" s="181"/>
+      <c r="L33" s="181"/>
+      <c r="M33" s="181"/>
+      <c r="N33" s="182"/>
+      <c r="O33" s="182"/>
+      <c r="P33" s="182"/>
+      <c r="Q33" s="181"/>
+      <c r="R33" s="181"/>
+      <c r="S33" s="181"/>
+      <c r="T33" s="181"/>
+      <c r="U33" s="177"/>
       <c r="AB33" s="31" t="str">
         <f>'3_PDC'!T10</f>
         <v>Facchin Gabriele</v>
@@ -13061,7 +13724,7 @@
         <f>'3_PDC'!Z10</f>
         <v>PDC 3.1</v>
       </c>
-      <c r="AI33" s="173">
+      <c r="AI33" s="184">
         <f>'3_PDC'!AA10</f>
         <v>52</v>
       </c>
@@ -13142,51 +13805,51 @@
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:60">
-      <c r="A34" s="182" t="s">
+    <row r="34" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A34" s="183" t="s">
         <v>13</v>
       </c>
-      <c r="B34" s="184">
+      <c r="B34" s="181">
         <f>SUM(AO9:AQ9,AO24:AQ25,AO41:AQ42,AO58:AQ59)</f>
         <v>6</v>
       </c>
-      <c r="C34" s="184"/>
-      <c r="D34" s="184"/>
-      <c r="E34" s="184">
+      <c r="C34" s="181"/>
+      <c r="D34" s="181"/>
+      <c r="E34" s="181">
         <f>SUM(AR9:AT9,AR24:AT25,AR41:AT42,AR58:AT59)</f>
         <v>2</v>
       </c>
-      <c r="F34" s="184"/>
-      <c r="G34" s="184"/>
-      <c r="H34" s="184">
+      <c r="F34" s="181"/>
+      <c r="G34" s="181"/>
+      <c r="H34" s="181">
         <f>SUM(AU9:AW9,AU24:AW25,AU41:AW42,AU58:AW59)</f>
         <v>0</v>
       </c>
-      <c r="I34" s="184"/>
-      <c r="J34" s="184"/>
-      <c r="K34" s="183">
+      <c r="I34" s="181"/>
+      <c r="J34" s="181"/>
+      <c r="K34" s="182">
         <f>SUM(AX9:AZ9,AX24:AZ25,AX41:AZ42,AX58:AZ59)</f>
         <v>27</v>
       </c>
-      <c r="L34" s="183"/>
-      <c r="M34" s="183"/>
-      <c r="N34" s="183">
+      <c r="L34" s="182"/>
+      <c r="M34" s="182"/>
+      <c r="N34" s="182">
         <f>SUM(BA9:BC9,BA24:BC25,BA41:BC42,BA58:BC59)</f>
         <v>40</v>
       </c>
-      <c r="O34" s="183"/>
-      <c r="P34" s="183"/>
-      <c r="Q34" s="183">
+      <c r="O34" s="182"/>
+      <c r="P34" s="182"/>
+      <c r="Q34" s="182">
         <f>SUM(BD9:BF9,BD24:BF25,BD41:BF42,BD58:BF59)</f>
         <v>25</v>
       </c>
-      <c r="R34" s="183"/>
-      <c r="S34" s="183"/>
-      <c r="T34" s="184">
+      <c r="R34" s="182"/>
+      <c r="S34" s="182"/>
+      <c r="T34" s="181">
         <f t="shared" ref="T34" si="55">SUM(B34:S35)</f>
         <v>100</v>
       </c>
-      <c r="U34" s="192"/>
+      <c r="U34" s="177"/>
       <c r="AB34" s="31">
         <f>'3_PDC'!T11</f>
         <v>0</v>
@@ -13215,7 +13878,7 @@
         <f>'3_PDC'!Z11</f>
         <v>PDC 4.3</v>
       </c>
-      <c r="AI34" s="173"/>
+      <c r="AI34" s="184"/>
       <c r="AO34">
         <f t="shared" si="52"/>
         <v>0</v>
@@ -13293,28 +13956,28 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:60">
-      <c r="A35" s="182"/>
-      <c r="B35" s="184"/>
-      <c r="C35" s="184"/>
-      <c r="D35" s="184"/>
-      <c r="E35" s="184"/>
-      <c r="F35" s="184"/>
-      <c r="G35" s="184"/>
-      <c r="H35" s="184"/>
-      <c r="I35" s="184"/>
-      <c r="J35" s="184"/>
-      <c r="K35" s="183"/>
-      <c r="L35" s="183"/>
-      <c r="M35" s="183"/>
-      <c r="N35" s="183"/>
-      <c r="O35" s="183"/>
-      <c r="P35" s="183"/>
-      <c r="Q35" s="183"/>
-      <c r="R35" s="183"/>
-      <c r="S35" s="183"/>
-      <c r="T35" s="184"/>
-      <c r="U35" s="192"/>
+    <row r="35" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A35" s="183"/>
+      <c r="B35" s="181"/>
+      <c r="C35" s="181"/>
+      <c r="D35" s="181"/>
+      <c r="E35" s="181"/>
+      <c r="F35" s="181"/>
+      <c r="G35" s="181"/>
+      <c r="H35" s="181"/>
+      <c r="I35" s="181"/>
+      <c r="J35" s="181"/>
+      <c r="K35" s="182"/>
+      <c r="L35" s="182"/>
+      <c r="M35" s="182"/>
+      <c r="N35" s="182"/>
+      <c r="O35" s="182"/>
+      <c r="P35" s="182"/>
+      <c r="Q35" s="182"/>
+      <c r="R35" s="182"/>
+      <c r="S35" s="182"/>
+      <c r="T35" s="181"/>
+      <c r="U35" s="177"/>
       <c r="AB35" s="47" t="str">
         <f>'3_PDC'!T12</f>
         <v>Cornaglia Alessando</v>
@@ -13343,7 +14006,7 @@
         <f>'3_PDC'!Z12</f>
         <v>PDC 4.4 e 5</v>
       </c>
-      <c r="AI35" s="173">
+      <c r="AI35" s="184">
         <f>'3_PDC'!AA12</f>
         <v>52</v>
       </c>
@@ -13431,51 +14094,51 @@
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="1:60">
-      <c r="A36" s="182" t="s">
+    <row r="36" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A36" s="183" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="184">
+      <c r="B36" s="181">
         <f>SUM(AO10:AQ10,AO26:AQ27,AO43:AQ44,AO60:AQ61)</f>
         <v>2</v>
       </c>
-      <c r="C36" s="184"/>
-      <c r="D36" s="184"/>
-      <c r="E36" s="184">
+      <c r="C36" s="181"/>
+      <c r="D36" s="181"/>
+      <c r="E36" s="181">
         <f>SUM(AR10:AT10,AR26:AT27,AR43:AT44,AR60:AT61)</f>
         <v>8</v>
       </c>
-      <c r="F36" s="184"/>
-      <c r="G36" s="184"/>
-      <c r="H36" s="184">
+      <c r="F36" s="181"/>
+      <c r="G36" s="181"/>
+      <c r="H36" s="181">
         <f>SUM(AU10:AW10,AU26:AW27,AU43:AW44,AU60:AW61)</f>
         <v>7</v>
       </c>
-      <c r="I36" s="184"/>
-      <c r="J36" s="184"/>
-      <c r="K36" s="183">
+      <c r="I36" s="181"/>
+      <c r="J36" s="181"/>
+      <c r="K36" s="182">
         <f>SUM(AX10:AZ10,AX26:AZ27,AX43:AZ44,AX60:AZ61)</f>
         <v>51</v>
       </c>
-      <c r="L36" s="183"/>
-      <c r="M36" s="183"/>
-      <c r="N36" s="184">
+      <c r="L36" s="182"/>
+      <c r="M36" s="182"/>
+      <c r="N36" s="181">
         <f>SUM(BA10:BC10,BA26:BC27,BA43:BC44,BA60:BC61)</f>
-        <v>8</v>
-      </c>
-      <c r="O36" s="184"/>
-      <c r="P36" s="184"/>
-      <c r="Q36" s="184">
+        <v>10</v>
+      </c>
+      <c r="O36" s="181"/>
+      <c r="P36" s="181"/>
+      <c r="Q36" s="181">
         <f>SUM(BD10:BF10,BD26:BF27,BD43:BF44,BD60:BF61)</f>
         <v>18</v>
       </c>
-      <c r="R36" s="184"/>
-      <c r="S36" s="184"/>
-      <c r="T36" s="184">
+      <c r="R36" s="181"/>
+      <c r="S36" s="181"/>
+      <c r="T36" s="181">
         <f t="shared" ref="T36" si="56">SUM(B36:S37)</f>
-        <v>94</v>
-      </c>
-      <c r="U36" s="192"/>
+        <v>96</v>
+      </c>
+      <c r="U36" s="177"/>
       <c r="AB36" s="35">
         <f>'3_PDC'!T13</f>
         <v>0</v>
@@ -13504,7 +14167,7 @@
         <f>'3_PDC'!Z13</f>
         <v>PDC 7</v>
       </c>
-      <c r="AI36" s="173"/>
+      <c r="AI36" s="184"/>
       <c r="AK36">
         <f>SUM(BD31:BF44)</f>
         <v>100</v>
@@ -13586,28 +14249,28 @@
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="1:60">
-      <c r="A37" s="182"/>
-      <c r="B37" s="184"/>
-      <c r="C37" s="184"/>
-      <c r="D37" s="184"/>
-      <c r="E37" s="184"/>
-      <c r="F37" s="184"/>
-      <c r="G37" s="184"/>
-      <c r="H37" s="184"/>
-      <c r="I37" s="184"/>
-      <c r="J37" s="184"/>
-      <c r="K37" s="183"/>
-      <c r="L37" s="183"/>
-      <c r="M37" s="183"/>
-      <c r="N37" s="184"/>
-      <c r="O37" s="184"/>
-      <c r="P37" s="184"/>
-      <c r="Q37" s="184"/>
-      <c r="R37" s="184"/>
-      <c r="S37" s="184"/>
-      <c r="T37" s="184"/>
-      <c r="U37" s="192"/>
+    <row r="37" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A37" s="183"/>
+      <c r="B37" s="181"/>
+      <c r="C37" s="181"/>
+      <c r="D37" s="181"/>
+      <c r="E37" s="181"/>
+      <c r="F37" s="181"/>
+      <c r="G37" s="181"/>
+      <c r="H37" s="181"/>
+      <c r="I37" s="181"/>
+      <c r="J37" s="181"/>
+      <c r="K37" s="182"/>
+      <c r="L37" s="182"/>
+      <c r="M37" s="182"/>
+      <c r="N37" s="181"/>
+      <c r="O37" s="181"/>
+      <c r="P37" s="181"/>
+      <c r="Q37" s="181"/>
+      <c r="R37" s="181"/>
+      <c r="S37" s="181"/>
+      <c r="T37" s="181"/>
+      <c r="U37" s="177"/>
       <c r="AB37" s="31" t="str">
         <f>'3_PDC'!T14</f>
         <v>Dalla Pietà Massimo</v>
@@ -13636,7 +14299,7 @@
         <f>'3_PDC'!Z14</f>
         <v>PDC 4.3</v>
       </c>
-      <c r="AI37" s="173">
+      <c r="AI37" s="184">
         <f>'3_PDC'!AA14</f>
         <v>57</v>
       </c>
@@ -13717,51 +14380,51 @@
         <v>29</v>
       </c>
     </row>
-    <row r="38" spans="1:60">
-      <c r="A38" s="191" t="s">
+    <row r="38" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A38" s="180" t="s">
         <v>14</v>
       </c>
-      <c r="B38" s="184">
+      <c r="B38" s="181">
         <f>SUM(B24:D37)</f>
         <v>59</v>
       </c>
-      <c r="C38" s="184"/>
-      <c r="D38" s="184"/>
-      <c r="E38" s="184">
+      <c r="C38" s="181"/>
+      <c r="D38" s="181"/>
+      <c r="E38" s="181">
         <f t="shared" ref="E38" si="57">SUM(E24:G37)</f>
         <v>49</v>
       </c>
-      <c r="F38" s="184"/>
-      <c r="G38" s="184"/>
-      <c r="H38" s="184">
+      <c r="F38" s="181"/>
+      <c r="G38" s="181"/>
+      <c r="H38" s="181">
         <f>SUM(H24:J37)</f>
         <v>20</v>
       </c>
-      <c r="I38" s="184"/>
-      <c r="J38" s="184"/>
-      <c r="K38" s="184">
+      <c r="I38" s="181"/>
+      <c r="J38" s="181"/>
+      <c r="K38" s="181">
         <f t="shared" ref="K38" si="58">SUM(K24:M37)</f>
-        <v>201</v>
-      </c>
-      <c r="L38" s="184"/>
-      <c r="M38" s="184"/>
-      <c r="N38" s="184">
+        <v>199</v>
+      </c>
+      <c r="L38" s="181"/>
+      <c r="M38" s="181"/>
+      <c r="N38" s="181">
         <f t="shared" ref="N38" si="59">SUM(N24:P37)</f>
-        <v>241</v>
-      </c>
-      <c r="O38" s="184"/>
-      <c r="P38" s="184"/>
-      <c r="Q38" s="184">
+        <v>243</v>
+      </c>
+      <c r="O38" s="181"/>
+      <c r="P38" s="181"/>
+      <c r="Q38" s="181">
         <f>SUM(Q24:S37)</f>
         <v>120</v>
       </c>
-      <c r="R38" s="184"/>
-      <c r="S38" s="184"/>
-      <c r="T38" s="195">
+      <c r="R38" s="181"/>
+      <c r="S38" s="181"/>
+      <c r="T38" s="199">
         <f>SUM(B38:S39)</f>
         <v>690</v>
       </c>
-      <c r="U38" s="192"/>
+      <c r="U38" s="177"/>
       <c r="AB38" s="31">
         <f>'3_PDC'!T15</f>
         <v>0</v>
@@ -13790,7 +14453,7 @@
         <f>'3_PDC'!Z15</f>
         <v>PDC 7</v>
       </c>
-      <c r="AI38" s="173"/>
+      <c r="AI38" s="184"/>
       <c r="AO38">
         <f t="shared" si="52"/>
         <v>0</v>
@@ -13868,28 +14531,28 @@
         <v>28</v>
       </c>
     </row>
-    <row r="39" spans="1:60">
-      <c r="A39" s="191"/>
-      <c r="B39" s="184"/>
-      <c r="C39" s="184"/>
-      <c r="D39" s="184"/>
-      <c r="E39" s="184"/>
-      <c r="F39" s="184"/>
-      <c r="G39" s="184"/>
-      <c r="H39" s="184"/>
-      <c r="I39" s="184"/>
-      <c r="J39" s="184"/>
-      <c r="K39" s="184"/>
-      <c r="L39" s="184"/>
-      <c r="M39" s="184"/>
-      <c r="N39" s="184"/>
-      <c r="O39" s="184"/>
-      <c r="P39" s="184"/>
-      <c r="Q39" s="184"/>
-      <c r="R39" s="184"/>
-      <c r="S39" s="184"/>
-      <c r="T39" s="195"/>
-      <c r="U39" s="192"/>
+    <row r="39" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A39" s="180"/>
+      <c r="B39" s="181"/>
+      <c r="C39" s="181"/>
+      <c r="D39" s="181"/>
+      <c r="E39" s="181"/>
+      <c r="F39" s="181"/>
+      <c r="G39" s="181"/>
+      <c r="H39" s="181"/>
+      <c r="I39" s="181"/>
+      <c r="J39" s="181"/>
+      <c r="K39" s="181"/>
+      <c r="L39" s="181"/>
+      <c r="M39" s="181"/>
+      <c r="N39" s="181"/>
+      <c r="O39" s="181"/>
+      <c r="P39" s="181"/>
+      <c r="Q39" s="181"/>
+      <c r="R39" s="181"/>
+      <c r="S39" s="181"/>
+      <c r="T39" s="199"/>
+      <c r="U39" s="177"/>
       <c r="AB39" s="47" t="str">
         <f>'3_PDC'!T16</f>
         <v>Braghetto Lorenzo</v>
@@ -13918,7 +14581,7 @@
         <f>'3_PDC'!Z16</f>
         <v>PDC 4.4</v>
       </c>
-      <c r="AI39" s="173">
+      <c r="AI39" s="184">
         <f>'3_PDC'!AA16</f>
         <v>54</v>
       </c>
@@ -13999,7 +14662,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="1:60">
+    <row r="40" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A40" s="147"/>
       <c r="AB40" s="35">
         <f>'3_PDC'!T17</f>
@@ -14029,7 +14692,7 @@
         <f>'3_PDC'!Z17</f>
         <v>PDC 7</v>
       </c>
-      <c r="AI40" s="173"/>
+      <c r="AI40" s="184"/>
       <c r="AO40">
         <f t="shared" si="52"/>
         <v>0</v>
@@ -14107,7 +14770,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="1:60">
+    <row r="41" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A41" s="147"/>
       <c r="AB41" s="31" t="str">
         <f>'3_PDC'!T18</f>
@@ -14137,7 +14800,7 @@
         <f>'3_PDC'!Z18</f>
         <v>PDC 6</v>
       </c>
-      <c r="AI41" s="173">
+      <c r="AI41" s="184">
         <f>'3_PDC'!AA18</f>
         <v>54</v>
       </c>
@@ -14218,7 +14881,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="1:60">
+    <row r="42" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A42" s="147"/>
       <c r="AB42" s="31">
         <f>'3_PDC'!T19</f>
@@ -14248,7 +14911,7 @@
         <f>'3_PDC'!Z19</f>
         <v>PDC 3.2, 5 e 7</v>
       </c>
-      <c r="AI42" s="173"/>
+      <c r="AI42" s="184"/>
       <c r="AO42">
         <f t="shared" si="52"/>
         <v>0</v>
@@ -14326,7 +14989,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="1:60">
+    <row r="43" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A43" s="147"/>
       <c r="AB43" s="47" t="str">
         <f>'3_PDC'!T20</f>
@@ -14356,7 +15019,7 @@
         <f>'3_PDC'!Z20</f>
         <v>PDC 4.3</v>
       </c>
-      <c r="AI43" s="173">
+      <c r="AI43" s="184">
         <f>'3_PDC'!AA20</f>
         <v>52</v>
       </c>
@@ -14437,7 +15100,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="44" spans="1:60" ht="15.75" thickBot="1">
+    <row r="44" spans="1:60" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="147"/>
       <c r="AB44" s="63">
         <f>'3_PDC'!T21</f>
@@ -14467,7 +15130,7 @@
         <f>'3_PDC'!Z21</f>
         <v>PDC 7</v>
       </c>
-      <c r="AI44" s="174"/>
+      <c r="AI44" s="198"/>
       <c r="AO44">
         <f t="shared" si="52"/>
         <v>0</v>
@@ -14545,14 +15208,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:60" ht="15.75" thickBot="1">
+    <row r="45" spans="1:60" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="147"/>
       <c r="BG45" s="158">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:60">
+    <row r="46" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A46" s="147"/>
       <c r="AA46" t="s">
         <v>125</v>
@@ -14560,19 +15223,19 @@
       <c r="AB46" s="149" t="s">
         <v>128</v>
       </c>
-      <c r="AC46" s="175" t="str">
+      <c r="AC46" s="192" t="str">
         <f>'4_VV'!U3</f>
         <v>I Periodo</v>
       </c>
-      <c r="AD46" s="176"/>
-      <c r="AE46" s="177"/>
-      <c r="AF46" s="175" t="str">
+      <c r="AD46" s="193"/>
+      <c r="AE46" s="194"/>
+      <c r="AF46" s="192" t="str">
         <f>'4_VV'!X3</f>
         <v>II Periodo</v>
       </c>
-      <c r="AG46" s="176"/>
-      <c r="AH46" s="178"/>
-      <c r="AI46" s="179" t="str">
+      <c r="AG46" s="193"/>
+      <c r="AH46" s="195"/>
+      <c r="AI46" s="188" t="str">
         <f>'4_VV'!AA3</f>
         <v>Totale</v>
       </c>
@@ -14585,7 +15248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:60" ht="15.75" thickBot="1">
+    <row r="47" spans="1:60" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="147"/>
       <c r="AB47" s="150"/>
       <c r="AC47" s="26" t="str">
@@ -14612,13 +15275,13 @@
         <f>'4_VV'!Z4</f>
         <v>Fase</v>
       </c>
-      <c r="AI47" s="180"/>
+      <c r="AI47" s="189"/>
       <c r="BG47" s="158">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:60">
+    <row r="48" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A48" s="147"/>
       <c r="AB48" s="31" t="str">
         <f>'4_VV'!T5</f>
@@ -14648,7 +15311,7 @@
         <f>'4_VV'!Z5</f>
         <v>VV 3.2</v>
       </c>
-      <c r="AI48" s="181">
+      <c r="AI48" s="196">
         <f>'4_VV'!AA5</f>
         <v>18</v>
       </c>
@@ -14733,7 +15396,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="49" spans="20:59">
+    <row r="49" spans="20:59" x14ac:dyDescent="0.25">
       <c r="AB49" s="35">
         <f>'4_VV'!T6</f>
         <v>0</v>
@@ -14762,7 +15425,7 @@
         <f>'4_VV'!Z6</f>
         <v>0</v>
       </c>
-      <c r="AI49" s="173"/>
+      <c r="AI49" s="184"/>
       <c r="AO49">
         <f>IF($AC49=AO$2,$AD49,0)</f>
         <v>0</v>
@@ -14840,7 +15503,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="20:59" ht="15.75" thickBot="1">
+    <row r="50" spans="20:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AB50" s="31" t="str">
         <f>'4_VV'!T7</f>
         <v>Facchin Gabriele</v>
@@ -14869,7 +15532,7 @@
         <f>'4_VV'!Z7</f>
         <v>VV 3.2</v>
       </c>
-      <c r="AI50" s="173">
+      <c r="AI50" s="184">
         <f>'4_VV'!AA7</f>
         <v>18</v>
       </c>
@@ -14957,7 +15620,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="51" spans="20:59" ht="15.75" thickBot="1">
+    <row r="51" spans="20:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="T51" s="1" t="s">
         <v>26</v>
       </c>
@@ -14998,7 +15661,7 @@
         <f>'4_VV'!Z8</f>
         <v>VV 3.2</v>
       </c>
-      <c r="AI51" s="173"/>
+      <c r="AI51" s="184"/>
       <c r="AO51">
         <f t="shared" si="75"/>
         <v>0</v>
@@ -15076,7 +15739,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="20:59">
+    <row r="52" spans="20:59" x14ac:dyDescent="0.25">
       <c r="T52" s="12" t="s">
         <v>1</v>
       </c>
@@ -15119,7 +15782,7 @@
         <f>'4_VV'!Z9</f>
         <v>VV 3.1</v>
       </c>
-      <c r="AI52" s="173">
+      <c r="AI52" s="184">
         <f>'4_VV'!AA9</f>
         <v>18</v>
       </c>
@@ -15200,7 +15863,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="53" spans="20:59">
+    <row r="53" spans="20:59" x14ac:dyDescent="0.25">
       <c r="T53" s="15" t="s">
         <v>2</v>
       </c>
@@ -15243,7 +15906,7 @@
         <f>'4_VV'!Z10</f>
         <v>0</v>
       </c>
-      <c r="AI53" s="173"/>
+      <c r="AI53" s="184"/>
       <c r="AO53">
         <f t="shared" si="75"/>
         <v>0</v>
@@ -15321,7 +15984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="20:59">
+    <row r="54" spans="20:59" x14ac:dyDescent="0.25">
       <c r="T54" s="15" t="s">
         <v>3</v>
       </c>
@@ -15364,7 +16027,7 @@
         <f>'4_VV'!Z11</f>
         <v>VV 3.1</v>
       </c>
-      <c r="AI54" s="173">
+      <c r="AI54" s="184">
         <f>'4_VV'!AA11</f>
         <v>18</v>
       </c>
@@ -15445,17 +16108,17 @@
         <v>18</v>
       </c>
     </row>
-    <row r="55" spans="20:59">
+    <row r="55" spans="20:59" x14ac:dyDescent="0.25">
       <c r="T55" s="15" t="s">
         <v>4</v>
       </c>
       <c r="U55" s="16">
         <f>K38</f>
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="V55" s="17">
         <f t="shared" si="78"/>
-        <v>3015</v>
+        <v>2985</v>
       </c>
       <c r="W55">
         <v>15</v>
@@ -15488,7 +16151,7 @@
         <f>'4_VV'!Z12</f>
         <v>0</v>
       </c>
-      <c r="AI55" s="173"/>
+      <c r="AI55" s="184"/>
       <c r="AO55">
         <f t="shared" si="75"/>
         <v>0</v>
@@ -15566,17 +16229,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="20:59">
+    <row r="56" spans="20:59" x14ac:dyDescent="0.25">
       <c r="T56" s="15" t="s">
         <v>5</v>
       </c>
       <c r="U56" s="16">
         <f>N38</f>
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="V56" s="17">
         <f t="shared" si="78"/>
-        <v>5302</v>
+        <v>5346</v>
       </c>
       <c r="W56">
         <v>22</v>
@@ -15609,7 +16272,7 @@
         <f>'4_VV'!Z13</f>
         <v>VV 3.1</v>
       </c>
-      <c r="AI56" s="173">
+      <c r="AI56" s="184">
         <f>'4_VV'!AA13</f>
         <v>18</v>
       </c>
@@ -15690,7 +16353,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="57" spans="20:59" ht="15.75" thickBot="1">
+    <row r="57" spans="20:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="T57" s="22" t="s">
         <v>6</v>
       </c>
@@ -15733,7 +16396,7 @@
         <f>'4_VV'!Z14</f>
         <v>0</v>
       </c>
-      <c r="AI57" s="173"/>
+      <c r="AI57" s="184"/>
       <c r="AO57">
         <f t="shared" si="75"/>
         <v>0</v>
@@ -15811,7 +16474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="20:59" ht="15.75" thickBot="1">
+    <row r="58" spans="20:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="T58" s="1" t="s">
         <v>14</v>
       </c>
@@ -15821,7 +16484,7 @@
       </c>
       <c r="V58" s="25">
         <f>SUM(V52:V57)</f>
-        <v>13367</v>
+        <v>13381</v>
       </c>
       <c r="AB58" s="31" t="str">
         <f>'4_VV'!T15</f>
@@ -15851,7 +16514,7 @@
         <f>'4_VV'!Z15</f>
         <v>VV 3.1</v>
       </c>
-      <c r="AI58" s="173">
+      <c r="AI58" s="184">
         <f>'4_VV'!AA15</f>
         <v>18</v>
       </c>
@@ -15932,7 +16595,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="59" spans="20:59">
+    <row r="59" spans="20:59" x14ac:dyDescent="0.25">
       <c r="AB59" s="31">
         <f>'4_VV'!T16</f>
         <v>0</v>
@@ -15961,7 +16624,7 @@
         <f>'4_VV'!Z16</f>
         <v>0</v>
       </c>
-      <c r="AI59" s="173"/>
+      <c r="AI59" s="184"/>
       <c r="AO59">
         <f t="shared" si="75"/>
         <v>0</v>
@@ -16039,7 +16702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="20:59">
+    <row r="60" spans="20:59" x14ac:dyDescent="0.25">
       <c r="AB60" s="47" t="str">
         <f>'4_VV'!T17</f>
         <v>Maggiolo Giorgio</v>
@@ -16068,7 +16731,7 @@
         <f>'4_VV'!Z17</f>
         <v>VV 3.1</v>
       </c>
-      <c r="AI60" s="173">
+      <c r="AI60" s="184">
         <f>'4_VV'!AA17</f>
         <v>16</v>
       </c>
@@ -16149,7 +16812,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="61" spans="20:59" ht="15.75" thickBot="1">
+    <row r="61" spans="20:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AB61" s="63">
         <f>'4_VV'!T18</f>
         <v>0</v>
@@ -16178,7 +16841,7 @@
         <f>'4_VV'!Z18</f>
         <v>0</v>
       </c>
-      <c r="AI61" s="174"/>
+      <c r="AI61" s="198"/>
       <c r="AO61">
         <f t="shared" si="75"/>
         <v>0</v>
@@ -16258,24 +16921,76 @@
     </row>
   </sheetData>
   <mergeCells count="112">
-    <mergeCell ref="AI56:AI57"/>
-    <mergeCell ref="AI58:AI59"/>
-    <mergeCell ref="AI60:AI61"/>
-    <mergeCell ref="AC46:AE46"/>
-    <mergeCell ref="AF46:AH46"/>
-    <mergeCell ref="AI46:AI47"/>
-    <mergeCell ref="AI48:AI49"/>
-    <mergeCell ref="AI50:AI51"/>
-    <mergeCell ref="AI52:AI53"/>
-    <mergeCell ref="AI39:AI40"/>
-    <mergeCell ref="AI41:AI42"/>
-    <mergeCell ref="AI43:AI44"/>
-    <mergeCell ref="Q36:S37"/>
-    <mergeCell ref="T36:T37"/>
-    <mergeCell ref="U36:U37"/>
-    <mergeCell ref="AI37:AI38"/>
-    <mergeCell ref="AI35:AI36"/>
-    <mergeCell ref="AI54:AI55"/>
+    <mergeCell ref="AC2:AE2"/>
+    <mergeCell ref="AF2:AH2"/>
+    <mergeCell ref="AI2:AI3"/>
+    <mergeCell ref="AC12:AE12"/>
+    <mergeCell ref="AF12:AH12"/>
+    <mergeCell ref="AI12:AK12"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="K23:M23"/>
+    <mergeCell ref="N23:P23"/>
+    <mergeCell ref="Q23:S23"/>
+    <mergeCell ref="AL12:AL13"/>
+    <mergeCell ref="AL14:AL15"/>
+    <mergeCell ref="AL16:AL17"/>
+    <mergeCell ref="AL18:AL19"/>
+    <mergeCell ref="AL20:AL21"/>
+    <mergeCell ref="AL22:AL23"/>
+    <mergeCell ref="AL26:AL27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:D29"/>
+    <mergeCell ref="E28:G29"/>
+    <mergeCell ref="H28:J29"/>
+    <mergeCell ref="K28:M29"/>
+    <mergeCell ref="N28:P29"/>
+    <mergeCell ref="Q24:S25"/>
+    <mergeCell ref="T24:T25"/>
+    <mergeCell ref="U24:U25"/>
+    <mergeCell ref="AL24:AL25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:D27"/>
+    <mergeCell ref="E26:G27"/>
+    <mergeCell ref="H26:J27"/>
+    <mergeCell ref="K26:M27"/>
+    <mergeCell ref="N26:P27"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="AF29:AH29"/>
+    <mergeCell ref="AI29:AI30"/>
+    <mergeCell ref="Q30:S31"/>
+    <mergeCell ref="T30:T31"/>
+    <mergeCell ref="U30:U31"/>
+    <mergeCell ref="AI31:AI32"/>
+    <mergeCell ref="Q26:S27"/>
+    <mergeCell ref="T26:T27"/>
+    <mergeCell ref="U26:U27"/>
+    <mergeCell ref="Q32:S33"/>
+    <mergeCell ref="T32:T33"/>
+    <mergeCell ref="U32:U33"/>
+    <mergeCell ref="AI33:AI34"/>
+    <mergeCell ref="Q28:S29"/>
+    <mergeCell ref="T28:T29"/>
+    <mergeCell ref="U28:U29"/>
+    <mergeCell ref="B24:D25"/>
+    <mergeCell ref="E24:G25"/>
+    <mergeCell ref="H24:J25"/>
+    <mergeCell ref="K24:M25"/>
+    <mergeCell ref="N24:P25"/>
+    <mergeCell ref="AC29:AE29"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:D33"/>
+    <mergeCell ref="E32:G33"/>
+    <mergeCell ref="H32:J33"/>
+    <mergeCell ref="K32:M33"/>
+    <mergeCell ref="N32:P33"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:D31"/>
+    <mergeCell ref="E30:G31"/>
+    <mergeCell ref="H30:J31"/>
+    <mergeCell ref="K30:M31"/>
+    <mergeCell ref="N30:P31"/>
     <mergeCell ref="A38:A39"/>
     <mergeCell ref="B38:D39"/>
     <mergeCell ref="E38:G39"/>
@@ -16300,76 +17015,24 @@
     <mergeCell ref="H34:J35"/>
     <mergeCell ref="K34:M35"/>
     <mergeCell ref="N34:P35"/>
-    <mergeCell ref="B24:D25"/>
-    <mergeCell ref="E24:G25"/>
-    <mergeCell ref="H24:J25"/>
-    <mergeCell ref="K24:M25"/>
-    <mergeCell ref="N24:P25"/>
-    <mergeCell ref="AC29:AE29"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:D33"/>
-    <mergeCell ref="E32:G33"/>
-    <mergeCell ref="H32:J33"/>
-    <mergeCell ref="K32:M33"/>
-    <mergeCell ref="N32:P33"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:D31"/>
-    <mergeCell ref="E30:G31"/>
-    <mergeCell ref="H30:J31"/>
-    <mergeCell ref="K30:M31"/>
-    <mergeCell ref="N30:P31"/>
-    <mergeCell ref="AF29:AH29"/>
-    <mergeCell ref="AI29:AI30"/>
-    <mergeCell ref="Q30:S31"/>
-    <mergeCell ref="T30:T31"/>
-    <mergeCell ref="U30:U31"/>
-    <mergeCell ref="AI31:AI32"/>
-    <mergeCell ref="Q26:S27"/>
-    <mergeCell ref="T26:T27"/>
-    <mergeCell ref="U26:U27"/>
-    <mergeCell ref="Q32:S33"/>
-    <mergeCell ref="T32:T33"/>
-    <mergeCell ref="U32:U33"/>
-    <mergeCell ref="AI33:AI34"/>
-    <mergeCell ref="Q28:S29"/>
-    <mergeCell ref="T28:T29"/>
-    <mergeCell ref="U28:U29"/>
-    <mergeCell ref="AL12:AL13"/>
-    <mergeCell ref="AL14:AL15"/>
-    <mergeCell ref="AL16:AL17"/>
-    <mergeCell ref="AL18:AL19"/>
-    <mergeCell ref="AL20:AL21"/>
-    <mergeCell ref="AL22:AL23"/>
-    <mergeCell ref="AL26:AL27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:D29"/>
-    <mergeCell ref="E28:G29"/>
-    <mergeCell ref="H28:J29"/>
-    <mergeCell ref="K28:M29"/>
-    <mergeCell ref="N28:P29"/>
-    <mergeCell ref="Q24:S25"/>
-    <mergeCell ref="T24:T25"/>
-    <mergeCell ref="U24:U25"/>
-    <mergeCell ref="AL24:AL25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:D27"/>
-    <mergeCell ref="E26:G27"/>
-    <mergeCell ref="H26:J27"/>
-    <mergeCell ref="K26:M27"/>
-    <mergeCell ref="N26:P27"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="AC2:AE2"/>
-    <mergeCell ref="AF2:AH2"/>
-    <mergeCell ref="AI2:AI3"/>
-    <mergeCell ref="AC12:AE12"/>
-    <mergeCell ref="AF12:AH12"/>
-    <mergeCell ref="AI12:AK12"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="K23:M23"/>
-    <mergeCell ref="N23:P23"/>
-    <mergeCell ref="Q23:S23"/>
+    <mergeCell ref="AI39:AI40"/>
+    <mergeCell ref="AI41:AI42"/>
+    <mergeCell ref="AI43:AI44"/>
+    <mergeCell ref="Q36:S37"/>
+    <mergeCell ref="T36:T37"/>
+    <mergeCell ref="U36:U37"/>
+    <mergeCell ref="AI37:AI38"/>
+    <mergeCell ref="AI35:AI36"/>
+    <mergeCell ref="AI54:AI55"/>
+    <mergeCell ref="AI56:AI57"/>
+    <mergeCell ref="AI58:AI59"/>
+    <mergeCell ref="AI60:AI61"/>
+    <mergeCell ref="AC46:AE46"/>
+    <mergeCell ref="AF46:AH46"/>
+    <mergeCell ref="AI46:AI47"/>
+    <mergeCell ref="AI48:AI49"/>
+    <mergeCell ref="AI50:AI51"/>
+    <mergeCell ref="AI52:AI53"/>
   </mergeCells>
   <conditionalFormatting sqref="AB14:AL27">
     <cfRule type="cellIs" dxfId="20" priority="5" operator="equal">
@@ -16400,14 +17063,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V19"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.42578125" customWidth="1"/>
     <col min="2" max="2" width="32.140625" customWidth="1"/>
@@ -16425,7 +17088,7 @@
     <col min="21" max="21" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="15.75" thickBot="1">
+    <row r="1" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="99" t="s">
         <v>15</v>
       </c>
@@ -16460,7 +17123,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
         <v>75</v>
       </c>
@@ -16503,7 +17166,7 @@
       <c r="N2" s="155">
         <v>30</v>
       </c>
-      <c r="O2" s="179" t="s">
+      <c r="O2" s="188" t="s">
         <v>0</v>
       </c>
       <c r="P2" s="185" t="s">
@@ -16516,11 +17179,11 @@
       </c>
       <c r="T2" s="186"/>
       <c r="U2" s="187"/>
-      <c r="V2" s="179" t="s">
+      <c r="V2" s="188" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="15.75" thickBot="1">
+    <row r="3" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12"/>
       <c r="B3" s="39"/>
       <c r="C3" s="13" t="s">
@@ -16559,7 +17222,7 @@
       <c r="N3" s="155">
         <v>20</v>
       </c>
-      <c r="O3" s="196"/>
+      <c r="O3" s="200"/>
       <c r="P3" s="104" t="s">
         <v>26</v>
       </c>
@@ -16578,9 +17241,9 @@
       <c r="U3" s="106" t="s">
         <v>39</v>
       </c>
-      <c r="V3" s="180"/>
-    </row>
-    <row r="4" spans="1:22">
+      <c r="V3" s="189"/>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
         <v>77</v>
       </c>
@@ -16649,7 +17312,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="15.75" thickBot="1">
+    <row r="5" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="12"/>
       <c r="B5" s="39"/>
       <c r="C5" s="13" t="s">
@@ -16714,7 +17377,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="15.75" thickBot="1">
+    <row r="6" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>81</v>
       </c>
@@ -16780,7 +17443,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="B7" s="7"/>
       <c r="C7" s="8" t="s">
@@ -16831,7 +17494,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
         <v>83</v>
       </c>
@@ -16886,7 +17549,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="12"/>
       <c r="B9" s="39"/>
       <c r="C9" s="13" t="s">
@@ -16937,7 +17600,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="15.75" thickBot="1">
+    <row r="10" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>85</v>
       </c>
@@ -16992,7 +17655,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="7"/>
       <c r="C11" s="8" t="s">
@@ -17025,7 +17688,7 @@
       <c r="T11" s="58"/>
       <c r="U11" s="7"/>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
         <v>87</v>
       </c>
@@ -17062,7 +17725,7 @@
       <c r="T12" s="7"/>
       <c r="U12" s="7"/>
     </row>
-    <row r="13" spans="1:22">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>89</v>
       </c>
@@ -17099,7 +17762,7 @@
       <c r="T13" s="58"/>
       <c r="U13" s="7"/>
     </row>
-    <row r="14" spans="1:22">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="7"/>
       <c r="C14" s="8" t="s">
@@ -17132,7 +17795,7 @@
       <c r="T14" s="7"/>
       <c r="U14" s="7"/>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
         <v>91</v>
       </c>
@@ -17169,7 +17832,7 @@
       <c r="T15" s="58"/>
       <c r="U15" s="7"/>
     </row>
-    <row r="16" spans="1:22">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>93</v>
       </c>
@@ -17199,7 +17862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="15.75" thickBot="1">
+    <row r="17" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="129" t="s">
         <v>95</v>
       </c>
@@ -17236,14 +17899,14 @@
       <c r="T17" s="58"/>
       <c r="U17" s="7"/>
     </row>
-    <row r="18" spans="1:21" ht="15.75" thickBot="1">
+    <row r="18" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F18" s="155"/>
       <c r="G18" s="155"/>
       <c r="H18" s="155"/>
       <c r="I18" s="155"/>
       <c r="O18" s="30"/>
     </row>
-    <row r="19" spans="1:21" ht="15.75" thickBot="1">
+    <row r="19" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="72" t="s">
         <v>14</v>
       </c>
@@ -17283,14 +17946,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AE26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AI49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W24" sqref="W24"/>
+    <sheetView tabSelected="1" topLeftCell="N33" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AD47" sqref="AD47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.42578125" customWidth="1"/>
     <col min="2" max="2" width="32.140625" customWidth="1"/>
@@ -17307,13 +17970,14 @@
     <col min="15" max="16" width="17.7109375" customWidth="1"/>
     <col min="17" max="17" width="17.140625" customWidth="1"/>
     <col min="18" max="18" width="18.42578125" customWidth="1"/>
-    <col min="21" max="21" width="19.28515625" customWidth="1"/>
+    <col min="21" max="21" width="10.85546875" customWidth="1"/>
     <col min="24" max="24" width="11.7109375" customWidth="1"/>
     <col min="27" max="27" width="7" customWidth="1"/>
     <col min="30" max="30" width="10.85546875" customWidth="1"/>
+    <col min="43" max="43" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="15.75" thickBot="1">
+    <row r="1" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -17363,7 +18027,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:31">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>102</v>
       </c>
@@ -17377,7 +18041,7 @@
         <v>18</v>
       </c>
       <c r="E2" s="8"/>
-      <c r="F2" s="202">
+      <c r="F2" s="173">
         <v>2</v>
       </c>
       <c r="G2" s="167">
@@ -17425,7 +18089,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:31">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
         <v>104</v>
       </c>
@@ -17482,7 +18146,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:31">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" s="12"/>
       <c r="B4" s="39"/>
       <c r="C4" s="13" t="s">
@@ -17538,7 +18202,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="5" spans="1:31">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>106</v>
       </c>
@@ -17595,7 +18259,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:31" ht="15.75" thickBot="1">
+    <row r="6" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6"/>
       <c r="B6" s="7"/>
       <c r="C6" s="8" t="s">
@@ -17651,7 +18315,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="7" spans="1:31" ht="15.75" thickBot="1">
+    <row r="7" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
         <v>108</v>
       </c>
@@ -17714,7 +18378,7 @@
         <v>4217</v>
       </c>
     </row>
-    <row r="8" spans="1:31" ht="15.75" thickBot="1">
+    <row r="8" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>110</v>
       </c>
@@ -17756,7 +18420,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:31">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
         <v>112</v>
       </c>
@@ -17795,33 +18459,33 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O9" s="175"/>
-      <c r="P9" s="176"/>
-      <c r="Q9" s="176"/>
-      <c r="R9" s="177"/>
-      <c r="U9" s="179" t="s">
-        <v>0</v>
-      </c>
-      <c r="V9" s="175" t="s">
+      <c r="O9" s="192"/>
+      <c r="P9" s="193"/>
+      <c r="Q9" s="193"/>
+      <c r="R9" s="194"/>
+      <c r="U9" s="188" t="s">
+        <v>0</v>
+      </c>
+      <c r="V9" s="192" t="s">
         <v>18</v>
       </c>
-      <c r="W9" s="176"/>
-      <c r="X9" s="177"/>
-      <c r="Y9" s="175" t="s">
+      <c r="W9" s="193"/>
+      <c r="X9" s="194"/>
+      <c r="Y9" s="192" t="s">
         <v>19</v>
       </c>
-      <c r="Z9" s="176"/>
-      <c r="AA9" s="177"/>
-      <c r="AB9" s="175" t="s">
+      <c r="Z9" s="193"/>
+      <c r="AA9" s="194"/>
+      <c r="AB9" s="192" t="s">
         <v>114</v>
       </c>
-      <c r="AC9" s="176"/>
-      <c r="AD9" s="178"/>
-      <c r="AE9" s="179" t="s">
+      <c r="AC9" s="193"/>
+      <c r="AD9" s="195"/>
+      <c r="AE9" s="188" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:31" ht="15.75" thickBot="1">
+    <row r="10" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12"/>
       <c r="B10" s="39"/>
       <c r="C10" s="13" t="s">
@@ -17856,11 +18520,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O10" s="197"/>
+      <c r="O10" s="201"/>
       <c r="P10" s="93"/>
       <c r="Q10" s="93"/>
       <c r="R10" s="94"/>
-      <c r="U10" s="180"/>
+      <c r="U10" s="189"/>
       <c r="V10" s="26" t="s">
         <v>26</v>
       </c>
@@ -17888,9 +18552,9 @@
       <c r="AD10" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="AE10" s="180"/>
-    </row>
-    <row r="11" spans="1:31">
+      <c r="AE10" s="189"/>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>115</v>
       </c>
@@ -17963,12 +18627,12 @@
       <c r="AD11" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="AE11" s="181">
+      <c r="AE11" s="196">
         <f>SUM(Z11:Z12,AC11:AC12,W11:W12)</f>
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:31">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
         <v>117</v>
       </c>
@@ -18021,9 +18685,9 @@
       <c r="AB12" s="36"/>
       <c r="AC12" s="37"/>
       <c r="AD12" s="139"/>
-      <c r="AE12" s="173"/>
-    </row>
-    <row r="13" spans="1:31">
+      <c r="AE12" s="184"/>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" s="12"/>
       <c r="B13" s="39"/>
       <c r="C13" s="13" t="s">
@@ -18078,7 +18742,7 @@
         <v>23</v>
       </c>
       <c r="Z13" s="33">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AA13" s="34" t="s">
         <v>117</v>
@@ -18092,12 +18756,12 @@
       <c r="AD13" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="AE13" s="173">
+      <c r="AE13" s="184">
         <f t="shared" ref="AE13" si="7">SUM(Z13:Z14,AC13:AC14,W13:W14)</f>
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:31">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>120</v>
       </c>
@@ -18156,9 +18820,9 @@
       <c r="AB14" s="32"/>
       <c r="AC14" s="33"/>
       <c r="AD14" s="7"/>
-      <c r="AE14" s="173"/>
-    </row>
-    <row r="15" spans="1:31">
+      <c r="AE14" s="184"/>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>131</v>
       </c>
@@ -18231,12 +18895,12 @@
       <c r="AD15" s="79" t="s">
         <v>112</v>
       </c>
-      <c r="AE15" s="173">
+      <c r="AE15" s="184">
         <f t="shared" ref="AE15" si="8">SUM(Z15:Z16,AC15:AC16,W15:W16)</f>
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:31">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" s="80" t="s">
         <v>132</v>
       </c>
@@ -18301,9 +18965,9 @@
       <c r="AD16" s="39" t="s">
         <v>132</v>
       </c>
-      <c r="AE16" s="173"/>
-    </row>
-    <row r="17" spans="1:31" ht="15.75" thickBot="1">
+      <c r="AE16" s="184"/>
+    </row>
+    <row r="17" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="22" t="s">
         <v>135</v>
       </c>
@@ -18376,12 +19040,12 @@
       <c r="AD17" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="AE17" s="173">
+      <c r="AE17" s="184">
         <f t="shared" ref="AE17" si="9">SUM(Z17:Z18,AC17:AC18,W17:W18)</f>
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:31" ht="15.75" thickBot="1">
+    <row r="18" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="88"/>
       <c r="B18" s="69"/>
       <c r="C18" s="70" t="s">
@@ -18442,9 +19106,9 @@
       <c r="AD18" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="AE18" s="173"/>
-    </row>
-    <row r="19" spans="1:31" ht="15.75" thickBot="1">
+      <c r="AE18" s="184"/>
+    </row>
+    <row r="19" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="U19" s="47" t="s">
         <v>8</v>
       </c>
@@ -18475,12 +19139,12 @@
       <c r="AD19" s="40" t="s">
         <v>120</v>
       </c>
-      <c r="AE19" s="173">
+      <c r="AE19" s="184">
         <f t="shared" ref="AE19" si="10">SUM(Z19:Z20,AC19:AC20,W19:W20)</f>
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:31" ht="15.75" thickBot="1">
+    <row r="20" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="141" t="s">
         <v>14</v>
       </c>
@@ -18522,9 +19186,9 @@
         <v>2</v>
       </c>
       <c r="AD20" s="39"/>
-      <c r="AE20" s="173"/>
-    </row>
-    <row r="21" spans="1:31">
+      <c r="AE20" s="184"/>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="U21" s="31" t="s">
         <v>13</v>
       </c>
@@ -18555,12 +19219,12 @@
       <c r="AD21" s="85" t="s">
         <v>136</v>
       </c>
-      <c r="AE21" s="173">
+      <c r="AE21" s="184">
         <f t="shared" ref="AE21" si="11">SUM(Z21:Z22,AC21:AC22,W21:W22)</f>
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:31">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
       <c r="S22" s="161"/>
       <c r="U22" s="31"/>
       <c r="V22" s="32"/>
@@ -18572,9 +19236,9 @@
       <c r="AB22" s="32"/>
       <c r="AC22" s="33"/>
       <c r="AD22" s="7"/>
-      <c r="AE22" s="173"/>
-    </row>
-    <row r="23" spans="1:31">
+      <c r="AE22" s="184"/>
+    </row>
+    <row r="23" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O23" s="30"/>
       <c r="U23" s="47" t="s">
         <v>12</v>
@@ -18592,7 +19256,7 @@
         <v>24</v>
       </c>
       <c r="Z23" s="49">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AA23" s="50" t="s">
         <v>115</v>
@@ -18606,15 +19270,51 @@
       <c r="AD23" s="40" t="s">
         <v>112</v>
       </c>
-      <c r="AE23" s="173">
+      <c r="AE23" s="184">
         <f t="shared" ref="AE23" si="12">SUM(Z23:Z24,AC23:AC24,W23:W24)</f>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="24" spans="1:31" ht="15.75" thickBot="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="I24" s="155" t="s">
+        <v>21</v>
+      </c>
+      <c r="J24" s="155" t="s">
+        <v>22</v>
+      </c>
+      <c r="K24" s="155" t="s">
+        <v>74</v>
+      </c>
+      <c r="L24" s="155" t="s">
+        <v>23</v>
+      </c>
+      <c r="M24" s="155" t="s">
+        <v>24</v>
+      </c>
       <c r="U24" s="63"/>
       <c r="V24" s="64"/>
-      <c r="W24" s="203"/>
+      <c r="W24" s="174"/>
       <c r="X24" s="66"/>
       <c r="Y24" s="64" t="s">
         <v>21</v>
@@ -18634,9 +19334,115 @@
       <c r="AD24" s="67" t="s">
         <v>120</v>
       </c>
-      <c r="AE24" s="174"/>
-    </row>
-    <row r="26" spans="1:31">
+      <c r="AE24" s="198"/>
+    </row>
+    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25" s="165">
+        <v>30</v>
+      </c>
+      <c r="E25" s="8"/>
+      <c r="F25" s="173"/>
+      <c r="G25" s="167">
+        <f t="shared" ref="G25:G41" si="13">SUM(D25:F25)</f>
+        <v>30</v>
+      </c>
+      <c r="I25" s="155">
+        <f t="shared" ref="I25:I41" si="14">IF($C25="Responsabile",$G25,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J25" s="155">
+        <f t="shared" ref="J25:J41" si="15">IF($C25="Amministratore",$G25,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K25" s="155">
+        <f t="shared" ref="K25:K41" si="16">IF($C25="Analista",$G25,0)</f>
+        <v>30</v>
+      </c>
+      <c r="L25" s="155">
+        <f t="shared" ref="L25:L41" si="17">IF($C25="Verificatore",$G25,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M25" s="155">
+        <f t="shared" ref="M25:M41" si="18">IF($C25="Progettista",$G25,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O25" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="P25" s="13">
+        <f>SUM(I25:I41)</f>
+        <v>17</v>
+      </c>
+      <c r="Q25" s="14">
+        <f>P25*R25</f>
+        <v>510</v>
+      </c>
+      <c r="R25" s="155">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A26" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="B26" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="C26" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="40">
+        <v>10</v>
+      </c>
+      <c r="E26" s="23"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="59">
+        <f t="shared" si="13"/>
+        <v>10</v>
+      </c>
+      <c r="I26" s="155">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="J26" s="155">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="K26" s="155">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="L26" s="155">
+        <f t="shared" si="17"/>
+        <v>10</v>
+      </c>
+      <c r="M26" s="155">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="O26" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="P26" s="16">
+        <f>SUM(J25:J41)</f>
+        <v>19</v>
+      </c>
+      <c r="Q26" s="17">
+        <f t="shared" ref="Q26:Q29" si="19">P26*R26</f>
+        <v>380</v>
+      </c>
+      <c r="R26" s="155">
+        <v>20</v>
+      </c>
       <c r="W26">
         <f>SUM(W11:W23)</f>
         <v>72</v>
@@ -18651,14 +19457,1079 @@
       </c>
       <c r="AD26" s="30"/>
     </row>
+    <row r="27" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="12"/>
+      <c r="B27" s="39"/>
+      <c r="C27" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27" s="39">
+        <v>4</v>
+      </c>
+      <c r="E27" s="13"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="54">
+        <f t="shared" si="13"/>
+        <v>4</v>
+      </c>
+      <c r="I27" s="155">
+        <f t="shared" si="14"/>
+        <v>4</v>
+      </c>
+      <c r="J27" s="155">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="K27" s="155">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="L27" s="155">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="M27" s="155">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="O27" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="P27" s="175">
+        <f>SUM(K25:K41)</f>
+        <v>30</v>
+      </c>
+      <c r="Q27" s="170">
+        <f t="shared" si="19"/>
+        <v>750</v>
+      </c>
+      <c r="R27" s="155">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" s="7">
+        <v>5</v>
+      </c>
+      <c r="E28" s="8"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="134">
+        <f t="shared" si="13"/>
+        <v>5</v>
+      </c>
+      <c r="I28" s="155">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="J28" s="155">
+        <f t="shared" si="15"/>
+        <v>5</v>
+      </c>
+      <c r="K28" s="155">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="L28" s="155">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="M28" s="155">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="O28" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="P28" s="16">
+        <f>SUM(L25:L41)</f>
+        <v>31</v>
+      </c>
+      <c r="Q28" s="17">
+        <f t="shared" si="19"/>
+        <v>465</v>
+      </c>
+      <c r="R28" s="155">
+        <v>15</v>
+      </c>
+      <c r="U28" s="202" t="s">
+        <v>0</v>
+      </c>
+      <c r="V28" s="185" t="s">
+        <v>18</v>
+      </c>
+      <c r="W28" s="190"/>
+      <c r="X28" s="191"/>
+      <c r="Y28" s="185" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z28" s="190"/>
+      <c r="AA28" s="191"/>
+      <c r="AB28" s="185" t="s">
+        <v>114</v>
+      </c>
+      <c r="AC28" s="190"/>
+      <c r="AD28" s="191"/>
+      <c r="AE28" s="202" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="6"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29" s="7">
+        <v>1</v>
+      </c>
+      <c r="E29" s="8"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="134">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="I29" s="155">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="J29" s="155">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="K29" s="155">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="L29" s="155">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="M29" s="155">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="O29" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="P29" s="176">
+        <f>SUM(M25:M41)</f>
+        <v>96</v>
+      </c>
+      <c r="Q29" s="169">
+        <f t="shared" si="19"/>
+        <v>2112</v>
+      </c>
+      <c r="R29" s="155">
+        <v>22</v>
+      </c>
+      <c r="U29" s="203"/>
+      <c r="V29" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="W29" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="X29" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y29" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z29" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA29" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB29" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC29" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD29" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE29" s="203"/>
+    </row>
+    <row r="30" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="B30" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" s="18">
+        <v>34</v>
+      </c>
+      <c r="E30" s="163">
+        <v>8</v>
+      </c>
+      <c r="F30" s="18"/>
+      <c r="G30" s="164">
+        <f t="shared" si="13"/>
+        <v>42</v>
+      </c>
+      <c r="I30" s="155">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="J30" s="155">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="K30" s="155">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="L30" s="155">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="M30" s="155">
+        <f t="shared" si="18"/>
+        <v>42</v>
+      </c>
+      <c r="O30" s="118" t="s">
+        <v>14</v>
+      </c>
+      <c r="P30" s="3">
+        <f>SUM(P25:P29)</f>
+        <v>193</v>
+      </c>
+      <c r="Q30" s="25">
+        <f>SUM(Q25:Q29)</f>
+        <v>4217</v>
+      </c>
+      <c r="U30" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="V30" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="W30" s="33">
+        <v>12</v>
+      </c>
+      <c r="X30" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y30" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z30" s="33">
+        <v>8</v>
+      </c>
+      <c r="AA30" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB30" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC30" s="33">
+        <v>7</v>
+      </c>
+      <c r="AD30" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="AE30" s="206">
+        <f>SUM(Z30:Z31,AC30:AC31,W30:W31)</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" s="7"/>
+      <c r="E31" s="8">
+        <v>34</v>
+      </c>
+      <c r="F31" s="7">
+        <v>14</v>
+      </c>
+      <c r="G31" s="134">
+        <f t="shared" si="13"/>
+        <v>48</v>
+      </c>
+      <c r="I31" s="155">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="J31" s="155">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="K31" s="155">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="L31" s="155">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="M31" s="155">
+        <f t="shared" si="18"/>
+        <v>48</v>
+      </c>
+      <c r="U31" s="35"/>
+      <c r="V31" s="36"/>
+      <c r="W31" s="37"/>
+      <c r="X31" s="38"/>
+      <c r="Y31" s="36"/>
+      <c r="Z31" s="37"/>
+      <c r="AA31" s="38"/>
+      <c r="AB31" s="36"/>
+      <c r="AC31" s="37"/>
+      <c r="AD31" s="139"/>
+      <c r="AE31" s="196"/>
+    </row>
+    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A32" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="B32" s="40" t="s">
+        <v>113</v>
+      </c>
+      <c r="C32" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" s="40"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="40">
+        <v>10</v>
+      </c>
+      <c r="G32" s="59">
+        <f t="shared" si="13"/>
+        <v>10</v>
+      </c>
+      <c r="I32" s="155">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="J32" s="155">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="K32" s="155">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="L32" s="155">
+        <f t="shared" si="17"/>
+        <v>10</v>
+      </c>
+      <c r="M32" s="155">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="U32" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="V32" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="W32" s="33">
+        <v>5</v>
+      </c>
+      <c r="X32" s="34" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y32" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z32" s="33">
+        <v>8</v>
+      </c>
+      <c r="AA32" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB32" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC32" s="33">
+        <v>7</v>
+      </c>
+      <c r="AD32" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="AE32" s="204">
+        <f t="shared" ref="AE32" si="20">SUM(Z32:Z33,AC32:AC33,W32:W33)</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A33" s="12"/>
+      <c r="B33" s="39"/>
+      <c r="C33" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D33" s="39"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="39">
+        <v>4</v>
+      </c>
+      <c r="G33" s="54">
+        <f t="shared" si="13"/>
+        <v>4</v>
+      </c>
+      <c r="I33" s="155">
+        <f t="shared" si="14"/>
+        <v>4</v>
+      </c>
+      <c r="J33" s="155">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="K33" s="155">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="L33" s="155">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="M33" s="155">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="U33" s="31"/>
+      <c r="V33" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="W33" s="33">
+        <v>7</v>
+      </c>
+      <c r="X33" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y33" s="32"/>
+      <c r="Z33" s="33"/>
+      <c r="AA33" s="34"/>
+      <c r="AB33" s="32"/>
+      <c r="AC33" s="33"/>
+      <c r="AD33" s="7"/>
+      <c r="AE33" s="196"/>
+    </row>
+    <row r="34" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" s="7"/>
+      <c r="E34" s="8">
+        <v>6</v>
+      </c>
+      <c r="F34" s="7"/>
+      <c r="G34" s="134">
+        <f t="shared" si="13"/>
+        <v>6</v>
+      </c>
+      <c r="I34" s="155">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="J34" s="155">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="K34" s="155">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="L34" s="155">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="M34" s="155">
+        <f t="shared" si="18"/>
+        <v>6</v>
+      </c>
+      <c r="U34" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="V34" s="48" t="s">
+        <v>74</v>
+      </c>
+      <c r="W34" s="49">
+        <v>6</v>
+      </c>
+      <c r="X34" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y34" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z34" s="49">
+        <v>8</v>
+      </c>
+      <c r="AA34" s="87" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB34" s="48" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC34" s="49">
+        <v>5</v>
+      </c>
+      <c r="AD34" s="79" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE34" s="204">
+        <f t="shared" ref="AE34" si="21">SUM(Z34:Z35,AC34:AC35,W34:W35)</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A35" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="B35" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="C35" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" s="40"/>
+      <c r="E35" s="23">
+        <v>8</v>
+      </c>
+      <c r="F35" s="40"/>
+      <c r="G35" s="59">
+        <f t="shared" si="13"/>
+        <v>8</v>
+      </c>
+      <c r="I35" s="155">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="J35" s="155">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="K35" s="155">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="L35" s="155">
+        <f t="shared" si="17"/>
+        <v>8</v>
+      </c>
+      <c r="M35" s="155">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="U35" s="35"/>
+      <c r="V35" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="W35" s="37">
+        <v>6</v>
+      </c>
+      <c r="X35" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y35" s="36"/>
+      <c r="Z35" s="37"/>
+      <c r="AA35" s="38"/>
+      <c r="AB35" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC35" s="37">
+        <v>4</v>
+      </c>
+      <c r="AD35" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="AE35" s="196"/>
+    </row>
+    <row r="36" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A36" s="12"/>
+      <c r="B36" s="39"/>
+      <c r="C36" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D36" s="39"/>
+      <c r="E36" s="13">
+        <v>2</v>
+      </c>
+      <c r="F36" s="39"/>
+      <c r="G36" s="54">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="I36" s="155">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="J36" s="155">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="K36" s="155">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="L36" s="155">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="M36" s="155">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="U36" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="V36" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="W36" s="33">
+        <v>10</v>
+      </c>
+      <c r="X36" s="84" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y36" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z36" s="49">
+        <v>8</v>
+      </c>
+      <c r="AA36" s="50" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB36" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC36" s="33">
+        <v>4</v>
+      </c>
+      <c r="AD36" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE36" s="204">
+        <f t="shared" ref="AE36" si="22">SUM(Z36:Z37,AC36:AC37,W36:W37)</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D37" s="7"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="7">
+        <v>4</v>
+      </c>
+      <c r="G37" s="134">
+        <f t="shared" si="13"/>
+        <v>4</v>
+      </c>
+      <c r="I37" s="155">
+        <f t="shared" si="14"/>
+        <v>4</v>
+      </c>
+      <c r="J37" s="155">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="K37" s="155">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="L37" s="155">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="M37" s="155">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="U37" s="31"/>
+      <c r="V37" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="W37" s="33">
+        <v>2</v>
+      </c>
+      <c r="X37" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y37" s="32"/>
+      <c r="Z37" s="33"/>
+      <c r="AA37" s="34"/>
+      <c r="AB37" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC37" s="33">
+        <v>3</v>
+      </c>
+      <c r="AD37" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="AE37" s="196"/>
+    </row>
+    <row r="38" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D38" s="7"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="7">
+        <v>10</v>
+      </c>
+      <c r="G38" s="134">
+        <f t="shared" si="13"/>
+        <v>10</v>
+      </c>
+      <c r="I38" s="155">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="J38" s="155">
+        <f t="shared" si="15"/>
+        <v>10</v>
+      </c>
+      <c r="K38" s="155">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="L38" s="155">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="M38" s="155">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="U38" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="V38" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="W38" s="49">
+        <v>5</v>
+      </c>
+      <c r="X38" s="50" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y38" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z38" s="49">
+        <v>9</v>
+      </c>
+      <c r="AA38" s="50" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB38" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC38" s="49">
+        <v>6</v>
+      </c>
+      <c r="AD38" s="40" t="s">
+        <v>120</v>
+      </c>
+      <c r="AE38" s="204">
+        <f t="shared" ref="AE38" si="23">SUM(Z38:Z39,AC38:AC39,W38:W39)</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A39" s="80" t="s">
+        <v>132</v>
+      </c>
+      <c r="B39" s="42" t="s">
+        <v>133</v>
+      </c>
+      <c r="C39" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="D39" s="23"/>
+      <c r="E39" s="23"/>
+      <c r="F39" s="16">
+        <v>4</v>
+      </c>
+      <c r="G39" s="57">
+        <f t="shared" si="13"/>
+        <v>4</v>
+      </c>
+      <c r="I39" s="155">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="J39" s="155">
+        <f t="shared" si="15"/>
+        <v>4</v>
+      </c>
+      <c r="K39" s="155">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="L39" s="155">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="M39" s="155">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="U39" s="35"/>
+      <c r="V39" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="W39" s="37">
+        <v>7</v>
+      </c>
+      <c r="X39" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y39" s="36"/>
+      <c r="Z39" s="37"/>
+      <c r="AA39" s="38"/>
+      <c r="AB39" s="36"/>
+      <c r="AC39" s="37"/>
+      <c r="AD39" s="39"/>
+      <c r="AE39" s="196"/>
+    </row>
+    <row r="40" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A40" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="B40" s="42" t="s">
+        <v>134</v>
+      </c>
+      <c r="C40" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="D40" s="23"/>
+      <c r="E40" s="23"/>
+      <c r="F40" s="8">
+        <v>3</v>
+      </c>
+      <c r="G40" s="134">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="I40" s="155">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="J40" s="155">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="K40" s="155">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="L40" s="155">
+        <f t="shared" si="17"/>
+        <v>3</v>
+      </c>
+      <c r="M40" s="155">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="U40" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="V40" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="W40" s="33">
+        <v>12</v>
+      </c>
+      <c r="X40" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y40" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z40" s="33">
+        <v>9</v>
+      </c>
+      <c r="AA40" s="84" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB40" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC40" s="33">
+        <v>6</v>
+      </c>
+      <c r="AD40" s="85" t="s">
+        <v>136</v>
+      </c>
+      <c r="AE40" s="204">
+        <f t="shared" ref="AE40" si="24">SUM(Z40:Z41,AC40:AC41,W40:W41)</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="41" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="88"/>
+      <c r="B41" s="69"/>
+      <c r="C41" s="70" t="s">
+        <v>1</v>
+      </c>
+      <c r="D41" s="69"/>
+      <c r="E41" s="69"/>
+      <c r="F41" s="69">
+        <v>2</v>
+      </c>
+      <c r="G41" s="140">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="I41" s="155">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="J41" s="155">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="K41" s="155">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="L41" s="155">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="M41" s="155">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="U41" s="31"/>
+      <c r="V41" s="32"/>
+      <c r="W41" s="33"/>
+      <c r="X41" s="34"/>
+      <c r="Y41" s="32"/>
+      <c r="Z41" s="33"/>
+      <c r="AA41" s="34"/>
+      <c r="AB41" s="32"/>
+      <c r="AC41" s="33"/>
+      <c r="AD41" s="7"/>
+      <c r="AE41" s="196"/>
+    </row>
+    <row r="42" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="U42" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="V42" s="48" t="s">
+        <v>74</v>
+      </c>
+      <c r="W42" s="49">
+        <v>12</v>
+      </c>
+      <c r="X42" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y42" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z42" s="49">
+        <v>6</v>
+      </c>
+      <c r="AA42" s="50" t="s">
+        <v>115</v>
+      </c>
+      <c r="AB42" s="48" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC42" s="49">
+        <v>5</v>
+      </c>
+      <c r="AD42" s="40" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE42" s="204">
+        <f t="shared" ref="AE42" si="25">SUM(Z42:Z43,AC42:AC43,W42:W43)</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="43" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U43" s="63"/>
+      <c r="V43" s="64"/>
+      <c r="W43" s="174"/>
+      <c r="X43" s="66"/>
+      <c r="Y43" s="64" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z43" s="65">
+        <v>2</v>
+      </c>
+      <c r="AA43" s="66" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB43" s="64" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC43" s="65">
+        <v>4</v>
+      </c>
+      <c r="AD43" s="67" t="s">
+        <v>120</v>
+      </c>
+      <c r="AE43" s="205"/>
+    </row>
+    <row r="49" spans="35:35" x14ac:dyDescent="0.25">
+      <c r="AI49" t="s">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="AB9:AD9"/>
-    <mergeCell ref="O9:O10"/>
-    <mergeCell ref="P9:R9"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="V9:X9"/>
-    <mergeCell ref="Y9:AA9"/>
+  <mergeCells count="26">
+    <mergeCell ref="AE40:AE41"/>
+    <mergeCell ref="AE42:AE43"/>
+    <mergeCell ref="AE30:AE31"/>
+    <mergeCell ref="AE32:AE33"/>
+    <mergeCell ref="AE34:AE35"/>
+    <mergeCell ref="AE36:AE37"/>
+    <mergeCell ref="AE38:AE39"/>
+    <mergeCell ref="U28:U29"/>
+    <mergeCell ref="V28:X28"/>
+    <mergeCell ref="Y28:AA28"/>
+    <mergeCell ref="AB28:AD28"/>
+    <mergeCell ref="AE28:AE29"/>
     <mergeCell ref="AE21:AE22"/>
     <mergeCell ref="AE23:AE24"/>
     <mergeCell ref="AE9:AE10"/>
@@ -18667,6 +20538,12 @@
     <mergeCell ref="AE15:AE16"/>
     <mergeCell ref="AE17:AE18"/>
     <mergeCell ref="AE19:AE20"/>
+    <mergeCell ref="AB9:AD9"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="P9:R9"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="V9:X9"/>
+    <mergeCell ref="Y9:AA9"/>
   </mergeCells>
   <conditionalFormatting sqref="Z26">
     <cfRule type="cellIs" dxfId="15" priority="15" operator="notEqual">
@@ -18702,18 +20579,19 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD32"/>
   <sheetViews>
     <sheetView topLeftCell="J1" workbookViewId="0">
       <selection activeCell="Y21" activeCellId="1" sqref="Y15 Y21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.42578125" customWidth="1"/>
     <col min="2" max="2" width="35.7109375" customWidth="1"/>
@@ -18737,7 +20615,7 @@
     <col min="26" max="26" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="15.75" thickBot="1">
+    <row r="1" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -18784,7 +20662,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:27">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>30</v>
       </c>
@@ -18837,7 +20715,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:27">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="7"/>
       <c r="C3" s="8" t="s">
@@ -18886,7 +20764,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:27">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>32</v>
       </c>
@@ -18939,7 +20817,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:27" ht="15.75" thickBot="1">
+    <row r="5" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>34</v>
       </c>
@@ -18992,7 +20870,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="15.75" thickBot="1">
+    <row r="6" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6"/>
       <c r="B6" s="7"/>
       <c r="C6" s="8" t="s">
@@ -19040,24 +20918,24 @@
       <c r="R6" s="155">
         <v>15</v>
       </c>
-      <c r="T6" s="179" t="s">
-        <v>0</v>
-      </c>
-      <c r="U6" s="175" t="s">
+      <c r="T6" s="188" t="s">
+        <v>0</v>
+      </c>
+      <c r="U6" s="192" t="s">
         <v>18</v>
       </c>
-      <c r="V6" s="176"/>
-      <c r="W6" s="177"/>
-      <c r="X6" s="175" t="s">
+      <c r="V6" s="193"/>
+      <c r="W6" s="194"/>
+      <c r="X6" s="192" t="s">
         <v>19</v>
       </c>
-      <c r="Y6" s="176"/>
-      <c r="Z6" s="178"/>
-      <c r="AA6" s="179" t="s">
+      <c r="Y6" s="193"/>
+      <c r="Z6" s="195"/>
+      <c r="AA6" s="188" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:27" ht="15.75" thickBot="1">
+    <row r="7" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
         <v>36</v>
       </c>
@@ -19106,7 +20984,7 @@
         <f>SUM(Q2:Q6)</f>
         <v>6982</v>
       </c>
-      <c r="T7" s="180"/>
+      <c r="T7" s="189"/>
       <c r="U7" s="26" t="s">
         <v>26</v>
       </c>
@@ -19125,9 +21003,9 @@
       <c r="Z7" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="AA7" s="180"/>
-    </row>
-    <row r="8" spans="1:27">
+      <c r="AA7" s="189"/>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>40</v>
       </c>
@@ -19187,12 +21065,12 @@
       <c r="Z8" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="AA8" s="181">
+      <c r="AA8" s="196">
         <f>SUM(V8:V9,Y8:Y9)</f>
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:27">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="7"/>
       <c r="C9" s="8" t="s">
@@ -19239,9 +21117,9 @@
       <c r="Z9" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="AA9" s="173"/>
-    </row>
-    <row r="10" spans="1:27">
+      <c r="AA9" s="184"/>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
         <v>44</v>
       </c>
@@ -19300,12 +21178,12 @@
       <c r="Z10" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="AA10" s="173">
+      <c r="AA10" s="184">
         <f t="shared" ref="AA10" si="7">SUM(V10:V11,Y10:Y11)</f>
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:27" ht="15.75" thickBot="1">
+    <row r="11" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="22" t="s">
         <v>46</v>
       </c>
@@ -19362,9 +21240,9 @@
       <c r="Z11" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="AA11" s="173"/>
-    </row>
-    <row r="12" spans="1:27">
+      <c r="AA11" s="184"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" s="12"/>
       <c r="B12" s="39"/>
       <c r="C12" s="13" t="s">
@@ -19398,9 +21276,9 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O12" s="198"/>
-      <c r="P12" s="200"/>
-      <c r="Q12" s="201"/>
+      <c r="O12" s="207"/>
+      <c r="P12" s="209"/>
+      <c r="Q12" s="210"/>
       <c r="T12" s="47" t="s">
         <v>49</v>
       </c>
@@ -19422,12 +21300,12 @@
       <c r="Z12" s="79" t="s">
         <v>130</v>
       </c>
-      <c r="AA12" s="173">
+      <c r="AA12" s="184">
         <f t="shared" ref="AA12" si="8">SUM(V12:V13,Y12:Y13)</f>
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:27" ht="15.75" thickBot="1">
+    <row r="13" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
         <v>50</v>
       </c>
@@ -19465,7 +21343,7 @@
         <f t="shared" si="5"/>
         <v>60</v>
       </c>
-      <c r="O13" s="199"/>
+      <c r="O13" s="208"/>
       <c r="P13" s="52"/>
       <c r="Q13" s="53"/>
       <c r="T13" s="35"/>
@@ -19487,9 +21365,9 @@
       <c r="Z13" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="AA13" s="173"/>
-    </row>
-    <row r="14" spans="1:27">
+      <c r="AA13" s="184"/>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>53</v>
       </c>
@@ -19551,12 +21429,12 @@
       <c r="Z14" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="AA14" s="173">
+      <c r="AA14" s="184">
         <f t="shared" ref="AA14" si="9">SUM(V14:V15,Y14:Y15)</f>
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:27">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="56"/>
       <c r="B15" s="7"/>
       <c r="C15" s="8" t="s">
@@ -19612,9 +21490,9 @@
       <c r="Z15" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="AA15" s="173"/>
-    </row>
-    <row r="16" spans="1:27">
+      <c r="AA15" s="184"/>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
         <v>48</v>
       </c>
@@ -19676,12 +21554,12 @@
       <c r="Z16" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="AA16" s="173">
+      <c r="AA16" s="184">
         <f t="shared" ref="AA16" si="10">SUM(V16:V17,Y16:Y17)</f>
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:30">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>42</v>
       </c>
@@ -19741,9 +21619,9 @@
       <c r="Z17" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="AA17" s="173"/>
-    </row>
-    <row r="18" spans="1:30">
+      <c r="AA17" s="184"/>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="B18" s="7"/>
       <c r="C18" s="8" t="s">
@@ -19801,12 +21679,12 @@
       <c r="Z18" s="85" t="s">
         <v>58</v>
       </c>
-      <c r="AA18" s="173">
+      <c r="AA18" s="184">
         <f t="shared" ref="AA18" si="11">SUM(V18:V19,Y18:Y19)</f>
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="1:30">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A19" s="22" t="s">
         <v>55</v>
       </c>
@@ -19866,9 +21744,9 @@
       <c r="Z19" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="AA19" s="173"/>
-    </row>
-    <row r="20" spans="1:30" ht="15.75" thickBot="1">
+      <c r="AA19" s="184"/>
+    </row>
+    <row r="20" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="12"/>
       <c r="B20" s="39"/>
       <c r="C20" s="13" t="s">
@@ -19926,12 +21804,12 @@
       <c r="Z20" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="AA20" s="173">
+      <c r="AA20" s="184">
         <f t="shared" ref="AA20" si="12">SUM(V20:V21,Y20:Y21)</f>
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:30" ht="15.75" thickBot="1">
+    <row r="21" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>58</v>
       </c>
@@ -19985,9 +21863,9 @@
       <c r="Z21" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="AA21" s="174"/>
-    </row>
-    <row r="22" spans="1:30">
+      <c r="AA21" s="198"/>
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
       <c r="B22" s="7"/>
       <c r="C22" s="8" t="s">
@@ -20022,7 +21900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:30">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A23" s="48" t="s">
         <v>43</v>
       </c>
@@ -20061,7 +21939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:30">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A24" s="32"/>
       <c r="B24" s="8"/>
       <c r="C24" s="10" t="s">
@@ -20104,7 +21982,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="25" spans="1:30">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A25" s="32"/>
       <c r="B25" s="8"/>
       <c r="C25" s="10" t="s">
@@ -20139,7 +22017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:30" ht="15.75" thickBot="1">
+    <row r="26" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="64"/>
       <c r="B26" s="69"/>
       <c r="C26" s="70" t="s">
@@ -20175,14 +22053,14 @@
       </c>
       <c r="AD26" s="30"/>
     </row>
-    <row r="27" spans="1:30" ht="15.75" thickBot="1">
+    <row r="27" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H27" s="155"/>
       <c r="I27" s="155"/>
       <c r="J27" s="155"/>
       <c r="K27" s="155"/>
       <c r="L27" s="155"/>
     </row>
-    <row r="28" spans="1:30" ht="15.75" thickBot="1">
+    <row r="28" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="72" t="s">
         <v>61</v>
       </c>
@@ -20221,17 +22099,11 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:30">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
       <c r="E32" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="AA10:AA11"/>
-    <mergeCell ref="T6:T7"/>
-    <mergeCell ref="U6:W6"/>
-    <mergeCell ref="X6:Z6"/>
-    <mergeCell ref="AA6:AA7"/>
-    <mergeCell ref="AA8:AA9"/>
     <mergeCell ref="AA20:AA21"/>
     <mergeCell ref="O12:O13"/>
     <mergeCell ref="P12:Q12"/>
@@ -20239,6 +22111,12 @@
     <mergeCell ref="AA14:AA15"/>
     <mergeCell ref="AA16:AA17"/>
     <mergeCell ref="AA18:AA19"/>
+    <mergeCell ref="AA10:AA11"/>
+    <mergeCell ref="T6:T7"/>
+    <mergeCell ref="U6:W6"/>
+    <mergeCell ref="X6:Z6"/>
+    <mergeCell ref="AA6:AA7"/>
+    <mergeCell ref="AA8:AA9"/>
   </mergeCells>
   <conditionalFormatting sqref="Y24">
     <cfRule type="cellIs" dxfId="7" priority="3" operator="notEqual">
@@ -20262,14 +22140,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI32"/>
   <sheetViews>
     <sheetView topLeftCell="F7" workbookViewId="0">
       <selection activeCell="AF8" sqref="AF8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.42578125" customWidth="1"/>
     <col min="2" max="2" width="35.7109375" customWidth="1"/>
@@ -20294,7 +22172,7 @@
     <col min="29" max="29" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="15.75" thickBot="1">
+    <row r="1" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -20341,7 +22219,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:27" ht="15.75" thickBot="1">
+    <row r="2" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>62</v>
       </c>
@@ -20394,7 +22272,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:27">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
         <v>64</v>
       </c>
@@ -20446,24 +22324,24 @@
       <c r="R3" s="155">
         <v>20</v>
       </c>
-      <c r="T3" s="179" t="s">
-        <v>0</v>
-      </c>
-      <c r="U3" s="175" t="s">
+      <c r="T3" s="188" t="s">
+        <v>0</v>
+      </c>
+      <c r="U3" s="192" t="s">
         <v>18</v>
       </c>
-      <c r="V3" s="176"/>
-      <c r="W3" s="177"/>
-      <c r="X3" s="175" t="s">
+      <c r="V3" s="193"/>
+      <c r="W3" s="194"/>
+      <c r="X3" s="192" t="s">
         <v>19</v>
       </c>
-      <c r="Y3" s="176"/>
-      <c r="Z3" s="178"/>
-      <c r="AA3" s="179" t="s">
+      <c r="Y3" s="193"/>
+      <c r="Z3" s="195"/>
+      <c r="AA3" s="188" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="15.75" thickBot="1">
+    <row r="4" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="12"/>
       <c r="B4" s="13"/>
       <c r="C4" s="45" t="s">
@@ -20511,7 +22389,7 @@
       <c r="R4" s="155">
         <v>15</v>
       </c>
-      <c r="T4" s="180"/>
+      <c r="T4" s="189"/>
       <c r="U4" s="26" t="s">
         <v>26</v>
       </c>
@@ -20530,9 +22408,9 @@
       <c r="Z4" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="AA4" s="180"/>
-    </row>
-    <row r="5" spans="1:27">
+      <c r="AA4" s="189"/>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="76" t="s">
         <v>66</v>
       </c>
@@ -20605,12 +22483,12 @@
       <c r="Z5" s="79" t="s">
         <v>71</v>
       </c>
-      <c r="AA5" s="181">
+      <c r="AA5" s="196">
         <f>SUM(V5:V6,Y5:Y6)</f>
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="15.75" thickBot="1">
+    <row r="6" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="80" t="s">
         <v>69</v>
       </c>
@@ -20675,9 +22553,9 @@
       <c r="X6" s="81"/>
       <c r="Y6" s="37"/>
       <c r="Z6" s="83"/>
-      <c r="AA6" s="173"/>
-    </row>
-    <row r="7" spans="1:27" ht="15.75" thickBot="1">
+      <c r="AA6" s="184"/>
+    </row>
+    <row r="7" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12"/>
       <c r="B7" s="13"/>
       <c r="C7" s="45" t="s">
@@ -20743,12 +22621,12 @@
       <c r="Z7" s="85" t="s">
         <v>71</v>
       </c>
-      <c r="AA7" s="173">
+      <c r="AA7" s="184">
         <f t="shared" ref="AA7" si="7">SUM(V7:V8,Y7:Y8)</f>
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:27">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="76" t="s">
         <v>68</v>
       </c>
@@ -20799,9 +22677,9 @@
       <c r="Z8" s="85" t="s">
         <v>71</v>
       </c>
-      <c r="AA8" s="173"/>
-    </row>
-    <row r="9" spans="1:27">
+      <c r="AA8" s="184"/>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="80" t="s">
         <v>71</v>
       </c>
@@ -20860,12 +22738,12 @@
       <c r="Z9" s="79" t="s">
         <v>68</v>
       </c>
-      <c r="AA9" s="173">
+      <c r="AA9" s="184">
         <f t="shared" ref="AA9" si="8">SUM(V9:V10,Y9:Y10)</f>
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:27" ht="15.75" thickBot="1">
+    <row r="10" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="88"/>
       <c r="B10" s="69"/>
       <c r="C10" s="70" t="s">
@@ -20906,9 +22784,9 @@
       <c r="X10" s="81"/>
       <c r="Y10" s="37"/>
       <c r="Z10" s="83"/>
-      <c r="AA10" s="173"/>
-    </row>
-    <row r="11" spans="1:27" ht="15.75" thickBot="1">
+      <c r="AA10" s="184"/>
+    </row>
+    <row r="11" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -20941,12 +22819,12 @@
       <c r="Z11" s="79" t="s">
         <v>68</v>
       </c>
-      <c r="AA11" s="173">
+      <c r="AA11" s="184">
         <f t="shared" ref="AA11" si="9">SUM(V11:V12,Y11:Y12)</f>
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:27" ht="15.75" thickBot="1">
+    <row r="12" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="72" t="s">
         <v>14</v>
       </c>
@@ -20984,9 +22862,9 @@
         <f t="shared" si="11"/>
         <v>20</v>
       </c>
-      <c r="O12" s="175"/>
-      <c r="P12" s="176"/>
-      <c r="Q12" s="177"/>
+      <c r="O12" s="192"/>
+      <c r="P12" s="193"/>
+      <c r="Q12" s="194"/>
       <c r="T12" s="31"/>
       <c r="U12" s="78"/>
       <c r="V12" s="33"/>
@@ -20994,16 +22872,16 @@
       <c r="X12" s="78"/>
       <c r="Y12" s="33"/>
       <c r="Z12" s="85"/>
-      <c r="AA12" s="173"/>
-    </row>
-    <row r="13" spans="1:27" ht="15.75" thickBot="1">
+      <c r="AA12" s="184"/>
+    </row>
+    <row r="13" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
       <c r="F13" s="90"/>
-      <c r="O13" s="197"/>
+      <c r="O13" s="201"/>
       <c r="P13" s="93"/>
       <c r="Q13" s="94"/>
       <c r="T13" s="47" t="s">
@@ -21027,12 +22905,12 @@
       <c r="Z13" s="79" t="s">
         <v>68</v>
       </c>
-      <c r="AA13" s="173">
+      <c r="AA13" s="184">
         <f t="shared" ref="AA13" si="12">SUM(V13:V14,Y13:Y14)</f>
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:27">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -21049,9 +22927,9 @@
       <c r="X14" s="81"/>
       <c r="Y14" s="37"/>
       <c r="Z14" s="83"/>
-      <c r="AA14" s="173"/>
-    </row>
-    <row r="15" spans="1:27">
+      <c r="AA14" s="184"/>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="95"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -21082,12 +22960,12 @@
       <c r="Z15" s="85" t="s">
         <v>68</v>
       </c>
-      <c r="AA15" s="173">
+      <c r="AA15" s="184">
         <f t="shared" ref="AA15" si="13">SUM(V15:V16,Y15:Y16)</f>
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:27">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -21104,9 +22982,9 @@
       <c r="X16" s="78"/>
       <c r="Y16" s="33"/>
       <c r="Z16" s="85"/>
-      <c r="AA16" s="173"/>
-    </row>
-    <row r="17" spans="1:35">
+      <c r="AA16" s="184"/>
+    </row>
+    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -21137,12 +23015,12 @@
       <c r="Z17" s="79" t="s">
         <v>68</v>
       </c>
-      <c r="AA17" s="173">
+      <c r="AA17" s="184">
         <f t="shared" ref="AA17" si="14">SUM(V17:V18,Y17:Y18)</f>
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:35" ht="15.75" thickBot="1">
+    <row r="18" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -21159,9 +23037,9 @@
       <c r="X18" s="96"/>
       <c r="Y18" s="65"/>
       <c r="Z18" s="98"/>
-      <c r="AA18" s="174"/>
-    </row>
-    <row r="19" spans="1:35">
+      <c r="AA18" s="198"/>
+    </row>
+    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -21172,7 +23050,7 @@
       <c r="P19" s="16"/>
       <c r="Q19" s="57"/>
     </row>
-    <row r="20" spans="1:35" ht="15.75" thickBot="1">
+    <row r="20" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -21191,7 +23069,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:35" ht="15.75" thickBot="1">
+    <row r="21" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -21202,7 +23080,7 @@
       <c r="P21" s="61"/>
       <c r="Q21" s="62"/>
     </row>
-    <row r="22" spans="1:35">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
@@ -21210,7 +23088,7 @@
       <c r="E22" s="9"/>
       <c r="F22" s="90"/>
     </row>
-    <row r="23" spans="1:35">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -21218,7 +23096,7 @@
       <c r="E23" s="9"/>
       <c r="F23" s="7"/>
     </row>
-    <row r="24" spans="1:35">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="9"/>
@@ -21226,7 +23104,7 @@
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
     </row>
-    <row r="25" spans="1:35">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="9"/>
@@ -21234,7 +23112,7 @@
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
     </row>
-    <row r="26" spans="1:35">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="9"/>
@@ -21242,7 +23120,7 @@
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
     </row>
-    <row r="27" spans="1:35">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
@@ -21258,7 +23136,7 @@
       <c r="AH27" s="7"/>
       <c r="AI27" s="7"/>
     </row>
-    <row r="28" spans="1:35">
+    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
@@ -21274,7 +23152,7 @@
       <c r="AH28" s="7"/>
       <c r="AI28" s="7"/>
     </row>
-    <row r="29" spans="1:35">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
       <c r="AB29" s="9"/>
       <c r="AC29" s="9"/>
       <c r="AD29" s="9"/>
@@ -21284,7 +23162,7 @@
       <c r="AH29" s="7"/>
       <c r="AI29" s="7"/>
     </row>
-    <row r="30" spans="1:35">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
       <c r="AB30" s="7"/>
       <c r="AC30" s="7"/>
       <c r="AD30" s="9"/>
@@ -21294,7 +23172,7 @@
       <c r="AH30" s="7"/>
       <c r="AI30" s="7"/>
     </row>
-    <row r="31" spans="1:35">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
       <c r="AB31" s="7"/>
       <c r="AC31" s="7"/>
       <c r="AD31" s="7"/>
@@ -21304,7 +23182,7 @@
       <c r="AH31" s="7"/>
       <c r="AI31" s="7"/>
     </row>
-    <row r="32" spans="1:35">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
       <c r="Q32" s="30"/>
       <c r="AB32" s="7"/>
       <c r="AC32" s="7"/>
@@ -21317,12 +23195,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="AA7:AA8"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="U3:W3"/>
-    <mergeCell ref="X3:Z3"/>
-    <mergeCell ref="AA3:AA4"/>
-    <mergeCell ref="AA5:AA6"/>
     <mergeCell ref="AA17:AA18"/>
     <mergeCell ref="AA9:AA10"/>
     <mergeCell ref="AA11:AA12"/>
@@ -21330,6 +23202,12 @@
     <mergeCell ref="P12:Q12"/>
     <mergeCell ref="AA13:AA14"/>
     <mergeCell ref="AA15:AA16"/>
+    <mergeCell ref="AA7:AA8"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="U3:W3"/>
+    <mergeCell ref="X3:Z3"/>
+    <mergeCell ref="AA3:AA4"/>
+    <mergeCell ref="AA5:AA6"/>
   </mergeCells>
   <conditionalFormatting sqref="Y20">
     <cfRule type="cellIs" dxfId="3" priority="3" operator="notEqual">
@@ -21353,14 +23231,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR146"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="B8" sqref="B8:H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
     <col min="2" max="2" width="13.42578125" customWidth="1"/>
@@ -21371,7 +23249,7 @@
     <col min="7" max="7" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44">
+    <row r="1" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -21397,7 +23275,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:44">
+    <row r="2" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -21423,7 +23301,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:44">
+    <row r="3" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -21449,7 +23327,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:44">
+    <row r="4" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -21496,7 +23374,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="5" spans="1:44">
+    <row r="5" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -21522,7 +23400,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="6" spans="1:44">
+    <row r="6" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -21569,7 +23447,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="7" spans="1:44">
+    <row r="7" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -21595,7 +23473,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="8" spans="1:44">
+    <row r="8" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -21642,7 +23520,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:44">
+    <row r="9" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -21675,7 +23553,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="10" spans="1:44">
+    <row r="10" spans="1:44" x14ac:dyDescent="0.25">
       <c r="AL10">
         <v>15</v>
       </c>
@@ -21698,7 +23576,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="12" spans="1:44">
+    <row r="12" spans="1:44" x14ac:dyDescent="0.25">
       <c r="AL12">
         <v>9</v>
       </c>
@@ -21721,7 +23599,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="14" spans="1:44">
+    <row r="14" spans="1:44" x14ac:dyDescent="0.25">
       <c r="AL14">
         <v>6</v>
       </c>
@@ -21744,7 +23622,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="16" spans="1:44">
+    <row r="16" spans="1:44" x14ac:dyDescent="0.25">
       <c r="AL16">
         <v>2</v>
       </c>
@@ -21767,7 +23645,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="38:44">
+    <row r="18" spans="38:44" x14ac:dyDescent="0.25">
       <c r="AL18">
         <v>59</v>
       </c>
@@ -21790,7 +23668,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="39" spans="5:8">
+    <row r="39" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E39" t="str">
         <f>'Prospetto orario (CON AN)'!T51</f>
         <v>Ruolo</v>
@@ -21804,7 +23682,7 @@
         <v>Costo</v>
       </c>
     </row>
-    <row r="40" spans="5:8">
+    <row r="40" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E40" t="str">
         <f>'Prospetto orario (CON AN)'!T52</f>
         <v>Responsabile</v>
@@ -21821,7 +23699,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="41" spans="5:8">
+    <row r="41" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E41" t="str">
         <f>'Prospetto orario (CON AN)'!T53</f>
         <v>Amministratore</v>
@@ -21838,7 +23716,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="5:8">
+    <row r="42" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E42" t="str">
         <f>'Prospetto orario (CON AN)'!T54</f>
         <v>Analista</v>
@@ -21855,7 +23733,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="43" spans="5:8">
+    <row r="43" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E43" t="str">
         <f>'Prospetto orario (CON AN)'!T55</f>
         <v>Verificatore</v>
@@ -21872,7 +23750,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="5:8">
+    <row r="44" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E44" t="str">
         <f>'Prospetto orario (CON AN)'!T56</f>
         <v>Progettista</v>
@@ -21889,7 +23767,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="45" spans="5:8">
+    <row r="45" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E45" t="str">
         <f>'Prospetto orario (CON AN)'!T57</f>
         <v>Programmatore</v>
@@ -21906,7 +23784,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="5:8">
+    <row r="46" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E46" t="str">
         <f>'Prospetto orario (CON AN)'!T58</f>
         <v>Totale</v>
@@ -21920,7 +23798,7 @@
         <v>13705</v>
       </c>
     </row>
-    <row r="92" spans="41:42">
+    <row r="92" spans="41:42" x14ac:dyDescent="0.25">
       <c r="AO92">
         <v>12</v>
       </c>
@@ -21928,7 +23806,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="41:42">
+    <row r="93" spans="41:42" x14ac:dyDescent="0.25">
       <c r="AO93">
         <v>0</v>
       </c>
@@ -21936,7 +23814,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="94" spans="41:42">
+    <row r="94" spans="41:42" x14ac:dyDescent="0.25">
       <c r="AO94">
         <v>6</v>
       </c>
@@ -21944,7 +23822,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="95" spans="41:42">
+    <row r="95" spans="41:42" x14ac:dyDescent="0.25">
       <c r="AO95">
         <v>0</v>
       </c>
@@ -21952,7 +23830,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="96" spans="41:42">
+    <row r="96" spans="41:42" x14ac:dyDescent="0.25">
       <c r="AO96">
         <v>0</v>
       </c>
@@ -21960,7 +23838,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="97" spans="41:42">
+    <row r="97" spans="41:42" x14ac:dyDescent="0.25">
       <c r="AO97">
         <v>0</v>
       </c>
@@ -21968,7 +23846,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="98" spans="41:42">
+    <row r="98" spans="41:42" x14ac:dyDescent="0.25">
       <c r="AO98">
         <v>12</v>
       </c>
@@ -21976,37 +23854,37 @@
         <v>18</v>
       </c>
     </row>
-    <row r="140" spans="41:41">
+    <row r="140" spans="41:41" x14ac:dyDescent="0.25">
       <c r="AO140">
         <v>12</v>
       </c>
     </row>
-    <row r="141" spans="41:41">
+    <row r="141" spans="41:41" x14ac:dyDescent="0.25">
       <c r="AO141">
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="41:41">
+    <row r="142" spans="41:41" x14ac:dyDescent="0.25">
       <c r="AO142">
         <v>6</v>
       </c>
     </row>
-    <row r="143" spans="41:41">
+    <row r="143" spans="41:41" x14ac:dyDescent="0.25">
       <c r="AO143">
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="41:41">
+    <row r="144" spans="41:41" x14ac:dyDescent="0.25">
       <c r="AO144">
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="41:41">
+    <row r="145" spans="41:41" x14ac:dyDescent="0.25">
       <c r="AO145">
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="41:41">
+    <row r="146" spans="41:41" x14ac:dyDescent="0.25">
       <c r="AO146">
         <v>12</v>
       </c>

--- a/RP/Esterni/Piano di Progetto/Ripartizione ruoli e ore.xlsx
+++ b/RP/Esterni/Piano di Progetto/Ripartizione ruoli e ore.xlsx
@@ -1530,45 +1530,10 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1583,28 +1548,54 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1614,6 +1605,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2039,12 +2039,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="98229248"/>
-        <c:axId val="98231040"/>
+        <c:axId val="66619264"/>
+        <c:axId val="66620800"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="98229248"/>
+        <c:axId val="66619264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2053,7 +2053,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98231040"/>
+        <c:crossAx val="66620800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2061,7 +2061,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="98231040"/>
+        <c:axId val="66620800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2072,7 +2072,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98229248"/>
+        <c:crossAx val="66619264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2262,12 +2262,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="101029376"/>
-        <c:axId val="101030912"/>
+        <c:axId val="75310208"/>
+        <c:axId val="75311744"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="101029376"/>
+        <c:axId val="75310208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2276,7 +2276,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101030912"/>
+        <c:crossAx val="75311744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2284,7 +2284,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="101030912"/>
+        <c:axId val="75311744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2295,9 +2295,10 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101029376"/>
+        <c:crossAx val="75310208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="100"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -2830,11 +2831,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="102923648"/>
-        <c:axId val="102937728"/>
+        <c:axId val="76295168"/>
+        <c:axId val="76313344"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="102923648"/>
+        <c:axId val="76295168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2843,7 +2844,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102937728"/>
+        <c:crossAx val="76313344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2851,7 +2852,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="102937728"/>
+        <c:axId val="76313344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2862,7 +2863,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102923648"/>
+        <c:crossAx val="76295168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3677,19 +3678,19 @@
         <f>'1_AN'!O2</f>
         <v>Membro</v>
       </c>
-      <c r="AC2" s="185" t="str">
+      <c r="AC2" s="189" t="str">
         <f>'1_AN'!P2</f>
         <v>I Periodo</v>
       </c>
-      <c r="AD2" s="186"/>
-      <c r="AE2" s="187"/>
-      <c r="AF2" s="185" t="str">
+      <c r="AD2" s="190"/>
+      <c r="AE2" s="191"/>
+      <c r="AF2" s="189" t="str">
         <f>'1_AN'!S2</f>
         <v>II Periodo</v>
       </c>
-      <c r="AG2" s="186"/>
-      <c r="AH2" s="186"/>
-      <c r="AI2" s="188" t="str">
+      <c r="AG2" s="190"/>
+      <c r="AH2" s="190"/>
+      <c r="AI2" s="183" t="str">
         <f>'1_AN'!V2</f>
         <v>Totale</v>
       </c>
@@ -3823,7 +3824,7 @@
         <f>'1_AN'!U3</f>
         <v>Fase</v>
       </c>
-      <c r="AI3" s="189"/>
+      <c r="AI3" s="184"/>
     </row>
     <row r="4" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A4" s="147" t="s">
@@ -4706,25 +4707,25 @@
       <c r="AB12" s="149" t="s">
         <v>126</v>
       </c>
-      <c r="AC12" s="185" t="str">
+      <c r="AC12" s="189" t="str">
         <f>'2_PA'!V9</f>
         <v>I Periodo</v>
       </c>
-      <c r="AD12" s="190"/>
-      <c r="AE12" s="191"/>
-      <c r="AF12" s="192" t="str">
+      <c r="AD12" s="192"/>
+      <c r="AE12" s="193"/>
+      <c r="AF12" s="179" t="str">
         <f>'2_PA'!Y9</f>
         <v>II Periodo</v>
       </c>
-      <c r="AG12" s="193"/>
-      <c r="AH12" s="194"/>
-      <c r="AI12" s="192" t="str">
+      <c r="AG12" s="180"/>
+      <c r="AH12" s="181"/>
+      <c r="AI12" s="179" t="str">
         <f>'2_PA'!AB9</f>
         <v>III Periodo</v>
       </c>
-      <c r="AJ12" s="193"/>
-      <c r="AK12" s="195"/>
-      <c r="AL12" s="188" t="str">
+      <c r="AJ12" s="180"/>
+      <c r="AK12" s="182"/>
+      <c r="AL12" s="183" t="str">
         <f>'2_PA'!AE9</f>
         <v>Totale</v>
       </c>
@@ -4775,7 +4776,7 @@
         <f>'2_PA'!AD10</f>
         <v>Fase</v>
       </c>
-      <c r="AL13" s="189"/>
+      <c r="AL13" s="184"/>
       <c r="AM13">
         <f>SUM(AL14:AL27)</f>
         <v>193</v>
@@ -4830,7 +4831,7 @@
         <f>'2_PA'!AD11</f>
         <v>PA 3.2</v>
       </c>
-      <c r="AL14" s="196">
+      <c r="AL14" s="185">
         <f>'2_PA'!AE11</f>
         <v>26</v>
       </c>
@@ -4960,7 +4961,7 @@
         <f>'2_PA'!AD12</f>
         <v>0</v>
       </c>
-      <c r="AL15" s="184"/>
+      <c r="AL15" s="177"/>
       <c r="AO15">
         <f>IF($AC15=AO$2,$AD15,0)</f>
         <v>0</v>
@@ -5079,7 +5080,7 @@
         <f>'2_PA'!AD13</f>
         <v>PA 3.2</v>
       </c>
-      <c r="AL16" s="184">
+      <c r="AL16" s="177">
         <f>'2_PA'!AE13</f>
         <v>27</v>
       </c>
@@ -5201,7 +5202,7 @@
         <f>'2_PA'!AD14</f>
         <v>0</v>
       </c>
-      <c r="AL17" s="184"/>
+      <c r="AL17" s="177"/>
       <c r="AO17">
         <f t="shared" si="35"/>
         <v>0</v>
@@ -5320,7 +5321,7 @@
         <f>'2_PA'!AD15</f>
         <v>PA 3.3</v>
       </c>
-      <c r="AL18" s="184">
+      <c r="AL18" s="177">
         <f>'2_PA'!AE15</f>
         <v>26</v>
       </c>
@@ -5442,7 +5443,7 @@
         <f>'2_PA'!AD16</f>
         <v>PA 6.1</v>
       </c>
-      <c r="AL19" s="184"/>
+      <c r="AL19" s="177"/>
       <c r="AO19">
         <f t="shared" si="35"/>
         <v>0</v>
@@ -5561,7 +5562,7 @@
         <f>'2_PA'!AD17</f>
         <v>PA 3.3</v>
       </c>
-      <c r="AL20" s="184">
+      <c r="AL20" s="177">
         <f>'2_PA'!AE17</f>
         <v>28</v>
       </c>
@@ -5683,7 +5684,7 @@
         <f>'2_PA'!AD18</f>
         <v>PA 6.2</v>
       </c>
-      <c r="AL21" s="184"/>
+      <c r="AL21" s="177"/>
       <c r="AO21">
         <f t="shared" si="35"/>
         <v>0</v>
@@ -5802,7 +5803,7 @@
         <f>'2_PA'!AD19</f>
         <v>PA 5.1</v>
       </c>
-      <c r="AL22" s="184">
+      <c r="AL22" s="177">
         <f>'2_PA'!AE19</f>
         <v>30</v>
       </c>
@@ -5887,36 +5888,36 @@
       <c r="A23" s="153" t="s">
         <v>0</v>
       </c>
-      <c r="B23" s="197" t="s">
+      <c r="B23" s="194" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="197"/>
-      <c r="D23" s="197"/>
-      <c r="E23" s="197" t="s">
+      <c r="C23" s="194"/>
+      <c r="D23" s="194"/>
+      <c r="E23" s="194" t="s">
         <v>2</v>
       </c>
-      <c r="F23" s="197"/>
-      <c r="G23" s="197"/>
-      <c r="H23" s="197" t="s">
+      <c r="F23" s="194"/>
+      <c r="G23" s="194"/>
+      <c r="H23" s="194" t="s">
         <v>3</v>
       </c>
-      <c r="I23" s="197"/>
-      <c r="J23" s="197"/>
-      <c r="K23" s="197" t="s">
+      <c r="I23" s="194"/>
+      <c r="J23" s="194"/>
+      <c r="K23" s="194" t="s">
         <v>4</v>
       </c>
-      <c r="L23" s="197"/>
-      <c r="M23" s="197"/>
-      <c r="N23" s="197" t="s">
+      <c r="L23" s="194"/>
+      <c r="M23" s="194"/>
+      <c r="N23" s="194" t="s">
         <v>5</v>
       </c>
-      <c r="O23" s="197"/>
-      <c r="P23" s="197"/>
-      <c r="Q23" s="197" t="s">
+      <c r="O23" s="194"/>
+      <c r="P23" s="194"/>
+      <c r="Q23" s="194" t="s">
         <v>6</v>
       </c>
-      <c r="R23" s="197"/>
-      <c r="S23" s="197"/>
+      <c r="R23" s="194"/>
+      <c r="S23" s="194"/>
       <c r="T23" s="159" t="s">
         <v>14</v>
       </c>
@@ -5961,7 +5962,7 @@
         <f>'2_PA'!AD20</f>
         <v>0</v>
       </c>
-      <c r="AL23" s="184"/>
+      <c r="AL23" s="177"/>
       <c r="AO23">
         <f t="shared" si="35"/>
         <v>0</v>
@@ -6040,50 +6041,50 @@
       </c>
     </row>
     <row r="24" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A24" s="183" t="s">
+      <c r="A24" s="186" t="s">
         <v>7</v>
       </c>
-      <c r="B24" s="181">
+      <c r="B24" s="188">
         <f>SUM(AO4:AQ4,AO14:AQ15,AO31:AQ32,AO48:AQ49)</f>
         <v>17</v>
       </c>
-      <c r="C24" s="181"/>
-      <c r="D24" s="181"/>
-      <c r="E24" s="181">
+      <c r="C24" s="188"/>
+      <c r="D24" s="188"/>
+      <c r="E24" s="188">
         <f>SUM(AR4:AT4,AR14:AT15,AR31:AT32,AR48:AT49)</f>
         <v>10</v>
       </c>
-      <c r="F24" s="181"/>
-      <c r="G24" s="181"/>
-      <c r="H24" s="182">
+      <c r="F24" s="188"/>
+      <c r="G24" s="188"/>
+      <c r="H24" s="187">
         <f>SUM(AU4:AW4,AU14:AW15,AU31:AW32,AU48:AW49)</f>
         <v>15</v>
       </c>
-      <c r="I24" s="182"/>
-      <c r="J24" s="182"/>
-      <c r="K24" s="181">
+      <c r="I24" s="187"/>
+      <c r="J24" s="187"/>
+      <c r="K24" s="188">
         <f>SUM(AX4:AZ4,AX14:AZ15,AX31:AZ32,AX48:AZ49)</f>
         <v>10</v>
       </c>
-      <c r="L24" s="181"/>
-      <c r="M24" s="181"/>
-      <c r="N24" s="182">
+      <c r="L24" s="188"/>
+      <c r="M24" s="188"/>
+      <c r="N24" s="187">
         <f>SUM(BA4:BC4,BA14:BC15,BA31:BC32,BA48:BC49)</f>
         <v>59</v>
       </c>
-      <c r="O24" s="182"/>
-      <c r="P24" s="182"/>
-      <c r="Q24" s="181">
+      <c r="O24" s="187"/>
+      <c r="P24" s="187"/>
+      <c r="Q24" s="188">
         <f t="shared" ref="Q24" si="38">SUM(BD4:BF4,BD14:BF15,BD31:BF32,BD48:BF49)</f>
         <v>4</v>
       </c>
-      <c r="R24" s="181"/>
-      <c r="S24" s="181"/>
-      <c r="T24" s="178">
+      <c r="R24" s="188"/>
+      <c r="S24" s="188"/>
+      <c r="T24" s="197">
         <f t="shared" ref="T24" si="39">SUM(B24:S25)</f>
         <v>115</v>
       </c>
-      <c r="U24" s="177"/>
+      <c r="U24" s="196"/>
       <c r="AB24" s="31" t="str">
         <f>'2_PA'!U21</f>
         <v>Quadrio Giacomo</v>
@@ -6124,7 +6125,7 @@
         <f>'2_PA'!AD21</f>
         <v>PA 5.1, 6.2</v>
       </c>
-      <c r="AL24" s="184">
+      <c r="AL24" s="177">
         <f>'2_PA'!AE21</f>
         <v>28</v>
       </c>
@@ -6206,27 +6207,27 @@
       </c>
     </row>
     <row r="25" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A25" s="183"/>
-      <c r="B25" s="181"/>
-      <c r="C25" s="181"/>
-      <c r="D25" s="181"/>
-      <c r="E25" s="181"/>
-      <c r="F25" s="181"/>
-      <c r="G25" s="181"/>
-      <c r="H25" s="182"/>
-      <c r="I25" s="182"/>
-      <c r="J25" s="182"/>
-      <c r="K25" s="181"/>
-      <c r="L25" s="181"/>
-      <c r="M25" s="181"/>
-      <c r="N25" s="182"/>
-      <c r="O25" s="182"/>
-      <c r="P25" s="182"/>
-      <c r="Q25" s="181"/>
-      <c r="R25" s="181"/>
-      <c r="S25" s="181"/>
-      <c r="T25" s="178"/>
-      <c r="U25" s="177"/>
+      <c r="A25" s="186"/>
+      <c r="B25" s="188"/>
+      <c r="C25" s="188"/>
+      <c r="D25" s="188"/>
+      <c r="E25" s="188"/>
+      <c r="F25" s="188"/>
+      <c r="G25" s="188"/>
+      <c r="H25" s="187"/>
+      <c r="I25" s="187"/>
+      <c r="J25" s="187"/>
+      <c r="K25" s="188"/>
+      <c r="L25" s="188"/>
+      <c r="M25" s="188"/>
+      <c r="N25" s="187"/>
+      <c r="O25" s="187"/>
+      <c r="P25" s="187"/>
+      <c r="Q25" s="188"/>
+      <c r="R25" s="188"/>
+      <c r="S25" s="188"/>
+      <c r="T25" s="197"/>
+      <c r="U25" s="196"/>
       <c r="AB25" s="31">
         <f>'2_PA'!U22</f>
         <v>0</v>
@@ -6267,7 +6268,7 @@
         <f>'2_PA'!AD22</f>
         <v>0</v>
       </c>
-      <c r="AL25" s="184"/>
+      <c r="AL25" s="177"/>
       <c r="AO25">
         <f t="shared" si="35"/>
         <v>0</v>
@@ -6346,50 +6347,50 @@
       </c>
     </row>
     <row r="26" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A26" s="183" t="s">
+      <c r="A26" s="186" t="s">
         <v>11</v>
       </c>
-      <c r="B26" s="181">
+      <c r="B26" s="188">
         <f>SUM(AO5:AQ5,AO16:AQ17,AO33:AQ34,AO50:AQ51)</f>
         <v>13</v>
       </c>
-      <c r="C26" s="181"/>
-      <c r="D26" s="181"/>
-      <c r="E26" s="181">
+      <c r="C26" s="188"/>
+      <c r="D26" s="188"/>
+      <c r="E26" s="188">
         <f>SUM(AR5:AT5,AR16:AT17,AR33:AT34,AR50:AT51)</f>
         <v>10</v>
       </c>
-      <c r="F26" s="181"/>
-      <c r="G26" s="181"/>
-      <c r="H26" s="181">
+      <c r="F26" s="188"/>
+      <c r="G26" s="188"/>
+      <c r="H26" s="188">
         <f>SUM(AU5:AW5,AU16:AW17,AU33:AW34,AU50:AW51)</f>
         <v>11</v>
       </c>
-      <c r="I26" s="181"/>
-      <c r="J26" s="181"/>
-      <c r="K26" s="182">
+      <c r="I26" s="188"/>
+      <c r="J26" s="188"/>
+      <c r="K26" s="187">
         <f>SUM(AX5:AZ5,AX16:AZ17,AX33:AZ34,AX50:AZ51)</f>
         <v>41</v>
       </c>
-      <c r="L26" s="182"/>
-      <c r="M26" s="182"/>
-      <c r="N26" s="181">
+      <c r="L26" s="187"/>
+      <c r="M26" s="187"/>
+      <c r="N26" s="188">
         <f>SUM(BA5:BC5,BA16:BC17,BA33:BC34,BA50:BC51)</f>
         <v>29</v>
       </c>
-      <c r="O26" s="181"/>
-      <c r="P26" s="181"/>
-      <c r="Q26" s="181">
+      <c r="O26" s="188"/>
+      <c r="P26" s="188"/>
+      <c r="Q26" s="188">
         <f>SUM(BD5:BF5,BD16:BF17,BD33:BF34,BD50:BF51)</f>
         <v>12</v>
       </c>
-      <c r="R26" s="181"/>
-      <c r="S26" s="181"/>
-      <c r="T26" s="178">
+      <c r="R26" s="188"/>
+      <c r="S26" s="188"/>
+      <c r="T26" s="197">
         <f t="shared" ref="T26" si="40">SUM(B26:S27)</f>
         <v>116</v>
       </c>
-      <c r="U26" s="177"/>
+      <c r="U26" s="196"/>
       <c r="AB26" s="47" t="str">
         <f>'2_PA'!U23</f>
         <v>Maggiolo Giorgio</v>
@@ -6430,7 +6431,7 @@
         <f>'2_PA'!AD23</f>
         <v>PA 3.3</v>
       </c>
-      <c r="AL26" s="184">
+      <c r="AL26" s="177">
         <f>'2_PA'!AE23</f>
         <v>28</v>
       </c>
@@ -6512,27 +6513,27 @@
       </c>
     </row>
     <row r="27" spans="1:60" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="183"/>
-      <c r="B27" s="181"/>
-      <c r="C27" s="181"/>
-      <c r="D27" s="181"/>
-      <c r="E27" s="181"/>
-      <c r="F27" s="181"/>
-      <c r="G27" s="181"/>
-      <c r="H27" s="181"/>
-      <c r="I27" s="181"/>
-      <c r="J27" s="181"/>
-      <c r="K27" s="182"/>
-      <c r="L27" s="182"/>
-      <c r="M27" s="182"/>
-      <c r="N27" s="181"/>
-      <c r="O27" s="181"/>
-      <c r="P27" s="181"/>
-      <c r="Q27" s="181"/>
-      <c r="R27" s="181"/>
-      <c r="S27" s="181"/>
-      <c r="T27" s="178"/>
-      <c r="U27" s="177"/>
+      <c r="A27" s="186"/>
+      <c r="B27" s="188"/>
+      <c r="C27" s="188"/>
+      <c r="D27" s="188"/>
+      <c r="E27" s="188"/>
+      <c r="F27" s="188"/>
+      <c r="G27" s="188"/>
+      <c r="H27" s="188"/>
+      <c r="I27" s="188"/>
+      <c r="J27" s="188"/>
+      <c r="K27" s="187"/>
+      <c r="L27" s="187"/>
+      <c r="M27" s="187"/>
+      <c r="N27" s="188"/>
+      <c r="O27" s="188"/>
+      <c r="P27" s="188"/>
+      <c r="Q27" s="188"/>
+      <c r="R27" s="188"/>
+      <c r="S27" s="188"/>
+      <c r="T27" s="197"/>
+      <c r="U27" s="196"/>
       <c r="AB27" s="63">
         <f>'2_PA'!U24</f>
         <v>0</v>
@@ -6573,7 +6574,7 @@
         <f>'2_PA'!AD24</f>
         <v>PA 5.1</v>
       </c>
-      <c r="AL27" s="198"/>
+      <c r="AL27" s="178"/>
       <c r="AO27">
         <f t="shared" si="35"/>
         <v>0</v>
@@ -6652,96 +6653,96 @@
       </c>
     </row>
     <row r="28" spans="1:60" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="183" t="s">
+      <c r="A28" s="186" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="181">
+      <c r="B28" s="188">
         <f>SUM(AO6:AQ6,AO18:AQ19,AO35:AQ36,AO52:AQ53)</f>
         <v>10</v>
       </c>
-      <c r="C28" s="181"/>
-      <c r="D28" s="181"/>
-      <c r="E28" s="181">
+      <c r="C28" s="188"/>
+      <c r="D28" s="188"/>
+      <c r="E28" s="188">
         <f>SUM(AR6:AT6,AR18:AT19,AR35:AT36,AR52:AT53)</f>
         <v>14</v>
       </c>
-      <c r="F28" s="181"/>
-      <c r="G28" s="181"/>
-      <c r="H28" s="181">
+      <c r="F28" s="188"/>
+      <c r="G28" s="188"/>
+      <c r="H28" s="188">
         <f>SUM(AU6:AW6,AU18:AW19,AU35:AW36,AU52:AW53)</f>
         <v>13</v>
       </c>
-      <c r="I28" s="181"/>
-      <c r="J28" s="181"/>
-      <c r="K28" s="181">
+      <c r="I28" s="188"/>
+      <c r="J28" s="188"/>
+      <c r="K28" s="188">
         <f>SUM(AX6:AZ6,AX18:AZ19,AX35:AZ36,AX52:AZ53)</f>
         <v>27</v>
       </c>
-      <c r="L28" s="181"/>
-      <c r="M28" s="181"/>
-      <c r="N28" s="181">
+      <c r="L28" s="188"/>
+      <c r="M28" s="188"/>
+      <c r="N28" s="188">
         <f>SUM(BA6:BC6,BA18:BC19,BA35:BC36,BA52:BC53)</f>
         <v>33</v>
       </c>
-      <c r="O28" s="181"/>
-      <c r="P28" s="181"/>
-      <c r="Q28" s="182">
+      <c r="O28" s="188"/>
+      <c r="P28" s="188"/>
+      <c r="Q28" s="187">
         <f>SUM(BD6:BF6,BD18:BF19,BD35:BF36,BD52:BF53)</f>
         <v>20</v>
       </c>
-      <c r="R28" s="182"/>
-      <c r="S28" s="182"/>
-      <c r="T28" s="178">
+      <c r="R28" s="187"/>
+      <c r="S28" s="187"/>
+      <c r="T28" s="197">
         <f t="shared" ref="T28" si="41">SUM(B28:S29)</f>
         <v>117</v>
       </c>
-      <c r="U28" s="177"/>
+      <c r="U28" s="196"/>
       <c r="BG28" s="158">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A29" s="183"/>
-      <c r="B29" s="181"/>
-      <c r="C29" s="181"/>
-      <c r="D29" s="181"/>
-      <c r="E29" s="181"/>
-      <c r="F29" s="181"/>
-      <c r="G29" s="181"/>
-      <c r="H29" s="181"/>
-      <c r="I29" s="181"/>
-      <c r="J29" s="181"/>
-      <c r="K29" s="181"/>
-      <c r="L29" s="181"/>
-      <c r="M29" s="181"/>
-      <c r="N29" s="181"/>
-      <c r="O29" s="181"/>
-      <c r="P29" s="181"/>
-      <c r="Q29" s="182"/>
-      <c r="R29" s="182"/>
-      <c r="S29" s="182"/>
-      <c r="T29" s="178"/>
-      <c r="U29" s="177"/>
+      <c r="A29" s="186"/>
+      <c r="B29" s="188"/>
+      <c r="C29" s="188"/>
+      <c r="D29" s="188"/>
+      <c r="E29" s="188"/>
+      <c r="F29" s="188"/>
+      <c r="G29" s="188"/>
+      <c r="H29" s="188"/>
+      <c r="I29" s="188"/>
+      <c r="J29" s="188"/>
+      <c r="K29" s="188"/>
+      <c r="L29" s="188"/>
+      <c r="M29" s="188"/>
+      <c r="N29" s="188"/>
+      <c r="O29" s="188"/>
+      <c r="P29" s="188"/>
+      <c r="Q29" s="187"/>
+      <c r="R29" s="187"/>
+      <c r="S29" s="187"/>
+      <c r="T29" s="197"/>
+      <c r="U29" s="196"/>
       <c r="AA29" t="s">
         <v>124</v>
       </c>
       <c r="AB29" s="149" t="s">
         <v>127</v>
       </c>
-      <c r="AC29" s="192" t="str">
+      <c r="AC29" s="179" t="str">
         <f>'3_PDC'!U6</f>
         <v>I Periodo</v>
       </c>
-      <c r="AD29" s="193"/>
-      <c r="AE29" s="194"/>
-      <c r="AF29" s="192" t="str">
+      <c r="AD29" s="180"/>
+      <c r="AE29" s="181"/>
+      <c r="AF29" s="179" t="str">
         <f>'3_PDC'!X6</f>
         <v>II Periodo</v>
       </c>
-      <c r="AG29" s="193"/>
-      <c r="AH29" s="195"/>
-      <c r="AI29" s="188" t="str">
+      <c r="AG29" s="180"/>
+      <c r="AH29" s="182"/>
+      <c r="AI29" s="183" t="str">
         <f>'3_PDC'!AA6</f>
         <v>Totale</v>
       </c>
@@ -6751,50 +6752,50 @@
       </c>
     </row>
     <row r="30" spans="1:60" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="183" t="s">
+      <c r="A30" s="186" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="181">
+      <c r="B30" s="188">
         <f>SUM(AO7:AQ7,AO20:AQ21,AO37:AQ38,AO54:AQ55)</f>
         <v>15</v>
       </c>
-      <c r="C30" s="181"/>
-      <c r="D30" s="181"/>
-      <c r="E30" s="181">
+      <c r="C30" s="188"/>
+      <c r="D30" s="188"/>
+      <c r="E30" s="188">
         <f>SUM(AR7:AT7,AR20:AT21,AR37:AT38,AR54:AT55)</f>
         <v>4</v>
       </c>
-      <c r="F30" s="181"/>
-      <c r="G30" s="181"/>
-      <c r="H30" s="181">
+      <c r="F30" s="188"/>
+      <c r="G30" s="188"/>
+      <c r="H30" s="188">
         <f>SUM(AU7:AW7,AU20:AW21,AU37:AW38,AU54:AW55)</f>
         <v>11</v>
       </c>
-      <c r="I30" s="181"/>
-      <c r="J30" s="181"/>
-      <c r="K30" s="182">
+      <c r="I30" s="188"/>
+      <c r="J30" s="188"/>
+      <c r="K30" s="187">
         <f>SUM(AX7:AZ7,AX20:AZ21,AX37:AZ38,AX54:AZ55)</f>
         <v>39</v>
       </c>
-      <c r="L30" s="182"/>
-      <c r="M30" s="182"/>
-      <c r="N30" s="182">
+      <c r="L30" s="187"/>
+      <c r="M30" s="187"/>
+      <c r="N30" s="187">
         <f>SUM(BA7:BC7,BA20:BC21,BA37:BC38,BA54:BC55)</f>
         <v>35</v>
       </c>
-      <c r="O30" s="182"/>
-      <c r="P30" s="182"/>
-      <c r="Q30" s="181">
+      <c r="O30" s="187"/>
+      <c r="P30" s="187"/>
+      <c r="Q30" s="188">
         <f>SUM(BD7:BF7,BD20:BF21,BD37:BF38,BD54:BF55)</f>
         <v>18</v>
       </c>
-      <c r="R30" s="181"/>
-      <c r="S30" s="181"/>
-      <c r="T30" s="178">
+      <c r="R30" s="188"/>
+      <c r="S30" s="188"/>
+      <c r="T30" s="197">
         <f t="shared" ref="T30" si="42">SUM(B30:S31)</f>
         <v>122</v>
       </c>
-      <c r="U30" s="177"/>
+      <c r="U30" s="196"/>
       <c r="AB30" s="150"/>
       <c r="AC30" s="26" t="str">
         <f>'3_PDC'!U7</f>
@@ -6820,7 +6821,7 @@
         <f>'3_PDC'!Z7</f>
         <v>Fase</v>
       </c>
-      <c r="AI30" s="189"/>
+      <c r="AI30" s="184"/>
       <c r="AK30">
         <f>SUM(AI31:AI44)</f>
         <v>373</v>
@@ -6831,27 +6832,27 @@
       </c>
     </row>
     <row r="31" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A31" s="183"/>
-      <c r="B31" s="181"/>
-      <c r="C31" s="181"/>
-      <c r="D31" s="181"/>
-      <c r="E31" s="181"/>
-      <c r="F31" s="181"/>
-      <c r="G31" s="181"/>
-      <c r="H31" s="181"/>
-      <c r="I31" s="181"/>
-      <c r="J31" s="181"/>
-      <c r="K31" s="182"/>
-      <c r="L31" s="182"/>
-      <c r="M31" s="182"/>
-      <c r="N31" s="182"/>
-      <c r="O31" s="182"/>
-      <c r="P31" s="182"/>
-      <c r="Q31" s="181"/>
-      <c r="R31" s="181"/>
-      <c r="S31" s="181"/>
-      <c r="T31" s="178"/>
-      <c r="U31" s="177"/>
+      <c r="A31" s="186"/>
+      <c r="B31" s="188"/>
+      <c r="C31" s="188"/>
+      <c r="D31" s="188"/>
+      <c r="E31" s="188"/>
+      <c r="F31" s="188"/>
+      <c r="G31" s="188"/>
+      <c r="H31" s="188"/>
+      <c r="I31" s="188"/>
+      <c r="J31" s="188"/>
+      <c r="K31" s="187"/>
+      <c r="L31" s="187"/>
+      <c r="M31" s="187"/>
+      <c r="N31" s="187"/>
+      <c r="O31" s="187"/>
+      <c r="P31" s="187"/>
+      <c r="Q31" s="188"/>
+      <c r="R31" s="188"/>
+      <c r="S31" s="188"/>
+      <c r="T31" s="197"/>
+      <c r="U31" s="196"/>
       <c r="AB31" s="31" t="str">
         <f>'3_PDC'!T8</f>
         <v>Begolo Marco</v>
@@ -6880,7 +6881,7 @@
         <f>'3_PDC'!Z8</f>
         <v>PDC 4.4</v>
       </c>
-      <c r="AI31" s="196">
+      <c r="AI31" s="185">
         <f>'3_PDC'!AA8</f>
         <v>52</v>
       </c>
@@ -6966,50 +6967,50 @@
       </c>
     </row>
     <row r="32" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A32" s="183" t="s">
+      <c r="A32" s="186" t="s">
         <v>8</v>
       </c>
-      <c r="B32" s="181">
+      <c r="B32" s="188">
         <f>SUM(AO8:AQ8,AO22:AQ23,AO39:AQ40,AO56:AQ57)</f>
         <v>9</v>
       </c>
-      <c r="C32" s="181"/>
-      <c r="D32" s="181"/>
-      <c r="E32" s="181">
+      <c r="C32" s="188"/>
+      <c r="D32" s="188"/>
+      <c r="E32" s="188">
         <f>SUM(AR8:AT8,AR22:AT23,AR39:AT40,AR56:AT57)</f>
         <v>11</v>
       </c>
-      <c r="F32" s="181"/>
-      <c r="G32" s="181"/>
-      <c r="H32" s="181">
+      <c r="F32" s="188"/>
+      <c r="G32" s="188"/>
+      <c r="H32" s="188">
         <f>SUM(AU8:AW8,AU22:AW23,AU39:AW40,AU56:AW57)</f>
         <v>12</v>
       </c>
-      <c r="I32" s="181"/>
-      <c r="J32" s="181"/>
-      <c r="K32" s="181">
+      <c r="I32" s="188"/>
+      <c r="J32" s="188"/>
+      <c r="K32" s="188">
         <f>SUM(AX8:AZ8,AX22:AZ23,AX39:AZ40,AX56:AZ57)</f>
         <v>30</v>
       </c>
-      <c r="L32" s="181"/>
-      <c r="M32" s="181"/>
-      <c r="N32" s="182">
+      <c r="L32" s="188"/>
+      <c r="M32" s="188"/>
+      <c r="N32" s="187">
         <f>SUM(BA8:BC8,BA22:BC23,BA39:BC40,BA56:BC57)</f>
         <v>37</v>
       </c>
-      <c r="O32" s="182"/>
-      <c r="P32" s="182"/>
-      <c r="Q32" s="181">
+      <c r="O32" s="187"/>
+      <c r="P32" s="187"/>
+      <c r="Q32" s="188">
         <f>SUM(BD8:BF8,BD22:BF23,BD39:BF40,BD56:BF57)</f>
         <v>23</v>
       </c>
-      <c r="R32" s="181"/>
-      <c r="S32" s="181"/>
-      <c r="T32" s="178">
+      <c r="R32" s="188"/>
+      <c r="S32" s="188"/>
+      <c r="T32" s="197">
         <f t="shared" ref="T32" si="58">SUM(B32:S33)</f>
         <v>122</v>
       </c>
-      <c r="U32" s="177"/>
+      <c r="U32" s="196"/>
       <c r="AB32" s="35">
         <f>'3_PDC'!T9</f>
         <v>0</v>
@@ -7038,7 +7039,7 @@
         <f>'3_PDC'!Z9</f>
         <v>PDC 7</v>
       </c>
-      <c r="AI32" s="184"/>
+      <c r="AI32" s="177"/>
       <c r="AO32">
         <f>IF($AC32=AO$2,$AD32,0)</f>
         <v>0</v>
@@ -7117,27 +7118,27 @@
       </c>
     </row>
     <row r="33" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A33" s="183"/>
-      <c r="B33" s="181"/>
-      <c r="C33" s="181"/>
-      <c r="D33" s="181"/>
-      <c r="E33" s="181"/>
-      <c r="F33" s="181"/>
-      <c r="G33" s="181"/>
-      <c r="H33" s="181"/>
-      <c r="I33" s="181"/>
-      <c r="J33" s="181"/>
-      <c r="K33" s="181"/>
-      <c r="L33" s="181"/>
-      <c r="M33" s="181"/>
-      <c r="N33" s="182"/>
-      <c r="O33" s="182"/>
-      <c r="P33" s="182"/>
-      <c r="Q33" s="181"/>
-      <c r="R33" s="181"/>
-      <c r="S33" s="181"/>
-      <c r="T33" s="178"/>
-      <c r="U33" s="177"/>
+      <c r="A33" s="186"/>
+      <c r="B33" s="188"/>
+      <c r="C33" s="188"/>
+      <c r="D33" s="188"/>
+      <c r="E33" s="188"/>
+      <c r="F33" s="188"/>
+      <c r="G33" s="188"/>
+      <c r="H33" s="188"/>
+      <c r="I33" s="188"/>
+      <c r="J33" s="188"/>
+      <c r="K33" s="188"/>
+      <c r="L33" s="188"/>
+      <c r="M33" s="188"/>
+      <c r="N33" s="187"/>
+      <c r="O33" s="187"/>
+      <c r="P33" s="187"/>
+      <c r="Q33" s="188"/>
+      <c r="R33" s="188"/>
+      <c r="S33" s="188"/>
+      <c r="T33" s="197"/>
+      <c r="U33" s="196"/>
       <c r="AB33" s="31" t="str">
         <f>'3_PDC'!T10</f>
         <v>Facchin Gabriele</v>
@@ -7166,7 +7167,7 @@
         <f>'3_PDC'!Z10</f>
         <v>PDC 3.1</v>
       </c>
-      <c r="AI33" s="184">
+      <c r="AI33" s="177">
         <f>'3_PDC'!AA10</f>
         <v>52</v>
       </c>
@@ -7248,50 +7249,50 @@
       </c>
     </row>
     <row r="34" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A34" s="183" t="s">
+      <c r="A34" s="186" t="s">
         <v>13</v>
       </c>
-      <c r="B34" s="181">
+      <c r="B34" s="188">
         <f>SUM(AO9:AQ9,AO24:AQ25,AO41:AQ42,AO58:AQ59)</f>
         <v>6</v>
       </c>
-      <c r="C34" s="181"/>
-      <c r="D34" s="181"/>
-      <c r="E34" s="181">
+      <c r="C34" s="188"/>
+      <c r="D34" s="188"/>
+      <c r="E34" s="188">
         <f>SUM(AR9:AT9,AR24:AT25,AR41:AT42,AR58:AT59)</f>
         <v>2</v>
       </c>
-      <c r="F34" s="181"/>
-      <c r="G34" s="181"/>
-      <c r="H34" s="181">
+      <c r="F34" s="188"/>
+      <c r="G34" s="188"/>
+      <c r="H34" s="188">
         <f>SUM(AU9:AW9,AU24:AW25,AU41:AW42,AU58:AW59)</f>
         <v>10</v>
       </c>
-      <c r="I34" s="181"/>
-      <c r="J34" s="181"/>
-      <c r="K34" s="182">
+      <c r="I34" s="188"/>
+      <c r="J34" s="188"/>
+      <c r="K34" s="187">
         <f>SUM(AX9:AZ9,AX24:AZ25,AX41:AZ42,AX58:AZ59)</f>
         <v>37</v>
       </c>
-      <c r="L34" s="182"/>
-      <c r="M34" s="182"/>
-      <c r="N34" s="182">
+      <c r="L34" s="187"/>
+      <c r="M34" s="187"/>
+      <c r="N34" s="187">
         <f>SUM(BA9:BC9,BA24:BC25,BA41:BC42,BA58:BC59)</f>
         <v>40</v>
       </c>
-      <c r="O34" s="182"/>
-      <c r="P34" s="182"/>
-      <c r="Q34" s="182">
+      <c r="O34" s="187"/>
+      <c r="P34" s="187"/>
+      <c r="Q34" s="187">
         <f>SUM(BD9:BF9,BD24:BF25,BD41:BF42,BD58:BF59)</f>
         <v>25</v>
       </c>
-      <c r="R34" s="182"/>
-      <c r="S34" s="182"/>
-      <c r="T34" s="178">
+      <c r="R34" s="187"/>
+      <c r="S34" s="187"/>
+      <c r="T34" s="197">
         <f t="shared" ref="T34" si="62">SUM(B34:S35)</f>
         <v>120</v>
       </c>
-      <c r="U34" s="177"/>
+      <c r="U34" s="196"/>
       <c r="AB34" s="31">
         <f>'3_PDC'!T11</f>
         <v>0</v>
@@ -7320,7 +7321,7 @@
         <f>'3_PDC'!Z11</f>
         <v>PDC 4.3</v>
       </c>
-      <c r="AI34" s="184"/>
+      <c r="AI34" s="177"/>
       <c r="AO34">
         <f t="shared" si="59"/>
         <v>0</v>
@@ -7399,27 +7400,27 @@
       </c>
     </row>
     <row r="35" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A35" s="183"/>
-      <c r="B35" s="181"/>
-      <c r="C35" s="181"/>
-      <c r="D35" s="181"/>
-      <c r="E35" s="181"/>
-      <c r="F35" s="181"/>
-      <c r="G35" s="181"/>
-      <c r="H35" s="181"/>
-      <c r="I35" s="181"/>
-      <c r="J35" s="181"/>
-      <c r="K35" s="182"/>
-      <c r="L35" s="182"/>
-      <c r="M35" s="182"/>
-      <c r="N35" s="182"/>
-      <c r="O35" s="182"/>
-      <c r="P35" s="182"/>
-      <c r="Q35" s="182"/>
-      <c r="R35" s="182"/>
-      <c r="S35" s="182"/>
-      <c r="T35" s="178"/>
-      <c r="U35" s="177"/>
+      <c r="A35" s="186"/>
+      <c r="B35" s="188"/>
+      <c r="C35" s="188"/>
+      <c r="D35" s="188"/>
+      <c r="E35" s="188"/>
+      <c r="F35" s="188"/>
+      <c r="G35" s="188"/>
+      <c r="H35" s="188"/>
+      <c r="I35" s="188"/>
+      <c r="J35" s="188"/>
+      <c r="K35" s="187"/>
+      <c r="L35" s="187"/>
+      <c r="M35" s="187"/>
+      <c r="N35" s="187"/>
+      <c r="O35" s="187"/>
+      <c r="P35" s="187"/>
+      <c r="Q35" s="187"/>
+      <c r="R35" s="187"/>
+      <c r="S35" s="187"/>
+      <c r="T35" s="197"/>
+      <c r="U35" s="196"/>
       <c r="AB35" s="47" t="str">
         <f>'3_PDC'!T12</f>
         <v>Cornaglia Alessando</v>
@@ -7448,7 +7449,7 @@
         <f>'3_PDC'!Z12</f>
         <v>PDC 4.4 e 5</v>
       </c>
-      <c r="AI35" s="184">
+      <c r="AI35" s="177">
         <f>'3_PDC'!AA12</f>
         <v>52</v>
       </c>
@@ -7530,50 +7531,50 @@
       </c>
     </row>
     <row r="36" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A36" s="183" t="s">
+      <c r="A36" s="186" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="181">
+      <c r="B36" s="188">
         <f>SUM(AO10:AQ10,AO26:AQ27,AO43:AQ44,AO60:AQ61)</f>
         <v>12</v>
       </c>
-      <c r="C36" s="181"/>
-      <c r="D36" s="181"/>
-      <c r="E36" s="181">
+      <c r="C36" s="188"/>
+      <c r="D36" s="188"/>
+      <c r="E36" s="188">
         <f>SUM(AR10:AT10,AR26:AT27,AR43:AT44,AR60:AT61)</f>
         <v>18</v>
       </c>
-      <c r="F36" s="181"/>
-      <c r="G36" s="181"/>
-      <c r="H36" s="181">
+      <c r="F36" s="188"/>
+      <c r="G36" s="188"/>
+      <c r="H36" s="188">
         <f>SUM(AU10:AW10,AU26:AW27,AU43:AW44,AU60:AW61)</f>
         <v>7</v>
       </c>
-      <c r="I36" s="181"/>
-      <c r="J36" s="181"/>
-      <c r="K36" s="182">
+      <c r="I36" s="188"/>
+      <c r="J36" s="188"/>
+      <c r="K36" s="187">
         <f>SUM(AX10:AZ10,AX26:AZ27,AX43:AZ44,AX60:AZ61)</f>
         <v>51</v>
       </c>
-      <c r="L36" s="182"/>
-      <c r="M36" s="182"/>
-      <c r="N36" s="181">
+      <c r="L36" s="187"/>
+      <c r="M36" s="187"/>
+      <c r="N36" s="188">
         <f>SUM(BA10:BC10,BA26:BC27,BA43:BC44,BA60:BC61)</f>
         <v>10</v>
       </c>
-      <c r="O36" s="181"/>
-      <c r="P36" s="181"/>
-      <c r="Q36" s="181">
+      <c r="O36" s="188"/>
+      <c r="P36" s="188"/>
+      <c r="Q36" s="188">
         <f>SUM(BD10:BF10,BD26:BF27,BD43:BF44,BD60:BF61)</f>
         <v>18</v>
       </c>
-      <c r="R36" s="181"/>
-      <c r="S36" s="181"/>
-      <c r="T36" s="178">
+      <c r="R36" s="188"/>
+      <c r="S36" s="188"/>
+      <c r="T36" s="197">
         <f t="shared" ref="T36" si="63">SUM(B36:S37)</f>
         <v>116</v>
       </c>
-      <c r="U36" s="177"/>
+      <c r="U36" s="196"/>
       <c r="AB36" s="35">
         <f>'3_PDC'!T13</f>
         <v>0</v>
@@ -7602,7 +7603,7 @@
         <f>'3_PDC'!Z13</f>
         <v>PDC 7</v>
       </c>
-      <c r="AI36" s="184"/>
+      <c r="AI36" s="177"/>
       <c r="AO36">
         <f t="shared" si="59"/>
         <v>0</v>
@@ -7681,27 +7682,27 @@
       </c>
     </row>
     <row r="37" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A37" s="183"/>
-      <c r="B37" s="181"/>
-      <c r="C37" s="181"/>
-      <c r="D37" s="181"/>
-      <c r="E37" s="181"/>
-      <c r="F37" s="181"/>
-      <c r="G37" s="181"/>
-      <c r="H37" s="181"/>
-      <c r="I37" s="181"/>
-      <c r="J37" s="181"/>
-      <c r="K37" s="182"/>
-      <c r="L37" s="182"/>
-      <c r="M37" s="182"/>
-      <c r="N37" s="181"/>
-      <c r="O37" s="181"/>
-      <c r="P37" s="181"/>
-      <c r="Q37" s="181"/>
-      <c r="R37" s="181"/>
-      <c r="S37" s="181"/>
-      <c r="T37" s="178"/>
-      <c r="U37" s="177"/>
+      <c r="A37" s="186"/>
+      <c r="B37" s="188"/>
+      <c r="C37" s="188"/>
+      <c r="D37" s="188"/>
+      <c r="E37" s="188"/>
+      <c r="F37" s="188"/>
+      <c r="G37" s="188"/>
+      <c r="H37" s="188"/>
+      <c r="I37" s="188"/>
+      <c r="J37" s="188"/>
+      <c r="K37" s="187"/>
+      <c r="L37" s="187"/>
+      <c r="M37" s="187"/>
+      <c r="N37" s="188"/>
+      <c r="O37" s="188"/>
+      <c r="P37" s="188"/>
+      <c r="Q37" s="188"/>
+      <c r="R37" s="188"/>
+      <c r="S37" s="188"/>
+      <c r="T37" s="197"/>
+      <c r="U37" s="196"/>
       <c r="AB37" s="31" t="str">
         <f>'3_PDC'!T14</f>
         <v>Dalla Pietà Massimo</v>
@@ -7730,7 +7731,7 @@
         <f>'3_PDC'!Z14</f>
         <v>PDC 4.3</v>
       </c>
-      <c r="AI37" s="184">
+      <c r="AI37" s="177">
         <f>'3_PDC'!AA14</f>
         <v>57</v>
       </c>
@@ -7812,50 +7813,50 @@
       </c>
     </row>
     <row r="38" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A38" s="180" t="s">
+      <c r="A38" s="195" t="s">
         <v>14</v>
       </c>
-      <c r="B38" s="181">
+      <c r="B38" s="188">
         <f>SUM(B24:D37)</f>
         <v>82</v>
       </c>
-      <c r="C38" s="181"/>
-      <c r="D38" s="181"/>
-      <c r="E38" s="181">
+      <c r="C38" s="188"/>
+      <c r="D38" s="188"/>
+      <c r="E38" s="188">
         <f t="shared" ref="E38" si="64">SUM(E24:G37)</f>
         <v>69</v>
       </c>
-      <c r="F38" s="181"/>
-      <c r="G38" s="181"/>
-      <c r="H38" s="181">
+      <c r="F38" s="188"/>
+      <c r="G38" s="188"/>
+      <c r="H38" s="188">
         <f>SUM(H24:J37)</f>
         <v>79</v>
       </c>
-      <c r="I38" s="181"/>
-      <c r="J38" s="181"/>
-      <c r="K38" s="181">
+      <c r="I38" s="188"/>
+      <c r="J38" s="188"/>
+      <c r="K38" s="188">
         <f t="shared" ref="K38" si="65">SUM(K24:M37)</f>
         <v>235</v>
       </c>
-      <c r="L38" s="181"/>
-      <c r="M38" s="181"/>
-      <c r="N38" s="181">
+      <c r="L38" s="188"/>
+      <c r="M38" s="188"/>
+      <c r="N38" s="188">
         <f t="shared" ref="N38" si="66">SUM(N24:P37)</f>
         <v>243</v>
       </c>
-      <c r="O38" s="181"/>
-      <c r="P38" s="181"/>
-      <c r="Q38" s="181">
+      <c r="O38" s="188"/>
+      <c r="P38" s="188"/>
+      <c r="Q38" s="188">
         <f>SUM(Q24:S37)</f>
         <v>120</v>
       </c>
-      <c r="R38" s="181"/>
-      <c r="S38" s="181"/>
-      <c r="T38" s="179">
+      <c r="R38" s="188"/>
+      <c r="S38" s="188"/>
+      <c r="T38" s="198">
         <f>SUM(B38:S39)</f>
         <v>828</v>
       </c>
-      <c r="U38" s="177"/>
+      <c r="U38" s="196"/>
       <c r="AB38" s="31">
         <f>'3_PDC'!T15</f>
         <v>0</v>
@@ -7884,7 +7885,7 @@
         <f>'3_PDC'!Z15</f>
         <v>PDC 7</v>
       </c>
-      <c r="AI38" s="184"/>
+      <c r="AI38" s="177"/>
       <c r="AO38">
         <f t="shared" si="59"/>
         <v>0</v>
@@ -7963,27 +7964,27 @@
       </c>
     </row>
     <row r="39" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A39" s="180"/>
-      <c r="B39" s="181"/>
-      <c r="C39" s="181"/>
-      <c r="D39" s="181"/>
-      <c r="E39" s="181"/>
-      <c r="F39" s="181"/>
-      <c r="G39" s="181"/>
-      <c r="H39" s="181"/>
-      <c r="I39" s="181"/>
-      <c r="J39" s="181"/>
-      <c r="K39" s="181"/>
-      <c r="L39" s="181"/>
-      <c r="M39" s="181"/>
-      <c r="N39" s="181"/>
-      <c r="O39" s="181"/>
-      <c r="P39" s="181"/>
-      <c r="Q39" s="181"/>
-      <c r="R39" s="181"/>
-      <c r="S39" s="181"/>
-      <c r="T39" s="179"/>
-      <c r="U39" s="177"/>
+      <c r="A39" s="195"/>
+      <c r="B39" s="188"/>
+      <c r="C39" s="188"/>
+      <c r="D39" s="188"/>
+      <c r="E39" s="188"/>
+      <c r="F39" s="188"/>
+      <c r="G39" s="188"/>
+      <c r="H39" s="188"/>
+      <c r="I39" s="188"/>
+      <c r="J39" s="188"/>
+      <c r="K39" s="188"/>
+      <c r="L39" s="188"/>
+      <c r="M39" s="188"/>
+      <c r="N39" s="188"/>
+      <c r="O39" s="188"/>
+      <c r="P39" s="188"/>
+      <c r="Q39" s="188"/>
+      <c r="R39" s="188"/>
+      <c r="S39" s="188"/>
+      <c r="T39" s="198"/>
+      <c r="U39" s="196"/>
       <c r="AB39" s="47" t="str">
         <f>'3_PDC'!T16</f>
         <v>Braghetto Lorenzo</v>
@@ -8012,7 +8013,7 @@
         <f>'3_PDC'!Z16</f>
         <v>PDC 4.4</v>
       </c>
-      <c r="AI39" s="184">
+      <c r="AI39" s="177">
         <f>'3_PDC'!AA16</f>
         <v>54</v>
       </c>
@@ -8123,7 +8124,7 @@
         <f>'3_PDC'!Z17</f>
         <v>PDC 7</v>
       </c>
-      <c r="AI40" s="184"/>
+      <c r="AI40" s="177"/>
       <c r="AO40">
         <f t="shared" si="59"/>
         <v>0</v>
@@ -8231,7 +8232,7 @@
         <f>'3_PDC'!Z18</f>
         <v>PDC 6</v>
       </c>
-      <c r="AI41" s="184">
+      <c r="AI41" s="177">
         <f>'3_PDC'!AA18</f>
         <v>54</v>
       </c>
@@ -8342,7 +8343,7 @@
         <f>'3_PDC'!Z19</f>
         <v>PDC 3.2, 5 e 7</v>
       </c>
-      <c r="AI42" s="184"/>
+      <c r="AI42" s="177"/>
       <c r="AO42">
         <f t="shared" si="59"/>
         <v>0</v>
@@ -8450,7 +8451,7 @@
         <f>'3_PDC'!Z20</f>
         <v>PDC 4.3</v>
       </c>
-      <c r="AI43" s="184">
+      <c r="AI43" s="177">
         <f>'3_PDC'!AA20</f>
         <v>52</v>
       </c>
@@ -8561,7 +8562,7 @@
         <f>'3_PDC'!Z21</f>
         <v>PDC 7</v>
       </c>
-      <c r="AI44" s="198"/>
+      <c r="AI44" s="178"/>
       <c r="AO44">
         <f t="shared" si="59"/>
         <v>0</v>
@@ -8654,19 +8655,19 @@
       <c r="AB46" s="149" t="s">
         <v>128</v>
       </c>
-      <c r="AC46" s="192" t="str">
+      <c r="AC46" s="179" t="str">
         <f>'4_VV'!U3</f>
         <v>I Periodo</v>
       </c>
-      <c r="AD46" s="193"/>
-      <c r="AE46" s="194"/>
-      <c r="AF46" s="192" t="str">
+      <c r="AD46" s="180"/>
+      <c r="AE46" s="181"/>
+      <c r="AF46" s="179" t="str">
         <f>'4_VV'!X3</f>
         <v>II Periodo</v>
       </c>
-      <c r="AG46" s="193"/>
-      <c r="AH46" s="195"/>
-      <c r="AI46" s="188" t="str">
+      <c r="AG46" s="180"/>
+      <c r="AH46" s="182"/>
+      <c r="AI46" s="183" t="str">
         <f>'4_VV'!AA3</f>
         <v>Totale</v>
       </c>
@@ -8706,7 +8707,7 @@
         <f>'4_VV'!Z4</f>
         <v>Fase</v>
       </c>
-      <c r="AI47" s="189"/>
+      <c r="AI47" s="184"/>
       <c r="BG47" s="158">
         <f t="shared" si="19"/>
         <v>0</v>
@@ -8742,7 +8743,7 @@
         <f>'4_VV'!Z5</f>
         <v>VV 3.2</v>
       </c>
-      <c r="AI48" s="196">
+      <c r="AI48" s="185">
         <f>'4_VV'!AA5</f>
         <v>18</v>
       </c>
@@ -8856,7 +8857,7 @@
         <f>'4_VV'!Z6</f>
         <v>0</v>
       </c>
-      <c r="AI49" s="184"/>
+      <c r="AI49" s="177"/>
       <c r="AO49">
         <f>IF($AC49=AO$2,$AD49,0)</f>
         <v>0</v>
@@ -8963,7 +8964,7 @@
         <f>'4_VV'!Z7</f>
         <v>VV 3.2</v>
       </c>
-      <c r="AI50" s="184">
+      <c r="AI50" s="177">
         <f>'4_VV'!AA7</f>
         <v>18</v>
       </c>
@@ -9085,7 +9086,7 @@
         <f>'4_VV'!Z8</f>
         <v>VV 3.2</v>
       </c>
-      <c r="AI51" s="184"/>
+      <c r="AI51" s="177"/>
       <c r="AO51">
         <f t="shared" si="82"/>
         <v>0</v>
@@ -9206,7 +9207,7 @@
         <f>'4_VV'!Z9</f>
         <v>VV 3.1</v>
       </c>
-      <c r="AI52" s="184">
+      <c r="AI52" s="177">
         <f>'4_VV'!AA9</f>
         <v>18</v>
       </c>
@@ -9330,7 +9331,7 @@
         <f>'4_VV'!Z10</f>
         <v>0</v>
       </c>
-      <c r="AI53" s="184"/>
+      <c r="AI53" s="177"/>
       <c r="AO53">
         <f t="shared" si="82"/>
         <v>0</v>
@@ -9451,7 +9452,7 @@
         <f>'4_VV'!Z11</f>
         <v>VV 3.1</v>
       </c>
-      <c r="AI54" s="184">
+      <c r="AI54" s="177">
         <f>'4_VV'!AA11</f>
         <v>18</v>
       </c>
@@ -9575,7 +9576,7 @@
         <f>'4_VV'!Z12</f>
         <v>0</v>
       </c>
-      <c r="AI55" s="184"/>
+      <c r="AI55" s="177"/>
       <c r="AO55">
         <f t="shared" si="82"/>
         <v>0</v>
@@ -9696,7 +9697,7 @@
         <f>'4_VV'!Z13</f>
         <v>VV 3.1</v>
       </c>
-      <c r="AI56" s="184">
+      <c r="AI56" s="177">
         <f>'4_VV'!AA13</f>
         <v>18</v>
       </c>
@@ -9820,7 +9821,7 @@
         <f>'4_VV'!Z14</f>
         <v>0</v>
       </c>
-      <c r="AI57" s="184"/>
+      <c r="AI57" s="177"/>
       <c r="AO57">
         <f t="shared" si="82"/>
         <v>0</v>
@@ -9938,7 +9939,7 @@
         <f>'4_VV'!Z15</f>
         <v>VV 3.1</v>
       </c>
-      <c r="AI58" s="184">
+      <c r="AI58" s="177">
         <f>'4_VV'!AA15</f>
         <v>18</v>
       </c>
@@ -10048,7 +10049,7 @@
         <f>'4_VV'!Z16</f>
         <v>0</v>
       </c>
-      <c r="AI59" s="184"/>
+      <c r="AI59" s="177"/>
       <c r="AO59">
         <f t="shared" si="82"/>
         <v>0</v>
@@ -10155,7 +10156,7 @@
         <f>'4_VV'!Z17</f>
         <v>VV 3.1</v>
       </c>
-      <c r="AI60" s="184">
+      <c r="AI60" s="177">
         <f>'4_VV'!AA17</f>
         <v>16</v>
       </c>
@@ -10265,7 +10266,7 @@
         <f>'4_VV'!Z18</f>
         <v>0</v>
       </c>
-      <c r="AI61" s="198"/>
+      <c r="AI61" s="178"/>
       <c r="AO61">
         <f t="shared" si="82"/>
         <v>0</v>
@@ -10345,78 +10346,22 @@
     </row>
   </sheetData>
   <mergeCells count="112">
-    <mergeCell ref="AI43:AI44"/>
-    <mergeCell ref="AC46:AE46"/>
-    <mergeCell ref="AF46:AH46"/>
-    <mergeCell ref="AI46:AI47"/>
-    <mergeCell ref="AI60:AI61"/>
-    <mergeCell ref="AI48:AI49"/>
-    <mergeCell ref="AI50:AI51"/>
-    <mergeCell ref="AI52:AI53"/>
-    <mergeCell ref="AI54:AI55"/>
-    <mergeCell ref="AI56:AI57"/>
-    <mergeCell ref="AI58:AI59"/>
-    <mergeCell ref="AI41:AI42"/>
-    <mergeCell ref="AL24:AL25"/>
-    <mergeCell ref="AL26:AL27"/>
-    <mergeCell ref="AC29:AE29"/>
-    <mergeCell ref="AF29:AH29"/>
-    <mergeCell ref="AI29:AI30"/>
-    <mergeCell ref="AI31:AI32"/>
-    <mergeCell ref="AI33:AI34"/>
-    <mergeCell ref="AI35:AI36"/>
-    <mergeCell ref="AI37:AI38"/>
-    <mergeCell ref="AI39:AI40"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="H24:J25"/>
-    <mergeCell ref="E24:G25"/>
-    <mergeCell ref="B24:D25"/>
-    <mergeCell ref="AL22:AL23"/>
-    <mergeCell ref="AC2:AE2"/>
-    <mergeCell ref="AF2:AH2"/>
-    <mergeCell ref="AI2:AI3"/>
-    <mergeCell ref="AC12:AE12"/>
-    <mergeCell ref="AF12:AH12"/>
-    <mergeCell ref="AI12:AK12"/>
-    <mergeCell ref="AL12:AL13"/>
-    <mergeCell ref="AL14:AL15"/>
-    <mergeCell ref="AL16:AL17"/>
-    <mergeCell ref="AL18:AL19"/>
-    <mergeCell ref="AL20:AL21"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="Q23:S23"/>
-    <mergeCell ref="N23:P23"/>
-    <mergeCell ref="K23:M23"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:D27"/>
-    <mergeCell ref="E26:G27"/>
-    <mergeCell ref="H26:J27"/>
-    <mergeCell ref="K26:M27"/>
-    <mergeCell ref="E30:G31"/>
-    <mergeCell ref="H30:J31"/>
-    <mergeCell ref="K30:M31"/>
-    <mergeCell ref="N26:P27"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="K32:M33"/>
-    <mergeCell ref="N32:P33"/>
-    <mergeCell ref="Q32:S33"/>
-    <mergeCell ref="Q24:S25"/>
-    <mergeCell ref="N24:P25"/>
-    <mergeCell ref="K24:M25"/>
-    <mergeCell ref="B32:D33"/>
-    <mergeCell ref="E32:G33"/>
-    <mergeCell ref="H32:J33"/>
-    <mergeCell ref="Q26:S27"/>
-    <mergeCell ref="K28:M29"/>
-    <mergeCell ref="N28:P29"/>
-    <mergeCell ref="Q28:S29"/>
-    <mergeCell ref="B30:D31"/>
-    <mergeCell ref="B28:D29"/>
-    <mergeCell ref="E28:G29"/>
-    <mergeCell ref="H28:J29"/>
+    <mergeCell ref="U38:U39"/>
+    <mergeCell ref="U34:U35"/>
+    <mergeCell ref="U32:U33"/>
+    <mergeCell ref="U30:U31"/>
+    <mergeCell ref="U28:U29"/>
+    <mergeCell ref="U26:U27"/>
+    <mergeCell ref="U24:U25"/>
+    <mergeCell ref="U36:U37"/>
+    <mergeCell ref="T26:T27"/>
+    <mergeCell ref="T24:T25"/>
+    <mergeCell ref="T34:T35"/>
+    <mergeCell ref="T32:T33"/>
+    <mergeCell ref="T30:T31"/>
+    <mergeCell ref="T28:T29"/>
+    <mergeCell ref="T38:T39"/>
+    <mergeCell ref="T36:T37"/>
     <mergeCell ref="A38:A39"/>
     <mergeCell ref="B38:D39"/>
     <mergeCell ref="E38:G39"/>
@@ -10441,22 +10386,78 @@
     <mergeCell ref="N36:P37"/>
     <mergeCell ref="Q36:S37"/>
     <mergeCell ref="Q34:S35"/>
-    <mergeCell ref="U38:U39"/>
-    <mergeCell ref="U34:U35"/>
-    <mergeCell ref="U32:U33"/>
-    <mergeCell ref="U30:U31"/>
-    <mergeCell ref="U28:U29"/>
-    <mergeCell ref="U26:U27"/>
-    <mergeCell ref="U24:U25"/>
-    <mergeCell ref="U36:U37"/>
-    <mergeCell ref="T26:T27"/>
-    <mergeCell ref="T24:T25"/>
-    <mergeCell ref="T34:T35"/>
-    <mergeCell ref="T32:T33"/>
-    <mergeCell ref="T30:T31"/>
-    <mergeCell ref="T28:T29"/>
-    <mergeCell ref="T38:T39"/>
-    <mergeCell ref="T36:T37"/>
+    <mergeCell ref="K32:M33"/>
+    <mergeCell ref="N32:P33"/>
+    <mergeCell ref="Q32:S33"/>
+    <mergeCell ref="Q24:S25"/>
+    <mergeCell ref="N24:P25"/>
+    <mergeCell ref="K24:M25"/>
+    <mergeCell ref="B32:D33"/>
+    <mergeCell ref="E32:G33"/>
+    <mergeCell ref="H32:J33"/>
+    <mergeCell ref="Q26:S27"/>
+    <mergeCell ref="K28:M29"/>
+    <mergeCell ref="N28:P29"/>
+    <mergeCell ref="Q28:S29"/>
+    <mergeCell ref="B30:D31"/>
+    <mergeCell ref="B28:D29"/>
+    <mergeCell ref="E28:G29"/>
+    <mergeCell ref="H28:J29"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:D27"/>
+    <mergeCell ref="E26:G27"/>
+    <mergeCell ref="H26:J27"/>
+    <mergeCell ref="K26:M27"/>
+    <mergeCell ref="E30:G31"/>
+    <mergeCell ref="H30:J31"/>
+    <mergeCell ref="K30:M31"/>
+    <mergeCell ref="N26:P27"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="H24:J25"/>
+    <mergeCell ref="E24:G25"/>
+    <mergeCell ref="B24:D25"/>
+    <mergeCell ref="AL22:AL23"/>
+    <mergeCell ref="AC2:AE2"/>
+    <mergeCell ref="AF2:AH2"/>
+    <mergeCell ref="AI2:AI3"/>
+    <mergeCell ref="AC12:AE12"/>
+    <mergeCell ref="AF12:AH12"/>
+    <mergeCell ref="AI12:AK12"/>
+    <mergeCell ref="AL12:AL13"/>
+    <mergeCell ref="AL14:AL15"/>
+    <mergeCell ref="AL16:AL17"/>
+    <mergeCell ref="AL18:AL19"/>
+    <mergeCell ref="AL20:AL21"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="Q23:S23"/>
+    <mergeCell ref="N23:P23"/>
+    <mergeCell ref="K23:M23"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="AI41:AI42"/>
+    <mergeCell ref="AL24:AL25"/>
+    <mergeCell ref="AL26:AL27"/>
+    <mergeCell ref="AC29:AE29"/>
+    <mergeCell ref="AF29:AH29"/>
+    <mergeCell ref="AI29:AI30"/>
+    <mergeCell ref="AI31:AI32"/>
+    <mergeCell ref="AI33:AI34"/>
+    <mergeCell ref="AI35:AI36"/>
+    <mergeCell ref="AI37:AI38"/>
+    <mergeCell ref="AI39:AI40"/>
+    <mergeCell ref="AI43:AI44"/>
+    <mergeCell ref="AC46:AE46"/>
+    <mergeCell ref="AF46:AH46"/>
+    <mergeCell ref="AI46:AI47"/>
+    <mergeCell ref="AI60:AI61"/>
+    <mergeCell ref="AI48:AI49"/>
+    <mergeCell ref="AI50:AI51"/>
+    <mergeCell ref="AI52:AI53"/>
+    <mergeCell ref="AI54:AI55"/>
+    <mergeCell ref="AI56:AI57"/>
+    <mergeCell ref="AI58:AI59"/>
   </mergeCells>
   <conditionalFormatting sqref="AB14:AL27">
     <cfRule type="cellIs" dxfId="25" priority="5" operator="equal">
@@ -10567,13 +10568,13 @@
         <v>74</v>
       </c>
       <c r="AB2" s="149"/>
-      <c r="AC2" s="185"/>
-      <c r="AD2" s="186"/>
-      <c r="AE2" s="187"/>
-      <c r="AF2" s="185"/>
-      <c r="AG2" s="186"/>
-      <c r="AH2" s="186"/>
-      <c r="AI2" s="188"/>
+      <c r="AC2" s="189"/>
+      <c r="AD2" s="190"/>
+      <c r="AE2" s="191"/>
+      <c r="AF2" s="189"/>
+      <c r="AG2" s="190"/>
+      <c r="AH2" s="190"/>
+      <c r="AI2" s="183"/>
       <c r="AJ2">
         <f>SUM(AI4:AI10)</f>
         <v>0</v>
@@ -10663,7 +10664,7 @@
       <c r="AF3" s="104"/>
       <c r="AG3" s="105"/>
       <c r="AH3" s="107"/>
-      <c r="AI3" s="189"/>
+      <c r="AI3" s="184"/>
     </row>
     <row r="4" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A4" s="147"/>
@@ -11276,25 +11277,25 @@
       <c r="AB12" s="149" t="s">
         <v>126</v>
       </c>
-      <c r="AC12" s="185" t="str">
+      <c r="AC12" s="189" t="str">
         <f>'2_PA'!V9</f>
         <v>I Periodo</v>
       </c>
-      <c r="AD12" s="190"/>
-      <c r="AE12" s="191"/>
-      <c r="AF12" s="192" t="str">
+      <c r="AD12" s="192"/>
+      <c r="AE12" s="193"/>
+      <c r="AF12" s="179" t="str">
         <f>'2_PA'!Y9</f>
         <v>II Periodo</v>
       </c>
-      <c r="AG12" s="193"/>
-      <c r="AH12" s="194"/>
-      <c r="AI12" s="192" t="str">
+      <c r="AG12" s="180"/>
+      <c r="AH12" s="181"/>
+      <c r="AI12" s="179" t="str">
         <f>'2_PA'!AB9</f>
         <v>III Periodo</v>
       </c>
-      <c r="AJ12" s="193"/>
-      <c r="AK12" s="195"/>
-      <c r="AL12" s="188" t="str">
+      <c r="AJ12" s="180"/>
+      <c r="AK12" s="182"/>
+      <c r="AL12" s="183" t="str">
         <f>'2_PA'!AE9</f>
         <v>Totale</v>
       </c>
@@ -11341,7 +11342,7 @@
         <f>'2_PA'!AD10</f>
         <v>Fase</v>
       </c>
-      <c r="AL13" s="189"/>
+      <c r="AL13" s="184"/>
       <c r="AM13">
         <f>SUM(AL14:AL27)</f>
         <v>193</v>
@@ -11392,7 +11393,7 @@
         <f>'2_PA'!AD11</f>
         <v>PA 3.2</v>
       </c>
-      <c r="AL14" s="196">
+      <c r="AL14" s="185">
         <f>'2_PA'!AE11</f>
         <v>26</v>
       </c>
@@ -11518,7 +11519,7 @@
         <f>'2_PA'!AD12</f>
         <v>0</v>
       </c>
-      <c r="AL15" s="184"/>
+      <c r="AL15" s="177"/>
       <c r="AO15">
         <f>IF($AC15=AO$2,$AD15,0)</f>
         <v>0</v>
@@ -11637,7 +11638,7 @@
         <f>'2_PA'!AD13</f>
         <v>PA 3.2</v>
       </c>
-      <c r="AL16" s="184">
+      <c r="AL16" s="177">
         <f>'2_PA'!AE13</f>
         <v>27</v>
       </c>
@@ -11759,7 +11760,7 @@
         <f>'2_PA'!AD14</f>
         <v>0</v>
       </c>
-      <c r="AL17" s="184"/>
+      <c r="AL17" s="177"/>
       <c r="AO17">
         <f t="shared" si="29"/>
         <v>0</v>
@@ -11878,7 +11879,7 @@
         <f>'2_PA'!AD15</f>
         <v>PA 3.3</v>
       </c>
-      <c r="AL18" s="184">
+      <c r="AL18" s="177">
         <f>'2_PA'!AE15</f>
         <v>26</v>
       </c>
@@ -12000,7 +12001,7 @@
         <f>'2_PA'!AD16</f>
         <v>PA 6.1</v>
       </c>
-      <c r="AL19" s="184"/>
+      <c r="AL19" s="177"/>
       <c r="AO19">
         <f t="shared" si="29"/>
         <v>0</v>
@@ -12119,7 +12120,7 @@
         <f>'2_PA'!AD17</f>
         <v>PA 3.3</v>
       </c>
-      <c r="AL20" s="184">
+      <c r="AL20" s="177">
         <f>'2_PA'!AE17</f>
         <v>28</v>
       </c>
@@ -12241,7 +12242,7 @@
         <f>'2_PA'!AD18</f>
         <v>PA 6.2</v>
       </c>
-      <c r="AL21" s="184"/>
+      <c r="AL21" s="177"/>
       <c r="AO21">
         <f t="shared" si="29"/>
         <v>0</v>
@@ -12360,7 +12361,7 @@
         <f>'2_PA'!AD19</f>
         <v>PA 5.1</v>
       </c>
-      <c r="AL22" s="184">
+      <c r="AL22" s="177">
         <f>'2_PA'!AE19</f>
         <v>30</v>
       </c>
@@ -12445,36 +12446,36 @@
       <c r="A23" s="156" t="s">
         <v>0</v>
       </c>
-      <c r="B23" s="197" t="s">
+      <c r="B23" s="194" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="197"/>
-      <c r="D23" s="197"/>
-      <c r="E23" s="197" t="s">
+      <c r="C23" s="194"/>
+      <c r="D23" s="194"/>
+      <c r="E23" s="194" t="s">
         <v>2</v>
       </c>
-      <c r="F23" s="197"/>
-      <c r="G23" s="197"/>
-      <c r="H23" s="197" t="s">
+      <c r="F23" s="194"/>
+      <c r="G23" s="194"/>
+      <c r="H23" s="194" t="s">
         <v>3</v>
       </c>
-      <c r="I23" s="197"/>
-      <c r="J23" s="197"/>
-      <c r="K23" s="197" t="s">
+      <c r="I23" s="194"/>
+      <c r="J23" s="194"/>
+      <c r="K23" s="194" t="s">
         <v>4</v>
       </c>
-      <c r="L23" s="197"/>
-      <c r="M23" s="197"/>
-      <c r="N23" s="197" t="s">
+      <c r="L23" s="194"/>
+      <c r="M23" s="194"/>
+      <c r="N23" s="194" t="s">
         <v>5</v>
       </c>
-      <c r="O23" s="197"/>
-      <c r="P23" s="197"/>
-      <c r="Q23" s="197" t="s">
+      <c r="O23" s="194"/>
+      <c r="P23" s="194"/>
+      <c r="Q23" s="194" t="s">
         <v>6</v>
       </c>
-      <c r="R23" s="197"/>
-      <c r="S23" s="197"/>
+      <c r="R23" s="194"/>
+      <c r="S23" s="194"/>
       <c r="T23" s="156" t="s">
         <v>14</v>
       </c>
@@ -12519,7 +12520,7 @@
         <f>'2_PA'!AD20</f>
         <v>0</v>
       </c>
-      <c r="AL23" s="184"/>
+      <c r="AL23" s="177"/>
       <c r="AO23">
         <f t="shared" si="29"/>
         <v>0</v>
@@ -12598,50 +12599,50 @@
       </c>
     </row>
     <row r="24" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A24" s="183" t="s">
+      <c r="A24" s="186" t="s">
         <v>7</v>
       </c>
-      <c r="B24" s="181">
+      <c r="B24" s="188">
         <f>SUM(AO4:AQ4,AO14:AQ15,AO31:AQ32,AO48:AQ49)</f>
         <v>4</v>
       </c>
-      <c r="C24" s="181"/>
-      <c r="D24" s="181"/>
-      <c r="E24" s="181">
+      <c r="C24" s="188"/>
+      <c r="D24" s="188"/>
+      <c r="E24" s="188">
         <f>SUM(AR4:AT4,AR14:AT15,AR31:AT32,AR48:AT49)</f>
         <v>10</v>
       </c>
-      <c r="F24" s="181"/>
-      <c r="G24" s="181"/>
-      <c r="H24" s="182">
+      <c r="F24" s="188"/>
+      <c r="G24" s="188"/>
+      <c r="H24" s="187">
         <f>SUM(AU4:AW4,AU14:AW15,AU31:AW32,AU48:AW49)</f>
         <v>9</v>
       </c>
-      <c r="I24" s="182"/>
-      <c r="J24" s="182"/>
-      <c r="K24" s="181">
+      <c r="I24" s="187"/>
+      <c r="J24" s="187"/>
+      <c r="K24" s="188">
         <f>SUM(AX4:AZ4,AX14:AZ15,AX31:AZ32,AX48:AZ49)</f>
         <v>10</v>
       </c>
-      <c r="L24" s="181"/>
-      <c r="M24" s="181"/>
-      <c r="N24" s="182">
+      <c r="L24" s="188"/>
+      <c r="M24" s="188"/>
+      <c r="N24" s="187">
         <f>SUM(BA4:BC4,BA14:BC15,BA31:BC32,BA48:BC49)</f>
         <v>59</v>
       </c>
-      <c r="O24" s="182"/>
-      <c r="P24" s="182"/>
-      <c r="Q24" s="181">
+      <c r="O24" s="187"/>
+      <c r="P24" s="187"/>
+      <c r="Q24" s="188">
         <f>SUM(BD4:BF4,BD14:BF15,BD31:BF32,BD48:BF49)</f>
         <v>4</v>
       </c>
-      <c r="R24" s="181"/>
-      <c r="S24" s="181"/>
-      <c r="T24" s="181">
+      <c r="R24" s="188"/>
+      <c r="S24" s="188"/>
+      <c r="T24" s="188">
         <f t="shared" ref="T24" si="32">SUM(B24:S25)</f>
         <v>96</v>
       </c>
-      <c r="U24" s="177"/>
+      <c r="U24" s="196"/>
       <c r="AB24" s="31" t="str">
         <f>'2_PA'!U21</f>
         <v>Quadrio Giacomo</v>
@@ -12682,7 +12683,7 @@
         <f>'2_PA'!AD21</f>
         <v>PA 5.1, 6.2</v>
       </c>
-      <c r="AL24" s="184">
+      <c r="AL24" s="177">
         <f>'2_PA'!AE21</f>
         <v>28</v>
       </c>
@@ -12764,27 +12765,27 @@
       </c>
     </row>
     <row r="25" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A25" s="183"/>
-      <c r="B25" s="181"/>
-      <c r="C25" s="181"/>
-      <c r="D25" s="181"/>
-      <c r="E25" s="181"/>
-      <c r="F25" s="181"/>
-      <c r="G25" s="181"/>
-      <c r="H25" s="182"/>
-      <c r="I25" s="182"/>
-      <c r="J25" s="182"/>
-      <c r="K25" s="181"/>
-      <c r="L25" s="181"/>
-      <c r="M25" s="181"/>
-      <c r="N25" s="182"/>
-      <c r="O25" s="182"/>
-      <c r="P25" s="182"/>
-      <c r="Q25" s="181"/>
-      <c r="R25" s="181"/>
-      <c r="S25" s="181"/>
-      <c r="T25" s="181"/>
-      <c r="U25" s="177"/>
+      <c r="A25" s="186"/>
+      <c r="B25" s="188"/>
+      <c r="C25" s="188"/>
+      <c r="D25" s="188"/>
+      <c r="E25" s="188"/>
+      <c r="F25" s="188"/>
+      <c r="G25" s="188"/>
+      <c r="H25" s="187"/>
+      <c r="I25" s="187"/>
+      <c r="J25" s="187"/>
+      <c r="K25" s="188"/>
+      <c r="L25" s="188"/>
+      <c r="M25" s="188"/>
+      <c r="N25" s="187"/>
+      <c r="O25" s="187"/>
+      <c r="P25" s="187"/>
+      <c r="Q25" s="188"/>
+      <c r="R25" s="188"/>
+      <c r="S25" s="188"/>
+      <c r="T25" s="188"/>
+      <c r="U25" s="196"/>
       <c r="AB25" s="31">
         <f>'2_PA'!U22</f>
         <v>0</v>
@@ -12825,7 +12826,7 @@
         <f>'2_PA'!AD22</f>
         <v>0</v>
       </c>
-      <c r="AL25" s="184"/>
+      <c r="AL25" s="177"/>
       <c r="AO25">
         <f t="shared" si="29"/>
         <v>0</v>
@@ -12904,50 +12905,50 @@
       </c>
     </row>
     <row r="26" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A26" s="183" t="s">
+      <c r="A26" s="186" t="s">
         <v>11</v>
       </c>
-      <c r="B26" s="181">
+      <c r="B26" s="188">
         <f>SUM(AO5:AQ5,AO16:AQ17,AO33:AQ34,AO50:AQ51)</f>
         <v>13</v>
       </c>
-      <c r="C26" s="181"/>
-      <c r="D26" s="181"/>
-      <c r="E26" s="181">
+      <c r="C26" s="188"/>
+      <c r="D26" s="188"/>
+      <c r="E26" s="188">
         <f>SUM(AR5:AT5,AR16:AT17,AR33:AT34,AR50:AT51)</f>
         <v>10</v>
       </c>
-      <c r="F26" s="181"/>
-      <c r="G26" s="181"/>
-      <c r="H26" s="181">
+      <c r="F26" s="188"/>
+      <c r="G26" s="188"/>
+      <c r="H26" s="188">
         <f>SUM(AU5:AW5,AU16:AW17,AU33:AW34,AU50:AW51)</f>
         <v>0</v>
       </c>
-      <c r="I26" s="181"/>
-      <c r="J26" s="181"/>
-      <c r="K26" s="182">
+      <c r="I26" s="188"/>
+      <c r="J26" s="188"/>
+      <c r="K26" s="187">
         <f>SUM(AX5:AZ5,AX16:AZ17,AX33:AZ34,AX50:AZ51)</f>
         <v>33</v>
       </c>
-      <c r="L26" s="182"/>
-      <c r="M26" s="182"/>
-      <c r="N26" s="181">
+      <c r="L26" s="187"/>
+      <c r="M26" s="187"/>
+      <c r="N26" s="188">
         <f>SUM(BA5:BC5,BA16:BC17,BA33:BC34,BA50:BC51)</f>
         <v>29</v>
       </c>
-      <c r="O26" s="181"/>
-      <c r="P26" s="181"/>
-      <c r="Q26" s="181">
+      <c r="O26" s="188"/>
+      <c r="P26" s="188"/>
+      <c r="Q26" s="188">
         <f>SUM(BD5:BF5,BD16:BF17,BD33:BF34,BD50:BF51)</f>
         <v>12</v>
       </c>
-      <c r="R26" s="181"/>
-      <c r="S26" s="181"/>
-      <c r="T26" s="181">
+      <c r="R26" s="188"/>
+      <c r="S26" s="188"/>
+      <c r="T26" s="188">
         <f t="shared" ref="T26" si="33">SUM(B26:S27)</f>
         <v>97</v>
       </c>
-      <c r="U26" s="177"/>
+      <c r="U26" s="196"/>
       <c r="AB26" s="47" t="str">
         <f>'2_PA'!U23</f>
         <v>Maggiolo Giorgio</v>
@@ -12988,7 +12989,7 @@
         <f>'2_PA'!AD23</f>
         <v>PA 3.3</v>
       </c>
-      <c r="AL26" s="184">
+      <c r="AL26" s="177">
         <f>'2_PA'!AE23</f>
         <v>28</v>
       </c>
@@ -13070,27 +13071,27 @@
       </c>
     </row>
     <row r="27" spans="1:60" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="183"/>
-      <c r="B27" s="181"/>
-      <c r="C27" s="181"/>
-      <c r="D27" s="181"/>
-      <c r="E27" s="181"/>
-      <c r="F27" s="181"/>
-      <c r="G27" s="181"/>
-      <c r="H27" s="181"/>
-      <c r="I27" s="181"/>
-      <c r="J27" s="181"/>
-      <c r="K27" s="182"/>
-      <c r="L27" s="182"/>
-      <c r="M27" s="182"/>
-      <c r="N27" s="181"/>
-      <c r="O27" s="181"/>
-      <c r="P27" s="181"/>
-      <c r="Q27" s="181"/>
-      <c r="R27" s="181"/>
-      <c r="S27" s="181"/>
-      <c r="T27" s="181"/>
-      <c r="U27" s="177"/>
+      <c r="A27" s="186"/>
+      <c r="B27" s="188"/>
+      <c r="C27" s="188"/>
+      <c r="D27" s="188"/>
+      <c r="E27" s="188"/>
+      <c r="F27" s="188"/>
+      <c r="G27" s="188"/>
+      <c r="H27" s="188"/>
+      <c r="I27" s="188"/>
+      <c r="J27" s="188"/>
+      <c r="K27" s="187"/>
+      <c r="L27" s="187"/>
+      <c r="M27" s="187"/>
+      <c r="N27" s="188"/>
+      <c r="O27" s="188"/>
+      <c r="P27" s="188"/>
+      <c r="Q27" s="188"/>
+      <c r="R27" s="188"/>
+      <c r="S27" s="188"/>
+      <c r="T27" s="188"/>
+      <c r="U27" s="196"/>
       <c r="AB27" s="63">
         <f>'2_PA'!U24</f>
         <v>0</v>
@@ -13131,7 +13132,7 @@
         <f>'2_PA'!AD24</f>
         <v>PA 5.1</v>
       </c>
-      <c r="AL27" s="198"/>
+      <c r="AL27" s="178"/>
       <c r="AO27">
         <f t="shared" si="29"/>
         <v>0</v>
@@ -13210,96 +13211,96 @@
       </c>
     </row>
     <row r="28" spans="1:60" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="183" t="s">
+      <c r="A28" s="186" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="181">
+      <c r="B28" s="188">
         <f>SUM(AO6:AQ6,AO18:AQ19,AO35:AQ36,AO52:AQ53)</f>
         <v>10</v>
       </c>
-      <c r="C28" s="181"/>
-      <c r="D28" s="181"/>
-      <c r="E28" s="181">
+      <c r="C28" s="188"/>
+      <c r="D28" s="188"/>
+      <c r="E28" s="188">
         <f>SUM(AR6:AT6,AR18:AT19,AR35:AT36,AR52:AT53)</f>
         <v>4</v>
       </c>
-      <c r="F28" s="181"/>
-      <c r="G28" s="181"/>
-      <c r="H28" s="181">
+      <c r="F28" s="188"/>
+      <c r="G28" s="188"/>
+      <c r="H28" s="188">
         <f>SUM(AU6:AW6,AU18:AW19,AU35:AW36,AU52:AW53)</f>
         <v>2</v>
       </c>
-      <c r="I28" s="181"/>
-      <c r="J28" s="181"/>
-      <c r="K28" s="181">
+      <c r="I28" s="188"/>
+      <c r="J28" s="188"/>
+      <c r="K28" s="188">
         <f>SUM(AX6:AZ6,AX18:AZ19,AX35:AZ36,AX52:AZ53)</f>
         <v>27</v>
       </c>
-      <c r="L28" s="181"/>
-      <c r="M28" s="181"/>
-      <c r="N28" s="181">
+      <c r="L28" s="188"/>
+      <c r="M28" s="188"/>
+      <c r="N28" s="188">
         <f>SUM(BA6:BC6,BA18:BC19,BA35:BC36,BA52:BC53)</f>
         <v>33</v>
       </c>
-      <c r="O28" s="181"/>
-      <c r="P28" s="181"/>
-      <c r="Q28" s="182">
+      <c r="O28" s="188"/>
+      <c r="P28" s="188"/>
+      <c r="Q28" s="187">
         <f>SUM(BD6:BF6,BD18:BF19,BD35:BF36,BD52:BF53)</f>
         <v>20</v>
       </c>
-      <c r="R28" s="182"/>
-      <c r="S28" s="182"/>
-      <c r="T28" s="181">
+      <c r="R28" s="187"/>
+      <c r="S28" s="187"/>
+      <c r="T28" s="188">
         <f t="shared" ref="T28" si="34">SUM(B28:S29)</f>
         <v>96</v>
       </c>
-      <c r="U28" s="177"/>
+      <c r="U28" s="196"/>
       <c r="BG28" s="158">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A29" s="183"/>
-      <c r="B29" s="181"/>
-      <c r="C29" s="181"/>
-      <c r="D29" s="181"/>
-      <c r="E29" s="181"/>
-      <c r="F29" s="181"/>
-      <c r="G29" s="181"/>
-      <c r="H29" s="181"/>
-      <c r="I29" s="181"/>
-      <c r="J29" s="181"/>
-      <c r="K29" s="181"/>
-      <c r="L29" s="181"/>
-      <c r="M29" s="181"/>
-      <c r="N29" s="181"/>
-      <c r="O29" s="181"/>
-      <c r="P29" s="181"/>
-      <c r="Q29" s="182"/>
-      <c r="R29" s="182"/>
-      <c r="S29" s="182"/>
-      <c r="T29" s="181"/>
-      <c r="U29" s="177"/>
+      <c r="A29" s="186"/>
+      <c r="B29" s="188"/>
+      <c r="C29" s="188"/>
+      <c r="D29" s="188"/>
+      <c r="E29" s="188"/>
+      <c r="F29" s="188"/>
+      <c r="G29" s="188"/>
+      <c r="H29" s="188"/>
+      <c r="I29" s="188"/>
+      <c r="J29" s="188"/>
+      <c r="K29" s="188"/>
+      <c r="L29" s="188"/>
+      <c r="M29" s="188"/>
+      <c r="N29" s="188"/>
+      <c r="O29" s="188"/>
+      <c r="P29" s="188"/>
+      <c r="Q29" s="187"/>
+      <c r="R29" s="187"/>
+      <c r="S29" s="187"/>
+      <c r="T29" s="188"/>
+      <c r="U29" s="196"/>
       <c r="AA29" t="s">
         <v>124</v>
       </c>
       <c r="AB29" s="149" t="s">
         <v>127</v>
       </c>
-      <c r="AC29" s="192" t="str">
+      <c r="AC29" s="179" t="str">
         <f>'3_PDC'!U6</f>
         <v>I Periodo</v>
       </c>
-      <c r="AD29" s="193"/>
-      <c r="AE29" s="194"/>
-      <c r="AF29" s="192" t="str">
+      <c r="AD29" s="180"/>
+      <c r="AE29" s="181"/>
+      <c r="AF29" s="179" t="str">
         <f>'3_PDC'!X6</f>
         <v>II Periodo</v>
       </c>
-      <c r="AG29" s="193"/>
-      <c r="AH29" s="195"/>
-      <c r="AI29" s="188" t="str">
+      <c r="AG29" s="180"/>
+      <c r="AH29" s="182"/>
+      <c r="AI29" s="183" t="str">
         <f>'3_PDC'!AA6</f>
         <v>Totale</v>
       </c>
@@ -13309,50 +13310,50 @@
       </c>
     </row>
     <row r="30" spans="1:60" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="183" t="s">
+      <c r="A30" s="186" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="181">
+      <c r="B30" s="188">
         <f>SUM(AO7:AQ7,AO20:AQ21,AO37:AQ38,AO54:AQ55)</f>
         <v>15</v>
       </c>
-      <c r="C30" s="181"/>
-      <c r="D30" s="181"/>
-      <c r="E30" s="181">
+      <c r="C30" s="188"/>
+      <c r="D30" s="188"/>
+      <c r="E30" s="188">
         <f>SUM(AR7:AT7,AR20:AT21,AR37:AT38,AR54:AT55)</f>
         <v>4</v>
       </c>
-      <c r="F30" s="181"/>
-      <c r="G30" s="181"/>
-      <c r="H30" s="181">
+      <c r="F30" s="188"/>
+      <c r="G30" s="188"/>
+      <c r="H30" s="188">
         <f>SUM(AU7:AW7,AU20:AW21,AU37:AW38,AU54:AW55)</f>
         <v>0</v>
       </c>
-      <c r="I30" s="181"/>
-      <c r="J30" s="181"/>
-      <c r="K30" s="182">
+      <c r="I30" s="188"/>
+      <c r="J30" s="188"/>
+      <c r="K30" s="187">
         <f>SUM(AX7:AZ7,AX20:AZ21,AX37:AZ38,AX54:AZ55)</f>
         <v>31</v>
       </c>
-      <c r="L30" s="182"/>
-      <c r="M30" s="182"/>
-      <c r="N30" s="182">
+      <c r="L30" s="187"/>
+      <c r="M30" s="187"/>
+      <c r="N30" s="187">
         <f>SUM(BA7:BC7,BA20:BC21,BA37:BC38,BA54:BC55)</f>
         <v>35</v>
       </c>
-      <c r="O30" s="182"/>
-      <c r="P30" s="182"/>
-      <c r="Q30" s="181">
+      <c r="O30" s="187"/>
+      <c r="P30" s="187"/>
+      <c r="Q30" s="188">
         <f>SUM(BD7:BF7,BD20:BF21,BD37:BF38,BD54:BF55)</f>
         <v>18</v>
       </c>
-      <c r="R30" s="181"/>
-      <c r="S30" s="181"/>
-      <c r="T30" s="181">
+      <c r="R30" s="188"/>
+      <c r="S30" s="188"/>
+      <c r="T30" s="188">
         <f t="shared" ref="T30" si="35">SUM(B30:S31)</f>
         <v>103</v>
       </c>
-      <c r="U30" s="177"/>
+      <c r="U30" s="196"/>
       <c r="AB30" s="150"/>
       <c r="AC30" s="26" t="str">
         <f>'3_PDC'!U7</f>
@@ -13378,7 +13379,7 @@
         <f>'3_PDC'!Z7</f>
         <v>Fase</v>
       </c>
-      <c r="AI30" s="189"/>
+      <c r="AI30" s="184"/>
       <c r="AK30">
         <f>SUM(AI31:AI44)</f>
         <v>373</v>
@@ -13389,27 +13390,27 @@
       </c>
     </row>
     <row r="31" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A31" s="183"/>
-      <c r="B31" s="181"/>
-      <c r="C31" s="181"/>
-      <c r="D31" s="181"/>
-      <c r="E31" s="181"/>
-      <c r="F31" s="181"/>
-      <c r="G31" s="181"/>
-      <c r="H31" s="181"/>
-      <c r="I31" s="181"/>
-      <c r="J31" s="181"/>
-      <c r="K31" s="182"/>
-      <c r="L31" s="182"/>
-      <c r="M31" s="182"/>
-      <c r="N31" s="182"/>
-      <c r="O31" s="182"/>
-      <c r="P31" s="182"/>
-      <c r="Q31" s="181"/>
-      <c r="R31" s="181"/>
-      <c r="S31" s="181"/>
-      <c r="T31" s="181"/>
-      <c r="U31" s="177"/>
+      <c r="A31" s="186"/>
+      <c r="B31" s="188"/>
+      <c r="C31" s="188"/>
+      <c r="D31" s="188"/>
+      <c r="E31" s="188"/>
+      <c r="F31" s="188"/>
+      <c r="G31" s="188"/>
+      <c r="H31" s="188"/>
+      <c r="I31" s="188"/>
+      <c r="J31" s="188"/>
+      <c r="K31" s="187"/>
+      <c r="L31" s="187"/>
+      <c r="M31" s="187"/>
+      <c r="N31" s="187"/>
+      <c r="O31" s="187"/>
+      <c r="P31" s="187"/>
+      <c r="Q31" s="188"/>
+      <c r="R31" s="188"/>
+      <c r="S31" s="188"/>
+      <c r="T31" s="188"/>
+      <c r="U31" s="196"/>
       <c r="AB31" s="31" t="str">
         <f>'3_PDC'!T8</f>
         <v>Begolo Marco</v>
@@ -13438,7 +13439,7 @@
         <f>'3_PDC'!Z8</f>
         <v>PDC 4.4</v>
       </c>
-      <c r="AI31" s="196">
+      <c r="AI31" s="185">
         <f>'3_PDC'!AA8</f>
         <v>52</v>
       </c>
@@ -13524,50 +13525,50 @@
       </c>
     </row>
     <row r="32" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A32" s="183" t="s">
+      <c r="A32" s="186" t="s">
         <v>8</v>
       </c>
-      <c r="B32" s="181">
+      <c r="B32" s="188">
         <f>SUM(AO8:AQ8,AO22:AQ23,AO39:AQ40,AO56:AQ57)</f>
         <v>9</v>
       </c>
-      <c r="C32" s="181"/>
-      <c r="D32" s="181"/>
-      <c r="E32" s="181">
+      <c r="C32" s="188"/>
+      <c r="D32" s="188"/>
+      <c r="E32" s="188">
         <f>SUM(AR8:AT8,AR22:AT23,AR39:AT40,AR56:AT57)</f>
         <v>11</v>
       </c>
-      <c r="F32" s="181"/>
-      <c r="G32" s="181"/>
-      <c r="H32" s="181">
+      <c r="F32" s="188"/>
+      <c r="G32" s="188"/>
+      <c r="H32" s="188">
         <f>SUM(AU8:AW8,AU22:AW23,AU39:AW40,AU56:AW57)</f>
         <v>2</v>
       </c>
-      <c r="I32" s="181"/>
-      <c r="J32" s="181"/>
-      <c r="K32" s="181">
+      <c r="I32" s="188"/>
+      <c r="J32" s="188"/>
+      <c r="K32" s="188">
         <f>SUM(AX8:AZ8,AX22:AZ23,AX39:AZ40,AX56:AZ57)</f>
         <v>20</v>
       </c>
-      <c r="L32" s="181"/>
-      <c r="M32" s="181"/>
-      <c r="N32" s="182">
+      <c r="L32" s="188"/>
+      <c r="M32" s="188"/>
+      <c r="N32" s="187">
         <f>SUM(BA8:BC8,BA22:BC23,BA39:BC40,BA56:BC57)</f>
         <v>37</v>
       </c>
-      <c r="O32" s="182"/>
-      <c r="P32" s="182"/>
-      <c r="Q32" s="181">
+      <c r="O32" s="187"/>
+      <c r="P32" s="187"/>
+      <c r="Q32" s="188">
         <f>SUM(BD8:BF8,BD22:BF23,BD39:BF40,BD56:BF57)</f>
         <v>23</v>
       </c>
-      <c r="R32" s="181"/>
-      <c r="S32" s="181"/>
-      <c r="T32" s="181">
+      <c r="R32" s="188"/>
+      <c r="S32" s="188"/>
+      <c r="T32" s="188">
         <f t="shared" ref="T32" si="51">SUM(B32:S33)</f>
         <v>102</v>
       </c>
-      <c r="U32" s="177"/>
+      <c r="U32" s="196"/>
       <c r="AB32" s="35">
         <f>'3_PDC'!T9</f>
         <v>0</v>
@@ -13596,7 +13597,7 @@
         <f>'3_PDC'!Z9</f>
         <v>PDC 7</v>
       </c>
-      <c r="AI32" s="184"/>
+      <c r="AI32" s="177"/>
       <c r="AO32">
         <f>IF($AC32=AO$2,$AD32,0)</f>
         <v>0</v>
@@ -13675,27 +13676,27 @@
       </c>
     </row>
     <row r="33" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A33" s="183"/>
-      <c r="B33" s="181"/>
-      <c r="C33" s="181"/>
-      <c r="D33" s="181"/>
-      <c r="E33" s="181"/>
-      <c r="F33" s="181"/>
-      <c r="G33" s="181"/>
-      <c r="H33" s="181"/>
-      <c r="I33" s="181"/>
-      <c r="J33" s="181"/>
-      <c r="K33" s="181"/>
-      <c r="L33" s="181"/>
-      <c r="M33" s="181"/>
-      <c r="N33" s="182"/>
-      <c r="O33" s="182"/>
-      <c r="P33" s="182"/>
-      <c r="Q33" s="181"/>
-      <c r="R33" s="181"/>
-      <c r="S33" s="181"/>
-      <c r="T33" s="181"/>
-      <c r="U33" s="177"/>
+      <c r="A33" s="186"/>
+      <c r="B33" s="188"/>
+      <c r="C33" s="188"/>
+      <c r="D33" s="188"/>
+      <c r="E33" s="188"/>
+      <c r="F33" s="188"/>
+      <c r="G33" s="188"/>
+      <c r="H33" s="188"/>
+      <c r="I33" s="188"/>
+      <c r="J33" s="188"/>
+      <c r="K33" s="188"/>
+      <c r="L33" s="188"/>
+      <c r="M33" s="188"/>
+      <c r="N33" s="187"/>
+      <c r="O33" s="187"/>
+      <c r="P33" s="187"/>
+      <c r="Q33" s="188"/>
+      <c r="R33" s="188"/>
+      <c r="S33" s="188"/>
+      <c r="T33" s="188"/>
+      <c r="U33" s="196"/>
       <c r="AB33" s="31" t="str">
         <f>'3_PDC'!T10</f>
         <v>Facchin Gabriele</v>
@@ -13724,7 +13725,7 @@
         <f>'3_PDC'!Z10</f>
         <v>PDC 3.1</v>
       </c>
-      <c r="AI33" s="184">
+      <c r="AI33" s="177">
         <f>'3_PDC'!AA10</f>
         <v>52</v>
       </c>
@@ -13806,50 +13807,50 @@
       </c>
     </row>
     <row r="34" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A34" s="183" t="s">
+      <c r="A34" s="186" t="s">
         <v>13</v>
       </c>
-      <c r="B34" s="181">
+      <c r="B34" s="188">
         <f>SUM(AO9:AQ9,AO24:AQ25,AO41:AQ42,AO58:AQ59)</f>
         <v>6</v>
       </c>
-      <c r="C34" s="181"/>
-      <c r="D34" s="181"/>
-      <c r="E34" s="181">
+      <c r="C34" s="188"/>
+      <c r="D34" s="188"/>
+      <c r="E34" s="188">
         <f>SUM(AR9:AT9,AR24:AT25,AR41:AT42,AR58:AT59)</f>
         <v>2</v>
       </c>
-      <c r="F34" s="181"/>
-      <c r="G34" s="181"/>
-      <c r="H34" s="181">
+      <c r="F34" s="188"/>
+      <c r="G34" s="188"/>
+      <c r="H34" s="188">
         <f>SUM(AU9:AW9,AU24:AW25,AU41:AW42,AU58:AW59)</f>
         <v>0</v>
       </c>
-      <c r="I34" s="181"/>
-      <c r="J34" s="181"/>
-      <c r="K34" s="182">
+      <c r="I34" s="188"/>
+      <c r="J34" s="188"/>
+      <c r="K34" s="187">
         <f>SUM(AX9:AZ9,AX24:AZ25,AX41:AZ42,AX58:AZ59)</f>
         <v>27</v>
       </c>
-      <c r="L34" s="182"/>
-      <c r="M34" s="182"/>
-      <c r="N34" s="182">
+      <c r="L34" s="187"/>
+      <c r="M34" s="187"/>
+      <c r="N34" s="187">
         <f>SUM(BA9:BC9,BA24:BC25,BA41:BC42,BA58:BC59)</f>
         <v>40</v>
       </c>
-      <c r="O34" s="182"/>
-      <c r="P34" s="182"/>
-      <c r="Q34" s="182">
+      <c r="O34" s="187"/>
+      <c r="P34" s="187"/>
+      <c r="Q34" s="187">
         <f>SUM(BD9:BF9,BD24:BF25,BD41:BF42,BD58:BF59)</f>
         <v>25</v>
       </c>
-      <c r="R34" s="182"/>
-      <c r="S34" s="182"/>
-      <c r="T34" s="181">
+      <c r="R34" s="187"/>
+      <c r="S34" s="187"/>
+      <c r="T34" s="188">
         <f t="shared" ref="T34" si="55">SUM(B34:S35)</f>
         <v>100</v>
       </c>
-      <c r="U34" s="177"/>
+      <c r="U34" s="196"/>
       <c r="AB34" s="31">
         <f>'3_PDC'!T11</f>
         <v>0</v>
@@ -13878,7 +13879,7 @@
         <f>'3_PDC'!Z11</f>
         <v>PDC 4.3</v>
       </c>
-      <c r="AI34" s="184"/>
+      <c r="AI34" s="177"/>
       <c r="AO34">
         <f t="shared" si="52"/>
         <v>0</v>
@@ -13957,27 +13958,27 @@
       </c>
     </row>
     <row r="35" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A35" s="183"/>
-      <c r="B35" s="181"/>
-      <c r="C35" s="181"/>
-      <c r="D35" s="181"/>
-      <c r="E35" s="181"/>
-      <c r="F35" s="181"/>
-      <c r="G35" s="181"/>
-      <c r="H35" s="181"/>
-      <c r="I35" s="181"/>
-      <c r="J35" s="181"/>
-      <c r="K35" s="182"/>
-      <c r="L35" s="182"/>
-      <c r="M35" s="182"/>
-      <c r="N35" s="182"/>
-      <c r="O35" s="182"/>
-      <c r="P35" s="182"/>
-      <c r="Q35" s="182"/>
-      <c r="R35" s="182"/>
-      <c r="S35" s="182"/>
-      <c r="T35" s="181"/>
-      <c r="U35" s="177"/>
+      <c r="A35" s="186"/>
+      <c r="B35" s="188"/>
+      <c r="C35" s="188"/>
+      <c r="D35" s="188"/>
+      <c r="E35" s="188"/>
+      <c r="F35" s="188"/>
+      <c r="G35" s="188"/>
+      <c r="H35" s="188"/>
+      <c r="I35" s="188"/>
+      <c r="J35" s="188"/>
+      <c r="K35" s="187"/>
+      <c r="L35" s="187"/>
+      <c r="M35" s="187"/>
+      <c r="N35" s="187"/>
+      <c r="O35" s="187"/>
+      <c r="P35" s="187"/>
+      <c r="Q35" s="187"/>
+      <c r="R35" s="187"/>
+      <c r="S35" s="187"/>
+      <c r="T35" s="188"/>
+      <c r="U35" s="196"/>
       <c r="AB35" s="47" t="str">
         <f>'3_PDC'!T12</f>
         <v>Cornaglia Alessando</v>
@@ -14006,7 +14007,7 @@
         <f>'3_PDC'!Z12</f>
         <v>PDC 4.4 e 5</v>
       </c>
-      <c r="AI35" s="184">
+      <c r="AI35" s="177">
         <f>'3_PDC'!AA12</f>
         <v>52</v>
       </c>
@@ -14095,50 +14096,50 @@
       </c>
     </row>
     <row r="36" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A36" s="183" t="s">
+      <c r="A36" s="186" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="181">
+      <c r="B36" s="188">
         <f>SUM(AO10:AQ10,AO26:AQ27,AO43:AQ44,AO60:AQ61)</f>
         <v>2</v>
       </c>
-      <c r="C36" s="181"/>
-      <c r="D36" s="181"/>
-      <c r="E36" s="181">
+      <c r="C36" s="188"/>
+      <c r="D36" s="188"/>
+      <c r="E36" s="188">
         <f>SUM(AR10:AT10,AR26:AT27,AR43:AT44,AR60:AT61)</f>
         <v>8</v>
       </c>
-      <c r="F36" s="181"/>
-      <c r="G36" s="181"/>
-      <c r="H36" s="181">
+      <c r="F36" s="188"/>
+      <c r="G36" s="188"/>
+      <c r="H36" s="188">
         <f>SUM(AU10:AW10,AU26:AW27,AU43:AW44,AU60:AW61)</f>
         <v>7</v>
       </c>
-      <c r="I36" s="181"/>
-      <c r="J36" s="181"/>
-      <c r="K36" s="182">
+      <c r="I36" s="188"/>
+      <c r="J36" s="188"/>
+      <c r="K36" s="187">
         <f>SUM(AX10:AZ10,AX26:AZ27,AX43:AZ44,AX60:AZ61)</f>
         <v>51</v>
       </c>
-      <c r="L36" s="182"/>
-      <c r="M36" s="182"/>
-      <c r="N36" s="181">
+      <c r="L36" s="187"/>
+      <c r="M36" s="187"/>
+      <c r="N36" s="188">
         <f>SUM(BA10:BC10,BA26:BC27,BA43:BC44,BA60:BC61)</f>
         <v>10</v>
       </c>
-      <c r="O36" s="181"/>
-      <c r="P36" s="181"/>
-      <c r="Q36" s="181">
+      <c r="O36" s="188"/>
+      <c r="P36" s="188"/>
+      <c r="Q36" s="188">
         <f>SUM(BD10:BF10,BD26:BF27,BD43:BF44,BD60:BF61)</f>
         <v>18</v>
       </c>
-      <c r="R36" s="181"/>
-      <c r="S36" s="181"/>
-      <c r="T36" s="181">
+      <c r="R36" s="188"/>
+      <c r="S36" s="188"/>
+      <c r="T36" s="188">
         <f t="shared" ref="T36" si="56">SUM(B36:S37)</f>
         <v>96</v>
       </c>
-      <c r="U36" s="177"/>
+      <c r="U36" s="196"/>
       <c r="AB36" s="35">
         <f>'3_PDC'!T13</f>
         <v>0</v>
@@ -14167,7 +14168,7 @@
         <f>'3_PDC'!Z13</f>
         <v>PDC 7</v>
       </c>
-      <c r="AI36" s="184"/>
+      <c r="AI36" s="177"/>
       <c r="AK36">
         <f>SUM(BD31:BF44)</f>
         <v>100</v>
@@ -14250,27 +14251,27 @@
       </c>
     </row>
     <row r="37" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A37" s="183"/>
-      <c r="B37" s="181"/>
-      <c r="C37" s="181"/>
-      <c r="D37" s="181"/>
-      <c r="E37" s="181"/>
-      <c r="F37" s="181"/>
-      <c r="G37" s="181"/>
-      <c r="H37" s="181"/>
-      <c r="I37" s="181"/>
-      <c r="J37" s="181"/>
-      <c r="K37" s="182"/>
-      <c r="L37" s="182"/>
-      <c r="M37" s="182"/>
-      <c r="N37" s="181"/>
-      <c r="O37" s="181"/>
-      <c r="P37" s="181"/>
-      <c r="Q37" s="181"/>
-      <c r="R37" s="181"/>
-      <c r="S37" s="181"/>
-      <c r="T37" s="181"/>
-      <c r="U37" s="177"/>
+      <c r="A37" s="186"/>
+      <c r="B37" s="188"/>
+      <c r="C37" s="188"/>
+      <c r="D37" s="188"/>
+      <c r="E37" s="188"/>
+      <c r="F37" s="188"/>
+      <c r="G37" s="188"/>
+      <c r="H37" s="188"/>
+      <c r="I37" s="188"/>
+      <c r="J37" s="188"/>
+      <c r="K37" s="187"/>
+      <c r="L37" s="187"/>
+      <c r="M37" s="187"/>
+      <c r="N37" s="188"/>
+      <c r="O37" s="188"/>
+      <c r="P37" s="188"/>
+      <c r="Q37" s="188"/>
+      <c r="R37" s="188"/>
+      <c r="S37" s="188"/>
+      <c r="T37" s="188"/>
+      <c r="U37" s="196"/>
       <c r="AB37" s="31" t="str">
         <f>'3_PDC'!T14</f>
         <v>Dalla Pietà Massimo</v>
@@ -14299,7 +14300,7 @@
         <f>'3_PDC'!Z14</f>
         <v>PDC 4.3</v>
       </c>
-      <c r="AI37" s="184">
+      <c r="AI37" s="177">
         <f>'3_PDC'!AA14</f>
         <v>57</v>
       </c>
@@ -14381,50 +14382,50 @@
       </c>
     </row>
     <row r="38" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A38" s="180" t="s">
+      <c r="A38" s="195" t="s">
         <v>14</v>
       </c>
-      <c r="B38" s="181">
+      <c r="B38" s="188">
         <f>SUM(B24:D37)</f>
         <v>59</v>
       </c>
-      <c r="C38" s="181"/>
-      <c r="D38" s="181"/>
-      <c r="E38" s="181">
+      <c r="C38" s="188"/>
+      <c r="D38" s="188"/>
+      <c r="E38" s="188">
         <f t="shared" ref="E38" si="57">SUM(E24:G37)</f>
         <v>49</v>
       </c>
-      <c r="F38" s="181"/>
-      <c r="G38" s="181"/>
-      <c r="H38" s="181">
+      <c r="F38" s="188"/>
+      <c r="G38" s="188"/>
+      <c r="H38" s="188">
         <f>SUM(H24:J37)</f>
         <v>20</v>
       </c>
-      <c r="I38" s="181"/>
-      <c r="J38" s="181"/>
-      <c r="K38" s="181">
+      <c r="I38" s="188"/>
+      <c r="J38" s="188"/>
+      <c r="K38" s="188">
         <f t="shared" ref="K38" si="58">SUM(K24:M37)</f>
         <v>199</v>
       </c>
-      <c r="L38" s="181"/>
-      <c r="M38" s="181"/>
-      <c r="N38" s="181">
+      <c r="L38" s="188"/>
+      <c r="M38" s="188"/>
+      <c r="N38" s="188">
         <f t="shared" ref="N38" si="59">SUM(N24:P37)</f>
         <v>243</v>
       </c>
-      <c r="O38" s="181"/>
-      <c r="P38" s="181"/>
-      <c r="Q38" s="181">
+      <c r="O38" s="188"/>
+      <c r="P38" s="188"/>
+      <c r="Q38" s="188">
         <f>SUM(Q24:S37)</f>
         <v>120</v>
       </c>
-      <c r="R38" s="181"/>
-      <c r="S38" s="181"/>
+      <c r="R38" s="188"/>
+      <c r="S38" s="188"/>
       <c r="T38" s="199">
         <f>SUM(B38:S39)</f>
         <v>690</v>
       </c>
-      <c r="U38" s="177"/>
+      <c r="U38" s="196"/>
       <c r="AB38" s="31">
         <f>'3_PDC'!T15</f>
         <v>0</v>
@@ -14453,7 +14454,7 @@
         <f>'3_PDC'!Z15</f>
         <v>PDC 7</v>
       </c>
-      <c r="AI38" s="184"/>
+      <c r="AI38" s="177"/>
       <c r="AO38">
         <f t="shared" si="52"/>
         <v>0</v>
@@ -14532,27 +14533,27 @@
       </c>
     </row>
     <row r="39" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A39" s="180"/>
-      <c r="B39" s="181"/>
-      <c r="C39" s="181"/>
-      <c r="D39" s="181"/>
-      <c r="E39" s="181"/>
-      <c r="F39" s="181"/>
-      <c r="G39" s="181"/>
-      <c r="H39" s="181"/>
-      <c r="I39" s="181"/>
-      <c r="J39" s="181"/>
-      <c r="K39" s="181"/>
-      <c r="L39" s="181"/>
-      <c r="M39" s="181"/>
-      <c r="N39" s="181"/>
-      <c r="O39" s="181"/>
-      <c r="P39" s="181"/>
-      <c r="Q39" s="181"/>
-      <c r="R39" s="181"/>
-      <c r="S39" s="181"/>
+      <c r="A39" s="195"/>
+      <c r="B39" s="188"/>
+      <c r="C39" s="188"/>
+      <c r="D39" s="188"/>
+      <c r="E39" s="188"/>
+      <c r="F39" s="188"/>
+      <c r="G39" s="188"/>
+      <c r="H39" s="188"/>
+      <c r="I39" s="188"/>
+      <c r="J39" s="188"/>
+      <c r="K39" s="188"/>
+      <c r="L39" s="188"/>
+      <c r="M39" s="188"/>
+      <c r="N39" s="188"/>
+      <c r="O39" s="188"/>
+      <c r="P39" s="188"/>
+      <c r="Q39" s="188"/>
+      <c r="R39" s="188"/>
+      <c r="S39" s="188"/>
       <c r="T39" s="199"/>
-      <c r="U39" s="177"/>
+      <c r="U39" s="196"/>
       <c r="AB39" s="47" t="str">
         <f>'3_PDC'!T16</f>
         <v>Braghetto Lorenzo</v>
@@ -14581,7 +14582,7 @@
         <f>'3_PDC'!Z16</f>
         <v>PDC 4.4</v>
       </c>
-      <c r="AI39" s="184">
+      <c r="AI39" s="177">
         <f>'3_PDC'!AA16</f>
         <v>54</v>
       </c>
@@ -14692,7 +14693,7 @@
         <f>'3_PDC'!Z17</f>
         <v>PDC 7</v>
       </c>
-      <c r="AI40" s="184"/>
+      <c r="AI40" s="177"/>
       <c r="AO40">
         <f t="shared" si="52"/>
         <v>0</v>
@@ -14800,7 +14801,7 @@
         <f>'3_PDC'!Z18</f>
         <v>PDC 6</v>
       </c>
-      <c r="AI41" s="184">
+      <c r="AI41" s="177">
         <f>'3_PDC'!AA18</f>
         <v>54</v>
       </c>
@@ -14911,7 +14912,7 @@
         <f>'3_PDC'!Z19</f>
         <v>PDC 3.2, 5 e 7</v>
       </c>
-      <c r="AI42" s="184"/>
+      <c r="AI42" s="177"/>
       <c r="AO42">
         <f t="shared" si="52"/>
         <v>0</v>
@@ -15019,7 +15020,7 @@
         <f>'3_PDC'!Z20</f>
         <v>PDC 4.3</v>
       </c>
-      <c r="AI43" s="184">
+      <c r="AI43" s="177">
         <f>'3_PDC'!AA20</f>
         <v>52</v>
       </c>
@@ -15130,7 +15131,7 @@
         <f>'3_PDC'!Z21</f>
         <v>PDC 7</v>
       </c>
-      <c r="AI44" s="198"/>
+      <c r="AI44" s="178"/>
       <c r="AO44">
         <f t="shared" si="52"/>
         <v>0</v>
@@ -15223,19 +15224,19 @@
       <c r="AB46" s="149" t="s">
         <v>128</v>
       </c>
-      <c r="AC46" s="192" t="str">
+      <c r="AC46" s="179" t="str">
         <f>'4_VV'!U3</f>
         <v>I Periodo</v>
       </c>
-      <c r="AD46" s="193"/>
-      <c r="AE46" s="194"/>
-      <c r="AF46" s="192" t="str">
+      <c r="AD46" s="180"/>
+      <c r="AE46" s="181"/>
+      <c r="AF46" s="179" t="str">
         <f>'4_VV'!X3</f>
         <v>II Periodo</v>
       </c>
-      <c r="AG46" s="193"/>
-      <c r="AH46" s="195"/>
-      <c r="AI46" s="188" t="str">
+      <c r="AG46" s="180"/>
+      <c r="AH46" s="182"/>
+      <c r="AI46" s="183" t="str">
         <f>'4_VV'!AA3</f>
         <v>Totale</v>
       </c>
@@ -15275,7 +15276,7 @@
         <f>'4_VV'!Z4</f>
         <v>Fase</v>
       </c>
-      <c r="AI47" s="189"/>
+      <c r="AI47" s="184"/>
       <c r="BG47" s="158">
         <f t="shared" si="13"/>
         <v>0</v>
@@ -15311,7 +15312,7 @@
         <f>'4_VV'!Z5</f>
         <v>VV 3.2</v>
       </c>
-      <c r="AI48" s="196">
+      <c r="AI48" s="185">
         <f>'4_VV'!AA5</f>
         <v>18</v>
       </c>
@@ -15425,7 +15426,7 @@
         <f>'4_VV'!Z6</f>
         <v>0</v>
       </c>
-      <c r="AI49" s="184"/>
+      <c r="AI49" s="177"/>
       <c r="AO49">
         <f>IF($AC49=AO$2,$AD49,0)</f>
         <v>0</v>
@@ -15532,7 +15533,7 @@
         <f>'4_VV'!Z7</f>
         <v>VV 3.2</v>
       </c>
-      <c r="AI50" s="184">
+      <c r="AI50" s="177">
         <f>'4_VV'!AA7</f>
         <v>18</v>
       </c>
@@ -15661,7 +15662,7 @@
         <f>'4_VV'!Z8</f>
         <v>VV 3.2</v>
       </c>
-      <c r="AI51" s="184"/>
+      <c r="AI51" s="177"/>
       <c r="AO51">
         <f t="shared" si="75"/>
         <v>0</v>
@@ -15782,7 +15783,7 @@
         <f>'4_VV'!Z9</f>
         <v>VV 3.1</v>
       </c>
-      <c r="AI52" s="184">
+      <c r="AI52" s="177">
         <f>'4_VV'!AA9</f>
         <v>18</v>
       </c>
@@ -15906,7 +15907,7 @@
         <f>'4_VV'!Z10</f>
         <v>0</v>
       </c>
-      <c r="AI53" s="184"/>
+      <c r="AI53" s="177"/>
       <c r="AO53">
         <f t="shared" si="75"/>
         <v>0</v>
@@ -16027,7 +16028,7 @@
         <f>'4_VV'!Z11</f>
         <v>VV 3.1</v>
       </c>
-      <c r="AI54" s="184">
+      <c r="AI54" s="177">
         <f>'4_VV'!AA11</f>
         <v>18</v>
       </c>
@@ -16151,7 +16152,7 @@
         <f>'4_VV'!Z12</f>
         <v>0</v>
       </c>
-      <c r="AI55" s="184"/>
+      <c r="AI55" s="177"/>
       <c r="AO55">
         <f t="shared" si="75"/>
         <v>0</v>
@@ -16272,7 +16273,7 @@
         <f>'4_VV'!Z13</f>
         <v>VV 3.1</v>
       </c>
-      <c r="AI56" s="184">
+      <c r="AI56" s="177">
         <f>'4_VV'!AA13</f>
         <v>18</v>
       </c>
@@ -16396,7 +16397,7 @@
         <f>'4_VV'!Z14</f>
         <v>0</v>
       </c>
-      <c r="AI57" s="184"/>
+      <c r="AI57" s="177"/>
       <c r="AO57">
         <f t="shared" si="75"/>
         <v>0</v>
@@ -16514,7 +16515,7 @@
         <f>'4_VV'!Z15</f>
         <v>VV 3.1</v>
       </c>
-      <c r="AI58" s="184">
+      <c r="AI58" s="177">
         <f>'4_VV'!AA15</f>
         <v>18</v>
       </c>
@@ -16624,7 +16625,7 @@
         <f>'4_VV'!Z16</f>
         <v>0</v>
       </c>
-      <c r="AI59" s="184"/>
+      <c r="AI59" s="177"/>
       <c r="AO59">
         <f t="shared" si="75"/>
         <v>0</v>
@@ -16731,7 +16732,7 @@
         <f>'4_VV'!Z17</f>
         <v>VV 3.1</v>
       </c>
-      <c r="AI60" s="184">
+      <c r="AI60" s="177">
         <f>'4_VV'!AA17</f>
         <v>16</v>
       </c>
@@ -16841,7 +16842,7 @@
         <f>'4_VV'!Z18</f>
         <v>0</v>
       </c>
-      <c r="AI61" s="198"/>
+      <c r="AI61" s="178"/>
       <c r="AO61">
         <f t="shared" si="75"/>
         <v>0</v>
@@ -16921,18 +16922,82 @@
     </row>
   </sheetData>
   <mergeCells count="112">
-    <mergeCell ref="AC2:AE2"/>
-    <mergeCell ref="AF2:AH2"/>
-    <mergeCell ref="AI2:AI3"/>
-    <mergeCell ref="AC12:AE12"/>
-    <mergeCell ref="AF12:AH12"/>
-    <mergeCell ref="AI12:AK12"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="K23:M23"/>
-    <mergeCell ref="N23:P23"/>
-    <mergeCell ref="Q23:S23"/>
+    <mergeCell ref="AI56:AI57"/>
+    <mergeCell ref="AI58:AI59"/>
+    <mergeCell ref="AI60:AI61"/>
+    <mergeCell ref="AC46:AE46"/>
+    <mergeCell ref="AF46:AH46"/>
+    <mergeCell ref="AI46:AI47"/>
+    <mergeCell ref="AI48:AI49"/>
+    <mergeCell ref="AI50:AI51"/>
+    <mergeCell ref="AI52:AI53"/>
+    <mergeCell ref="AI39:AI40"/>
+    <mergeCell ref="AI41:AI42"/>
+    <mergeCell ref="AI43:AI44"/>
+    <mergeCell ref="Q36:S37"/>
+    <mergeCell ref="T36:T37"/>
+    <mergeCell ref="U36:U37"/>
+    <mergeCell ref="AI37:AI38"/>
+    <mergeCell ref="AI35:AI36"/>
+    <mergeCell ref="AI54:AI55"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:D39"/>
+    <mergeCell ref="E38:G39"/>
+    <mergeCell ref="H38:J39"/>
+    <mergeCell ref="K38:M39"/>
+    <mergeCell ref="N38:P39"/>
+    <mergeCell ref="Q34:S35"/>
+    <mergeCell ref="T34:T35"/>
+    <mergeCell ref="U34:U35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:D37"/>
+    <mergeCell ref="E36:G37"/>
+    <mergeCell ref="H36:J37"/>
+    <mergeCell ref="K36:M37"/>
+    <mergeCell ref="N36:P37"/>
+    <mergeCell ref="Q38:S39"/>
+    <mergeCell ref="T38:T39"/>
+    <mergeCell ref="U38:U39"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:D35"/>
+    <mergeCell ref="E34:G35"/>
+    <mergeCell ref="H34:J35"/>
+    <mergeCell ref="K34:M35"/>
+    <mergeCell ref="N34:P35"/>
+    <mergeCell ref="B24:D25"/>
+    <mergeCell ref="E24:G25"/>
+    <mergeCell ref="H24:J25"/>
+    <mergeCell ref="K24:M25"/>
+    <mergeCell ref="N24:P25"/>
+    <mergeCell ref="AC29:AE29"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:D33"/>
+    <mergeCell ref="E32:G33"/>
+    <mergeCell ref="H32:J33"/>
+    <mergeCell ref="K32:M33"/>
+    <mergeCell ref="N32:P33"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:D31"/>
+    <mergeCell ref="E30:G31"/>
+    <mergeCell ref="H30:J31"/>
+    <mergeCell ref="K30:M31"/>
+    <mergeCell ref="N30:P31"/>
+    <mergeCell ref="AF29:AH29"/>
+    <mergeCell ref="AI29:AI30"/>
+    <mergeCell ref="Q30:S31"/>
+    <mergeCell ref="T30:T31"/>
+    <mergeCell ref="U30:U31"/>
+    <mergeCell ref="AI31:AI32"/>
+    <mergeCell ref="Q26:S27"/>
+    <mergeCell ref="T26:T27"/>
+    <mergeCell ref="U26:U27"/>
+    <mergeCell ref="Q32:S33"/>
+    <mergeCell ref="T32:T33"/>
+    <mergeCell ref="U32:U33"/>
+    <mergeCell ref="AI33:AI34"/>
+    <mergeCell ref="Q28:S29"/>
+    <mergeCell ref="T28:T29"/>
+    <mergeCell ref="U28:U29"/>
     <mergeCell ref="AL12:AL13"/>
     <mergeCell ref="AL14:AL15"/>
     <mergeCell ref="AL16:AL17"/>
@@ -16957,82 +17022,18 @@
     <mergeCell ref="K26:M27"/>
     <mergeCell ref="N26:P27"/>
     <mergeCell ref="A24:A25"/>
-    <mergeCell ref="AF29:AH29"/>
-    <mergeCell ref="AI29:AI30"/>
-    <mergeCell ref="Q30:S31"/>
-    <mergeCell ref="T30:T31"/>
-    <mergeCell ref="U30:U31"/>
-    <mergeCell ref="AI31:AI32"/>
-    <mergeCell ref="Q26:S27"/>
-    <mergeCell ref="T26:T27"/>
-    <mergeCell ref="U26:U27"/>
-    <mergeCell ref="Q32:S33"/>
-    <mergeCell ref="T32:T33"/>
-    <mergeCell ref="U32:U33"/>
-    <mergeCell ref="AI33:AI34"/>
-    <mergeCell ref="Q28:S29"/>
-    <mergeCell ref="T28:T29"/>
-    <mergeCell ref="U28:U29"/>
-    <mergeCell ref="B24:D25"/>
-    <mergeCell ref="E24:G25"/>
-    <mergeCell ref="H24:J25"/>
-    <mergeCell ref="K24:M25"/>
-    <mergeCell ref="N24:P25"/>
-    <mergeCell ref="AC29:AE29"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:D33"/>
-    <mergeCell ref="E32:G33"/>
-    <mergeCell ref="H32:J33"/>
-    <mergeCell ref="K32:M33"/>
-    <mergeCell ref="N32:P33"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:D31"/>
-    <mergeCell ref="E30:G31"/>
-    <mergeCell ref="H30:J31"/>
-    <mergeCell ref="K30:M31"/>
-    <mergeCell ref="N30:P31"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B38:D39"/>
-    <mergeCell ref="E38:G39"/>
-    <mergeCell ref="H38:J39"/>
-    <mergeCell ref="K38:M39"/>
-    <mergeCell ref="N38:P39"/>
-    <mergeCell ref="Q34:S35"/>
-    <mergeCell ref="T34:T35"/>
-    <mergeCell ref="U34:U35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:D37"/>
-    <mergeCell ref="E36:G37"/>
-    <mergeCell ref="H36:J37"/>
-    <mergeCell ref="K36:M37"/>
-    <mergeCell ref="N36:P37"/>
-    <mergeCell ref="Q38:S39"/>
-    <mergeCell ref="T38:T39"/>
-    <mergeCell ref="U38:U39"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:D35"/>
-    <mergeCell ref="E34:G35"/>
-    <mergeCell ref="H34:J35"/>
-    <mergeCell ref="K34:M35"/>
-    <mergeCell ref="N34:P35"/>
-    <mergeCell ref="AI39:AI40"/>
-    <mergeCell ref="AI41:AI42"/>
-    <mergeCell ref="AI43:AI44"/>
-    <mergeCell ref="Q36:S37"/>
-    <mergeCell ref="T36:T37"/>
-    <mergeCell ref="U36:U37"/>
-    <mergeCell ref="AI37:AI38"/>
-    <mergeCell ref="AI35:AI36"/>
-    <mergeCell ref="AI54:AI55"/>
-    <mergeCell ref="AI56:AI57"/>
-    <mergeCell ref="AI58:AI59"/>
-    <mergeCell ref="AI60:AI61"/>
-    <mergeCell ref="AC46:AE46"/>
-    <mergeCell ref="AF46:AH46"/>
-    <mergeCell ref="AI46:AI47"/>
-    <mergeCell ref="AI48:AI49"/>
-    <mergeCell ref="AI50:AI51"/>
-    <mergeCell ref="AI52:AI53"/>
+    <mergeCell ref="AC2:AE2"/>
+    <mergeCell ref="AF2:AH2"/>
+    <mergeCell ref="AI2:AI3"/>
+    <mergeCell ref="AC12:AE12"/>
+    <mergeCell ref="AF12:AH12"/>
+    <mergeCell ref="AI12:AK12"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="K23:M23"/>
+    <mergeCell ref="N23:P23"/>
+    <mergeCell ref="Q23:S23"/>
   </mergeCells>
   <conditionalFormatting sqref="AB14:AL27">
     <cfRule type="cellIs" dxfId="20" priority="5" operator="equal">
@@ -17166,20 +17167,20 @@
       <c r="N2" s="155">
         <v>30</v>
       </c>
-      <c r="O2" s="188" t="s">
-        <v>0</v>
-      </c>
-      <c r="P2" s="185" t="s">
+      <c r="O2" s="183" t="s">
+        <v>0</v>
+      </c>
+      <c r="P2" s="189" t="s">
         <v>18</v>
       </c>
-      <c r="Q2" s="186"/>
-      <c r="R2" s="187"/>
-      <c r="S2" s="185" t="s">
+      <c r="Q2" s="190"/>
+      <c r="R2" s="191"/>
+      <c r="S2" s="189" t="s">
         <v>19</v>
       </c>
-      <c r="T2" s="186"/>
-      <c r="U2" s="187"/>
-      <c r="V2" s="188" t="s">
+      <c r="T2" s="190"/>
+      <c r="U2" s="191"/>
+      <c r="V2" s="183" t="s">
         <v>14</v>
       </c>
     </row>
@@ -17241,7 +17242,7 @@
       <c r="U3" s="106" t="s">
         <v>39</v>
       </c>
-      <c r="V3" s="189"/>
+      <c r="V3" s="184"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
@@ -18459,29 +18460,29 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O9" s="192"/>
-      <c r="P9" s="193"/>
-      <c r="Q9" s="193"/>
-      <c r="R9" s="194"/>
-      <c r="U9" s="188" t="s">
-        <v>0</v>
-      </c>
-      <c r="V9" s="192" t="s">
+      <c r="O9" s="179"/>
+      <c r="P9" s="180"/>
+      <c r="Q9" s="180"/>
+      <c r="R9" s="181"/>
+      <c r="U9" s="183" t="s">
+        <v>0</v>
+      </c>
+      <c r="V9" s="179" t="s">
         <v>18</v>
       </c>
-      <c r="W9" s="193"/>
-      <c r="X9" s="194"/>
-      <c r="Y9" s="192" t="s">
+      <c r="W9" s="180"/>
+      <c r="X9" s="181"/>
+      <c r="Y9" s="179" t="s">
         <v>19</v>
       </c>
-      <c r="Z9" s="193"/>
-      <c r="AA9" s="194"/>
-      <c r="AB9" s="192" t="s">
+      <c r="Z9" s="180"/>
+      <c r="AA9" s="181"/>
+      <c r="AB9" s="179" t="s">
         <v>114</v>
       </c>
-      <c r="AC9" s="193"/>
-      <c r="AD9" s="195"/>
-      <c r="AE9" s="188" t="s">
+      <c r="AC9" s="180"/>
+      <c r="AD9" s="182"/>
+      <c r="AE9" s="183" t="s">
         <v>14</v>
       </c>
     </row>
@@ -18520,11 +18521,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O10" s="201"/>
+      <c r="O10" s="206"/>
       <c r="P10" s="93"/>
       <c r="Q10" s="93"/>
       <c r="R10" s="94"/>
-      <c r="U10" s="189"/>
+      <c r="U10" s="184"/>
       <c r="V10" s="26" t="s">
         <v>26</v>
       </c>
@@ -18552,7 +18553,7 @@
       <c r="AD10" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="AE10" s="189"/>
+      <c r="AE10" s="184"/>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
@@ -18627,7 +18628,7 @@
       <c r="AD11" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="AE11" s="196">
+      <c r="AE11" s="185">
         <f>SUM(Z11:Z12,AC11:AC12,W11:W12)</f>
         <v>26</v>
       </c>
@@ -18685,7 +18686,7 @@
       <c r="AB12" s="36"/>
       <c r="AC12" s="37"/>
       <c r="AD12" s="139"/>
-      <c r="AE12" s="184"/>
+      <c r="AE12" s="177"/>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" s="12"/>
@@ -18756,7 +18757,7 @@
       <c r="AD13" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="AE13" s="184">
+      <c r="AE13" s="177">
         <f t="shared" ref="AE13" si="7">SUM(Z13:Z14,AC13:AC14,W13:W14)</f>
         <v>27</v>
       </c>
@@ -18820,7 +18821,7 @@
       <c r="AB14" s="32"/>
       <c r="AC14" s="33"/>
       <c r="AD14" s="7"/>
-      <c r="AE14" s="184"/>
+      <c r="AE14" s="177"/>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
@@ -18895,7 +18896,7 @@
       <c r="AD15" s="79" t="s">
         <v>112</v>
       </c>
-      <c r="AE15" s="184">
+      <c r="AE15" s="177">
         <f t="shared" ref="AE15" si="8">SUM(Z15:Z16,AC15:AC16,W15:W16)</f>
         <v>26</v>
       </c>
@@ -18965,7 +18966,7 @@
       <c r="AD16" s="39" t="s">
         <v>132</v>
       </c>
-      <c r="AE16" s="184"/>
+      <c r="AE16" s="177"/>
     </row>
     <row r="17" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="22" t="s">
@@ -19040,7 +19041,7 @@
       <c r="AD17" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="AE17" s="184">
+      <c r="AE17" s="177">
         <f t="shared" ref="AE17" si="9">SUM(Z17:Z18,AC17:AC18,W17:W18)</f>
         <v>28</v>
       </c>
@@ -19106,7 +19107,7 @@
       <c r="AD18" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="AE18" s="184"/>
+      <c r="AE18" s="177"/>
     </row>
     <row r="19" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="U19" s="47" t="s">
@@ -19139,7 +19140,7 @@
       <c r="AD19" s="40" t="s">
         <v>120</v>
       </c>
-      <c r="AE19" s="184">
+      <c r="AE19" s="177">
         <f t="shared" ref="AE19" si="10">SUM(Z19:Z20,AC19:AC20,W19:W20)</f>
         <v>30</v>
       </c>
@@ -19186,7 +19187,7 @@
         <v>2</v>
       </c>
       <c r="AD20" s="39"/>
-      <c r="AE20" s="184"/>
+      <c r="AE20" s="177"/>
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="U21" s="31" t="s">
@@ -19219,7 +19220,7 @@
       <c r="AD21" s="85" t="s">
         <v>136</v>
       </c>
-      <c r="AE21" s="184">
+      <c r="AE21" s="177">
         <f t="shared" ref="AE21" si="11">SUM(Z21:Z22,AC21:AC22,W21:W22)</f>
         <v>28</v>
       </c>
@@ -19236,7 +19237,7 @@
       <c r="AB22" s="32"/>
       <c r="AC22" s="33"/>
       <c r="AD22" s="7"/>
-      <c r="AE22" s="184"/>
+      <c r="AE22" s="177"/>
     </row>
     <row r="23" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O23" s="30"/>
@@ -19270,7 +19271,7 @@
       <c r="AD23" s="40" t="s">
         <v>112</v>
       </c>
-      <c r="AE23" s="184">
+      <c r="AE23" s="177">
         <f t="shared" ref="AE23" si="12">SUM(Z23:Z24,AC23:AC24,W23:W24)</f>
         <v>28</v>
       </c>
@@ -19334,7 +19335,7 @@
       <c r="AD24" s="67" t="s">
         <v>120</v>
       </c>
-      <c r="AE24" s="198"/>
+      <c r="AE24" s="178"/>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
@@ -19560,25 +19561,25 @@
       <c r="R28" s="155">
         <v>15</v>
       </c>
-      <c r="U28" s="202" t="s">
-        <v>0</v>
-      </c>
-      <c r="V28" s="185" t="s">
+      <c r="U28" s="204" t="s">
+        <v>0</v>
+      </c>
+      <c r="V28" s="189" t="s">
         <v>18</v>
       </c>
-      <c r="W28" s="190"/>
-      <c r="X28" s="191"/>
-      <c r="Y28" s="185" t="s">
+      <c r="W28" s="192"/>
+      <c r="X28" s="193"/>
+      <c r="Y28" s="189" t="s">
         <v>19</v>
       </c>
-      <c r="Z28" s="190"/>
-      <c r="AA28" s="191"/>
-      <c r="AB28" s="185" t="s">
+      <c r="Z28" s="192"/>
+      <c r="AA28" s="193"/>
+      <c r="AB28" s="189" t="s">
         <v>114</v>
       </c>
-      <c r="AC28" s="190"/>
-      <c r="AD28" s="191"/>
-      <c r="AE28" s="202" t="s">
+      <c r="AC28" s="192"/>
+      <c r="AD28" s="193"/>
+      <c r="AE28" s="204" t="s">
         <v>14</v>
       </c>
     </row>
@@ -19631,7 +19632,7 @@
       <c r="R29" s="155">
         <v>22</v>
       </c>
-      <c r="U29" s="203"/>
+      <c r="U29" s="205"/>
       <c r="V29" s="26" t="s">
         <v>26</v>
       </c>
@@ -19659,7 +19660,7 @@
       <c r="AD29" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="AE29" s="203"/>
+      <c r="AE29" s="205"/>
     </row>
     <row r="30" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="15" t="s">
@@ -19743,7 +19744,7 @@
       <c r="AD30" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="AE30" s="206">
+      <c r="AE30" s="203">
         <f>SUM(Z30:Z31,AC30:AC31,W30:W31)</f>
         <v>27</v>
       </c>
@@ -19799,7 +19800,7 @@
       <c r="AB31" s="36"/>
       <c r="AC31" s="37"/>
       <c r="AD31" s="139"/>
-      <c r="AE31" s="196"/>
+      <c r="AE31" s="185"/>
     </row>
     <row r="32" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A32" s="22" t="s">
@@ -19870,7 +19871,7 @@
       <c r="AD32" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="AE32" s="204">
+      <c r="AE32" s="201">
         <f t="shared" ref="AE32" si="20">SUM(Z32:Z33,AC32:AC33,W32:W33)</f>
         <v>27</v>
       </c>
@@ -19926,7 +19927,7 @@
       <c r="AB33" s="32"/>
       <c r="AC33" s="33"/>
       <c r="AD33" s="7"/>
-      <c r="AE33" s="196"/>
+      <c r="AE33" s="185"/>
     </row>
     <row r="34" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
@@ -19997,7 +19998,7 @@
       <c r="AD34" s="79" t="s">
         <v>112</v>
       </c>
-      <c r="AE34" s="204">
+      <c r="AE34" s="201">
         <f t="shared" ref="AE34" si="21">SUM(Z34:Z35,AC34:AC35,W34:W35)</f>
         <v>29</v>
       </c>
@@ -20063,7 +20064,7 @@
       <c r="AD35" s="39" t="s">
         <v>132</v>
       </c>
-      <c r="AE35" s="196"/>
+      <c r="AE35" s="185"/>
     </row>
     <row r="36" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A36" s="12"/>
@@ -20130,7 +20131,7 @@
       <c r="AD36" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="AE36" s="204">
+      <c r="AE36" s="201">
         <f t="shared" ref="AE36" si="22">SUM(Z36:Z37,AC36:AC37,W36:W37)</f>
         <v>27</v>
       </c>
@@ -20196,7 +20197,7 @@
       <c r="AD37" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="AE37" s="196"/>
+      <c r="AE37" s="185"/>
     </row>
     <row r="38" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
@@ -20267,7 +20268,7 @@
       <c r="AD38" s="40" t="s">
         <v>120</v>
       </c>
-      <c r="AE38" s="204">
+      <c r="AE38" s="201">
         <f t="shared" ref="AE38" si="23">SUM(Z38:Z39,AC38:AC39,W38:W39)</f>
         <v>27</v>
       </c>
@@ -20327,7 +20328,7 @@
       <c r="AB39" s="36"/>
       <c r="AC39" s="37"/>
       <c r="AD39" s="39"/>
-      <c r="AE39" s="196"/>
+      <c r="AE39" s="185"/>
     </row>
     <row r="40" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A40" s="22" t="s">
@@ -20398,7 +20399,7 @@
       <c r="AD40" s="85" t="s">
         <v>136</v>
       </c>
-      <c r="AE40" s="204">
+      <c r="AE40" s="201">
         <f t="shared" ref="AE40" si="24">SUM(Z40:Z41,AC40:AC41,W40:W41)</f>
         <v>27</v>
       </c>
@@ -20448,7 +20449,7 @@
       <c r="AB41" s="32"/>
       <c r="AC41" s="33"/>
       <c r="AD41" s="7"/>
-      <c r="AE41" s="196"/>
+      <c r="AE41" s="185"/>
     </row>
     <row r="42" spans="1:31" x14ac:dyDescent="0.25">
       <c r="U42" s="47" t="s">
@@ -20481,7 +20482,7 @@
       <c r="AD42" s="40" t="s">
         <v>112</v>
       </c>
-      <c r="AE42" s="204">
+      <c r="AE42" s="201">
         <f t="shared" ref="AE42" si="25">SUM(Z42:Z43,AC42:AC43,W42:W43)</f>
         <v>29</v>
       </c>
@@ -20509,7 +20510,7 @@
       <c r="AD43" s="67" t="s">
         <v>120</v>
       </c>
-      <c r="AE43" s="205"/>
+      <c r="AE43" s="202"/>
     </row>
     <row r="49" spans="35:35" x14ac:dyDescent="0.25">
       <c r="AI49" t="s">
@@ -20518,18 +20519,12 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="AE40:AE41"/>
-    <mergeCell ref="AE42:AE43"/>
-    <mergeCell ref="AE30:AE31"/>
-    <mergeCell ref="AE32:AE33"/>
-    <mergeCell ref="AE34:AE35"/>
-    <mergeCell ref="AE36:AE37"/>
-    <mergeCell ref="AE38:AE39"/>
-    <mergeCell ref="U28:U29"/>
-    <mergeCell ref="V28:X28"/>
-    <mergeCell ref="Y28:AA28"/>
-    <mergeCell ref="AB28:AD28"/>
-    <mergeCell ref="AE28:AE29"/>
+    <mergeCell ref="AB9:AD9"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="P9:R9"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="V9:X9"/>
+    <mergeCell ref="Y9:AA9"/>
     <mergeCell ref="AE21:AE22"/>
     <mergeCell ref="AE23:AE24"/>
     <mergeCell ref="AE9:AE10"/>
@@ -20538,12 +20533,18 @@
     <mergeCell ref="AE15:AE16"/>
     <mergeCell ref="AE17:AE18"/>
     <mergeCell ref="AE19:AE20"/>
-    <mergeCell ref="AB9:AD9"/>
-    <mergeCell ref="O9:O10"/>
-    <mergeCell ref="P9:R9"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="V9:X9"/>
-    <mergeCell ref="Y9:AA9"/>
+    <mergeCell ref="U28:U29"/>
+    <mergeCell ref="V28:X28"/>
+    <mergeCell ref="Y28:AA28"/>
+    <mergeCell ref="AB28:AD28"/>
+    <mergeCell ref="AE28:AE29"/>
+    <mergeCell ref="AE40:AE41"/>
+    <mergeCell ref="AE42:AE43"/>
+    <mergeCell ref="AE30:AE31"/>
+    <mergeCell ref="AE32:AE33"/>
+    <mergeCell ref="AE34:AE35"/>
+    <mergeCell ref="AE36:AE37"/>
+    <mergeCell ref="AE38:AE39"/>
   </mergeCells>
   <conditionalFormatting sqref="Z26">
     <cfRule type="cellIs" dxfId="15" priority="15" operator="notEqual">
@@ -20918,20 +20919,20 @@
       <c r="R6" s="155">
         <v>15</v>
       </c>
-      <c r="T6" s="188" t="s">
-        <v>0</v>
-      </c>
-      <c r="U6" s="192" t="s">
+      <c r="T6" s="183" t="s">
+        <v>0</v>
+      </c>
+      <c r="U6" s="179" t="s">
         <v>18</v>
       </c>
-      <c r="V6" s="193"/>
-      <c r="W6" s="194"/>
-      <c r="X6" s="192" t="s">
+      <c r="V6" s="180"/>
+      <c r="W6" s="181"/>
+      <c r="X6" s="179" t="s">
         <v>19</v>
       </c>
-      <c r="Y6" s="193"/>
-      <c r="Z6" s="195"/>
-      <c r="AA6" s="188" t="s">
+      <c r="Y6" s="180"/>
+      <c r="Z6" s="182"/>
+      <c r="AA6" s="183" t="s">
         <v>14</v>
       </c>
     </row>
@@ -20984,7 +20985,7 @@
         <f>SUM(Q2:Q6)</f>
         <v>6982</v>
       </c>
-      <c r="T7" s="189"/>
+      <c r="T7" s="184"/>
       <c r="U7" s="26" t="s">
         <v>26</v>
       </c>
@@ -21003,7 +21004,7 @@
       <c r="Z7" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="AA7" s="189"/>
+      <c r="AA7" s="184"/>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
@@ -21065,7 +21066,7 @@
       <c r="Z8" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="AA8" s="196">
+      <c r="AA8" s="185">
         <f>SUM(V8:V9,Y8:Y9)</f>
         <v>52</v>
       </c>
@@ -21117,7 +21118,7 @@
       <c r="Z9" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="AA9" s="184"/>
+      <c r="AA9" s="177"/>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
@@ -21178,7 +21179,7 @@
       <c r="Z10" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="AA10" s="184">
+      <c r="AA10" s="177">
         <f t="shared" ref="AA10" si="7">SUM(V10:V11,Y10:Y11)</f>
         <v>52</v>
       </c>
@@ -21240,7 +21241,7 @@
       <c r="Z11" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="AA11" s="184"/>
+      <c r="AA11" s="177"/>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" s="12"/>
@@ -21300,7 +21301,7 @@
       <c r="Z12" s="79" t="s">
         <v>130</v>
       </c>
-      <c r="AA12" s="184">
+      <c r="AA12" s="177">
         <f t="shared" ref="AA12" si="8">SUM(V12:V13,Y12:Y13)</f>
         <v>52</v>
       </c>
@@ -21365,7 +21366,7 @@
       <c r="Z13" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="AA13" s="184"/>
+      <c r="AA13" s="177"/>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
@@ -21429,7 +21430,7 @@
       <c r="Z14" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="AA14" s="184">
+      <c r="AA14" s="177">
         <f t="shared" ref="AA14" si="9">SUM(V14:V15,Y14:Y15)</f>
         <v>57</v>
       </c>
@@ -21490,7 +21491,7 @@
       <c r="Z15" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="AA15" s="184"/>
+      <c r="AA15" s="177"/>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
@@ -21554,7 +21555,7 @@
       <c r="Z16" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="AA16" s="184">
+      <c r="AA16" s="177">
         <f t="shared" ref="AA16" si="10">SUM(V16:V17,Y16:Y17)</f>
         <v>54</v>
       </c>
@@ -21619,7 +21620,7 @@
       <c r="Z17" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="AA17" s="184"/>
+      <c r="AA17" s="177"/>
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
@@ -21679,7 +21680,7 @@
       <c r="Z18" s="85" t="s">
         <v>58</v>
       </c>
-      <c r="AA18" s="184">
+      <c r="AA18" s="177">
         <f t="shared" ref="AA18" si="11">SUM(V18:V19,Y18:Y19)</f>
         <v>54</v>
       </c>
@@ -21744,7 +21745,7 @@
       <c r="Z19" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="AA19" s="184"/>
+      <c r="AA19" s="177"/>
     </row>
     <row r="20" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="12"/>
@@ -21804,7 +21805,7 @@
       <c r="Z20" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="AA20" s="184">
+      <c r="AA20" s="177">
         <f t="shared" ref="AA20" si="12">SUM(V20:V21,Y20:Y21)</f>
         <v>52</v>
       </c>
@@ -21863,7 +21864,7 @@
       <c r="Z21" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="AA21" s="198"/>
+      <c r="AA21" s="178"/>
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
@@ -22104,6 +22105,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="AA10:AA11"/>
+    <mergeCell ref="T6:T7"/>
+    <mergeCell ref="U6:W6"/>
+    <mergeCell ref="X6:Z6"/>
+    <mergeCell ref="AA6:AA7"/>
+    <mergeCell ref="AA8:AA9"/>
     <mergeCell ref="AA20:AA21"/>
     <mergeCell ref="O12:O13"/>
     <mergeCell ref="P12:Q12"/>
@@ -22111,12 +22118,6 @@
     <mergeCell ref="AA14:AA15"/>
     <mergeCell ref="AA16:AA17"/>
     <mergeCell ref="AA18:AA19"/>
-    <mergeCell ref="AA10:AA11"/>
-    <mergeCell ref="T6:T7"/>
-    <mergeCell ref="U6:W6"/>
-    <mergeCell ref="X6:Z6"/>
-    <mergeCell ref="AA6:AA7"/>
-    <mergeCell ref="AA8:AA9"/>
   </mergeCells>
   <conditionalFormatting sqref="Y24">
     <cfRule type="cellIs" dxfId="7" priority="3" operator="notEqual">
@@ -22324,20 +22325,20 @@
       <c r="R3" s="155">
         <v>20</v>
       </c>
-      <c r="T3" s="188" t="s">
-        <v>0</v>
-      </c>
-      <c r="U3" s="192" t="s">
+      <c r="T3" s="183" t="s">
+        <v>0</v>
+      </c>
+      <c r="U3" s="179" t="s">
         <v>18</v>
       </c>
-      <c r="V3" s="193"/>
-      <c r="W3" s="194"/>
-      <c r="X3" s="192" t="s">
+      <c r="V3" s="180"/>
+      <c r="W3" s="181"/>
+      <c r="X3" s="179" t="s">
         <v>19</v>
       </c>
-      <c r="Y3" s="193"/>
-      <c r="Z3" s="195"/>
-      <c r="AA3" s="188" t="s">
+      <c r="Y3" s="180"/>
+      <c r="Z3" s="182"/>
+      <c r="AA3" s="183" t="s">
         <v>14</v>
       </c>
     </row>
@@ -22389,7 +22390,7 @@
       <c r="R4" s="155">
         <v>15</v>
       </c>
-      <c r="T4" s="189"/>
+      <c r="T4" s="184"/>
       <c r="U4" s="26" t="s">
         <v>26</v>
       </c>
@@ -22408,7 +22409,7 @@
       <c r="Z4" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="AA4" s="189"/>
+      <c r="AA4" s="184"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="76" t="s">
@@ -22483,7 +22484,7 @@
       <c r="Z5" s="79" t="s">
         <v>71</v>
       </c>
-      <c r="AA5" s="196">
+      <c r="AA5" s="185">
         <f>SUM(V5:V6,Y5:Y6)</f>
         <v>18</v>
       </c>
@@ -22553,7 +22554,7 @@
       <c r="X6" s="81"/>
       <c r="Y6" s="37"/>
       <c r="Z6" s="83"/>
-      <c r="AA6" s="184"/>
+      <c r="AA6" s="177"/>
     </row>
     <row r="7" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12"/>
@@ -22621,7 +22622,7 @@
       <c r="Z7" s="85" t="s">
         <v>71</v>
       </c>
-      <c r="AA7" s="184">
+      <c r="AA7" s="177">
         <f t="shared" ref="AA7" si="7">SUM(V7:V8,Y7:Y8)</f>
         <v>18</v>
       </c>
@@ -22677,7 +22678,7 @@
       <c r="Z8" s="85" t="s">
         <v>71</v>
       </c>
-      <c r="AA8" s="184"/>
+      <c r="AA8" s="177"/>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="80" t="s">
@@ -22738,7 +22739,7 @@
       <c r="Z9" s="79" t="s">
         <v>68</v>
       </c>
-      <c r="AA9" s="184">
+      <c r="AA9" s="177">
         <f t="shared" ref="AA9" si="8">SUM(V9:V10,Y9:Y10)</f>
         <v>18</v>
       </c>
@@ -22784,7 +22785,7 @@
       <c r="X10" s="81"/>
       <c r="Y10" s="37"/>
       <c r="Z10" s="83"/>
-      <c r="AA10" s="184"/>
+      <c r="AA10" s="177"/>
     </row>
     <row r="11" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7"/>
@@ -22819,7 +22820,7 @@
       <c r="Z11" s="79" t="s">
         <v>68</v>
       </c>
-      <c r="AA11" s="184">
+      <c r="AA11" s="177">
         <f t="shared" ref="AA11" si="9">SUM(V11:V12,Y11:Y12)</f>
         <v>18</v>
       </c>
@@ -22862,9 +22863,9 @@
         <f t="shared" si="11"/>
         <v>20</v>
       </c>
-      <c r="O12" s="192"/>
-      <c r="P12" s="193"/>
-      <c r="Q12" s="194"/>
+      <c r="O12" s="179"/>
+      <c r="P12" s="180"/>
+      <c r="Q12" s="181"/>
       <c r="T12" s="31"/>
       <c r="U12" s="78"/>
       <c r="V12" s="33"/>
@@ -22872,7 +22873,7 @@
       <c r="X12" s="78"/>
       <c r="Y12" s="33"/>
       <c r="Z12" s="85"/>
-      <c r="AA12" s="184"/>
+      <c r="AA12" s="177"/>
     </row>
     <row r="13" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7"/>
@@ -22881,7 +22882,7 @@
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
       <c r="F13" s="90"/>
-      <c r="O13" s="201"/>
+      <c r="O13" s="206"/>
       <c r="P13" s="93"/>
       <c r="Q13" s="94"/>
       <c r="T13" s="47" t="s">
@@ -22905,7 +22906,7 @@
       <c r="Z13" s="79" t="s">
         <v>68</v>
       </c>
-      <c r="AA13" s="184">
+      <c r="AA13" s="177">
         <f t="shared" ref="AA13" si="12">SUM(V13:V14,Y13:Y14)</f>
         <v>18</v>
       </c>
@@ -22927,7 +22928,7 @@
       <c r="X14" s="81"/>
       <c r="Y14" s="37"/>
       <c r="Z14" s="83"/>
-      <c r="AA14" s="184"/>
+      <c r="AA14" s="177"/>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="95"/>
@@ -22960,7 +22961,7 @@
       <c r="Z15" s="85" t="s">
         <v>68</v>
       </c>
-      <c r="AA15" s="184">
+      <c r="AA15" s="177">
         <f t="shared" ref="AA15" si="13">SUM(V15:V16,Y15:Y16)</f>
         <v>18</v>
       </c>
@@ -22982,7 +22983,7 @@
       <c r="X16" s="78"/>
       <c r="Y16" s="33"/>
       <c r="Z16" s="85"/>
-      <c r="AA16" s="184"/>
+      <c r="AA16" s="177"/>
     </row>
     <row r="17" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
@@ -23015,7 +23016,7 @@
       <c r="Z17" s="79" t="s">
         <v>68</v>
       </c>
-      <c r="AA17" s="184">
+      <c r="AA17" s="177">
         <f t="shared" ref="AA17" si="14">SUM(V17:V18,Y17:Y18)</f>
         <v>16</v>
       </c>
@@ -23037,7 +23038,7 @@
       <c r="X18" s="96"/>
       <c r="Y18" s="65"/>
       <c r="Z18" s="98"/>
-      <c r="AA18" s="198"/>
+      <c r="AA18" s="178"/>
     </row>
     <row r="19" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
@@ -23195,6 +23196,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="AA7:AA8"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="U3:W3"/>
+    <mergeCell ref="X3:Z3"/>
+    <mergeCell ref="AA3:AA4"/>
+    <mergeCell ref="AA5:AA6"/>
     <mergeCell ref="AA17:AA18"/>
     <mergeCell ref="AA9:AA10"/>
     <mergeCell ref="AA11:AA12"/>
@@ -23202,12 +23209,6 @@
     <mergeCell ref="P12:Q12"/>
     <mergeCell ref="AA13:AA14"/>
     <mergeCell ref="AA15:AA16"/>
-    <mergeCell ref="AA7:AA8"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="U3:W3"/>
-    <mergeCell ref="X3:Z3"/>
-    <mergeCell ref="AA3:AA4"/>
-    <mergeCell ref="AA5:AA6"/>
   </mergeCells>
   <conditionalFormatting sqref="Y20">
     <cfRule type="cellIs" dxfId="3" priority="3" operator="notEqual">

--- a/RP/Esterni/Piano di Progetto/Ripartizione ruoli e ore.xlsx
+++ b/RP/Esterni/Piano di Progetto/Ripartizione ruoli e ore.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="300" windowWidth="9645" windowHeight="4740" activeTab="3"/>
+    <workbookView xWindow="360" yWindow="360" windowWidth="9645" windowHeight="4680" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Prospetto orario (CON AN)" sheetId="2" r:id="rId1"/>
@@ -1530,10 +1530,45 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1548,54 +1583,28 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1605,15 +1614,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2039,12 +2039,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="66619264"/>
-        <c:axId val="66620800"/>
+        <c:axId val="101892864"/>
+        <c:axId val="101894400"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="66619264"/>
+        <c:axId val="101892864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2053,7 +2053,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66620800"/>
+        <c:crossAx val="101894400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2061,7 +2061,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="66620800"/>
+        <c:axId val="101894400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2072,7 +2072,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66619264"/>
+        <c:crossAx val="101892864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2262,12 +2262,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="75310208"/>
-        <c:axId val="75311744"/>
+        <c:axId val="108273024"/>
+        <c:axId val="108274816"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="75310208"/>
+        <c:axId val="108273024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2276,7 +2276,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75311744"/>
+        <c:crossAx val="108274816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2284,7 +2284,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="75311744"/>
+        <c:axId val="108274816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2295,7 +2295,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75310208"/>
+        <c:crossAx val="108273024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="100"/>
@@ -2831,11 +2831,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="76295168"/>
-        <c:axId val="76313344"/>
+        <c:axId val="108780928"/>
+        <c:axId val="110830720"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="76295168"/>
+        <c:axId val="108780928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2844,7 +2844,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76313344"/>
+        <c:crossAx val="110830720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2852,7 +2852,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="76313344"/>
+        <c:axId val="110830720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2863,7 +2863,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76295168"/>
+        <c:crossAx val="108780928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3678,19 +3678,19 @@
         <f>'1_AN'!O2</f>
         <v>Membro</v>
       </c>
-      <c r="AC2" s="189" t="str">
+      <c r="AC2" s="185" t="str">
         <f>'1_AN'!P2</f>
         <v>I Periodo</v>
       </c>
-      <c r="AD2" s="190"/>
-      <c r="AE2" s="191"/>
-      <c r="AF2" s="189" t="str">
+      <c r="AD2" s="186"/>
+      <c r="AE2" s="187"/>
+      <c r="AF2" s="185" t="str">
         <f>'1_AN'!S2</f>
         <v>II Periodo</v>
       </c>
-      <c r="AG2" s="190"/>
-      <c r="AH2" s="190"/>
-      <c r="AI2" s="183" t="str">
+      <c r="AG2" s="186"/>
+      <c r="AH2" s="186"/>
+      <c r="AI2" s="188" t="str">
         <f>'1_AN'!V2</f>
         <v>Totale</v>
       </c>
@@ -3824,7 +3824,7 @@
         <f>'1_AN'!U3</f>
         <v>Fase</v>
       </c>
-      <c r="AI3" s="184"/>
+      <c r="AI3" s="189"/>
     </row>
     <row r="4" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A4" s="147" t="s">
@@ -4707,25 +4707,25 @@
       <c r="AB12" s="149" t="s">
         <v>126</v>
       </c>
-      <c r="AC12" s="189" t="str">
+      <c r="AC12" s="185" t="str">
         <f>'2_PA'!V9</f>
         <v>I Periodo</v>
       </c>
-      <c r="AD12" s="192"/>
-      <c r="AE12" s="193"/>
-      <c r="AF12" s="179" t="str">
+      <c r="AD12" s="190"/>
+      <c r="AE12" s="191"/>
+      <c r="AF12" s="192" t="str">
         <f>'2_PA'!Y9</f>
         <v>II Periodo</v>
       </c>
-      <c r="AG12" s="180"/>
-      <c r="AH12" s="181"/>
-      <c r="AI12" s="179" t="str">
+      <c r="AG12" s="193"/>
+      <c r="AH12" s="194"/>
+      <c r="AI12" s="192" t="str">
         <f>'2_PA'!AB9</f>
         <v>III Periodo</v>
       </c>
-      <c r="AJ12" s="180"/>
-      <c r="AK12" s="182"/>
-      <c r="AL12" s="183" t="str">
+      <c r="AJ12" s="193"/>
+      <c r="AK12" s="195"/>
+      <c r="AL12" s="188" t="str">
         <f>'2_PA'!AE9</f>
         <v>Totale</v>
       </c>
@@ -4776,7 +4776,7 @@
         <f>'2_PA'!AD10</f>
         <v>Fase</v>
       </c>
-      <c r="AL13" s="184"/>
+      <c r="AL13" s="189"/>
       <c r="AM13">
         <f>SUM(AL14:AL27)</f>
         <v>193</v>
@@ -4831,7 +4831,7 @@
         <f>'2_PA'!AD11</f>
         <v>PA 3.2</v>
       </c>
-      <c r="AL14" s="185">
+      <c r="AL14" s="196">
         <f>'2_PA'!AE11</f>
         <v>26</v>
       </c>
@@ -4961,7 +4961,7 @@
         <f>'2_PA'!AD12</f>
         <v>0</v>
       </c>
-      <c r="AL15" s="177"/>
+      <c r="AL15" s="184"/>
       <c r="AO15">
         <f>IF($AC15=AO$2,$AD15,0)</f>
         <v>0</v>
@@ -5080,7 +5080,7 @@
         <f>'2_PA'!AD13</f>
         <v>PA 3.2</v>
       </c>
-      <c r="AL16" s="177">
+      <c r="AL16" s="184">
         <f>'2_PA'!AE13</f>
         <v>27</v>
       </c>
@@ -5202,7 +5202,7 @@
         <f>'2_PA'!AD14</f>
         <v>0</v>
       </c>
-      <c r="AL17" s="177"/>
+      <c r="AL17" s="184"/>
       <c r="AO17">
         <f t="shared" si="35"/>
         <v>0</v>
@@ -5321,7 +5321,7 @@
         <f>'2_PA'!AD15</f>
         <v>PA 3.3</v>
       </c>
-      <c r="AL18" s="177">
+      <c r="AL18" s="184">
         <f>'2_PA'!AE15</f>
         <v>26</v>
       </c>
@@ -5443,7 +5443,7 @@
         <f>'2_PA'!AD16</f>
         <v>PA 6.1</v>
       </c>
-      <c r="AL19" s="177"/>
+      <c r="AL19" s="184"/>
       <c r="AO19">
         <f t="shared" si="35"/>
         <v>0</v>
@@ -5562,7 +5562,7 @@
         <f>'2_PA'!AD17</f>
         <v>PA 3.3</v>
       </c>
-      <c r="AL20" s="177">
+      <c r="AL20" s="184">
         <f>'2_PA'!AE17</f>
         <v>28</v>
       </c>
@@ -5684,7 +5684,7 @@
         <f>'2_PA'!AD18</f>
         <v>PA 6.2</v>
       </c>
-      <c r="AL21" s="177"/>
+      <c r="AL21" s="184"/>
       <c r="AO21">
         <f t="shared" si="35"/>
         <v>0</v>
@@ -5803,7 +5803,7 @@
         <f>'2_PA'!AD19</f>
         <v>PA 5.1</v>
       </c>
-      <c r="AL22" s="177">
+      <c r="AL22" s="184">
         <f>'2_PA'!AE19</f>
         <v>30</v>
       </c>
@@ -5888,36 +5888,36 @@
       <c r="A23" s="153" t="s">
         <v>0</v>
       </c>
-      <c r="B23" s="194" t="s">
+      <c r="B23" s="197" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="194"/>
-      <c r="D23" s="194"/>
-      <c r="E23" s="194" t="s">
+      <c r="C23" s="197"/>
+      <c r="D23" s="197"/>
+      <c r="E23" s="197" t="s">
         <v>2</v>
       </c>
-      <c r="F23" s="194"/>
-      <c r="G23" s="194"/>
-      <c r="H23" s="194" t="s">
+      <c r="F23" s="197"/>
+      <c r="G23" s="197"/>
+      <c r="H23" s="197" t="s">
         <v>3</v>
       </c>
-      <c r="I23" s="194"/>
-      <c r="J23" s="194"/>
-      <c r="K23" s="194" t="s">
+      <c r="I23" s="197"/>
+      <c r="J23" s="197"/>
+      <c r="K23" s="197" t="s">
         <v>4</v>
       </c>
-      <c r="L23" s="194"/>
-      <c r="M23" s="194"/>
-      <c r="N23" s="194" t="s">
+      <c r="L23" s="197"/>
+      <c r="M23" s="197"/>
+      <c r="N23" s="197" t="s">
         <v>5</v>
       </c>
-      <c r="O23" s="194"/>
-      <c r="P23" s="194"/>
-      <c r="Q23" s="194" t="s">
+      <c r="O23" s="197"/>
+      <c r="P23" s="197"/>
+      <c r="Q23" s="197" t="s">
         <v>6</v>
       </c>
-      <c r="R23" s="194"/>
-      <c r="S23" s="194"/>
+      <c r="R23" s="197"/>
+      <c r="S23" s="197"/>
       <c r="T23" s="159" t="s">
         <v>14</v>
       </c>
@@ -5962,7 +5962,7 @@
         <f>'2_PA'!AD20</f>
         <v>0</v>
       </c>
-      <c r="AL23" s="177"/>
+      <c r="AL23" s="184"/>
       <c r="AO23">
         <f t="shared" si="35"/>
         <v>0</v>
@@ -6041,50 +6041,50 @@
       </c>
     </row>
     <row r="24" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A24" s="186" t="s">
+      <c r="A24" s="183" t="s">
         <v>7</v>
       </c>
-      <c r="B24" s="188">
+      <c r="B24" s="181">
         <f>SUM(AO4:AQ4,AO14:AQ15,AO31:AQ32,AO48:AQ49)</f>
         <v>17</v>
       </c>
-      <c r="C24" s="188"/>
-      <c r="D24" s="188"/>
-      <c r="E24" s="188">
+      <c r="C24" s="181"/>
+      <c r="D24" s="181"/>
+      <c r="E24" s="181">
         <f>SUM(AR4:AT4,AR14:AT15,AR31:AT32,AR48:AT49)</f>
         <v>10</v>
       </c>
-      <c r="F24" s="188"/>
-      <c r="G24" s="188"/>
-      <c r="H24" s="187">
+      <c r="F24" s="181"/>
+      <c r="G24" s="181"/>
+      <c r="H24" s="182">
         <f>SUM(AU4:AW4,AU14:AW15,AU31:AW32,AU48:AW49)</f>
         <v>15</v>
       </c>
-      <c r="I24" s="187"/>
-      <c r="J24" s="187"/>
-      <c r="K24" s="188">
+      <c r="I24" s="182"/>
+      <c r="J24" s="182"/>
+      <c r="K24" s="181">
         <f>SUM(AX4:AZ4,AX14:AZ15,AX31:AZ32,AX48:AZ49)</f>
         <v>10</v>
       </c>
-      <c r="L24" s="188"/>
-      <c r="M24" s="188"/>
-      <c r="N24" s="187">
+      <c r="L24" s="181"/>
+      <c r="M24" s="181"/>
+      <c r="N24" s="182">
         <f>SUM(BA4:BC4,BA14:BC15,BA31:BC32,BA48:BC49)</f>
         <v>59</v>
       </c>
-      <c r="O24" s="187"/>
-      <c r="P24" s="187"/>
-      <c r="Q24" s="188">
+      <c r="O24" s="182"/>
+      <c r="P24" s="182"/>
+      <c r="Q24" s="181">
         <f t="shared" ref="Q24" si="38">SUM(BD4:BF4,BD14:BF15,BD31:BF32,BD48:BF49)</f>
         <v>4</v>
       </c>
-      <c r="R24" s="188"/>
-      <c r="S24" s="188"/>
-      <c r="T24" s="197">
+      <c r="R24" s="181"/>
+      <c r="S24" s="181"/>
+      <c r="T24" s="178">
         <f t="shared" ref="T24" si="39">SUM(B24:S25)</f>
         <v>115</v>
       </c>
-      <c r="U24" s="196"/>
+      <c r="U24" s="177"/>
       <c r="AB24" s="31" t="str">
         <f>'2_PA'!U21</f>
         <v>Quadrio Giacomo</v>
@@ -6125,7 +6125,7 @@
         <f>'2_PA'!AD21</f>
         <v>PA 5.1, 6.2</v>
       </c>
-      <c r="AL24" s="177">
+      <c r="AL24" s="184">
         <f>'2_PA'!AE21</f>
         <v>28</v>
       </c>
@@ -6207,27 +6207,27 @@
       </c>
     </row>
     <row r="25" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A25" s="186"/>
-      <c r="B25" s="188"/>
-      <c r="C25" s="188"/>
-      <c r="D25" s="188"/>
-      <c r="E25" s="188"/>
-      <c r="F25" s="188"/>
-      <c r="G25" s="188"/>
-      <c r="H25" s="187"/>
-      <c r="I25" s="187"/>
-      <c r="J25" s="187"/>
-      <c r="K25" s="188"/>
-      <c r="L25" s="188"/>
-      <c r="M25" s="188"/>
-      <c r="N25" s="187"/>
-      <c r="O25" s="187"/>
-      <c r="P25" s="187"/>
-      <c r="Q25" s="188"/>
-      <c r="R25" s="188"/>
-      <c r="S25" s="188"/>
-      <c r="T25" s="197"/>
-      <c r="U25" s="196"/>
+      <c r="A25" s="183"/>
+      <c r="B25" s="181"/>
+      <c r="C25" s="181"/>
+      <c r="D25" s="181"/>
+      <c r="E25" s="181"/>
+      <c r="F25" s="181"/>
+      <c r="G25" s="181"/>
+      <c r="H25" s="182"/>
+      <c r="I25" s="182"/>
+      <c r="J25" s="182"/>
+      <c r="K25" s="181"/>
+      <c r="L25" s="181"/>
+      <c r="M25" s="181"/>
+      <c r="N25" s="182"/>
+      <c r="O25" s="182"/>
+      <c r="P25" s="182"/>
+      <c r="Q25" s="181"/>
+      <c r="R25" s="181"/>
+      <c r="S25" s="181"/>
+      <c r="T25" s="178"/>
+      <c r="U25" s="177"/>
       <c r="AB25" s="31">
         <f>'2_PA'!U22</f>
         <v>0</v>
@@ -6268,7 +6268,7 @@
         <f>'2_PA'!AD22</f>
         <v>0</v>
       </c>
-      <c r="AL25" s="177"/>
+      <c r="AL25" s="184"/>
       <c r="AO25">
         <f t="shared" si="35"/>
         <v>0</v>
@@ -6347,50 +6347,50 @@
       </c>
     </row>
     <row r="26" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A26" s="186" t="s">
+      <c r="A26" s="183" t="s">
         <v>11</v>
       </c>
-      <c r="B26" s="188">
+      <c r="B26" s="181">
         <f>SUM(AO5:AQ5,AO16:AQ17,AO33:AQ34,AO50:AQ51)</f>
         <v>13</v>
       </c>
-      <c r="C26" s="188"/>
-      <c r="D26" s="188"/>
-      <c r="E26" s="188">
+      <c r="C26" s="181"/>
+      <c r="D26" s="181"/>
+      <c r="E26" s="181">
         <f>SUM(AR5:AT5,AR16:AT17,AR33:AT34,AR50:AT51)</f>
         <v>10</v>
       </c>
-      <c r="F26" s="188"/>
-      <c r="G26" s="188"/>
-      <c r="H26" s="188">
+      <c r="F26" s="181"/>
+      <c r="G26" s="181"/>
+      <c r="H26" s="181">
         <f>SUM(AU5:AW5,AU16:AW17,AU33:AW34,AU50:AW51)</f>
         <v>11</v>
       </c>
-      <c r="I26" s="188"/>
-      <c r="J26" s="188"/>
-      <c r="K26" s="187">
+      <c r="I26" s="181"/>
+      <c r="J26" s="181"/>
+      <c r="K26" s="182">
         <f>SUM(AX5:AZ5,AX16:AZ17,AX33:AZ34,AX50:AZ51)</f>
         <v>41</v>
       </c>
-      <c r="L26" s="187"/>
-      <c r="M26" s="187"/>
-      <c r="N26" s="188">
+      <c r="L26" s="182"/>
+      <c r="M26" s="182"/>
+      <c r="N26" s="181">
         <f>SUM(BA5:BC5,BA16:BC17,BA33:BC34,BA50:BC51)</f>
         <v>29</v>
       </c>
-      <c r="O26" s="188"/>
-      <c r="P26" s="188"/>
-      <c r="Q26" s="188">
+      <c r="O26" s="181"/>
+      <c r="P26" s="181"/>
+      <c r="Q26" s="181">
         <f>SUM(BD5:BF5,BD16:BF17,BD33:BF34,BD50:BF51)</f>
         <v>12</v>
       </c>
-      <c r="R26" s="188"/>
-      <c r="S26" s="188"/>
-      <c r="T26" s="197">
+      <c r="R26" s="181"/>
+      <c r="S26" s="181"/>
+      <c r="T26" s="178">
         <f t="shared" ref="T26" si="40">SUM(B26:S27)</f>
         <v>116</v>
       </c>
-      <c r="U26" s="196"/>
+      <c r="U26" s="177"/>
       <c r="AB26" s="47" t="str">
         <f>'2_PA'!U23</f>
         <v>Maggiolo Giorgio</v>
@@ -6431,7 +6431,7 @@
         <f>'2_PA'!AD23</f>
         <v>PA 3.3</v>
       </c>
-      <c r="AL26" s="177">
+      <c r="AL26" s="184">
         <f>'2_PA'!AE23</f>
         <v>28</v>
       </c>
@@ -6513,27 +6513,27 @@
       </c>
     </row>
     <row r="27" spans="1:60" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="186"/>
-      <c r="B27" s="188"/>
-      <c r="C27" s="188"/>
-      <c r="D27" s="188"/>
-      <c r="E27" s="188"/>
-      <c r="F27" s="188"/>
-      <c r="G27" s="188"/>
-      <c r="H27" s="188"/>
-      <c r="I27" s="188"/>
-      <c r="J27" s="188"/>
-      <c r="K27" s="187"/>
-      <c r="L27" s="187"/>
-      <c r="M27" s="187"/>
-      <c r="N27" s="188"/>
-      <c r="O27" s="188"/>
-      <c r="P27" s="188"/>
-      <c r="Q27" s="188"/>
-      <c r="R27" s="188"/>
-      <c r="S27" s="188"/>
-      <c r="T27" s="197"/>
-      <c r="U27" s="196"/>
+      <c r="A27" s="183"/>
+      <c r="B27" s="181"/>
+      <c r="C27" s="181"/>
+      <c r="D27" s="181"/>
+      <c r="E27" s="181"/>
+      <c r="F27" s="181"/>
+      <c r="G27" s="181"/>
+      <c r="H27" s="181"/>
+      <c r="I27" s="181"/>
+      <c r="J27" s="181"/>
+      <c r="K27" s="182"/>
+      <c r="L27" s="182"/>
+      <c r="M27" s="182"/>
+      <c r="N27" s="181"/>
+      <c r="O27" s="181"/>
+      <c r="P27" s="181"/>
+      <c r="Q27" s="181"/>
+      <c r="R27" s="181"/>
+      <c r="S27" s="181"/>
+      <c r="T27" s="178"/>
+      <c r="U27" s="177"/>
       <c r="AB27" s="63">
         <f>'2_PA'!U24</f>
         <v>0</v>
@@ -6574,7 +6574,7 @@
         <f>'2_PA'!AD24</f>
         <v>PA 5.1</v>
       </c>
-      <c r="AL27" s="178"/>
+      <c r="AL27" s="198"/>
       <c r="AO27">
         <f t="shared" si="35"/>
         <v>0</v>
@@ -6653,96 +6653,96 @@
       </c>
     </row>
     <row r="28" spans="1:60" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="186" t="s">
+      <c r="A28" s="183" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="188">
+      <c r="B28" s="181">
         <f>SUM(AO6:AQ6,AO18:AQ19,AO35:AQ36,AO52:AQ53)</f>
         <v>10</v>
       </c>
-      <c r="C28" s="188"/>
-      <c r="D28" s="188"/>
-      <c r="E28" s="188">
+      <c r="C28" s="181"/>
+      <c r="D28" s="181"/>
+      <c r="E28" s="181">
         <f>SUM(AR6:AT6,AR18:AT19,AR35:AT36,AR52:AT53)</f>
         <v>14</v>
       </c>
-      <c r="F28" s="188"/>
-      <c r="G28" s="188"/>
-      <c r="H28" s="188">
+      <c r="F28" s="181"/>
+      <c r="G28" s="181"/>
+      <c r="H28" s="181">
         <f>SUM(AU6:AW6,AU18:AW19,AU35:AW36,AU52:AW53)</f>
         <v>13</v>
       </c>
-      <c r="I28" s="188"/>
-      <c r="J28" s="188"/>
-      <c r="K28" s="188">
+      <c r="I28" s="181"/>
+      <c r="J28" s="181"/>
+      <c r="K28" s="181">
         <f>SUM(AX6:AZ6,AX18:AZ19,AX35:AZ36,AX52:AZ53)</f>
         <v>27</v>
       </c>
-      <c r="L28" s="188"/>
-      <c r="M28" s="188"/>
-      <c r="N28" s="188">
+      <c r="L28" s="181"/>
+      <c r="M28" s="181"/>
+      <c r="N28" s="181">
         <f>SUM(BA6:BC6,BA18:BC19,BA35:BC36,BA52:BC53)</f>
         <v>33</v>
       </c>
-      <c r="O28" s="188"/>
-      <c r="P28" s="188"/>
-      <c r="Q28" s="187">
+      <c r="O28" s="181"/>
+      <c r="P28" s="181"/>
+      <c r="Q28" s="182">
         <f>SUM(BD6:BF6,BD18:BF19,BD35:BF36,BD52:BF53)</f>
         <v>20</v>
       </c>
-      <c r="R28" s="187"/>
-      <c r="S28" s="187"/>
-      <c r="T28" s="197">
+      <c r="R28" s="182"/>
+      <c r="S28" s="182"/>
+      <c r="T28" s="178">
         <f t="shared" ref="T28" si="41">SUM(B28:S29)</f>
         <v>117</v>
       </c>
-      <c r="U28" s="196"/>
+      <c r="U28" s="177"/>
       <c r="BG28" s="158">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A29" s="186"/>
-      <c r="B29" s="188"/>
-      <c r="C29" s="188"/>
-      <c r="D29" s="188"/>
-      <c r="E29" s="188"/>
-      <c r="F29" s="188"/>
-      <c r="G29" s="188"/>
-      <c r="H29" s="188"/>
-      <c r="I29" s="188"/>
-      <c r="J29" s="188"/>
-      <c r="K29" s="188"/>
-      <c r="L29" s="188"/>
-      <c r="M29" s="188"/>
-      <c r="N29" s="188"/>
-      <c r="O29" s="188"/>
-      <c r="P29" s="188"/>
-      <c r="Q29" s="187"/>
-      <c r="R29" s="187"/>
-      <c r="S29" s="187"/>
-      <c r="T29" s="197"/>
-      <c r="U29" s="196"/>
+      <c r="A29" s="183"/>
+      <c r="B29" s="181"/>
+      <c r="C29" s="181"/>
+      <c r="D29" s="181"/>
+      <c r="E29" s="181"/>
+      <c r="F29" s="181"/>
+      <c r="G29" s="181"/>
+      <c r="H29" s="181"/>
+      <c r="I29" s="181"/>
+      <c r="J29" s="181"/>
+      <c r="K29" s="181"/>
+      <c r="L29" s="181"/>
+      <c r="M29" s="181"/>
+      <c r="N29" s="181"/>
+      <c r="O29" s="181"/>
+      <c r="P29" s="181"/>
+      <c r="Q29" s="182"/>
+      <c r="R29" s="182"/>
+      <c r="S29" s="182"/>
+      <c r="T29" s="178"/>
+      <c r="U29" s="177"/>
       <c r="AA29" t="s">
         <v>124</v>
       </c>
       <c r="AB29" s="149" t="s">
         <v>127</v>
       </c>
-      <c r="AC29" s="179" t="str">
+      <c r="AC29" s="192" t="str">
         <f>'3_PDC'!U6</f>
         <v>I Periodo</v>
       </c>
-      <c r="AD29" s="180"/>
-      <c r="AE29" s="181"/>
-      <c r="AF29" s="179" t="str">
+      <c r="AD29" s="193"/>
+      <c r="AE29" s="194"/>
+      <c r="AF29" s="192" t="str">
         <f>'3_PDC'!X6</f>
         <v>II Periodo</v>
       </c>
-      <c r="AG29" s="180"/>
-      <c r="AH29" s="182"/>
-      <c r="AI29" s="183" t="str">
+      <c r="AG29" s="193"/>
+      <c r="AH29" s="195"/>
+      <c r="AI29" s="188" t="str">
         <f>'3_PDC'!AA6</f>
         <v>Totale</v>
       </c>
@@ -6752,50 +6752,50 @@
       </c>
     </row>
     <row r="30" spans="1:60" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="186" t="s">
+      <c r="A30" s="183" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="188">
+      <c r="B30" s="181">
         <f>SUM(AO7:AQ7,AO20:AQ21,AO37:AQ38,AO54:AQ55)</f>
         <v>15</v>
       </c>
-      <c r="C30" s="188"/>
-      <c r="D30" s="188"/>
-      <c r="E30" s="188">
+      <c r="C30" s="181"/>
+      <c r="D30" s="181"/>
+      <c r="E30" s="181">
         <f>SUM(AR7:AT7,AR20:AT21,AR37:AT38,AR54:AT55)</f>
         <v>4</v>
       </c>
-      <c r="F30" s="188"/>
-      <c r="G30" s="188"/>
-      <c r="H30" s="188">
+      <c r="F30" s="181"/>
+      <c r="G30" s="181"/>
+      <c r="H30" s="181">
         <f>SUM(AU7:AW7,AU20:AW21,AU37:AW38,AU54:AW55)</f>
         <v>11</v>
       </c>
-      <c r="I30" s="188"/>
-      <c r="J30" s="188"/>
-      <c r="K30" s="187">
+      <c r="I30" s="181"/>
+      <c r="J30" s="181"/>
+      <c r="K30" s="182">
         <f>SUM(AX7:AZ7,AX20:AZ21,AX37:AZ38,AX54:AZ55)</f>
         <v>39</v>
       </c>
-      <c r="L30" s="187"/>
-      <c r="M30" s="187"/>
-      <c r="N30" s="187">
+      <c r="L30" s="182"/>
+      <c r="M30" s="182"/>
+      <c r="N30" s="182">
         <f>SUM(BA7:BC7,BA20:BC21,BA37:BC38,BA54:BC55)</f>
         <v>35</v>
       </c>
-      <c r="O30" s="187"/>
-      <c r="P30" s="187"/>
-      <c r="Q30" s="188">
+      <c r="O30" s="182"/>
+      <c r="P30" s="182"/>
+      <c r="Q30" s="181">
         <f>SUM(BD7:BF7,BD20:BF21,BD37:BF38,BD54:BF55)</f>
         <v>18</v>
       </c>
-      <c r="R30" s="188"/>
-      <c r="S30" s="188"/>
-      <c r="T30" s="197">
+      <c r="R30" s="181"/>
+      <c r="S30" s="181"/>
+      <c r="T30" s="178">
         <f t="shared" ref="T30" si="42">SUM(B30:S31)</f>
         <v>122</v>
       </c>
-      <c r="U30" s="196"/>
+      <c r="U30" s="177"/>
       <c r="AB30" s="150"/>
       <c r="AC30" s="26" t="str">
         <f>'3_PDC'!U7</f>
@@ -6821,7 +6821,7 @@
         <f>'3_PDC'!Z7</f>
         <v>Fase</v>
       </c>
-      <c r="AI30" s="184"/>
+      <c r="AI30" s="189"/>
       <c r="AK30">
         <f>SUM(AI31:AI44)</f>
         <v>373</v>
@@ -6832,27 +6832,27 @@
       </c>
     </row>
     <row r="31" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A31" s="186"/>
-      <c r="B31" s="188"/>
-      <c r="C31" s="188"/>
-      <c r="D31" s="188"/>
-      <c r="E31" s="188"/>
-      <c r="F31" s="188"/>
-      <c r="G31" s="188"/>
-      <c r="H31" s="188"/>
-      <c r="I31" s="188"/>
-      <c r="J31" s="188"/>
-      <c r="K31" s="187"/>
-      <c r="L31" s="187"/>
-      <c r="M31" s="187"/>
-      <c r="N31" s="187"/>
-      <c r="O31" s="187"/>
-      <c r="P31" s="187"/>
-      <c r="Q31" s="188"/>
-      <c r="R31" s="188"/>
-      <c r="S31" s="188"/>
-      <c r="T31" s="197"/>
-      <c r="U31" s="196"/>
+      <c r="A31" s="183"/>
+      <c r="B31" s="181"/>
+      <c r="C31" s="181"/>
+      <c r="D31" s="181"/>
+      <c r="E31" s="181"/>
+      <c r="F31" s="181"/>
+      <c r="G31" s="181"/>
+      <c r="H31" s="181"/>
+      <c r="I31" s="181"/>
+      <c r="J31" s="181"/>
+      <c r="K31" s="182"/>
+      <c r="L31" s="182"/>
+      <c r="M31" s="182"/>
+      <c r="N31" s="182"/>
+      <c r="O31" s="182"/>
+      <c r="P31" s="182"/>
+      <c r="Q31" s="181"/>
+      <c r="R31" s="181"/>
+      <c r="S31" s="181"/>
+      <c r="T31" s="178"/>
+      <c r="U31" s="177"/>
       <c r="AB31" s="31" t="str">
         <f>'3_PDC'!T8</f>
         <v>Begolo Marco</v>
@@ -6881,7 +6881,7 @@
         <f>'3_PDC'!Z8</f>
         <v>PDC 4.4</v>
       </c>
-      <c r="AI31" s="185">
+      <c r="AI31" s="196">
         <f>'3_PDC'!AA8</f>
         <v>52</v>
       </c>
@@ -6967,50 +6967,50 @@
       </c>
     </row>
     <row r="32" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A32" s="186" t="s">
+      <c r="A32" s="183" t="s">
         <v>8</v>
       </c>
-      <c r="B32" s="188">
+      <c r="B32" s="181">
         <f>SUM(AO8:AQ8,AO22:AQ23,AO39:AQ40,AO56:AQ57)</f>
         <v>9</v>
       </c>
-      <c r="C32" s="188"/>
-      <c r="D32" s="188"/>
-      <c r="E32" s="188">
+      <c r="C32" s="181"/>
+      <c r="D32" s="181"/>
+      <c r="E32" s="181">
         <f>SUM(AR8:AT8,AR22:AT23,AR39:AT40,AR56:AT57)</f>
         <v>11</v>
       </c>
-      <c r="F32" s="188"/>
-      <c r="G32" s="188"/>
-      <c r="H32" s="188">
+      <c r="F32" s="181"/>
+      <c r="G32" s="181"/>
+      <c r="H32" s="181">
         <f>SUM(AU8:AW8,AU22:AW23,AU39:AW40,AU56:AW57)</f>
         <v>12</v>
       </c>
-      <c r="I32" s="188"/>
-      <c r="J32" s="188"/>
-      <c r="K32" s="188">
+      <c r="I32" s="181"/>
+      <c r="J32" s="181"/>
+      <c r="K32" s="181">
         <f>SUM(AX8:AZ8,AX22:AZ23,AX39:AZ40,AX56:AZ57)</f>
         <v>30</v>
       </c>
-      <c r="L32" s="188"/>
-      <c r="M32" s="188"/>
-      <c r="N32" s="187">
+      <c r="L32" s="181"/>
+      <c r="M32" s="181"/>
+      <c r="N32" s="182">
         <f>SUM(BA8:BC8,BA22:BC23,BA39:BC40,BA56:BC57)</f>
         <v>37</v>
       </c>
-      <c r="O32" s="187"/>
-      <c r="P32" s="187"/>
-      <c r="Q32" s="188">
+      <c r="O32" s="182"/>
+      <c r="P32" s="182"/>
+      <c r="Q32" s="181">
         <f>SUM(BD8:BF8,BD22:BF23,BD39:BF40,BD56:BF57)</f>
         <v>23</v>
       </c>
-      <c r="R32" s="188"/>
-      <c r="S32" s="188"/>
-      <c r="T32" s="197">
+      <c r="R32" s="181"/>
+      <c r="S32" s="181"/>
+      <c r="T32" s="178">
         <f t="shared" ref="T32" si="58">SUM(B32:S33)</f>
         <v>122</v>
       </c>
-      <c r="U32" s="196"/>
+      <c r="U32" s="177"/>
       <c r="AB32" s="35">
         <f>'3_PDC'!T9</f>
         <v>0</v>
@@ -7039,7 +7039,7 @@
         <f>'3_PDC'!Z9</f>
         <v>PDC 7</v>
       </c>
-      <c r="AI32" s="177"/>
+      <c r="AI32" s="184"/>
       <c r="AO32">
         <f>IF($AC32=AO$2,$AD32,0)</f>
         <v>0</v>
@@ -7118,27 +7118,27 @@
       </c>
     </row>
     <row r="33" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A33" s="186"/>
-      <c r="B33" s="188"/>
-      <c r="C33" s="188"/>
-      <c r="D33" s="188"/>
-      <c r="E33" s="188"/>
-      <c r="F33" s="188"/>
-      <c r="G33" s="188"/>
-      <c r="H33" s="188"/>
-      <c r="I33" s="188"/>
-      <c r="J33" s="188"/>
-      <c r="K33" s="188"/>
-      <c r="L33" s="188"/>
-      <c r="M33" s="188"/>
-      <c r="N33" s="187"/>
-      <c r="O33" s="187"/>
-      <c r="P33" s="187"/>
-      <c r="Q33" s="188"/>
-      <c r="R33" s="188"/>
-      <c r="S33" s="188"/>
-      <c r="T33" s="197"/>
-      <c r="U33" s="196"/>
+      <c r="A33" s="183"/>
+      <c r="B33" s="181"/>
+      <c r="C33" s="181"/>
+      <c r="D33" s="181"/>
+      <c r="E33" s="181"/>
+      <c r="F33" s="181"/>
+      <c r="G33" s="181"/>
+      <c r="H33" s="181"/>
+      <c r="I33" s="181"/>
+      <c r="J33" s="181"/>
+      <c r="K33" s="181"/>
+      <c r="L33" s="181"/>
+      <c r="M33" s="181"/>
+      <c r="N33" s="182"/>
+      <c r="O33" s="182"/>
+      <c r="P33" s="182"/>
+      <c r="Q33" s="181"/>
+      <c r="R33" s="181"/>
+      <c r="S33" s="181"/>
+      <c r="T33" s="178"/>
+      <c r="U33" s="177"/>
       <c r="AB33" s="31" t="str">
         <f>'3_PDC'!T10</f>
         <v>Facchin Gabriele</v>
@@ -7167,7 +7167,7 @@
         <f>'3_PDC'!Z10</f>
         <v>PDC 3.1</v>
       </c>
-      <c r="AI33" s="177">
+      <c r="AI33" s="184">
         <f>'3_PDC'!AA10</f>
         <v>52</v>
       </c>
@@ -7249,50 +7249,50 @@
       </c>
     </row>
     <row r="34" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A34" s="186" t="s">
+      <c r="A34" s="183" t="s">
         <v>13</v>
       </c>
-      <c r="B34" s="188">
+      <c r="B34" s="181">
         <f>SUM(AO9:AQ9,AO24:AQ25,AO41:AQ42,AO58:AQ59)</f>
         <v>6</v>
       </c>
-      <c r="C34" s="188"/>
-      <c r="D34" s="188"/>
-      <c r="E34" s="188">
+      <c r="C34" s="181"/>
+      <c r="D34" s="181"/>
+      <c r="E34" s="181">
         <f>SUM(AR9:AT9,AR24:AT25,AR41:AT42,AR58:AT59)</f>
         <v>2</v>
       </c>
-      <c r="F34" s="188"/>
-      <c r="G34" s="188"/>
-      <c r="H34" s="188">
+      <c r="F34" s="181"/>
+      <c r="G34" s="181"/>
+      <c r="H34" s="181">
         <f>SUM(AU9:AW9,AU24:AW25,AU41:AW42,AU58:AW59)</f>
         <v>10</v>
       </c>
-      <c r="I34" s="188"/>
-      <c r="J34" s="188"/>
-      <c r="K34" s="187">
+      <c r="I34" s="181"/>
+      <c r="J34" s="181"/>
+      <c r="K34" s="182">
         <f>SUM(AX9:AZ9,AX24:AZ25,AX41:AZ42,AX58:AZ59)</f>
         <v>37</v>
       </c>
-      <c r="L34" s="187"/>
-      <c r="M34" s="187"/>
-      <c r="N34" s="187">
+      <c r="L34" s="182"/>
+      <c r="M34" s="182"/>
+      <c r="N34" s="182">
         <f>SUM(BA9:BC9,BA24:BC25,BA41:BC42,BA58:BC59)</f>
         <v>40</v>
       </c>
-      <c r="O34" s="187"/>
-      <c r="P34" s="187"/>
-      <c r="Q34" s="187">
+      <c r="O34" s="182"/>
+      <c r="P34" s="182"/>
+      <c r="Q34" s="182">
         <f>SUM(BD9:BF9,BD24:BF25,BD41:BF42,BD58:BF59)</f>
         <v>25</v>
       </c>
-      <c r="R34" s="187"/>
-      <c r="S34" s="187"/>
-      <c r="T34" s="197">
+      <c r="R34" s="182"/>
+      <c r="S34" s="182"/>
+      <c r="T34" s="178">
         <f t="shared" ref="T34" si="62">SUM(B34:S35)</f>
         <v>120</v>
       </c>
-      <c r="U34" s="196"/>
+      <c r="U34" s="177"/>
       <c r="AB34" s="31">
         <f>'3_PDC'!T11</f>
         <v>0</v>
@@ -7321,7 +7321,7 @@
         <f>'3_PDC'!Z11</f>
         <v>PDC 4.3</v>
       </c>
-      <c r="AI34" s="177"/>
+      <c r="AI34" s="184"/>
       <c r="AO34">
         <f t="shared" si="59"/>
         <v>0</v>
@@ -7400,27 +7400,27 @@
       </c>
     </row>
     <row r="35" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A35" s="186"/>
-      <c r="B35" s="188"/>
-      <c r="C35" s="188"/>
-      <c r="D35" s="188"/>
-      <c r="E35" s="188"/>
-      <c r="F35" s="188"/>
-      <c r="G35" s="188"/>
-      <c r="H35" s="188"/>
-      <c r="I35" s="188"/>
-      <c r="J35" s="188"/>
-      <c r="K35" s="187"/>
-      <c r="L35" s="187"/>
-      <c r="M35" s="187"/>
-      <c r="N35" s="187"/>
-      <c r="O35" s="187"/>
-      <c r="P35" s="187"/>
-      <c r="Q35" s="187"/>
-      <c r="R35" s="187"/>
-      <c r="S35" s="187"/>
-      <c r="T35" s="197"/>
-      <c r="U35" s="196"/>
+      <c r="A35" s="183"/>
+      <c r="B35" s="181"/>
+      <c r="C35" s="181"/>
+      <c r="D35" s="181"/>
+      <c r="E35" s="181"/>
+      <c r="F35" s="181"/>
+      <c r="G35" s="181"/>
+      <c r="H35" s="181"/>
+      <c r="I35" s="181"/>
+      <c r="J35" s="181"/>
+      <c r="K35" s="182"/>
+      <c r="L35" s="182"/>
+      <c r="M35" s="182"/>
+      <c r="N35" s="182"/>
+      <c r="O35" s="182"/>
+      <c r="P35" s="182"/>
+      <c r="Q35" s="182"/>
+      <c r="R35" s="182"/>
+      <c r="S35" s="182"/>
+      <c r="T35" s="178"/>
+      <c r="U35" s="177"/>
       <c r="AB35" s="47" t="str">
         <f>'3_PDC'!T12</f>
         <v>Cornaglia Alessando</v>
@@ -7449,7 +7449,7 @@
         <f>'3_PDC'!Z12</f>
         <v>PDC 4.4 e 5</v>
       </c>
-      <c r="AI35" s="177">
+      <c r="AI35" s="184">
         <f>'3_PDC'!AA12</f>
         <v>52</v>
       </c>
@@ -7531,50 +7531,50 @@
       </c>
     </row>
     <row r="36" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A36" s="186" t="s">
+      <c r="A36" s="183" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="188">
+      <c r="B36" s="181">
         <f>SUM(AO10:AQ10,AO26:AQ27,AO43:AQ44,AO60:AQ61)</f>
         <v>12</v>
       </c>
-      <c r="C36" s="188"/>
-      <c r="D36" s="188"/>
-      <c r="E36" s="188">
+      <c r="C36" s="181"/>
+      <c r="D36" s="181"/>
+      <c r="E36" s="181">
         <f>SUM(AR10:AT10,AR26:AT27,AR43:AT44,AR60:AT61)</f>
         <v>18</v>
       </c>
-      <c r="F36" s="188"/>
-      <c r="G36" s="188"/>
-      <c r="H36" s="188">
+      <c r="F36" s="181"/>
+      <c r="G36" s="181"/>
+      <c r="H36" s="181">
         <f>SUM(AU10:AW10,AU26:AW27,AU43:AW44,AU60:AW61)</f>
         <v>7</v>
       </c>
-      <c r="I36" s="188"/>
-      <c r="J36" s="188"/>
-      <c r="K36" s="187">
+      <c r="I36" s="181"/>
+      <c r="J36" s="181"/>
+      <c r="K36" s="182">
         <f>SUM(AX10:AZ10,AX26:AZ27,AX43:AZ44,AX60:AZ61)</f>
         <v>51</v>
       </c>
-      <c r="L36" s="187"/>
-      <c r="M36" s="187"/>
-      <c r="N36" s="188">
+      <c r="L36" s="182"/>
+      <c r="M36" s="182"/>
+      <c r="N36" s="181">
         <f>SUM(BA10:BC10,BA26:BC27,BA43:BC44,BA60:BC61)</f>
         <v>10</v>
       </c>
-      <c r="O36" s="188"/>
-      <c r="P36" s="188"/>
-      <c r="Q36" s="188">
+      <c r="O36" s="181"/>
+      <c r="P36" s="181"/>
+      <c r="Q36" s="181">
         <f>SUM(BD10:BF10,BD26:BF27,BD43:BF44,BD60:BF61)</f>
         <v>18</v>
       </c>
-      <c r="R36" s="188"/>
-      <c r="S36" s="188"/>
-      <c r="T36" s="197">
+      <c r="R36" s="181"/>
+      <c r="S36" s="181"/>
+      <c r="T36" s="178">
         <f t="shared" ref="T36" si="63">SUM(B36:S37)</f>
         <v>116</v>
       </c>
-      <c r="U36" s="196"/>
+      <c r="U36" s="177"/>
       <c r="AB36" s="35">
         <f>'3_PDC'!T13</f>
         <v>0</v>
@@ -7603,7 +7603,7 @@
         <f>'3_PDC'!Z13</f>
         <v>PDC 7</v>
       </c>
-      <c r="AI36" s="177"/>
+      <c r="AI36" s="184"/>
       <c r="AO36">
         <f t="shared" si="59"/>
         <v>0</v>
@@ -7682,27 +7682,27 @@
       </c>
     </row>
     <row r="37" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A37" s="186"/>
-      <c r="B37" s="188"/>
-      <c r="C37" s="188"/>
-      <c r="D37" s="188"/>
-      <c r="E37" s="188"/>
-      <c r="F37" s="188"/>
-      <c r="G37" s="188"/>
-      <c r="H37" s="188"/>
-      <c r="I37" s="188"/>
-      <c r="J37" s="188"/>
-      <c r="K37" s="187"/>
-      <c r="L37" s="187"/>
-      <c r="M37" s="187"/>
-      <c r="N37" s="188"/>
-      <c r="O37" s="188"/>
-      <c r="P37" s="188"/>
-      <c r="Q37" s="188"/>
-      <c r="R37" s="188"/>
-      <c r="S37" s="188"/>
-      <c r="T37" s="197"/>
-      <c r="U37" s="196"/>
+      <c r="A37" s="183"/>
+      <c r="B37" s="181"/>
+      <c r="C37" s="181"/>
+      <c r="D37" s="181"/>
+      <c r="E37" s="181"/>
+      <c r="F37" s="181"/>
+      <c r="G37" s="181"/>
+      <c r="H37" s="181"/>
+      <c r="I37" s="181"/>
+      <c r="J37" s="181"/>
+      <c r="K37" s="182"/>
+      <c r="L37" s="182"/>
+      <c r="M37" s="182"/>
+      <c r="N37" s="181"/>
+      <c r="O37" s="181"/>
+      <c r="P37" s="181"/>
+      <c r="Q37" s="181"/>
+      <c r="R37" s="181"/>
+      <c r="S37" s="181"/>
+      <c r="T37" s="178"/>
+      <c r="U37" s="177"/>
       <c r="AB37" s="31" t="str">
         <f>'3_PDC'!T14</f>
         <v>Dalla Pietà Massimo</v>
@@ -7731,7 +7731,7 @@
         <f>'3_PDC'!Z14</f>
         <v>PDC 4.3</v>
       </c>
-      <c r="AI37" s="177">
+      <c r="AI37" s="184">
         <f>'3_PDC'!AA14</f>
         <v>57</v>
       </c>
@@ -7813,50 +7813,50 @@
       </c>
     </row>
     <row r="38" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A38" s="195" t="s">
+      <c r="A38" s="180" t="s">
         <v>14</v>
       </c>
-      <c r="B38" s="188">
+      <c r="B38" s="181">
         <f>SUM(B24:D37)</f>
         <v>82</v>
       </c>
-      <c r="C38" s="188"/>
-      <c r="D38" s="188"/>
-      <c r="E38" s="188">
+      <c r="C38" s="181"/>
+      <c r="D38" s="181"/>
+      <c r="E38" s="181">
         <f t="shared" ref="E38" si="64">SUM(E24:G37)</f>
         <v>69</v>
       </c>
-      <c r="F38" s="188"/>
-      <c r="G38" s="188"/>
-      <c r="H38" s="188">
+      <c r="F38" s="181"/>
+      <c r="G38" s="181"/>
+      <c r="H38" s="181">
         <f>SUM(H24:J37)</f>
         <v>79</v>
       </c>
-      <c r="I38" s="188"/>
-      <c r="J38" s="188"/>
-      <c r="K38" s="188">
+      <c r="I38" s="181"/>
+      <c r="J38" s="181"/>
+      <c r="K38" s="181">
         <f t="shared" ref="K38" si="65">SUM(K24:M37)</f>
         <v>235</v>
       </c>
-      <c r="L38" s="188"/>
-      <c r="M38" s="188"/>
-      <c r="N38" s="188">
+      <c r="L38" s="181"/>
+      <c r="M38" s="181"/>
+      <c r="N38" s="181">
         <f t="shared" ref="N38" si="66">SUM(N24:P37)</f>
         <v>243</v>
       </c>
-      <c r="O38" s="188"/>
-      <c r="P38" s="188"/>
-      <c r="Q38" s="188">
+      <c r="O38" s="181"/>
+      <c r="P38" s="181"/>
+      <c r="Q38" s="181">
         <f>SUM(Q24:S37)</f>
         <v>120</v>
       </c>
-      <c r="R38" s="188"/>
-      <c r="S38" s="188"/>
-      <c r="T38" s="198">
+      <c r="R38" s="181"/>
+      <c r="S38" s="181"/>
+      <c r="T38" s="179">
         <f>SUM(B38:S39)</f>
         <v>828</v>
       </c>
-      <c r="U38" s="196"/>
+      <c r="U38" s="177"/>
       <c r="AB38" s="31">
         <f>'3_PDC'!T15</f>
         <v>0</v>
@@ -7885,7 +7885,7 @@
         <f>'3_PDC'!Z15</f>
         <v>PDC 7</v>
       </c>
-      <c r="AI38" s="177"/>
+      <c r="AI38" s="184"/>
       <c r="AO38">
         <f t="shared" si="59"/>
         <v>0</v>
@@ -7964,27 +7964,27 @@
       </c>
     </row>
     <row r="39" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A39" s="195"/>
-      <c r="B39" s="188"/>
-      <c r="C39" s="188"/>
-      <c r="D39" s="188"/>
-      <c r="E39" s="188"/>
-      <c r="F39" s="188"/>
-      <c r="G39" s="188"/>
-      <c r="H39" s="188"/>
-      <c r="I39" s="188"/>
-      <c r="J39" s="188"/>
-      <c r="K39" s="188"/>
-      <c r="L39" s="188"/>
-      <c r="M39" s="188"/>
-      <c r="N39" s="188"/>
-      <c r="O39" s="188"/>
-      <c r="P39" s="188"/>
-      <c r="Q39" s="188"/>
-      <c r="R39" s="188"/>
-      <c r="S39" s="188"/>
-      <c r="T39" s="198"/>
-      <c r="U39" s="196"/>
+      <c r="A39" s="180"/>
+      <c r="B39" s="181"/>
+      <c r="C39" s="181"/>
+      <c r="D39" s="181"/>
+      <c r="E39" s="181"/>
+      <c r="F39" s="181"/>
+      <c r="G39" s="181"/>
+      <c r="H39" s="181"/>
+      <c r="I39" s="181"/>
+      <c r="J39" s="181"/>
+      <c r="K39" s="181"/>
+      <c r="L39" s="181"/>
+      <c r="M39" s="181"/>
+      <c r="N39" s="181"/>
+      <c r="O39" s="181"/>
+      <c r="P39" s="181"/>
+      <c r="Q39" s="181"/>
+      <c r="R39" s="181"/>
+      <c r="S39" s="181"/>
+      <c r="T39" s="179"/>
+      <c r="U39" s="177"/>
       <c r="AB39" s="47" t="str">
         <f>'3_PDC'!T16</f>
         <v>Braghetto Lorenzo</v>
@@ -8013,7 +8013,7 @@
         <f>'3_PDC'!Z16</f>
         <v>PDC 4.4</v>
       </c>
-      <c r="AI39" s="177">
+      <c r="AI39" s="184">
         <f>'3_PDC'!AA16</f>
         <v>54</v>
       </c>
@@ -8124,7 +8124,7 @@
         <f>'3_PDC'!Z17</f>
         <v>PDC 7</v>
       </c>
-      <c r="AI40" s="177"/>
+      <c r="AI40" s="184"/>
       <c r="AO40">
         <f t="shared" si="59"/>
         <v>0</v>
@@ -8232,7 +8232,7 @@
         <f>'3_PDC'!Z18</f>
         <v>PDC 6</v>
       </c>
-      <c r="AI41" s="177">
+      <c r="AI41" s="184">
         <f>'3_PDC'!AA18</f>
         <v>54</v>
       </c>
@@ -8343,7 +8343,7 @@
         <f>'3_PDC'!Z19</f>
         <v>PDC 3.2, 5 e 7</v>
       </c>
-      <c r="AI42" s="177"/>
+      <c r="AI42" s="184"/>
       <c r="AO42">
         <f t="shared" si="59"/>
         <v>0</v>
@@ -8451,7 +8451,7 @@
         <f>'3_PDC'!Z20</f>
         <v>PDC 4.3</v>
       </c>
-      <c r="AI43" s="177">
+      <c r="AI43" s="184">
         <f>'3_PDC'!AA20</f>
         <v>52</v>
       </c>
@@ -8562,7 +8562,7 @@
         <f>'3_PDC'!Z21</f>
         <v>PDC 7</v>
       </c>
-      <c r="AI44" s="178"/>
+      <c r="AI44" s="198"/>
       <c r="AO44">
         <f t="shared" si="59"/>
         <v>0</v>
@@ -8655,19 +8655,19 @@
       <c r="AB46" s="149" t="s">
         <v>128</v>
       </c>
-      <c r="AC46" s="179" t="str">
+      <c r="AC46" s="192" t="str">
         <f>'4_VV'!U3</f>
         <v>I Periodo</v>
       </c>
-      <c r="AD46" s="180"/>
-      <c r="AE46" s="181"/>
-      <c r="AF46" s="179" t="str">
+      <c r="AD46" s="193"/>
+      <c r="AE46" s="194"/>
+      <c r="AF46" s="192" t="str">
         <f>'4_VV'!X3</f>
         <v>II Periodo</v>
       </c>
-      <c r="AG46" s="180"/>
-      <c r="AH46" s="182"/>
-      <c r="AI46" s="183" t="str">
+      <c r="AG46" s="193"/>
+      <c r="AH46" s="195"/>
+      <c r="AI46" s="188" t="str">
         <f>'4_VV'!AA3</f>
         <v>Totale</v>
       </c>
@@ -8707,7 +8707,7 @@
         <f>'4_VV'!Z4</f>
         <v>Fase</v>
       </c>
-      <c r="AI47" s="184"/>
+      <c r="AI47" s="189"/>
       <c r="BG47" s="158">
         <f t="shared" si="19"/>
         <v>0</v>
@@ -8743,7 +8743,7 @@
         <f>'4_VV'!Z5</f>
         <v>VV 3.2</v>
       </c>
-      <c r="AI48" s="185">
+      <c r="AI48" s="196">
         <f>'4_VV'!AA5</f>
         <v>18</v>
       </c>
@@ -8857,7 +8857,7 @@
         <f>'4_VV'!Z6</f>
         <v>0</v>
       </c>
-      <c r="AI49" s="177"/>
+      <c r="AI49" s="184"/>
       <c r="AO49">
         <f>IF($AC49=AO$2,$AD49,0)</f>
         <v>0</v>
@@ -8964,7 +8964,7 @@
         <f>'4_VV'!Z7</f>
         <v>VV 3.2</v>
       </c>
-      <c r="AI50" s="177">
+      <c r="AI50" s="184">
         <f>'4_VV'!AA7</f>
         <v>18</v>
       </c>
@@ -9086,7 +9086,7 @@
         <f>'4_VV'!Z8</f>
         <v>VV 3.2</v>
       </c>
-      <c r="AI51" s="177"/>
+      <c r="AI51" s="184"/>
       <c r="AO51">
         <f t="shared" si="82"/>
         <v>0</v>
@@ -9207,7 +9207,7 @@
         <f>'4_VV'!Z9</f>
         <v>VV 3.1</v>
       </c>
-      <c r="AI52" s="177">
+      <c r="AI52" s="184">
         <f>'4_VV'!AA9</f>
         <v>18</v>
       </c>
@@ -9331,7 +9331,7 @@
         <f>'4_VV'!Z10</f>
         <v>0</v>
       </c>
-      <c r="AI53" s="177"/>
+      <c r="AI53" s="184"/>
       <c r="AO53">
         <f t="shared" si="82"/>
         <v>0</v>
@@ -9452,7 +9452,7 @@
         <f>'4_VV'!Z11</f>
         <v>VV 3.1</v>
       </c>
-      <c r="AI54" s="177">
+      <c r="AI54" s="184">
         <f>'4_VV'!AA11</f>
         <v>18</v>
       </c>
@@ -9576,7 +9576,7 @@
         <f>'4_VV'!Z12</f>
         <v>0</v>
       </c>
-      <c r="AI55" s="177"/>
+      <c r="AI55" s="184"/>
       <c r="AO55">
         <f t="shared" si="82"/>
         <v>0</v>
@@ -9697,7 +9697,7 @@
         <f>'4_VV'!Z13</f>
         <v>VV 3.1</v>
       </c>
-      <c r="AI56" s="177">
+      <c r="AI56" s="184">
         <f>'4_VV'!AA13</f>
         <v>18</v>
       </c>
@@ -9821,7 +9821,7 @@
         <f>'4_VV'!Z14</f>
         <v>0</v>
       </c>
-      <c r="AI57" s="177"/>
+      <c r="AI57" s="184"/>
       <c r="AO57">
         <f t="shared" si="82"/>
         <v>0</v>
@@ -9939,7 +9939,7 @@
         <f>'4_VV'!Z15</f>
         <v>VV 3.1</v>
       </c>
-      <c r="AI58" s="177">
+      <c r="AI58" s="184">
         <f>'4_VV'!AA15</f>
         <v>18</v>
       </c>
@@ -10049,7 +10049,7 @@
         <f>'4_VV'!Z16</f>
         <v>0</v>
       </c>
-      <c r="AI59" s="177"/>
+      <c r="AI59" s="184"/>
       <c r="AO59">
         <f t="shared" si="82"/>
         <v>0</v>
@@ -10156,7 +10156,7 @@
         <f>'4_VV'!Z17</f>
         <v>VV 3.1</v>
       </c>
-      <c r="AI60" s="177">
+      <c r="AI60" s="184">
         <f>'4_VV'!AA17</f>
         <v>16</v>
       </c>
@@ -10266,7 +10266,7 @@
         <f>'4_VV'!Z18</f>
         <v>0</v>
       </c>
-      <c r="AI61" s="178"/>
+      <c r="AI61" s="198"/>
       <c r="AO61">
         <f t="shared" si="82"/>
         <v>0</v>
@@ -10346,22 +10346,78 @@
     </row>
   </sheetData>
   <mergeCells count="112">
-    <mergeCell ref="U38:U39"/>
-    <mergeCell ref="U34:U35"/>
-    <mergeCell ref="U32:U33"/>
-    <mergeCell ref="U30:U31"/>
-    <mergeCell ref="U28:U29"/>
-    <mergeCell ref="U26:U27"/>
-    <mergeCell ref="U24:U25"/>
-    <mergeCell ref="U36:U37"/>
-    <mergeCell ref="T26:T27"/>
-    <mergeCell ref="T24:T25"/>
-    <mergeCell ref="T34:T35"/>
-    <mergeCell ref="T32:T33"/>
-    <mergeCell ref="T30:T31"/>
-    <mergeCell ref="T28:T29"/>
-    <mergeCell ref="T38:T39"/>
-    <mergeCell ref="T36:T37"/>
+    <mergeCell ref="AI43:AI44"/>
+    <mergeCell ref="AC46:AE46"/>
+    <mergeCell ref="AF46:AH46"/>
+    <mergeCell ref="AI46:AI47"/>
+    <mergeCell ref="AI60:AI61"/>
+    <mergeCell ref="AI48:AI49"/>
+    <mergeCell ref="AI50:AI51"/>
+    <mergeCell ref="AI52:AI53"/>
+    <mergeCell ref="AI54:AI55"/>
+    <mergeCell ref="AI56:AI57"/>
+    <mergeCell ref="AI58:AI59"/>
+    <mergeCell ref="AI41:AI42"/>
+    <mergeCell ref="AL24:AL25"/>
+    <mergeCell ref="AL26:AL27"/>
+    <mergeCell ref="AC29:AE29"/>
+    <mergeCell ref="AF29:AH29"/>
+    <mergeCell ref="AI29:AI30"/>
+    <mergeCell ref="AI31:AI32"/>
+    <mergeCell ref="AI33:AI34"/>
+    <mergeCell ref="AI35:AI36"/>
+    <mergeCell ref="AI37:AI38"/>
+    <mergeCell ref="AI39:AI40"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="H24:J25"/>
+    <mergeCell ref="E24:G25"/>
+    <mergeCell ref="B24:D25"/>
+    <mergeCell ref="AL22:AL23"/>
+    <mergeCell ref="AC2:AE2"/>
+    <mergeCell ref="AF2:AH2"/>
+    <mergeCell ref="AI2:AI3"/>
+    <mergeCell ref="AC12:AE12"/>
+    <mergeCell ref="AF12:AH12"/>
+    <mergeCell ref="AI12:AK12"/>
+    <mergeCell ref="AL12:AL13"/>
+    <mergeCell ref="AL14:AL15"/>
+    <mergeCell ref="AL16:AL17"/>
+    <mergeCell ref="AL18:AL19"/>
+    <mergeCell ref="AL20:AL21"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="Q23:S23"/>
+    <mergeCell ref="N23:P23"/>
+    <mergeCell ref="K23:M23"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:D27"/>
+    <mergeCell ref="E26:G27"/>
+    <mergeCell ref="H26:J27"/>
+    <mergeCell ref="K26:M27"/>
+    <mergeCell ref="E30:G31"/>
+    <mergeCell ref="H30:J31"/>
+    <mergeCell ref="K30:M31"/>
+    <mergeCell ref="N26:P27"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="K32:M33"/>
+    <mergeCell ref="N32:P33"/>
+    <mergeCell ref="Q32:S33"/>
+    <mergeCell ref="Q24:S25"/>
+    <mergeCell ref="N24:P25"/>
+    <mergeCell ref="K24:M25"/>
+    <mergeCell ref="B32:D33"/>
+    <mergeCell ref="E32:G33"/>
+    <mergeCell ref="H32:J33"/>
+    <mergeCell ref="Q26:S27"/>
+    <mergeCell ref="K28:M29"/>
+    <mergeCell ref="N28:P29"/>
+    <mergeCell ref="Q28:S29"/>
+    <mergeCell ref="B30:D31"/>
+    <mergeCell ref="B28:D29"/>
+    <mergeCell ref="E28:G29"/>
+    <mergeCell ref="H28:J29"/>
     <mergeCell ref="A38:A39"/>
     <mergeCell ref="B38:D39"/>
     <mergeCell ref="E38:G39"/>
@@ -10386,78 +10442,22 @@
     <mergeCell ref="N36:P37"/>
     <mergeCell ref="Q36:S37"/>
     <mergeCell ref="Q34:S35"/>
-    <mergeCell ref="K32:M33"/>
-    <mergeCell ref="N32:P33"/>
-    <mergeCell ref="Q32:S33"/>
-    <mergeCell ref="Q24:S25"/>
-    <mergeCell ref="N24:P25"/>
-    <mergeCell ref="K24:M25"/>
-    <mergeCell ref="B32:D33"/>
-    <mergeCell ref="E32:G33"/>
-    <mergeCell ref="H32:J33"/>
-    <mergeCell ref="Q26:S27"/>
-    <mergeCell ref="K28:M29"/>
-    <mergeCell ref="N28:P29"/>
-    <mergeCell ref="Q28:S29"/>
-    <mergeCell ref="B30:D31"/>
-    <mergeCell ref="B28:D29"/>
-    <mergeCell ref="E28:G29"/>
-    <mergeCell ref="H28:J29"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:D27"/>
-    <mergeCell ref="E26:G27"/>
-    <mergeCell ref="H26:J27"/>
-    <mergeCell ref="K26:M27"/>
-    <mergeCell ref="E30:G31"/>
-    <mergeCell ref="H30:J31"/>
-    <mergeCell ref="K30:M31"/>
-    <mergeCell ref="N26:P27"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="H24:J25"/>
-    <mergeCell ref="E24:G25"/>
-    <mergeCell ref="B24:D25"/>
-    <mergeCell ref="AL22:AL23"/>
-    <mergeCell ref="AC2:AE2"/>
-    <mergeCell ref="AF2:AH2"/>
-    <mergeCell ref="AI2:AI3"/>
-    <mergeCell ref="AC12:AE12"/>
-    <mergeCell ref="AF12:AH12"/>
-    <mergeCell ref="AI12:AK12"/>
-    <mergeCell ref="AL12:AL13"/>
-    <mergeCell ref="AL14:AL15"/>
-    <mergeCell ref="AL16:AL17"/>
-    <mergeCell ref="AL18:AL19"/>
-    <mergeCell ref="AL20:AL21"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="Q23:S23"/>
-    <mergeCell ref="N23:P23"/>
-    <mergeCell ref="K23:M23"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="AI41:AI42"/>
-    <mergeCell ref="AL24:AL25"/>
-    <mergeCell ref="AL26:AL27"/>
-    <mergeCell ref="AC29:AE29"/>
-    <mergeCell ref="AF29:AH29"/>
-    <mergeCell ref="AI29:AI30"/>
-    <mergeCell ref="AI31:AI32"/>
-    <mergeCell ref="AI33:AI34"/>
-    <mergeCell ref="AI35:AI36"/>
-    <mergeCell ref="AI37:AI38"/>
-    <mergeCell ref="AI39:AI40"/>
-    <mergeCell ref="AI43:AI44"/>
-    <mergeCell ref="AC46:AE46"/>
-    <mergeCell ref="AF46:AH46"/>
-    <mergeCell ref="AI46:AI47"/>
-    <mergeCell ref="AI60:AI61"/>
-    <mergeCell ref="AI48:AI49"/>
-    <mergeCell ref="AI50:AI51"/>
-    <mergeCell ref="AI52:AI53"/>
-    <mergeCell ref="AI54:AI55"/>
-    <mergeCell ref="AI56:AI57"/>
-    <mergeCell ref="AI58:AI59"/>
+    <mergeCell ref="U38:U39"/>
+    <mergeCell ref="U34:U35"/>
+    <mergeCell ref="U32:U33"/>
+    <mergeCell ref="U30:U31"/>
+    <mergeCell ref="U28:U29"/>
+    <mergeCell ref="U26:U27"/>
+    <mergeCell ref="U24:U25"/>
+    <mergeCell ref="U36:U37"/>
+    <mergeCell ref="T26:T27"/>
+    <mergeCell ref="T24:T25"/>
+    <mergeCell ref="T34:T35"/>
+    <mergeCell ref="T32:T33"/>
+    <mergeCell ref="T30:T31"/>
+    <mergeCell ref="T28:T29"/>
+    <mergeCell ref="T38:T39"/>
+    <mergeCell ref="T36:T37"/>
   </mergeCells>
   <conditionalFormatting sqref="AB14:AL27">
     <cfRule type="cellIs" dxfId="25" priority="5" operator="equal">
@@ -10491,7 +10491,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BH61"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="W21" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="T38" sqref="B24:T39"/>
     </sheetView>
   </sheetViews>
@@ -10568,13 +10568,13 @@
         <v>74</v>
       </c>
       <c r="AB2" s="149"/>
-      <c r="AC2" s="189"/>
-      <c r="AD2" s="190"/>
-      <c r="AE2" s="191"/>
-      <c r="AF2" s="189"/>
-      <c r="AG2" s="190"/>
-      <c r="AH2" s="190"/>
-      <c r="AI2" s="183"/>
+      <c r="AC2" s="185"/>
+      <c r="AD2" s="186"/>
+      <c r="AE2" s="187"/>
+      <c r="AF2" s="185"/>
+      <c r="AG2" s="186"/>
+      <c r="AH2" s="186"/>
+      <c r="AI2" s="188"/>
       <c r="AJ2">
         <f>SUM(AI4:AI10)</f>
         <v>0</v>
@@ -10664,7 +10664,7 @@
       <c r="AF3" s="104"/>
       <c r="AG3" s="105"/>
       <c r="AH3" s="107"/>
-      <c r="AI3" s="184"/>
+      <c r="AI3" s="189"/>
     </row>
     <row r="4" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A4" s="147"/>
@@ -11277,25 +11277,25 @@
       <c r="AB12" s="149" t="s">
         <v>126</v>
       </c>
-      <c r="AC12" s="189" t="str">
+      <c r="AC12" s="185" t="str">
         <f>'2_PA'!V9</f>
         <v>I Periodo</v>
       </c>
-      <c r="AD12" s="192"/>
-      <c r="AE12" s="193"/>
-      <c r="AF12" s="179" t="str">
+      <c r="AD12" s="190"/>
+      <c r="AE12" s="191"/>
+      <c r="AF12" s="192" t="str">
         <f>'2_PA'!Y9</f>
         <v>II Periodo</v>
       </c>
-      <c r="AG12" s="180"/>
-      <c r="AH12" s="181"/>
-      <c r="AI12" s="179" t="str">
+      <c r="AG12" s="193"/>
+      <c r="AH12" s="194"/>
+      <c r="AI12" s="192" t="str">
         <f>'2_PA'!AB9</f>
         <v>III Periodo</v>
       </c>
-      <c r="AJ12" s="180"/>
-      <c r="AK12" s="182"/>
-      <c r="AL12" s="183" t="str">
+      <c r="AJ12" s="193"/>
+      <c r="AK12" s="195"/>
+      <c r="AL12" s="188" t="str">
         <f>'2_PA'!AE9</f>
         <v>Totale</v>
       </c>
@@ -11342,7 +11342,7 @@
         <f>'2_PA'!AD10</f>
         <v>Fase</v>
       </c>
-      <c r="AL13" s="184"/>
+      <c r="AL13" s="189"/>
       <c r="AM13">
         <f>SUM(AL14:AL27)</f>
         <v>193</v>
@@ -11393,7 +11393,7 @@
         <f>'2_PA'!AD11</f>
         <v>PA 3.2</v>
       </c>
-      <c r="AL14" s="185">
+      <c r="AL14" s="196">
         <f>'2_PA'!AE11</f>
         <v>26</v>
       </c>
@@ -11519,7 +11519,7 @@
         <f>'2_PA'!AD12</f>
         <v>0</v>
       </c>
-      <c r="AL15" s="177"/>
+      <c r="AL15" s="184"/>
       <c r="AO15">
         <f>IF($AC15=AO$2,$AD15,0)</f>
         <v>0</v>
@@ -11638,7 +11638,7 @@
         <f>'2_PA'!AD13</f>
         <v>PA 3.2</v>
       </c>
-      <c r="AL16" s="177">
+      <c r="AL16" s="184">
         <f>'2_PA'!AE13</f>
         <v>27</v>
       </c>
@@ -11760,7 +11760,7 @@
         <f>'2_PA'!AD14</f>
         <v>0</v>
       </c>
-      <c r="AL17" s="177"/>
+      <c r="AL17" s="184"/>
       <c r="AO17">
         <f t="shared" si="29"/>
         <v>0</v>
@@ -11879,7 +11879,7 @@
         <f>'2_PA'!AD15</f>
         <v>PA 3.3</v>
       </c>
-      <c r="AL18" s="177">
+      <c r="AL18" s="184">
         <f>'2_PA'!AE15</f>
         <v>26</v>
       </c>
@@ -12001,7 +12001,7 @@
         <f>'2_PA'!AD16</f>
         <v>PA 6.1</v>
       </c>
-      <c r="AL19" s="177"/>
+      <c r="AL19" s="184"/>
       <c r="AO19">
         <f t="shared" si="29"/>
         <v>0</v>
@@ -12120,7 +12120,7 @@
         <f>'2_PA'!AD17</f>
         <v>PA 3.3</v>
       </c>
-      <c r="AL20" s="177">
+      <c r="AL20" s="184">
         <f>'2_PA'!AE17</f>
         <v>28</v>
       </c>
@@ -12242,7 +12242,7 @@
         <f>'2_PA'!AD18</f>
         <v>PA 6.2</v>
       </c>
-      <c r="AL21" s="177"/>
+      <c r="AL21" s="184"/>
       <c r="AO21">
         <f t="shared" si="29"/>
         <v>0</v>
@@ -12361,7 +12361,7 @@
         <f>'2_PA'!AD19</f>
         <v>PA 5.1</v>
       </c>
-      <c r="AL22" s="177">
+      <c r="AL22" s="184">
         <f>'2_PA'!AE19</f>
         <v>30</v>
       </c>
@@ -12446,36 +12446,36 @@
       <c r="A23" s="156" t="s">
         <v>0</v>
       </c>
-      <c r="B23" s="194" t="s">
+      <c r="B23" s="197" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="194"/>
-      <c r="D23" s="194"/>
-      <c r="E23" s="194" t="s">
+      <c r="C23" s="197"/>
+      <c r="D23" s="197"/>
+      <c r="E23" s="197" t="s">
         <v>2</v>
       </c>
-      <c r="F23" s="194"/>
-      <c r="G23" s="194"/>
-      <c r="H23" s="194" t="s">
+      <c r="F23" s="197"/>
+      <c r="G23" s="197"/>
+      <c r="H23" s="197" t="s">
         <v>3</v>
       </c>
-      <c r="I23" s="194"/>
-      <c r="J23" s="194"/>
-      <c r="K23" s="194" t="s">
+      <c r="I23" s="197"/>
+      <c r="J23" s="197"/>
+      <c r="K23" s="197" t="s">
         <v>4</v>
       </c>
-      <c r="L23" s="194"/>
-      <c r="M23" s="194"/>
-      <c r="N23" s="194" t="s">
+      <c r="L23" s="197"/>
+      <c r="M23" s="197"/>
+      <c r="N23" s="197" t="s">
         <v>5</v>
       </c>
-      <c r="O23" s="194"/>
-      <c r="P23" s="194"/>
-      <c r="Q23" s="194" t="s">
+      <c r="O23" s="197"/>
+      <c r="P23" s="197"/>
+      <c r="Q23" s="197" t="s">
         <v>6</v>
       </c>
-      <c r="R23" s="194"/>
-      <c r="S23" s="194"/>
+      <c r="R23" s="197"/>
+      <c r="S23" s="197"/>
       <c r="T23" s="156" t="s">
         <v>14</v>
       </c>
@@ -12520,7 +12520,7 @@
         <f>'2_PA'!AD20</f>
         <v>0</v>
       </c>
-      <c r="AL23" s="177"/>
+      <c r="AL23" s="184"/>
       <c r="AO23">
         <f t="shared" si="29"/>
         <v>0</v>
@@ -12599,50 +12599,50 @@
       </c>
     </row>
     <row r="24" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A24" s="186" t="s">
+      <c r="A24" s="183" t="s">
         <v>7</v>
       </c>
-      <c r="B24" s="188">
+      <c r="B24" s="181">
         <f>SUM(AO4:AQ4,AO14:AQ15,AO31:AQ32,AO48:AQ49)</f>
         <v>4</v>
       </c>
-      <c r="C24" s="188"/>
-      <c r="D24" s="188"/>
-      <c r="E24" s="188">
+      <c r="C24" s="181"/>
+      <c r="D24" s="181"/>
+      <c r="E24" s="181">
         <f>SUM(AR4:AT4,AR14:AT15,AR31:AT32,AR48:AT49)</f>
         <v>10</v>
       </c>
-      <c r="F24" s="188"/>
-      <c r="G24" s="188"/>
-      <c r="H24" s="187">
+      <c r="F24" s="181"/>
+      <c r="G24" s="181"/>
+      <c r="H24" s="182">
         <f>SUM(AU4:AW4,AU14:AW15,AU31:AW32,AU48:AW49)</f>
         <v>9</v>
       </c>
-      <c r="I24" s="187"/>
-      <c r="J24" s="187"/>
-      <c r="K24" s="188">
+      <c r="I24" s="182"/>
+      <c r="J24" s="182"/>
+      <c r="K24" s="181">
         <f>SUM(AX4:AZ4,AX14:AZ15,AX31:AZ32,AX48:AZ49)</f>
         <v>10</v>
       </c>
-      <c r="L24" s="188"/>
-      <c r="M24" s="188"/>
-      <c r="N24" s="187">
+      <c r="L24" s="181"/>
+      <c r="M24" s="181"/>
+      <c r="N24" s="182">
         <f>SUM(BA4:BC4,BA14:BC15,BA31:BC32,BA48:BC49)</f>
         <v>59</v>
       </c>
-      <c r="O24" s="187"/>
-      <c r="P24" s="187"/>
-      <c r="Q24" s="188">
+      <c r="O24" s="182"/>
+      <c r="P24" s="182"/>
+      <c r="Q24" s="181">
         <f>SUM(BD4:BF4,BD14:BF15,BD31:BF32,BD48:BF49)</f>
         <v>4</v>
       </c>
-      <c r="R24" s="188"/>
-      <c r="S24" s="188"/>
-      <c r="T24" s="188">
+      <c r="R24" s="181"/>
+      <c r="S24" s="181"/>
+      <c r="T24" s="181">
         <f t="shared" ref="T24" si="32">SUM(B24:S25)</f>
         <v>96</v>
       </c>
-      <c r="U24" s="196"/>
+      <c r="U24" s="177"/>
       <c r="AB24" s="31" t="str">
         <f>'2_PA'!U21</f>
         <v>Quadrio Giacomo</v>
@@ -12683,7 +12683,7 @@
         <f>'2_PA'!AD21</f>
         <v>PA 5.1, 6.2</v>
       </c>
-      <c r="AL24" s="177">
+      <c r="AL24" s="184">
         <f>'2_PA'!AE21</f>
         <v>28</v>
       </c>
@@ -12765,27 +12765,27 @@
       </c>
     </row>
     <row r="25" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A25" s="186"/>
-      <c r="B25" s="188"/>
-      <c r="C25" s="188"/>
-      <c r="D25" s="188"/>
-      <c r="E25" s="188"/>
-      <c r="F25" s="188"/>
-      <c r="G25" s="188"/>
-      <c r="H25" s="187"/>
-      <c r="I25" s="187"/>
-      <c r="J25" s="187"/>
-      <c r="K25" s="188"/>
-      <c r="L25" s="188"/>
-      <c r="M25" s="188"/>
-      <c r="N25" s="187"/>
-      <c r="O25" s="187"/>
-      <c r="P25" s="187"/>
-      <c r="Q25" s="188"/>
-      <c r="R25" s="188"/>
-      <c r="S25" s="188"/>
-      <c r="T25" s="188"/>
-      <c r="U25" s="196"/>
+      <c r="A25" s="183"/>
+      <c r="B25" s="181"/>
+      <c r="C25" s="181"/>
+      <c r="D25" s="181"/>
+      <c r="E25" s="181"/>
+      <c r="F25" s="181"/>
+      <c r="G25" s="181"/>
+      <c r="H25" s="182"/>
+      <c r="I25" s="182"/>
+      <c r="J25" s="182"/>
+      <c r="K25" s="181"/>
+      <c r="L25" s="181"/>
+      <c r="M25" s="181"/>
+      <c r="N25" s="182"/>
+      <c r="O25" s="182"/>
+      <c r="P25" s="182"/>
+      <c r="Q25" s="181"/>
+      <c r="R25" s="181"/>
+      <c r="S25" s="181"/>
+      <c r="T25" s="181"/>
+      <c r="U25" s="177"/>
       <c r="AB25" s="31">
         <f>'2_PA'!U22</f>
         <v>0</v>
@@ -12826,7 +12826,7 @@
         <f>'2_PA'!AD22</f>
         <v>0</v>
       </c>
-      <c r="AL25" s="177"/>
+      <c r="AL25" s="184"/>
       <c r="AO25">
         <f t="shared" si="29"/>
         <v>0</v>
@@ -12905,50 +12905,50 @@
       </c>
     </row>
     <row r="26" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A26" s="186" t="s">
+      <c r="A26" s="183" t="s">
         <v>11</v>
       </c>
-      <c r="B26" s="188">
+      <c r="B26" s="181">
         <f>SUM(AO5:AQ5,AO16:AQ17,AO33:AQ34,AO50:AQ51)</f>
         <v>13</v>
       </c>
-      <c r="C26" s="188"/>
-      <c r="D26" s="188"/>
-      <c r="E26" s="188">
+      <c r="C26" s="181"/>
+      <c r="D26" s="181"/>
+      <c r="E26" s="181">
         <f>SUM(AR5:AT5,AR16:AT17,AR33:AT34,AR50:AT51)</f>
         <v>10</v>
       </c>
-      <c r="F26" s="188"/>
-      <c r="G26" s="188"/>
-      <c r="H26" s="188">
+      <c r="F26" s="181"/>
+      <c r="G26" s="181"/>
+      <c r="H26" s="181">
         <f>SUM(AU5:AW5,AU16:AW17,AU33:AW34,AU50:AW51)</f>
         <v>0</v>
       </c>
-      <c r="I26" s="188"/>
-      <c r="J26" s="188"/>
-      <c r="K26" s="187">
+      <c r="I26" s="181"/>
+      <c r="J26" s="181"/>
+      <c r="K26" s="182">
         <f>SUM(AX5:AZ5,AX16:AZ17,AX33:AZ34,AX50:AZ51)</f>
         <v>33</v>
       </c>
-      <c r="L26" s="187"/>
-      <c r="M26" s="187"/>
-      <c r="N26" s="188">
+      <c r="L26" s="182"/>
+      <c r="M26" s="182"/>
+      <c r="N26" s="181">
         <f>SUM(BA5:BC5,BA16:BC17,BA33:BC34,BA50:BC51)</f>
         <v>29</v>
       </c>
-      <c r="O26" s="188"/>
-      <c r="P26" s="188"/>
-      <c r="Q26" s="188">
+      <c r="O26" s="181"/>
+      <c r="P26" s="181"/>
+      <c r="Q26" s="181">
         <f>SUM(BD5:BF5,BD16:BF17,BD33:BF34,BD50:BF51)</f>
         <v>12</v>
       </c>
-      <c r="R26" s="188"/>
-      <c r="S26" s="188"/>
-      <c r="T26" s="188">
+      <c r="R26" s="181"/>
+      <c r="S26" s="181"/>
+      <c r="T26" s="181">
         <f t="shared" ref="T26" si="33">SUM(B26:S27)</f>
         <v>97</v>
       </c>
-      <c r="U26" s="196"/>
+      <c r="U26" s="177"/>
       <c r="AB26" s="47" t="str">
         <f>'2_PA'!U23</f>
         <v>Maggiolo Giorgio</v>
@@ -12989,7 +12989,7 @@
         <f>'2_PA'!AD23</f>
         <v>PA 3.3</v>
       </c>
-      <c r="AL26" s="177">
+      <c r="AL26" s="184">
         <f>'2_PA'!AE23</f>
         <v>28</v>
       </c>
@@ -13071,27 +13071,27 @@
       </c>
     </row>
     <row r="27" spans="1:60" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="186"/>
-      <c r="B27" s="188"/>
-      <c r="C27" s="188"/>
-      <c r="D27" s="188"/>
-      <c r="E27" s="188"/>
-      <c r="F27" s="188"/>
-      <c r="G27" s="188"/>
-      <c r="H27" s="188"/>
-      <c r="I27" s="188"/>
-      <c r="J27" s="188"/>
-      <c r="K27" s="187"/>
-      <c r="L27" s="187"/>
-      <c r="M27" s="187"/>
-      <c r="N27" s="188"/>
-      <c r="O27" s="188"/>
-      <c r="P27" s="188"/>
-      <c r="Q27" s="188"/>
-      <c r="R27" s="188"/>
-      <c r="S27" s="188"/>
-      <c r="T27" s="188"/>
-      <c r="U27" s="196"/>
+      <c r="A27" s="183"/>
+      <c r="B27" s="181"/>
+      <c r="C27" s="181"/>
+      <c r="D27" s="181"/>
+      <c r="E27" s="181"/>
+      <c r="F27" s="181"/>
+      <c r="G27" s="181"/>
+      <c r="H27" s="181"/>
+      <c r="I27" s="181"/>
+      <c r="J27" s="181"/>
+      <c r="K27" s="182"/>
+      <c r="L27" s="182"/>
+      <c r="M27" s="182"/>
+      <c r="N27" s="181"/>
+      <c r="O27" s="181"/>
+      <c r="P27" s="181"/>
+      <c r="Q27" s="181"/>
+      <c r="R27" s="181"/>
+      <c r="S27" s="181"/>
+      <c r="T27" s="181"/>
+      <c r="U27" s="177"/>
       <c r="AB27" s="63">
         <f>'2_PA'!U24</f>
         <v>0</v>
@@ -13132,7 +13132,7 @@
         <f>'2_PA'!AD24</f>
         <v>PA 5.1</v>
       </c>
-      <c r="AL27" s="178"/>
+      <c r="AL27" s="198"/>
       <c r="AO27">
         <f t="shared" si="29"/>
         <v>0</v>
@@ -13211,96 +13211,96 @@
       </c>
     </row>
     <row r="28" spans="1:60" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="186" t="s">
+      <c r="A28" s="183" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="188">
+      <c r="B28" s="181">
         <f>SUM(AO6:AQ6,AO18:AQ19,AO35:AQ36,AO52:AQ53)</f>
         <v>10</v>
       </c>
-      <c r="C28" s="188"/>
-      <c r="D28" s="188"/>
-      <c r="E28" s="188">
+      <c r="C28" s="181"/>
+      <c r="D28" s="181"/>
+      <c r="E28" s="181">
         <f>SUM(AR6:AT6,AR18:AT19,AR35:AT36,AR52:AT53)</f>
         <v>4</v>
       </c>
-      <c r="F28" s="188"/>
-      <c r="G28" s="188"/>
-      <c r="H28" s="188">
+      <c r="F28" s="181"/>
+      <c r="G28" s="181"/>
+      <c r="H28" s="181">
         <f>SUM(AU6:AW6,AU18:AW19,AU35:AW36,AU52:AW53)</f>
         <v>2</v>
       </c>
-      <c r="I28" s="188"/>
-      <c r="J28" s="188"/>
-      <c r="K28" s="188">
+      <c r="I28" s="181"/>
+      <c r="J28" s="181"/>
+      <c r="K28" s="181">
         <f>SUM(AX6:AZ6,AX18:AZ19,AX35:AZ36,AX52:AZ53)</f>
         <v>27</v>
       </c>
-      <c r="L28" s="188"/>
-      <c r="M28" s="188"/>
-      <c r="N28" s="188">
+      <c r="L28" s="181"/>
+      <c r="M28" s="181"/>
+      <c r="N28" s="181">
         <f>SUM(BA6:BC6,BA18:BC19,BA35:BC36,BA52:BC53)</f>
         <v>33</v>
       </c>
-      <c r="O28" s="188"/>
-      <c r="P28" s="188"/>
-      <c r="Q28" s="187">
+      <c r="O28" s="181"/>
+      <c r="P28" s="181"/>
+      <c r="Q28" s="182">
         <f>SUM(BD6:BF6,BD18:BF19,BD35:BF36,BD52:BF53)</f>
         <v>20</v>
       </c>
-      <c r="R28" s="187"/>
-      <c r="S28" s="187"/>
-      <c r="T28" s="188">
+      <c r="R28" s="182"/>
+      <c r="S28" s="182"/>
+      <c r="T28" s="181">
         <f t="shared" ref="T28" si="34">SUM(B28:S29)</f>
         <v>96</v>
       </c>
-      <c r="U28" s="196"/>
+      <c r="U28" s="177"/>
       <c r="BG28" s="158">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A29" s="186"/>
-      <c r="B29" s="188"/>
-      <c r="C29" s="188"/>
-      <c r="D29" s="188"/>
-      <c r="E29" s="188"/>
-      <c r="F29" s="188"/>
-      <c r="G29" s="188"/>
-      <c r="H29" s="188"/>
-      <c r="I29" s="188"/>
-      <c r="J29" s="188"/>
-      <c r="K29" s="188"/>
-      <c r="L29" s="188"/>
-      <c r="M29" s="188"/>
-      <c r="N29" s="188"/>
-      <c r="O29" s="188"/>
-      <c r="P29" s="188"/>
-      <c r="Q29" s="187"/>
-      <c r="R29" s="187"/>
-      <c r="S29" s="187"/>
-      <c r="T29" s="188"/>
-      <c r="U29" s="196"/>
+      <c r="A29" s="183"/>
+      <c r="B29" s="181"/>
+      <c r="C29" s="181"/>
+      <c r="D29" s="181"/>
+      <c r="E29" s="181"/>
+      <c r="F29" s="181"/>
+      <c r="G29" s="181"/>
+      <c r="H29" s="181"/>
+      <c r="I29" s="181"/>
+      <c r="J29" s="181"/>
+      <c r="K29" s="181"/>
+      <c r="L29" s="181"/>
+      <c r="M29" s="181"/>
+      <c r="N29" s="181"/>
+      <c r="O29" s="181"/>
+      <c r="P29" s="181"/>
+      <c r="Q29" s="182"/>
+      <c r="R29" s="182"/>
+      <c r="S29" s="182"/>
+      <c r="T29" s="181"/>
+      <c r="U29" s="177"/>
       <c r="AA29" t="s">
         <v>124</v>
       </c>
       <c r="AB29" s="149" t="s">
         <v>127</v>
       </c>
-      <c r="AC29" s="179" t="str">
+      <c r="AC29" s="192" t="str">
         <f>'3_PDC'!U6</f>
         <v>I Periodo</v>
       </c>
-      <c r="AD29" s="180"/>
-      <c r="AE29" s="181"/>
-      <c r="AF29" s="179" t="str">
+      <c r="AD29" s="193"/>
+      <c r="AE29" s="194"/>
+      <c r="AF29" s="192" t="str">
         <f>'3_PDC'!X6</f>
         <v>II Periodo</v>
       </c>
-      <c r="AG29" s="180"/>
-      <c r="AH29" s="182"/>
-      <c r="AI29" s="183" t="str">
+      <c r="AG29" s="193"/>
+      <c r="AH29" s="195"/>
+      <c r="AI29" s="188" t="str">
         <f>'3_PDC'!AA6</f>
         <v>Totale</v>
       </c>
@@ -13310,50 +13310,50 @@
       </c>
     </row>
     <row r="30" spans="1:60" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="186" t="s">
+      <c r="A30" s="183" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="188">
+      <c r="B30" s="181">
         <f>SUM(AO7:AQ7,AO20:AQ21,AO37:AQ38,AO54:AQ55)</f>
         <v>15</v>
       </c>
-      <c r="C30" s="188"/>
-      <c r="D30" s="188"/>
-      <c r="E30" s="188">
+      <c r="C30" s="181"/>
+      <c r="D30" s="181"/>
+      <c r="E30" s="181">
         <f>SUM(AR7:AT7,AR20:AT21,AR37:AT38,AR54:AT55)</f>
         <v>4</v>
       </c>
-      <c r="F30" s="188"/>
-      <c r="G30" s="188"/>
-      <c r="H30" s="188">
+      <c r="F30" s="181"/>
+      <c r="G30" s="181"/>
+      <c r="H30" s="181">
         <f>SUM(AU7:AW7,AU20:AW21,AU37:AW38,AU54:AW55)</f>
         <v>0</v>
       </c>
-      <c r="I30" s="188"/>
-      <c r="J30" s="188"/>
-      <c r="K30" s="187">
+      <c r="I30" s="181"/>
+      <c r="J30" s="181"/>
+      <c r="K30" s="182">
         <f>SUM(AX7:AZ7,AX20:AZ21,AX37:AZ38,AX54:AZ55)</f>
         <v>31</v>
       </c>
-      <c r="L30" s="187"/>
-      <c r="M30" s="187"/>
-      <c r="N30" s="187">
+      <c r="L30" s="182"/>
+      <c r="M30" s="182"/>
+      <c r="N30" s="182">
         <f>SUM(BA7:BC7,BA20:BC21,BA37:BC38,BA54:BC55)</f>
         <v>35</v>
       </c>
-      <c r="O30" s="187"/>
-      <c r="P30" s="187"/>
-      <c r="Q30" s="188">
+      <c r="O30" s="182"/>
+      <c r="P30" s="182"/>
+      <c r="Q30" s="181">
         <f>SUM(BD7:BF7,BD20:BF21,BD37:BF38,BD54:BF55)</f>
         <v>18</v>
       </c>
-      <c r="R30" s="188"/>
-      <c r="S30" s="188"/>
-      <c r="T30" s="188">
+      <c r="R30" s="181"/>
+      <c r="S30" s="181"/>
+      <c r="T30" s="181">
         <f t="shared" ref="T30" si="35">SUM(B30:S31)</f>
         <v>103</v>
       </c>
-      <c r="U30" s="196"/>
+      <c r="U30" s="177"/>
       <c r="AB30" s="150"/>
       <c r="AC30" s="26" t="str">
         <f>'3_PDC'!U7</f>
@@ -13379,7 +13379,7 @@
         <f>'3_PDC'!Z7</f>
         <v>Fase</v>
       </c>
-      <c r="AI30" s="184"/>
+      <c r="AI30" s="189"/>
       <c r="AK30">
         <f>SUM(AI31:AI44)</f>
         <v>373</v>
@@ -13390,27 +13390,27 @@
       </c>
     </row>
     <row r="31" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A31" s="186"/>
-      <c r="B31" s="188"/>
-      <c r="C31" s="188"/>
-      <c r="D31" s="188"/>
-      <c r="E31" s="188"/>
-      <c r="F31" s="188"/>
-      <c r="G31" s="188"/>
-      <c r="H31" s="188"/>
-      <c r="I31" s="188"/>
-      <c r="J31" s="188"/>
-      <c r="K31" s="187"/>
-      <c r="L31" s="187"/>
-      <c r="M31" s="187"/>
-      <c r="N31" s="187"/>
-      <c r="O31" s="187"/>
-      <c r="P31" s="187"/>
-      <c r="Q31" s="188"/>
-      <c r="R31" s="188"/>
-      <c r="S31" s="188"/>
-      <c r="T31" s="188"/>
-      <c r="U31" s="196"/>
+      <c r="A31" s="183"/>
+      <c r="B31" s="181"/>
+      <c r="C31" s="181"/>
+      <c r="D31" s="181"/>
+      <c r="E31" s="181"/>
+      <c r="F31" s="181"/>
+      <c r="G31" s="181"/>
+      <c r="H31" s="181"/>
+      <c r="I31" s="181"/>
+      <c r="J31" s="181"/>
+      <c r="K31" s="182"/>
+      <c r="L31" s="182"/>
+      <c r="M31" s="182"/>
+      <c r="N31" s="182"/>
+      <c r="O31" s="182"/>
+      <c r="P31" s="182"/>
+      <c r="Q31" s="181"/>
+      <c r="R31" s="181"/>
+      <c r="S31" s="181"/>
+      <c r="T31" s="181"/>
+      <c r="U31" s="177"/>
       <c r="AB31" s="31" t="str">
         <f>'3_PDC'!T8</f>
         <v>Begolo Marco</v>
@@ -13439,7 +13439,7 @@
         <f>'3_PDC'!Z8</f>
         <v>PDC 4.4</v>
       </c>
-      <c r="AI31" s="185">
+      <c r="AI31" s="196">
         <f>'3_PDC'!AA8</f>
         <v>52</v>
       </c>
@@ -13525,50 +13525,50 @@
       </c>
     </row>
     <row r="32" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A32" s="186" t="s">
+      <c r="A32" s="183" t="s">
         <v>8</v>
       </c>
-      <c r="B32" s="188">
+      <c r="B32" s="181">
         <f>SUM(AO8:AQ8,AO22:AQ23,AO39:AQ40,AO56:AQ57)</f>
         <v>9</v>
       </c>
-      <c r="C32" s="188"/>
-      <c r="D32" s="188"/>
-      <c r="E32" s="188">
+      <c r="C32" s="181"/>
+      <c r="D32" s="181"/>
+      <c r="E32" s="181">
         <f>SUM(AR8:AT8,AR22:AT23,AR39:AT40,AR56:AT57)</f>
         <v>11</v>
       </c>
-      <c r="F32" s="188"/>
-      <c r="G32" s="188"/>
-      <c r="H32" s="188">
+      <c r="F32" s="181"/>
+      <c r="G32" s="181"/>
+      <c r="H32" s="181">
         <f>SUM(AU8:AW8,AU22:AW23,AU39:AW40,AU56:AW57)</f>
         <v>2</v>
       </c>
-      <c r="I32" s="188"/>
-      <c r="J32" s="188"/>
-      <c r="K32" s="188">
+      <c r="I32" s="181"/>
+      <c r="J32" s="181"/>
+      <c r="K32" s="181">
         <f>SUM(AX8:AZ8,AX22:AZ23,AX39:AZ40,AX56:AZ57)</f>
         <v>20</v>
       </c>
-      <c r="L32" s="188"/>
-      <c r="M32" s="188"/>
-      <c r="N32" s="187">
+      <c r="L32" s="181"/>
+      <c r="M32" s="181"/>
+      <c r="N32" s="182">
         <f>SUM(BA8:BC8,BA22:BC23,BA39:BC40,BA56:BC57)</f>
         <v>37</v>
       </c>
-      <c r="O32" s="187"/>
-      <c r="P32" s="187"/>
-      <c r="Q32" s="188">
+      <c r="O32" s="182"/>
+      <c r="P32" s="182"/>
+      <c r="Q32" s="181">
         <f>SUM(BD8:BF8,BD22:BF23,BD39:BF40,BD56:BF57)</f>
         <v>23</v>
       </c>
-      <c r="R32" s="188"/>
-      <c r="S32" s="188"/>
-      <c r="T32" s="188">
+      <c r="R32" s="181"/>
+      <c r="S32" s="181"/>
+      <c r="T32" s="181">
         <f t="shared" ref="T32" si="51">SUM(B32:S33)</f>
         <v>102</v>
       </c>
-      <c r="U32" s="196"/>
+      <c r="U32" s="177"/>
       <c r="AB32" s="35">
         <f>'3_PDC'!T9</f>
         <v>0</v>
@@ -13597,7 +13597,7 @@
         <f>'3_PDC'!Z9</f>
         <v>PDC 7</v>
       </c>
-      <c r="AI32" s="177"/>
+      <c r="AI32" s="184"/>
       <c r="AO32">
         <f>IF($AC32=AO$2,$AD32,0)</f>
         <v>0</v>
@@ -13676,27 +13676,27 @@
       </c>
     </row>
     <row r="33" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A33" s="186"/>
-      <c r="B33" s="188"/>
-      <c r="C33" s="188"/>
-      <c r="D33" s="188"/>
-      <c r="E33" s="188"/>
-      <c r="F33" s="188"/>
-      <c r="G33" s="188"/>
-      <c r="H33" s="188"/>
-      <c r="I33" s="188"/>
-      <c r="J33" s="188"/>
-      <c r="K33" s="188"/>
-      <c r="L33" s="188"/>
-      <c r="M33" s="188"/>
-      <c r="N33" s="187"/>
-      <c r="O33" s="187"/>
-      <c r="P33" s="187"/>
-      <c r="Q33" s="188"/>
-      <c r="R33" s="188"/>
-      <c r="S33" s="188"/>
-      <c r="T33" s="188"/>
-      <c r="U33" s="196"/>
+      <c r="A33" s="183"/>
+      <c r="B33" s="181"/>
+      <c r="C33" s="181"/>
+      <c r="D33" s="181"/>
+      <c r="E33" s="181"/>
+      <c r="F33" s="181"/>
+      <c r="G33" s="181"/>
+      <c r="H33" s="181"/>
+      <c r="I33" s="181"/>
+      <c r="J33" s="181"/>
+      <c r="K33" s="181"/>
+      <c r="L33" s="181"/>
+      <c r="M33" s="181"/>
+      <c r="N33" s="182"/>
+      <c r="O33" s="182"/>
+      <c r="P33" s="182"/>
+      <c r="Q33" s="181"/>
+      <c r="R33" s="181"/>
+      <c r="S33" s="181"/>
+      <c r="T33" s="181"/>
+      <c r="U33" s="177"/>
       <c r="AB33" s="31" t="str">
         <f>'3_PDC'!T10</f>
         <v>Facchin Gabriele</v>
@@ -13725,7 +13725,7 @@
         <f>'3_PDC'!Z10</f>
         <v>PDC 3.1</v>
       </c>
-      <c r="AI33" s="177">
+      <c r="AI33" s="184">
         <f>'3_PDC'!AA10</f>
         <v>52</v>
       </c>
@@ -13807,50 +13807,50 @@
       </c>
     </row>
     <row r="34" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A34" s="186" t="s">
+      <c r="A34" s="183" t="s">
         <v>13</v>
       </c>
-      <c r="B34" s="188">
+      <c r="B34" s="181">
         <f>SUM(AO9:AQ9,AO24:AQ25,AO41:AQ42,AO58:AQ59)</f>
         <v>6</v>
       </c>
-      <c r="C34" s="188"/>
-      <c r="D34" s="188"/>
-      <c r="E34" s="188">
+      <c r="C34" s="181"/>
+      <c r="D34" s="181"/>
+      <c r="E34" s="181">
         <f>SUM(AR9:AT9,AR24:AT25,AR41:AT42,AR58:AT59)</f>
         <v>2</v>
       </c>
-      <c r="F34" s="188"/>
-      <c r="G34" s="188"/>
-      <c r="H34" s="188">
+      <c r="F34" s="181"/>
+      <c r="G34" s="181"/>
+      <c r="H34" s="181">
         <f>SUM(AU9:AW9,AU24:AW25,AU41:AW42,AU58:AW59)</f>
         <v>0</v>
       </c>
-      <c r="I34" s="188"/>
-      <c r="J34" s="188"/>
-      <c r="K34" s="187">
+      <c r="I34" s="181"/>
+      <c r="J34" s="181"/>
+      <c r="K34" s="182">
         <f>SUM(AX9:AZ9,AX24:AZ25,AX41:AZ42,AX58:AZ59)</f>
         <v>27</v>
       </c>
-      <c r="L34" s="187"/>
-      <c r="M34" s="187"/>
-      <c r="N34" s="187">
+      <c r="L34" s="182"/>
+      <c r="M34" s="182"/>
+      <c r="N34" s="182">
         <f>SUM(BA9:BC9,BA24:BC25,BA41:BC42,BA58:BC59)</f>
         <v>40</v>
       </c>
-      <c r="O34" s="187"/>
-      <c r="P34" s="187"/>
-      <c r="Q34" s="187">
+      <c r="O34" s="182"/>
+      <c r="P34" s="182"/>
+      <c r="Q34" s="182">
         <f>SUM(BD9:BF9,BD24:BF25,BD41:BF42,BD58:BF59)</f>
         <v>25</v>
       </c>
-      <c r="R34" s="187"/>
-      <c r="S34" s="187"/>
-      <c r="T34" s="188">
+      <c r="R34" s="182"/>
+      <c r="S34" s="182"/>
+      <c r="T34" s="181">
         <f t="shared" ref="T34" si="55">SUM(B34:S35)</f>
         <v>100</v>
       </c>
-      <c r="U34" s="196"/>
+      <c r="U34" s="177"/>
       <c r="AB34" s="31">
         <f>'3_PDC'!T11</f>
         <v>0</v>
@@ -13879,7 +13879,7 @@
         <f>'3_PDC'!Z11</f>
         <v>PDC 4.3</v>
       </c>
-      <c r="AI34" s="177"/>
+      <c r="AI34" s="184"/>
       <c r="AO34">
         <f t="shared" si="52"/>
         <v>0</v>
@@ -13958,27 +13958,27 @@
       </c>
     </row>
     <row r="35" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A35" s="186"/>
-      <c r="B35" s="188"/>
-      <c r="C35" s="188"/>
-      <c r="D35" s="188"/>
-      <c r="E35" s="188"/>
-      <c r="F35" s="188"/>
-      <c r="G35" s="188"/>
-      <c r="H35" s="188"/>
-      <c r="I35" s="188"/>
-      <c r="J35" s="188"/>
-      <c r="K35" s="187"/>
-      <c r="L35" s="187"/>
-      <c r="M35" s="187"/>
-      <c r="N35" s="187"/>
-      <c r="O35" s="187"/>
-      <c r="P35" s="187"/>
-      <c r="Q35" s="187"/>
-      <c r="R35" s="187"/>
-      <c r="S35" s="187"/>
-      <c r="T35" s="188"/>
-      <c r="U35" s="196"/>
+      <c r="A35" s="183"/>
+      <c r="B35" s="181"/>
+      <c r="C35" s="181"/>
+      <c r="D35" s="181"/>
+      <c r="E35" s="181"/>
+      <c r="F35" s="181"/>
+      <c r="G35" s="181"/>
+      <c r="H35" s="181"/>
+      <c r="I35" s="181"/>
+      <c r="J35" s="181"/>
+      <c r="K35" s="182"/>
+      <c r="L35" s="182"/>
+      <c r="M35" s="182"/>
+      <c r="N35" s="182"/>
+      <c r="O35" s="182"/>
+      <c r="P35" s="182"/>
+      <c r="Q35" s="182"/>
+      <c r="R35" s="182"/>
+      <c r="S35" s="182"/>
+      <c r="T35" s="181"/>
+      <c r="U35" s="177"/>
       <c r="AB35" s="47" t="str">
         <f>'3_PDC'!T12</f>
         <v>Cornaglia Alessando</v>
@@ -14007,7 +14007,7 @@
         <f>'3_PDC'!Z12</f>
         <v>PDC 4.4 e 5</v>
       </c>
-      <c r="AI35" s="177">
+      <c r="AI35" s="184">
         <f>'3_PDC'!AA12</f>
         <v>52</v>
       </c>
@@ -14096,50 +14096,50 @@
       </c>
     </row>
     <row r="36" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A36" s="186" t="s">
+      <c r="A36" s="183" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="188">
+      <c r="B36" s="181">
         <f>SUM(AO10:AQ10,AO26:AQ27,AO43:AQ44,AO60:AQ61)</f>
         <v>2</v>
       </c>
-      <c r="C36" s="188"/>
-      <c r="D36" s="188"/>
-      <c r="E36" s="188">
+      <c r="C36" s="181"/>
+      <c r="D36" s="181"/>
+      <c r="E36" s="181">
         <f>SUM(AR10:AT10,AR26:AT27,AR43:AT44,AR60:AT61)</f>
         <v>8</v>
       </c>
-      <c r="F36" s="188"/>
-      <c r="G36" s="188"/>
-      <c r="H36" s="188">
+      <c r="F36" s="181"/>
+      <c r="G36" s="181"/>
+      <c r="H36" s="181">
         <f>SUM(AU10:AW10,AU26:AW27,AU43:AW44,AU60:AW61)</f>
         <v>7</v>
       </c>
-      <c r="I36" s="188"/>
-      <c r="J36" s="188"/>
-      <c r="K36" s="187">
+      <c r="I36" s="181"/>
+      <c r="J36" s="181"/>
+      <c r="K36" s="182">
         <f>SUM(AX10:AZ10,AX26:AZ27,AX43:AZ44,AX60:AZ61)</f>
         <v>51</v>
       </c>
-      <c r="L36" s="187"/>
-      <c r="M36" s="187"/>
-      <c r="N36" s="188">
+      <c r="L36" s="182"/>
+      <c r="M36" s="182"/>
+      <c r="N36" s="181">
         <f>SUM(BA10:BC10,BA26:BC27,BA43:BC44,BA60:BC61)</f>
         <v>10</v>
       </c>
-      <c r="O36" s="188"/>
-      <c r="P36" s="188"/>
-      <c r="Q36" s="188">
+      <c r="O36" s="181"/>
+      <c r="P36" s="181"/>
+      <c r="Q36" s="181">
         <f>SUM(BD10:BF10,BD26:BF27,BD43:BF44,BD60:BF61)</f>
         <v>18</v>
       </c>
-      <c r="R36" s="188"/>
-      <c r="S36" s="188"/>
-      <c r="T36" s="188">
+      <c r="R36" s="181"/>
+      <c r="S36" s="181"/>
+      <c r="T36" s="181">
         <f t="shared" ref="T36" si="56">SUM(B36:S37)</f>
         <v>96</v>
       </c>
-      <c r="U36" s="196"/>
+      <c r="U36" s="177"/>
       <c r="AB36" s="35">
         <f>'3_PDC'!T13</f>
         <v>0</v>
@@ -14168,7 +14168,7 @@
         <f>'3_PDC'!Z13</f>
         <v>PDC 7</v>
       </c>
-      <c r="AI36" s="177"/>
+      <c r="AI36" s="184"/>
       <c r="AK36">
         <f>SUM(BD31:BF44)</f>
         <v>100</v>
@@ -14251,27 +14251,27 @@
       </c>
     </row>
     <row r="37" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A37" s="186"/>
-      <c r="B37" s="188"/>
-      <c r="C37" s="188"/>
-      <c r="D37" s="188"/>
-      <c r="E37" s="188"/>
-      <c r="F37" s="188"/>
-      <c r="G37" s="188"/>
-      <c r="H37" s="188"/>
-      <c r="I37" s="188"/>
-      <c r="J37" s="188"/>
-      <c r="K37" s="187"/>
-      <c r="L37" s="187"/>
-      <c r="M37" s="187"/>
-      <c r="N37" s="188"/>
-      <c r="O37" s="188"/>
-      <c r="P37" s="188"/>
-      <c r="Q37" s="188"/>
-      <c r="R37" s="188"/>
-      <c r="S37" s="188"/>
-      <c r="T37" s="188"/>
-      <c r="U37" s="196"/>
+      <c r="A37" s="183"/>
+      <c r="B37" s="181"/>
+      <c r="C37" s="181"/>
+      <c r="D37" s="181"/>
+      <c r="E37" s="181"/>
+      <c r="F37" s="181"/>
+      <c r="G37" s="181"/>
+      <c r="H37" s="181"/>
+      <c r="I37" s="181"/>
+      <c r="J37" s="181"/>
+      <c r="K37" s="182"/>
+      <c r="L37" s="182"/>
+      <c r="M37" s="182"/>
+      <c r="N37" s="181"/>
+      <c r="O37" s="181"/>
+      <c r="P37" s="181"/>
+      <c r="Q37" s="181"/>
+      <c r="R37" s="181"/>
+      <c r="S37" s="181"/>
+      <c r="T37" s="181"/>
+      <c r="U37" s="177"/>
       <c r="AB37" s="31" t="str">
         <f>'3_PDC'!T14</f>
         <v>Dalla Pietà Massimo</v>
@@ -14300,7 +14300,7 @@
         <f>'3_PDC'!Z14</f>
         <v>PDC 4.3</v>
       </c>
-      <c r="AI37" s="177">
+      <c r="AI37" s="184">
         <f>'3_PDC'!AA14</f>
         <v>57</v>
       </c>
@@ -14382,50 +14382,50 @@
       </c>
     </row>
     <row r="38" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A38" s="195" t="s">
+      <c r="A38" s="180" t="s">
         <v>14</v>
       </c>
-      <c r="B38" s="188">
+      <c r="B38" s="181">
         <f>SUM(B24:D37)</f>
         <v>59</v>
       </c>
-      <c r="C38" s="188"/>
-      <c r="D38" s="188"/>
-      <c r="E38" s="188">
+      <c r="C38" s="181"/>
+      <c r="D38" s="181"/>
+      <c r="E38" s="181">
         <f t="shared" ref="E38" si="57">SUM(E24:G37)</f>
         <v>49</v>
       </c>
-      <c r="F38" s="188"/>
-      <c r="G38" s="188"/>
-      <c r="H38" s="188">
+      <c r="F38" s="181"/>
+      <c r="G38" s="181"/>
+      <c r="H38" s="181">
         <f>SUM(H24:J37)</f>
         <v>20</v>
       </c>
-      <c r="I38" s="188"/>
-      <c r="J38" s="188"/>
-      <c r="K38" s="188">
+      <c r="I38" s="181"/>
+      <c r="J38" s="181"/>
+      <c r="K38" s="181">
         <f t="shared" ref="K38" si="58">SUM(K24:M37)</f>
         <v>199</v>
       </c>
-      <c r="L38" s="188"/>
-      <c r="M38" s="188"/>
-      <c r="N38" s="188">
+      <c r="L38" s="181"/>
+      <c r="M38" s="181"/>
+      <c r="N38" s="181">
         <f t="shared" ref="N38" si="59">SUM(N24:P37)</f>
         <v>243</v>
       </c>
-      <c r="O38" s="188"/>
-      <c r="P38" s="188"/>
-      <c r="Q38" s="188">
+      <c r="O38" s="181"/>
+      <c r="P38" s="181"/>
+      <c r="Q38" s="181">
         <f>SUM(Q24:S37)</f>
         <v>120</v>
       </c>
-      <c r="R38" s="188"/>
-      <c r="S38" s="188"/>
+      <c r="R38" s="181"/>
+      <c r="S38" s="181"/>
       <c r="T38" s="199">
         <f>SUM(B38:S39)</f>
         <v>690</v>
       </c>
-      <c r="U38" s="196"/>
+      <c r="U38" s="177"/>
       <c r="AB38" s="31">
         <f>'3_PDC'!T15</f>
         <v>0</v>
@@ -14454,7 +14454,7 @@
         <f>'3_PDC'!Z15</f>
         <v>PDC 7</v>
       </c>
-      <c r="AI38" s="177"/>
+      <c r="AI38" s="184"/>
       <c r="AO38">
         <f t="shared" si="52"/>
         <v>0</v>
@@ -14533,27 +14533,27 @@
       </c>
     </row>
     <row r="39" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A39" s="195"/>
-      <c r="B39" s="188"/>
-      <c r="C39" s="188"/>
-      <c r="D39" s="188"/>
-      <c r="E39" s="188"/>
-      <c r="F39" s="188"/>
-      <c r="G39" s="188"/>
-      <c r="H39" s="188"/>
-      <c r="I39" s="188"/>
-      <c r="J39" s="188"/>
-      <c r="K39" s="188"/>
-      <c r="L39" s="188"/>
-      <c r="M39" s="188"/>
-      <c r="N39" s="188"/>
-      <c r="O39" s="188"/>
-      <c r="P39" s="188"/>
-      <c r="Q39" s="188"/>
-      <c r="R39" s="188"/>
-      <c r="S39" s="188"/>
+      <c r="A39" s="180"/>
+      <c r="B39" s="181"/>
+      <c r="C39" s="181"/>
+      <c r="D39" s="181"/>
+      <c r="E39" s="181"/>
+      <c r="F39" s="181"/>
+      <c r="G39" s="181"/>
+      <c r="H39" s="181"/>
+      <c r="I39" s="181"/>
+      <c r="J39" s="181"/>
+      <c r="K39" s="181"/>
+      <c r="L39" s="181"/>
+      <c r="M39" s="181"/>
+      <c r="N39" s="181"/>
+      <c r="O39" s="181"/>
+      <c r="P39" s="181"/>
+      <c r="Q39" s="181"/>
+      <c r="R39" s="181"/>
+      <c r="S39" s="181"/>
       <c r="T39" s="199"/>
-      <c r="U39" s="196"/>
+      <c r="U39" s="177"/>
       <c r="AB39" s="47" t="str">
         <f>'3_PDC'!T16</f>
         <v>Braghetto Lorenzo</v>
@@ -14582,7 +14582,7 @@
         <f>'3_PDC'!Z16</f>
         <v>PDC 4.4</v>
       </c>
-      <c r="AI39" s="177">
+      <c r="AI39" s="184">
         <f>'3_PDC'!AA16</f>
         <v>54</v>
       </c>
@@ -14693,7 +14693,7 @@
         <f>'3_PDC'!Z17</f>
         <v>PDC 7</v>
       </c>
-      <c r="AI40" s="177"/>
+      <c r="AI40" s="184"/>
       <c r="AO40">
         <f t="shared" si="52"/>
         <v>0</v>
@@ -14801,7 +14801,7 @@
         <f>'3_PDC'!Z18</f>
         <v>PDC 6</v>
       </c>
-      <c r="AI41" s="177">
+      <c r="AI41" s="184">
         <f>'3_PDC'!AA18</f>
         <v>54</v>
       </c>
@@ -14912,7 +14912,7 @@
         <f>'3_PDC'!Z19</f>
         <v>PDC 3.2, 5 e 7</v>
       </c>
-      <c r="AI42" s="177"/>
+      <c r="AI42" s="184"/>
       <c r="AO42">
         <f t="shared" si="52"/>
         <v>0</v>
@@ -15020,7 +15020,7 @@
         <f>'3_PDC'!Z20</f>
         <v>PDC 4.3</v>
       </c>
-      <c r="AI43" s="177">
+      <c r="AI43" s="184">
         <f>'3_PDC'!AA20</f>
         <v>52</v>
       </c>
@@ -15131,7 +15131,7 @@
         <f>'3_PDC'!Z21</f>
         <v>PDC 7</v>
       </c>
-      <c r="AI44" s="178"/>
+      <c r="AI44" s="198"/>
       <c r="AO44">
         <f t="shared" si="52"/>
         <v>0</v>
@@ -15224,19 +15224,19 @@
       <c r="AB46" s="149" t="s">
         <v>128</v>
       </c>
-      <c r="AC46" s="179" t="str">
+      <c r="AC46" s="192" t="str">
         <f>'4_VV'!U3</f>
         <v>I Periodo</v>
       </c>
-      <c r="AD46" s="180"/>
-      <c r="AE46" s="181"/>
-      <c r="AF46" s="179" t="str">
+      <c r="AD46" s="193"/>
+      <c r="AE46" s="194"/>
+      <c r="AF46" s="192" t="str">
         <f>'4_VV'!X3</f>
         <v>II Periodo</v>
       </c>
-      <c r="AG46" s="180"/>
-      <c r="AH46" s="182"/>
-      <c r="AI46" s="183" t="str">
+      <c r="AG46" s="193"/>
+      <c r="AH46" s="195"/>
+      <c r="AI46" s="188" t="str">
         <f>'4_VV'!AA3</f>
         <v>Totale</v>
       </c>
@@ -15276,7 +15276,7 @@
         <f>'4_VV'!Z4</f>
         <v>Fase</v>
       </c>
-      <c r="AI47" s="184"/>
+      <c r="AI47" s="189"/>
       <c r="BG47" s="158">
         <f t="shared" si="13"/>
         <v>0</v>
@@ -15312,7 +15312,7 @@
         <f>'4_VV'!Z5</f>
         <v>VV 3.2</v>
       </c>
-      <c r="AI48" s="185">
+      <c r="AI48" s="196">
         <f>'4_VV'!AA5</f>
         <v>18</v>
       </c>
@@ -15426,7 +15426,7 @@
         <f>'4_VV'!Z6</f>
         <v>0</v>
       </c>
-      <c r="AI49" s="177"/>
+      <c r="AI49" s="184"/>
       <c r="AO49">
         <f>IF($AC49=AO$2,$AD49,0)</f>
         <v>0</v>
@@ -15533,7 +15533,7 @@
         <f>'4_VV'!Z7</f>
         <v>VV 3.2</v>
       </c>
-      <c r="AI50" s="177">
+      <c r="AI50" s="184">
         <f>'4_VV'!AA7</f>
         <v>18</v>
       </c>
@@ -15662,7 +15662,7 @@
         <f>'4_VV'!Z8</f>
         <v>VV 3.2</v>
       </c>
-      <c r="AI51" s="177"/>
+      <c r="AI51" s="184"/>
       <c r="AO51">
         <f t="shared" si="75"/>
         <v>0</v>
@@ -15783,7 +15783,7 @@
         <f>'4_VV'!Z9</f>
         <v>VV 3.1</v>
       </c>
-      <c r="AI52" s="177">
+      <c r="AI52" s="184">
         <f>'4_VV'!AA9</f>
         <v>18</v>
       </c>
@@ -15907,7 +15907,7 @@
         <f>'4_VV'!Z10</f>
         <v>0</v>
       </c>
-      <c r="AI53" s="177"/>
+      <c r="AI53" s="184"/>
       <c r="AO53">
         <f t="shared" si="75"/>
         <v>0</v>
@@ -16028,7 +16028,7 @@
         <f>'4_VV'!Z11</f>
         <v>VV 3.1</v>
       </c>
-      <c r="AI54" s="177">
+      <c r="AI54" s="184">
         <f>'4_VV'!AA11</f>
         <v>18</v>
       </c>
@@ -16152,7 +16152,7 @@
         <f>'4_VV'!Z12</f>
         <v>0</v>
       </c>
-      <c r="AI55" s="177"/>
+      <c r="AI55" s="184"/>
       <c r="AO55">
         <f t="shared" si="75"/>
         <v>0</v>
@@ -16273,7 +16273,7 @@
         <f>'4_VV'!Z13</f>
         <v>VV 3.1</v>
       </c>
-      <c r="AI56" s="177">
+      <c r="AI56" s="184">
         <f>'4_VV'!AA13</f>
         <v>18</v>
       </c>
@@ -16397,7 +16397,7 @@
         <f>'4_VV'!Z14</f>
         <v>0</v>
       </c>
-      <c r="AI57" s="177"/>
+      <c r="AI57" s="184"/>
       <c r="AO57">
         <f t="shared" si="75"/>
         <v>0</v>
@@ -16515,7 +16515,7 @@
         <f>'4_VV'!Z15</f>
         <v>VV 3.1</v>
       </c>
-      <c r="AI58" s="177">
+      <c r="AI58" s="184">
         <f>'4_VV'!AA15</f>
         <v>18</v>
       </c>
@@ -16625,7 +16625,7 @@
         <f>'4_VV'!Z16</f>
         <v>0</v>
       </c>
-      <c r="AI59" s="177"/>
+      <c r="AI59" s="184"/>
       <c r="AO59">
         <f t="shared" si="75"/>
         <v>0</v>
@@ -16732,7 +16732,7 @@
         <f>'4_VV'!Z17</f>
         <v>VV 3.1</v>
       </c>
-      <c r="AI60" s="177">
+      <c r="AI60" s="184">
         <f>'4_VV'!AA17</f>
         <v>16</v>
       </c>
@@ -16842,7 +16842,7 @@
         <f>'4_VV'!Z18</f>
         <v>0</v>
       </c>
-      <c r="AI61" s="178"/>
+      <c r="AI61" s="198"/>
       <c r="AO61">
         <f t="shared" si="75"/>
         <v>0</v>
@@ -16922,24 +16922,76 @@
     </row>
   </sheetData>
   <mergeCells count="112">
-    <mergeCell ref="AI56:AI57"/>
-    <mergeCell ref="AI58:AI59"/>
-    <mergeCell ref="AI60:AI61"/>
-    <mergeCell ref="AC46:AE46"/>
-    <mergeCell ref="AF46:AH46"/>
-    <mergeCell ref="AI46:AI47"/>
-    <mergeCell ref="AI48:AI49"/>
-    <mergeCell ref="AI50:AI51"/>
-    <mergeCell ref="AI52:AI53"/>
-    <mergeCell ref="AI39:AI40"/>
-    <mergeCell ref="AI41:AI42"/>
-    <mergeCell ref="AI43:AI44"/>
-    <mergeCell ref="Q36:S37"/>
-    <mergeCell ref="T36:T37"/>
-    <mergeCell ref="U36:U37"/>
-    <mergeCell ref="AI37:AI38"/>
-    <mergeCell ref="AI35:AI36"/>
-    <mergeCell ref="AI54:AI55"/>
+    <mergeCell ref="AC2:AE2"/>
+    <mergeCell ref="AF2:AH2"/>
+    <mergeCell ref="AI2:AI3"/>
+    <mergeCell ref="AC12:AE12"/>
+    <mergeCell ref="AF12:AH12"/>
+    <mergeCell ref="AI12:AK12"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="K23:M23"/>
+    <mergeCell ref="N23:P23"/>
+    <mergeCell ref="Q23:S23"/>
+    <mergeCell ref="AL12:AL13"/>
+    <mergeCell ref="AL14:AL15"/>
+    <mergeCell ref="AL16:AL17"/>
+    <mergeCell ref="AL18:AL19"/>
+    <mergeCell ref="AL20:AL21"/>
+    <mergeCell ref="AL22:AL23"/>
+    <mergeCell ref="AL26:AL27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:D29"/>
+    <mergeCell ref="E28:G29"/>
+    <mergeCell ref="H28:J29"/>
+    <mergeCell ref="K28:M29"/>
+    <mergeCell ref="N28:P29"/>
+    <mergeCell ref="Q24:S25"/>
+    <mergeCell ref="T24:T25"/>
+    <mergeCell ref="U24:U25"/>
+    <mergeCell ref="AL24:AL25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:D27"/>
+    <mergeCell ref="E26:G27"/>
+    <mergeCell ref="H26:J27"/>
+    <mergeCell ref="K26:M27"/>
+    <mergeCell ref="N26:P27"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="AF29:AH29"/>
+    <mergeCell ref="AI29:AI30"/>
+    <mergeCell ref="Q30:S31"/>
+    <mergeCell ref="T30:T31"/>
+    <mergeCell ref="U30:U31"/>
+    <mergeCell ref="AI31:AI32"/>
+    <mergeCell ref="Q26:S27"/>
+    <mergeCell ref="T26:T27"/>
+    <mergeCell ref="U26:U27"/>
+    <mergeCell ref="Q32:S33"/>
+    <mergeCell ref="T32:T33"/>
+    <mergeCell ref="U32:U33"/>
+    <mergeCell ref="AI33:AI34"/>
+    <mergeCell ref="Q28:S29"/>
+    <mergeCell ref="T28:T29"/>
+    <mergeCell ref="U28:U29"/>
+    <mergeCell ref="B24:D25"/>
+    <mergeCell ref="E24:G25"/>
+    <mergeCell ref="H24:J25"/>
+    <mergeCell ref="K24:M25"/>
+    <mergeCell ref="N24:P25"/>
+    <mergeCell ref="AC29:AE29"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:D33"/>
+    <mergeCell ref="E32:G33"/>
+    <mergeCell ref="H32:J33"/>
+    <mergeCell ref="K32:M33"/>
+    <mergeCell ref="N32:P33"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:D31"/>
+    <mergeCell ref="E30:G31"/>
+    <mergeCell ref="H30:J31"/>
+    <mergeCell ref="K30:M31"/>
+    <mergeCell ref="N30:P31"/>
     <mergeCell ref="A38:A39"/>
     <mergeCell ref="B38:D39"/>
     <mergeCell ref="E38:G39"/>
@@ -16964,76 +17016,24 @@
     <mergeCell ref="H34:J35"/>
     <mergeCell ref="K34:M35"/>
     <mergeCell ref="N34:P35"/>
-    <mergeCell ref="B24:D25"/>
-    <mergeCell ref="E24:G25"/>
-    <mergeCell ref="H24:J25"/>
-    <mergeCell ref="K24:M25"/>
-    <mergeCell ref="N24:P25"/>
-    <mergeCell ref="AC29:AE29"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:D33"/>
-    <mergeCell ref="E32:G33"/>
-    <mergeCell ref="H32:J33"/>
-    <mergeCell ref="K32:M33"/>
-    <mergeCell ref="N32:P33"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:D31"/>
-    <mergeCell ref="E30:G31"/>
-    <mergeCell ref="H30:J31"/>
-    <mergeCell ref="K30:M31"/>
-    <mergeCell ref="N30:P31"/>
-    <mergeCell ref="AF29:AH29"/>
-    <mergeCell ref="AI29:AI30"/>
-    <mergeCell ref="Q30:S31"/>
-    <mergeCell ref="T30:T31"/>
-    <mergeCell ref="U30:U31"/>
-    <mergeCell ref="AI31:AI32"/>
-    <mergeCell ref="Q26:S27"/>
-    <mergeCell ref="T26:T27"/>
-    <mergeCell ref="U26:U27"/>
-    <mergeCell ref="Q32:S33"/>
-    <mergeCell ref="T32:T33"/>
-    <mergeCell ref="U32:U33"/>
-    <mergeCell ref="AI33:AI34"/>
-    <mergeCell ref="Q28:S29"/>
-    <mergeCell ref="T28:T29"/>
-    <mergeCell ref="U28:U29"/>
-    <mergeCell ref="AL12:AL13"/>
-    <mergeCell ref="AL14:AL15"/>
-    <mergeCell ref="AL16:AL17"/>
-    <mergeCell ref="AL18:AL19"/>
-    <mergeCell ref="AL20:AL21"/>
-    <mergeCell ref="AL22:AL23"/>
-    <mergeCell ref="AL26:AL27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:D29"/>
-    <mergeCell ref="E28:G29"/>
-    <mergeCell ref="H28:J29"/>
-    <mergeCell ref="K28:M29"/>
-    <mergeCell ref="N28:P29"/>
-    <mergeCell ref="Q24:S25"/>
-    <mergeCell ref="T24:T25"/>
-    <mergeCell ref="U24:U25"/>
-    <mergeCell ref="AL24:AL25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:D27"/>
-    <mergeCell ref="E26:G27"/>
-    <mergeCell ref="H26:J27"/>
-    <mergeCell ref="K26:M27"/>
-    <mergeCell ref="N26:P27"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="AC2:AE2"/>
-    <mergeCell ref="AF2:AH2"/>
-    <mergeCell ref="AI2:AI3"/>
-    <mergeCell ref="AC12:AE12"/>
-    <mergeCell ref="AF12:AH12"/>
-    <mergeCell ref="AI12:AK12"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="K23:M23"/>
-    <mergeCell ref="N23:P23"/>
-    <mergeCell ref="Q23:S23"/>
+    <mergeCell ref="AI39:AI40"/>
+    <mergeCell ref="AI41:AI42"/>
+    <mergeCell ref="AI43:AI44"/>
+    <mergeCell ref="Q36:S37"/>
+    <mergeCell ref="T36:T37"/>
+    <mergeCell ref="U36:U37"/>
+    <mergeCell ref="AI37:AI38"/>
+    <mergeCell ref="AI35:AI36"/>
+    <mergeCell ref="AI54:AI55"/>
+    <mergeCell ref="AI56:AI57"/>
+    <mergeCell ref="AI58:AI59"/>
+    <mergeCell ref="AI60:AI61"/>
+    <mergeCell ref="AC46:AE46"/>
+    <mergeCell ref="AF46:AH46"/>
+    <mergeCell ref="AI46:AI47"/>
+    <mergeCell ref="AI48:AI49"/>
+    <mergeCell ref="AI50:AI51"/>
+    <mergeCell ref="AI52:AI53"/>
   </mergeCells>
   <conditionalFormatting sqref="AB14:AL27">
     <cfRule type="cellIs" dxfId="20" priority="5" operator="equal">
@@ -17167,20 +17167,20 @@
       <c r="N2" s="155">
         <v>30</v>
       </c>
-      <c r="O2" s="183" t="s">
-        <v>0</v>
-      </c>
-      <c r="P2" s="189" t="s">
+      <c r="O2" s="188" t="s">
+        <v>0</v>
+      </c>
+      <c r="P2" s="185" t="s">
         <v>18</v>
       </c>
-      <c r="Q2" s="190"/>
-      <c r="R2" s="191"/>
-      <c r="S2" s="189" t="s">
+      <c r="Q2" s="186"/>
+      <c r="R2" s="187"/>
+      <c r="S2" s="185" t="s">
         <v>19</v>
       </c>
-      <c r="T2" s="190"/>
-      <c r="U2" s="191"/>
-      <c r="V2" s="183" t="s">
+      <c r="T2" s="186"/>
+      <c r="U2" s="187"/>
+      <c r="V2" s="188" t="s">
         <v>14</v>
       </c>
     </row>
@@ -17242,7 +17242,7 @@
       <c r="U3" s="106" t="s">
         <v>39</v>
       </c>
-      <c r="V3" s="184"/>
+      <c r="V3" s="189"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
@@ -17950,7 +17950,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N33" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="D27" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="AD47" sqref="AD47"/>
     </sheetView>
   </sheetViews>
@@ -18460,29 +18460,29 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O9" s="179"/>
-      <c r="P9" s="180"/>
-      <c r="Q9" s="180"/>
-      <c r="R9" s="181"/>
-      <c r="U9" s="183" t="s">
-        <v>0</v>
-      </c>
-      <c r="V9" s="179" t="s">
+      <c r="O9" s="192"/>
+      <c r="P9" s="193"/>
+      <c r="Q9" s="193"/>
+      <c r="R9" s="194"/>
+      <c r="U9" s="188" t="s">
+        <v>0</v>
+      </c>
+      <c r="V9" s="192" t="s">
         <v>18</v>
       </c>
-      <c r="W9" s="180"/>
-      <c r="X9" s="181"/>
-      <c r="Y9" s="179" t="s">
+      <c r="W9" s="193"/>
+      <c r="X9" s="194"/>
+      <c r="Y9" s="192" t="s">
         <v>19</v>
       </c>
-      <c r="Z9" s="180"/>
-      <c r="AA9" s="181"/>
-      <c r="AB9" s="179" t="s">
+      <c r="Z9" s="193"/>
+      <c r="AA9" s="194"/>
+      <c r="AB9" s="192" t="s">
         <v>114</v>
       </c>
-      <c r="AC9" s="180"/>
-      <c r="AD9" s="182"/>
-      <c r="AE9" s="183" t="s">
+      <c r="AC9" s="193"/>
+      <c r="AD9" s="195"/>
+      <c r="AE9" s="188" t="s">
         <v>14</v>
       </c>
     </row>
@@ -18521,11 +18521,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O10" s="206"/>
+      <c r="O10" s="201"/>
       <c r="P10" s="93"/>
       <c r="Q10" s="93"/>
       <c r="R10" s="94"/>
-      <c r="U10" s="184"/>
+      <c r="U10" s="189"/>
       <c r="V10" s="26" t="s">
         <v>26</v>
       </c>
@@ -18553,7 +18553,7 @@
       <c r="AD10" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="AE10" s="184"/>
+      <c r="AE10" s="189"/>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
@@ -18628,7 +18628,7 @@
       <c r="AD11" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="AE11" s="185">
+      <c r="AE11" s="196">
         <f>SUM(Z11:Z12,AC11:AC12,W11:W12)</f>
         <v>26</v>
       </c>
@@ -18686,7 +18686,7 @@
       <c r="AB12" s="36"/>
       <c r="AC12" s="37"/>
       <c r="AD12" s="139"/>
-      <c r="AE12" s="177"/>
+      <c r="AE12" s="184"/>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" s="12"/>
@@ -18757,7 +18757,7 @@
       <c r="AD13" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="AE13" s="177">
+      <c r="AE13" s="184">
         <f t="shared" ref="AE13" si="7">SUM(Z13:Z14,AC13:AC14,W13:W14)</f>
         <v>27</v>
       </c>
@@ -18821,7 +18821,7 @@
       <c r="AB14" s="32"/>
       <c r="AC14" s="33"/>
       <c r="AD14" s="7"/>
-      <c r="AE14" s="177"/>
+      <c r="AE14" s="184"/>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
@@ -18896,7 +18896,7 @@
       <c r="AD15" s="79" t="s">
         <v>112</v>
       </c>
-      <c r="AE15" s="177">
+      <c r="AE15" s="184">
         <f t="shared" ref="AE15" si="8">SUM(Z15:Z16,AC15:AC16,W15:W16)</f>
         <v>26</v>
       </c>
@@ -18966,7 +18966,7 @@
       <c r="AD16" s="39" t="s">
         <v>132</v>
       </c>
-      <c r="AE16" s="177"/>
+      <c r="AE16" s="184"/>
     </row>
     <row r="17" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="22" t="s">
@@ -19041,7 +19041,7 @@
       <c r="AD17" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="AE17" s="177">
+      <c r="AE17" s="184">
         <f t="shared" ref="AE17" si="9">SUM(Z17:Z18,AC17:AC18,W17:W18)</f>
         <v>28</v>
       </c>
@@ -19107,7 +19107,7 @@
       <c r="AD18" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="AE18" s="177"/>
+      <c r="AE18" s="184"/>
     </row>
     <row r="19" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="U19" s="47" t="s">
@@ -19140,7 +19140,7 @@
       <c r="AD19" s="40" t="s">
         <v>120</v>
       </c>
-      <c r="AE19" s="177">
+      <c r="AE19" s="184">
         <f t="shared" ref="AE19" si="10">SUM(Z19:Z20,AC19:AC20,W19:W20)</f>
         <v>30</v>
       </c>
@@ -19187,7 +19187,7 @@
         <v>2</v>
       </c>
       <c r="AD20" s="39"/>
-      <c r="AE20" s="177"/>
+      <c r="AE20" s="184"/>
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="U21" s="31" t="s">
@@ -19220,7 +19220,7 @@
       <c r="AD21" s="85" t="s">
         <v>136</v>
       </c>
-      <c r="AE21" s="177">
+      <c r="AE21" s="184">
         <f t="shared" ref="AE21" si="11">SUM(Z21:Z22,AC21:AC22,W21:W22)</f>
         <v>28</v>
       </c>
@@ -19237,7 +19237,7 @@
       <c r="AB22" s="32"/>
       <c r="AC22" s="33"/>
       <c r="AD22" s="7"/>
-      <c r="AE22" s="177"/>
+      <c r="AE22" s="184"/>
     </row>
     <row r="23" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O23" s="30"/>
@@ -19271,7 +19271,7 @@
       <c r="AD23" s="40" t="s">
         <v>112</v>
       </c>
-      <c r="AE23" s="177">
+      <c r="AE23" s="184">
         <f t="shared" ref="AE23" si="12">SUM(Z23:Z24,AC23:AC24,W23:W24)</f>
         <v>28</v>
       </c>
@@ -19335,7 +19335,7 @@
       <c r="AD24" s="67" t="s">
         <v>120</v>
       </c>
-      <c r="AE24" s="178"/>
+      <c r="AE24" s="198"/>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
@@ -19561,25 +19561,25 @@
       <c r="R28" s="155">
         <v>15</v>
       </c>
-      <c r="U28" s="204" t="s">
-        <v>0</v>
-      </c>
-      <c r="V28" s="189" t="s">
+      <c r="U28" s="202" t="s">
+        <v>0</v>
+      </c>
+      <c r="V28" s="185" t="s">
         <v>18</v>
       </c>
-      <c r="W28" s="192"/>
-      <c r="X28" s="193"/>
-      <c r="Y28" s="189" t="s">
+      <c r="W28" s="190"/>
+      <c r="X28" s="191"/>
+      <c r="Y28" s="185" t="s">
         <v>19</v>
       </c>
-      <c r="Z28" s="192"/>
-      <c r="AA28" s="193"/>
-      <c r="AB28" s="189" t="s">
+      <c r="Z28" s="190"/>
+      <c r="AA28" s="191"/>
+      <c r="AB28" s="185" t="s">
         <v>114</v>
       </c>
-      <c r="AC28" s="192"/>
-      <c r="AD28" s="193"/>
-      <c r="AE28" s="204" t="s">
+      <c r="AC28" s="190"/>
+      <c r="AD28" s="191"/>
+      <c r="AE28" s="202" t="s">
         <v>14</v>
       </c>
     </row>
@@ -19632,7 +19632,7 @@
       <c r="R29" s="155">
         <v>22</v>
       </c>
-      <c r="U29" s="205"/>
+      <c r="U29" s="203"/>
       <c r="V29" s="26" t="s">
         <v>26</v>
       </c>
@@ -19660,7 +19660,7 @@
       <c r="AD29" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="AE29" s="205"/>
+      <c r="AE29" s="203"/>
     </row>
     <row r="30" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="15" t="s">
@@ -19744,7 +19744,7 @@
       <c r="AD30" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="AE30" s="203">
+      <c r="AE30" s="206">
         <f>SUM(Z30:Z31,AC30:AC31,W30:W31)</f>
         <v>27</v>
       </c>
@@ -19800,7 +19800,7 @@
       <c r="AB31" s="36"/>
       <c r="AC31" s="37"/>
       <c r="AD31" s="139"/>
-      <c r="AE31" s="185"/>
+      <c r="AE31" s="196"/>
     </row>
     <row r="32" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A32" s="22" t="s">
@@ -19871,7 +19871,7 @@
       <c r="AD32" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="AE32" s="201">
+      <c r="AE32" s="204">
         <f t="shared" ref="AE32" si="20">SUM(Z32:Z33,AC32:AC33,W32:W33)</f>
         <v>27</v>
       </c>
@@ -19927,7 +19927,7 @@
       <c r="AB33" s="32"/>
       <c r="AC33" s="33"/>
       <c r="AD33" s="7"/>
-      <c r="AE33" s="185"/>
+      <c r="AE33" s="196"/>
     </row>
     <row r="34" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
@@ -19998,7 +19998,7 @@
       <c r="AD34" s="79" t="s">
         <v>112</v>
       </c>
-      <c r="AE34" s="201">
+      <c r="AE34" s="204">
         <f t="shared" ref="AE34" si="21">SUM(Z34:Z35,AC34:AC35,W34:W35)</f>
         <v>29</v>
       </c>
@@ -20064,7 +20064,7 @@
       <c r="AD35" s="39" t="s">
         <v>132</v>
       </c>
-      <c r="AE35" s="185"/>
+      <c r="AE35" s="196"/>
     </row>
     <row r="36" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A36" s="12"/>
@@ -20131,7 +20131,7 @@
       <c r="AD36" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="AE36" s="201">
+      <c r="AE36" s="204">
         <f t="shared" ref="AE36" si="22">SUM(Z36:Z37,AC36:AC37,W36:W37)</f>
         <v>27</v>
       </c>
@@ -20197,7 +20197,7 @@
       <c r="AD37" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="AE37" s="185"/>
+      <c r="AE37" s="196"/>
     </row>
     <row r="38" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
@@ -20268,7 +20268,7 @@
       <c r="AD38" s="40" t="s">
         <v>120</v>
       </c>
-      <c r="AE38" s="201">
+      <c r="AE38" s="204">
         <f t="shared" ref="AE38" si="23">SUM(Z38:Z39,AC38:AC39,W38:W39)</f>
         <v>27</v>
       </c>
@@ -20328,7 +20328,7 @@
       <c r="AB39" s="36"/>
       <c r="AC39" s="37"/>
       <c r="AD39" s="39"/>
-      <c r="AE39" s="185"/>
+      <c r="AE39" s="196"/>
     </row>
     <row r="40" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A40" s="22" t="s">
@@ -20399,7 +20399,7 @@
       <c r="AD40" s="85" t="s">
         <v>136</v>
       </c>
-      <c r="AE40" s="201">
+      <c r="AE40" s="204">
         <f t="shared" ref="AE40" si="24">SUM(Z40:Z41,AC40:AC41,W40:W41)</f>
         <v>27</v>
       </c>
@@ -20449,7 +20449,7 @@
       <c r="AB41" s="32"/>
       <c r="AC41" s="33"/>
       <c r="AD41" s="7"/>
-      <c r="AE41" s="185"/>
+      <c r="AE41" s="196"/>
     </row>
     <row r="42" spans="1:31" x14ac:dyDescent="0.25">
       <c r="U42" s="47" t="s">
@@ -20482,7 +20482,7 @@
       <c r="AD42" s="40" t="s">
         <v>112</v>
       </c>
-      <c r="AE42" s="201">
+      <c r="AE42" s="204">
         <f t="shared" ref="AE42" si="25">SUM(Z42:Z43,AC42:AC43,W42:W43)</f>
         <v>29</v>
       </c>
@@ -20510,7 +20510,7 @@
       <c r="AD43" s="67" t="s">
         <v>120</v>
       </c>
-      <c r="AE43" s="202"/>
+      <c r="AE43" s="205"/>
     </row>
     <row r="49" spans="35:35" x14ac:dyDescent="0.25">
       <c r="AI49" t="s">
@@ -20519,12 +20519,18 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="AB9:AD9"/>
-    <mergeCell ref="O9:O10"/>
-    <mergeCell ref="P9:R9"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="V9:X9"/>
-    <mergeCell ref="Y9:AA9"/>
+    <mergeCell ref="AE40:AE41"/>
+    <mergeCell ref="AE42:AE43"/>
+    <mergeCell ref="AE30:AE31"/>
+    <mergeCell ref="AE32:AE33"/>
+    <mergeCell ref="AE34:AE35"/>
+    <mergeCell ref="AE36:AE37"/>
+    <mergeCell ref="AE38:AE39"/>
+    <mergeCell ref="U28:U29"/>
+    <mergeCell ref="V28:X28"/>
+    <mergeCell ref="Y28:AA28"/>
+    <mergeCell ref="AB28:AD28"/>
+    <mergeCell ref="AE28:AE29"/>
     <mergeCell ref="AE21:AE22"/>
     <mergeCell ref="AE23:AE24"/>
     <mergeCell ref="AE9:AE10"/>
@@ -20533,18 +20539,12 @@
     <mergeCell ref="AE15:AE16"/>
     <mergeCell ref="AE17:AE18"/>
     <mergeCell ref="AE19:AE20"/>
-    <mergeCell ref="U28:U29"/>
-    <mergeCell ref="V28:X28"/>
-    <mergeCell ref="Y28:AA28"/>
-    <mergeCell ref="AB28:AD28"/>
-    <mergeCell ref="AE28:AE29"/>
-    <mergeCell ref="AE40:AE41"/>
-    <mergeCell ref="AE42:AE43"/>
-    <mergeCell ref="AE30:AE31"/>
-    <mergeCell ref="AE32:AE33"/>
-    <mergeCell ref="AE34:AE35"/>
-    <mergeCell ref="AE36:AE37"/>
-    <mergeCell ref="AE38:AE39"/>
+    <mergeCell ref="AB9:AD9"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="P9:R9"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="V9:X9"/>
+    <mergeCell ref="Y9:AA9"/>
   </mergeCells>
   <conditionalFormatting sqref="Z26">
     <cfRule type="cellIs" dxfId="15" priority="15" operator="notEqual">
@@ -20588,8 +20588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD32"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="Y21" activeCellId="1" sqref="Y15 Y21"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="Q7" sqref="O1:Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20919,20 +20919,20 @@
       <c r="R6" s="155">
         <v>15</v>
       </c>
-      <c r="T6" s="183" t="s">
-        <v>0</v>
-      </c>
-      <c r="U6" s="179" t="s">
+      <c r="T6" s="188" t="s">
+        <v>0</v>
+      </c>
+      <c r="U6" s="192" t="s">
         <v>18</v>
       </c>
-      <c r="V6" s="180"/>
-      <c r="W6" s="181"/>
-      <c r="X6" s="179" t="s">
+      <c r="V6" s="193"/>
+      <c r="W6" s="194"/>
+      <c r="X6" s="192" t="s">
         <v>19</v>
       </c>
-      <c r="Y6" s="180"/>
-      <c r="Z6" s="182"/>
-      <c r="AA6" s="183" t="s">
+      <c r="Y6" s="193"/>
+      <c r="Z6" s="195"/>
+      <c r="AA6" s="188" t="s">
         <v>14</v>
       </c>
     </row>
@@ -20985,7 +20985,7 @@
         <f>SUM(Q2:Q6)</f>
         <v>6982</v>
       </c>
-      <c r="T7" s="184"/>
+      <c r="T7" s="189"/>
       <c r="U7" s="26" t="s">
         <v>26</v>
       </c>
@@ -21004,7 +21004,7 @@
       <c r="Z7" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="AA7" s="184"/>
+      <c r="AA7" s="189"/>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
@@ -21066,7 +21066,7 @@
       <c r="Z8" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="AA8" s="185">
+      <c r="AA8" s="196">
         <f>SUM(V8:V9,Y8:Y9)</f>
         <v>52</v>
       </c>
@@ -21118,7 +21118,7 @@
       <c r="Z9" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="AA9" s="177"/>
+      <c r="AA9" s="184"/>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
@@ -21179,7 +21179,7 @@
       <c r="Z10" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="AA10" s="177">
+      <c r="AA10" s="184">
         <f t="shared" ref="AA10" si="7">SUM(V10:V11,Y10:Y11)</f>
         <v>52</v>
       </c>
@@ -21241,7 +21241,7 @@
       <c r="Z11" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="AA11" s="177"/>
+      <c r="AA11" s="184"/>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" s="12"/>
@@ -21301,7 +21301,7 @@
       <c r="Z12" s="79" t="s">
         <v>130</v>
       </c>
-      <c r="AA12" s="177">
+      <c r="AA12" s="184">
         <f t="shared" ref="AA12" si="8">SUM(V12:V13,Y12:Y13)</f>
         <v>52</v>
       </c>
@@ -21366,7 +21366,7 @@
       <c r="Z13" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="AA13" s="177"/>
+      <c r="AA13" s="184"/>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
@@ -21430,7 +21430,7 @@
       <c r="Z14" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="AA14" s="177">
+      <c r="AA14" s="184">
         <f t="shared" ref="AA14" si="9">SUM(V14:V15,Y14:Y15)</f>
         <v>57</v>
       </c>
@@ -21491,7 +21491,7 @@
       <c r="Z15" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="AA15" s="177"/>
+      <c r="AA15" s="184"/>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
@@ -21555,7 +21555,7 @@
       <c r="Z16" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="AA16" s="177">
+      <c r="AA16" s="184">
         <f t="shared" ref="AA16" si="10">SUM(V16:V17,Y16:Y17)</f>
         <v>54</v>
       </c>
@@ -21620,7 +21620,7 @@
       <c r="Z17" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="AA17" s="177"/>
+      <c r="AA17" s="184"/>
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
@@ -21680,7 +21680,7 @@
       <c r="Z18" s="85" t="s">
         <v>58</v>
       </c>
-      <c r="AA18" s="177">
+      <c r="AA18" s="184">
         <f t="shared" ref="AA18" si="11">SUM(V18:V19,Y18:Y19)</f>
         <v>54</v>
       </c>
@@ -21745,7 +21745,7 @@
       <c r="Z19" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="AA19" s="177"/>
+      <c r="AA19" s="184"/>
     </row>
     <row r="20" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="12"/>
@@ -21805,7 +21805,7 @@
       <c r="Z20" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="AA20" s="177">
+      <c r="AA20" s="184">
         <f t="shared" ref="AA20" si="12">SUM(V20:V21,Y20:Y21)</f>
         <v>52</v>
       </c>
@@ -21864,7 +21864,7 @@
       <c r="Z21" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="AA21" s="178"/>
+      <c r="AA21" s="198"/>
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
@@ -22105,12 +22105,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="AA10:AA11"/>
-    <mergeCell ref="T6:T7"/>
-    <mergeCell ref="U6:W6"/>
-    <mergeCell ref="X6:Z6"/>
-    <mergeCell ref="AA6:AA7"/>
-    <mergeCell ref="AA8:AA9"/>
     <mergeCell ref="AA20:AA21"/>
     <mergeCell ref="O12:O13"/>
     <mergeCell ref="P12:Q12"/>
@@ -22118,6 +22112,12 @@
     <mergeCell ref="AA14:AA15"/>
     <mergeCell ref="AA16:AA17"/>
     <mergeCell ref="AA18:AA19"/>
+    <mergeCell ref="AA10:AA11"/>
+    <mergeCell ref="T6:T7"/>
+    <mergeCell ref="U6:W6"/>
+    <mergeCell ref="X6:Z6"/>
+    <mergeCell ref="AA6:AA7"/>
+    <mergeCell ref="AA8:AA9"/>
   </mergeCells>
   <conditionalFormatting sqref="Y24">
     <cfRule type="cellIs" dxfId="7" priority="3" operator="notEqual">
@@ -22325,20 +22325,20 @@
       <c r="R3" s="155">
         <v>20</v>
       </c>
-      <c r="T3" s="183" t="s">
-        <v>0</v>
-      </c>
-      <c r="U3" s="179" t="s">
+      <c r="T3" s="188" t="s">
+        <v>0</v>
+      </c>
+      <c r="U3" s="192" t="s">
         <v>18</v>
       </c>
-      <c r="V3" s="180"/>
-      <c r="W3" s="181"/>
-      <c r="X3" s="179" t="s">
+      <c r="V3" s="193"/>
+      <c r="W3" s="194"/>
+      <c r="X3" s="192" t="s">
         <v>19</v>
       </c>
-      <c r="Y3" s="180"/>
-      <c r="Z3" s="182"/>
-      <c r="AA3" s="183" t="s">
+      <c r="Y3" s="193"/>
+      <c r="Z3" s="195"/>
+      <c r="AA3" s="188" t="s">
         <v>14</v>
       </c>
     </row>
@@ -22390,7 +22390,7 @@
       <c r="R4" s="155">
         <v>15</v>
       </c>
-      <c r="T4" s="184"/>
+      <c r="T4" s="189"/>
       <c r="U4" s="26" t="s">
         <v>26</v>
       </c>
@@ -22409,7 +22409,7 @@
       <c r="Z4" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="AA4" s="184"/>
+      <c r="AA4" s="189"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="76" t="s">
@@ -22484,7 +22484,7 @@
       <c r="Z5" s="79" t="s">
         <v>71</v>
       </c>
-      <c r="AA5" s="185">
+      <c r="AA5" s="196">
         <f>SUM(V5:V6,Y5:Y6)</f>
         <v>18</v>
       </c>
@@ -22554,7 +22554,7 @@
       <c r="X6" s="81"/>
       <c r="Y6" s="37"/>
       <c r="Z6" s="83"/>
-      <c r="AA6" s="177"/>
+      <c r="AA6" s="184"/>
     </row>
     <row r="7" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12"/>
@@ -22622,7 +22622,7 @@
       <c r="Z7" s="85" t="s">
         <v>71</v>
       </c>
-      <c r="AA7" s="177">
+      <c r="AA7" s="184">
         <f t="shared" ref="AA7" si="7">SUM(V7:V8,Y7:Y8)</f>
         <v>18</v>
       </c>
@@ -22678,7 +22678,7 @@
       <c r="Z8" s="85" t="s">
         <v>71</v>
       </c>
-      <c r="AA8" s="177"/>
+      <c r="AA8" s="184"/>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="80" t="s">
@@ -22739,7 +22739,7 @@
       <c r="Z9" s="79" t="s">
         <v>68</v>
       </c>
-      <c r="AA9" s="177">
+      <c r="AA9" s="184">
         <f t="shared" ref="AA9" si="8">SUM(V9:V10,Y9:Y10)</f>
         <v>18</v>
       </c>
@@ -22785,7 +22785,7 @@
       <c r="X10" s="81"/>
       <c r="Y10" s="37"/>
       <c r="Z10" s="83"/>
-      <c r="AA10" s="177"/>
+      <c r="AA10" s="184"/>
     </row>
     <row r="11" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7"/>
@@ -22820,7 +22820,7 @@
       <c r="Z11" s="79" t="s">
         <v>68</v>
       </c>
-      <c r="AA11" s="177">
+      <c r="AA11" s="184">
         <f t="shared" ref="AA11" si="9">SUM(V11:V12,Y11:Y12)</f>
         <v>18</v>
       </c>
@@ -22863,9 +22863,9 @@
         <f t="shared" si="11"/>
         <v>20</v>
       </c>
-      <c r="O12" s="179"/>
-      <c r="P12" s="180"/>
-      <c r="Q12" s="181"/>
+      <c r="O12" s="192"/>
+      <c r="P12" s="193"/>
+      <c r="Q12" s="194"/>
       <c r="T12" s="31"/>
       <c r="U12" s="78"/>
       <c r="V12" s="33"/>
@@ -22873,7 +22873,7 @@
       <c r="X12" s="78"/>
       <c r="Y12" s="33"/>
       <c r="Z12" s="85"/>
-      <c r="AA12" s="177"/>
+      <c r="AA12" s="184"/>
     </row>
     <row r="13" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7"/>
@@ -22882,7 +22882,7 @@
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
       <c r="F13" s="90"/>
-      <c r="O13" s="206"/>
+      <c r="O13" s="201"/>
       <c r="P13" s="93"/>
       <c r="Q13" s="94"/>
       <c r="T13" s="47" t="s">
@@ -22906,7 +22906,7 @@
       <c r="Z13" s="79" t="s">
         <v>68</v>
       </c>
-      <c r="AA13" s="177">
+      <c r="AA13" s="184">
         <f t="shared" ref="AA13" si="12">SUM(V13:V14,Y13:Y14)</f>
         <v>18</v>
       </c>
@@ -22928,7 +22928,7 @@
       <c r="X14" s="81"/>
       <c r="Y14" s="37"/>
       <c r="Z14" s="83"/>
-      <c r="AA14" s="177"/>
+      <c r="AA14" s="184"/>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="95"/>
@@ -22961,7 +22961,7 @@
       <c r="Z15" s="85" t="s">
         <v>68</v>
       </c>
-      <c r="AA15" s="177">
+      <c r="AA15" s="184">
         <f t="shared" ref="AA15" si="13">SUM(V15:V16,Y15:Y16)</f>
         <v>18</v>
       </c>
@@ -22983,7 +22983,7 @@
       <c r="X16" s="78"/>
       <c r="Y16" s="33"/>
       <c r="Z16" s="85"/>
-      <c r="AA16" s="177"/>
+      <c r="AA16" s="184"/>
     </row>
     <row r="17" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
@@ -23016,7 +23016,7 @@
       <c r="Z17" s="79" t="s">
         <v>68</v>
       </c>
-      <c r="AA17" s="177">
+      <c r="AA17" s="184">
         <f t="shared" ref="AA17" si="14">SUM(V17:V18,Y17:Y18)</f>
         <v>16</v>
       </c>
@@ -23038,7 +23038,7 @@
       <c r="X18" s="96"/>
       <c r="Y18" s="65"/>
       <c r="Z18" s="98"/>
-      <c r="AA18" s="178"/>
+      <c r="AA18" s="198"/>
     </row>
     <row r="19" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
@@ -23196,12 +23196,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="AA7:AA8"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="U3:W3"/>
-    <mergeCell ref="X3:Z3"/>
-    <mergeCell ref="AA3:AA4"/>
-    <mergeCell ref="AA5:AA6"/>
     <mergeCell ref="AA17:AA18"/>
     <mergeCell ref="AA9:AA10"/>
     <mergeCell ref="AA11:AA12"/>
@@ -23209,6 +23203,12 @@
     <mergeCell ref="P12:Q12"/>
     <mergeCell ref="AA13:AA14"/>
     <mergeCell ref="AA15:AA16"/>
+    <mergeCell ref="AA7:AA8"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="U3:W3"/>
+    <mergeCell ref="X3:Z3"/>
+    <mergeCell ref="AA3:AA4"/>
+    <mergeCell ref="AA5:AA6"/>
   </mergeCells>
   <conditionalFormatting sqref="Y20">
     <cfRule type="cellIs" dxfId="3" priority="3" operator="notEqual">
